--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23516"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2055" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{BB9B0BB6-946F-40AD-9220-F166B022C456}"/>
+  <xr:revisionPtr revIDLastSave="2056" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B931484C-2758-40F1-A60F-11B147335F6C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <sheet name="brainstorming" sheetId="4" r:id="rId11"/>
     <sheet name="Sheet3" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1194,9 +1197,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1485,7 +1488,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2632,7 +2635,7 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2646,7 +2649,7 @@
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2660,7 +2663,7 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
@@ -2669,7 +2672,7 @@
     <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>261</v>
       </c>
@@ -2677,7 +2680,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>265</v>
       </c>
@@ -2693,17 +2696,17 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="O12" s="1" t="s">
         <v>190</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="F13" s="1" t="s">
         <v>271</v>
       </c>
@@ -2728,7 +2731,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="F14" s="12" t="s">
         <v>274</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="F15" t="s">
         <v>277</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="F16" t="s">
         <v>281</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="F17" t="s">
         <v>283</v>
       </c>
@@ -2781,22 +2784,22 @@
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="O18" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="F20" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="D31" t="s">
         <v>289</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19">
       <c r="B33" t="s">
         <v>190</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19">
       <c r="C34" t="s">
         <v>272</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19">
       <c r="C35" t="s">
         <v>279</v>
       </c>
@@ -2884,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19">
       <c r="D36" t="s">
         <v>292</v>
       </c>
@@ -2898,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19">
       <c r="D37" s="43" t="s">
         <v>18</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19">
       <c r="C38" t="s">
         <v>286</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19">
       <c r="C39" t="s">
         <v>272</v>
       </c>
@@ -2928,27 +2931,27 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19">
       <c r="K40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19">
       <c r="K41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19">
       <c r="K42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="H52" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
         <v>295</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="E54" s="1" t="s">
         <v>297</v>
       </c>
@@ -2993,23 +2996,23 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="L55">
         <f>L54/60/60</f>
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="F59" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="B60" t="s">
         <v>300</v>
       </c>
@@ -3017,17 +3020,17 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="E61" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="E62" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="B65" t="s">
         <v>104</v>
       </c>
@@ -3035,12 +3038,12 @@
         <v>303</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="B68" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>305</v>
       </c>
@@ -3051,7 +3054,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>307</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>309</v>
       </c>
@@ -3092,7 +3095,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
@@ -3100,12 +3103,12 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
@@ -3115,7 +3118,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="B4" t="s">
         <v>314</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="B5" t="s">
         <v>317</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="H6" t="s">
         <v>321</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
         <v>323</v>
@@ -3197,7 +3200,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="H8" t="s">
         <v>322</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>325</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="H10" t="s">
         <v>324</v>
       </c>
@@ -3234,12 +3237,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="B11" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="B12" t="s">
         <v>296</v>
       </c>
@@ -3251,7 +3254,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="J16" t="s">
         <v>327</v>
       </c>
@@ -3259,12 +3262,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:10">
       <c r="J19" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="1048576" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="15:15">
       <c r="O1048576" t="s">
         <v>316</v>
       </c>
@@ -3283,7 +3286,7 @@
       <selection activeCell="D4" sqref="D4:AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
@@ -3310,7 +3313,7 @@
     <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3351,7 +3354,7 @@
       </c>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -3438,7 +3441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -3519,7 +3522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="L4" s="3" t="s">
         <v>38</v>
       </c>
@@ -3545,11 +3548,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AV80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1" outlineLevel="1"/>
     <col min="2" max="3" width="13.140625" customWidth="1" outlineLevel="1"/>
@@ -3563,8 +3566,10 @@
     <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" style="132" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="26.5703125" customWidth="1"/>
-    <col min="19" max="19" width="26.5703125" style="98" customWidth="1"/>
+    <col min="16" max="16" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" style="98" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -3588,7 +3593,7 @@
     <col min="48" max="48" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>39</v>
@@ -3652,7 +3657,7 @@
       <c r="AU1" s="67"/>
       <c r="AV1" s="67"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>45</v>
@@ -3734,7 +3739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -3880,7 +3885,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" ht="12" customHeight="1">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -3930,7 +3935,7 @@
       <c r="AU4" s="59"/>
       <c r="AV4" s="59"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -4046,7 +4051,7 @@
       <c r="AU5" s="18"/>
       <c r="AV5" s="15"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -4116,7 +4121,7 @@
       <c r="AU6" s="18"/>
       <c r="AV6" s="15"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4174,7 +4179,7 @@
       <c r="AU7" s="69"/>
       <c r="AV7" s="69"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -4262,7 +4267,7 @@
       </c>
       <c r="AV8" s="15"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -4318,7 +4323,7 @@
       <c r="AU9" s="15"/>
       <c r="AV9" s="15"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -4368,7 +4373,7 @@
       <c r="AU10" s="69"/>
       <c r="AV10" s="69"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -4460,7 +4465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -4516,7 +4521,7 @@
       <c r="AU12" s="15"/>
       <c r="AV12" s="15"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="H13" s="138"/>
@@ -4530,7 +4535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -4580,7 +4585,7 @@
       <c r="AU14" s="69"/>
       <c r="AV14" s="69"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -4662,7 +4667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -4712,7 +4717,7 @@
       <c r="AU16" s="56"/>
       <c r="AV16" s="56"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -4808,7 +4813,7 @@
       <c r="AU17" s="18"/>
       <c r="AV17" s="15"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -4857,7 +4862,7 @@
       <c r="AU18" s="69"/>
       <c r="AV18" s="69"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -4948,7 +4953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -5000,7 +5005,7 @@
       <c r="AU20" s="15"/>
       <c r="AV20" s="15"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="AL21" s="84" t="s">
@@ -5013,7 +5018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="T22" s="69"/>
@@ -5046,7 +5051,7 @@
       <c r="AU22" s="69"/>
       <c r="AV22" s="69"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="E23" s="15"/>
@@ -5115,7 +5120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -5165,7 +5170,7 @@
       <c r="AU24" s="56"/>
       <c r="AV24" s="56"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -5263,7 +5268,7 @@
       <c r="AU25" s="18"/>
       <c r="AV25" s="15"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -5312,7 +5317,7 @@
       <c r="AU26" s="69"/>
       <c r="AV26" s="69"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -5393,7 +5398,7 @@
       <c r="AU27" s="18"/>
       <c r="AV27" s="15"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -5448,7 +5453,7 @@
       <c r="AU28" s="15"/>
       <c r="AV28" s="15"/>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -5497,7 +5502,7 @@
       <c r="AU29" s="69"/>
       <c r="AV29" s="69"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -5588,7 +5593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -5640,7 +5645,7 @@
       <c r="AU31" s="15"/>
       <c r="AV31" s="15"/>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="AL32" s="84" t="s">
@@ -5653,7 +5658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="T33" s="69"/>
@@ -5686,7 +5691,7 @@
       <c r="AU33" s="69"/>
       <c r="AV33" s="69"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="E34" s="15"/>
@@ -5755,7 +5760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -5805,7 +5810,7 @@
       <c r="AU35" s="56"/>
       <c r="AV35" s="56"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -5893,7 +5898,7 @@
       <c r="AU36" s="15"/>
       <c r="AV36" s="15"/>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -5943,7 +5948,7 @@
       <c r="AU37" s="69"/>
       <c r="AV37" s="69"/>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -6021,7 +6026,7 @@
       <c r="AU38" s="18"/>
       <c r="AV38" s="15"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -6071,7 +6076,7 @@
       <c r="AU39" s="69"/>
       <c r="AV39" s="69"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="T40" s="15" t="s">
@@ -6136,7 +6141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -6186,7 +6191,7 @@
       <c r="AU41" s="56"/>
       <c r="AV41" s="56"/>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -6278,7 +6283,7 @@
       <c r="AU42" s="15"/>
       <c r="AV42" s="15"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="T43" s="69"/>
@@ -6311,7 +6316,7 @@
       <c r="AU43" s="69"/>
       <c r="AV43" s="69"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="T44" s="15" t="s">
@@ -6376,7 +6381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -6426,7 +6431,7 @@
       <c r="AU45" s="56"/>
       <c r="AV45" s="56"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -6518,7 +6523,7 @@
       <c r="AU46" s="15"/>
       <c r="AV46" s="15"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -6568,7 +6573,7 @@
       <c r="AU47" s="69"/>
       <c r="AV47" s="69"/>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="T48" s="15" t="s">
@@ -6633,7 +6638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -6683,7 +6688,7 @@
       <c r="AU49" s="56"/>
       <c r="AV49" s="56"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -6783,7 +6788,7 @@
       <c r="AU50" s="15"/>
       <c r="AV50" s="15"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -6841,7 +6846,7 @@
       <c r="AU51" s="69"/>
       <c r="AV51" s="69"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -6933,7 +6938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -6989,7 +6994,7 @@
       <c r="AU53" s="15"/>
       <c r="AV53" s="15"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="AL54" s="84" t="s">
@@ -7002,7 +7007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:48">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="T55" s="69"/>
@@ -7035,7 +7040,7 @@
       <c r="AU55" s="69"/>
       <c r="AV55" s="69"/>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:48">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="T56" s="15" t="s">
@@ -7100,7 +7105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:48" ht="12" customHeight="1">
       <c r="A57" s="59"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -7150,7 +7155,7 @@
       <c r="AU57" s="59"/>
       <c r="AV57" s="59"/>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:48">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="41"/>
@@ -7254,7 +7259,7 @@
       <c r="AU58" s="18"/>
       <c r="AV58" s="15"/>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:48">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="41"/>
@@ -7304,7 +7309,7 @@
       <c r="AU59" s="69"/>
       <c r="AV59" s="69"/>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:48">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -7396,7 +7401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:48">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -7452,7 +7457,7 @@
       <c r="AU61" s="15"/>
       <c r="AV61" s="15"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="T62" s="45"/>
@@ -7466,7 +7471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -7516,7 +7521,7 @@
       <c r="AU63" s="69"/>
       <c r="AV63" s="69"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -7598,7 +7603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:48" ht="12" customHeight="1">
       <c r="A65" s="59"/>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
@@ -7648,7 +7653,7 @@
       <c r="AU65" s="59"/>
       <c r="AV65" s="59"/>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:48">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="41"/>
@@ -7752,7 +7757,7 @@
       <c r="AU66" s="18"/>
       <c r="AV66" s="15"/>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:48">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="41"/>
@@ -7804,7 +7809,7 @@
       <c r="AU67" s="69"/>
       <c r="AV67" s="69"/>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:48">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -7896,7 +7901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:48">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -7952,7 +7957,7 @@
       <c r="AU69" s="15"/>
       <c r="AV69" s="15"/>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:48">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="T70" s="45"/>
@@ -7966,7 +7971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:48">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -8016,7 +8021,7 @@
       <c r="AU71" s="69"/>
       <c r="AV71" s="69"/>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:48">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -8098,7 +8103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:48">
       <c r="A73" s="63"/>
       <c r="B73" s="63"/>
       <c r="C73" s="63"/>
@@ -8148,7 +8153,7 @@
       <c r="AU73" s="63"/>
       <c r="AV73" s="63"/>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:48">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -8260,7 +8265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:48">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -8324,7 +8329,7 @@
       <c r="AU75" s="15"/>
       <c r="AV75" s="15"/>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:48">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="95"/>
@@ -8688,14 +8693,14 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
         <v>122</v>
@@ -8710,7 +8715,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>122</v>
       </c>
@@ -8725,7 +8730,7 @@
       </c>
       <c r="Q3" s="28"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="B4" t="s">
         <v>129</v>
       </c>
@@ -8736,7 +8741,7 @@
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="B5" t="s">
         <v>130</v>
       </c>
@@ -8747,7 +8752,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="B6" t="s">
         <v>131</v>
       </c>
@@ -8758,7 +8763,7 @@
       </c>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="B7" t="s">
         <v>132</v>
       </c>
@@ -8766,27 +8771,27 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="T8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="T9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="T10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="T11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
@@ -8794,12 +8799,12 @@
       </c>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="T13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
@@ -8807,22 +8812,22 @@
       </c>
       <c r="T14" s="31"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="T15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="T16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:20">
       <c r="T17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:20">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
         <v>142</v>
@@ -8830,7 +8835,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
     </row>
-    <row r="19" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:20">
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
@@ -8838,78 +8843,78 @@
       </c>
       <c r="T19" s="31"/>
     </row>
-    <row r="20" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:20">
       <c r="T20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:20">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:20">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:20">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:20">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:20">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:20">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:20">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:20">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:20">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:20">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:20">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:20">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
         <v>153</v>
@@ -8917,7 +8922,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
     </row>
-    <row r="33" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="17:20">
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
@@ -8925,13 +8930,13 @@
       </c>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="17:20">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="17:20">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
@@ -8939,13 +8944,13 @@
       </c>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="17:20">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="17:20">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
         <v>157</v>
@@ -8953,7 +8958,7 @@
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
     </row>
-    <row r="38" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="17:20">
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
@@ -8961,13 +8966,13 @@
       </c>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="17:20">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="17:20">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
@@ -8975,7 +8980,7 @@
       </c>
       <c r="T40" s="31"/>
     </row>
-    <row r="41" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="17:20">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
         <v>160</v>
@@ -8995,7 +9000,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.7109375" customWidth="1"/>
@@ -9008,7 +9013,7 @@
     <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -9022,7 +9027,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -9048,7 +9053,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -9074,7 +9079,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="E4" t="s">
         <v>78</v>
       </c>
@@ -9088,7 +9093,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -9105,7 +9110,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -9125,7 +9130,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -9136,7 +9141,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -9162,7 +9167,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>169</v>
       </c>
@@ -9173,7 +9178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -9184,7 +9189,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>171</v>
       </c>
@@ -9192,7 +9197,7 @@
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -9219,7 +9224,7 @@
       </c>
       <c r="J12" s="45"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>174</v>
       </c>
@@ -9227,22 +9232,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="42" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>178</v>
       </c>
@@ -9262,7 +9267,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -9296,14 +9301,14 @@
       <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
@@ -9320,7 +9325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -9334,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -9345,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>180</v>
       </c>
@@ -9362,7 +9367,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>183</v>
       </c>
@@ -9376,7 +9381,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -9384,7 +9389,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -9392,7 +9397,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>188</v>
       </c>
@@ -9403,7 +9408,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="B10" s="3" t="s">
         <v>189</v>
       </c>
@@ -9428,7 +9433,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -9454,7 +9459,7 @@
     <col min="35" max="35" width="2.42578125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1">
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -9491,7 +9496,7 @@
       <c r="AH1" s="4"/>
       <c r="AI1" s="46"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="1" customFormat="1">
       <c r="C2" s="1" t="s">
         <v>191</v>
       </c>
@@ -9541,7 +9546,7 @@
       <c r="AH2" s="4"/>
       <c r="AI2" s="46"/>
     </row>
-    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -9637,7 +9642,7 @@
       </c>
       <c r="AI3" s="46"/>
     </row>
-    <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="15" customFormat="1">
       <c r="A4" s="15" t="s">
         <v>28</v>
       </c>
@@ -9709,7 +9714,7 @@
       <c r="AH4" s="18"/>
       <c r="AI4" s="47"/>
     </row>
-    <row r="5" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="47" customFormat="1">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="Q5" s="50"/>
@@ -9730,7 +9735,7 @@
       <c r="AG5" s="50"/>
       <c r="AH5" s="50"/>
     </row>
-    <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" s="15" customFormat="1">
       <c r="C6" s="15" t="s">
         <v>87</v>
       </c>
@@ -9790,7 +9795,7 @@
       <c r="AH6" s="18"/>
       <c r="AI6" s="47"/>
     </row>
-    <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" s="15" customFormat="1">
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
@@ -9819,7 +9824,7 @@
       <c r="AD7" s="50"/>
       <c r="AI7" s="47"/>
     </row>
-    <row r="8" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" s="47" customFormat="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="Q8" s="50"/>
@@ -9836,7 +9841,7 @@
       <c r="AC8" s="50"/>
       <c r="AD8" s="50"/>
     </row>
-    <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" s="15" customFormat="1">
       <c r="C9" s="15" t="s">
         <v>198</v>
       </c>
@@ -9904,7 +9909,7 @@
       </c>
       <c r="AI9" s="47"/>
     </row>
-    <row r="10" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" s="15" customFormat="1">
       <c r="V10" s="47"/>
       <c r="W10" s="15" t="s">
         <v>38</v>
@@ -9922,7 +9927,7 @@
       <c r="AD10" s="50"/>
       <c r="AI10" s="47"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="W11" s="15" t="s">
         <v>37</v>
       </c>
@@ -9933,7 +9938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="15" customFormat="1">
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
@@ -9949,7 +9954,7 @@
       <c r="AD12" s="50"/>
       <c r="AI12" s="47"/>
     </row>
-    <row r="13" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" s="15" customFormat="1">
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
@@ -9965,7 +9970,7 @@
       <c r="AD13" s="50"/>
       <c r="AI13" s="47"/>
     </row>
-    <row r="14" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" s="56" customFormat="1">
       <c r="Q14" s="57"/>
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
@@ -9980,7 +9985,7 @@
       <c r="AC14" s="57"/>
       <c r="AD14" s="57"/>
     </row>
-    <row r="15" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" s="15" customFormat="1">
       <c r="A15" s="15" t="s">
         <v>28</v>
       </c>
@@ -10066,7 +10071,7 @@
       </c>
       <c r="AI15" s="47"/>
     </row>
-    <row r="16" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" s="15" customFormat="1">
       <c r="C16" s="15" t="s">
         <v>99</v>
       </c>
@@ -10128,7 +10133,7 @@
       </c>
       <c r="AI16" s="47"/>
     </row>
-    <row r="17" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" s="15" customFormat="1">
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
@@ -10157,7 +10162,7 @@
       <c r="AD17" s="50"/>
       <c r="AI17" s="47"/>
     </row>
-    <row r="18" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" s="15" customFormat="1">
       <c r="C18" s="15" t="s">
         <v>201</v>
       </c>
@@ -10207,7 +10212,7 @@
       <c r="AD18" s="50"/>
       <c r="AI18" s="47"/>
     </row>
-    <row r="19" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" s="15" customFormat="1">
       <c r="V19" s="47"/>
       <c r="W19" s="15" t="s">
         <v>38</v>
@@ -10225,7 +10230,7 @@
       <c r="AD19" s="50"/>
       <c r="AI19" s="47"/>
     </row>
-    <row r="20" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" s="15" customFormat="1">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -10267,7 +10272,7 @@
       <c r="AH20"/>
       <c r="AI20" s="47"/>
     </row>
-    <row r="21" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" s="15" customFormat="1">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
@@ -10321,7 +10326,7 @@
       <c r="AH21"/>
       <c r="AI21" s="47"/>
     </row>
-    <row r="22" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" s="15" customFormat="1">
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
@@ -10337,7 +10342,7 @@
       <c r="AD22" s="50"/>
       <c r="AI22" s="47"/>
     </row>
-    <row r="23" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" s="15" customFormat="1">
       <c r="C23" s="15" t="s">
         <v>118</v>
       </c>
@@ -10413,7 +10418,7 @@
       </c>
       <c r="AI23" s="47"/>
     </row>
-    <row r="24" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" s="15" customFormat="1">
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
@@ -10451,7 +10456,7 @@
       </c>
       <c r="AI24" s="47"/>
     </row>
-    <row r="25" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" s="15" customFormat="1">
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
@@ -10467,7 +10472,7 @@
       <c r="AD25" s="50"/>
       <c r="AI25" s="47"/>
     </row>
-    <row r="26" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" s="15" customFormat="1">
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
@@ -10483,7 +10488,7 @@
       <c r="AD26" s="50"/>
       <c r="AI26" s="47"/>
     </row>
-    <row r="27" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" s="15" customFormat="1">
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
@@ -10499,7 +10504,7 @@
       <c r="AD27" s="50"/>
       <c r="AI27" s="47"/>
     </row>
-    <row r="28" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" s="15" customFormat="1">
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
@@ -10515,7 +10520,7 @@
       <c r="AD28" s="50"/>
       <c r="AI28" s="47"/>
     </row>
-    <row r="29" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" s="15" customFormat="1">
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
@@ -10531,7 +10536,7 @@
       <c r="AD29" s="50"/>
       <c r="AI29" s="47"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1"/>
     </row>
   </sheetData>
@@ -10583,14 +10588,14 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
@@ -10616,7 +10621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -10636,7 +10641,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -10647,7 +10652,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="C5" t="s">
         <v>198</v>
       </c>
@@ -10664,7 +10669,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="D6">
         <v>1</v>
       </c>
@@ -10675,7 +10680,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="D7">
         <v>4</v>
       </c>
@@ -10686,7 +10691,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="D8">
         <v>52</v>
       </c>
@@ -10698,7 +10703,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="D9">
         <v>208</v>
       </c>
@@ -10709,7 +10714,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>126</v>
       </c>
@@ -10729,7 +10734,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -10752,7 +10757,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="C14" t="s">
         <v>87</v>
       </c>
@@ -10766,7 +10771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="C15" t="s">
         <v>96</v>
       </c>
@@ -10780,7 +10785,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="C16" t="s">
         <v>93</v>
       </c>
@@ -10807,14 +10812,14 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -10822,7 +10827,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
@@ -10834,7 +10839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="32" t="s">
         <v>210</v>
       </c>
@@ -10848,7 +10853,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="32" t="s">
         <v>210</v>
       </c>
@@ -10862,7 +10867,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
         <v>210</v>
       </c>
@@ -10876,7 +10881,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="32" t="s">
         <v>210</v>
       </c>
@@ -10890,7 +10895,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="32" t="s">
         <v>210</v>
       </c>
@@ -10904,7 +10909,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="32" t="s">
         <v>210</v>
       </c>
@@ -10918,7 +10923,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="32" t="s">
         <v>210</v>
       </c>
@@ -10932,7 +10937,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="32" t="s">
         <v>210</v>
       </c>
@@ -10946,7 +10951,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="32" t="s">
         <v>210</v>
       </c>
@@ -10960,7 +10965,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="32" t="s">
         <v>210</v>
       </c>
@@ -10974,7 +10979,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="32" t="s">
         <v>210</v>
       </c>
@@ -10988,7 +10993,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="32" t="s">
         <v>210</v>
       </c>
@@ -11002,7 +11007,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="32" t="s">
         <v>210</v>
       </c>
@@ -11016,7 +11021,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="33" t="s">
         <v>225</v>
       </c>
@@ -11030,7 +11035,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="33" t="s">
         <v>225</v>
       </c>
@@ -11044,7 +11049,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="32" t="s">
         <v>210</v>
       </c>
@@ -11058,7 +11063,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32" t="e">
@@ -11066,7 +11071,7 @@
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35" t="e">
@@ -11074,7 +11079,7 @@
       </c>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="32" t="s">
         <v>228</v>
       </c>
@@ -11088,7 +11093,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="33" t="s">
         <v>228</v>
       </c>
@@ -11102,7 +11107,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="32" t="s">
         <v>228</v>
       </c>
@@ -11116,7 +11121,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="33" t="s">
         <v>228</v>
       </c>
@@ -11130,7 +11135,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="32" t="s">
         <v>228</v>
       </c>
@@ -11144,7 +11149,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35" t="e">
@@ -11152,7 +11157,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="32" t="s">
         <v>235</v>
       </c>
@@ -11166,7 +11171,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="33" t="s">
         <v>235</v>
       </c>
@@ -11180,7 +11185,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="32" t="s">
         <v>235</v>
       </c>
@@ -11194,7 +11199,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="33" t="s">
         <v>239</v>
       </c>
@@ -11208,7 +11213,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="32" t="s">
         <v>239</v>
       </c>
@@ -11222,7 +11227,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="33" t="s">
         <v>240</v>
       </c>
@@ -11236,7 +11241,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35" t="e">
@@ -11244,7 +11249,7 @@
       </c>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="33" t="s">
         <v>242</v>
       </c>
@@ -11258,7 +11263,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="32" t="s">
         <v>242</v>
       </c>
@@ -11272,7 +11277,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="33" t="s">
         <v>242</v>
       </c>
@@ -11286,7 +11291,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="32" t="s">
         <v>246</v>
       </c>
@@ -11300,7 +11305,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="33" t="s">
         <v>246</v>
       </c>
@@ -11314,7 +11319,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37" t="e">
@@ -11322,7 +11327,7 @@
       </c>
       <c r="D40" s="38"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35" t="e">
@@ -11330,7 +11335,7 @@
       </c>
       <c r="D41" s="35"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="32" t="s">
         <v>247</v>
       </c>
@@ -11344,7 +11349,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35" t="e">
@@ -11352,7 +11357,7 @@
       </c>
       <c r="D43" s="35"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="32" t="s">
         <v>248</v>
       </c>
@@ -11366,7 +11371,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="33" t="s">
         <v>248</v>
       </c>
@@ -11380,7 +11385,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="32" t="s">
         <v>250</v>
       </c>
@@ -11394,7 +11399,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="33" t="s">
         <v>250</v>
       </c>
@@ -11408,7 +11413,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="32" t="s">
         <v>250</v>
       </c>
@@ -11422,7 +11427,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="33" t="s">
         <v>253</v>
       </c>
@@ -11436,7 +11441,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="32" t="s">
         <v>253</v>
       </c>
@@ -11450,7 +11455,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="33" t="s">
         <v>253</v>
       </c>
@@ -11464,7 +11469,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="32" t="s">
         <v>253</v>
       </c>
@@ -11478,7 +11483,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="33" t="s">
         <v>253</v>
       </c>
@@ -11492,7 +11497,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="32" t="s">
         <v>255</v>
       </c>
@@ -11506,7 +11511,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="33" t="s">
         <v>255</v>
       </c>
@@ -11520,7 +11525,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="32" t="s">
         <v>255</v>
       </c>
@@ -11534,7 +11539,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="33" t="s">
         <v>255</v>
       </c>
@@ -11548,7 +11553,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="32" t="s">
         <v>256</v>
       </c>
@@ -11562,7 +11567,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="33" t="s">
         <v>256</v>
       </c>
@@ -11576,7 +11581,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="35" t="e">
@@ -11584,7 +11589,7 @@
       </c>
       <c r="D60" s="35"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="33" t="s">
         <v>257</v>
       </c>
@@ -11598,7 +11603,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="32" t="s">
         <v>257</v>
       </c>
@@ -11612,7 +11617,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="33" t="s">
         <v>258</v>
       </c>
@@ -11626,7 +11631,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="32" t="s">
         <v>258</v>
       </c>
@@ -11640,7 +11645,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="33" t="s">
         <v>258</v>
       </c>
@@ -11654,7 +11659,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="32" t="s">
         <v>258</v>
       </c>
@@ -11668,7 +11673,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="37"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37" t="e">
@@ -11676,7 +11681,7 @@
       </c>
       <c r="D67" s="38"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="35"/>
       <c r="B68" s="35"/>
       <c r="C68" s="35" t="e">
@@ -11684,7 +11689,7 @@
       </c>
       <c r="D68" s="35"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="33" t="s">
         <v>259</v>
       </c>
@@ -11698,7 +11703,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="32" t="s">
         <v>260</v>
       </c>
@@ -11712,7 +11717,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="33" t="s">
         <v>260</v>
       </c>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23516"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2056" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B931484C-2758-40F1-A60F-11B147335F6C}"/>
+  <xr:revisionPtr revIDLastSave="2058" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{51A3BD8F-45B0-49FA-9478-4BEEAF84D39D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <sheet name="brainstorming" sheetId="4" r:id="rId11"/>
     <sheet name="Sheet3" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,10 +34,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -200,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="331">
   <si>
     <t>Cause</t>
   </si>
@@ -508,9 +505,6 @@
     <t>step</t>
   </si>
   <si>
-    <t>assisted_failures</t>
-  </si>
-  <si>
     <t>fire_damage</t>
   </si>
   <si>
@@ -1190,6 +1184,12 @@
   </si>
   <si>
     <t>pole_strength / actual load</t>
+  </si>
+  <si>
+    <t>groundline</t>
+  </si>
+  <si>
+    <t>protection_trip</t>
   </si>
 </sst>
 </file>
@@ -1197,9 +1197,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1488,7 +1488,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2635,7 +2635,7 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2649,7 +2649,7 @@
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2663,7 +2663,7 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
@@ -2672,136 +2672,136 @@
     <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" t="s">
         <v>261</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
+      <c r="F5" t="s">
         <v>263</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
+      <c r="N6" t="s">
         <v>265</v>
       </c>
-      <c r="N6" t="s">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="O12" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="S12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="F13" s="1" t="s">
+      <c r="O13" t="s">
         <v>271</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
+        <v>164</v>
+      </c>
+      <c r="S13" t="s">
         <v>272</v>
       </c>
-      <c r="Q13" t="s">
-        <v>165</v>
-      </c>
-      <c r="S13" t="s">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F14" s="12" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="F14" s="12" t="s">
+      <c r="O14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q14" t="s">
         <v>274</v>
       </c>
-      <c r="O14" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>275</v>
       </c>
-      <c r="S14" t="s">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="F15" t="s">
+      <c r="J15" t="s">
         <v>277</v>
       </c>
-      <c r="J15" t="s">
+      <c r="O15" t="s">
         <v>278</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>279</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
         <v>280</v>
-      </c>
-      <c r="S15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="F16" t="s">
-        <v>281</v>
       </c>
       <c r="Q16" t="s">
         <v>95</v>
       </c>
       <c r="S16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="F17" t="s">
+      <c r="O17" t="s">
         <v>283</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>284</v>
       </c>
-      <c r="Q17" t="s">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
-      <c r="O18" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
-      <c r="F20" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
-      <c r="A27" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="D31" t="s">
-        <v>289</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -2813,72 +2813,72 @@
         <v>88</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>94</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K33" t="s">
         <v>51</v>
       </c>
       <c r="R33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s">
         <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S34">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="2:19">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R35" t="s">
         <v>95</v>
@@ -2887,21 +2887,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:19">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:19">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D37" s="43" t="s">
         <v>18</v>
       </c>
@@ -2909,68 +2909,68 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:19">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:19">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="1" t="s">
+      <c r="F53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="E54" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -2996,84 +2996,84 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L55">
         <f>L54/60/60</f>
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="F59" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="B60" t="s">
-        <v>300</v>
       </c>
       <c r="E60" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="E62" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="B65" t="s">
-        <v>104</v>
-      </c>
-      <c r="C65" s="15" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="B68" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>305</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>307</v>
       </c>
       <c r="B70">
         <v>250</v>
       </c>
       <c r="C70" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>309</v>
       </c>
       <c r="B71">
         <v>12.5</v>
       </c>
       <c r="C71" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3095,7 +3095,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
@@ -3103,50 +3103,50 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="S3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="B4" t="s">
+      <c r="I4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J4" t="s">
+        <v>312</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I4" t="s">
-        <v>312</v>
-      </c>
-      <c r="J4" t="s">
-        <v>313</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" t="s">
         <v>315</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>316</v>
       </c>
-      <c r="S4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="B5" t="s">
-        <v>317</v>
-      </c>
       <c r="H5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -3156,18 +3156,18 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="R5" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="R5" s="41" t="s">
+      <c r="S5" t="s">
         <v>319</v>
       </c>
-      <c r="S5" t="s">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="H6" t="s">
-        <v>321</v>
       </c>
       <c r="I6">
         <f>I5/4</f>
@@ -3179,72 +3179,72 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="R8" t="s">
+        <v>315</v>
+      </c>
+      <c r="S8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>324</v>
       </c>
-      <c r="R8" t="s">
-        <v>316</v>
-      </c>
-      <c r="S8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="s">
-        <v>325</v>
-      </c>
       <c r="H9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I12" s="9">
         <v>3.7</v>
@@ -3254,22 +3254,22 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
+        <v>326</v>
+      </c>
+      <c r="M16" t="s">
         <v>327</v>
       </c>
-      <c r="M16" t="s">
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="10:10">
-      <c r="J19" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="1048576" spans="15:15">
+    <row r="1048576" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O1048576" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3286,7 +3286,7 @@
       <selection activeCell="D4" sqref="D4:AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
@@ -3313,7 +3313,7 @@
     <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1">
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L4" s="3" t="s">
         <v>38</v>
       </c>
@@ -3548,11 +3548,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AV80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1" outlineLevel="1"/>
     <col min="2" max="3" width="13.140625" customWidth="1" outlineLevel="1"/>
@@ -3593,7 +3593,7 @@
     <col min="48" max="48" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>39</v>
@@ -3657,7 +3657,7 @@
       <c r="AU1" s="67"/>
       <c r="AV1" s="67"/>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>45</v>
@@ -3739,7 +3739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="12" customHeight="1">
+    <row r="4" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -3935,7 +3935,7 @@
       <c r="AU4" s="59"/>
       <c r="AV4" s="59"/>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -4013,7 +4013,7 @@
         <v>5</v>
       </c>
       <c r="AC5" s="97" t="s">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="AD5" s="15" t="s">
         <v>83</v>
@@ -4051,7 +4051,7 @@
       <c r="AU5" s="18"/>
       <c r="AV5" s="15"/>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -4121,7 +4121,7 @@
       <c r="AU6" s="18"/>
       <c r="AV6" s="15"/>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4179,7 +4179,7 @@
       <c r="AU7" s="69"/>
       <c r="AV7" s="69"/>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="AV8" s="15"/>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -4323,7 +4323,7 @@
       <c r="AU9" s="15"/>
       <c r="AV9" s="15"/>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -4373,7 +4373,7 @@
       <c r="AU10" s="69"/>
       <c r="AV10" s="69"/>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -4465,7 +4465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -4521,7 +4521,7 @@
       <c r="AU12" s="15"/>
       <c r="AV12" s="15"/>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="H13" s="138"/>
@@ -4535,7 +4535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -4585,7 +4585,7 @@
       <c r="AU14" s="69"/>
       <c r="AV14" s="69"/>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -4667,7 +4667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -4717,7 +4717,7 @@
       <c r="AU16" s="56"/>
       <c r="AV16" s="56"/>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -4783,7 +4783,7 @@
         <v>5</v>
       </c>
       <c r="AC17" s="97" t="s">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="AD17" s="15" t="s">
         <v>83</v>
@@ -4813,7 +4813,7 @@
       <c r="AU17" s="18"/>
       <c r="AV17" s="15"/>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -4862,7 +4862,7 @@
       <c r="AU18" s="69"/>
       <c r="AV18" s="69"/>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -4953,7 +4953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -5005,7 +5005,7 @@
       <c r="AU20" s="15"/>
       <c r="AV20" s="15"/>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="AL21" s="84" t="s">
@@ -5018,7 +5018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="T22" s="69"/>
@@ -5051,7 +5051,7 @@
       <c r="AU22" s="69"/>
       <c r="AV22" s="69"/>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="E23" s="15"/>
@@ -5120,7 +5120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -5170,7 +5170,7 @@
       <c r="AU24" s="56"/>
       <c r="AV24" s="56"/>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -5238,7 +5238,7 @@
         <v>5</v>
       </c>
       <c r="AC25" s="97" t="s">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="AD25" s="15" t="s">
         <v>83</v>
@@ -5268,7 +5268,7 @@
       <c r="AU25" s="18"/>
       <c r="AV25" s="15"/>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -5317,7 +5317,7 @@
       <c r="AU26" s="69"/>
       <c r="AV26" s="69"/>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -5398,7 +5398,7 @@
       <c r="AU27" s="18"/>
       <c r="AV27" s="15"/>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -5453,7 +5453,7 @@
       <c r="AU28" s="15"/>
       <c r="AV28" s="15"/>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -5502,7 +5502,7 @@
       <c r="AU29" s="69"/>
       <c r="AV29" s="69"/>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -5593,7 +5593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -5645,7 +5645,7 @@
       <c r="AU31" s="15"/>
       <c r="AV31" s="15"/>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="AL32" s="84" t="s">
@@ -5658,7 +5658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="T33" s="69"/>
@@ -5691,7 +5691,7 @@
       <c r="AU33" s="69"/>
       <c r="AV33" s="69"/>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="E34" s="15"/>
@@ -5760,7 +5760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -5810,7 +5810,7 @@
       <c r="AU35" s="56"/>
       <c r="AV35" s="56"/>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -5872,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="97" t="s">
-        <v>102</v>
+        <v>330</v>
       </c>
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
@@ -5898,7 +5898,7 @@
       <c r="AU36" s="15"/>
       <c r="AV36" s="15"/>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -5948,7 +5948,7 @@
       <c r="AU37" s="69"/>
       <c r="AV37" s="69"/>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -5994,7 +5994,7 @@
         <v>5</v>
       </c>
       <c r="AC38" s="97" t="s">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="AD38" s="15" t="s">
         <v>83</v>
@@ -6026,7 +6026,7 @@
       <c r="AU38" s="18"/>
       <c r="AV38" s="15"/>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -6076,7 +6076,7 @@
       <c r="AU39" s="69"/>
       <c r="AV39" s="69"/>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="T40" s="15" t="s">
@@ -6141,7 +6141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -6191,7 +6191,7 @@
       <c r="AU41" s="56"/>
       <c r="AV41" s="56"/>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -6201,7 +6201,7 @@
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J42" s="41" t="s">
         <v>101</v>
@@ -6253,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="97" t="s">
-        <v>102</v>
+        <v>330</v>
       </c>
       <c r="AD42" s="15"/>
       <c r="AE42" s="15"/>
@@ -6283,7 +6283,7 @@
       <c r="AU42" s="15"/>
       <c r="AV42" s="15"/>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="T43" s="69"/>
@@ -6316,7 +6316,7 @@
       <c r="AU43" s="69"/>
       <c r="AV43" s="69"/>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="T44" s="15" t="s">
@@ -6381,7 +6381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -6431,7 +6431,7 @@
       <c r="AU45" s="56"/>
       <c r="AV45" s="56"/>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -6441,7 +6441,7 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J46" s="41" t="s">
         <v>101</v>
@@ -6493,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="97" t="s">
-        <v>102</v>
+        <v>330</v>
       </c>
       <c r="AD46" s="15"/>
       <c r="AE46" s="15"/>
@@ -6523,7 +6523,7 @@
       <c r="AU46" s="15"/>
       <c r="AV46" s="15"/>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -6573,7 +6573,7 @@
       <c r="AU47" s="69"/>
       <c r="AV47" s="69"/>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="T48" s="15" t="s">
@@ -6638,7 +6638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -6688,7 +6688,7 @@
       <c r="AU49" s="56"/>
       <c r="AV49" s="56"/>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -6698,7 +6698,7 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J50" s="41" t="s">
         <v>78</v>
@@ -6752,7 +6752,7 @@
       <c r="AA50" s="15"/>
       <c r="AB50" s="15"/>
       <c r="AC50" s="97" t="s">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="AD50" s="15"/>
       <c r="AE50" s="15"/>
@@ -6788,7 +6788,7 @@
       <c r="AU50" s="15"/>
       <c r="AV50" s="15"/>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -6846,7 +6846,7 @@
       <c r="AU51" s="69"/>
       <c r="AV51" s="69"/>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -6938,7 +6938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -6994,7 +6994,7 @@
       <c r="AU53" s="15"/>
       <c r="AV53" s="15"/>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="AL54" s="84" t="s">
@@ -7007,7 +7007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="T55" s="69"/>
@@ -7040,7 +7040,7 @@
       <c r="AU55" s="69"/>
       <c r="AV55" s="69"/>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="T56" s="15" t="s">
@@ -7105,7 +7105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:48" ht="12" customHeight="1">
+    <row r="57" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="59"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -7155,15 +7155,15 @@
       <c r="AU57" s="59"/>
       <c r="AV57" s="59"/>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="41"/>
       <c r="D58" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" t="s">
         <v>106</v>
-      </c>
-      <c r="E58" t="s">
-        <v>107</v>
       </c>
       <c r="F58" t="s">
         <v>101</v>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J58" s="41" t="s">
         <v>78</v>
@@ -7194,7 +7194,7 @@
         <v>10</v>
       </c>
       <c r="P58" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q58" s="15"/>
       <c r="R58" s="15"/>
@@ -7227,7 +7227,7 @@
         <v>5</v>
       </c>
       <c r="AC58" s="97" t="s">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="AD58" s="15" t="s">
         <v>83</v>
@@ -7259,7 +7259,7 @@
       <c r="AU58" s="18"/>
       <c r="AV58" s="15"/>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="41"/>
@@ -7309,7 +7309,7 @@
       <c r="AU59" s="69"/>
       <c r="AV59" s="69"/>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -7401,7 +7401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -7457,7 +7457,7 @@
       <c r="AU61" s="15"/>
       <c r="AV61" s="15"/>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="T62" s="45"/>
@@ -7471,7 +7471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -7521,7 +7521,7 @@
       <c r="AU63" s="69"/>
       <c r="AV63" s="69"/>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -7603,7 +7603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:48" ht="12" customHeight="1">
+    <row r="65" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="59"/>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
@@ -7653,15 +7653,15 @@
       <c r="AU65" s="59"/>
       <c r="AV65" s="59"/>
     </row>
-    <row r="66" spans="1:48">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="41"/>
       <c r="D66" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" t="s">
         <v>110</v>
-      </c>
-      <c r="E66" t="s">
-        <v>111</v>
       </c>
       <c r="F66" t="s">
         <v>101</v>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J66" s="41" t="s">
         <v>78</v>
@@ -7725,7 +7725,7 @@
         <v>5</v>
       </c>
       <c r="AC66" s="97" t="s">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="AD66" s="15" t="s">
         <v>83</v>
@@ -7757,7 +7757,7 @@
       <c r="AU66" s="18"/>
       <c r="AV66" s="15"/>
     </row>
-    <row r="67" spans="1:48">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="41"/>
@@ -7809,7 +7809,7 @@
       <c r="AU67" s="69"/>
       <c r="AV67" s="69"/>
     </row>
-    <row r="68" spans="1:48">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -7830,7 +7830,7 @@
       <c r="R68" s="15"/>
       <c r="S68" s="97"/>
       <c r="T68" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U68" s="15">
         <v>1</v>
@@ -7901,7 +7901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:48">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -7957,7 +7957,7 @@
       <c r="AU69" s="15"/>
       <c r="AV69" s="15"/>
     </row>
-    <row r="70" spans="1:48">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="T70" s="45"/>
@@ -7971,7 +7971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:48">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -8021,7 +8021,7 @@
       <c r="AU71" s="69"/>
       <c r="AV71" s="69"/>
     </row>
-    <row r="72" spans="1:48">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -8042,7 +8042,7 @@
       <c r="R72" s="15"/>
       <c r="S72" s="97"/>
       <c r="T72" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U72" s="15">
         <v>1</v>
@@ -8103,7 +8103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:48">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A73" s="63"/>
       <c r="B73" s="63"/>
       <c r="C73" s="63"/>
@@ -8153,21 +8153,21 @@
       <c r="AU73" s="63"/>
       <c r="AV73" s="63"/>
     </row>
-    <row r="74" spans="1:48">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
       <c r="D74" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>115</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
       <c r="I74" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J74" s="15" t="s">
         <v>78</v>
@@ -8188,13 +8188,13 @@
         <v>10</v>
       </c>
       <c r="P74" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q74" s="15"/>
       <c r="R74" s="15"/>
       <c r="S74" s="97"/>
       <c r="T74" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U74" s="15">
         <v>0.9</v>
@@ -8206,7 +8206,7 @@
         <v>2</v>
       </c>
       <c r="X74" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y74" s="15" t="s">
         <v>89</v>
@@ -8215,7 +8215,7 @@
       <c r="AA74" s="15"/>
       <c r="AB74" s="15"/>
       <c r="AC74" s="97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD74" s="15" t="s">
         <v>84</v>
@@ -8258,20 +8258,20 @@
         <v>50</v>
       </c>
       <c r="AT74" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AU74" s="15"/>
       <c r="AV74" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:48">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
       <c r="D75" s="97"/>
       <c r="E75" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
@@ -8324,12 +8324,12 @@
         <v>50</v>
       </c>
       <c r="AT75" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AU75" s="15"/>
       <c r="AV75" s="15"/>
     </row>
-    <row r="80" spans="1:48">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="95"/>
@@ -8693,57 +8693,57 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="T2" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="T2" s="27" t="s">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>126</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>127</v>
       </c>
-      <c r="D3" t="s">
+      <c r="Q3" s="28"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="28"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="B4" t="s">
-        <v>129</v>
-      </c>
       <c r="Q4" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="30" t="s">
@@ -8752,9 +8752,9 @@
       <c r="S5" s="29"/>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
@@ -8763,227 +8763,227 @@
       </c>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="T7" t="s">
         <v>132</v>
       </c>
-      <c r="T7" t="s">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="T8" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="T9" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="T10" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="T11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="T14" s="31"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
         <v>138</v>
       </c>
-      <c r="T14" s="31"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="T15" t="s">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="T16" t="s">
+    <row r="17" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="T17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="17:20">
-      <c r="T17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="17:20">
+    <row r="18" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
     </row>
-    <row r="19" spans="17:20">
+    <row r="19" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="T19" s="31"/>
+    </row>
+    <row r="20" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
         <v>143</v>
       </c>
-      <c r="T19" s="31"/>
-    </row>
-    <row r="20" spans="17:20">
-      <c r="T20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="17:20">
+    </row>
+    <row r="21" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="17:20">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="17:20">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="17:20">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="17:20">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="17:20">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="17:20">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="17:20">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="17:20">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="17:20">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="17:20">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="17:20">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
     </row>
-    <row r="33" spans="17:20">
+    <row r="33" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="17:20">
+    <row r="34" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="17:20">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="17:20">
+    <row r="36" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="17:20">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
     </row>
-    <row r="38" spans="17:20">
+    <row r="38" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" spans="17:20">
+    <row r="39" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="17:20">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T40" s="31"/>
     </row>
-    <row r="41" spans="17:20">
+    <row r="41" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -9000,7 +9000,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.7109375" customWidth="1"/>
@@ -9013,7 +9013,7 @@
     <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -9024,10 +9024,10 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -9050,12 +9050,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>163</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -9079,7 +9079,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>78</v>
       </c>
@@ -9093,9 +9093,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
         <v>101</v>
@@ -9107,12 +9107,12 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>166</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -9127,12 +9127,12 @@
         <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
         <v>101</v>
@@ -9141,9 +9141,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -9167,9 +9167,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
         <v>78</v>
@@ -9178,9 +9178,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
         <v>78</v>
@@ -9189,17 +9189,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -9220,36 +9220,36 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="45"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>173</v>
-      </c>
-      <c r="J12" s="45"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>174</v>
       </c>
       <c r="F13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="42" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>178</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -9264,12 +9264,12 @@
         <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -9284,7 +9284,7 @@
         <v>101</v>
       </c>
       <c r="H20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -9301,19 +9301,19 @@
       <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -9325,9 +9325,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -9350,12 +9350,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
         <v>180</v>
-      </c>
-      <c r="C5" t="s">
-        <v>181</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9364,53 +9364,53 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>183</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>184</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>186</v>
       </c>
-      <c r="B7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -9433,7 +9433,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -9459,7 +9459,7 @@
     <col min="35" max="35" width="2.42578125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -9473,7 +9473,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
@@ -9485,7 +9485,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="52"/>
       <c r="AA1" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
@@ -9496,9 +9496,9 @@
       <c r="AH1" s="4"/>
       <c r="AI1" s="46"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1">
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -9539,14 +9539,14 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="49"/>
       <c r="AE2" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
       <c r="AI2" s="46"/>
     </row>
-    <row r="3" spans="1:35" s="1" customFormat="1">
+    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>57</v>
@@ -9578,7 +9578,7 @@
         <v>62</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>63</v>
@@ -9609,7 +9609,7 @@
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>26</v>
@@ -9629,7 +9629,7 @@
       </c>
       <c r="AD3" s="49"/>
       <c r="AE3" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>74</v>
@@ -9642,12 +9642,12 @@
       </c>
       <c r="AI3" s="46"/>
     </row>
-    <row r="4" spans="1:35" s="15" customFormat="1">
+    <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>79</v>
@@ -9674,7 +9674,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>82</v>
@@ -9692,10 +9692,10 @@
         <v>1</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
@@ -9714,7 +9714,7 @@
       <c r="AH4" s="18"/>
       <c r="AI4" s="47"/>
     </row>
-    <row r="5" spans="1:35" s="47" customFormat="1">
+    <row r="5" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="Q5" s="50"/>
@@ -9735,7 +9735,7 @@
       <c r="AG5" s="50"/>
       <c r="AH5" s="50"/>
     </row>
-    <row r="6" spans="1:35" s="15" customFormat="1">
+    <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
         <v>87</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>90</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q6" s="16" t="b">
         <v>1</v>
@@ -9795,7 +9795,7 @@
       <c r="AH6" s="18"/>
       <c r="AI6" s="47"/>
     </row>
-    <row r="7" spans="1:35" s="15" customFormat="1">
+    <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
@@ -9824,7 +9824,7 @@
       <c r="AD7" s="50"/>
       <c r="AI7" s="47"/>
     </row>
-    <row r="8" spans="1:35" s="47" customFormat="1">
+    <row r="8" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="Q8" s="50"/>
@@ -9841,9 +9841,9 @@
       <c r="AC8" s="50"/>
       <c r="AD8" s="50"/>
     </row>
-    <row r="9" spans="1:35" s="15" customFormat="1">
+    <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9" s="15">
         <v>1</v>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="AI9" s="47"/>
     </row>
-    <row r="10" spans="1:35" s="15" customFormat="1">
+    <row r="10" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V10" s="47"/>
       <c r="W10" s="15" t="s">
         <v>38</v>
@@ -9927,7 +9927,7 @@
       <c r="AD10" s="50"/>
       <c r="AI10" s="47"/>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="W11" s="15" t="s">
         <v>37</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="15" customFormat="1">
+    <row r="12" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
@@ -9954,7 +9954,7 @@
       <c r="AD12" s="50"/>
       <c r="AI12" s="47"/>
     </row>
-    <row r="13" spans="1:35" s="15" customFormat="1">
+    <row r="13" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
@@ -9970,7 +9970,7 @@
       <c r="AD13" s="50"/>
       <c r="AI13" s="47"/>
     </row>
-    <row r="14" spans="1:35" s="56" customFormat="1">
+    <row r="14" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q14" s="57"/>
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
@@ -9985,12 +9985,12 @@
       <c r="AC14" s="57"/>
       <c r="AD14" s="57"/>
     </row>
-    <row r="15" spans="1:35" s="15" customFormat="1">
+    <row r="15" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>79</v>
@@ -10002,7 +10002,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>79</v>
@@ -10029,49 +10029,49 @@
         <v>1</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="50"/>
       <c r="W15" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z15" s="50"/>
       <c r="AA15" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AD15" s="50"/>
       <c r="AE15" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI15" s="47"/>
     </row>
-    <row r="16" spans="1:35" s="15" customFormat="1">
+    <row r="16" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="15" t="s">
         <v>99</v>
       </c>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="AD16" s="50"/>
       <c r="AE16" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI16" s="47"/>
     </row>
-    <row r="17" spans="1:35" s="15" customFormat="1">
+    <row r="17" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
@@ -10162,9 +10162,9 @@
       <c r="AD17" s="50"/>
       <c r="AI17" s="47"/>
     </row>
-    <row r="18" spans="1:35" s="15" customFormat="1">
+    <row r="18" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -10212,7 +10212,7 @@
       <c r="AD18" s="50"/>
       <c r="AI18" s="47"/>
     </row>
-    <row r="19" spans="1:35" s="15" customFormat="1">
+    <row r="19" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V19" s="47"/>
       <c r="W19" s="15" t="s">
         <v>38</v>
@@ -10230,7 +10230,7 @@
       <c r="AD19" s="50"/>
       <c r="AI19" s="47"/>
     </row>
-    <row r="20" spans="1:35" s="15" customFormat="1">
+    <row r="20" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -10272,11 +10272,11 @@
       <c r="AH20"/>
       <c r="AI20" s="47"/>
     </row>
-    <row r="21" spans="1:35" s="15" customFormat="1">
+    <row r="21" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -10291,33 +10291,33 @@
         <v>94</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S21" s="15" t="b">
         <v>1</v>
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z21" s="47"/>
       <c r="AA21" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB21" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AD21" s="47"/>
       <c r="AE21"/>
@@ -10326,7 +10326,7 @@
       <c r="AH21"/>
       <c r="AI21" s="47"/>
     </row>
-    <row r="22" spans="1:35" s="15" customFormat="1">
+    <row r="22" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
@@ -10342,9 +10342,9 @@
       <c r="AD22" s="50"/>
       <c r="AI22" s="47"/>
     </row>
-    <row r="23" spans="1:35" s="15" customFormat="1">
+    <row r="23" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" s="15">
         <v>0.9</v>
@@ -10356,13 +10356,13 @@
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>84</v>
@@ -10398,13 +10398,13 @@
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AD23" s="50"/>
       <c r="AE23" s="16" t="s">
@@ -10414,11 +10414,11 @@
         <v>50</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI23" s="47"/>
     </row>
-    <row r="24" spans="1:35" s="15" customFormat="1">
+    <row r="24" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
@@ -10436,13 +10436,13 @@
       </c>
       <c r="Z24" s="53"/>
       <c r="AA24" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AD24" s="50"/>
       <c r="AE24" s="16" t="s">
@@ -10452,11 +10452,11 @@
         <v>50</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI24" s="47"/>
     </row>
-    <row r="25" spans="1:35" s="15" customFormat="1">
+    <row r="25" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
@@ -10472,7 +10472,7 @@
       <c r="AD25" s="50"/>
       <c r="AI25" s="47"/>
     </row>
-    <row r="26" spans="1:35" s="15" customFormat="1">
+    <row r="26" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
@@ -10488,7 +10488,7 @@
       <c r="AD26" s="50"/>
       <c r="AI26" s="47"/>
     </row>
-    <row r="27" spans="1:35" s="15" customFormat="1">
+    <row r="27" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
@@ -10504,7 +10504,7 @@
       <c r="AD27" s="50"/>
       <c r="AI27" s="47"/>
     </row>
-    <row r="28" spans="1:35" s="15" customFormat="1">
+    <row r="28" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
@@ -10520,7 +10520,7 @@
       <c r="AD28" s="50"/>
       <c r="AI28" s="47"/>
     </row>
-    <row r="29" spans="1:35" s="15" customFormat="1">
+    <row r="29" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
@@ -10536,7 +10536,7 @@
       <c r="AD29" s="50"/>
       <c r="AI29" s="47"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
   </sheetData>
@@ -10588,28 +10588,28 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>58</v>
@@ -10621,18 +10621,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
         <v>85</v>
@@ -10641,20 +10641,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>100000</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>4</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>52</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>208</v>
       </c>
@@ -10714,38 +10714,38 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E13" t="s">
         <v>85</v>
@@ -10754,15 +10754,15 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
         <v>85</v>
@@ -10771,7 +10771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>96</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>93</v>
       </c>
@@ -10812,14 +10812,14 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -10827,7 +10827,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
@@ -10839,231 +10839,231 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>210</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>211</v>
       </c>
       <c r="C4" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>210</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>211</v>
       </c>
       <c r="C5" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>210</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>211</v>
       </c>
       <c r="C6" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>210</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>211</v>
       </c>
       <c r="C7" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>210</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>211</v>
       </c>
       <c r="C8" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>210</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>211</v>
       </c>
       <c r="C9" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>210</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>211</v>
       </c>
       <c r="C10" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>210</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>211</v>
       </c>
       <c r="C11" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>210</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>211</v>
       </c>
       <c r="C12" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>210</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>211</v>
       </c>
       <c r="C13" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>210</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>211</v>
       </c>
       <c r="C14" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>210</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>211</v>
       </c>
       <c r="C15" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D15" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>224</v>
       </c>
       <c r="C16" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>225</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>226</v>
       </c>
       <c r="C17" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>225</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>226</v>
       </c>
       <c r="C18" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32" t="e">
@@ -11071,7 +11071,7 @@
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35" t="e">
@@ -11079,77 +11079,77 @@
       </c>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>228</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>229</v>
       </c>
       <c r="C22" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>228</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>229</v>
       </c>
       <c r="C23" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>228</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>229</v>
       </c>
       <c r="C24" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D24" s="32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>232</v>
       </c>
       <c r="C25" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D25" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="32" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>234</v>
       </c>
       <c r="C26" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35" t="e">
@@ -11157,91 +11157,91 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>235</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>236</v>
       </c>
       <c r="C28" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C29" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C30" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C31" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C32" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>240</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>241</v>
       </c>
       <c r="C33" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35" t="e">
@@ -11249,77 +11249,77 @@
       </c>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C35" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="32" t="s">
         <v>242</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>243</v>
       </c>
       <c r="C36" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>242</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>243</v>
       </c>
       <c r="C37" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D37" s="33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="32" t="s">
-        <v>246</v>
-      </c>
       <c r="B38" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C38" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C39" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37" t="e">
@@ -11327,7 +11327,7 @@
       </c>
       <c r="D40" s="38"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35" t="e">
@@ -11335,21 +11335,21 @@
       </c>
       <c r="D41" s="35"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C42" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35" t="e">
@@ -11357,231 +11357,231 @@
       </c>
       <c r="D43" s="35"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C44" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C45" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D45" s="33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="32" t="s">
-        <v>250</v>
-      </c>
       <c r="B46" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C46" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C47" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C48" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C49" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C50" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C51" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D51" s="33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="32" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="32" t="s">
-        <v>253</v>
-      </c>
       <c r="B52" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C52" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C53" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C54" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C55" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C56" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C58" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C59" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="35" t="e">
@@ -11589,91 +11589,91 @@
       </c>
       <c r="D60" s="35"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C61" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C62" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C63" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C64" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C65" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D65" s="33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B66" s="32" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>232</v>
       </c>
       <c r="C66" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="37"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37" t="e">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="D67" s="38"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
       <c r="B68" s="35"/>
       <c r="C68" s="35" t="e">
@@ -11689,46 +11689,46 @@
       </c>
       <c r="D68" s="35"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C69" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C70" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C71" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2058" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{51A3BD8F-45B0-49FA-9478-4BEEAF84D39D}"/>
+  <xr:revisionPtr revIDLastSave="2081" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{06838ADF-5235-4C4E-A887-70D440659DD8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="333">
   <si>
     <t>Cause</t>
   </si>
@@ -1190,6 +1190,12 @@
   </si>
   <si>
     <t>protection_trip</t>
+  </si>
+  <si>
+    <t>inspection_groundline</t>
+  </si>
+  <si>
+    <t>inspection_protection</t>
   </si>
 </sst>
 </file>
@@ -3548,8 +3554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AV80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC29" sqref="AC29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3986,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="U5" s="45">
         <v>0.8</v>
@@ -4758,7 +4764,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="U17" s="45">
         <v>0.8</v>
@@ -5211,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="U25" s="45">
         <v>0.8</v>
@@ -5845,7 +5851,7 @@
       <c r="R36" s="41"/>
       <c r="S36" s="99"/>
       <c r="T36" s="15" t="s">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="U36" s="15">
         <v>0.99</v>
@@ -5969,7 +5975,7 @@
       <c r="R38" s="15"/>
       <c r="S38" s="97"/>
       <c r="T38" s="15" t="s">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="U38" s="15">
         <v>1</v>
@@ -6226,7 +6232,7 @@
       <c r="R42" s="15"/>
       <c r="S42" s="97"/>
       <c r="T42" s="15" t="s">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="U42" s="15">
         <v>1</v>
@@ -6710,10 +6716,10 @@
         <v>1</v>
       </c>
       <c r="M50" s="41">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="N50" s="41">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O50" s="134">
         <v>30</v>
@@ -6731,7 +6737,7 @@
         <v>2</v>
       </c>
       <c r="T50" s="15" t="s">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="U50" s="15">
         <v>1</v>
@@ -7200,7 +7206,7 @@
       <c r="R58" s="15"/>
       <c r="S58" s="97"/>
       <c r="T58" s="15" t="s">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="U58" s="15">
         <v>0.8</v>
@@ -7698,7 +7704,7 @@
       <c r="R66" s="15"/>
       <c r="S66" s="97"/>
       <c r="T66" s="15" t="s">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="U66" s="15">
         <v>0.8</v>
@@ -8339,7 +8345,7 @@
       <c r="H80" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AL13 B7:B13 X16:X17 U16:W16 C23:D23 E22:H23 B67:B70 B16:B23 C18:D20 E17:H19 C7:G7 T42:Y42 AG17:AN17 AD50:AQ50 AG25:AN25 AL23:AQ23 AL19:AQ20 AL40:AQ40 AL48:AQ48 AL56:AQ56 AN52:AQ53 AL44:AQ44 AL34:AQ34 AL30:AQ31 AO22:AV22 AO39:AQ39 AO17:AV18 AO47:AV47 AO55:AV55 AO51:AV51 AO43:AV43 AO33:AV33 AO25:AV29 AO37:AQ37 AR37:AV39 AO5:AV10 AL11:AV12 AL15:AV15 AO14:AV14 AL68:AV69 AO67:AV67 AL72:AV72 AO71:AV71 AL60:AV61 AO59:AV59 AL64:AV64 AO63:AV63 P36:Y36 P25:T25 P46:Y46 P12:S12 I7:O12 P37:S40 P48:S48 P52:S56 P71:S72 P61:S61 P34:S34 P29:S31 P76:U77 P15:V15 P24:W24 P27:Y27 B5:G6 I23:S23 I18:S20 C67:S69 B71:O77 C59:O61 B63:S64 I26:O31 C16:T17 B14:O15 C24:O25 AL38:AQ38 P42:S44 B35:H56 I34:O56 Z17:AC17 T22:AB22 T39:AB39 T18:AB18 T55:AB55 T43:AB43 T33:AB33 T71:AB71 T67:AB67 T37:AK37 T63:AB63 Y16:AU16 W76:AB77 Y24:AU24 AC10:AK11 P28:AB28 AC60:AF60 P14:AB14 P26:AK26 P59:AB60 AC59:AK59 AV59:AV60 AC8:AN9 P73:AB75 AC73:AU77 P35:AU35 P45:AU45 AC49:AU49 P41:AU41 P47:AB47 P7:AB11 AC7:AK7 B58:AV58 B66:AU66 I5:AN6 AV5:AV11 X15:AB15 AC14:AK15 AA36:AQ36 X19:AB19 AC18:AK19 AV14:AV19 AA46:AQ46 U23:AB23 AC22:AK23 U40:AB40 AC39:AK40 P49:AB51 U48:AB48 AC47:AK48 AA42:AQ42 T52:AB52 AC51:AK52 U56:AB56 AC55:AK56 AV55:AV56 U44:AB44 AC43:AK44 AA25:AC25 AA27:AB27 AC27:AN28 T29:AK30 AV22:AV30 U34:AB34 AC33:AK34 U68:AB68 AC67:AK68 AV66:AV68 U72:AB72 AC71:AK72 AV71:AV77 Z38:AC38 AV33:AV52 U64:AB64 AC63:AK64 AV63:AV64 C9:G12 C8:F8">
+  <conditionalFormatting sqref="AL13 B7:B13 X16:X17 U16:W16 C23:D23 E22:H23 B67:B70 B16:B23 C18:D20 E17:H19 C7:G7 AG17:AN17 AD50:AQ50 AG25:AN25 AL23:AQ23 AL19:AQ20 AL40:AQ40 AL48:AQ48 AL56:AQ56 AN52:AQ53 AL44:AQ44 AL34:AQ34 AL30:AQ31 AO22:AV22 AO39:AQ39 AO17:AV18 AO47:AV47 AO55:AV55 AO51:AV51 AO43:AV43 AO33:AV33 AO25:AV29 AO37:AQ37 AR37:AV39 AO5:AV10 AL11:AV12 AL15:AV15 AO14:AV14 AL68:AV69 AO67:AV67 AL72:AV72 AO71:AV71 AL60:AV61 AO59:AV59 AL64:AV64 AO63:AV63 P46:Y46 P12:S12 I7:O12 P37:S40 P48:S48 P52:S56 P71:S72 P61:S61 P34:S34 P29:S31 P76:U77 P15:V15 P24:W24 P27:Y27 B5:G6 I23:S23 I18:S20 C67:S69 B71:O77 C59:O61 B63:S64 I26:O31 B14:O15 C24:O25 AL38:AQ38 P42:S44 B35:H56 I34:O56 Z17:AC17 T22:AB22 T39:AB39 T18:AB18 T55:AB55 T43:AB43 T33:AB33 T71:AB71 T67:AB67 T37:AK37 T63:AB63 Y16:AU16 W76:AB77 Y24:AU24 AC10:AK11 P28:AB28 AC60:AF60 P14:AB14 P26:AK26 P59:AB60 AC59:AK59 AV59:AV60 AC8:AN9 P73:AB75 AC73:AU77 P35:AU35 P45:AU45 AC49:AU49 P41:AU41 P47:AB47 P7:AB11 AC7:AK7 I5:AN6 AV5:AV11 X15:AB15 AC14:AK15 AA36:AQ36 X19:AB19 AC18:AK19 AV14:AV19 AA46:AQ46 U23:AB23 AC22:AK23 U40:AB40 AC39:AK40 U48:AB48 AC47:AK48 AA42:AQ42 T52:AB52 AC51:AK52 U56:AB56 AC55:AK56 AV55:AV56 U44:AB44 AC43:AK44 AA25:AC25 AA27:AB27 AC27:AN28 T29:AK30 AV22:AV30 U34:AB34 AC33:AK34 U68:AB68 AC67:AK68 AV66:AV68 U72:AB72 AC71:AK72 AV71:AV77 Z38:AC38 AV33:AV52 U64:AB64 AC63:AK64 AV63:AV64 C9:G12 C8:F8 C16:T17 P25:T25 P36:Y36 T42:Y42 P49:AB51 B58:AV58 B66:AU66">
     <cfRule type="cellIs" dxfId="75" priority="182" operator="equal">
       <formula>"nil"</formula>
     </cfRule>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23525"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2081" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{06838ADF-5235-4C4E-A887-70D440659DD8}"/>
+  <xr:revisionPtr revIDLastSave="2084" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FA6AA625-5D94-4DE4-A4EC-22330BB3A9D4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <sheet name="brainstorming" sheetId="4" r:id="rId11"/>
     <sheet name="Sheet3" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -436,6 +439,9 @@
     <t>linear</t>
   </si>
   <si>
+    <t>inspection_groundline</t>
+  </si>
+  <si>
     <t>inspection</t>
   </si>
   <si>
@@ -445,345 +451,354 @@
     <t>as_bad_as_old</t>
   </si>
   <si>
+    <t>groundline</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>ssf_calc</t>
+  </si>
+  <si>
+    <t>termite_powder</t>
+  </si>
+  <si>
+    <t>repair</t>
+  </si>
+  <si>
+    <t>ConditionTask</t>
+  </si>
+  <si>
+    <t>grp</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>reduction_factor</t>
+  </si>
+  <si>
+    <t>CAT3/4 replacement</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>as_good_as_new</t>
+  </si>
+  <si>
+    <t>CAT1/2 replacement</t>
+  </si>
+  <si>
+    <t>fungal decay _ external</t>
+  </si>
+  <si>
+    <t>fungal decay _ internal</t>
+  </si>
+  <si>
+    <t>pole_saver_rod</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>protection_trip</t>
+  </si>
+  <si>
+    <t>inspection_protection</t>
+  </si>
+  <si>
+    <t>fire_damage</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>weathering</t>
+  </si>
+  <si>
+    <t>pole footing</t>
+  </si>
+  <si>
+    <t>leaning</t>
+  </si>
+  <si>
+    <t>any reason</t>
+  </si>
+  <si>
+    <t>lean_angle</t>
+  </si>
+  <si>
+    <t>pole_cap</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>Pole cap replacement</t>
+  </si>
+  <si>
+    <t>Pole replacement</t>
+  </si>
+  <si>
+    <t>crossarm</t>
+  </si>
+  <si>
+    <t>cross_sectional_area</t>
+  </si>
+  <si>
+    <t>Fix_this_error</t>
+  </si>
+  <si>
+    <t>add_no_condition_method</t>
+  </si>
+  <si>
+    <t>strut</t>
+  </si>
+  <si>
+    <t>modify</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>crack_length</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sub System</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Maintainable Item</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Pole</t>
+  </si>
+  <si>
+    <t>Pole Stay</t>
+  </si>
+  <si>
+    <t>Pole Cap</t>
+  </si>
+  <si>
+    <t>Pole Footing</t>
+  </si>
+  <si>
+    <t>pole (common)</t>
+  </si>
+  <si>
+    <t>pole (timber)</t>
+  </si>
+  <si>
+    <t>pole (concrete)</t>
+  </si>
+  <si>
+    <t>pole (steel)</t>
+  </si>
+  <si>
+    <t>pole (composite)</t>
+  </si>
+  <si>
+    <t>pole fixtures</t>
+  </si>
+  <si>
+    <t>attachments</t>
+  </si>
+  <si>
+    <t>pole cap</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>pole stay</t>
+  </si>
+  <si>
+    <t>pole attachment</t>
+  </si>
+  <si>
+    <t>top attachment point</t>
+  </si>
+  <si>
+    <t>thimble</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>dead end</t>
+  </si>
+  <si>
+    <t>insulator</t>
+  </si>
+  <si>
+    <t>batten</t>
+  </si>
+  <si>
+    <t>sight guard</t>
+  </si>
+  <si>
+    <t>anchor rod</t>
+  </si>
+  <si>
+    <t>footing</t>
+  </si>
+  <si>
+    <t>pole modification</t>
+  </si>
+  <si>
+    <t>reinforcement</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>acroprop</t>
+  </si>
+  <si>
+    <t>pole accessories</t>
+  </si>
+  <si>
+    <t>fauna protection</t>
+  </si>
+  <si>
+    <t>stay protection</t>
+  </si>
+  <si>
+    <t>cattle guard post</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (termites)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (lightning)</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (impact)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fire damage)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fungal decay - internal)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fungal decay - external)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (weathering)</t>
+  </si>
+  <si>
+    <t>[pole foundation] due to (unknown)</t>
+  </si>
+  <si>
+    <t>[pole cap] due to (unknown)</t>
+  </si>
+  <si>
+    <t>pole_cap_present</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (unknown)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (impact)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (corrosion)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (bed log)</t>
+  </si>
+  <si>
+    <t>[pole top equipment] due to {cracking}</t>
+  </si>
+  <si>
+    <t>cracking_present</t>
+  </si>
+  <si>
+    <t>simple_safety_factor</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>ssf</t>
+  </si>
+  <si>
+    <t>actual_safety_factor</t>
+  </si>
+  <si>
+    <t>dsf_calc</t>
+  </si>
+  <si>
+    <t>asf</t>
+  </si>
+  <si>
+    <t>Footing</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Pole cap</t>
+  </si>
+  <si>
+    <t>top_of_pole_stregnth</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>task_name</t>
+  </si>
+  <si>
+    <t>Level of Failure</t>
+  </si>
+  <si>
+    <t>condition_name</t>
+  </si>
+  <si>
+    <t>termite</t>
+  </si>
+  <si>
     <t>level_3_inspection</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>ssf_calc</t>
-  </si>
-  <si>
-    <t>termite_powder</t>
-  </si>
-  <si>
-    <t>repair</t>
-  </si>
-  <si>
-    <t>ConditionTask</t>
-  </si>
-  <si>
-    <t>grp</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>reduction_factor</t>
-  </si>
-  <si>
-    <t>CAT3/4 replacement</t>
-  </si>
-  <si>
-    <t>replace</t>
-  </si>
-  <si>
-    <t>as_good_as_new</t>
-  </si>
-  <si>
-    <t>CAT1/2 replacement</t>
-  </si>
-  <si>
-    <t>fungal decay _ external</t>
-  </si>
-  <si>
-    <t>fungal decay _ internal</t>
-  </si>
-  <si>
-    <t>pole_saver_rod</t>
-  </si>
-  <si>
-    <t>lightning</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>fire_damage</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>weathering</t>
-  </si>
-  <si>
-    <t>pole footing</t>
-  </si>
-  <si>
-    <t>leaning</t>
-  </si>
-  <si>
-    <t>any reason</t>
-  </si>
-  <si>
-    <t>lean_angle</t>
-  </si>
-  <si>
-    <t>pole_cap</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>Pole cap replacement</t>
-  </si>
-  <si>
-    <t>Pole replacement</t>
-  </si>
-  <si>
-    <t>crossarm</t>
-  </si>
-  <si>
-    <t>cross_sectional_area</t>
-  </si>
-  <si>
-    <t>Fix_this_error</t>
-  </si>
-  <si>
-    <t>add_no_condition_method</t>
-  </si>
-  <si>
-    <t>strut</t>
-  </si>
-  <si>
-    <t>modify</t>
-  </si>
-  <si>
-    <t>addition</t>
-  </si>
-  <si>
-    <t>crack_length</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Sub System</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Maintainable Item</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Pole</t>
-  </si>
-  <si>
-    <t>Pole Stay</t>
-  </si>
-  <si>
-    <t>Pole Cap</t>
-  </si>
-  <si>
-    <t>Pole Footing</t>
-  </si>
-  <si>
-    <t>pole (common)</t>
-  </si>
-  <si>
-    <t>pole (timber)</t>
-  </si>
-  <si>
-    <t>pole (concrete)</t>
-  </si>
-  <si>
-    <t>pole (steel)</t>
-  </si>
-  <si>
-    <t>pole (composite)</t>
-  </si>
-  <si>
-    <t>pole fixtures</t>
-  </si>
-  <si>
-    <t>attachments</t>
-  </si>
-  <si>
-    <t>pole cap</t>
-  </si>
-  <si>
-    <t>steps</t>
-  </si>
-  <si>
-    <t>pole stay</t>
-  </si>
-  <si>
-    <t>pole attachment</t>
-  </si>
-  <si>
-    <t>top attachment point</t>
-  </si>
-  <si>
-    <t>thimble</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>dead end</t>
-  </si>
-  <si>
-    <t>insulator</t>
-  </si>
-  <si>
-    <t>batten</t>
-  </si>
-  <si>
-    <t>sight guard</t>
-  </si>
-  <si>
-    <t>anchor rod</t>
-  </si>
-  <si>
-    <t>footing</t>
-  </si>
-  <si>
-    <t>pole modification</t>
-  </si>
-  <si>
-    <t>reinforcement</t>
-  </si>
-  <si>
-    <t>nail</t>
-  </si>
-  <si>
-    <t>acroprop</t>
-  </si>
-  <si>
-    <t>pole accessories</t>
-  </si>
-  <si>
-    <t>fauna protection</t>
-  </si>
-  <si>
-    <t>stay protection</t>
-  </si>
-  <si>
-    <t>cattle guard post</t>
-  </si>
-  <si>
-    <t>Indicators</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (termites)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (lightning)</t>
-  </si>
-  <si>
-    <t>nil</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (impact)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fire damage)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fungal decay - internal)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fungal decay - external)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (weathering)</t>
-  </si>
-  <si>
-    <t>[pole foundation] due to (unknown)</t>
-  </si>
-  <si>
-    <t>[pole cap] due to (unknown)</t>
-  </si>
-  <si>
-    <t>pole_cap_present</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (unknown)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (impact)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (corrosion)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (bed log)</t>
-  </si>
-  <si>
-    <t>[pole top equipment] due to {cracking}</t>
-  </si>
-  <si>
-    <t>cracking_present</t>
-  </si>
-  <si>
-    <t>simple_safety_factor</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>ssf</t>
-  </si>
-  <si>
-    <t>actual_safety_factor</t>
-  </si>
-  <si>
-    <t>dsf_calc</t>
-  </si>
-  <si>
-    <t>asf</t>
-  </si>
-  <si>
-    <t>Footing</t>
-  </si>
-  <si>
-    <t>Stay</t>
-  </si>
-  <si>
-    <t>Pole cap</t>
-  </si>
-  <si>
-    <t>top_of_pole_stregnth</t>
-  </si>
-  <si>
-    <t>Trigger</t>
-  </si>
-  <si>
-    <t>tasks</t>
-  </si>
-  <si>
-    <t>task_name</t>
-  </si>
-  <si>
-    <t>Level of Failure</t>
-  </si>
-  <si>
-    <t>condition_name</t>
-  </si>
-  <si>
-    <t>termite</t>
-  </si>
-  <si>
     <t>any</t>
   </si>
   <si>
@@ -1184,18 +1199,6 @@
   </si>
   <si>
     <t>pole_strength / actual load</t>
-  </si>
-  <si>
-    <t>groundline</t>
-  </si>
-  <si>
-    <t>protection_trip</t>
-  </si>
-  <si>
-    <t>inspection_groundline</t>
-  </si>
-  <si>
-    <t>inspection_protection</t>
   </si>
 </sst>
 </file>
@@ -1203,9 +1206,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1494,7 +1497,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2641,7 +2644,7 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2655,7 +2658,7 @@
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2669,7 +2672,7 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
@@ -2678,236 +2681,236 @@
     <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="O12" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="F13" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O13" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q13" t="s">
+        <v>167</v>
+      </c>
+      <c r="S13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="F14" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="O14" t="s">
         <v>164</v>
       </c>
-      <c r="S13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F14" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="O14" t="s">
-        <v>161</v>
-      </c>
       <c r="Q14" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="S14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="F15" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J15" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="O15" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q15" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="S15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="F16" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="F17" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O17" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="O18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="F20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="D31" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="S32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19">
       <c r="B33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K33" t="s">
         <v>51</v>
       </c>
       <c r="R33" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19">
       <c r="C34" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K34" t="s">
         <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="S34">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19">
       <c r="C35" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D35" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G35" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="R35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19">
       <c r="D36" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="R36" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="S36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19">
       <c r="D37" s="43" t="s">
         <v>18</v>
       </c>
@@ -2915,68 +2918,68 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19">
       <c r="C38" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E38" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19">
       <c r="C39" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E39" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19">
       <c r="K40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19">
       <c r="K41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19">
       <c r="K42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="H52" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="E54" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -3002,84 +3005,84 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="L55">
         <f>L54/60/60</f>
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="F59" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="B60" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E60" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="E61" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="E62" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="B68" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B70">
         <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B71">
         <v>12.5</v>
       </c>
       <c r="C71" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3101,7 +3104,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
@@ -3109,50 +3112,50 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="B4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="J4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="R4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="S4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="B5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -3162,18 +3165,18 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="R5" s="41" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="S5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="H6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I6">
         <f>I5/4</f>
@@ -3185,72 +3188,72 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="R6" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="S6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="R7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="S7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="H8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="R8" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="S8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H9" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="H10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="B11" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="B12" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I12" s="9">
         <v>3.7</v>
@@ -3260,22 +3263,22 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="J16" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10">
       <c r="J19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="1048576" spans="15:15" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="1048576" spans="15:15">
       <c r="O1048576" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3292,7 +3295,7 @@
       <selection activeCell="D4" sqref="D4:AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
@@ -3319,7 +3322,7 @@
     <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3360,7 +3363,7 @@
       </c>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -3528,7 +3531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="L4" s="3" t="s">
         <v>38</v>
       </c>
@@ -3554,11 +3557,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AV80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="L23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1" outlineLevel="1"/>
     <col min="2" max="3" width="13.140625" customWidth="1" outlineLevel="1"/>
@@ -3599,7 +3602,7 @@
     <col min="48" max="48" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>39</v>
@@ -3663,7 +3666,7 @@
       <c r="AU1" s="67"/>
       <c r="AV1" s="67"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>45</v>
@@ -3745,7 +3748,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -3891,7 +3894,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" ht="12" customHeight="1">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -3941,7 +3944,7 @@
       <c r="AU4" s="59"/>
       <c r="AV4" s="59"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -3992,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="U5" s="45">
         <v>0.8</v>
@@ -4004,13 +4007,13 @@
         <v>51</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y5" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA5" s="41">
         <v>20</v>
@@ -4019,16 +4022,16 @@
         <v>5</v>
       </c>
       <c r="AC5" s="97" t="s">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="AD5" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE5" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF5" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="AF5" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="AG5" s="18" t="b">
         <v>1</v>
@@ -4044,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="AN5" s="116" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO5" s="18"/>
       <c r="AP5" s="18" t="b">
@@ -4057,7 +4060,7 @@
       <c r="AU5" s="18"/>
       <c r="AV5" s="15"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -4116,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="AN6" s="116" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO6" s="18"/>
       <c r="AP6" s="18"/>
@@ -4127,7 +4130,7 @@
       <c r="AU6" s="18"/>
       <c r="AV6" s="15"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4136,7 +4139,7 @@
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -4185,7 +4188,7 @@
       <c r="AU7" s="69"/>
       <c r="AV7" s="69"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -4204,7 +4207,7 @@
       <c r="R8" s="15"/>
       <c r="S8" s="97"/>
       <c r="T8" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U8" s="42">
         <v>0.9</v>
@@ -4216,13 +4219,13 @@
         <v>2</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y8" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z8" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
@@ -4248,7 +4251,7 @@
         <v>50</v>
       </c>
       <c r="AN8" s="118" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO8" s="16" t="b">
         <v>0</v>
@@ -4260,20 +4263,20 @@
         <v>0</v>
       </c>
       <c r="AR8" s="91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS8" s="93">
         <v>0</v>
       </c>
       <c r="AT8" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU8" s="18" t="s">
         <v>2</v>
       </c>
       <c r="AV8" s="15"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -4318,7 +4321,7 @@
         <v>50</v>
       </c>
       <c r="AN9" s="118" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO9" s="16"/>
       <c r="AP9" s="16"/>
@@ -4329,7 +4332,7 @@
       <c r="AU9" s="15"/>
       <c r="AV9" s="15"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -4379,7 +4382,7 @@
       <c r="AU10" s="69"/>
       <c r="AV10" s="69"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -4400,7 +4403,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="97"/>
       <c r="T11" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U11" s="15">
         <v>1</v>
@@ -4412,13 +4415,13 @@
         <v>2</v>
       </c>
       <c r="X11" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y11" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z11" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
@@ -4456,13 +4459,13 @@
         <v>0</v>
       </c>
       <c r="AR11" s="76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS11" s="19">
         <v>1</v>
       </c>
       <c r="AT11" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU11" s="15" t="s">
         <v>2</v>
@@ -4471,7 +4474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -4527,7 +4530,7 @@
       <c r="AU12" s="15"/>
       <c r="AV12" s="15"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="H13" s="138"/>
@@ -4541,7 +4544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -4591,7 +4594,7 @@
       <c r="AU14" s="69"/>
       <c r="AV14" s="69"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -4612,7 +4615,7 @@
       <c r="R15" s="15"/>
       <c r="S15" s="97"/>
       <c r="T15" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U15" s="15">
         <v>1</v>
@@ -4624,13 +4627,13 @@
         <v>2</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y15" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z15" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA15" s="15"/>
       <c r="AB15" s="15"/>
@@ -4658,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="AR15" s="76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS15" s="19">
         <v>1</v>
       </c>
       <c r="AT15" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU15" s="15" t="s">
         <v>2</v>
@@ -4673,7 +4676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -4723,7 +4726,7 @@
       <c r="AU16" s="56"/>
       <c r="AV16" s="56"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -4733,7 +4736,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J17" s="45" t="s">
         <v>78</v>
@@ -4764,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="U17" s="45">
         <v>0.8</v>
@@ -4776,10 +4779,10 @@
         <v>51</v>
       </c>
       <c r="X17" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y17" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z17" s="15"/>
       <c r="AA17" s="15">
@@ -4789,16 +4792,16 @@
         <v>5</v>
       </c>
       <c r="AC17" s="97" t="s">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE17" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF17" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="AF17" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="AG17" s="18" t="b">
         <v>1</v>
@@ -4819,7 +4822,7 @@
       <c r="AU17" s="18"/>
       <c r="AV17" s="15"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -4868,7 +4871,7 @@
       <c r="AU18" s="69"/>
       <c r="AV18" s="69"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -4888,7 +4891,7 @@
       <c r="R19" s="15"/>
       <c r="S19" s="97"/>
       <c r="T19" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U19" s="15">
         <v>1</v>
@@ -4900,13 +4903,13 @@
         <v>2</v>
       </c>
       <c r="X19" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y19" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z19" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
@@ -4944,13 +4947,13 @@
         <v>0</v>
       </c>
       <c r="AR19" s="76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS19" s="19">
         <v>1</v>
       </c>
       <c r="AT19" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU19" s="15" t="s">
         <v>2</v>
@@ -4959,7 +4962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -5011,7 +5014,7 @@
       <c r="AU20" s="15"/>
       <c r="AV20" s="15"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="AL21" s="84" t="s">
@@ -5024,7 +5027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="T22" s="69"/>
@@ -5057,7 +5060,7 @@
       <c r="AU22" s="69"/>
       <c r="AV22" s="69"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="E23" s="15"/>
@@ -5065,7 +5068,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="T23" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U23" s="15">
         <v>1</v>
@@ -5077,13 +5080,13 @@
         <v>2</v>
       </c>
       <c r="X23" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y23" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z23" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
@@ -5111,13 +5114,13 @@
         <v>0</v>
       </c>
       <c r="AR23" s="76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS23" s="19">
         <v>1</v>
       </c>
       <c r="AT23" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU23" s="15" t="s">
         <v>2</v>
@@ -5126,7 +5129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -5176,7 +5179,7 @@
       <c r="AU24" s="56"/>
       <c r="AV24" s="56"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -5186,7 +5189,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J25" s="45" t="s">
         <v>78</v>
@@ -5217,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="U25" s="45">
         <v>0.8</v>
@@ -5229,13 +5232,13 @@
         <v>51</v>
       </c>
       <c r="X25" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y25" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z25" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA25" s="15">
         <v>20</v>
@@ -5244,16 +5247,16 @@
         <v>5</v>
       </c>
       <c r="AC25" s="97" t="s">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="AD25" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE25" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF25" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="AF25" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="AG25" s="18" t="b">
         <v>1</v>
@@ -5274,7 +5277,7 @@
       <c r="AU25" s="18"/>
       <c r="AV25" s="15"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -5323,7 +5326,7 @@
       <c r="AU26" s="69"/>
       <c r="AV26" s="69"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -5343,7 +5346,7 @@
       <c r="R27" s="15"/>
       <c r="S27" s="97"/>
       <c r="T27" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U27" s="45">
         <v>0.9</v>
@@ -5355,13 +5358,13 @@
         <v>2</v>
       </c>
       <c r="X27" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y27" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z27" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA27" s="15"/>
       <c r="AB27" s="15"/>
@@ -5387,7 +5390,7 @@
         <v>50</v>
       </c>
       <c r="AN27" s="123" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO27" s="16" t="b">
         <v>0</v>
@@ -5404,7 +5407,7 @@
       <c r="AU27" s="18"/>
       <c r="AV27" s="15"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -5448,7 +5451,7 @@
         <v>50</v>
       </c>
       <c r="AN28" s="123" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO28" s="16"/>
       <c r="AP28" s="16"/>
@@ -5459,7 +5462,7 @@
       <c r="AU28" s="15"/>
       <c r="AV28" s="15"/>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -5508,7 +5511,7 @@
       <c r="AU29" s="69"/>
       <c r="AV29" s="69"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -5528,7 +5531,7 @@
       <c r="R30" s="15"/>
       <c r="S30" s="97"/>
       <c r="T30" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U30" s="15">
         <v>1</v>
@@ -5540,13 +5543,13 @@
         <v>2</v>
       </c>
       <c r="X30" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y30" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z30" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
@@ -5584,13 +5587,13 @@
         <v>0</v>
       </c>
       <c r="AR30" s="76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS30" s="19">
         <v>1</v>
       </c>
       <c r="AT30" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU30" s="15" t="s">
         <v>2</v>
@@ -5599,7 +5602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -5651,7 +5654,7 @@
       <c r="AU31" s="15"/>
       <c r="AV31" s="15"/>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="AL32" s="84" t="s">
@@ -5664,7 +5667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="T33" s="69"/>
@@ -5697,7 +5700,7 @@
       <c r="AU33" s="69"/>
       <c r="AV33" s="69"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="E34" s="15"/>
@@ -5705,7 +5708,7 @@
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="T34" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U34" s="15">
         <v>1</v>
@@ -5717,13 +5720,13 @@
         <v>2</v>
       </c>
       <c r="X34" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y34" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z34" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
@@ -5751,13 +5754,13 @@
         <v>0</v>
       </c>
       <c r="AR34" s="76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS34" s="19">
         <v>1</v>
       </c>
       <c r="AT34" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU34" s="15" t="s">
         <v>2</v>
@@ -5766,7 +5769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -5816,7 +5819,7 @@
       <c r="AU35" s="56"/>
       <c r="AV35" s="56"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -5826,10 +5829,10 @@
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J36" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K36" s="41">
         <v>0</v>
@@ -5851,7 +5854,7 @@
       <c r="R36" s="41"/>
       <c r="S36" s="99"/>
       <c r="T36" s="15" t="s">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="U36" s="15">
         <v>0.99</v>
@@ -5863,13 +5866,13 @@
         <v>51</v>
       </c>
       <c r="X36" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y36" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z36" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA36" s="15">
         <v>0</v>
@@ -5878,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="97" t="s">
-        <v>330</v>
+        <v>103</v>
       </c>
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
@@ -5904,7 +5907,7 @@
       <c r="AU36" s="15"/>
       <c r="AV36" s="15"/>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -5954,7 +5957,7 @@
       <c r="AU37" s="69"/>
       <c r="AV37" s="69"/>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -5975,7 +5978,7 @@
       <c r="R38" s="15"/>
       <c r="S38" s="97"/>
       <c r="T38" s="15" t="s">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="U38" s="15">
         <v>1</v>
@@ -5987,10 +5990,10 @@
         <v>51</v>
       </c>
       <c r="X38" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y38" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z38" s="15"/>
       <c r="AA38" s="15">
@@ -6000,16 +6003,16 @@
         <v>5</v>
       </c>
       <c r="AC38" s="97" t="s">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="AD38" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE38" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF38" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="AF38" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="AG38" s="18" t="b">
         <v>1</v>
@@ -6032,7 +6035,7 @@
       <c r="AU38" s="18"/>
       <c r="AV38" s="15"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -6082,11 +6085,11 @@
       <c r="AU39" s="69"/>
       <c r="AV39" s="69"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="T40" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U40" s="15">
         <v>1</v>
@@ -6098,13 +6101,13 @@
         <v>2</v>
       </c>
       <c r="X40" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y40" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z40" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
@@ -6132,13 +6135,13 @@
         <v>0</v>
       </c>
       <c r="AR40" s="76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS40" s="19">
         <v>1</v>
       </c>
       <c r="AT40" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU40" s="15" t="s">
         <v>2</v>
@@ -6147,7 +6150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -6197,7 +6200,7 @@
       <c r="AU41" s="56"/>
       <c r="AV41" s="56"/>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -6207,10 +6210,10 @@
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" s="41" t="s">
         <v>102</v>
-      </c>
-      <c r="J42" s="41" t="s">
-        <v>101</v>
       </c>
       <c r="K42" s="41">
         <v>0</v>
@@ -6232,7 +6235,7 @@
       <c r="R42" s="15"/>
       <c r="S42" s="97"/>
       <c r="T42" s="15" t="s">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="U42" s="15">
         <v>1</v>
@@ -6244,13 +6247,13 @@
         <v>51</v>
       </c>
       <c r="X42" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y42" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z42" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA42" s="15">
         <v>0</v>
@@ -6259,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="97" t="s">
-        <v>330</v>
+        <v>103</v>
       </c>
       <c r="AD42" s="15"/>
       <c r="AE42" s="15"/>
@@ -6289,7 +6292,7 @@
       <c r="AU42" s="15"/>
       <c r="AV42" s="15"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="T43" s="69"/>
@@ -6322,11 +6325,11 @@
       <c r="AU43" s="69"/>
       <c r="AV43" s="69"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="T44" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U44" s="15">
         <v>1</v>
@@ -6338,13 +6341,13 @@
         <v>2</v>
       </c>
       <c r="X44" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y44" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z44" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
@@ -6372,13 +6375,13 @@
         <v>0</v>
       </c>
       <c r="AR44" s="76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS44" s="19">
         <v>1</v>
       </c>
       <c r="AT44" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU44" s="15" t="s">
         <v>2</v>
@@ -6387,7 +6390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -6437,7 +6440,7 @@
       <c r="AU45" s="56"/>
       <c r="AV45" s="56"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -6447,10 +6450,10 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J46" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K46" s="41">
         <v>0</v>
@@ -6472,7 +6475,7 @@
       <c r="R46" s="15"/>
       <c r="S46" s="97"/>
       <c r="T46" s="15" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="U46" s="15">
         <v>1</v>
@@ -6484,13 +6487,13 @@
         <v>51</v>
       </c>
       <c r="X46" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y46" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z46" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA46" s="15">
         <v>0</v>
@@ -6499,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="97" t="s">
-        <v>330</v>
+        <v>103</v>
       </c>
       <c r="AD46" s="15"/>
       <c r="AE46" s="15"/>
@@ -6529,7 +6532,7 @@
       <c r="AU46" s="15"/>
       <c r="AV46" s="15"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -6579,11 +6582,11 @@
       <c r="AU47" s="69"/>
       <c r="AV47" s="69"/>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="T48" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U48" s="15">
         <v>1</v>
@@ -6595,13 +6598,13 @@
         <v>2</v>
       </c>
       <c r="X48" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y48" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z48" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA48" s="15"/>
       <c r="AB48" s="15"/>
@@ -6629,13 +6632,13 @@
         <v>0</v>
       </c>
       <c r="AR48" s="76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS48" s="19">
         <v>1</v>
       </c>
       <c r="AT48" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU48" s="15" t="s">
         <v>2</v>
@@ -6644,7 +6647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -6694,7 +6697,7 @@
       <c r="AU49" s="56"/>
       <c r="AV49" s="56"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -6704,7 +6707,7 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J50" s="41" t="s">
         <v>78</v>
@@ -6737,7 +6740,7 @@
         <v>2</v>
       </c>
       <c r="T50" s="15" t="s">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="U50" s="15">
         <v>1</v>
@@ -6749,16 +6752,16 @@
         <v>51</v>
       </c>
       <c r="X50" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y50" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z50" s="15"/>
       <c r="AA50" s="15"/>
       <c r="AB50" s="15"/>
       <c r="AC50" s="97" t="s">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="AD50" s="15"/>
       <c r="AE50" s="15"/>
@@ -6794,7 +6797,7 @@
       <c r="AU50" s="15"/>
       <c r="AV50" s="15"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -6852,7 +6855,7 @@
       <c r="AU51" s="69"/>
       <c r="AV51" s="69"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -6873,7 +6876,7 @@
       <c r="R52" s="15"/>
       <c r="S52" s="97"/>
       <c r="T52" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U52" s="15">
         <v>1</v>
@@ -6885,13 +6888,13 @@
         <v>2</v>
       </c>
       <c r="X52" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y52" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z52" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
@@ -6929,13 +6932,13 @@
         <v>0</v>
       </c>
       <c r="AR52" s="76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS52" s="19">
         <v>1</v>
       </c>
       <c r="AT52" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU52" s="15" t="s">
         <v>2</v>
@@ -6944,7 +6947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -7000,7 +7003,7 @@
       <c r="AU53" s="15"/>
       <c r="AV53" s="15"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="AL54" s="84" t="s">
@@ -7013,7 +7016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:48">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="T55" s="69"/>
@@ -7046,11 +7049,11 @@
       <c r="AU55" s="69"/>
       <c r="AV55" s="69"/>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:48">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="T56" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U56" s="15">
         <v>1</v>
@@ -7062,13 +7065,13 @@
         <v>2</v>
       </c>
       <c r="X56" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y56" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z56" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA56" s="15"/>
       <c r="AB56" s="15"/>
@@ -7096,13 +7099,13 @@
         <v>0</v>
       </c>
       <c r="AR56" s="76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS56" s="19">
         <v>1</v>
       </c>
       <c r="AT56" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU56" s="15" t="s">
         <v>2</v>
@@ -7111,7 +7114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:48" ht="12" customHeight="1">
       <c r="A57" s="59"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -7161,25 +7164,25 @@
       <c r="AU57" s="59"/>
       <c r="AV57" s="59"/>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:48">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="41"/>
       <c r="D58" s="99" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G58" s="15" t="b">
         <v>0</v>
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="42" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J58" s="41" t="s">
         <v>78</v>
@@ -7200,13 +7203,13 @@
         <v>10</v>
       </c>
       <c r="P58" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q58" s="15"/>
       <c r="R58" s="15"/>
       <c r="S58" s="97"/>
       <c r="T58" s="15" t="s">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="U58" s="15">
         <v>0.8</v>
@@ -7218,13 +7221,13 @@
         <v>51</v>
       </c>
       <c r="X58" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y58" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z58" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA58" s="15">
         <v>20</v>
@@ -7233,16 +7236,16 @@
         <v>5</v>
       </c>
       <c r="AC58" s="97" t="s">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="AD58" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE58" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF58" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="AF58" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="AG58" s="18" t="b">
         <v>1</v>
@@ -7265,7 +7268,7 @@
       <c r="AU58" s="18"/>
       <c r="AV58" s="15"/>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:48">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="41"/>
@@ -7315,7 +7318,7 @@
       <c r="AU59" s="69"/>
       <c r="AV59" s="69"/>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:48">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -7336,7 +7339,7 @@
       <c r="R60" s="15"/>
       <c r="S60" s="97"/>
       <c r="T60" s="45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U60" s="15">
         <v>1</v>
@@ -7348,13 +7351,13 @@
         <v>2</v>
       </c>
       <c r="X60" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y60" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z60" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA60" s="15"/>
       <c r="AB60" s="15"/>
@@ -7392,13 +7395,13 @@
         <v>0</v>
       </c>
       <c r="AR60" s="76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS60" s="19">
         <v>1</v>
       </c>
       <c r="AT60" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU60" s="15" t="s">
         <v>2</v>
@@ -7407,7 +7410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:48">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -7463,7 +7466,7 @@
       <c r="AU61" s="15"/>
       <c r="AV61" s="15"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="T62" s="45"/>
@@ -7477,7 +7480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -7527,7 +7530,7 @@
       <c r="AU63" s="69"/>
       <c r="AV63" s="69"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -7548,7 +7551,7 @@
       <c r="R64" s="15"/>
       <c r="S64" s="97"/>
       <c r="T64" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U64" s="15">
         <v>1</v>
@@ -7560,13 +7563,13 @@
         <v>68</v>
       </c>
       <c r="X64" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y64" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z64" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA64" s="15"/>
       <c r="AB64" s="15"/>
@@ -7594,13 +7597,13 @@
         <v>0</v>
       </c>
       <c r="AR64" s="76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS64" s="19">
         <v>1</v>
       </c>
       <c r="AT64" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU64" s="15" t="s">
         <v>2</v>
@@ -7609,7 +7612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:48" ht="12" customHeight="1">
       <c r="A65" s="59"/>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
@@ -7659,25 +7662,25 @@
       <c r="AU65" s="59"/>
       <c r="AV65" s="59"/>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:48">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="41"/>
       <c r="D66" s="99" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G66" s="15" t="b">
         <v>0</v>
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J66" s="41" t="s">
         <v>78</v>
@@ -7704,7 +7707,7 @@
       <c r="R66" s="15"/>
       <c r="S66" s="97"/>
       <c r="T66" s="15" t="s">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="U66" s="15">
         <v>0.8</v>
@@ -7716,13 +7719,13 @@
         <v>51</v>
       </c>
       <c r="X66" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y66" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z66" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA66" s="15">
         <v>20</v>
@@ -7731,16 +7734,16 @@
         <v>5</v>
       </c>
       <c r="AC66" s="97" t="s">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="AD66" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE66" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF66" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="AF66" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="AG66" s="18" t="b">
         <v>1</v>
@@ -7763,7 +7766,7 @@
       <c r="AU66" s="18"/>
       <c r="AV66" s="15"/>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:48">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="41"/>
@@ -7815,7 +7818,7 @@
       <c r="AU67" s="69"/>
       <c r="AV67" s="69"/>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:48">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -7836,7 +7839,7 @@
       <c r="R68" s="15"/>
       <c r="S68" s="97"/>
       <c r="T68" s="45" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="U68" s="15">
         <v>1</v>
@@ -7848,13 +7851,13 @@
         <v>2</v>
       </c>
       <c r="X68" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y68" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z68" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
@@ -7892,13 +7895,13 @@
         <v>0</v>
       </c>
       <c r="AR68" s="76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS68" s="19">
         <v>1</v>
       </c>
       <c r="AT68" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU68" s="15" t="s">
         <v>2</v>
@@ -7907,7 +7910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:48">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -7963,7 +7966,7 @@
       <c r="AU69" s="15"/>
       <c r="AV69" s="15"/>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:48">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="T70" s="45"/>
@@ -7977,7 +7980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:48">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -8027,7 +8030,7 @@
       <c r="AU71" s="69"/>
       <c r="AV71" s="69"/>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:48">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -8048,7 +8051,7 @@
       <c r="R72" s="15"/>
       <c r="S72" s="97"/>
       <c r="T72" s="45" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="U72" s="15">
         <v>1</v>
@@ -8060,13 +8063,13 @@
         <v>68</v>
       </c>
       <c r="X72" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y72" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z72" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA72" s="15"/>
       <c r="AB72" s="15"/>
@@ -8094,13 +8097,13 @@
         <v>0</v>
       </c>
       <c r="AR72" s="76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS72" s="19">
         <v>1</v>
       </c>
       <c r="AT72" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU72" s="15" t="s">
         <v>2</v>
@@ -8109,7 +8112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:48">
       <c r="A73" s="63"/>
       <c r="B73" s="63"/>
       <c r="C73" s="63"/>
@@ -8159,21 +8162,21 @@
       <c r="AU73" s="63"/>
       <c r="AV73" s="63"/>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:48">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
       <c r="D74" s="97" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
       <c r="I74" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J74" s="15" t="s">
         <v>78</v>
@@ -8194,13 +8197,13 @@
         <v>10</v>
       </c>
       <c r="P74" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q74" s="15"/>
       <c r="R74" s="15"/>
       <c r="S74" s="97"/>
       <c r="T74" s="15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="U74" s="15">
         <v>0.9</v>
@@ -8212,25 +8215,25 @@
         <v>2</v>
       </c>
       <c r="X74" s="15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Y74" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z74" s="15"/>
       <c r="AA74" s="15"/>
       <c r="AB74" s="15"/>
       <c r="AC74" s="97" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD74" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE74" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF74" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG74" s="16" t="b">
         <v>1</v>
@@ -8252,7 +8255,7 @@
         <v>50</v>
       </c>
       <c r="AN74" s="120" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO74" s="16"/>
       <c r="AP74" s="16"/>
@@ -8264,20 +8267,20 @@
         <v>50</v>
       </c>
       <c r="AT74" s="16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AU74" s="15"/>
       <c r="AV74" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:48">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
       <c r="D75" s="97"/>
       <c r="E75" s="15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
@@ -8318,7 +8321,7 @@
         <v>170</v>
       </c>
       <c r="AN75" s="120" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO75" s="16"/>
       <c r="AP75" s="16"/>
@@ -8330,12 +8333,12 @@
         <v>50</v>
       </c>
       <c r="AT75" s="16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AU75" s="15"/>
       <c r="AV75" s="15"/>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:48">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="95"/>
@@ -8699,57 +8702,57 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="T2" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="B4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="B5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="30" t="s">
@@ -8758,9 +8761,9 @@
       <c r="S5" s="29"/>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="B6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
@@ -8769,227 +8772,227 @@
       </c>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="B7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="T7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="T8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="T9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="T10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="T11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="T13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="T14" s="31"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="T15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="T16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="17:20" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="17:20">
       <c r="T17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="17:20" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="17:20">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
     </row>
-    <row r="19" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:20">
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="T19" s="31"/>
     </row>
-    <row r="20" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:20">
       <c r="T20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="17:20" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="17:20">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="17:20" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="17:20">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="17:20" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="17:20">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="17:20" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="17:20">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="17:20" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="17:20">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="17:20" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="17:20">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="17:20" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="17:20">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="17:20" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="17:20">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="17:20" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="17:20">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="17:20" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="17:20">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="17:20" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="17:20">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="17:20" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="17:20">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
     </row>
-    <row r="33" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="17:20">
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="17:20">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="17:20" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="17:20">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="17:20">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="17:20" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="17:20">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
     </row>
-    <row r="38" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="17:20">
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="17:20">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="17:20" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="17:20">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="T40" s="31"/>
     </row>
-    <row r="41" spans="17:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="17:20">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -9006,7 +9009,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.7109375" customWidth="1"/>
@@ -9019,7 +9022,7 @@
     <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -9030,10 +9033,10 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -9056,12 +9059,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -9085,7 +9088,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="E4" t="s">
         <v>78</v>
       </c>
@@ -9099,12 +9102,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -9113,12 +9116,12 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -9130,26 +9133,26 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -9173,9 +9176,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
         <v>78</v>
@@ -9184,9 +9187,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
         <v>78</v>
@@ -9195,17 +9198,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -9226,36 +9229,36 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J12" s="45"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="42" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -9267,15 +9270,15 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -9287,10 +9290,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -9307,19 +9310,19 @@
       <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -9331,9 +9334,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -9345,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -9356,12 +9359,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9370,53 +9373,53 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -9439,7 +9442,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -9465,7 +9468,7 @@
     <col min="35" max="35" width="2.42578125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1">
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -9479,7 +9482,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
@@ -9491,7 +9494,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="52"/>
       <c r="AA1" s="21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
@@ -9502,9 +9505,9 @@
       <c r="AH1" s="4"/>
       <c r="AI1" s="46"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="1" customFormat="1">
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -9545,14 +9548,14 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="49"/>
       <c r="AE2" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
       <c r="AI2" s="46"/>
     </row>
-    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -9560,7 +9563,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>57</v>
@@ -9584,7 +9587,7 @@
         <v>62</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>63</v>
@@ -9615,7 +9618,7 @@
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="23" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>26</v>
@@ -9635,7 +9638,7 @@
       </c>
       <c r="AD3" s="49"/>
       <c r="AE3" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>74</v>
@@ -9648,15 +9651,15 @@
       </c>
       <c r="AI3" s="46"/>
     </row>
-    <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="15" customFormat="1">
       <c r="A4" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" s="15">
         <v>0.8</v>
@@ -9668,10 +9671,10 @@
         <v>51</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J4" s="15">
         <v>20</v>
@@ -9680,28 +9683,28 @@
         <v>5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="15" t="s">
-        <v>83</v>
-      </c>
       <c r="Q4" s="18" t="b">
         <v>1</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
@@ -9720,7 +9723,7 @@
       <c r="AH4" s="18"/>
       <c r="AI4" s="47"/>
     </row>
-    <row r="5" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="47" customFormat="1">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="Q5" s="50"/>
@@ -9741,9 +9744,9 @@
       <c r="AG5" s="50"/>
       <c r="AH5" s="50"/>
     </row>
-    <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" s="15" customFormat="1">
       <c r="C6" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" s="15">
         <v>0.9</v>
@@ -9755,13 +9758,13 @@
         <v>68</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q6" s="16" t="b">
         <v>1</v>
@@ -9782,7 +9785,7 @@
         <v>50</v>
       </c>
       <c r="Y6" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z6" s="53"/>
       <c r="AA6" s="16" t="b">
@@ -9801,7 +9804,7 @@
       <c r="AH6" s="18"/>
       <c r="AI6" s="47"/>
     </row>
-    <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" s="15" customFormat="1">
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
@@ -9815,7 +9818,7 @@
         <v>50</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z7" s="53"/>
       <c r="AA7" s="16" t="b">
@@ -9830,7 +9833,7 @@
       <c r="AD7" s="50"/>
       <c r="AI7" s="47"/>
     </row>
-    <row r="8" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" s="47" customFormat="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="Q8" s="50"/>
@@ -9847,9 +9850,9 @@
       <c r="AC8" s="50"/>
       <c r="AD8" s="50"/>
     </row>
-    <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" s="15" customFormat="1">
       <c r="C9" s="15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E9" s="15">
         <v>1</v>
@@ -9861,10 +9864,10 @@
         <v>68</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>6</v>
@@ -9902,20 +9905,20 @@
       </c>
       <c r="AD9" s="50"/>
       <c r="AE9" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF9" s="15">
         <v>1</v>
       </c>
       <c r="AG9" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH9" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AI9" s="47"/>
     </row>
-    <row r="10" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" s="15" customFormat="1">
       <c r="V10" s="47"/>
       <c r="W10" s="15" t="s">
         <v>38</v>
@@ -9933,7 +9936,7 @@
       <c r="AD10" s="50"/>
       <c r="AI10" s="47"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="W11" s="15" t="s">
         <v>37</v>
       </c>
@@ -9944,7 +9947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="15" customFormat="1">
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
@@ -9960,7 +9963,7 @@
       <c r="AD12" s="50"/>
       <c r="AI12" s="47"/>
     </row>
-    <row r="13" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" s="15" customFormat="1">
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
@@ -9976,7 +9979,7 @@
       <c r="AD13" s="50"/>
       <c r="AI13" s="47"/>
     </row>
-    <row r="14" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" s="56" customFormat="1">
       <c r="Q14" s="57"/>
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
@@ -9991,15 +9994,15 @@
       <c r="AC14" s="57"/>
       <c r="AD14" s="57"/>
     </row>
-    <row r="15" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" s="15" customFormat="1">
       <c r="A15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" s="15">
         <v>0.8</v>
@@ -10008,10 +10011,10 @@
         <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" s="15">
         <v>20</v>
@@ -10020,66 +10023,66 @@
         <v>5</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="P15" s="15" t="s">
-        <v>83</v>
-      </c>
       <c r="Q15" s="18" t="b">
         <v>1</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="50"/>
       <c r="W15" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Z15" s="50"/>
       <c r="AA15" s="16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AD15" s="50"/>
       <c r="AE15" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AI15" s="47"/>
     </row>
-    <row r="16" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" s="15" customFormat="1">
       <c r="C16" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E16" s="15">
         <v>0.9</v>
@@ -10091,7 +10094,7 @@
         <v>54</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="16" t="b">
         <v>1</v>
@@ -10112,7 +10115,7 @@
         <v>50</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z16" s="53"/>
       <c r="AA16" s="16" t="b">
@@ -10126,20 +10129,20 @@
       </c>
       <c r="AD16" s="50"/>
       <c r="AE16" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AI16" s="47"/>
     </row>
-    <row r="17" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" s="15" customFormat="1">
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
@@ -10153,7 +10156,7 @@
         <v>50</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z17" s="53"/>
       <c r="AA17" s="16" t="b">
@@ -10168,9 +10171,9 @@
       <c r="AD17" s="50"/>
       <c r="AI17" s="47"/>
     </row>
-    <row r="18" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" s="15" customFormat="1">
       <c r="C18" s="15" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -10182,7 +10185,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="16" t="b">
         <v>1</v>
@@ -10218,7 +10221,7 @@
       <c r="AD18" s="50"/>
       <c r="AI18" s="47"/>
     </row>
-    <row r="19" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" s="15" customFormat="1">
       <c r="V19" s="47"/>
       <c r="W19" s="15" t="s">
         <v>38</v>
@@ -10236,7 +10239,7 @@
       <c r="AD19" s="50"/>
       <c r="AI19" s="47"/>
     </row>
-    <row r="20" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" s="15" customFormat="1">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -10278,11 +10281,11 @@
       <c r="AH20"/>
       <c r="AI20" s="47"/>
     </row>
-    <row r="21" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" s="15" customFormat="1">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -10294,36 +10297,36 @@
         <v>2</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="S21" s="15" t="b">
         <v>1</v>
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Z21" s="47"/>
       <c r="AA21" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AB21" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AD21" s="47"/>
       <c r="AE21"/>
@@ -10332,7 +10335,7 @@
       <c r="AH21"/>
       <c r="AI21" s="47"/>
     </row>
-    <row r="22" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" s="15" customFormat="1">
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
@@ -10348,9 +10351,9 @@
       <c r="AD22" s="50"/>
       <c r="AI22" s="47"/>
     </row>
-    <row r="23" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" s="15" customFormat="1">
       <c r="C23" s="15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E23" s="15">
         <v>0.9</v>
@@ -10362,22 +10365,22 @@
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q23" s="16" t="b">
         <v>1</v>
@@ -10400,17 +10403,17 @@
         <v>50</v>
       </c>
       <c r="Y23" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AD23" s="50"/>
       <c r="AE23" s="16" t="s">
@@ -10420,11 +10423,11 @@
         <v>50</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AI23" s="47"/>
     </row>
-    <row r="24" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" s="15" customFormat="1">
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
@@ -10438,17 +10441,17 @@
         <v>170</v>
       </c>
       <c r="Y24" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z24" s="53"/>
       <c r="AA24" s="16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AD24" s="50"/>
       <c r="AE24" s="16" t="s">
@@ -10458,11 +10461,11 @@
         <v>50</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AI24" s="47"/>
     </row>
-    <row r="25" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" s="15" customFormat="1">
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
@@ -10478,7 +10481,7 @@
       <c r="AD25" s="50"/>
       <c r="AI25" s="47"/>
     </row>
-    <row r="26" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" s="15" customFormat="1">
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
@@ -10494,7 +10497,7 @@
       <c r="AD26" s="50"/>
       <c r="AI26" s="47"/>
     </row>
-    <row r="27" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" s="15" customFormat="1">
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
@@ -10510,7 +10513,7 @@
       <c r="AD27" s="50"/>
       <c r="AI27" s="47"/>
     </row>
-    <row r="28" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" s="15" customFormat="1">
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
@@ -10526,7 +10529,7 @@
       <c r="AD28" s="50"/>
       <c r="AI28" s="47"/>
     </row>
-    <row r="29" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" s="15" customFormat="1">
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
@@ -10542,7 +10545,7 @@
       <c r="AD29" s="50"/>
       <c r="AI29" s="47"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1"/>
     </row>
   </sheetData>
@@ -10594,28 +10597,28 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>58</v>
@@ -10627,40 +10630,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="C4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="C5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -10672,10 +10675,10 @@
         <v>100000</v>
       </c>
       <c r="G5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="D6">
         <v>1</v>
       </c>
@@ -10686,7 +10689,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="D7">
         <v>4</v>
       </c>
@@ -10697,7 +10700,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="D8">
         <v>52</v>
       </c>
@@ -10709,77 +10712,77 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="D9">
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F9">
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13">
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="C14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="C15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -10791,15 +10794,15 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="C16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D16">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F16">
         <v>7000</v>
@@ -10818,14 +10821,14 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -10833,7 +10836,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
@@ -10845,231 +10848,231 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C4" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C5" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C6" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D6" s="32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="32" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>209</v>
-      </c>
       <c r="B7" s="33" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C7" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D7" s="33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>210</v>
       </c>
       <c r="C8" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C9" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C10" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C11" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C12" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C13" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C14" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C15" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C16" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="33" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C17" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="33" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C18" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C19" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32" t="e">
@@ -11077,7 +11080,7 @@
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35" t="e">
@@ -11085,77 +11088,77 @@
       </c>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="32" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C22" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="33" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C23" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="32" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C24" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="33" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C25" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="32" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C26" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35" t="e">
@@ -11163,91 +11166,91 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="32" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C28" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="33" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C29" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="32" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C30" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="33" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C31" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="32" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C32" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="33" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C33" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35" t="e">
@@ -11255,77 +11258,77 @@
       </c>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="33" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C35" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="32" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C36" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="33" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C37" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="32" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C38" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="33" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C39" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37" t="e">
@@ -11333,7 +11336,7 @@
       </c>
       <c r="D40" s="38"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35" t="e">
@@ -11341,21 +11344,21 @@
       </c>
       <c r="D41" s="35"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="32" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C42" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35" t="e">
@@ -11363,231 +11366,231 @@
       </c>
       <c r="D43" s="35"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="32" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C44" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="33" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C45" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="32" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C46" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="33" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C47" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="32" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C48" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="33" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C49" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="32" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C50" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="33" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C51" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="32" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C52" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="33" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C53" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="32" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C54" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="33" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C55" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="32" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C56" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="33" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C57" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="32" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C58" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="33" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C59" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="35" t="e">
@@ -11595,91 +11598,91 @@
       </c>
       <c r="D60" s="35"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="33" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C61" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="32" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C62" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="33" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C63" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="32" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C64" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="33" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C65" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="32" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C66" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="37"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37" t="e">
@@ -11687,7 +11690,7 @@
       </c>
       <c r="D67" s="38"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="35"/>
       <c r="B68" s="35"/>
       <c r="C68" s="35" t="e">
@@ -11695,46 +11698,46 @@
       </c>
       <c r="D68" s="35"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="33" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C69" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="32" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C70" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="33" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C71" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2084" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FA6AA625-5D94-4DE4-A4EC-22330BB3A9D4}"/>
+  <xr:revisionPtr revIDLastSave="2090" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E177B027-0D5E-48C5-BF64-8AAE3D4B8B50}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,10 +511,10 @@
     <t>step</t>
   </si>
   <si>
-    <t>protection_trip</t>
-  </si>
-  <si>
     <t>inspection_protection</t>
+  </si>
+  <si>
+    <t>protection</t>
   </si>
   <si>
     <t>fire_damage</t>
@@ -1768,7 +1768,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="78">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3557,8 +3571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AV80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46"/>
+    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC46" sqref="AC46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -5881,7 +5895,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="97" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
@@ -5978,7 +5992,7 @@
       <c r="R38" s="15"/>
       <c r="S38" s="97"/>
       <c r="T38" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U38" s="15">
         <v>1</v>
@@ -6003,7 +6017,7 @@
         <v>5</v>
       </c>
       <c r="AC38" s="97" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="AD38" s="15" t="s">
         <v>84</v>
@@ -6235,7 +6249,7 @@
       <c r="R42" s="15"/>
       <c r="S42" s="97"/>
       <c r="T42" s="15" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="U42" s="15">
         <v>1</v>
@@ -6262,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AD42" s="15"/>
       <c r="AE42" s="15"/>
@@ -6475,7 +6489,7 @@
       <c r="R46" s="15"/>
       <c r="S46" s="97"/>
       <c r="T46" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U46" s="15">
         <v>1</v>
@@ -6502,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AD46" s="15"/>
       <c r="AE46" s="15"/>
@@ -8348,342 +8362,352 @@
       <c r="H80" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AL13 B7:B13 X16:X17 U16:W16 C23:D23 E22:H23 B67:B70 B16:B23 C18:D20 E17:H19 C7:G7 AG17:AN17 AD50:AQ50 AG25:AN25 AL23:AQ23 AL19:AQ20 AL40:AQ40 AL48:AQ48 AL56:AQ56 AN52:AQ53 AL44:AQ44 AL34:AQ34 AL30:AQ31 AO22:AV22 AO39:AQ39 AO17:AV18 AO47:AV47 AO55:AV55 AO51:AV51 AO43:AV43 AO33:AV33 AO25:AV29 AO37:AQ37 AR37:AV39 AO5:AV10 AL11:AV12 AL15:AV15 AO14:AV14 AL68:AV69 AO67:AV67 AL72:AV72 AO71:AV71 AL60:AV61 AO59:AV59 AL64:AV64 AO63:AV63 P46:Y46 P12:S12 I7:O12 P37:S40 P48:S48 P52:S56 P71:S72 P61:S61 P34:S34 P29:S31 P76:U77 P15:V15 P24:W24 P27:Y27 B5:G6 I23:S23 I18:S20 C67:S69 B71:O77 C59:O61 B63:S64 I26:O31 B14:O15 C24:O25 AL38:AQ38 P42:S44 B35:H56 I34:O56 Z17:AC17 T22:AB22 T39:AB39 T18:AB18 T55:AB55 T43:AB43 T33:AB33 T71:AB71 T67:AB67 T37:AK37 T63:AB63 Y16:AU16 W76:AB77 Y24:AU24 AC10:AK11 P28:AB28 AC60:AF60 P14:AB14 P26:AK26 P59:AB60 AC59:AK59 AV59:AV60 AC8:AN9 P73:AB75 AC73:AU77 P35:AU35 P45:AU45 AC49:AU49 P41:AU41 P47:AB47 P7:AB11 AC7:AK7 I5:AN6 AV5:AV11 X15:AB15 AC14:AK15 AA36:AQ36 X19:AB19 AC18:AK19 AV14:AV19 AA46:AQ46 U23:AB23 AC22:AK23 U40:AB40 AC39:AK40 U48:AB48 AC47:AK48 AA42:AQ42 T52:AB52 AC51:AK52 U56:AB56 AC55:AK56 AV55:AV56 U44:AB44 AC43:AK44 AA25:AC25 AA27:AB27 AC27:AN28 T29:AK30 AV22:AV30 U34:AB34 AC33:AK34 U68:AB68 AC67:AK68 AV66:AV68 U72:AB72 AC71:AK72 AV71:AV77 Z38:AC38 AV33:AV52 U64:AB64 AC63:AK64 AV63:AV64 C9:G12 C8:F8 C16:T17 P25:T25 P36:Y36 T42:Y42 P49:AB51 B58:AV58 B66:AU66">
-    <cfRule type="cellIs" dxfId="75" priority="182" operator="equal">
+  <conditionalFormatting sqref="AL13 B7:B13 X16:X17 U16:W16 C23:D23 E22:H23 B67:B70 B16:B23 C18:D20 E17:H19 C7:G7 AG17:AN17 AD50:AQ50 AG25:AN25 AL23:AQ23 AL19:AQ20 AL40:AQ40 AL48:AQ48 AL56:AQ56 AN52:AQ53 AL44:AQ44 AL34:AQ34 AL30:AQ31 AO22:AV22 AO39:AQ39 AO17:AV18 AO47:AV47 AO55:AV55 AO51:AV51 AO43:AV43 AO33:AV33 AO25:AV29 AO37:AQ37 AR37:AV39 AO5:AV10 AL11:AV12 AL15:AV15 AO14:AV14 AL68:AV69 AO67:AV67 AL72:AV72 AO71:AV71 AL60:AV61 AO59:AV59 AL64:AV64 AO63:AV63 P46:Y46 P12:S12 I7:O12 P37:S40 P48:S48 P52:S56 P71:S72 P61:S61 P34:S34 P29:S31 P76:U77 P15:V15 P24:W24 P27:Y27 B5:G6 I23:S23 I18:S20 C67:S69 B71:O77 C59:O61 B63:S64 I26:O31 B14:O15 C24:O25 AL38:AQ38 P42:S44 B35:H56 I34:O56 Z17:AC17 T22:AB22 T39:AB39 T18:AB18 T55:AB55 T43:AB43 T33:AB33 T71:AB71 T67:AB67 T37:AK37 T63:AB63 Y16:AU16 W76:AB77 Y24:AU24 AC10:AK11 P28:AB28 AC60:AF60 P14:AB14 P26:AK26 P59:AB60 AC59:AK59 AV59:AV60 AC8:AN9 P73:AB75 AC73:AU77 P35:AU35 P45:AU45 AC49:AU49 P41:AU41 P47:AB47 P7:AB11 AC7:AK7 I5:AN6 AV5:AV11 X15:AB15 AC14:AK15 AA36:AQ36 X19:AB19 AC18:AK19 AV14:AV19 U23:AB23 AC22:AK23 U40:AB40 AC39:AK40 U48:AB48 AC47:AK48 T52:AB52 AC51:AK52 U56:AB56 AC55:AK56 AV55:AV56 U44:AB44 AC43:AK44 AA25:AC25 AA27:AB27 AC27:AN28 T29:AK30 AV22:AV30 U34:AB34 AC33:AK34 U68:AB68 AC67:AK68 AV66:AV68 U72:AB72 AC71:AK72 AV71:AV77 Z38:AC38 AV33:AV52 U64:AB64 AC63:AK64 AV63:AV64 C9:G12 C8:F8 C16:T17 P25:T25 P36:Y36 T42:Y42 P49:AB51 B58:AV58 B66:AU66 AA42:AQ42 AA46:AQ46">
+    <cfRule type="cellIs" dxfId="77" priority="184" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17:V17">
-    <cfRule type="cellIs" dxfId="74" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="182" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC17">
+    <cfRule type="cellIs" dxfId="75" priority="180" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD17:AF17">
+    <cfRule type="cellIs" dxfId="74" priority="179" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W17:Y17">
     <cfRule type="cellIs" dxfId="73" priority="178" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD17:AF17">
-    <cfRule type="cellIs" dxfId="72" priority="177" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W17:Y17">
-    <cfRule type="cellIs" dxfId="71" priority="176" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U35:W35">
-    <cfRule type="cellIs" dxfId="70" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="172" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U36:V36">
-    <cfRule type="cellIs" dxfId="69" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="171" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC36">
+    <cfRule type="cellIs" dxfId="70" priority="169" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD36:AF36">
+    <cfRule type="cellIs" dxfId="69" priority="168" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W36:Y36">
     <cfRule type="cellIs" dxfId="68" priority="167" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD36:AF36">
-    <cfRule type="cellIs" dxfId="67" priority="166" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W36:Y36">
-    <cfRule type="cellIs" dxfId="66" priority="165" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AR36:AV36">
-    <cfRule type="cellIs" dxfId="65" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="162" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR19:AV20 AL21 T19:V19">
-    <cfRule type="cellIs" dxfId="64" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="152" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR23:AV23">
-    <cfRule type="cellIs" dxfId="63" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="149" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR40:AV40">
-    <cfRule type="cellIs" dxfId="62" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="141" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM52:AM53">
-    <cfRule type="cellIs" dxfId="61" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="100" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U46:V46">
+    <cfRule type="cellIs" dxfId="62" priority="133" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC46">
+    <cfRule type="cellIs" dxfId="61" priority="132" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD46:AF46">
     <cfRule type="cellIs" dxfId="60" priority="131" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC46">
+  <conditionalFormatting sqref="W46:Y46">
     <cfRule type="cellIs" dxfId="59" priority="130" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD46:AF46">
-    <cfRule type="cellIs" dxfId="58" priority="129" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W46:Y46">
-    <cfRule type="cellIs" dxfId="57" priority="128" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AR46:AV46">
-    <cfRule type="cellIs" dxfId="56" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="127" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR48:AV48">
-    <cfRule type="cellIs" dxfId="55" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="123" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U50:V50">
-    <cfRule type="cellIs" dxfId="54" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="115" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD50:AF50">
-    <cfRule type="cellIs" dxfId="53" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="113" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W50:Y50">
-    <cfRule type="cellIs" dxfId="52" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="112" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR50:AV50">
+    <cfRule type="cellIs" dxfId="53" priority="109" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR52:AV53 AL54">
+    <cfRule type="cellIs" dxfId="52" priority="108" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL52:AL53">
     <cfRule type="cellIs" dxfId="51" priority="107" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR52:AV53 AL54">
-    <cfRule type="cellIs" dxfId="50" priority="106" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL52:AL53">
-    <cfRule type="cellIs" dxfId="49" priority="105" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AR56:AV56">
-    <cfRule type="cellIs" dxfId="48" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="105" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42:V42">
+    <cfRule type="cellIs" dxfId="49" priority="97" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC42">
+    <cfRule type="cellIs" dxfId="48" priority="96" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD42:AF42">
     <cfRule type="cellIs" dxfId="47" priority="95" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC42">
+  <conditionalFormatting sqref="W42:Y42">
     <cfRule type="cellIs" dxfId="46" priority="94" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD42:AF42">
-    <cfRule type="cellIs" dxfId="45" priority="93" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W42:Y42">
-    <cfRule type="cellIs" dxfId="44" priority="92" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AR42:AV42">
-    <cfRule type="cellIs" dxfId="43" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="91" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR44:AV44">
-    <cfRule type="cellIs" dxfId="42" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="87" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24:X25 B24:B34 C26:D31 E26:H30 C34:D34 E33:H34">
+    <cfRule type="cellIs" dxfId="43" priority="81" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U25:V25">
+    <cfRule type="cellIs" dxfId="42" priority="80" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC25">
     <cfRule type="cellIs" dxfId="41" priority="79" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U25:V25">
+  <conditionalFormatting sqref="AD25:AF25">
     <cfRule type="cellIs" dxfId="40" priority="78" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC25">
+  <conditionalFormatting sqref="W25:Y25">
     <cfRule type="cellIs" dxfId="39" priority="77" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD25:AF25">
-    <cfRule type="cellIs" dxfId="38" priority="76" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W25:Y25">
-    <cfRule type="cellIs" dxfId="37" priority="75" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AR30:AV31 AL32">
-    <cfRule type="cellIs" dxfId="36" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="73" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR34:AV34">
-    <cfRule type="cellIs" dxfId="35" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="70" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL70">
-    <cfRule type="cellIs" dxfId="34" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="57" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
+    <cfRule type="cellIs" dxfId="35" priority="48" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W19">
+    <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z46">
     <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W19">
+  <conditionalFormatting sqref="Z42">
     <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z46">
+  <conditionalFormatting sqref="Z36">
     <cfRule type="cellIs" dxfId="31" priority="44" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z42">
+  <conditionalFormatting sqref="Z25">
     <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z36">
+  <conditionalFormatting sqref="Z27">
     <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z25">
+  <conditionalFormatting sqref="AC50">
     <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z27">
+  <conditionalFormatting sqref="AC50">
     <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC50">
+  <conditionalFormatting sqref="T23">
     <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC50">
+  <conditionalFormatting sqref="T34">
     <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T23">
+  <conditionalFormatting sqref="T40">
     <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T34">
+  <conditionalFormatting sqref="T44">
     <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T40">
+  <conditionalFormatting sqref="T48">
     <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T44">
+  <conditionalFormatting sqref="T56">
     <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T48">
+  <conditionalFormatting sqref="T72">
     <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T56">
-    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
+  <conditionalFormatting sqref="X38 T38">
+    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T72">
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+  <conditionalFormatting sqref="U38:V38 AG38:AK38">
+    <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X38 T38">
+  <conditionalFormatting sqref="AC38">
     <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U38:V38 AG38:AK38">
+  <conditionalFormatting sqref="AD38:AF38">
     <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC38">
+  <conditionalFormatting sqref="W38:Y38">
     <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD38:AF38">
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W38:Y38">
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B59:B62">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL62 AG60:AK60">
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T64">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T68">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H12 G8">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC42">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC46">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23602"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2090" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E177B027-0D5E-48C5-BF64-8AAE3D4B8B50}"/>
+  <xr:revisionPtr revIDLastSave="2099" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{40CE9587-8A14-431E-ADCF-D842BCB9472D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,6 +53,7 @@
     <author>tc={A36EDA56-9BB8-4481-8541-35CA7263BBE2}</author>
     <author>tc={214FAD6C-C7E5-485F-8706-D09B002BBC46}</author>
     <author>tc={87DFEB67-927C-442C-956F-66557C9248F0}</author>
+    <author>tc={C0B5B783-6F49-48BB-AF50-66A6DF6487E7}</author>
     <author>tc={2C545A15-58BF-4325-853E-F01A6E2CD754}</author>
     <author>tc={B6F30610-5DE2-43DC-8686-4075E019810F}</author>
     <author>tc={F6470554-740D-4816-85E3-E23C5729D666}</author>
@@ -113,7 +114,15 @@
     add safety factor back</t>
       </text>
     </comment>
-    <comment ref="D52" authorId="6" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+    <comment ref="AL17" authorId="6" shapeId="0" xr:uid="{C0B5B783-6F49-48BB-AF50-66A6DF6487E7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    add safety factor back</t>
+      </text>
+    </comment>
+    <comment ref="D56" authorId="7" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -121,7 +130,7 @@
     Change task type to planned / reactive / risk?</t>
       </text>
     </comment>
-    <comment ref="D58" authorId="7" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
+    <comment ref="D62" authorId="8" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -129,7 +138,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="I58" authorId="8" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
+    <comment ref="I62" authorId="9" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -137,7 +146,7 @@
     Break it out later</t>
       </text>
     </comment>
-    <comment ref="Z58" authorId="9" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+    <comment ref="Z62" authorId="10" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -146,7 +155,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="T60" authorId="10" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+    <comment ref="T64" authorId="11" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -154,7 +163,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="D66" authorId="11" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+    <comment ref="D70" authorId="12" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -162,7 +171,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="Z66" authorId="12" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+    <comment ref="Z70" authorId="13" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -171,7 +180,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="T68" authorId="13" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
+    <comment ref="T72" authorId="14" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -179,7 +188,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="E74" authorId="14" shapeId="0" xr:uid="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
+    <comment ref="E78" authorId="15" shapeId="0" xr:uid="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -187,7 +196,7 @@
     fix method to allow multiple indicators for one component</t>
       </text>
     </comment>
-    <comment ref="I74" authorId="15" shapeId="0" xr:uid="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
+    <comment ref="I78" authorId="16" shapeId="0" xr:uid="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -200,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="334">
   <si>
     <t>Cause</t>
   </si>
@@ -494,6 +503,9 @@
   </si>
   <si>
     <t>CAT1/2 replacement</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>fungal decay _ external</t>
@@ -1768,7 +1780,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="80">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2615,36 +2641,39 @@
   <threadedComment ref="AL13" dT="2020-09-10T03:27:58.22" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{87DFEB67-927C-442C-956F-66557C9248F0}">
     <text>add safety factor back</text>
   </threadedComment>
-  <threadedComment ref="D52" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+  <threadedComment ref="AL17" dT="2020-09-10T03:27:58.22" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C0B5B783-6F49-48BB-AF50-66A6DF6487E7}">
+    <text>add safety factor back</text>
+  </threadedComment>
+  <threadedComment ref="D56" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
     <text>Change task type to planned / reactive / risk?</text>
   </threadedComment>
-  <threadedComment ref="D58" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B6F30610-5DE2-43DC-8686-4075E019810F}">
+  <threadedComment ref="D62" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B6F30610-5DE2-43DC-8686-4075E019810F}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="I58" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F6470554-740D-4816-85E3-E23C5729D666}">
+  <threadedComment ref="I62" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F6470554-740D-4816-85E3-E23C5729D666}">
     <text>Break it out later</text>
   </threadedComment>
-  <threadedComment ref="Z58" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+  <threadedComment ref="Z62" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="T60" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+  <threadedComment ref="T64" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
     <text>Make this a repair task</text>
   </threadedComment>
-  <threadedComment ref="D66" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+  <threadedComment ref="D70" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="Z66" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+  <threadedComment ref="Z70" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="T68" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{65DC17AD-63E9-433B-A662-056382EECC79}">
+  <threadedComment ref="T72" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{65DC17AD-63E9-433B-A662-056382EECC79}">
     <text>Make this a repair task</text>
   </threadedComment>
-  <threadedComment ref="E74" dT="2020-09-15T23:18:34.59" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
+  <threadedComment ref="E78" dT="2020-09-15T23:18:34.59" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
     <text>fix method to allow multiple indicators for one component</text>
   </threadedComment>
-  <threadedComment ref="I74" dT="2020-09-15T22:13:46.05" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
+  <threadedComment ref="I78" dT="2020-09-15T22:13:46.05" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
     <text>Create error catch for this method</text>
   </threadedComment>
 </ThreadedComments>
@@ -2697,134 +2726,134 @@
   <sheetData>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="O12" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="F13" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="F14" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="F15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="S15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="F16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q16" t="s">
         <v>96</v>
       </c>
       <c r="S16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="F17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="O18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="F20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="D31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -2836,13 +2865,13 @@
         <v>89</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>95</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>93</v>
@@ -2850,27 +2879,27 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K33" t="s">
         <v>51</v>
       </c>
       <c r="R33" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2878,13 +2907,13 @@
     </row>
     <row r="34" spans="2:19">
       <c r="C34" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K34" t="s">
         <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="S34">
         <v>0.5</v>
@@ -2892,16 +2921,16 @@
     </row>
     <row r="35" spans="2:19">
       <c r="C35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D35" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R35" t="s">
         <v>96</v>
@@ -2912,13 +2941,13 @@
     </row>
     <row r="36" spans="2:19">
       <c r="D36" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -2934,10 +2963,10 @@
     </row>
     <row r="38" spans="2:19">
       <c r="C38" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
@@ -2945,13 +2974,13 @@
     </row>
     <row r="39" spans="2:19">
       <c r="C39" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E39" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="2:19">
@@ -2971,29 +3000,29 @@
     </row>
     <row r="52" spans="1:12">
       <c r="H52" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="E54" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -3027,17 +3056,17 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="F59" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="B60" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E60" t="s">
         <v>95</v>
@@ -3045,58 +3074,58 @@
     </row>
     <row r="61" spans="1:12">
       <c r="E61" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="E62" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B70">
         <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B71">
         <v>12.5</v>
       </c>
       <c r="C71" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -3128,48 +3157,48 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" t="s">
+        <v>318</v>
+      </c>
+      <c r="I4" t="s">
+        <v>316</v>
+      </c>
+      <c r="J4" t="s">
         <v>317</v>
       </c>
-      <c r="I4" t="s">
-        <v>315</v>
-      </c>
-      <c r="J4" t="s">
-        <v>316</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="R4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -3179,18 +3208,18 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R5" s="41" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="H6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I6">
         <f>I5/4</f>
@@ -3202,51 +3231,51 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="R7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="H8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
@@ -3254,7 +3283,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="H10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
@@ -3262,12 +3291,12 @@
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="B12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I12" s="9">
         <v>3.7</v>
@@ -3279,20 +3308,20 @@
     </row>
     <row r="16" spans="1:19">
       <c r="J16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="10:10">
       <c r="J19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1048576" spans="15:15">
       <c r="O1048576" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3569,10 +3598,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
-  <dimension ref="A1:AV80"/>
+  <dimension ref="A1:AV84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC46" sqref="AC46"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4616,7 +4645,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="H15" s="139"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -4655,16 +4684,26 @@
       <c r="AD15" s="15"/>
       <c r="AE15" s="15"/>
       <c r="AF15" s="15"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
+      <c r="AG15" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AI15" s="16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="16"/>
       <c r="AK15" s="110"/>
-      <c r="AL15" s="84"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="120"/>
+      <c r="AL15" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM15" s="80">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="119">
+        <v>50</v>
+      </c>
       <c r="AO15" s="16" t="b">
         <v>0</v>
       </c>
@@ -4698,143 +4737,67 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="133"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="102"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="102"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="57"/>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="112"/>
-      <c r="AL16" s="85"/>
-      <c r="AM16" s="58"/>
-      <c r="AN16" s="121"/>
-      <c r="AO16" s="57"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="112"/>
-      <c r="AR16" s="78"/>
-      <c r="AS16" s="58"/>
-      <c r="AT16" s="56"/>
-      <c r="AU16" s="56"/>
-      <c r="AV16" s="56"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="97"/>
+      <c r="AL16" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM16" s="80">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="119">
+        <v>50</v>
+      </c>
+      <c r="AO16" s="16"/>
+      <c r="AP16" s="16"/>
+      <c r="AQ16" s="110"/>
+      <c r="AR16" s="76"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="15"/>
+      <c r="AV16" s="15"/>
     </row>
     <row r="17" spans="1:48">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="45">
-        <v>10</v>
-      </c>
-      <c r="L17" s="130">
-        <v>1</v>
-      </c>
-      <c r="M17" s="45">
-        <v>125</v>
-      </c>
-      <c r="N17" s="45">
-        <v>3.3</v>
-      </c>
-      <c r="O17" s="130">
-        <v>10</v>
-      </c>
-      <c r="P17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="97">
-        <v>1</v>
-      </c>
-      <c r="T17" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="U17" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="V17" s="15">
-        <v>50</v>
-      </c>
-      <c r="W17" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="X17" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y17" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15">
-        <v>20</v>
-      </c>
-      <c r="AB17" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC17" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD17" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE17" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF17" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG17" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="108"/>
-      <c r="AL17" s="84"/>
-      <c r="AM17" s="18"/>
-      <c r="AN17" s="108"/>
-      <c r="AO17" s="16"/>
-      <c r="AP17" s="18"/>
-      <c r="AQ17" s="108"/>
-      <c r="AR17" s="74"/>
-      <c r="AS17" s="93"/>
-      <c r="AT17" s="18"/>
-      <c r="AU17" s="18"/>
-      <c r="AV17" s="15"/>
+      <c r="H17" s="138"/>
+      <c r="AL17" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM17" s="80">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="119">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:48">
       <c r="A18" s="15"/>
@@ -4842,8 +4805,9 @@
       <c r="C18" s="15"/>
       <c r="D18" s="97"/>
       <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="H18" s="139"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -4891,6 +4855,7 @@
       <c r="C19" s="15"/>
       <c r="D19" s="97"/>
       <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
@@ -4905,13 +4870,13 @@
       <c r="R19" s="15"/>
       <c r="S19" s="97"/>
       <c r="T19" s="15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="U19" s="15">
         <v>1</v>
       </c>
-      <c r="V19" s="15">
-        <v>3500</v>
+      <c r="V19" s="45">
+        <v>15000</v>
       </c>
       <c r="W19" s="15" t="s">
         <v>2</v>
@@ -4931,26 +4896,16 @@
       <c r="AD19" s="15"/>
       <c r="AE19" s="15"/>
       <c r="AF19" s="15"/>
-      <c r="AG19" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH19" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
       <c r="AI19" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19" s="16"/>
       <c r="AK19" s="110"/>
-      <c r="AL19" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM19" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="120">
-        <v>50</v>
-      </c>
+      <c r="AL19" s="84"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="120"/>
       <c r="AO19" s="16" t="b">
         <v>0</v>
       </c>
@@ -4981,69 +4936,166 @@
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="97"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="97"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="97"/>
-      <c r="AL20" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM20" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="120">
-        <v>50</v>
-      </c>
-      <c r="AO20" s="16"/>
-      <c r="AP20" s="16"/>
-      <c r="AQ20" s="110"/>
-      <c r="AR20" s="76"/>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="15"/>
-      <c r="AU20" s="15"/>
-      <c r="AV20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="102"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="112"/>
+      <c r="AL20" s="85"/>
+      <c r="AM20" s="58"/>
+      <c r="AN20" s="121"/>
+      <c r="AO20" s="57"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="112"/>
+      <c r="AR20" s="78"/>
+      <c r="AS20" s="58"/>
+      <c r="AT20" s="56"/>
+      <c r="AU20" s="56"/>
+      <c r="AV20" s="56"/>
     </row>
     <row r="21" spans="1:48">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="AL21" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM21" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="122">
-        <v>3</v>
-      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="45">
+        <v>10</v>
+      </c>
+      <c r="L21" s="130">
+        <v>1</v>
+      </c>
+      <c r="M21" s="45">
+        <v>125</v>
+      </c>
+      <c r="N21" s="45">
+        <v>3.3</v>
+      </c>
+      <c r="O21" s="130">
+        <v>10</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R21" s="15"/>
+      <c r="S21" s="97">
+        <v>1</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="U21" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="V21" s="15">
+        <v>50</v>
+      </c>
+      <c r="W21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y21" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15">
+        <v>20</v>
+      </c>
+      <c r="AB21" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD21" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE21" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF21" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG21" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="108"/>
+      <c r="AL21" s="84"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="108"/>
+      <c r="AO21" s="16"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="108"/>
+      <c r="AR21" s="74"/>
+      <c r="AS21" s="93"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="18"/>
+      <c r="AV21" s="15"/>
     </row>
     <row r="22" spans="1:48">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="97"/>
       <c r="T22" s="69"/>
       <c r="U22" s="69"/>
       <c r="V22" s="69"/>
@@ -5077,18 +5129,30 @@
     <row r="23" spans="1:48">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="97"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="97"/>
       <c r="T23" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U23" s="15">
         <v>1</v>
       </c>
       <c r="V23" s="15">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="W23" s="15" t="s">
         <v>2</v>
@@ -5108,16 +5172,26 @@
       <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
       <c r="AF23" s="15"/>
-      <c r="AG23" s="16"/>
-      <c r="AH23" s="16"/>
+      <c r="AG23" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AI23" s="16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="16"/>
       <c r="AK23" s="110"/>
-      <c r="AL23" s="84"/>
-      <c r="AM23" s="19"/>
-      <c r="AN23" s="120"/>
+      <c r="AL23" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="120">
+        <v>50</v>
+      </c>
       <c r="AO23" s="16" t="b">
         <v>0</v>
       </c>
@@ -5148,168 +5222,69 @@
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="97"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="133"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="102"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="102"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="56"/>
-      <c r="AF24" s="56"/>
-      <c r="AG24" s="57"/>
-      <c r="AH24" s="57"/>
-      <c r="AI24" s="57"/>
-      <c r="AJ24" s="57"/>
-      <c r="AK24" s="112"/>
-      <c r="AL24" s="85"/>
-      <c r="AM24" s="58"/>
-      <c r="AN24" s="121"/>
-      <c r="AO24" s="57"/>
-      <c r="AP24" s="57"/>
-      <c r="AQ24" s="112"/>
-      <c r="AR24" s="78"/>
-      <c r="AS24" s="58"/>
-      <c r="AT24" s="56"/>
-      <c r="AU24" s="56"/>
-      <c r="AV24" s="56"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="97"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="97"/>
+      <c r="AL24" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM24" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="120">
+        <v>50</v>
+      </c>
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="16"/>
+      <c r="AQ24" s="110"/>
+      <c r="AR24" s="76"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="15"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="15"/>
     </row>
     <row r="25" spans="1:48">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" s="45">
-        <v>10</v>
-      </c>
-      <c r="L25" s="130">
-        <v>1</v>
-      </c>
-      <c r="M25" s="45">
-        <v>122</v>
-      </c>
-      <c r="N25" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="O25" s="130">
-        <v>10</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R25" s="15"/>
-      <c r="S25" s="97">
-        <v>1</v>
-      </c>
-      <c r="T25" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="U25" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="V25" s="15">
-        <v>50</v>
-      </c>
-      <c r="W25" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="X25" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y25" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z25" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA25" s="15">
-        <v>20</v>
-      </c>
-      <c r="AB25" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC25" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD25" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE25" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF25" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG25" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="18"/>
-      <c r="AI25" s="18"/>
-      <c r="AJ25" s="18"/>
-      <c r="AK25" s="108"/>
-      <c r="AL25" s="84"/>
-      <c r="AM25" s="18"/>
-      <c r="AN25" s="108"/>
-      <c r="AO25" s="16"/>
-      <c r="AP25" s="18"/>
-      <c r="AQ25" s="108"/>
-      <c r="AR25" s="74"/>
-      <c r="AS25" s="93"/>
-      <c r="AT25" s="18"/>
-      <c r="AU25" s="18"/>
-      <c r="AV25" s="15"/>
+      <c r="AL25" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM25" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="122">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:48">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="97"/>
       <c r="T26" s="69"/>
       <c r="U26" s="69"/>
       <c r="V26" s="69"/>
@@ -5343,42 +5318,30 @@
     <row r="27" spans="1:48">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="97"/>
       <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="97"/>
       <c r="T27" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="U27" s="45">
-        <v>0.9</v>
+        <v>97</v>
+      </c>
+      <c r="U27" s="15">
+        <v>1</v>
       </c>
       <c r="V27" s="15">
-        <v>100</v>
+        <v>7000</v>
       </c>
       <c r="W27" s="15" t="s">
         <v>2</v>
       </c>
       <c r="X27" s="15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y27" s="15" t="s">
         <v>90</v>
       </c>
       <c r="Z27" s="15" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="AA27" s="15"/>
       <c r="AB27" s="15"/>
@@ -5386,26 +5349,16 @@
       <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
       <c r="AF27" s="15"/>
-      <c r="AG27" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
       <c r="AI27" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27" s="16"/>
       <c r="AK27" s="110"/>
-      <c r="AL27" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM27" s="80">
-        <v>50</v>
-      </c>
-      <c r="AN27" s="123" t="s">
-        <v>86</v>
-      </c>
+      <c r="AL27" s="84"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="120"/>
       <c r="AO27" s="16" t="b">
         <v>0</v>
       </c>
@@ -5415,11 +5368,21 @@
       <c r="AQ27" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="AR27" s="74"/>
-      <c r="AS27" s="93"/>
-      <c r="AT27" s="18"/>
-      <c r="AU27" s="18"/>
-      <c r="AV27" s="15"/>
+      <c r="AR27" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS27" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV27" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:48">
       <c r="A28" s="15"/>
@@ -5427,54 +5390,49 @@
       <c r="C28" s="15"/>
       <c r="D28" s="97"/>
       <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="97"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="97"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="16"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="110"/>
-      <c r="AL28" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM28" s="80">
-        <v>50</v>
-      </c>
-      <c r="AN28" s="123" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO28" s="16"/>
-      <c r="AP28" s="16"/>
-      <c r="AQ28" s="110"/>
-      <c r="AR28" s="76"/>
-      <c r="AS28" s="19"/>
-      <c r="AT28" s="15"/>
-      <c r="AU28" s="15"/>
-      <c r="AV28" s="15"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="133"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="102"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="112"/>
+      <c r="AL28" s="85"/>
+      <c r="AM28" s="58"/>
+      <c r="AN28" s="121"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="112"/>
+      <c r="AR28" s="78"/>
+      <c r="AS28" s="58"/>
+      <c r="AT28" s="56"/>
+      <c r="AU28" s="56"/>
+      <c r="AV28" s="56"/>
     </row>
     <row r="29" spans="1:48">
       <c r="A29" s="15"/>
@@ -5482,48 +5440,97 @@
       <c r="C29" s="15"/>
       <c r="D29" s="97"/>
       <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="I29" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" s="45">
+        <v>10</v>
+      </c>
+      <c r="L29" s="130">
+        <v>1</v>
+      </c>
+      <c r="M29" s="45">
+        <v>122</v>
+      </c>
+      <c r="N29" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="O29" s="130">
+        <v>10</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="R29" s="15"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="104"/>
-      <c r="AD29" s="69"/>
-      <c r="AE29" s="69"/>
-      <c r="AF29" s="69"/>
-      <c r="AG29" s="70"/>
-      <c r="AH29" s="70"/>
-      <c r="AI29" s="70"/>
-      <c r="AJ29" s="70"/>
-      <c r="AK29" s="109"/>
-      <c r="AL29" s="83"/>
-      <c r="AM29" s="68"/>
-      <c r="AN29" s="117"/>
-      <c r="AO29" s="70"/>
-      <c r="AP29" s="70"/>
-      <c r="AQ29" s="109"/>
-      <c r="AR29" s="75"/>
-      <c r="AS29" s="71"/>
-      <c r="AT29" s="69"/>
-      <c r="AU29" s="69"/>
-      <c r="AV29" s="69"/>
+      <c r="S29" s="97">
+        <v>1</v>
+      </c>
+      <c r="T29" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="U29" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="V29" s="15">
+        <v>50</v>
+      </c>
+      <c r="W29" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X29" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y29" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z29" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA29" s="15">
+        <v>20</v>
+      </c>
+      <c r="AB29" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC29" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD29" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE29" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF29" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG29" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="108"/>
+      <c r="AL29" s="84"/>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="108"/>
+      <c r="AO29" s="16"/>
+      <c r="AP29" s="18"/>
+      <c r="AQ29" s="108"/>
+      <c r="AR29" s="74"/>
+      <c r="AS29" s="93"/>
+      <c r="AT29" s="18"/>
+      <c r="AU29" s="18"/>
+      <c r="AV29" s="15"/>
     </row>
     <row r="30" spans="1:48">
       <c r="A30" s="15"/>
@@ -5544,83 +5551,44 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="97"/>
-      <c r="T30" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="U30" s="15">
-        <v>1</v>
-      </c>
-      <c r="V30" s="15">
-        <v>3500</v>
-      </c>
-      <c r="W30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X30" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y30" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z30" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="97"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH30" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="16"/>
-      <c r="AK30" s="110"/>
-      <c r="AL30" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="120">
-        <v>50</v>
-      </c>
-      <c r="AO30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR30" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS30" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT30" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV30" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="69"/>
+      <c r="AB30" s="69"/>
+      <c r="AC30" s="104"/>
+      <c r="AD30" s="69"/>
+      <c r="AE30" s="69"/>
+      <c r="AF30" s="69"/>
+      <c r="AG30" s="70"/>
+      <c r="AH30" s="70"/>
+      <c r="AI30" s="70"/>
+      <c r="AJ30" s="70"/>
+      <c r="AK30" s="109"/>
+      <c r="AL30" s="83"/>
+      <c r="AM30" s="68"/>
+      <c r="AN30" s="117"/>
+      <c r="AO30" s="70"/>
+      <c r="AP30" s="70"/>
+      <c r="AQ30" s="109"/>
+      <c r="AR30" s="75"/>
+      <c r="AS30" s="71"/>
+      <c r="AT30" s="69"/>
+      <c r="AU30" s="69"/>
+      <c r="AV30" s="69"/>
     </row>
     <row r="31" spans="1:48">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="97"/>
+      <c r="E31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
@@ -5632,58 +5600,142 @@
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
       <c r="S31" s="97"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
+      <c r="T31" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="U31" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="V31" s="15">
+        <v>100</v>
+      </c>
+      <c r="W31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X31" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y31" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z31" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="AA31" s="15"/>
       <c r="AB31" s="15"/>
       <c r="AC31" s="97"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="15"/>
       <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="15"/>
-      <c r="AI31" s="15"/>
-      <c r="AJ31" s="15"/>
-      <c r="AK31" s="97"/>
-      <c r="AL31" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="120">
+      <c r="AG31" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="16"/>
+      <c r="AK31" s="110"/>
+      <c r="AL31" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM31" s="80">
         <v>50</v>
       </c>
-      <c r="AO31" s="16"/>
-      <c r="AP31" s="16"/>
-      <c r="AQ31" s="110"/>
-      <c r="AR31" s="76"/>
-      <c r="AS31" s="19"/>
-      <c r="AT31" s="15"/>
-      <c r="AU31" s="15"/>
+      <c r="AN31" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO31" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="74"/>
+      <c r="AS31" s="93"/>
+      <c r="AT31" s="18"/>
+      <c r="AU31" s="18"/>
       <c r="AV31" s="15"/>
     </row>
     <row r="32" spans="1:48">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
-      <c r="AL32" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN32" s="122">
-        <v>3</v>
-      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="97"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="97"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="110"/>
+      <c r="AL32" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM32" s="80">
+        <v>50</v>
+      </c>
+      <c r="AN32" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO32" s="16"/>
+      <c r="AP32" s="16"/>
+      <c r="AQ32" s="110"/>
+      <c r="AR32" s="76"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="131"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="97"/>
       <c r="T33" s="69"/>
       <c r="U33" s="69"/>
       <c r="V33" s="69"/>
@@ -5717,18 +5769,30 @@
     <row r="34" spans="1:48">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="97"/>
       <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="131"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="131"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="97"/>
       <c r="T34" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U34" s="15">
         <v>1</v>
       </c>
       <c r="V34" s="15">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="W34" s="15" t="s">
         <v>2</v>
@@ -5748,16 +5812,26 @@
       <c r="AD34" s="15"/>
       <c r="AE34" s="15"/>
       <c r="AF34" s="15"/>
-      <c r="AG34" s="16"/>
-      <c r="AH34" s="16"/>
+      <c r="AG34" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AI34" s="16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="16"/>
       <c r="AK34" s="110"/>
-      <c r="AL34" s="84"/>
-      <c r="AM34" s="19"/>
-      <c r="AN34" s="120"/>
+      <c r="AL34" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM34" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="120">
+        <v>50</v>
+      </c>
       <c r="AO34" s="16" t="b">
         <v>0</v>
       </c>
@@ -5788,159 +5862,69 @@
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="97"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="133"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="102"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="56"/>
-      <c r="AC35" s="102"/>
-      <c r="AD35" s="56"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="57"/>
-      <c r="AH35" s="57"/>
-      <c r="AI35" s="57"/>
-      <c r="AJ35" s="57"/>
-      <c r="AK35" s="112"/>
-      <c r="AL35" s="85"/>
-      <c r="AM35" s="58"/>
-      <c r="AN35" s="121"/>
-      <c r="AO35" s="57"/>
-      <c r="AP35" s="57"/>
-      <c r="AQ35" s="112"/>
-      <c r="AR35" s="78"/>
-      <c r="AS35" s="58"/>
-      <c r="AT35" s="56"/>
-      <c r="AU35" s="56"/>
-      <c r="AV35" s="56"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="131"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="131"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="97"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="97"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="15"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="97"/>
+      <c r="AL35" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM35" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="120">
+        <v>50</v>
+      </c>
+      <c r="AO35" s="16"/>
+      <c r="AP35" s="16"/>
+      <c r="AQ35" s="110"/>
+      <c r="AR35" s="76"/>
+      <c r="AS35" s="19"/>
+      <c r="AT35" s="15"/>
+      <c r="AU35" s="15"/>
+      <c r="AV35" s="15"/>
     </row>
     <row r="36" spans="1:48">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="J36" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="K36" s="41">
-        <v>0</v>
-      </c>
-      <c r="L36" s="134">
-        <v>0</v>
-      </c>
-      <c r="M36" s="41">
-        <v>700</v>
-      </c>
-      <c r="N36" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="O36" s="134">
-        <v>0</v>
-      </c>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="99"/>
-      <c r="T36" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="U36" s="15">
-        <v>0.99</v>
-      </c>
-      <c r="V36" s="15">
-        <v>0</v>
-      </c>
-      <c r="W36" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="X36" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y36" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z36" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="15"/>
-      <c r="AG36" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="18"/>
-      <c r="AI36" s="18"/>
-      <c r="AJ36" s="18"/>
-      <c r="AK36" s="108"/>
-      <c r="AL36" s="84"/>
-      <c r="AM36" s="19"/>
-      <c r="AN36" s="120"/>
-      <c r="AO36" s="145"/>
-      <c r="AP36" s="145" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ36" s="146"/>
-      <c r="AR36" s="76"/>
-      <c r="AS36" s="19"/>
-      <c r="AT36" s="15"/>
-      <c r="AU36" s="15"/>
-      <c r="AV36" s="15"/>
+      <c r="AL36" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM36" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="122">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:48">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="131"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="97"/>
       <c r="T37" s="69"/>
       <c r="U37" s="69"/>
       <c r="V37" s="69"/>
@@ -5960,12 +5944,12 @@
       <c r="AJ37" s="70"/>
       <c r="AK37" s="109"/>
       <c r="AL37" s="83"/>
-      <c r="AM37" s="140"/>
-      <c r="AN37" s="141"/>
-      <c r="AO37" s="142"/>
-      <c r="AP37" s="142"/>
-      <c r="AQ37" s="143"/>
-      <c r="AR37" s="144"/>
+      <c r="AM37" s="68"/>
+      <c r="AN37" s="117"/>
+      <c r="AO37" s="70"/>
+      <c r="AP37" s="70"/>
+      <c r="AQ37" s="109"/>
+      <c r="AR37" s="75"/>
       <c r="AS37" s="71"/>
       <c r="AT37" s="69"/>
       <c r="AU37" s="69"/>
@@ -5974,80 +5958,71 @@
     <row r="38" spans="1:48">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="97"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="131"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="97"/>
       <c r="T38" s="15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="U38" s="15">
         <v>1</v>
       </c>
       <c r="V38" s="15">
-        <v>50</v>
+        <v>7000</v>
       </c>
       <c r="W38" s="15" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="X38" s="15" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Y38" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15">
-        <v>20</v>
-      </c>
-      <c r="AB38" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC38" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD38" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE38" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF38" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG38" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH38" s="18"/>
-      <c r="AI38" s="18"/>
-      <c r="AJ38" s="18"/>
-      <c r="AK38" s="108"/>
+        <v>90</v>
+      </c>
+      <c r="Z38" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="97"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="16"/>
+      <c r="AK38" s="110"/>
       <c r="AL38" s="84"/>
       <c r="AM38" s="19"/>
       <c r="AN38" s="120"/>
-      <c r="AO38" s="145"/>
-      <c r="AP38" s="145" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ38" s="146"/>
-      <c r="AR38" s="74"/>
-      <c r="AS38" s="93"/>
-      <c r="AT38" s="18"/>
-      <c r="AU38" s="18"/>
-      <c r="AV38" s="15"/>
+      <c r="AO38" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS38" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT38" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV38" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="15"/>
@@ -6058,111 +6033,134 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="131"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="97"/>
-      <c r="T39" s="69"/>
-      <c r="U39" s="69"/>
-      <c r="V39" s="69"/>
-      <c r="W39" s="69"/>
-      <c r="X39" s="69"/>
-      <c r="Y39" s="69"/>
-      <c r="Z39" s="69"/>
-      <c r="AA39" s="69"/>
-      <c r="AB39" s="69"/>
-      <c r="AC39" s="104"/>
-      <c r="AD39" s="69"/>
-      <c r="AE39" s="69"/>
-      <c r="AF39" s="69"/>
-      <c r="AG39" s="70"/>
-      <c r="AH39" s="70"/>
-      <c r="AI39" s="70"/>
-      <c r="AJ39" s="70"/>
-      <c r="AK39" s="109"/>
-      <c r="AL39" s="83"/>
-      <c r="AM39" s="68"/>
-      <c r="AN39" s="117"/>
-      <c r="AO39" s="70"/>
-      <c r="AP39" s="70"/>
-      <c r="AQ39" s="109"/>
-      <c r="AR39" s="75"/>
-      <c r="AS39" s="71"/>
-      <c r="AT39" s="69"/>
-      <c r="AU39" s="69"/>
-      <c r="AV39" s="69"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="133"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="133"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="102"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="102"/>
+      <c r="AD39" s="56"/>
+      <c r="AE39" s="56"/>
+      <c r="AF39" s="56"/>
+      <c r="AG39" s="57"/>
+      <c r="AH39" s="57"/>
+      <c r="AI39" s="57"/>
+      <c r="AJ39" s="57"/>
+      <c r="AK39" s="112"/>
+      <c r="AL39" s="85"/>
+      <c r="AM39" s="58"/>
+      <c r="AN39" s="121"/>
+      <c r="AO39" s="57"/>
+      <c r="AP39" s="57"/>
+      <c r="AQ39" s="112"/>
+      <c r="AR39" s="78"/>
+      <c r="AS39" s="58"/>
+      <c r="AT39" s="56"/>
+      <c r="AU39" s="56"/>
+      <c r="AV39" s="56"/>
     </row>
     <row r="40" spans="1:48">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="K40" s="41">
+        <v>0</v>
+      </c>
+      <c r="L40" s="134">
+        <v>0</v>
+      </c>
+      <c r="M40" s="41">
+        <v>700</v>
+      </c>
+      <c r="N40" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="O40" s="134">
+        <v>0</v>
+      </c>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="99"/>
       <c r="T40" s="15" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="U40" s="15">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="V40" s="15">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="W40" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="X40" s="15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="Y40" s="15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Z40" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="97"/>
+        <v>82</v>
+      </c>
+      <c r="AA40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="97" t="s">
+        <v>83</v>
+      </c>
       <c r="AD40" s="15"/>
       <c r="AE40" s="15"/>
       <c r="AF40" s="15"/>
-      <c r="AG40" s="16"/>
-      <c r="AH40" s="16"/>
-      <c r="AI40" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ40" s="16"/>
-      <c r="AK40" s="110"/>
+      <c r="AG40" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="18"/>
+      <c r="AI40" s="18"/>
+      <c r="AJ40" s="18"/>
+      <c r="AK40" s="108"/>
       <c r="AL40" s="84"/>
       <c r="AM40" s="19"/>
       <c r="AN40" s="120"/>
-      <c r="AO40" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS40" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT40" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU40" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV40" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="AO40" s="145"/>
+      <c r="AP40" s="145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="146"/>
+      <c r="AR40" s="76"/>
+      <c r="AS40" s="19"/>
+      <c r="AT40" s="15"/>
+      <c r="AU40" s="15"/>
+      <c r="AV40" s="15"/>
     </row>
     <row r="41" spans="1:48">
       <c r="A41" s="15"/>
@@ -6173,46 +6171,46 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="133"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="133"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="102"/>
-      <c r="T41" s="56"/>
-      <c r="U41" s="56"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="56"/>
-      <c r="X41" s="56"/>
-      <c r="Y41" s="56"/>
-      <c r="Z41" s="56"/>
-      <c r="AA41" s="56"/>
-      <c r="AB41" s="56"/>
-      <c r="AC41" s="102"/>
-      <c r="AD41" s="56"/>
-      <c r="AE41" s="56"/>
-      <c r="AF41" s="56"/>
-      <c r="AG41" s="57"/>
-      <c r="AH41" s="57"/>
-      <c r="AI41" s="57"/>
-      <c r="AJ41" s="57"/>
-      <c r="AK41" s="112"/>
-      <c r="AL41" s="85"/>
-      <c r="AM41" s="58"/>
-      <c r="AN41" s="121"/>
-      <c r="AO41" s="57"/>
-      <c r="AP41" s="57"/>
-      <c r="AQ41" s="112"/>
-      <c r="AR41" s="78"/>
-      <c r="AS41" s="58"/>
-      <c r="AT41" s="56"/>
-      <c r="AU41" s="56"/>
-      <c r="AV41" s="56"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="131"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="131"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="97"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="69"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="69"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="69"/>
+      <c r="Z41" s="69"/>
+      <c r="AA41" s="69"/>
+      <c r="AB41" s="69"/>
+      <c r="AC41" s="104"/>
+      <c r="AD41" s="69"/>
+      <c r="AE41" s="69"/>
+      <c r="AF41" s="69"/>
+      <c r="AG41" s="70"/>
+      <c r="AH41" s="70"/>
+      <c r="AI41" s="70"/>
+      <c r="AJ41" s="70"/>
+      <c r="AK41" s="109"/>
+      <c r="AL41" s="83"/>
+      <c r="AM41" s="140"/>
+      <c r="AN41" s="141"/>
+      <c r="AO41" s="142"/>
+      <c r="AP41" s="142"/>
+      <c r="AQ41" s="143"/>
+      <c r="AR41" s="144"/>
+      <c r="AS41" s="71"/>
+      <c r="AT41" s="69"/>
+      <c r="AU41" s="69"/>
+      <c r="AV41" s="69"/>
     </row>
     <row r="42" spans="1:48">
       <c r="A42" s="15"/>
@@ -6223,39 +6221,25 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
-      <c r="I42" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="J42" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="K42" s="41">
-        <v>0</v>
-      </c>
-      <c r="L42" s="134">
-        <v>0</v>
-      </c>
-      <c r="M42" s="41">
-        <v>515</v>
-      </c>
-      <c r="N42" s="41">
-        <v>1</v>
-      </c>
-      <c r="O42" s="134">
-        <v>0</v>
-      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="131"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="131"/>
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="97"/>
       <c r="T42" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U42" s="15">
         <v>1</v>
       </c>
       <c r="V42" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W42" s="15" t="s">
         <v>51</v>
@@ -6266,21 +6250,25 @@
       <c r="Y42" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="Z42" s="15" t="s">
-        <v>82</v>
-      </c>
+      <c r="Z42" s="15"/>
       <c r="AA42" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB42" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC42" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD42" s="15"/>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="15"/>
+        <v>105</v>
+      </c>
+      <c r="AD42" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE42" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF42" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="AG42" s="18" t="b">
         <v>1</v>
       </c>
@@ -6291,24 +6279,37 @@
       <c r="AL42" s="84"/>
       <c r="AM42" s="19"/>
       <c r="AN42" s="120"/>
-      <c r="AO42" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP42" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ42" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42" s="76"/>
-      <c r="AS42" s="19"/>
-      <c r="AT42" s="15"/>
-      <c r="AU42" s="15"/>
+      <c r="AO42" s="145"/>
+      <c r="AP42" s="145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="146"/>
+      <c r="AR42" s="74"/>
+      <c r="AS42" s="93"/>
+      <c r="AT42" s="18"/>
+      <c r="AU42" s="18"/>
       <c r="AV42" s="15"/>
     </row>
     <row r="43" spans="1:48">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="131"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="97"/>
       <c r="T43" s="69"/>
       <c r="U43" s="69"/>
       <c r="V43" s="69"/>
@@ -6467,7 +6468,7 @@
         <v>106</v>
       </c>
       <c r="J46" s="41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K46" s="41">
         <v>0</v>
@@ -6476,10 +6477,10 @@
         <v>0</v>
       </c>
       <c r="M46" s="41">
-        <v>620</v>
+        <v>515</v>
       </c>
       <c r="N46" s="41">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="O46" s="134">
         <v>0</v>
@@ -6489,7 +6490,7 @@
       <c r="R46" s="15"/>
       <c r="S46" s="97"/>
       <c r="T46" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U46" s="15">
         <v>1</v>
@@ -6516,7 +6517,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AD46" s="15"/>
       <c r="AE46" s="15"/>
@@ -6549,23 +6550,6 @@
     <row r="47" spans="1:48">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="131"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="131"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="97"/>
       <c r="T47" s="69"/>
       <c r="U47" s="69"/>
       <c r="V47" s="69"/>
@@ -6724,37 +6708,29 @@
         <v>107</v>
       </c>
       <c r="J50" s="41" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="K50" s="41">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L50" s="134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="41">
-        <v>161</v>
+        <v>620</v>
       </c>
       <c r="N50" s="41">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="O50" s="134">
-        <v>30</v>
-      </c>
-      <c r="P50" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q50" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R50" s="15">
-        <v>25</v>
-      </c>
-      <c r="S50" s="97">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="97"/>
       <c r="T50" s="15" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="U50" s="15">
         <v>1</v>
@@ -6771,11 +6747,17 @@
       <c r="Y50" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="Z50" s="15"/>
-      <c r="AA50" s="15"/>
-      <c r="AB50" s="15"/>
+      <c r="Z50" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA50" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="15">
+        <v>1</v>
+      </c>
       <c r="AC50" s="97" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AD50" s="15"/>
       <c r="AE50" s="15"/>
@@ -6787,15 +6769,9 @@
       <c r="AI50" s="18"/>
       <c r="AJ50" s="18"/>
       <c r="AK50" s="108"/>
-      <c r="AL50" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM50" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN50" s="120">
-        <v>50</v>
-      </c>
+      <c r="AL50" s="84"/>
+      <c r="AM50" s="19"/>
+      <c r="AN50" s="120"/>
       <c r="AO50" s="16" t="b">
         <v>0</v>
       </c>
@@ -6827,18 +6803,10 @@
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
       <c r="O51" s="131"/>
-      <c r="P51" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q51" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R51" s="15">
-        <v>50</v>
-      </c>
-      <c r="S51" s="97">
-        <v>2</v>
-      </c>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="97"/>
       <c r="T51" s="69"/>
       <c r="U51" s="69"/>
       <c r="V51" s="69"/>
@@ -6872,31 +6840,14 @@
     <row r="52" spans="1:48">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="131"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="131"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="97"/>
       <c r="T52" s="15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="U52" s="15">
         <v>1</v>
       </c>
       <c r="V52" s="15">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="W52" s="15" t="s">
         <v>2</v>
@@ -6916,26 +6867,16 @@
       <c r="AD52" s="15"/>
       <c r="AE52" s="15"/>
       <c r="AF52" s="15"/>
-      <c r="AG52" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH52" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG52" s="16"/>
+      <c r="AH52" s="16"/>
       <c r="AI52" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ52" s="16"/>
       <c r="AK52" s="110"/>
-      <c r="AL52" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM52" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN52" s="120">
-        <v>50</v>
-      </c>
+      <c r="AL52" s="84"/>
+      <c r="AM52" s="19"/>
+      <c r="AN52" s="120"/>
       <c r="AO52" s="16" t="b">
         <v>0</v>
       </c>
@@ -6970,69 +6911,175 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="131"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="131"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="97"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="15"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="15"/>
-      <c r="AA53" s="15"/>
-      <c r="AB53" s="15"/>
-      <c r="AC53" s="97"/>
-      <c r="AD53" s="15"/>
-      <c r="AE53" s="15"/>
-      <c r="AF53" s="15"/>
-      <c r="AG53" s="15"/>
-      <c r="AH53" s="15"/>
-      <c r="AI53" s="15"/>
-      <c r="AJ53" s="15"/>
-      <c r="AK53" s="97"/>
-      <c r="AL53" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM53" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN53" s="120">
-        <v>50</v>
-      </c>
-      <c r="AO53" s="16"/>
-      <c r="AP53" s="16"/>
-      <c r="AQ53" s="110"/>
-      <c r="AR53" s="76"/>
-      <c r="AS53" s="19"/>
-      <c r="AT53" s="15"/>
-      <c r="AU53" s="15"/>
-      <c r="AV53" s="15"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="133"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="133"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="102"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="56"/>
+      <c r="Z53" s="56"/>
+      <c r="AA53" s="56"/>
+      <c r="AB53" s="56"/>
+      <c r="AC53" s="102"/>
+      <c r="AD53" s="56"/>
+      <c r="AE53" s="56"/>
+      <c r="AF53" s="56"/>
+      <c r="AG53" s="57"/>
+      <c r="AH53" s="57"/>
+      <c r="AI53" s="57"/>
+      <c r="AJ53" s="57"/>
+      <c r="AK53" s="112"/>
+      <c r="AL53" s="85"/>
+      <c r="AM53" s="58"/>
+      <c r="AN53" s="121"/>
+      <c r="AO53" s="57"/>
+      <c r="AP53" s="57"/>
+      <c r="AQ53" s="112"/>
+      <c r="AR53" s="78"/>
+      <c r="AS53" s="58"/>
+      <c r="AT53" s="56"/>
+      <c r="AU53" s="56"/>
+      <c r="AV53" s="56"/>
     </row>
     <row r="54" spans="1:48">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J54" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K54" s="41">
+        <v>20</v>
+      </c>
+      <c r="L54" s="134">
+        <v>1</v>
+      </c>
+      <c r="M54" s="41">
+        <v>161</v>
+      </c>
+      <c r="N54" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="O54" s="134">
+        <v>30</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q54" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R54" s="15">
+        <v>25</v>
+      </c>
+      <c r="S54" s="97">
+        <v>2</v>
+      </c>
+      <c r="T54" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="U54" s="15">
+        <v>1</v>
+      </c>
+      <c r="V54" s="15">
+        <v>0</v>
+      </c>
+      <c r="W54" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X54" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y54" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="15"/>
+      <c r="AF54" s="15"/>
+      <c r="AG54" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH54" s="18"/>
+      <c r="AI54" s="18"/>
+      <c r="AJ54" s="18"/>
+      <c r="AK54" s="108"/>
       <c r="AL54" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM54" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN54" s="122">
-        <v>3</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AM54" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="120">
+        <v>50</v>
+      </c>
+      <c r="AO54" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP54" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR54" s="76"/>
+      <c r="AS54" s="19"/>
+      <c r="AT54" s="15"/>
+      <c r="AU54" s="15"/>
+      <c r="AV54" s="15"/>
     </row>
     <row r="55" spans="1:48">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="131"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="131"/>
+      <c r="P55" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q55" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R55" s="15">
+        <v>50</v>
+      </c>
+      <c r="S55" s="97">
+        <v>2</v>
+      </c>
       <c r="T55" s="69"/>
       <c r="U55" s="69"/>
       <c r="V55" s="69"/>
@@ -7066,14 +7113,31 @@
     <row r="56" spans="1:48">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="131"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="131"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="97"/>
       <c r="T56" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U56" s="15">
         <v>1</v>
       </c>
       <c r="V56" s="15">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="W56" s="15" t="s">
         <v>2</v>
@@ -7093,16 +7157,26 @@
       <c r="AD56" s="15"/>
       <c r="AE56" s="15"/>
       <c r="AF56" s="15"/>
-      <c r="AG56" s="16"/>
-      <c r="AH56" s="16"/>
+      <c r="AG56" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH56" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AI56" s="16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ56" s="16"/>
       <c r="AK56" s="110"/>
-      <c r="AL56" s="84"/>
-      <c r="AM56" s="19"/>
-      <c r="AN56" s="120"/>
+      <c r="AL56" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM56" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="120">
+        <v>50</v>
+      </c>
       <c r="AO56" s="16" t="b">
         <v>0</v>
       </c>
@@ -7128,180 +7202,78 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:48" ht="12" customHeight="1">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="129"/>
-      <c r="M57" s="59"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="129"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="59"/>
-      <c r="S57" s="96"/>
-      <c r="T57" s="59"/>
-      <c r="U57" s="59"/>
-      <c r="V57" s="59"/>
-      <c r="W57" s="59"/>
-      <c r="X57" s="59"/>
-      <c r="Y57" s="59"/>
-      <c r="Z57" s="59"/>
-      <c r="AA57" s="59"/>
-      <c r="AB57" s="59"/>
-      <c r="AC57" s="96"/>
-      <c r="AD57" s="59"/>
-      <c r="AE57" s="59"/>
-      <c r="AF57" s="59"/>
-      <c r="AG57" s="61"/>
-      <c r="AH57" s="61"/>
-      <c r="AI57" s="61"/>
-      <c r="AJ57" s="60"/>
-      <c r="AK57" s="107"/>
-      <c r="AL57" s="81"/>
-      <c r="AM57" s="62"/>
-      <c r="AN57" s="115"/>
-      <c r="AO57" s="61"/>
-      <c r="AP57" s="61"/>
-      <c r="AQ57" s="126"/>
-      <c r="AR57" s="73"/>
-      <c r="AS57" s="62"/>
-      <c r="AT57" s="59"/>
-      <c r="AU57" s="59"/>
-      <c r="AV57" s="59"/>
+    <row r="57" spans="1:48">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="131"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="131"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="97"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="97"/>
+      <c r="AD57" s="15"/>
+      <c r="AE57" s="15"/>
+      <c r="AF57" s="15"/>
+      <c r="AG57" s="15"/>
+      <c r="AH57" s="15"/>
+      <c r="AI57" s="15"/>
+      <c r="AJ57" s="15"/>
+      <c r="AK57" s="97"/>
+      <c r="AL57" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM57" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="120">
+        <v>50</v>
+      </c>
+      <c r="AO57" s="16"/>
+      <c r="AP57" s="16"/>
+      <c r="AQ57" s="110"/>
+      <c r="AR57" s="76"/>
+      <c r="AS57" s="19"/>
+      <c r="AT57" s="15"/>
+      <c r="AU57" s="15"/>
+      <c r="AV57" s="15"/>
     </row>
     <row r="58" spans="1:48">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>102</v>
-      </c>
-      <c r="G58" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="J58" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="K58" s="41">
-        <v>20</v>
-      </c>
-      <c r="L58" s="134">
-        <v>1</v>
-      </c>
-      <c r="M58" s="41">
-        <v>50</v>
-      </c>
-      <c r="N58" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="O58" s="134">
-        <v>10</v>
-      </c>
-      <c r="P58" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="97"/>
-      <c r="T58" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="U58" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="V58" s="15">
-        <v>50</v>
-      </c>
-      <c r="W58" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="X58" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y58" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z58" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA58" s="15">
-        <v>20</v>
-      </c>
-      <c r="AB58" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC58" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD58" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE58" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF58" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG58" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH58" s="18"/>
-      <c r="AI58" s="18"/>
-      <c r="AJ58" s="18"/>
-      <c r="AK58" s="108"/>
-      <c r="AL58" s="86"/>
-      <c r="AM58" s="18"/>
-      <c r="AN58" s="108"/>
-      <c r="AO58" s="18"/>
-      <c r="AP58" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ58" s="108"/>
-      <c r="AR58" s="74"/>
-      <c r="AS58" s="93"/>
-      <c r="AT58" s="18"/>
-      <c r="AU58" s="18"/>
-      <c r="AV58" s="15"/>
+      <c r="AL58" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM58" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN58" s="122">
+        <v>3</v>
+      </c>
     </row>
     <row r="59" spans="1:48">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="131"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="131"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="97"/>
       <c r="T59" s="69"/>
       <c r="U59" s="69"/>
       <c r="V59" s="69"/>
@@ -7335,31 +7307,14 @@
     <row r="60" spans="1:48">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="131"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="131"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="97"/>
-      <c r="T60" s="45" t="s">
-        <v>94</v>
+      <c r="T60" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="U60" s="15">
         <v>1</v>
       </c>
       <c r="V60" s="15">
-        <v>100</v>
+        <v>7000</v>
       </c>
       <c r="W60" s="15" t="s">
         <v>2</v>
@@ -7379,26 +7334,16 @@
       <c r="AD60" s="15"/>
       <c r="AE60" s="15"/>
       <c r="AF60" s="15"/>
-      <c r="AG60" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH60" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG60" s="16"/>
+      <c r="AH60" s="16"/>
       <c r="AI60" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ60" s="16"/>
       <c r="AK60" s="110"/>
-      <c r="AL60" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM60" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN60" s="120">
-        <v>50</v>
-      </c>
+      <c r="AL60" s="84"/>
+      <c r="AM60" s="19"/>
+      <c r="AN60" s="120"/>
       <c r="AO60" s="16" t="b">
         <v>0</v>
       </c>
@@ -7424,81 +7369,165 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="131"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="131"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="97"/>
-      <c r="T61" s="45"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="15"/>
-      <c r="X61" s="15"/>
-      <c r="Y61" s="15"/>
-      <c r="Z61" s="15"/>
-      <c r="AA61" s="15"/>
-      <c r="AB61" s="15"/>
-      <c r="AC61" s="97"/>
-      <c r="AD61" s="15"/>
-      <c r="AE61" s="15"/>
-      <c r="AF61" s="15"/>
-      <c r="AG61" s="15"/>
-      <c r="AH61" s="15"/>
-      <c r="AI61" s="15"/>
-      <c r="AJ61" s="15"/>
-      <c r="AK61" s="97"/>
-      <c r="AL61" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM61" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN61" s="120">
-        <v>50</v>
-      </c>
-      <c r="AO61" s="16"/>
-      <c r="AP61" s="16"/>
-      <c r="AQ61" s="110"/>
-      <c r="AR61" s="76"/>
-      <c r="AS61" s="19"/>
-      <c r="AT61" s="15"/>
-      <c r="AU61" s="15"/>
-      <c r="AV61" s="15"/>
+    <row r="61" spans="1:48" ht="12" customHeight="1">
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="129"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="129"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="59"/>
+      <c r="S61" s="96"/>
+      <c r="T61" s="59"/>
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59"/>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
+      <c r="Z61" s="59"/>
+      <c r="AA61" s="59"/>
+      <c r="AB61" s="59"/>
+      <c r="AC61" s="96"/>
+      <c r="AD61" s="59"/>
+      <c r="AE61" s="59"/>
+      <c r="AF61" s="59"/>
+      <c r="AG61" s="61"/>
+      <c r="AH61" s="61"/>
+      <c r="AI61" s="61"/>
+      <c r="AJ61" s="60"/>
+      <c r="AK61" s="107"/>
+      <c r="AL61" s="81"/>
+      <c r="AM61" s="62"/>
+      <c r="AN61" s="115"/>
+      <c r="AO61" s="61"/>
+      <c r="AP61" s="61"/>
+      <c r="AQ61" s="126"/>
+      <c r="AR61" s="73"/>
+      <c r="AS61" s="62"/>
+      <c r="AT61" s="59"/>
+      <c r="AU61" s="59"/>
+      <c r="AV61" s="59"/>
     </row>
     <row r="62" spans="1:48">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
-      <c r="T62" s="45"/>
-      <c r="AL62" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM62" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN62" s="122">
-        <v>3</v>
-      </c>
+      <c r="C62" s="41"/>
+      <c r="D62" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" t="s">
+        <v>103</v>
+      </c>
+      <c r="G62" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="J62" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K62" s="41">
+        <v>20</v>
+      </c>
+      <c r="L62" s="134">
+        <v>1</v>
+      </c>
+      <c r="M62" s="41">
+        <v>50</v>
+      </c>
+      <c r="N62" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="O62" s="134">
+        <v>10</v>
+      </c>
+      <c r="P62" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="97"/>
+      <c r="T62" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="U62" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="V62" s="15">
+        <v>50</v>
+      </c>
+      <c r="W62" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X62" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y62" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z62" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA62" s="15">
+        <v>20</v>
+      </c>
+      <c r="AB62" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC62" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD62" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE62" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF62" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG62" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH62" s="18"/>
+      <c r="AI62" s="18"/>
+      <c r="AJ62" s="18"/>
+      <c r="AK62" s="108"/>
+      <c r="AL62" s="86"/>
+      <c r="AM62" s="18"/>
+      <c r="AN62" s="108"/>
+      <c r="AO62" s="18"/>
+      <c r="AP62" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ62" s="108"/>
+      <c r="AR62" s="74"/>
+      <c r="AS62" s="93"/>
+      <c r="AT62" s="18"/>
+      <c r="AU62" s="18"/>
+      <c r="AV62" s="15"/>
     </row>
     <row r="63" spans="1:48">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="97"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="99"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -7564,17 +7593,17 @@
       <c r="Q64" s="15"/>
       <c r="R64" s="15"/>
       <c r="S64" s="97"/>
-      <c r="T64" s="15" t="s">
-        <v>97</v>
+      <c r="T64" s="45" t="s">
+        <v>94</v>
       </c>
       <c r="U64" s="15">
         <v>1</v>
       </c>
       <c r="V64" s="15">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W64" s="15" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="X64" s="15" t="s">
         <v>95</v>
@@ -7591,16 +7620,26 @@
       <c r="AD64" s="15"/>
       <c r="AE64" s="15"/>
       <c r="AF64" s="15"/>
-      <c r="AG64" s="16"/>
-      <c r="AH64" s="16"/>
+      <c r="AG64" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH64" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AI64" s="16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ64" s="16"/>
       <c r="AK64" s="110"/>
-      <c r="AL64" s="84"/>
-      <c r="AM64" s="19"/>
-      <c r="AN64" s="120"/>
+      <c r="AL64" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM64" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="120">
+        <v>50</v>
+      </c>
       <c r="AO64" s="16" t="b">
         <v>0</v>
       </c>
@@ -7626,165 +7665,81 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:48" ht="12" customHeight="1">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="96"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="129"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="129"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="59"/>
-      <c r="S65" s="96"/>
-      <c r="T65" s="59"/>
-      <c r="U65" s="59"/>
-      <c r="V65" s="59"/>
-      <c r="W65" s="59"/>
-      <c r="X65" s="59"/>
-      <c r="Y65" s="59"/>
-      <c r="Z65" s="59"/>
-      <c r="AA65" s="59"/>
-      <c r="AB65" s="59"/>
-      <c r="AC65" s="96"/>
-      <c r="AD65" s="59"/>
-      <c r="AE65" s="59"/>
-      <c r="AF65" s="59"/>
-      <c r="AG65" s="61"/>
-      <c r="AH65" s="61"/>
-      <c r="AI65" s="61"/>
-      <c r="AJ65" s="60"/>
-      <c r="AK65" s="107"/>
-      <c r="AL65" s="81"/>
-      <c r="AM65" s="62"/>
-      <c r="AN65" s="115"/>
-      <c r="AO65" s="61"/>
-      <c r="AP65" s="61"/>
-      <c r="AQ65" s="126"/>
-      <c r="AR65" s="73"/>
-      <c r="AS65" s="62"/>
-      <c r="AT65" s="59"/>
-      <c r="AU65" s="59"/>
-      <c r="AV65" s="59"/>
+    <row r="65" spans="1:48">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="131"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="131"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="97"/>
+      <c r="T65" s="45"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="15"/>
+      <c r="AA65" s="15"/>
+      <c r="AB65" s="15"/>
+      <c r="AC65" s="97"/>
+      <c r="AD65" s="15"/>
+      <c r="AE65" s="15"/>
+      <c r="AF65" s="15"/>
+      <c r="AG65" s="15"/>
+      <c r="AH65" s="15"/>
+      <c r="AI65" s="15"/>
+      <c r="AJ65" s="15"/>
+      <c r="AK65" s="97"/>
+      <c r="AL65" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM65" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN65" s="120">
+        <v>50</v>
+      </c>
+      <c r="AO65" s="16"/>
+      <c r="AP65" s="16"/>
+      <c r="AQ65" s="110"/>
+      <c r="AR65" s="76"/>
+      <c r="AS65" s="19"/>
+      <c r="AT65" s="15"/>
+      <c r="AU65" s="15"/>
+      <c r="AV65" s="15"/>
     </row>
     <row r="66" spans="1:48">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="99" t="s">
-        <v>112</v>
-      </c>
-      <c r="E66" t="s">
-        <v>113</v>
-      </c>
-      <c r="F66" t="s">
-        <v>102</v>
-      </c>
-      <c r="G66" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="J66" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="K66" s="41">
-        <v>20</v>
-      </c>
-      <c r="L66" s="134">
-        <v>1</v>
-      </c>
-      <c r="M66" s="41">
-        <v>50</v>
-      </c>
-      <c r="N66" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="O66" s="134">
-        <v>10</v>
-      </c>
-      <c r="P66" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="97"/>
-      <c r="T66" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="U66" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="V66" s="15">
-        <v>50</v>
-      </c>
-      <c r="W66" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="X66" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y66" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z66" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA66" s="15">
-        <v>20</v>
-      </c>
-      <c r="AB66" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC66" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD66" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE66" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF66" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG66" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH66" s="18"/>
-      <c r="AI66" s="18"/>
-      <c r="AJ66" s="18"/>
-      <c r="AK66" s="108"/>
-      <c r="AL66" s="86"/>
-      <c r="AM66" s="18"/>
-      <c r="AN66" s="108"/>
-      <c r="AO66" s="18"/>
-      <c r="AP66" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ66" s="108"/>
-      <c r="AR66" s="74"/>
-      <c r="AS66" s="93"/>
-      <c r="AT66" s="18"/>
-      <c r="AU66" s="18"/>
-      <c r="AV66" s="15"/>
+      <c r="T66" s="45"/>
+      <c r="AL66" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="122">
+        <v>3</v>
+      </c>
     </row>
     <row r="67" spans="1:48">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="99"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="97"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -7796,9 +7751,7 @@
       <c r="M67" s="15"/>
       <c r="N67" s="15"/>
       <c r="O67" s="131"/>
-      <c r="P67" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
       <c r="R67" s="15"/>
       <c r="S67" s="97"/>
@@ -7852,17 +7805,17 @@
       <c r="Q68" s="15"/>
       <c r="R68" s="15"/>
       <c r="S68" s="97"/>
-      <c r="T68" s="45" t="s">
-        <v>114</v>
+      <c r="T68" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="U68" s="15">
         <v>1</v>
       </c>
       <c r="V68" s="15">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W68" s="15" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="X68" s="15" t="s">
         <v>95</v>
@@ -7879,26 +7832,16 @@
       <c r="AD68" s="15"/>
       <c r="AE68" s="15"/>
       <c r="AF68" s="15"/>
-      <c r="AG68" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH68" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="AG68" s="16"/>
+      <c r="AH68" s="16"/>
       <c r="AI68" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ68" s="16"/>
       <c r="AK68" s="110"/>
-      <c r="AL68" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM68" s="80">
-        <v>0</v>
-      </c>
-      <c r="AN68" s="119">
-        <v>50</v>
-      </c>
+      <c r="AL68" s="84"/>
+      <c r="AM68" s="19"/>
+      <c r="AN68" s="120"/>
       <c r="AO68" s="16" t="b">
         <v>0</v>
       </c>
@@ -7924,81 +7867,165 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:48">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="97"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="131"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="131"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="97"/>
-      <c r="T69" s="45"/>
-      <c r="U69" s="15"/>
-      <c r="V69" s="15"/>
-      <c r="W69" s="15"/>
-      <c r="X69" s="15"/>
-      <c r="Y69" s="15"/>
-      <c r="Z69" s="15"/>
-      <c r="AA69" s="15"/>
-      <c r="AB69" s="15"/>
-      <c r="AC69" s="97"/>
-      <c r="AD69" s="15"/>
-      <c r="AE69" s="15"/>
-      <c r="AF69" s="15"/>
-      <c r="AG69" s="15"/>
-      <c r="AH69" s="15"/>
-      <c r="AI69" s="15"/>
-      <c r="AJ69" s="15"/>
-      <c r="AK69" s="97"/>
-      <c r="AL69" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM69" s="80">
-        <v>0</v>
-      </c>
-      <c r="AN69" s="119">
-        <v>50</v>
-      </c>
-      <c r="AO69" s="16"/>
-      <c r="AP69" s="16"/>
-      <c r="AQ69" s="110"/>
-      <c r="AR69" s="76"/>
-      <c r="AS69" s="19"/>
-      <c r="AT69" s="15"/>
-      <c r="AU69" s="15"/>
-      <c r="AV69" s="15"/>
+    <row r="69" spans="1:48" ht="12" customHeight="1">
+      <c r="A69" s="59"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="129"/>
+      <c r="M69" s="59"/>
+      <c r="N69" s="59"/>
+      <c r="O69" s="129"/>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="59"/>
+      <c r="S69" s="96"/>
+      <c r="T69" s="59"/>
+      <c r="U69" s="59"/>
+      <c r="V69" s="59"/>
+      <c r="W69" s="59"/>
+      <c r="X69" s="59"/>
+      <c r="Y69" s="59"/>
+      <c r="Z69" s="59"/>
+      <c r="AA69" s="59"/>
+      <c r="AB69" s="59"/>
+      <c r="AC69" s="96"/>
+      <c r="AD69" s="59"/>
+      <c r="AE69" s="59"/>
+      <c r="AF69" s="59"/>
+      <c r="AG69" s="61"/>
+      <c r="AH69" s="61"/>
+      <c r="AI69" s="61"/>
+      <c r="AJ69" s="60"/>
+      <c r="AK69" s="107"/>
+      <c r="AL69" s="81"/>
+      <c r="AM69" s="62"/>
+      <c r="AN69" s="115"/>
+      <c r="AO69" s="61"/>
+      <c r="AP69" s="61"/>
+      <c r="AQ69" s="126"/>
+      <c r="AR69" s="73"/>
+      <c r="AS69" s="62"/>
+      <c r="AT69" s="59"/>
+      <c r="AU69" s="59"/>
+      <c r="AV69" s="59"/>
     </row>
     <row r="70" spans="1:48">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
-      <c r="T70" s="45"/>
-      <c r="AL70" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM70" s="80">
-        <v>0</v>
-      </c>
-      <c r="AN70" s="119">
-        <v>3</v>
-      </c>
+      <c r="C70" s="41"/>
+      <c r="D70" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" t="s">
+        <v>103</v>
+      </c>
+      <c r="G70" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J70" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K70" s="41">
+        <v>20</v>
+      </c>
+      <c r="L70" s="134">
+        <v>1</v>
+      </c>
+      <c r="M70" s="41">
+        <v>50</v>
+      </c>
+      <c r="N70" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="O70" s="134">
+        <v>10</v>
+      </c>
+      <c r="P70" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="97"/>
+      <c r="T70" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="U70" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="V70" s="15">
+        <v>50</v>
+      </c>
+      <c r="W70" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X70" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y70" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z70" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA70" s="15">
+        <v>20</v>
+      </c>
+      <c r="AB70" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC70" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD70" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE70" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF70" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG70" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="18"/>
+      <c r="AI70" s="18"/>
+      <c r="AJ70" s="18"/>
+      <c r="AK70" s="108"/>
+      <c r="AL70" s="86"/>
+      <c r="AM70" s="18"/>
+      <c r="AN70" s="108"/>
+      <c r="AO70" s="18"/>
+      <c r="AP70" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ70" s="108"/>
+      <c r="AR70" s="74"/>
+      <c r="AS70" s="93"/>
+      <c r="AT70" s="18"/>
+      <c r="AU70" s="18"/>
+      <c r="AV70" s="15"/>
     </row>
     <row r="71" spans="1:48">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="97"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="99"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -8010,7 +8037,9 @@
       <c r="M71" s="15"/>
       <c r="N71" s="15"/>
       <c r="O71" s="131"/>
-      <c r="P71" s="15"/>
+      <c r="P71" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="Q71" s="15"/>
       <c r="R71" s="15"/>
       <c r="S71" s="97"/>
@@ -8071,10 +8100,10 @@
         <v>1</v>
       </c>
       <c r="V72" s="15">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W72" s="15" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="X72" s="15" t="s">
         <v>95</v>
@@ -8091,16 +8120,26 @@
       <c r="AD72" s="15"/>
       <c r="AE72" s="15"/>
       <c r="AF72" s="15"/>
-      <c r="AG72" s="16"/>
-      <c r="AH72" s="16"/>
+      <c r="AG72" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH72" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AI72" s="16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ72" s="16"/>
       <c r="AK72" s="110"/>
-      <c r="AL72" s="84"/>
-      <c r="AM72" s="19"/>
-      <c r="AN72" s="120"/>
+      <c r="AL72" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM72" s="80">
+        <v>0</v>
+      </c>
+      <c r="AN72" s="119">
+        <v>50</v>
+      </c>
       <c r="AO72" s="16" t="b">
         <v>0</v>
       </c>
@@ -8127,165 +8166,73 @@
       </c>
     </row>
     <row r="73" spans="1:48">
-      <c r="A73" s="63"/>
-      <c r="B73" s="63"/>
-      <c r="C73" s="63"/>
-      <c r="D73" s="100"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="63"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="63"/>
-      <c r="K73" s="63"/>
-      <c r="L73" s="135"/>
-      <c r="M73" s="63"/>
-      <c r="N73" s="63"/>
-      <c r="O73" s="135"/>
-      <c r="P73" s="63"/>
-      <c r="Q73" s="63"/>
-      <c r="R73" s="63"/>
-      <c r="S73" s="100"/>
-      <c r="T73" s="63"/>
-      <c r="U73" s="63"/>
-      <c r="V73" s="63"/>
-      <c r="W73" s="63"/>
-      <c r="X73" s="63"/>
-      <c r="Y73" s="63"/>
-      <c r="Z73" s="63"/>
-      <c r="AA73" s="63"/>
-      <c r="AB73" s="63"/>
-      <c r="AC73" s="100"/>
-      <c r="AD73" s="63"/>
-      <c r="AE73" s="63"/>
-      <c r="AF73" s="63"/>
-      <c r="AG73" s="64"/>
-      <c r="AH73" s="64"/>
-      <c r="AI73" s="64"/>
-      <c r="AJ73" s="64"/>
-      <c r="AK73" s="113"/>
-      <c r="AL73" s="87"/>
-      <c r="AM73" s="65"/>
-      <c r="AN73" s="124"/>
-      <c r="AO73" s="64"/>
-      <c r="AP73" s="64"/>
-      <c r="AQ73" s="113"/>
-      <c r="AR73" s="79"/>
-      <c r="AS73" s="65"/>
-      <c r="AT73" s="63"/>
-      <c r="AU73" s="63"/>
-      <c r="AV73" s="63"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="131"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="131"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="97"/>
+      <c r="T73" s="45"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15"/>
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="97"/>
+      <c r="AD73" s="15"/>
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="15"/>
+      <c r="AH73" s="15"/>
+      <c r="AI73" s="15"/>
+      <c r="AJ73" s="15"/>
+      <c r="AK73" s="97"/>
+      <c r="AL73" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM73" s="80">
+        <v>0</v>
+      </c>
+      <c r="AN73" s="119">
+        <v>50</v>
+      </c>
+      <c r="AO73" s="16"/>
+      <c r="AP73" s="16"/>
+      <c r="AQ73" s="110"/>
+      <c r="AR73" s="76"/>
+      <c r="AS73" s="19"/>
+      <c r="AT73" s="15"/>
+      <c r="AU73" s="15"/>
+      <c r="AV73" s="15"/>
     </row>
     <row r="74" spans="1:48">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="J74" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K74" s="15">
-        <v>10</v>
-      </c>
-      <c r="L74" s="131">
-        <v>10</v>
-      </c>
-      <c r="M74" s="15">
-        <v>10</v>
-      </c>
-      <c r="N74" s="15">
-        <v>10</v>
-      </c>
-      <c r="O74" s="131">
-        <v>10</v>
-      </c>
-      <c r="P74" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="97"/>
-      <c r="T74" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="U74" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="V74" s="15">
-        <v>50</v>
-      </c>
-      <c r="W74" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X74" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y74" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z74" s="15"/>
-      <c r="AA74" s="15"/>
-      <c r="AB74" s="15"/>
-      <c r="AC74" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD74" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE74" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF74" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG74" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH74" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI74" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ74" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK74" s="110"/>
-      <c r="AL74" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM74" s="19">
-        <v>50</v>
-      </c>
-      <c r="AN74" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO74" s="16"/>
-      <c r="AP74" s="16"/>
-      <c r="AQ74" s="110"/>
-      <c r="AR74" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS74" s="19">
-        <v>50</v>
-      </c>
-      <c r="AT74" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU74" s="15"/>
-      <c r="AV74" s="15" t="s">
-        <v>6</v>
+      <c r="T74" s="45"/>
+      <c r="AL74" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM74" s="80">
+        <v>0</v>
+      </c>
+      <c r="AN74" s="119">
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:48">
@@ -8293,9 +8240,7 @@
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
       <c r="D75" s="97"/>
-      <c r="E75" s="15" t="s">
-        <v>123</v>
-      </c>
+      <c r="E75" s="15"/>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -8310,404 +8255,710 @@
       <c r="Q75" s="15"/>
       <c r="R75" s="15"/>
       <c r="S75" s="97"/>
-      <c r="T75" s="15"/>
-      <c r="U75" s="15"/>
-      <c r="V75" s="15"/>
-      <c r="W75" s="15"/>
-      <c r="X75" s="15"/>
-      <c r="Y75" s="15"/>
-      <c r="Z75" s="15"/>
-      <c r="AA75" s="15"/>
-      <c r="AB75" s="15"/>
-      <c r="AC75" s="97"/>
-      <c r="AD75" s="15"/>
-      <c r="AE75" s="15"/>
-      <c r="AF75" s="15"/>
-      <c r="AG75" s="16"/>
-      <c r="AH75" s="16"/>
-      <c r="AI75" s="16"/>
-      <c r="AJ75" s="16"/>
-      <c r="AK75" s="110"/>
-      <c r="AL75" s="84" t="s">
+      <c r="T75" s="69"/>
+      <c r="U75" s="69"/>
+      <c r="V75" s="69"/>
+      <c r="W75" s="69"/>
+      <c r="X75" s="69"/>
+      <c r="Y75" s="69"/>
+      <c r="Z75" s="69"/>
+      <c r="AA75" s="69"/>
+      <c r="AB75" s="69"/>
+      <c r="AC75" s="104"/>
+      <c r="AD75" s="69"/>
+      <c r="AE75" s="69"/>
+      <c r="AF75" s="69"/>
+      <c r="AG75" s="70"/>
+      <c r="AH75" s="70"/>
+      <c r="AI75" s="70"/>
+      <c r="AJ75" s="70"/>
+      <c r="AK75" s="109"/>
+      <c r="AL75" s="83"/>
+      <c r="AM75" s="68"/>
+      <c r="AN75" s="117"/>
+      <c r="AO75" s="70"/>
+      <c r="AP75" s="70"/>
+      <c r="AQ75" s="109"/>
+      <c r="AR75" s="75"/>
+      <c r="AS75" s="71"/>
+      <c r="AT75" s="69"/>
+      <c r="AU75" s="69"/>
+      <c r="AV75" s="69"/>
+    </row>
+    <row r="76" spans="1:48">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="131"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="131"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="97"/>
+      <c r="T76" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="U76" s="15">
+        <v>1</v>
+      </c>
+      <c r="V76" s="15">
+        <v>200</v>
+      </c>
+      <c r="W76" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="X76" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y76" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z76" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA76" s="15"/>
+      <c r="AB76" s="15"/>
+      <c r="AC76" s="97"/>
+      <c r="AD76" s="15"/>
+      <c r="AE76" s="15"/>
+      <c r="AF76" s="15"/>
+      <c r="AG76" s="16"/>
+      <c r="AH76" s="16"/>
+      <c r="AI76" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ76" s="16"/>
+      <c r="AK76" s="110"/>
+      <c r="AL76" s="84"/>
+      <c r="AM76" s="19"/>
+      <c r="AN76" s="120"/>
+      <c r="AO76" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP76" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ76" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR76" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS76" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT76" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU76" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV76" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:48">
+      <c r="A77" s="63"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="100"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="135"/>
+      <c r="M77" s="63"/>
+      <c r="N77" s="63"/>
+      <c r="O77" s="135"/>
+      <c r="P77" s="63"/>
+      <c r="Q77" s="63"/>
+      <c r="R77" s="63"/>
+      <c r="S77" s="100"/>
+      <c r="T77" s="63"/>
+      <c r="U77" s="63"/>
+      <c r="V77" s="63"/>
+      <c r="W77" s="63"/>
+      <c r="X77" s="63"/>
+      <c r="Y77" s="63"/>
+      <c r="Z77" s="63"/>
+      <c r="AA77" s="63"/>
+      <c r="AB77" s="63"/>
+      <c r="AC77" s="100"/>
+      <c r="AD77" s="63"/>
+      <c r="AE77" s="63"/>
+      <c r="AF77" s="63"/>
+      <c r="AG77" s="64"/>
+      <c r="AH77" s="64"/>
+      <c r="AI77" s="64"/>
+      <c r="AJ77" s="64"/>
+      <c r="AK77" s="113"/>
+      <c r="AL77" s="87"/>
+      <c r="AM77" s="65"/>
+      <c r="AN77" s="124"/>
+      <c r="AO77" s="64"/>
+      <c r="AP77" s="64"/>
+      <c r="AQ77" s="113"/>
+      <c r="AR77" s="79"/>
+      <c r="AS77" s="65"/>
+      <c r="AT77" s="63"/>
+      <c r="AU77" s="63"/>
+      <c r="AV77" s="63"/>
+    </row>
+    <row r="78" spans="1:48">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J78" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K78" s="15">
+        <v>10</v>
+      </c>
+      <c r="L78" s="131">
+        <v>10</v>
+      </c>
+      <c r="M78" s="15">
+        <v>10</v>
+      </c>
+      <c r="N78" s="15">
+        <v>10</v>
+      </c>
+      <c r="O78" s="131">
+        <v>10</v>
+      </c>
+      <c r="P78" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="97"/>
+      <c r="T78" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="U78" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="V78" s="15">
+        <v>50</v>
+      </c>
+      <c r="W78" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X78" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y78" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z78" s="15"/>
+      <c r="AA78" s="15"/>
+      <c r="AB78" s="15"/>
+      <c r="AC78" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD78" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE78" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF78" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG78" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH78" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI78" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK78" s="110"/>
+      <c r="AL78" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM78" s="19">
+        <v>50</v>
+      </c>
+      <c r="AN78" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO78" s="16"/>
+      <c r="AP78" s="16"/>
+      <c r="AQ78" s="110"/>
+      <c r="AR78" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS78" s="19">
+        <v>50</v>
+      </c>
+      <c r="AT78" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU78" s="15"/>
+      <c r="AV78" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:48">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="131"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="131"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="97"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="15"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="15"/>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="15"/>
+      <c r="AA79" s="15"/>
+      <c r="AB79" s="15"/>
+      <c r="AC79" s="97"/>
+      <c r="AD79" s="15"/>
+      <c r="AE79" s="15"/>
+      <c r="AF79" s="15"/>
+      <c r="AG79" s="16"/>
+      <c r="AH79" s="16"/>
+      <c r="AI79" s="16"/>
+      <c r="AJ79" s="16"/>
+      <c r="AK79" s="110"/>
+      <c r="AL79" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AM75" s="19">
+      <c r="AM79" s="19">
         <v>170</v>
       </c>
-      <c r="AN75" s="120" t="s">
+      <c r="AN79" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="AO75" s="16"/>
-      <c r="AP75" s="16"/>
-      <c r="AQ75" s="110"/>
-      <c r="AR75" s="76" t="s">
+      <c r="AO79" s="16"/>
+      <c r="AP79" s="16"/>
+      <c r="AQ79" s="110"/>
+      <c r="AR79" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="AS75" s="19">
+      <c r="AS79" s="19">
         <v>50</v>
       </c>
-      <c r="AT75" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU75" s="15"/>
-      <c r="AV75" s="15"/>
-    </row>
-    <row r="80" spans="1:48">
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="95"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="AT79" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU79" s="15"/>
+      <c r="AV79" s="15"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="95"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AL13 B7:B13 X16:X17 U16:W16 C23:D23 E22:H23 B67:B70 B16:B23 C18:D20 E17:H19 C7:G7 AG17:AN17 AD50:AQ50 AG25:AN25 AL23:AQ23 AL19:AQ20 AL40:AQ40 AL48:AQ48 AL56:AQ56 AN52:AQ53 AL44:AQ44 AL34:AQ34 AL30:AQ31 AO22:AV22 AO39:AQ39 AO17:AV18 AO47:AV47 AO55:AV55 AO51:AV51 AO43:AV43 AO33:AV33 AO25:AV29 AO37:AQ37 AR37:AV39 AO5:AV10 AL11:AV12 AL15:AV15 AO14:AV14 AL68:AV69 AO67:AV67 AL72:AV72 AO71:AV71 AL60:AV61 AO59:AV59 AL64:AV64 AO63:AV63 P46:Y46 P12:S12 I7:O12 P37:S40 P48:S48 P52:S56 P71:S72 P61:S61 P34:S34 P29:S31 P76:U77 P15:V15 P24:W24 P27:Y27 B5:G6 I23:S23 I18:S20 C67:S69 B71:O77 C59:O61 B63:S64 I26:O31 B14:O15 C24:O25 AL38:AQ38 P42:S44 B35:H56 I34:O56 Z17:AC17 T22:AB22 T39:AB39 T18:AB18 T55:AB55 T43:AB43 T33:AB33 T71:AB71 T67:AB67 T37:AK37 T63:AB63 Y16:AU16 W76:AB77 Y24:AU24 AC10:AK11 P28:AB28 AC60:AF60 P14:AB14 P26:AK26 P59:AB60 AC59:AK59 AV59:AV60 AC8:AN9 P73:AB75 AC73:AU77 P35:AU35 P45:AU45 AC49:AU49 P41:AU41 P47:AB47 P7:AB11 AC7:AK7 I5:AN6 AV5:AV11 X15:AB15 AC14:AK15 AA36:AQ36 X19:AB19 AC18:AK19 AV14:AV19 U23:AB23 AC22:AK23 U40:AB40 AC39:AK40 U48:AB48 AC47:AK48 T52:AB52 AC51:AK52 U56:AB56 AC55:AK56 AV55:AV56 U44:AB44 AC43:AK44 AA25:AC25 AA27:AB27 AC27:AN28 T29:AK30 AV22:AV30 U34:AB34 AC33:AK34 U68:AB68 AC67:AK68 AV66:AV68 U72:AB72 AC71:AK72 AV71:AV77 Z38:AC38 AV33:AV52 U64:AB64 AC63:AK64 AV63:AV64 C9:G12 C8:F8 C16:T17 P25:T25 P36:Y36 T42:Y42 P49:AB51 B58:AV58 B66:AU66 AA42:AQ42 AA46:AQ46">
-    <cfRule type="cellIs" dxfId="77" priority="184" operator="equal">
+  <conditionalFormatting sqref="AL13 B7:B13 X20:X21 U20:W20 C27:D27 E26:H27 B71:B74 B20:B27 C22:D24 E21:H23 C7:G7 AG21:AN21 AD54:AQ54 AG29:AN29 AL27:AQ27 AL23:AQ24 AL44:AQ44 AL52:AQ52 AL60:AQ60 AN56:AQ57 AL48:AQ48 AL38:AQ38 AL34:AQ35 AO26:AV26 AO43:AQ43 AO21:AV22 AO51:AV51 AO59:AV59 AO55:AV55 AO47:AV47 AO37:AV37 AO29:AV33 AO41:AQ41 AR41:AV43 AO5:AV10 AL11:AV12 AL19:AV19 AO18:AV18 AL72:AV73 AO71:AV71 AL76:AV76 AO75:AV75 AL64:AV65 AO63:AV63 AL68:AV68 AO67:AV67 P50:Y50 P12:S12 I7:O12 P41:S44 P52:S52 P56:S60 P75:S76 P65:S65 P38:S38 P33:S35 P80:U81 P19:V19 P28:W28 P31:Y31 B5:G6 I27:S27 I22:S24 C71:S73 B75:O81 C63:O65 B67:S68 I30:O35 B18:O19 C28:O29 AL42:AQ42 P46:S48 B39:H60 I38:O60 Z21:AC21 T26:AB26 T43:AB43 T22:AB22 T59:AB59 T47:AB47 T37:AB37 T75:AB75 T71:AB71 T41:AK41 T67:AB67 Y20:AU20 W80:AB81 Y28:AU28 AC10:AK11 P32:AB32 AC64:AF64 P18:AB18 P30:AK30 P63:AB64 AC63:AK63 AV63:AV64 AC8:AN9 P77:AB79 AC77:AU81 P39:AU39 P49:AU49 AC53:AU53 P45:AU45 P51:AB51 P7:AB11 AC7:AK7 I5:AN6 AV5:AV11 X19:AB19 AC18:AK19 AA40:AQ40 X23:AB23 AC22:AK23 AV18:AV23 U27:AB27 AC26:AK27 U44:AB44 AC43:AK44 U52:AB52 AC51:AK52 T56:AB56 AC55:AK56 U60:AB60 AC59:AK60 AV59:AV60 U48:AB48 AC47:AK48 AA29:AC29 AA31:AB31 AC31:AN32 T33:AK34 AV26:AV34 U38:AB38 AC37:AK38 U72:AB72 AC71:AK72 AV70:AV72 U76:AB76 AC75:AK76 AV75:AV81 Z42:AC42 AV37:AV56 U68:AB68 AC67:AK68 AV67:AV68 C9:G12 C8:F8 C20:T21 P29:T29 P40:Y40 T46:Y46 P53:AB55 B62:AV62 B70:AU70 AA46:AQ46 AA50:AQ50">
+    <cfRule type="cellIs" dxfId="79" priority="186" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U17:V17">
-    <cfRule type="cellIs" dxfId="76" priority="182" operator="equal">
+  <conditionalFormatting sqref="U21:V21">
+    <cfRule type="cellIs" dxfId="78" priority="184" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC17">
+  <conditionalFormatting sqref="AC21">
+    <cfRule type="cellIs" dxfId="77" priority="182" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD21:AF21">
+    <cfRule type="cellIs" dxfId="76" priority="181" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W21:Y21">
     <cfRule type="cellIs" dxfId="75" priority="180" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD17:AF17">
-    <cfRule type="cellIs" dxfId="74" priority="179" operator="equal">
+  <conditionalFormatting sqref="U39:W39">
+    <cfRule type="cellIs" dxfId="74" priority="174" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W17:Y17">
-    <cfRule type="cellIs" dxfId="73" priority="178" operator="equal">
+  <conditionalFormatting sqref="U40:V40">
+    <cfRule type="cellIs" dxfId="73" priority="173" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U35:W35">
-    <cfRule type="cellIs" dxfId="72" priority="172" operator="equal">
+  <conditionalFormatting sqref="AC40">
+    <cfRule type="cellIs" dxfId="72" priority="171" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U36:V36">
-    <cfRule type="cellIs" dxfId="71" priority="171" operator="equal">
+  <conditionalFormatting sqref="AD40:AF40">
+    <cfRule type="cellIs" dxfId="71" priority="170" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC36">
+  <conditionalFormatting sqref="W40:Y40">
     <cfRule type="cellIs" dxfId="70" priority="169" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD36:AF36">
-    <cfRule type="cellIs" dxfId="69" priority="168" operator="equal">
+  <conditionalFormatting sqref="AR40:AV40">
+    <cfRule type="cellIs" dxfId="69" priority="164" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W36:Y36">
-    <cfRule type="cellIs" dxfId="68" priority="167" operator="equal">
+  <conditionalFormatting sqref="AR23:AV24 AL25 T23:V23">
+    <cfRule type="cellIs" dxfId="68" priority="154" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR36:AV36">
-    <cfRule type="cellIs" dxfId="67" priority="162" operator="equal">
+  <conditionalFormatting sqref="AR27:AV27">
+    <cfRule type="cellIs" dxfId="67" priority="151" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR19:AV20 AL21 T19:V19">
-    <cfRule type="cellIs" dxfId="66" priority="152" operator="equal">
+  <conditionalFormatting sqref="AR44:AV44">
+    <cfRule type="cellIs" dxfId="66" priority="143" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR23:AV23">
-    <cfRule type="cellIs" dxfId="65" priority="149" operator="equal">
+  <conditionalFormatting sqref="AM56:AM57">
+    <cfRule type="cellIs" dxfId="65" priority="102" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR40:AV40">
-    <cfRule type="cellIs" dxfId="64" priority="141" operator="equal">
+  <conditionalFormatting sqref="U50:V50">
+    <cfRule type="cellIs" dxfId="64" priority="135" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM52:AM53">
-    <cfRule type="cellIs" dxfId="63" priority="100" operator="equal">
+  <conditionalFormatting sqref="AC50">
+    <cfRule type="cellIs" dxfId="63" priority="134" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD50:AF50">
+    <cfRule type="cellIs" dxfId="62" priority="133" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W50:Y50">
+    <cfRule type="cellIs" dxfId="61" priority="132" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR50:AV50">
+    <cfRule type="cellIs" dxfId="60" priority="129" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR52:AV52">
+    <cfRule type="cellIs" dxfId="59" priority="125" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U54:V54">
+    <cfRule type="cellIs" dxfId="58" priority="117" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD54:AF54">
+    <cfRule type="cellIs" dxfId="57" priority="115" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W54:Y54">
+    <cfRule type="cellIs" dxfId="56" priority="114" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR54:AV54">
+    <cfRule type="cellIs" dxfId="55" priority="111" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR56:AV57 AL58">
+    <cfRule type="cellIs" dxfId="54" priority="110" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL56:AL57">
+    <cfRule type="cellIs" dxfId="53" priority="109" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR60:AV60">
+    <cfRule type="cellIs" dxfId="52" priority="107" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U46:V46">
-    <cfRule type="cellIs" dxfId="62" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="99" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC46">
-    <cfRule type="cellIs" dxfId="61" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="98" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD46:AF46">
-    <cfRule type="cellIs" dxfId="60" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="97" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W46:Y46">
-    <cfRule type="cellIs" dxfId="59" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="96" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR46:AV46">
-    <cfRule type="cellIs" dxfId="58" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="93" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR48:AV48">
-    <cfRule type="cellIs" dxfId="57" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="89" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U50:V50">
-    <cfRule type="cellIs" dxfId="56" priority="115" operator="equal">
+  <conditionalFormatting sqref="X28:X29 B28:B38 C30:D35 E30:H34 C38:D38 E37:H38">
+    <cfRule type="cellIs" dxfId="45" priority="83" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD50:AF50">
-    <cfRule type="cellIs" dxfId="55" priority="113" operator="equal">
+  <conditionalFormatting sqref="U29:V29">
+    <cfRule type="cellIs" dxfId="44" priority="82" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W50:Y50">
-    <cfRule type="cellIs" dxfId="54" priority="112" operator="equal">
+  <conditionalFormatting sqref="AC29">
+    <cfRule type="cellIs" dxfId="43" priority="81" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR50:AV50">
-    <cfRule type="cellIs" dxfId="53" priority="109" operator="equal">
+  <conditionalFormatting sqref="AD29:AF29">
+    <cfRule type="cellIs" dxfId="42" priority="80" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR52:AV53 AL54">
-    <cfRule type="cellIs" dxfId="52" priority="108" operator="equal">
+  <conditionalFormatting sqref="W29:Y29">
+    <cfRule type="cellIs" dxfId="41" priority="79" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL52:AL53">
-    <cfRule type="cellIs" dxfId="51" priority="107" operator="equal">
+  <conditionalFormatting sqref="AR34:AV35 AL36">
+    <cfRule type="cellIs" dxfId="40" priority="75" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR56:AV56">
-    <cfRule type="cellIs" dxfId="50" priority="105" operator="equal">
+  <conditionalFormatting sqref="AR38:AV38">
+    <cfRule type="cellIs" dxfId="39" priority="72" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U42:V42">
-    <cfRule type="cellIs" dxfId="49" priority="97" operator="equal">
+  <conditionalFormatting sqref="AL74">
+    <cfRule type="cellIs" dxfId="38" priority="59" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W19">
+    <cfRule type="cellIs" dxfId="37" priority="50" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W23">
+    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z50">
+    <cfRule type="cellIs" dxfId="35" priority="48" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z46">
+    <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z40">
+    <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z29">
+    <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z31">
+    <cfRule type="cellIs" dxfId="31" priority="44" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC54">
+    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC54">
+    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27">
+    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T38">
+    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T44">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T48">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T52">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T60">
+    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T76">
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X42 T42">
+    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U42:V42 AG42:AK42">
+    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC42">
-    <cfRule type="cellIs" dxfId="48" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD42:AF42">
-    <cfRule type="cellIs" dxfId="47" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42:Y42">
-    <cfRule type="cellIs" dxfId="46" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR42:AV42">
-    <cfRule type="cellIs" dxfId="45" priority="91" operator="equal">
+  <conditionalFormatting sqref="B63:B66">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR44:AV44">
-    <cfRule type="cellIs" dxfId="44" priority="87" operator="equal">
+  <conditionalFormatting sqref="AL66 AG64:AK64">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X24:X25 B24:B34 C26:D31 E26:H30 C34:D34 E33:H34">
-    <cfRule type="cellIs" dxfId="43" priority="81" operator="equal">
+  <conditionalFormatting sqref="T68">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U25:V25">
-    <cfRule type="cellIs" dxfId="42" priority="80" operator="equal">
+  <conditionalFormatting sqref="T72">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC25">
-    <cfRule type="cellIs" dxfId="41" priority="79" operator="equal">
+  <conditionalFormatting sqref="H5:H12 G8">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD25:AF25">
-    <cfRule type="cellIs" dxfId="40" priority="78" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W25:Y25">
-    <cfRule type="cellIs" dxfId="39" priority="77" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR30:AV31 AL32">
-    <cfRule type="cellIs" dxfId="38" priority="73" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR34:AV34">
-    <cfRule type="cellIs" dxfId="37" priority="70" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL70">
-    <cfRule type="cellIs" dxfId="36" priority="57" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" dxfId="35" priority="48" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W19">
-    <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z46">
-    <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z42">
-    <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z36">
-    <cfRule type="cellIs" dxfId="31" priority="44" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z25">
-    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z27">
-    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
+  <conditionalFormatting sqref="AC46">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC50">
-    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC50">
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T23">
-    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T34">
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T40">
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T44">
-    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T48">
-    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T56">
-    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T72">
-    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X38 T38">
-    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U38:V38 AG38:AK38">
-    <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC38">
-    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD38:AF38">
-    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W38:Y38">
-    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59:B62">
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL62 AG60:AK60">
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T64">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T68">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H12 G8">
     <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC42">
+  <conditionalFormatting sqref="AL17 B14:B17 AO14:AV14 AL15:AV16 P16:S16 I14:O16 P14:AK15 C14:G16">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC46">
+  <conditionalFormatting sqref="H14:H16">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -8736,39 +8987,39 @@
     <row r="2" spans="1:20">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:20">
       <c r="B4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -8776,7 +9027,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="B5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="30" t="s">
@@ -8787,7 +9038,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="B6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
@@ -8798,72 +9049,72 @@
     </row>
     <row r="7" spans="1:20">
       <c r="B7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="T8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="T9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="T10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="T11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20">
       <c r="T13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20">
       <c r="T15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="T16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="17:20">
       <c r="T17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="17:20">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -8872,85 +9123,85 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T19" s="31"/>
     </row>
     <row r="20" spans="17:20">
       <c r="T20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="17:20">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="17:20">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="17:20">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="17:20">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="17:20">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="17:20">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="17:20">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="17:20">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="17:20">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="17:20">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="17:20">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="17:20">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -8959,34 +9210,34 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T33" s="31"/>
     </row>
     <row r="34" spans="17:20">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="17:20">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T35" s="31"/>
     </row>
     <row r="36" spans="17:20">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="17:20">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -8995,28 +9246,28 @@
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T38" s="31"/>
     </row>
     <row r="39" spans="17:20">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="17:20">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T40" s="31"/>
     </row>
     <row r="41" spans="17:20">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -9057,7 +9308,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -9083,12 +9334,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -9128,10 +9379,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -9140,12 +9391,12 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -9157,18 +9408,18 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -9176,7 +9427,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -9202,7 +9453,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
         <v>78</v>
@@ -9213,7 +9464,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
         <v>78</v>
@@ -9224,7 +9475,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -9232,7 +9483,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -9253,13 +9504,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -9267,22 +9518,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -9294,15 +9545,15 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -9314,10 +9565,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -9343,10 +9594,10 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -9360,7 +9611,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -9385,10 +9636,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9397,53 +9648,53 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -9506,7 +9757,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
@@ -9518,7 +9769,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="52"/>
       <c r="AA1" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
@@ -9531,7 +9782,7 @@
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1">
       <c r="C2" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -9572,7 +9823,7 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="49"/>
       <c r="AE2" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
@@ -9587,7 +9838,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>57</v>
@@ -9611,7 +9862,7 @@
         <v>62</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>63</v>
@@ -9642,7 +9893,7 @@
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>26</v>
@@ -9662,7 +9913,7 @@
       </c>
       <c r="AD3" s="49"/>
       <c r="AE3" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>74</v>
@@ -9680,7 +9931,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>80</v>
@@ -9707,10 +9958,10 @@
         <v>5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>84</v>
@@ -9725,10 +9976,10 @@
         <v>1</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
@@ -9788,7 +10039,7 @@
         <v>91</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q6" s="16" t="b">
         <v>1</v>
@@ -9876,7 +10127,7 @@
     </row>
     <row r="9" spans="1:35" s="15" customFormat="1">
       <c r="C9" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E9" s="15">
         <v>1</v>
@@ -10023,7 +10274,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>80</v>
@@ -10035,7 +10286,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>80</v>
@@ -10047,7 +10298,7 @@
         <v>5</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N15" s="15" t="s">
         <v>84</v>
@@ -10062,51 +10313,51 @@
         <v>1</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="50"/>
       <c r="W15" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z15" s="50"/>
       <c r="AA15" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD15" s="50"/>
       <c r="AE15" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AI15" s="47"/>
     </row>
     <row r="16" spans="1:35" s="15" customFormat="1">
       <c r="C16" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" s="15">
         <v>0.9</v>
@@ -10153,16 +10404,16 @@
       </c>
       <c r="AD16" s="50"/>
       <c r="AE16" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AI16" s="47"/>
     </row>
@@ -10197,7 +10448,7 @@
     </row>
     <row r="18" spans="1:35" s="15" customFormat="1">
       <c r="C18" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -10309,7 +10560,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -10324,33 +10575,33 @@
         <v>95</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S21" s="15" t="b">
         <v>1</v>
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z21" s="47"/>
       <c r="AA21" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB21" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD21" s="47"/>
       <c r="AE21"/>
@@ -10377,7 +10628,7 @@
     </row>
     <row r="23" spans="1:35" s="15" customFormat="1">
       <c r="C23" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E23" s="15">
         <v>0.9</v>
@@ -10389,13 +10640,13 @@
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>85</v>
@@ -10431,13 +10682,13 @@
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD23" s="50"/>
       <c r="AE23" s="16" t="s">
@@ -10447,7 +10698,7 @@
         <v>50</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AI23" s="47"/>
     </row>
@@ -10469,13 +10720,13 @@
       </c>
       <c r="Z24" s="53"/>
       <c r="AA24" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD24" s="50"/>
       <c r="AE24" s="16" t="s">
@@ -10485,7 +10736,7 @@
         <v>50</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AI24" s="47"/>
     </row>
@@ -10630,19 +10881,19 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>58</v>
@@ -10656,16 +10907,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
         <v>86</v>
@@ -10679,7 +10930,7 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
         <v>86</v>
@@ -10687,7 +10938,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="C5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -10699,7 +10950,7 @@
         <v>100000</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -10749,19 +11000,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>58</v>
@@ -10769,16 +11020,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
         <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E13" t="s">
         <v>86</v>
@@ -10787,7 +11038,7 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -10795,7 +11046,7 @@
         <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E14" t="s">
         <v>86</v>
@@ -10874,226 +11125,226 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C4" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C5" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C6" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C7" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C8" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C9" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C10" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C11" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C12" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C13" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C14" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C15" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C16" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C17" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C18" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C19" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -11114,72 +11365,72 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C22" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C23" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C25" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C26" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -11192,86 +11443,86 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C28" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C29" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C30" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C31" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C32" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C33" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -11284,72 +11535,72 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C35" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C36" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C37" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C38" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="33" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C39" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -11370,16 +11621,16 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C42" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -11392,226 +11643,226 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="32" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C44" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C45" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C46" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C47" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C48" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C49" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C50" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C51" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C52" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C53" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C54" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C55" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C56" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C57" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C58" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C59" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -11624,86 +11875,86 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C61" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C62" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="33" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C63" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="32" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C64" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="33" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C65" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="32" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C66" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -11724,44 +11975,44 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C69" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C70" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C71" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2099" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{40CE9587-8A14-431E-ADCF-D842BCB9472D}"/>
+  <xr:revisionPtr revIDLastSave="2104" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01DF34EC-F363-4D23-A6AA-8654401FA5CF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,6 @@
     <author>tc={3FC98A93-1BD2-46CA-8439-5A569DD9E38A}</author>
     <author>tc={A36EDA56-9BB8-4481-8541-35CA7263BBE2}</author>
     <author>tc={214FAD6C-C7E5-485F-8706-D09B002BBC46}</author>
-    <author>tc={87DFEB67-927C-442C-956F-66557C9248F0}</author>
     <author>tc={C0B5B783-6F49-48BB-AF50-66A6DF6487E7}</author>
     <author>tc={2C545A15-58BF-4325-853E-F01A6E2CD754}</author>
     <author>tc={B6F30610-5DE2-43DC-8686-4075E019810F}</author>
@@ -106,7 +105,7 @@
     Confirm with Peter Couch / Greg Toms</t>
       </text>
     </comment>
-    <comment ref="AL13" authorId="5" shapeId="0" xr:uid="{87DFEB67-927C-442C-956F-66557C9248F0}">
+    <comment ref="AL15" authorId="5" shapeId="0" xr:uid="{C0B5B783-6F49-48BB-AF50-66A6DF6487E7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -114,15 +113,7 @@
     add safety factor back</t>
       </text>
     </comment>
-    <comment ref="AL17" authorId="6" shapeId="0" xr:uid="{C0B5B783-6F49-48BB-AF50-66A6DF6487E7}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    add safety factor back</t>
-      </text>
-    </comment>
-    <comment ref="D56" authorId="7" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+    <comment ref="D54" authorId="6" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -130,7 +121,7 @@
     Change task type to planned / reactive / risk?</t>
       </text>
     </comment>
-    <comment ref="D62" authorId="8" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
+    <comment ref="D60" authorId="7" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -138,7 +129,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="I62" authorId="9" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
+    <comment ref="I60" authorId="8" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -146,7 +137,7 @@
     Break it out later</t>
       </text>
     </comment>
-    <comment ref="Z62" authorId="10" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+    <comment ref="Z60" authorId="9" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -155,7 +146,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="T64" authorId="11" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+    <comment ref="T62" authorId="10" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -163,7 +154,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="D70" authorId="12" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+    <comment ref="D68" authorId="11" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -171,7 +162,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="Z70" authorId="13" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+    <comment ref="Z68" authorId="12" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -180,7 +171,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="T72" authorId="14" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
+    <comment ref="T70" authorId="13" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -188,7 +179,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="E78" authorId="15" shapeId="0" xr:uid="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
+    <comment ref="E76" authorId="14" shapeId="0" xr:uid="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -196,7 +187,7 @@
     fix method to allow multiple indicators for one component</t>
       </text>
     </comment>
-    <comment ref="I78" authorId="16" shapeId="0" xr:uid="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
+    <comment ref="I76" authorId="15" shapeId="0" xr:uid="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -209,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="334">
   <si>
     <t>Cause</t>
   </si>
@@ -505,7 +496,7 @@
     <t>CAT1/2 replacement</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>functional_failure</t>
   </si>
   <si>
     <t>fungal decay _ external</t>
@@ -1780,7 +1771,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="81">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2638,42 +2636,39 @@
   <threadedComment ref="AL8" dT="2020-09-09T03:33:43.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
     <text>Confirm with Peter Couch / Greg Toms</text>
   </threadedComment>
-  <threadedComment ref="AL13" dT="2020-09-10T03:27:58.22" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{87DFEB67-927C-442C-956F-66557C9248F0}">
+  <threadedComment ref="AL15" dT="2020-09-10T03:27:58.22" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C0B5B783-6F49-48BB-AF50-66A6DF6487E7}">
     <text>add safety factor back</text>
   </threadedComment>
-  <threadedComment ref="AL17" dT="2020-09-10T03:27:58.22" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C0B5B783-6F49-48BB-AF50-66A6DF6487E7}">
-    <text>add safety factor back</text>
-  </threadedComment>
-  <threadedComment ref="D56" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+  <threadedComment ref="D54" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
     <text>Change task type to planned / reactive / risk?</text>
   </threadedComment>
-  <threadedComment ref="D62" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B6F30610-5DE2-43DC-8686-4075E019810F}">
+  <threadedComment ref="D60" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B6F30610-5DE2-43DC-8686-4075E019810F}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="I62" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F6470554-740D-4816-85E3-E23C5729D666}">
+  <threadedComment ref="I60" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F6470554-740D-4816-85E3-E23C5729D666}">
     <text>Break it out later</text>
   </threadedComment>
-  <threadedComment ref="Z62" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+  <threadedComment ref="Z60" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="T64" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+  <threadedComment ref="T62" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
     <text>Make this a repair task</text>
   </threadedComment>
-  <threadedComment ref="D70" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+  <threadedComment ref="D68" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="Z70" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+  <threadedComment ref="Z68" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="T72" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{65DC17AD-63E9-433B-A662-056382EECC79}">
+  <threadedComment ref="T70" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{65DC17AD-63E9-433B-A662-056382EECC79}">
     <text>Make this a repair task</text>
   </threadedComment>
-  <threadedComment ref="E78" dT="2020-09-15T23:18:34.59" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
+  <threadedComment ref="E76" dT="2020-09-15T23:18:34.59" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
     <text>fix method to allow multiple indicators for one component</text>
   </threadedComment>
-  <threadedComment ref="I78" dT="2020-09-15T22:13:46.05" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
+  <threadedComment ref="I76" dT="2020-09-15T22:13:46.05" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
     <text>Create error catch for this method</text>
   </threadedComment>
 </ThreadedComments>
@@ -3598,10 +3593,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
-  <dimension ref="A1:AV84"/>
+  <dimension ref="A1:AV82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4484,13 +4479,13 @@
       <c r="AJ11" s="16"/>
       <c r="AK11" s="110"/>
       <c r="AL11" s="82" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AM11" s="80">
         <v>0</v>
       </c>
       <c r="AN11" s="119">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="AO11" s="16" t="b">
         <v>0</v>
@@ -4537,54 +4532,126 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="97"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="97"/>
-      <c r="AL12" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM12" s="80">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="119">
-        <v>50</v>
-      </c>
-      <c r="AO12" s="16"/>
-      <c r="AP12" s="16"/>
-      <c r="AQ12" s="110"/>
-      <c r="AR12" s="76"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="15"/>
-      <c r="AU12" s="15"/>
-      <c r="AV12" s="15"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="69"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="70"/>
+      <c r="AH12" s="70"/>
+      <c r="AI12" s="70"/>
+      <c r="AJ12" s="70"/>
+      <c r="AK12" s="109"/>
+      <c r="AL12" s="83"/>
+      <c r="AM12" s="68"/>
+      <c r="AN12" s="117"/>
+      <c r="AO12" s="70"/>
+      <c r="AP12" s="70"/>
+      <c r="AQ12" s="109"/>
+      <c r="AR12" s="75"/>
+      <c r="AS12" s="71"/>
+      <c r="AT12" s="69"/>
+      <c r="AU12" s="69"/>
+      <c r="AV12" s="69"/>
     </row>
     <row r="13" spans="1:48">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="H13" s="138"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="U13" s="15">
+        <v>1</v>
+      </c>
+      <c r="V13" s="45">
+        <v>7000</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z13" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="97"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="110"/>
       <c r="AL13" s="82" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AM13" s="80">
         <v>0</v>
       </c>
       <c r="AN13" s="119">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="AO13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS13" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV13" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:48">
@@ -4607,126 +4674,54 @@
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
       <c r="S14" s="97"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="70"/>
-      <c r="AH14" s="70"/>
-      <c r="AI14" s="70"/>
-      <c r="AJ14" s="70"/>
-      <c r="AK14" s="109"/>
-      <c r="AL14" s="83"/>
-      <c r="AM14" s="68"/>
-      <c r="AN14" s="117"/>
-      <c r="AO14" s="70"/>
-      <c r="AP14" s="70"/>
-      <c r="AQ14" s="109"/>
-      <c r="AR14" s="75"/>
-      <c r="AS14" s="71"/>
-      <c r="AT14" s="69"/>
-      <c r="AU14" s="69"/>
-      <c r="AV14" s="69"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="97"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="97"/>
+      <c r="AL14" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM14" s="80">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="119">
+        <v>50</v>
+      </c>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="110"/>
+      <c r="AR14" s="76"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="15"/>
+      <c r="AV14" s="15"/>
     </row>
     <row r="15" spans="1:48">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="U15" s="15">
-        <v>1</v>
-      </c>
-      <c r="V15" s="45">
-        <v>7000</v>
-      </c>
-      <c r="W15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X15" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y15" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z15" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="110"/>
+      <c r="H15" s="138"/>
       <c r="AL15" s="82" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AM15" s="80">
         <v>0</v>
       </c>
       <c r="AN15" s="119">
-        <v>50</v>
-      </c>
-      <c r="AO15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS15" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV15" s="15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:48">
@@ -4749,54 +4744,116 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
       <c r="S16" s="97"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="15"/>
-      <c r="AK16" s="97"/>
-      <c r="AL16" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM16" s="80">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="119">
-        <v>50</v>
-      </c>
-      <c r="AO16" s="16"/>
-      <c r="AP16" s="16"/>
-      <c r="AQ16" s="110"/>
-      <c r="AR16" s="76"/>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="15"/>
-      <c r="AU16" s="15"/>
-      <c r="AV16" s="15"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="70"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="109"/>
+      <c r="AL16" s="83"/>
+      <c r="AM16" s="68"/>
+      <c r="AN16" s="117"/>
+      <c r="AO16" s="70"/>
+      <c r="AP16" s="70"/>
+      <c r="AQ16" s="109"/>
+      <c r="AR16" s="75"/>
+      <c r="AS16" s="71"/>
+      <c r="AT16" s="69"/>
+      <c r="AU16" s="69"/>
+      <c r="AV16" s="69"/>
     </row>
     <row r="17" spans="1:48">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="H17" s="138"/>
-      <c r="AL17" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM17" s="80">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="119">
-        <v>3</v>
+      <c r="C17" s="15"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="U17" s="15">
+        <v>1</v>
+      </c>
+      <c r="V17" s="45">
+        <v>15000</v>
+      </c>
+      <c r="W17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y17" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z17" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="97"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="110"/>
+      <c r="AL17" s="84"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="120"/>
+      <c r="AO17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS17" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV17" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:48">
@@ -4807,47 +4864,47 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="104"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="70"/>
-      <c r="AH18" s="70"/>
-      <c r="AI18" s="70"/>
-      <c r="AJ18" s="70"/>
-      <c r="AK18" s="109"/>
-      <c r="AL18" s="83"/>
-      <c r="AM18" s="68"/>
-      <c r="AN18" s="117"/>
-      <c r="AO18" s="70"/>
-      <c r="AP18" s="70"/>
-      <c r="AQ18" s="109"/>
-      <c r="AR18" s="75"/>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="69"/>
-      <c r="AU18" s="69"/>
-      <c r="AV18" s="69"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="102"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+      <c r="AJ18" s="57"/>
+      <c r="AK18" s="112"/>
+      <c r="AL18" s="85"/>
+      <c r="AM18" s="58"/>
+      <c r="AN18" s="121"/>
+      <c r="AO18" s="57"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="112"/>
+      <c r="AR18" s="78"/>
+      <c r="AS18" s="58"/>
+      <c r="AT18" s="56"/>
+      <c r="AU18" s="56"/>
+      <c r="AV18" s="56"/>
     </row>
     <row r="19" spans="1:48">
       <c r="A19" s="15"/>
@@ -4858,78 +4915,92 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
+      <c r="I19" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="45">
+        <v>10</v>
+      </c>
+      <c r="L19" s="130">
+        <v>1</v>
+      </c>
+      <c r="M19" s="45">
+        <v>125</v>
+      </c>
+      <c r="N19" s="45">
+        <v>3.3</v>
+      </c>
+      <c r="O19" s="130">
+        <v>10</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="R19" s="15"/>
-      <c r="S19" s="97"/>
+      <c r="S19" s="97">
+        <v>1</v>
+      </c>
       <c r="T19" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="U19" s="15">
-        <v>1</v>
-      </c>
-      <c r="V19" s="45">
-        <v>15000</v>
+        <v>79</v>
+      </c>
+      <c r="U19" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="V19" s="15">
+        <v>50</v>
       </c>
       <c r="W19" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="X19" s="15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="Y19" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z19" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="110"/>
+        <v>81</v>
+      </c>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15">
+        <v>20</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC19" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE19" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG19" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="108"/>
       <c r="AL19" s="84"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="120"/>
-      <c r="AO19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS19" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV19" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="108"/>
+      <c r="AO19" s="16"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="108"/>
+      <c r="AR19" s="74"/>
+      <c r="AS19" s="93"/>
+      <c r="AT19" s="18"/>
+      <c r="AU19" s="18"/>
+      <c r="AV19" s="15"/>
     </row>
     <row r="20" spans="1:48">
       <c r="A20" s="15"/>
@@ -4937,49 +5008,48 @@
       <c r="C20" s="15"/>
       <c r="D20" s="97"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="133"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="102"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="112"/>
-      <c r="AL20" s="85"/>
-      <c r="AM20" s="58"/>
-      <c r="AN20" s="121"/>
-      <c r="AO20" s="57"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="112"/>
-      <c r="AR20" s="78"/>
-      <c r="AS20" s="58"/>
-      <c r="AT20" s="56"/>
-      <c r="AU20" s="56"/>
-      <c r="AV20" s="56"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="69"/>
+      <c r="AB20" s="69"/>
+      <c r="AC20" s="104"/>
+      <c r="AD20" s="69"/>
+      <c r="AE20" s="69"/>
+      <c r="AF20" s="69"/>
+      <c r="AG20" s="70"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="70"/>
+      <c r="AJ20" s="70"/>
+      <c r="AK20" s="109"/>
+      <c r="AL20" s="83"/>
+      <c r="AM20" s="68"/>
+      <c r="AN20" s="117"/>
+      <c r="AO20" s="70"/>
+      <c r="AP20" s="70"/>
+      <c r="AQ20" s="109"/>
+      <c r="AR20" s="75"/>
+      <c r="AS20" s="71"/>
+      <c r="AT20" s="69"/>
+      <c r="AU20" s="69"/>
+      <c r="AV20" s="69"/>
     </row>
     <row r="21" spans="1:48">
       <c r="A21" s="15"/>
@@ -4987,104 +5057,96 @@
       <c r="C21" s="15"/>
       <c r="D21" s="97"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J21" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="45">
-        <v>10</v>
-      </c>
-      <c r="L21" s="130">
-        <v>1</v>
-      </c>
-      <c r="M21" s="45">
-        <v>125</v>
-      </c>
-      <c r="N21" s="45">
-        <v>3.3</v>
-      </c>
-      <c r="O21" s="130">
-        <v>10</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21" s="15" t="s">
-        <v>78</v>
-      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
-      <c r="S21" s="97">
-        <v>1</v>
-      </c>
+      <c r="S21" s="97"/>
       <c r="T21" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="U21" s="45">
-        <v>0.8</v>
+        <v>94</v>
+      </c>
+      <c r="U21" s="15">
+        <v>1</v>
       </c>
       <c r="V21" s="15">
+        <v>3500</v>
+      </c>
+      <c r="W21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z21" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="97"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="110"/>
+      <c r="AL21" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM21" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="120">
         <v>50</v>
       </c>
-      <c r="W21" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="X21" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y21" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15">
-        <v>20</v>
-      </c>
-      <c r="AB21" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC21" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD21" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE21" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF21" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG21" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="108"/>
-      <c r="AL21" s="84"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="108"/>
-      <c r="AO21" s="16"/>
-      <c r="AP21" s="18"/>
-      <c r="AQ21" s="108"/>
-      <c r="AR21" s="74"/>
-      <c r="AS21" s="93"/>
-      <c r="AT21" s="18"/>
-      <c r="AU21" s="18"/>
-      <c r="AV21" s="15"/>
+      <c r="AO21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS21" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV21" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:48">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="97"/>
-      <c r="E22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
@@ -5096,293 +5158,304 @@
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="97"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="104"/>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="70"/>
-      <c r="AH22" s="70"/>
-      <c r="AI22" s="70"/>
-      <c r="AJ22" s="70"/>
-      <c r="AK22" s="109"/>
-      <c r="AL22" s="83"/>
-      <c r="AM22" s="68"/>
-      <c r="AN22" s="117"/>
-      <c r="AO22" s="70"/>
-      <c r="AP22" s="70"/>
-      <c r="AQ22" s="109"/>
-      <c r="AR22" s="75"/>
-      <c r="AS22" s="71"/>
-      <c r="AT22" s="69"/>
-      <c r="AU22" s="69"/>
-      <c r="AV22" s="69"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="97"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="97"/>
+      <c r="AL22" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM22" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="120">
+        <v>50</v>
+      </c>
+      <c r="AO22" s="16"/>
+      <c r="AP22" s="16"/>
+      <c r="AQ22" s="110"/>
+      <c r="AR22" s="76"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="15"/>
+      <c r="AU22" s="15"/>
+      <c r="AV22" s="15"/>
     </row>
     <row r="23" spans="1:48">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="97"/>
-      <c r="T23" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="U23" s="15">
-        <v>1</v>
-      </c>
-      <c r="V23" s="15">
-        <v>3500</v>
-      </c>
-      <c r="W23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y23" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z23" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="97"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="16"/>
-      <c r="AK23" s="110"/>
       <c r="AL23" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM23" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="120">
-        <v>50</v>
-      </c>
-      <c r="AO23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS23" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT23" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV23" s="15" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="AM23" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="122">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:48">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="97"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="97"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="97"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="97"/>
-      <c r="AL24" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM24" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="120">
-        <v>50</v>
-      </c>
-      <c r="AO24" s="16"/>
-      <c r="AP24" s="16"/>
-      <c r="AQ24" s="110"/>
-      <c r="AR24" s="76"/>
-      <c r="AS24" s="19"/>
-      <c r="AT24" s="15"/>
-      <c r="AU24" s="15"/>
-      <c r="AV24" s="15"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="69"/>
+      <c r="AB24" s="69"/>
+      <c r="AC24" s="104"/>
+      <c r="AD24" s="69"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="69"/>
+      <c r="AG24" s="70"/>
+      <c r="AH24" s="70"/>
+      <c r="AI24" s="70"/>
+      <c r="AJ24" s="70"/>
+      <c r="AK24" s="109"/>
+      <c r="AL24" s="83"/>
+      <c r="AM24" s="68"/>
+      <c r="AN24" s="117"/>
+      <c r="AO24" s="70"/>
+      <c r="AP24" s="70"/>
+      <c r="AQ24" s="109"/>
+      <c r="AR24" s="75"/>
+      <c r="AS24" s="71"/>
+      <c r="AT24" s="69"/>
+      <c r="AU24" s="69"/>
+      <c r="AV24" s="69"/>
     </row>
     <row r="25" spans="1:48">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
-      <c r="AL25" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="122">
-        <v>3</v>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="T25" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="U25" s="15">
+        <v>1</v>
+      </c>
+      <c r="V25" s="15">
+        <v>7000</v>
+      </c>
+      <c r="W25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y25" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z25" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="97"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="16"/>
+      <c r="AK25" s="110"/>
+      <c r="AL25" s="84"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="120"/>
+      <c r="AO25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS25" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV25" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:48">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="69"/>
-      <c r="AB26" s="69"/>
-      <c r="AC26" s="104"/>
-      <c r="AD26" s="69"/>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="69"/>
-      <c r="AG26" s="70"/>
-      <c r="AH26" s="70"/>
-      <c r="AI26" s="70"/>
-      <c r="AJ26" s="70"/>
-      <c r="AK26" s="109"/>
-      <c r="AL26" s="83"/>
-      <c r="AM26" s="68"/>
-      <c r="AN26" s="117"/>
-      <c r="AO26" s="70"/>
-      <c r="AP26" s="70"/>
-      <c r="AQ26" s="109"/>
-      <c r="AR26" s="75"/>
-      <c r="AS26" s="71"/>
-      <c r="AT26" s="69"/>
-      <c r="AU26" s="69"/>
-      <c r="AV26" s="69"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="133"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="102"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="56"/>
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="112"/>
+      <c r="AL26" s="85"/>
+      <c r="AM26" s="58"/>
+      <c r="AN26" s="121"/>
+      <c r="AO26" s="57"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="112"/>
+      <c r="AR26" s="78"/>
+      <c r="AS26" s="58"/>
+      <c r="AT26" s="56"/>
+      <c r="AU26" s="56"/>
+      <c r="AV26" s="56"/>
     </row>
     <row r="27" spans="1:48">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="97"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
+      <c r="I27" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="45">
+        <v>10</v>
+      </c>
+      <c r="L27" s="130">
+        <v>1</v>
+      </c>
+      <c r="M27" s="45">
+        <v>122</v>
+      </c>
+      <c r="N27" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="O27" s="130">
+        <v>10</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R27" s="15"/>
+      <c r="S27" s="97">
+        <v>1</v>
+      </c>
       <c r="T27" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="U27" s="15">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="U27" s="45">
+        <v>0.8</v>
       </c>
       <c r="V27" s="15">
-        <v>7000</v>
+        <v>50</v>
       </c>
       <c r="W27" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="X27" s="15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="Y27" s="15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Z27" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="97"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="16"/>
-      <c r="AK27" s="110"/>
+        <v>82</v>
+      </c>
+      <c r="AA27" s="15">
+        <v>20</v>
+      </c>
+      <c r="AB27" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC27" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD27" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE27" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF27" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG27" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="108"/>
       <c r="AL27" s="84"/>
-      <c r="AM27" s="19"/>
-      <c r="AN27" s="120"/>
-      <c r="AO27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS27" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT27" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV27" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="108"/>
+      <c r="AO27" s="16"/>
+      <c r="AP27" s="18"/>
+      <c r="AQ27" s="108"/>
+      <c r="AR27" s="74"/>
+      <c r="AS27" s="93"/>
+      <c r="AT27" s="18"/>
+      <c r="AU27" s="18"/>
+      <c r="AV27" s="15"/>
     </row>
     <row r="28" spans="1:48">
       <c r="A28" s="15"/>
@@ -5390,49 +5463,48 @@
       <c r="C28" s="15"/>
       <c r="D28" s="97"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="102"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="112"/>
-      <c r="AL28" s="85"/>
-      <c r="AM28" s="58"/>
-      <c r="AN28" s="121"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="112"/>
-      <c r="AR28" s="78"/>
-      <c r="AS28" s="58"/>
-      <c r="AT28" s="56"/>
-      <c r="AU28" s="56"/>
-      <c r="AV28" s="56"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="97"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="69"/>
+      <c r="AC28" s="104"/>
+      <c r="AD28" s="69"/>
+      <c r="AE28" s="69"/>
+      <c r="AF28" s="69"/>
+      <c r="AG28" s="70"/>
+      <c r="AH28" s="70"/>
+      <c r="AI28" s="70"/>
+      <c r="AJ28" s="70"/>
+      <c r="AK28" s="109"/>
+      <c r="AL28" s="83"/>
+      <c r="AM28" s="68"/>
+      <c r="AN28" s="117"/>
+      <c r="AO28" s="70"/>
+      <c r="AP28" s="70"/>
+      <c r="AQ28" s="109"/>
+      <c r="AR28" s="75"/>
+      <c r="AS28" s="71"/>
+      <c r="AT28" s="69"/>
+      <c r="AU28" s="69"/>
+      <c r="AV28" s="69"/>
     </row>
     <row r="29" spans="1:48">
       <c r="A29" s="15"/>
@@ -5440,92 +5512,75 @@
       <c r="C29" s="15"/>
       <c r="D29" s="97"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="97"/>
+      <c r="T29" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="U29" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="V29" s="15">
         <v>100</v>
       </c>
-      <c r="J29" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="K29" s="45">
-        <v>10</v>
-      </c>
-      <c r="L29" s="130">
-        <v>1</v>
-      </c>
-      <c r="M29" s="45">
-        <v>122</v>
-      </c>
-      <c r="N29" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="O29" s="130">
-        <v>10</v>
-      </c>
-      <c r="P29" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q29" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R29" s="15"/>
-      <c r="S29" s="97">
-        <v>1</v>
-      </c>
-      <c r="T29" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="U29" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="V29" s="15">
-        <v>50</v>
-      </c>
       <c r="W29" s="15" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="X29" s="15" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="Y29" s="15" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="Z29" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AA29" s="15">
-        <v>20</v>
-      </c>
-      <c r="AB29" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC29" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD29" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE29" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF29" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG29" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="18"/>
-      <c r="AI29" s="18"/>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="108"/>
-      <c r="AL29" s="84"/>
-      <c r="AM29" s="18"/>
-      <c r="AN29" s="108"/>
-      <c r="AO29" s="16"/>
-      <c r="AP29" s="18"/>
-      <c r="AQ29" s="108"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="97"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="110"/>
+      <c r="AL29" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM29" s="80">
+        <v>50</v>
+      </c>
+      <c r="AN29" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO29" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="110" t="b">
+        <v>0</v>
+      </c>
       <c r="AR29" s="74"/>
       <c r="AS29" s="93"/>
       <c r="AT29" s="18"/>
@@ -5551,35 +5606,41 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="97"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="104"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="69"/>
-      <c r="AF30" s="69"/>
-      <c r="AG30" s="70"/>
-      <c r="AH30" s="70"/>
-      <c r="AI30" s="70"/>
-      <c r="AJ30" s="70"/>
-      <c r="AK30" s="109"/>
-      <c r="AL30" s="83"/>
-      <c r="AM30" s="68"/>
-      <c r="AN30" s="117"/>
-      <c r="AO30" s="70"/>
-      <c r="AP30" s="70"/>
-      <c r="AQ30" s="109"/>
-      <c r="AR30" s="75"/>
-      <c r="AS30" s="71"/>
-      <c r="AT30" s="69"/>
-      <c r="AU30" s="69"/>
-      <c r="AV30" s="69"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="97"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="110"/>
+      <c r="AL30" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM30" s="80">
+        <v>50</v>
+      </c>
+      <c r="AN30" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO30" s="16"/>
+      <c r="AP30" s="16"/>
+      <c r="AQ30" s="110"/>
+      <c r="AR30" s="76"/>
+      <c r="AS30" s="19"/>
+      <c r="AT30" s="15"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
     </row>
     <row r="31" spans="1:48">
       <c r="A31" s="15"/>
@@ -5600,67 +5661,35 @@
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
       <c r="S31" s="97"/>
-      <c r="T31" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="U31" s="45">
-        <v>0.9</v>
-      </c>
-      <c r="V31" s="15">
-        <v>100</v>
-      </c>
-      <c r="W31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X31" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y31" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z31" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="97"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="16"/>
-      <c r="AK31" s="110"/>
-      <c r="AL31" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM31" s="80">
-        <v>50</v>
-      </c>
-      <c r="AN31" s="123" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO31" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR31" s="74"/>
-      <c r="AS31" s="93"/>
-      <c r="AT31" s="18"/>
-      <c r="AU31" s="18"/>
-      <c r="AV31" s="15"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="69"/>
+      <c r="AA31" s="69"/>
+      <c r="AB31" s="69"/>
+      <c r="AC31" s="104"/>
+      <c r="AD31" s="69"/>
+      <c r="AE31" s="69"/>
+      <c r="AF31" s="69"/>
+      <c r="AG31" s="70"/>
+      <c r="AH31" s="70"/>
+      <c r="AI31" s="70"/>
+      <c r="AJ31" s="70"/>
+      <c r="AK31" s="109"/>
+      <c r="AL31" s="83"/>
+      <c r="AM31" s="68"/>
+      <c r="AN31" s="117"/>
+      <c r="AO31" s="70"/>
+      <c r="AP31" s="70"/>
+      <c r="AQ31" s="109"/>
+      <c r="AR31" s="75"/>
+      <c r="AS31" s="71"/>
+      <c r="AT31" s="69"/>
+      <c r="AU31" s="69"/>
+      <c r="AV31" s="69"/>
     </row>
     <row r="32" spans="1:48">
       <c r="A32" s="15"/>
@@ -5681,50 +5710,83 @@
       <c r="Q32" s="15"/>
       <c r="R32" s="15"/>
       <c r="S32" s="97"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
+      <c r="T32" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="U32" s="15">
+        <v>1</v>
+      </c>
+      <c r="V32" s="15">
+        <v>3500</v>
+      </c>
+      <c r="W32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X32" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y32" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z32" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="AA32" s="15"/>
       <c r="AB32" s="15"/>
       <c r="AC32" s="97"/>
       <c r="AD32" s="15"/>
       <c r="AE32" s="15"/>
       <c r="AF32" s="15"/>
-      <c r="AG32" s="16"/>
-      <c r="AH32" s="16"/>
-      <c r="AI32" s="16"/>
+      <c r="AG32" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AJ32" s="16"/>
       <c r="AK32" s="110"/>
-      <c r="AL32" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM32" s="80">
+      <c r="AL32" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="120">
         <v>50</v>
       </c>
-      <c r="AN32" s="123" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO32" s="16"/>
-      <c r="AP32" s="16"/>
-      <c r="AQ32" s="110"/>
-      <c r="AR32" s="76"/>
-      <c r="AS32" s="19"/>
-      <c r="AT32" s="15"/>
-      <c r="AU32" s="15"/>
-      <c r="AV32" s="15"/>
+      <c r="AO32" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS32" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV32" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="97"/>
-      <c r="E33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
@@ -5736,293 +5798,294 @@
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
       <c r="S33" s="97"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69"/>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="69"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="104"/>
-      <c r="AD33" s="69"/>
-      <c r="AE33" s="69"/>
-      <c r="AF33" s="69"/>
-      <c r="AG33" s="70"/>
-      <c r="AH33" s="70"/>
-      <c r="AI33" s="70"/>
-      <c r="AJ33" s="70"/>
-      <c r="AK33" s="109"/>
-      <c r="AL33" s="83"/>
-      <c r="AM33" s="68"/>
-      <c r="AN33" s="117"/>
-      <c r="AO33" s="70"/>
-      <c r="AP33" s="70"/>
-      <c r="AQ33" s="109"/>
-      <c r="AR33" s="75"/>
-      <c r="AS33" s="71"/>
-      <c r="AT33" s="69"/>
-      <c r="AU33" s="69"/>
-      <c r="AV33" s="69"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="97"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="97"/>
+      <c r="AL33" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM33" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="120">
+        <v>50</v>
+      </c>
+      <c r="AO33" s="16"/>
+      <c r="AP33" s="16"/>
+      <c r="AQ33" s="110"/>
+      <c r="AR33" s="76"/>
+      <c r="AS33" s="19"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
     </row>
     <row r="34" spans="1:48">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="131"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="131"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="97"/>
-      <c r="T34" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="U34" s="15">
-        <v>1</v>
-      </c>
-      <c r="V34" s="15">
-        <v>3500</v>
-      </c>
-      <c r="W34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X34" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y34" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z34" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="97"/>
-      <c r="AD34" s="15"/>
-      <c r="AE34" s="15"/>
-      <c r="AF34" s="15"/>
-      <c r="AG34" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="16"/>
-      <c r="AK34" s="110"/>
       <c r="AL34" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM34" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN34" s="120">
-        <v>50</v>
-      </c>
-      <c r="AO34" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ34" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR34" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS34" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT34" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV34" s="15" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="AM34" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="122">
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:48">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="97"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="131"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="97"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="97"/>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="15"/>
-      <c r="AF35" s="15"/>
-      <c r="AG35" s="15"/>
-      <c r="AH35" s="15"/>
-      <c r="AI35" s="15"/>
-      <c r="AJ35" s="15"/>
-      <c r="AK35" s="97"/>
-      <c r="AL35" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM35" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="120">
-        <v>50</v>
-      </c>
-      <c r="AO35" s="16"/>
-      <c r="AP35" s="16"/>
-      <c r="AQ35" s="110"/>
-      <c r="AR35" s="76"/>
-      <c r="AS35" s="19"/>
-      <c r="AT35" s="15"/>
-      <c r="AU35" s="15"/>
-      <c r="AV35" s="15"/>
+      <c r="T35" s="69"/>
+      <c r="U35" s="69"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="69"/>
+      <c r="X35" s="69"/>
+      <c r="Y35" s="69"/>
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="69"/>
+      <c r="AB35" s="69"/>
+      <c r="AC35" s="104"/>
+      <c r="AD35" s="69"/>
+      <c r="AE35" s="69"/>
+      <c r="AF35" s="69"/>
+      <c r="AG35" s="70"/>
+      <c r="AH35" s="70"/>
+      <c r="AI35" s="70"/>
+      <c r="AJ35" s="70"/>
+      <c r="AK35" s="109"/>
+      <c r="AL35" s="83"/>
+      <c r="AM35" s="68"/>
+      <c r="AN35" s="117"/>
+      <c r="AO35" s="70"/>
+      <c r="AP35" s="70"/>
+      <c r="AQ35" s="109"/>
+      <c r="AR35" s="75"/>
+      <c r="AS35" s="71"/>
+      <c r="AT35" s="69"/>
+      <c r="AU35" s="69"/>
+      <c r="AV35" s="69"/>
     </row>
     <row r="36" spans="1:48">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
-      <c r="AL36" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM36" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN36" s="122">
-        <v>3</v>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="T36" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="U36" s="15">
+        <v>1</v>
+      </c>
+      <c r="V36" s="15">
+        <v>7000</v>
+      </c>
+      <c r="W36" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X36" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y36" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z36" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="97"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="16"/>
+      <c r="AI36" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="16"/>
+      <c r="AK36" s="110"/>
+      <c r="AL36" s="84"/>
+      <c r="AM36" s="19"/>
+      <c r="AN36" s="120"/>
+      <c r="AO36" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS36" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU36" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV36" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:48">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="69"/>
-      <c r="X37" s="69"/>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="69"/>
-      <c r="AA37" s="69"/>
-      <c r="AB37" s="69"/>
-      <c r="AC37" s="104"/>
-      <c r="AD37" s="69"/>
-      <c r="AE37" s="69"/>
-      <c r="AF37" s="69"/>
-      <c r="AG37" s="70"/>
-      <c r="AH37" s="70"/>
-      <c r="AI37" s="70"/>
-      <c r="AJ37" s="70"/>
-      <c r="AK37" s="109"/>
-      <c r="AL37" s="83"/>
-      <c r="AM37" s="68"/>
-      <c r="AN37" s="117"/>
-      <c r="AO37" s="70"/>
-      <c r="AP37" s="70"/>
-      <c r="AQ37" s="109"/>
-      <c r="AR37" s="75"/>
-      <c r="AS37" s="71"/>
-      <c r="AT37" s="69"/>
-      <c r="AU37" s="69"/>
-      <c r="AV37" s="69"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="133"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="102"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="56"/>
+      <c r="AC37" s="102"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="57"/>
+      <c r="AH37" s="57"/>
+      <c r="AI37" s="57"/>
+      <c r="AJ37" s="57"/>
+      <c r="AK37" s="112"/>
+      <c r="AL37" s="85"/>
+      <c r="AM37" s="58"/>
+      <c r="AN37" s="121"/>
+      <c r="AO37" s="57"/>
+      <c r="AP37" s="57"/>
+      <c r="AQ37" s="112"/>
+      <c r="AR37" s="78"/>
+      <c r="AS37" s="58"/>
+      <c r="AT37" s="56"/>
+      <c r="AU37" s="56"/>
+      <c r="AV37" s="56"/>
     </row>
     <row r="38" spans="1:48">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="97"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
+      <c r="I38" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J38" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38" s="41">
+        <v>0</v>
+      </c>
+      <c r="L38" s="134">
+        <v>0</v>
+      </c>
+      <c r="M38" s="41">
+        <v>700</v>
+      </c>
+      <c r="N38" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="O38" s="134">
+        <v>0</v>
+      </c>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="99"/>
       <c r="T38" s="15" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="U38" s="15">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="V38" s="15">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="W38" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="X38" s="15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="Y38" s="15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Z38" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="97"/>
+        <v>82</v>
+      </c>
+      <c r="AA38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="97" t="s">
+        <v>83</v>
+      </c>
       <c r="AD38" s="15"/>
       <c r="AE38" s="15"/>
       <c r="AF38" s="15"/>
-      <c r="AG38" s="16"/>
-      <c r="AH38" s="16"/>
-      <c r="AI38" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ38" s="16"/>
-      <c r="AK38" s="110"/>
+      <c r="AG38" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="18"/>
+      <c r="AJ38" s="18"/>
+      <c r="AK38" s="108"/>
       <c r="AL38" s="84"/>
       <c r="AM38" s="19"/>
       <c r="AN38" s="120"/>
-      <c r="AO38" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR38" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS38" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT38" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV38" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="AO38" s="145"/>
+      <c r="AP38" s="145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="146"/>
+      <c r="AR38" s="76"/>
+      <c r="AS38" s="19"/>
+      <c r="AT38" s="15"/>
+      <c r="AU38" s="15"/>
+      <c r="AV38" s="15"/>
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="15"/>
@@ -6033,46 +6096,46 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="102"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="102"/>
-      <c r="AD39" s="56"/>
-      <c r="AE39" s="56"/>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="57"/>
-      <c r="AH39" s="57"/>
-      <c r="AI39" s="57"/>
-      <c r="AJ39" s="57"/>
-      <c r="AK39" s="112"/>
-      <c r="AL39" s="85"/>
-      <c r="AM39" s="58"/>
-      <c r="AN39" s="121"/>
-      <c r="AO39" s="57"/>
-      <c r="AP39" s="57"/>
-      <c r="AQ39" s="112"/>
-      <c r="AR39" s="78"/>
-      <c r="AS39" s="58"/>
-      <c r="AT39" s="56"/>
-      <c r="AU39" s="56"/>
-      <c r="AV39" s="56"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="131"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="131"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="97"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="69"/>
+      <c r="V39" s="69"/>
+      <c r="W39" s="69"/>
+      <c r="X39" s="69"/>
+      <c r="Y39" s="69"/>
+      <c r="Z39" s="69"/>
+      <c r="AA39" s="69"/>
+      <c r="AB39" s="69"/>
+      <c r="AC39" s="104"/>
+      <c r="AD39" s="69"/>
+      <c r="AE39" s="69"/>
+      <c r="AF39" s="69"/>
+      <c r="AG39" s="70"/>
+      <c r="AH39" s="70"/>
+      <c r="AI39" s="70"/>
+      <c r="AJ39" s="70"/>
+      <c r="AK39" s="109"/>
+      <c r="AL39" s="83"/>
+      <c r="AM39" s="140"/>
+      <c r="AN39" s="141"/>
+      <c r="AO39" s="142"/>
+      <c r="AP39" s="142"/>
+      <c r="AQ39" s="143"/>
+      <c r="AR39" s="144"/>
+      <c r="AS39" s="71"/>
+      <c r="AT39" s="69"/>
+      <c r="AU39" s="69"/>
+      <c r="AV39" s="69"/>
     </row>
     <row r="40" spans="1:48">
       <c r="A40" s="15"/>
@@ -6083,39 +6146,25 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
-      <c r="I40" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J40" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="K40" s="41">
-        <v>0</v>
-      </c>
-      <c r="L40" s="134">
-        <v>0</v>
-      </c>
-      <c r="M40" s="41">
-        <v>700</v>
-      </c>
-      <c r="N40" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="O40" s="134">
-        <v>0</v>
-      </c>
-      <c r="P40" s="94"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="99"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="131"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="131"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="97"/>
       <c r="T40" s="15" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="U40" s="15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="V40" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W40" s="15" t="s">
         <v>51</v>
@@ -6126,21 +6175,25 @@
       <c r="Y40" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="Z40" s="15" t="s">
-        <v>82</v>
-      </c>
+      <c r="Z40" s="15"/>
       <c r="AA40" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB40" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC40" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="15"/>
+        <v>105</v>
+      </c>
+      <c r="AD40" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE40" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF40" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="AG40" s="18" t="b">
         <v>1</v>
       </c>
@@ -6156,10 +6209,10 @@
         <v>1</v>
       </c>
       <c r="AQ40" s="146"/>
-      <c r="AR40" s="76"/>
-      <c r="AS40" s="19"/>
-      <c r="AT40" s="15"/>
-      <c r="AU40" s="15"/>
+      <c r="AR40" s="74"/>
+      <c r="AS40" s="93"/>
+      <c r="AT40" s="18"/>
+      <c r="AU40" s="18"/>
       <c r="AV40" s="15"/>
     </row>
     <row r="41" spans="1:48">
@@ -6201,12 +6254,12 @@
       <c r="AJ41" s="70"/>
       <c r="AK41" s="109"/>
       <c r="AL41" s="83"/>
-      <c r="AM41" s="140"/>
-      <c r="AN41" s="141"/>
-      <c r="AO41" s="142"/>
-      <c r="AP41" s="142"/>
-      <c r="AQ41" s="143"/>
-      <c r="AR41" s="144"/>
+      <c r="AM41" s="68"/>
+      <c r="AN41" s="117"/>
+      <c r="AO41" s="70"/>
+      <c r="AP41" s="70"/>
+      <c r="AQ41" s="109"/>
+      <c r="AR41" s="75"/>
       <c r="AS41" s="71"/>
       <c r="AT41" s="69"/>
       <c r="AU41" s="69"/>
@@ -6215,80 +6268,67 @@
     <row r="42" spans="1:48">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="131"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="131"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="97"/>
       <c r="T42" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="U42" s="15">
         <v>1</v>
       </c>
       <c r="V42" s="15">
-        <v>50</v>
+        <v>7000</v>
       </c>
       <c r="W42" s="15" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="X42" s="15" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Y42" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15">
-        <v>20</v>
-      </c>
-      <c r="AB42" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC42" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD42" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE42" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF42" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG42" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH42" s="18"/>
-      <c r="AI42" s="18"/>
-      <c r="AJ42" s="18"/>
-      <c r="AK42" s="108"/>
+        <v>90</v>
+      </c>
+      <c r="Z42" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="97"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="16"/>
+      <c r="AI42" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ42" s="16"/>
+      <c r="AK42" s="110"/>
       <c r="AL42" s="84"/>
       <c r="AM42" s="19"/>
       <c r="AN42" s="120"/>
-      <c r="AO42" s="145"/>
-      <c r="AP42" s="145" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ42" s="146"/>
-      <c r="AR42" s="74"/>
-      <c r="AS42" s="93"/>
-      <c r="AT42" s="18"/>
-      <c r="AU42" s="18"/>
-      <c r="AV42" s="15"/>
+      <c r="AO42" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS42" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT42" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU42" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV42" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="1:48">
       <c r="A43" s="15"/>
@@ -6299,84 +6339,121 @@
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="131"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="97"/>
-      <c r="T43" s="69"/>
-      <c r="U43" s="69"/>
-      <c r="V43" s="69"/>
-      <c r="W43" s="69"/>
-      <c r="X43" s="69"/>
-      <c r="Y43" s="69"/>
-      <c r="Z43" s="69"/>
-      <c r="AA43" s="69"/>
-      <c r="AB43" s="69"/>
-      <c r="AC43" s="104"/>
-      <c r="AD43" s="69"/>
-      <c r="AE43" s="69"/>
-      <c r="AF43" s="69"/>
-      <c r="AG43" s="70"/>
-      <c r="AH43" s="70"/>
-      <c r="AI43" s="70"/>
-      <c r="AJ43" s="70"/>
-      <c r="AK43" s="109"/>
-      <c r="AL43" s="83"/>
-      <c r="AM43" s="68"/>
-      <c r="AN43" s="117"/>
-      <c r="AO43" s="70"/>
-      <c r="AP43" s="70"/>
-      <c r="AQ43" s="109"/>
-      <c r="AR43" s="75"/>
-      <c r="AS43" s="71"/>
-      <c r="AT43" s="69"/>
-      <c r="AU43" s="69"/>
-      <c r="AV43" s="69"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="133"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="133"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="102"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56"/>
+      <c r="Y43" s="56"/>
+      <c r="Z43" s="56"/>
+      <c r="AA43" s="56"/>
+      <c r="AB43" s="56"/>
+      <c r="AC43" s="102"/>
+      <c r="AD43" s="56"/>
+      <c r="AE43" s="56"/>
+      <c r="AF43" s="56"/>
+      <c r="AG43" s="57"/>
+      <c r="AH43" s="57"/>
+      <c r="AI43" s="57"/>
+      <c r="AJ43" s="57"/>
+      <c r="AK43" s="112"/>
+      <c r="AL43" s="85"/>
+      <c r="AM43" s="58"/>
+      <c r="AN43" s="121"/>
+      <c r="AO43" s="57"/>
+      <c r="AP43" s="57"/>
+      <c r="AQ43" s="112"/>
+      <c r="AR43" s="78"/>
+      <c r="AS43" s="58"/>
+      <c r="AT43" s="56"/>
+      <c r="AU43" s="56"/>
+      <c r="AV43" s="56"/>
     </row>
     <row r="44" spans="1:48">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J44" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="K44" s="41">
+        <v>0</v>
+      </c>
+      <c r="L44" s="134">
+        <v>0</v>
+      </c>
+      <c r="M44" s="41">
+        <v>515</v>
+      </c>
+      <c r="N44" s="41">
+        <v>1</v>
+      </c>
+      <c r="O44" s="134">
+        <v>0</v>
+      </c>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="97"/>
       <c r="T44" s="15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="U44" s="15">
         <v>1</v>
       </c>
       <c r="V44" s="15">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="W44" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="X44" s="15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="Y44" s="15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Z44" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="15"/>
-      <c r="AC44" s="97"/>
+        <v>82</v>
+      </c>
+      <c r="AA44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="97" t="s">
+        <v>105</v>
+      </c>
       <c r="AD44" s="15"/>
       <c r="AE44" s="15"/>
       <c r="AF44" s="15"/>
-      <c r="AG44" s="16"/>
-      <c r="AH44" s="16"/>
-      <c r="AI44" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ44" s="16"/>
-      <c r="AK44" s="110"/>
+      <c r="AG44" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="18"/>
+      <c r="AI44" s="18"/>
+      <c r="AJ44" s="18"/>
+      <c r="AK44" s="108"/>
       <c r="AL44" s="84"/>
       <c r="AM44" s="19"/>
       <c r="AN44" s="120"/>
@@ -6389,146 +6466,82 @@
       <c r="AQ44" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="AR44" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS44" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT44" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU44" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV44" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="AR44" s="76"/>
+      <c r="AS44" s="19"/>
+      <c r="AT44" s="15"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="15"/>
     </row>
     <row r="45" spans="1:48">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="133"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="133"/>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="56"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="102"/>
-      <c r="T45" s="56"/>
-      <c r="U45" s="56"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="56"/>
-      <c r="X45" s="56"/>
-      <c r="Y45" s="56"/>
-      <c r="Z45" s="56"/>
-      <c r="AA45" s="56"/>
-      <c r="AB45" s="56"/>
-      <c r="AC45" s="102"/>
-      <c r="AD45" s="56"/>
-      <c r="AE45" s="56"/>
-      <c r="AF45" s="56"/>
-      <c r="AG45" s="57"/>
-      <c r="AH45" s="57"/>
-      <c r="AI45" s="57"/>
-      <c r="AJ45" s="57"/>
-      <c r="AK45" s="112"/>
-      <c r="AL45" s="85"/>
-      <c r="AM45" s="58"/>
-      <c r="AN45" s="121"/>
-      <c r="AO45" s="57"/>
-      <c r="AP45" s="57"/>
-      <c r="AQ45" s="112"/>
-      <c r="AR45" s="78"/>
-      <c r="AS45" s="58"/>
-      <c r="AT45" s="56"/>
-      <c r="AU45" s="56"/>
-      <c r="AV45" s="56"/>
+      <c r="T45" s="69"/>
+      <c r="U45" s="69"/>
+      <c r="V45" s="69"/>
+      <c r="W45" s="69"/>
+      <c r="X45" s="69"/>
+      <c r="Y45" s="69"/>
+      <c r="Z45" s="69"/>
+      <c r="AA45" s="69"/>
+      <c r="AB45" s="69"/>
+      <c r="AC45" s="104"/>
+      <c r="AD45" s="69"/>
+      <c r="AE45" s="69"/>
+      <c r="AF45" s="69"/>
+      <c r="AG45" s="70"/>
+      <c r="AH45" s="70"/>
+      <c r="AI45" s="70"/>
+      <c r="AJ45" s="70"/>
+      <c r="AK45" s="109"/>
+      <c r="AL45" s="83"/>
+      <c r="AM45" s="68"/>
+      <c r="AN45" s="117"/>
+      <c r="AO45" s="70"/>
+      <c r="AP45" s="70"/>
+      <c r="AQ45" s="109"/>
+      <c r="AR45" s="75"/>
+      <c r="AS45" s="71"/>
+      <c r="AT45" s="69"/>
+      <c r="AU45" s="69"/>
+      <c r="AV45" s="69"/>
     </row>
     <row r="46" spans="1:48">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J46" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="K46" s="41">
-        <v>0</v>
-      </c>
-      <c r="L46" s="134">
-        <v>0</v>
-      </c>
-      <c r="M46" s="41">
-        <v>515</v>
-      </c>
-      <c r="N46" s="41">
-        <v>1</v>
-      </c>
-      <c r="O46" s="134">
-        <v>0</v>
-      </c>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="97"/>
       <c r="T46" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="U46" s="15">
         <v>1</v>
       </c>
       <c r="V46" s="15">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="W46" s="15" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="X46" s="15" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Y46" s="15" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="Z46" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA46" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="97" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="97"/>
       <c r="AD46" s="15"/>
       <c r="AE46" s="15"/>
       <c r="AF46" s="15"/>
-      <c r="AG46" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH46" s="18"/>
-      <c r="AI46" s="18"/>
-      <c r="AJ46" s="18"/>
-      <c r="AK46" s="108"/>
+      <c r="AG46" s="16"/>
+      <c r="AH46" s="16"/>
+      <c r="AI46" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="16"/>
+      <c r="AK46" s="110"/>
       <c r="AL46" s="84"/>
       <c r="AM46" s="19"/>
       <c r="AN46" s="120"/>
@@ -6541,82 +6554,146 @@
       <c r="AQ46" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="AR46" s="76"/>
-      <c r="AS46" s="19"/>
-      <c r="AT46" s="15"/>
-      <c r="AU46" s="15"/>
-      <c r="AV46" s="15"/>
+      <c r="AR46" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS46" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT46" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU46" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV46" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" spans="1:48">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
-      <c r="T47" s="69"/>
-      <c r="U47" s="69"/>
-      <c r="V47" s="69"/>
-      <c r="W47" s="69"/>
-      <c r="X47" s="69"/>
-      <c r="Y47" s="69"/>
-      <c r="Z47" s="69"/>
-      <c r="AA47" s="69"/>
-      <c r="AB47" s="69"/>
-      <c r="AC47" s="104"/>
-      <c r="AD47" s="69"/>
-      <c r="AE47" s="69"/>
-      <c r="AF47" s="69"/>
-      <c r="AG47" s="70"/>
-      <c r="AH47" s="70"/>
-      <c r="AI47" s="70"/>
-      <c r="AJ47" s="70"/>
-      <c r="AK47" s="109"/>
-      <c r="AL47" s="83"/>
-      <c r="AM47" s="68"/>
-      <c r="AN47" s="117"/>
-      <c r="AO47" s="70"/>
-      <c r="AP47" s="70"/>
-      <c r="AQ47" s="109"/>
-      <c r="AR47" s="75"/>
-      <c r="AS47" s="71"/>
-      <c r="AT47" s="69"/>
-      <c r="AU47" s="69"/>
-      <c r="AV47" s="69"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="133"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="133"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="102"/>
+      <c r="T47" s="56"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="56"/>
+      <c r="AA47" s="56"/>
+      <c r="AB47" s="56"/>
+      <c r="AC47" s="102"/>
+      <c r="AD47" s="56"/>
+      <c r="AE47" s="56"/>
+      <c r="AF47" s="56"/>
+      <c r="AG47" s="57"/>
+      <c r="AH47" s="57"/>
+      <c r="AI47" s="57"/>
+      <c r="AJ47" s="57"/>
+      <c r="AK47" s="112"/>
+      <c r="AL47" s="85"/>
+      <c r="AM47" s="58"/>
+      <c r="AN47" s="121"/>
+      <c r="AO47" s="57"/>
+      <c r="AP47" s="57"/>
+      <c r="AQ47" s="112"/>
+      <c r="AR47" s="78"/>
+      <c r="AS47" s="58"/>
+      <c r="AT47" s="56"/>
+      <c r="AU47" s="56"/>
+      <c r="AV47" s="56"/>
     </row>
     <row r="48" spans="1:48">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J48" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="K48" s="41">
+        <v>0</v>
+      </c>
+      <c r="L48" s="134">
+        <v>0</v>
+      </c>
+      <c r="M48" s="41">
+        <v>620</v>
+      </c>
+      <c r="N48" s="41">
+        <v>2.1</v>
+      </c>
+      <c r="O48" s="134">
+        <v>0</v>
+      </c>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="97"/>
       <c r="T48" s="15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="U48" s="15">
         <v>1</v>
       </c>
       <c r="V48" s="15">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="W48" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="X48" s="15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="Y48" s="15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Z48" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="15"/>
-      <c r="AC48" s="97"/>
+        <v>82</v>
+      </c>
+      <c r="AA48" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="97" t="s">
+        <v>105</v>
+      </c>
       <c r="AD48" s="15"/>
       <c r="AE48" s="15"/>
       <c r="AF48" s="15"/>
-      <c r="AG48" s="16"/>
-      <c r="AH48" s="16"/>
-      <c r="AI48" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ48" s="16"/>
-      <c r="AK48" s="110"/>
+      <c r="AG48" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="18"/>
+      <c r="AI48" s="18"/>
+      <c r="AJ48" s="18"/>
+      <c r="AK48" s="108"/>
       <c r="AL48" s="84"/>
       <c r="AM48" s="19"/>
       <c r="AN48" s="120"/>
@@ -6629,21 +6706,11 @@
       <c r="AQ48" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="AR48" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS48" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT48" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU48" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV48" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="AR48" s="76"/>
+      <c r="AS48" s="19"/>
+      <c r="AT48" s="15"/>
+      <c r="AU48" s="15"/>
+      <c r="AV48" s="15"/>
     </row>
     <row r="49" spans="1:48">
       <c r="A49" s="15"/>
@@ -6654,121 +6721,84 @@
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="133"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="133"/>
-      <c r="P49" s="56"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="102"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="56"/>
-      <c r="AB49" s="56"/>
-      <c r="AC49" s="102"/>
-      <c r="AD49" s="56"/>
-      <c r="AE49" s="56"/>
-      <c r="AF49" s="56"/>
-      <c r="AG49" s="57"/>
-      <c r="AH49" s="57"/>
-      <c r="AI49" s="57"/>
-      <c r="AJ49" s="57"/>
-      <c r="AK49" s="112"/>
-      <c r="AL49" s="85"/>
-      <c r="AM49" s="58"/>
-      <c r="AN49" s="121"/>
-      <c r="AO49" s="57"/>
-      <c r="AP49" s="57"/>
-      <c r="AQ49" s="112"/>
-      <c r="AR49" s="78"/>
-      <c r="AS49" s="58"/>
-      <c r="AT49" s="56"/>
-      <c r="AU49" s="56"/>
-      <c r="AV49" s="56"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="131"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="131"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="97"/>
+      <c r="T49" s="69"/>
+      <c r="U49" s="69"/>
+      <c r="V49" s="69"/>
+      <c r="W49" s="69"/>
+      <c r="X49" s="69"/>
+      <c r="Y49" s="69"/>
+      <c r="Z49" s="69"/>
+      <c r="AA49" s="69"/>
+      <c r="AB49" s="69"/>
+      <c r="AC49" s="104"/>
+      <c r="AD49" s="69"/>
+      <c r="AE49" s="69"/>
+      <c r="AF49" s="69"/>
+      <c r="AG49" s="70"/>
+      <c r="AH49" s="70"/>
+      <c r="AI49" s="70"/>
+      <c r="AJ49" s="70"/>
+      <c r="AK49" s="109"/>
+      <c r="AL49" s="83"/>
+      <c r="AM49" s="68"/>
+      <c r="AN49" s="117"/>
+      <c r="AO49" s="70"/>
+      <c r="AP49" s="70"/>
+      <c r="AQ49" s="109"/>
+      <c r="AR49" s="75"/>
+      <c r="AS49" s="71"/>
+      <c r="AT49" s="69"/>
+      <c r="AU49" s="69"/>
+      <c r="AV49" s="69"/>
     </row>
     <row r="50" spans="1:48">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="J50" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="K50" s="41">
-        <v>0</v>
-      </c>
-      <c r="L50" s="134">
-        <v>0</v>
-      </c>
-      <c r="M50" s="41">
-        <v>620</v>
-      </c>
-      <c r="N50" s="41">
-        <v>2.1</v>
-      </c>
-      <c r="O50" s="134">
-        <v>0</v>
-      </c>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="97"/>
       <c r="T50" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="U50" s="15">
         <v>1</v>
       </c>
       <c r="V50" s="15">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="W50" s="15" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="X50" s="15" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Y50" s="15" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="Z50" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC50" s="97" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="97"/>
       <c r="AD50" s="15"/>
       <c r="AE50" s="15"/>
       <c r="AF50" s="15"/>
-      <c r="AG50" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH50" s="18"/>
-      <c r="AI50" s="18"/>
-      <c r="AJ50" s="18"/>
-      <c r="AK50" s="108"/>
+      <c r="AG50" s="16"/>
+      <c r="AH50" s="16"/>
+      <c r="AI50" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ50" s="16"/>
+      <c r="AK50" s="110"/>
       <c r="AL50" s="84"/>
       <c r="AM50" s="19"/>
       <c r="AN50" s="120"/>
@@ -6781,11 +6811,21 @@
       <c r="AQ50" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="AR50" s="76"/>
-      <c r="AS50" s="19"/>
-      <c r="AT50" s="15"/>
-      <c r="AU50" s="15"/>
-      <c r="AV50" s="15"/>
+      <c r="AR50" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS50" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT50" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU50" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV50" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" spans="1:48">
       <c r="A51" s="15"/>
@@ -6796,87 +6836,132 @@
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="131"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="131"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="97"/>
-      <c r="T51" s="69"/>
-      <c r="U51" s="69"/>
-      <c r="V51" s="69"/>
-      <c r="W51" s="69"/>
-      <c r="X51" s="69"/>
-      <c r="Y51" s="69"/>
-      <c r="Z51" s="69"/>
-      <c r="AA51" s="69"/>
-      <c r="AB51" s="69"/>
-      <c r="AC51" s="104"/>
-      <c r="AD51" s="69"/>
-      <c r="AE51" s="69"/>
-      <c r="AF51" s="69"/>
-      <c r="AG51" s="70"/>
-      <c r="AH51" s="70"/>
-      <c r="AI51" s="70"/>
-      <c r="AJ51" s="70"/>
-      <c r="AK51" s="109"/>
-      <c r="AL51" s="83"/>
-      <c r="AM51" s="68"/>
-      <c r="AN51" s="117"/>
-      <c r="AO51" s="70"/>
-      <c r="AP51" s="70"/>
-      <c r="AQ51" s="109"/>
-      <c r="AR51" s="75"/>
-      <c r="AS51" s="71"/>
-      <c r="AT51" s="69"/>
-      <c r="AU51" s="69"/>
-      <c r="AV51" s="69"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="133"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="133"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="102"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="56"/>
+      <c r="X51" s="56"/>
+      <c r="Y51" s="56"/>
+      <c r="Z51" s="56"/>
+      <c r="AA51" s="56"/>
+      <c r="AB51" s="56"/>
+      <c r="AC51" s="102"/>
+      <c r="AD51" s="56"/>
+      <c r="AE51" s="56"/>
+      <c r="AF51" s="56"/>
+      <c r="AG51" s="57"/>
+      <c r="AH51" s="57"/>
+      <c r="AI51" s="57"/>
+      <c r="AJ51" s="57"/>
+      <c r="AK51" s="112"/>
+      <c r="AL51" s="85"/>
+      <c r="AM51" s="58"/>
+      <c r="AN51" s="121"/>
+      <c r="AO51" s="57"/>
+      <c r="AP51" s="57"/>
+      <c r="AQ51" s="112"/>
+      <c r="AR51" s="78"/>
+      <c r="AS51" s="58"/>
+      <c r="AT51" s="56"/>
+      <c r="AU51" s="56"/>
+      <c r="AV51" s="56"/>
     </row>
     <row r="52" spans="1:48">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J52" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K52" s="41">
+        <v>20</v>
+      </c>
+      <c r="L52" s="134">
+        <v>1</v>
+      </c>
+      <c r="M52" s="41">
+        <v>161</v>
+      </c>
+      <c r="N52" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="O52" s="134">
+        <v>30</v>
+      </c>
+      <c r="P52" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R52" s="15">
+        <v>25</v>
+      </c>
+      <c r="S52" s="97">
+        <v>2</v>
+      </c>
       <c r="T52" s="15" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="U52" s="15">
         <v>1</v>
       </c>
       <c r="V52" s="15">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="W52" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="X52" s="15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="Y52" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z52" s="15" t="s">
-        <v>96</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="Z52" s="15"/>
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
-      <c r="AC52" s="97"/>
+      <c r="AC52" s="97" t="s">
+        <v>83</v>
+      </c>
       <c r="AD52" s="15"/>
       <c r="AE52" s="15"/>
       <c r="AF52" s="15"/>
-      <c r="AG52" s="16"/>
-      <c r="AH52" s="16"/>
-      <c r="AI52" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ52" s="16"/>
-      <c r="AK52" s="110"/>
-      <c r="AL52" s="84"/>
-      <c r="AM52" s="19"/>
-      <c r="AN52" s="120"/>
+      <c r="AG52" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="18"/>
+      <c r="AI52" s="18"/>
+      <c r="AJ52" s="18"/>
+      <c r="AK52" s="108"/>
+      <c r="AL52" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM52" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="120">
+        <v>50</v>
+      </c>
       <c r="AO52" s="16" t="b">
         <v>0</v>
       </c>
@@ -6886,21 +6971,11 @@
       <c r="AQ52" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="AR52" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS52" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT52" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU52" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV52" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="AR52" s="76"/>
+      <c r="AS52" s="19"/>
+      <c r="AT52" s="15"/>
+      <c r="AU52" s="15"/>
+      <c r="AV52" s="15"/>
     </row>
     <row r="53" spans="1:48">
       <c r="A53" s="15"/>
@@ -6911,123 +6986,113 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="133"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="133"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="102"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="56"/>
-      <c r="Z53" s="56"/>
-      <c r="AA53" s="56"/>
-      <c r="AB53" s="56"/>
-      <c r="AC53" s="102"/>
-      <c r="AD53" s="56"/>
-      <c r="AE53" s="56"/>
-      <c r="AF53" s="56"/>
-      <c r="AG53" s="57"/>
-      <c r="AH53" s="57"/>
-      <c r="AI53" s="57"/>
-      <c r="AJ53" s="57"/>
-      <c r="AK53" s="112"/>
-      <c r="AL53" s="85"/>
-      <c r="AM53" s="58"/>
-      <c r="AN53" s="121"/>
-      <c r="AO53" s="57"/>
-      <c r="AP53" s="57"/>
-      <c r="AQ53" s="112"/>
-      <c r="AR53" s="78"/>
-      <c r="AS53" s="58"/>
-      <c r="AT53" s="56"/>
-      <c r="AU53" s="56"/>
-      <c r="AV53" s="56"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="131"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="131"/>
+      <c r="P53" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q53" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R53" s="15">
+        <v>50</v>
+      </c>
+      <c r="S53" s="97">
+        <v>2</v>
+      </c>
+      <c r="T53" s="69"/>
+      <c r="U53" s="69"/>
+      <c r="V53" s="69"/>
+      <c r="W53" s="69"/>
+      <c r="X53" s="69"/>
+      <c r="Y53" s="69"/>
+      <c r="Z53" s="69"/>
+      <c r="AA53" s="69"/>
+      <c r="AB53" s="69"/>
+      <c r="AC53" s="104"/>
+      <c r="AD53" s="69"/>
+      <c r="AE53" s="69"/>
+      <c r="AF53" s="69"/>
+      <c r="AG53" s="70"/>
+      <c r="AH53" s="70"/>
+      <c r="AI53" s="70"/>
+      <c r="AJ53" s="70"/>
+      <c r="AK53" s="109"/>
+      <c r="AL53" s="83"/>
+      <c r="AM53" s="68"/>
+      <c r="AN53" s="117"/>
+      <c r="AO53" s="70"/>
+      <c r="AP53" s="70"/>
+      <c r="AQ53" s="109"/>
+      <c r="AR53" s="75"/>
+      <c r="AS53" s="71"/>
+      <c r="AT53" s="69"/>
+      <c r="AU53" s="69"/>
+      <c r="AV53" s="69"/>
     </row>
     <row r="54" spans="1:48">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
-      <c r="D54" s="97"/>
+      <c r="D54" s="99"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
-      <c r="I54" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="J54" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="K54" s="41">
-        <v>20</v>
-      </c>
-      <c r="L54" s="134">
-        <v>1</v>
-      </c>
-      <c r="M54" s="41">
-        <v>161</v>
-      </c>
-      <c r="N54" s="41">
-        <v>3.5</v>
-      </c>
-      <c r="O54" s="134">
-        <v>30</v>
-      </c>
-      <c r="P54" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q54" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R54" s="15">
-        <v>25</v>
-      </c>
-      <c r="S54" s="97">
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="131"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="131"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="97"/>
+      <c r="T54" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="U54" s="15">
+        <v>1</v>
+      </c>
+      <c r="V54" s="15">
+        <v>3500</v>
+      </c>
+      <c r="W54" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T54" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="U54" s="15">
-        <v>1</v>
-      </c>
-      <c r="V54" s="15">
-        <v>0</v>
-      </c>
-      <c r="W54" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="X54" s="15" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Y54" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z54" s="15"/>
+        <v>90</v>
+      </c>
+      <c r="Z54" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="AA54" s="15"/>
       <c r="AB54" s="15"/>
-      <c r="AC54" s="97" t="s">
-        <v>83</v>
-      </c>
+      <c r="AC54" s="97"/>
       <c r="AD54" s="15"/>
       <c r="AE54" s="15"/>
       <c r="AF54" s="15"/>
-      <c r="AG54" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH54" s="18"/>
-      <c r="AI54" s="18"/>
-      <c r="AJ54" s="18"/>
-      <c r="AK54" s="108"/>
+      <c r="AG54" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH54" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI54" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="16"/>
+      <c r="AK54" s="110"/>
       <c r="AL54" s="84" t="s">
         <v>32</v>
       </c>
@@ -7046,11 +7111,21 @@
       <c r="AQ54" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="AR54" s="76"/>
-      <c r="AS54" s="19"/>
-      <c r="AT54" s="15"/>
-      <c r="AU54" s="15"/>
-      <c r="AV54" s="15"/>
+      <c r="AR54" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS54" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT54" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU54" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV54" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="55" spans="1:48">
       <c r="A55" s="15"/>
@@ -7068,466 +7143,458 @@
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
       <c r="O55" s="131"/>
-      <c r="P55" s="15" t="s">
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="97"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="97"/>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="15"/>
+      <c r="AF55" s="15"/>
+      <c r="AG55" s="15"/>
+      <c r="AH55" s="15"/>
+      <c r="AI55" s="15"/>
+      <c r="AJ55" s="15"/>
+      <c r="AK55" s="97"/>
+      <c r="AL55" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="Q55" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R55" s="15">
+      <c r="AM55" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="120">
         <v>50</v>
       </c>
-      <c r="S55" s="97">
-        <v>2</v>
-      </c>
-      <c r="T55" s="69"/>
-      <c r="U55" s="69"/>
-      <c r="V55" s="69"/>
-      <c r="W55" s="69"/>
-      <c r="X55" s="69"/>
-      <c r="Y55" s="69"/>
-      <c r="Z55" s="69"/>
-      <c r="AA55" s="69"/>
-      <c r="AB55" s="69"/>
-      <c r="AC55" s="104"/>
-      <c r="AD55" s="69"/>
-      <c r="AE55" s="69"/>
-      <c r="AF55" s="69"/>
-      <c r="AG55" s="70"/>
-      <c r="AH55" s="70"/>
-      <c r="AI55" s="70"/>
-      <c r="AJ55" s="70"/>
-      <c r="AK55" s="109"/>
-      <c r="AL55" s="83"/>
-      <c r="AM55" s="68"/>
-      <c r="AN55" s="117"/>
-      <c r="AO55" s="70"/>
-      <c r="AP55" s="70"/>
-      <c r="AQ55" s="109"/>
-      <c r="AR55" s="75"/>
-      <c r="AS55" s="71"/>
-      <c r="AT55" s="69"/>
-      <c r="AU55" s="69"/>
-      <c r="AV55" s="69"/>
+      <c r="AO55" s="16"/>
+      <c r="AP55" s="16"/>
+      <c r="AQ55" s="110"/>
+      <c r="AR55" s="76"/>
+      <c r="AS55" s="19"/>
+      <c r="AT55" s="15"/>
+      <c r="AU55" s="15"/>
+      <c r="AV55" s="15"/>
     </row>
     <row r="56" spans="1:48">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="131"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="131"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="97"/>
-      <c r="T56" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="U56" s="15">
-        <v>1</v>
-      </c>
-      <c r="V56" s="15">
-        <v>3500</v>
-      </c>
-      <c r="W56" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X56" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y56" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z56" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA56" s="15"/>
-      <c r="AB56" s="15"/>
-      <c r="AC56" s="97"/>
-      <c r="AD56" s="15"/>
-      <c r="AE56" s="15"/>
-      <c r="AF56" s="15"/>
-      <c r="AG56" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH56" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ56" s="16"/>
-      <c r="AK56" s="110"/>
       <c r="AL56" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM56" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN56" s="120">
-        <v>50</v>
-      </c>
-      <c r="AO56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ56" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR56" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS56" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT56" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU56" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV56" s="15" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="AM56" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="122">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:48">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="131"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="131"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="97"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
-      <c r="W57" s="15"/>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="15"/>
-      <c r="Z57" s="15"/>
-      <c r="AA57" s="15"/>
-      <c r="AB57" s="15"/>
-      <c r="AC57" s="97"/>
-      <c r="AD57" s="15"/>
-      <c r="AE57" s="15"/>
-      <c r="AF57" s="15"/>
-      <c r="AG57" s="15"/>
-      <c r="AH57" s="15"/>
-      <c r="AI57" s="15"/>
-      <c r="AJ57" s="15"/>
-      <c r="AK57" s="97"/>
-      <c r="AL57" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM57" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN57" s="120">
-        <v>50</v>
-      </c>
-      <c r="AO57" s="16"/>
-      <c r="AP57" s="16"/>
-      <c r="AQ57" s="110"/>
-      <c r="AR57" s="76"/>
-      <c r="AS57" s="19"/>
-      <c r="AT57" s="15"/>
-      <c r="AU57" s="15"/>
-      <c r="AV57" s="15"/>
+      <c r="T57" s="69"/>
+      <c r="U57" s="69"/>
+      <c r="V57" s="69"/>
+      <c r="W57" s="69"/>
+      <c r="X57" s="69"/>
+      <c r="Y57" s="69"/>
+      <c r="Z57" s="69"/>
+      <c r="AA57" s="69"/>
+      <c r="AB57" s="69"/>
+      <c r="AC57" s="104"/>
+      <c r="AD57" s="69"/>
+      <c r="AE57" s="69"/>
+      <c r="AF57" s="69"/>
+      <c r="AG57" s="70"/>
+      <c r="AH57" s="70"/>
+      <c r="AI57" s="70"/>
+      <c r="AJ57" s="70"/>
+      <c r="AK57" s="109"/>
+      <c r="AL57" s="83"/>
+      <c r="AM57" s="68"/>
+      <c r="AN57" s="117"/>
+      <c r="AO57" s="70"/>
+      <c r="AP57" s="70"/>
+      <c r="AQ57" s="109"/>
+      <c r="AR57" s="75"/>
+      <c r="AS57" s="71"/>
+      <c r="AT57" s="69"/>
+      <c r="AU57" s="69"/>
+      <c r="AV57" s="69"/>
     </row>
     <row r="58" spans="1:48">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
-      <c r="AL58" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM58" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN58" s="122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:48">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="T59" s="69"/>
-      <c r="U59" s="69"/>
-      <c r="V59" s="69"/>
-      <c r="W59" s="69"/>
-      <c r="X59" s="69"/>
-      <c r="Y59" s="69"/>
-      <c r="Z59" s="69"/>
-      <c r="AA59" s="69"/>
-      <c r="AB59" s="69"/>
-      <c r="AC59" s="104"/>
-      <c r="AD59" s="69"/>
-      <c r="AE59" s="69"/>
-      <c r="AF59" s="69"/>
-      <c r="AG59" s="70"/>
-      <c r="AH59" s="70"/>
-      <c r="AI59" s="70"/>
-      <c r="AJ59" s="70"/>
-      <c r="AK59" s="109"/>
-      <c r="AL59" s="83"/>
-      <c r="AM59" s="68"/>
-      <c r="AN59" s="117"/>
-      <c r="AO59" s="70"/>
-      <c r="AP59" s="70"/>
-      <c r="AQ59" s="109"/>
-      <c r="AR59" s="75"/>
-      <c r="AS59" s="71"/>
-      <c r="AT59" s="69"/>
-      <c r="AU59" s="69"/>
-      <c r="AV59" s="69"/>
+      <c r="T58" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="U58" s="15">
+        <v>1</v>
+      </c>
+      <c r="V58" s="15">
+        <v>7000</v>
+      </c>
+      <c r="W58" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X58" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y58" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z58" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="15"/>
+      <c r="AC58" s="97"/>
+      <c r="AD58" s="15"/>
+      <c r="AE58" s="15"/>
+      <c r="AF58" s="15"/>
+      <c r="AG58" s="16"/>
+      <c r="AH58" s="16"/>
+      <c r="AI58" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ58" s="16"/>
+      <c r="AK58" s="110"/>
+      <c r="AL58" s="84"/>
+      <c r="AM58" s="19"/>
+      <c r="AN58" s="120"/>
+      <c r="AO58" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP58" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR58" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS58" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT58" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU58" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV58" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" ht="12" customHeight="1">
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="129"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="129"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="59"/>
+      <c r="S59" s="96"/>
+      <c r="T59" s="59"/>
+      <c r="U59" s="59"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
+      <c r="X59" s="59"/>
+      <c r="Y59" s="59"/>
+      <c r="Z59" s="59"/>
+      <c r="AA59" s="59"/>
+      <c r="AB59" s="59"/>
+      <c r="AC59" s="96"/>
+      <c r="AD59" s="59"/>
+      <c r="AE59" s="59"/>
+      <c r="AF59" s="59"/>
+      <c r="AG59" s="61"/>
+      <c r="AH59" s="61"/>
+      <c r="AI59" s="61"/>
+      <c r="AJ59" s="60"/>
+      <c r="AK59" s="107"/>
+      <c r="AL59" s="81"/>
+      <c r="AM59" s="62"/>
+      <c r="AN59" s="115"/>
+      <c r="AO59" s="61"/>
+      <c r="AP59" s="61"/>
+      <c r="AQ59" s="126"/>
+      <c r="AR59" s="73"/>
+      <c r="AS59" s="62"/>
+      <c r="AT59" s="59"/>
+      <c r="AU59" s="59"/>
+      <c r="AV59" s="59"/>
     </row>
     <row r="60" spans="1:48">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" t="s">
+        <v>103</v>
+      </c>
+      <c r="G60" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="J60" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K60" s="41">
+        <v>20</v>
+      </c>
+      <c r="L60" s="134">
+        <v>1</v>
+      </c>
+      <c r="M60" s="41">
+        <v>50</v>
+      </c>
+      <c r="N60" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="O60" s="134">
+        <v>10</v>
+      </c>
+      <c r="P60" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="97"/>
       <c r="T60" s="15" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="U60" s="15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V60" s="15">
-        <v>7000</v>
+        <v>50</v>
       </c>
       <c r="W60" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="X60" s="15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="Y60" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z60" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA60" s="15"/>
-      <c r="AB60" s="15"/>
-      <c r="AC60" s="97"/>
-      <c r="AD60" s="15"/>
-      <c r="AE60" s="15"/>
-      <c r="AF60" s="15"/>
-      <c r="AG60" s="16"/>
-      <c r="AH60" s="16"/>
-      <c r="AI60" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ60" s="16"/>
-      <c r="AK60" s="110"/>
-      <c r="AL60" s="84"/>
-      <c r="AM60" s="19"/>
-      <c r="AN60" s="120"/>
-      <c r="AO60" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP60" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ60" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR60" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS60" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT60" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU60" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV60" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:48" ht="12" customHeight="1">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="129"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="129"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="59"/>
-      <c r="S61" s="96"/>
-      <c r="T61" s="59"/>
-      <c r="U61" s="59"/>
-      <c r="V61" s="59"/>
-      <c r="W61" s="59"/>
-      <c r="X61" s="59"/>
-      <c r="Y61" s="59"/>
-      <c r="Z61" s="59"/>
-      <c r="AA61" s="59"/>
-      <c r="AB61" s="59"/>
-      <c r="AC61" s="96"/>
-      <c r="AD61" s="59"/>
-      <c r="AE61" s="59"/>
-      <c r="AF61" s="59"/>
-      <c r="AG61" s="61"/>
-      <c r="AH61" s="61"/>
-      <c r="AI61" s="61"/>
-      <c r="AJ61" s="60"/>
-      <c r="AK61" s="107"/>
-      <c r="AL61" s="81"/>
-      <c r="AM61" s="62"/>
-      <c r="AN61" s="115"/>
-      <c r="AO61" s="61"/>
-      <c r="AP61" s="61"/>
-      <c r="AQ61" s="126"/>
-      <c r="AR61" s="73"/>
-      <c r="AS61" s="62"/>
-      <c r="AT61" s="59"/>
-      <c r="AU61" s="59"/>
-      <c r="AV61" s="59"/>
+        <v>81</v>
+      </c>
+      <c r="Z60" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA60" s="15">
+        <v>20</v>
+      </c>
+      <c r="AB60" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC60" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD60" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE60" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF60" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG60" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH60" s="18"/>
+      <c r="AI60" s="18"/>
+      <c r="AJ60" s="18"/>
+      <c r="AK60" s="108"/>
+      <c r="AL60" s="86"/>
+      <c r="AM60" s="18"/>
+      <c r="AN60" s="108"/>
+      <c r="AO60" s="18"/>
+      <c r="AP60" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ60" s="108"/>
+      <c r="AR60" s="74"/>
+      <c r="AS60" s="93"/>
+      <c r="AT60" s="18"/>
+      <c r="AU60" s="18"/>
+      <c r="AV60" s="15"/>
+    </row>
+    <row r="61" spans="1:48">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="131"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="131"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="97"/>
+      <c r="T61" s="69"/>
+      <c r="U61" s="69"/>
+      <c r="V61" s="69"/>
+      <c r="W61" s="69"/>
+      <c r="X61" s="69"/>
+      <c r="Y61" s="69"/>
+      <c r="Z61" s="69"/>
+      <c r="AA61" s="69"/>
+      <c r="AB61" s="69"/>
+      <c r="AC61" s="104"/>
+      <c r="AD61" s="69"/>
+      <c r="AE61" s="69"/>
+      <c r="AF61" s="69"/>
+      <c r="AG61" s="70"/>
+      <c r="AH61" s="70"/>
+      <c r="AI61" s="70"/>
+      <c r="AJ61" s="70"/>
+      <c r="AK61" s="109"/>
+      <c r="AL61" s="83"/>
+      <c r="AM61" s="68"/>
+      <c r="AN61" s="117"/>
+      <c r="AO61" s="70"/>
+      <c r="AP61" s="70"/>
+      <c r="AQ61" s="109"/>
+      <c r="AR61" s="75"/>
+      <c r="AS61" s="71"/>
+      <c r="AT61" s="69"/>
+      <c r="AU61" s="69"/>
+      <c r="AV61" s="69"/>
     </row>
     <row r="62" spans="1:48">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="99" t="s">
-        <v>109</v>
-      </c>
-      <c r="E62" t="s">
-        <v>110</v>
-      </c>
-      <c r="F62" t="s">
-        <v>103</v>
-      </c>
-      <c r="G62" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
       <c r="H62" s="15"/>
-      <c r="I62" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="J62" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="K62" s="41">
-        <v>20</v>
-      </c>
-      <c r="L62" s="134">
-        <v>1</v>
-      </c>
-      <c r="M62" s="41">
-        <v>50</v>
-      </c>
-      <c r="N62" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="O62" s="134">
-        <v>10</v>
-      </c>
-      <c r="P62" s="15" t="s">
-        <v>112</v>
-      </c>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="131"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="131"/>
+      <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
       <c r="R62" s="15"/>
       <c r="S62" s="97"/>
-      <c r="T62" s="15" t="s">
-        <v>79</v>
+      <c r="T62" s="45" t="s">
+        <v>94</v>
       </c>
       <c r="U62" s="15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="V62" s="15">
+        <v>100</v>
+      </c>
+      <c r="W62" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X62" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y62" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z62" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA62" s="15"/>
+      <c r="AB62" s="15"/>
+      <c r="AC62" s="97"/>
+      <c r="AD62" s="15"/>
+      <c r="AE62" s="15"/>
+      <c r="AF62" s="15"/>
+      <c r="AG62" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH62" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI62" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="16"/>
+      <c r="AK62" s="110"/>
+      <c r="AL62" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM62" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="120">
         <v>50</v>
       </c>
-      <c r="W62" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="X62" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y62" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z62" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA62" s="15">
-        <v>20</v>
-      </c>
-      <c r="AB62" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC62" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD62" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE62" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF62" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG62" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH62" s="18"/>
-      <c r="AI62" s="18"/>
-      <c r="AJ62" s="18"/>
-      <c r="AK62" s="108"/>
-      <c r="AL62" s="86"/>
-      <c r="AM62" s="18"/>
-      <c r="AN62" s="108"/>
-      <c r="AO62" s="18"/>
-      <c r="AP62" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ62" s="108"/>
-      <c r="AR62" s="74"/>
-      <c r="AS62" s="93"/>
-      <c r="AT62" s="18"/>
-      <c r="AU62" s="18"/>
-      <c r="AV62" s="15"/>
+      <c r="AO62" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP62" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ62" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR62" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS62" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT62" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU62" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV62" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="63" spans="1:48">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="99"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="97"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -7543,126 +7610,54 @@
       <c r="Q63" s="15"/>
       <c r="R63" s="15"/>
       <c r="S63" s="97"/>
-      <c r="T63" s="69"/>
-      <c r="U63" s="69"/>
-      <c r="V63" s="69"/>
-      <c r="W63" s="69"/>
-      <c r="X63" s="69"/>
-      <c r="Y63" s="69"/>
-      <c r="Z63" s="69"/>
-      <c r="AA63" s="69"/>
-      <c r="AB63" s="69"/>
-      <c r="AC63" s="104"/>
-      <c r="AD63" s="69"/>
-      <c r="AE63" s="69"/>
-      <c r="AF63" s="69"/>
-      <c r="AG63" s="70"/>
-      <c r="AH63" s="70"/>
-      <c r="AI63" s="70"/>
-      <c r="AJ63" s="70"/>
-      <c r="AK63" s="109"/>
-      <c r="AL63" s="83"/>
-      <c r="AM63" s="68"/>
-      <c r="AN63" s="117"/>
-      <c r="AO63" s="70"/>
-      <c r="AP63" s="70"/>
-      <c r="AQ63" s="109"/>
-      <c r="AR63" s="75"/>
-      <c r="AS63" s="71"/>
-      <c r="AT63" s="69"/>
-      <c r="AU63" s="69"/>
-      <c r="AV63" s="69"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="15"/>
+      <c r="Z63" s="15"/>
+      <c r="AA63" s="15"/>
+      <c r="AB63" s="15"/>
+      <c r="AC63" s="97"/>
+      <c r="AD63" s="15"/>
+      <c r="AE63" s="15"/>
+      <c r="AF63" s="15"/>
+      <c r="AG63" s="15"/>
+      <c r="AH63" s="15"/>
+      <c r="AI63" s="15"/>
+      <c r="AJ63" s="15"/>
+      <c r="AK63" s="97"/>
+      <c r="AL63" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM63" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="120">
+        <v>50</v>
+      </c>
+      <c r="AO63" s="16"/>
+      <c r="AP63" s="16"/>
+      <c r="AQ63" s="110"/>
+      <c r="AR63" s="76"/>
+      <c r="AS63" s="19"/>
+      <c r="AT63" s="15"/>
+      <c r="AU63" s="15"/>
+      <c r="AV63" s="15"/>
     </row>
     <row r="64" spans="1:48">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="97"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="131"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="131"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="97"/>
-      <c r="T64" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="U64" s="15">
-        <v>1</v>
-      </c>
-      <c r="V64" s="15">
-        <v>100</v>
-      </c>
-      <c r="W64" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X64" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y64" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z64" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA64" s="15"/>
-      <c r="AB64" s="15"/>
-      <c r="AC64" s="97"/>
-      <c r="AD64" s="15"/>
-      <c r="AE64" s="15"/>
-      <c r="AF64" s="15"/>
-      <c r="AG64" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH64" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="16"/>
-      <c r="AK64" s="110"/>
+      <c r="T64" s="45"/>
       <c r="AL64" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM64" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN64" s="120">
-        <v>50</v>
-      </c>
-      <c r="AO64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ64" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR64" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS64" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT64" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU64" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV64" s="15" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="AM64" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="122">
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:48">
@@ -7685,347 +7680,421 @@
       <c r="Q65" s="15"/>
       <c r="R65" s="15"/>
       <c r="S65" s="97"/>
-      <c r="T65" s="45"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="15"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="15"/>
-      <c r="Z65" s="15"/>
-      <c r="AA65" s="15"/>
-      <c r="AB65" s="15"/>
-      <c r="AC65" s="97"/>
-      <c r="AD65" s="15"/>
-      <c r="AE65" s="15"/>
-      <c r="AF65" s="15"/>
-      <c r="AG65" s="15"/>
-      <c r="AH65" s="15"/>
-      <c r="AI65" s="15"/>
-      <c r="AJ65" s="15"/>
-      <c r="AK65" s="97"/>
-      <c r="AL65" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM65" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN65" s="120">
-        <v>50</v>
-      </c>
-      <c r="AO65" s="16"/>
-      <c r="AP65" s="16"/>
-      <c r="AQ65" s="110"/>
-      <c r="AR65" s="76"/>
-      <c r="AS65" s="19"/>
-      <c r="AT65" s="15"/>
-      <c r="AU65" s="15"/>
-      <c r="AV65" s="15"/>
+      <c r="T65" s="69"/>
+      <c r="U65" s="69"/>
+      <c r="V65" s="69"/>
+      <c r="W65" s="69"/>
+      <c r="X65" s="69"/>
+      <c r="Y65" s="69"/>
+      <c r="Z65" s="69"/>
+      <c r="AA65" s="69"/>
+      <c r="AB65" s="69"/>
+      <c r="AC65" s="104"/>
+      <c r="AD65" s="69"/>
+      <c r="AE65" s="69"/>
+      <c r="AF65" s="69"/>
+      <c r="AG65" s="70"/>
+      <c r="AH65" s="70"/>
+      <c r="AI65" s="70"/>
+      <c r="AJ65" s="70"/>
+      <c r="AK65" s="109"/>
+      <c r="AL65" s="83"/>
+      <c r="AM65" s="68"/>
+      <c r="AN65" s="117"/>
+      <c r="AO65" s="70"/>
+      <c r="AP65" s="70"/>
+      <c r="AQ65" s="109"/>
+      <c r="AR65" s="75"/>
+      <c r="AS65" s="71"/>
+      <c r="AT65" s="69"/>
+      <c r="AU65" s="69"/>
+      <c r="AV65" s="69"/>
     </row>
     <row r="66" spans="1:48">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
-      <c r="T66" s="45"/>
-      <c r="AL66" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM66" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN66" s="122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:48">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="131"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="131"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="97"/>
-      <c r="T67" s="69"/>
-      <c r="U67" s="69"/>
-      <c r="V67" s="69"/>
-      <c r="W67" s="69"/>
-      <c r="X67" s="69"/>
-      <c r="Y67" s="69"/>
-      <c r="Z67" s="69"/>
-      <c r="AA67" s="69"/>
-      <c r="AB67" s="69"/>
-      <c r="AC67" s="104"/>
-      <c r="AD67" s="69"/>
-      <c r="AE67" s="69"/>
-      <c r="AF67" s="69"/>
-      <c r="AG67" s="70"/>
-      <c r="AH67" s="70"/>
-      <c r="AI67" s="70"/>
-      <c r="AJ67" s="70"/>
-      <c r="AK67" s="109"/>
-      <c r="AL67" s="83"/>
-      <c r="AM67" s="68"/>
-      <c r="AN67" s="117"/>
-      <c r="AO67" s="70"/>
-      <c r="AP67" s="70"/>
-      <c r="AQ67" s="109"/>
-      <c r="AR67" s="75"/>
-      <c r="AS67" s="71"/>
-      <c r="AT67" s="69"/>
-      <c r="AU67" s="69"/>
-      <c r="AV67" s="69"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="131"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="131"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="97"/>
+      <c r="T66" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="U66" s="15">
+        <v>1</v>
+      </c>
+      <c r="V66" s="15">
+        <v>200</v>
+      </c>
+      <c r="W66" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="X66" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y66" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z66" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA66" s="15"/>
+      <c r="AB66" s="15"/>
+      <c r="AC66" s="97"/>
+      <c r="AD66" s="15"/>
+      <c r="AE66" s="15"/>
+      <c r="AF66" s="15"/>
+      <c r="AG66" s="16"/>
+      <c r="AH66" s="16"/>
+      <c r="AI66" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ66" s="16"/>
+      <c r="AK66" s="110"/>
+      <c r="AL66" s="84"/>
+      <c r="AM66" s="19"/>
+      <c r="AN66" s="120"/>
+      <c r="AO66" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP66" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS66" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT66" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU66" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV66" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:48" ht="12" customHeight="1">
+      <c r="A67" s="59"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="129"/>
+      <c r="M67" s="59"/>
+      <c r="N67" s="59"/>
+      <c r="O67" s="129"/>
+      <c r="P67" s="59"/>
+      <c r="Q67" s="59"/>
+      <c r="R67" s="59"/>
+      <c r="S67" s="96"/>
+      <c r="T67" s="59"/>
+      <c r="U67" s="59"/>
+      <c r="V67" s="59"/>
+      <c r="W67" s="59"/>
+      <c r="X67" s="59"/>
+      <c r="Y67" s="59"/>
+      <c r="Z67" s="59"/>
+      <c r="AA67" s="59"/>
+      <c r="AB67" s="59"/>
+      <c r="AC67" s="96"/>
+      <c r="AD67" s="59"/>
+      <c r="AE67" s="59"/>
+      <c r="AF67" s="59"/>
+      <c r="AG67" s="61"/>
+      <c r="AH67" s="61"/>
+      <c r="AI67" s="61"/>
+      <c r="AJ67" s="60"/>
+      <c r="AK67" s="107"/>
+      <c r="AL67" s="81"/>
+      <c r="AM67" s="62"/>
+      <c r="AN67" s="115"/>
+      <c r="AO67" s="61"/>
+      <c r="AP67" s="61"/>
+      <c r="AQ67" s="126"/>
+      <c r="AR67" s="73"/>
+      <c r="AS67" s="62"/>
+      <c r="AT67" s="59"/>
+      <c r="AU67" s="59"/>
+      <c r="AV67" s="59"/>
     </row>
     <row r="68" spans="1:48">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G68" s="15" t="b">
+        <v>0</v>
+      </c>
       <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="131"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="131"/>
-      <c r="P68" s="15"/>
+      <c r="I68" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J68" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K68" s="41">
+        <v>20</v>
+      </c>
+      <c r="L68" s="134">
+        <v>1</v>
+      </c>
+      <c r="M68" s="41">
+        <v>50</v>
+      </c>
+      <c r="N68" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="O68" s="134">
+        <v>10</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="Q68" s="15"/>
       <c r="R68" s="15"/>
       <c r="S68" s="97"/>
       <c r="T68" s="15" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="U68" s="15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V68" s="15">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="W68" s="15" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="X68" s="15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="Y68" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z68" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA68" s="15"/>
-      <c r="AB68" s="15"/>
-      <c r="AC68" s="97"/>
-      <c r="AD68" s="15"/>
-      <c r="AE68" s="15"/>
-      <c r="AF68" s="15"/>
-      <c r="AG68" s="16"/>
-      <c r="AH68" s="16"/>
-      <c r="AI68" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ68" s="16"/>
-      <c r="AK68" s="110"/>
-      <c r="AL68" s="84"/>
-      <c r="AM68" s="19"/>
-      <c r="AN68" s="120"/>
-      <c r="AO68" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP68" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ68" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR68" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS68" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT68" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU68" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV68" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:48" ht="12" customHeight="1">
-      <c r="A69" s="59"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="96"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="129"/>
-      <c r="M69" s="59"/>
-      <c r="N69" s="59"/>
-      <c r="O69" s="129"/>
-      <c r="P69" s="59"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="59"/>
-      <c r="S69" s="96"/>
-      <c r="T69" s="59"/>
-      <c r="U69" s="59"/>
-      <c r="V69" s="59"/>
-      <c r="W69" s="59"/>
-      <c r="X69" s="59"/>
-      <c r="Y69" s="59"/>
-      <c r="Z69" s="59"/>
-      <c r="AA69" s="59"/>
-      <c r="AB69" s="59"/>
-      <c r="AC69" s="96"/>
-      <c r="AD69" s="59"/>
-      <c r="AE69" s="59"/>
-      <c r="AF69" s="59"/>
-      <c r="AG69" s="61"/>
-      <c r="AH69" s="61"/>
-      <c r="AI69" s="61"/>
-      <c r="AJ69" s="60"/>
-      <c r="AK69" s="107"/>
-      <c r="AL69" s="81"/>
-      <c r="AM69" s="62"/>
-      <c r="AN69" s="115"/>
-      <c r="AO69" s="61"/>
-      <c r="AP69" s="61"/>
-      <c r="AQ69" s="126"/>
-      <c r="AR69" s="73"/>
-      <c r="AS69" s="62"/>
-      <c r="AT69" s="59"/>
-      <c r="AU69" s="59"/>
-      <c r="AV69" s="59"/>
+        <v>81</v>
+      </c>
+      <c r="Z68" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA68" s="15">
+        <v>20</v>
+      </c>
+      <c r="AB68" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC68" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD68" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE68" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF68" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG68" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="18"/>
+      <c r="AI68" s="18"/>
+      <c r="AJ68" s="18"/>
+      <c r="AK68" s="108"/>
+      <c r="AL68" s="86"/>
+      <c r="AM68" s="18"/>
+      <c r="AN68" s="108"/>
+      <c r="AO68" s="18"/>
+      <c r="AP68" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ68" s="108"/>
+      <c r="AR68" s="74"/>
+      <c r="AS68" s="93"/>
+      <c r="AT68" s="18"/>
+      <c r="AU68" s="18"/>
+      <c r="AV68" s="15"/>
+    </row>
+    <row r="69" spans="1:48">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="131"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="131"/>
+      <c r="P69" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="97"/>
+      <c r="T69" s="69"/>
+      <c r="U69" s="69"/>
+      <c r="V69" s="69"/>
+      <c r="W69" s="69"/>
+      <c r="X69" s="69"/>
+      <c r="Y69" s="69"/>
+      <c r="Z69" s="69"/>
+      <c r="AA69" s="69"/>
+      <c r="AB69" s="69"/>
+      <c r="AC69" s="104"/>
+      <c r="AD69" s="69"/>
+      <c r="AE69" s="69"/>
+      <c r="AF69" s="69"/>
+      <c r="AG69" s="70"/>
+      <c r="AH69" s="70"/>
+      <c r="AI69" s="70"/>
+      <c r="AJ69" s="70"/>
+      <c r="AK69" s="109"/>
+      <c r="AL69" s="83"/>
+      <c r="AM69" s="68"/>
+      <c r="AN69" s="117"/>
+      <c r="AO69" s="70"/>
+      <c r="AP69" s="70"/>
+      <c r="AQ69" s="109"/>
+      <c r="AR69" s="75"/>
+      <c r="AS69" s="71"/>
+      <c r="AT69" s="69"/>
+      <c r="AU69" s="69"/>
+      <c r="AV69" s="69"/>
     </row>
     <row r="70" spans="1:48">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="E70" t="s">
-        <v>114</v>
-      </c>
-      <c r="F70" t="s">
-        <v>103</v>
-      </c>
-      <c r="G70" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
       <c r="H70" s="15"/>
-      <c r="I70" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J70" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="K70" s="41">
-        <v>20</v>
-      </c>
-      <c r="L70" s="134">
-        <v>1</v>
-      </c>
-      <c r="M70" s="41">
-        <v>50</v>
-      </c>
-      <c r="N70" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="O70" s="134">
-        <v>10</v>
-      </c>
-      <c r="P70" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="131"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="131"/>
+      <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
       <c r="R70" s="15"/>
       <c r="S70" s="97"/>
-      <c r="T70" s="15" t="s">
-        <v>79</v>
+      <c r="T70" s="45" t="s">
+        <v>115</v>
       </c>
       <c r="U70" s="15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="V70" s="15">
+        <v>100</v>
+      </c>
+      <c r="W70" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X70" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y70" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z70" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA70" s="15"/>
+      <c r="AB70" s="15"/>
+      <c r="AC70" s="97"/>
+      <c r="AD70" s="15"/>
+      <c r="AE70" s="15"/>
+      <c r="AF70" s="15"/>
+      <c r="AG70" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="16"/>
+      <c r="AK70" s="110"/>
+      <c r="AL70" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM70" s="80">
+        <v>0</v>
+      </c>
+      <c r="AN70" s="119">
         <v>50</v>
       </c>
-      <c r="W70" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="X70" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y70" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z70" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA70" s="15">
-        <v>20</v>
-      </c>
-      <c r="AB70" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC70" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD70" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE70" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF70" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG70" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH70" s="18"/>
-      <c r="AI70" s="18"/>
-      <c r="AJ70" s="18"/>
-      <c r="AK70" s="108"/>
-      <c r="AL70" s="86"/>
-      <c r="AM70" s="18"/>
-      <c r="AN70" s="108"/>
-      <c r="AO70" s="18"/>
-      <c r="AP70" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ70" s="108"/>
-      <c r="AR70" s="74"/>
-      <c r="AS70" s="93"/>
-      <c r="AT70" s="18"/>
-      <c r="AU70" s="18"/>
-      <c r="AV70" s="15"/>
+      <c r="AO70" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP70" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR70" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS70" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT70" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU70" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV70" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="71" spans="1:48">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="99"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="97"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -8037,132 +8106,58 @@
       <c r="M71" s="15"/>
       <c r="N71" s="15"/>
       <c r="O71" s="131"/>
-      <c r="P71" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
       <c r="R71" s="15"/>
       <c r="S71" s="97"/>
-      <c r="T71" s="69"/>
-      <c r="U71" s="69"/>
-      <c r="V71" s="69"/>
-      <c r="W71" s="69"/>
-      <c r="X71" s="69"/>
-      <c r="Y71" s="69"/>
-      <c r="Z71" s="69"/>
-      <c r="AA71" s="69"/>
-      <c r="AB71" s="69"/>
-      <c r="AC71" s="104"/>
-      <c r="AD71" s="69"/>
-      <c r="AE71" s="69"/>
-      <c r="AF71" s="69"/>
-      <c r="AG71" s="70"/>
-      <c r="AH71" s="70"/>
-      <c r="AI71" s="70"/>
-      <c r="AJ71" s="70"/>
-      <c r="AK71" s="109"/>
-      <c r="AL71" s="83"/>
-      <c r="AM71" s="68"/>
-      <c r="AN71" s="117"/>
-      <c r="AO71" s="70"/>
-      <c r="AP71" s="70"/>
-      <c r="AQ71" s="109"/>
-      <c r="AR71" s="75"/>
-      <c r="AS71" s="71"/>
-      <c r="AT71" s="69"/>
-      <c r="AU71" s="69"/>
-      <c r="AV71" s="69"/>
+      <c r="T71" s="45"/>
+      <c r="U71" s="15"/>
+      <c r="V71" s="15"/>
+      <c r="W71" s="15"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="15"/>
+      <c r="Z71" s="15"/>
+      <c r="AA71" s="15"/>
+      <c r="AB71" s="15"/>
+      <c r="AC71" s="97"/>
+      <c r="AD71" s="15"/>
+      <c r="AE71" s="15"/>
+      <c r="AF71" s="15"/>
+      <c r="AG71" s="15"/>
+      <c r="AH71" s="15"/>
+      <c r="AI71" s="15"/>
+      <c r="AJ71" s="15"/>
+      <c r="AK71" s="97"/>
+      <c r="AL71" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM71" s="80">
+        <v>0</v>
+      </c>
+      <c r="AN71" s="119">
+        <v>50</v>
+      </c>
+      <c r="AO71" s="16"/>
+      <c r="AP71" s="16"/>
+      <c r="AQ71" s="110"/>
+      <c r="AR71" s="76"/>
+      <c r="AS71" s="19"/>
+      <c r="AT71" s="15"/>
+      <c r="AU71" s="15"/>
+      <c r="AV71" s="15"/>
     </row>
     <row r="72" spans="1:48">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="131"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="131"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="97"/>
-      <c r="T72" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="U72" s="15">
-        <v>1</v>
-      </c>
-      <c r="V72" s="15">
-        <v>100</v>
-      </c>
-      <c r="W72" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X72" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y72" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z72" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA72" s="15"/>
-      <c r="AB72" s="15"/>
-      <c r="AC72" s="97"/>
-      <c r="AD72" s="15"/>
-      <c r="AE72" s="15"/>
-      <c r="AF72" s="15"/>
-      <c r="AG72" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH72" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI72" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ72" s="16"/>
-      <c r="AK72" s="110"/>
+      <c r="T72" s="45"/>
       <c r="AL72" s="82" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AM72" s="80">
         <v>0</v>
       </c>
       <c r="AN72" s="119">
-        <v>50</v>
-      </c>
-      <c r="AO72" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP72" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ72" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR72" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS72" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT72" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU72" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV72" s="15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:48">
@@ -8185,655 +8180,590 @@
       <c r="Q73" s="15"/>
       <c r="R73" s="15"/>
       <c r="S73" s="97"/>
-      <c r="T73" s="45"/>
-      <c r="U73" s="15"/>
-      <c r="V73" s="15"/>
-      <c r="W73" s="15"/>
-      <c r="X73" s="15"/>
-      <c r="Y73" s="15"/>
-      <c r="Z73" s="15"/>
-      <c r="AA73" s="15"/>
-      <c r="AB73" s="15"/>
-      <c r="AC73" s="97"/>
-      <c r="AD73" s="15"/>
-      <c r="AE73" s="15"/>
-      <c r="AF73" s="15"/>
-      <c r="AG73" s="15"/>
-      <c r="AH73" s="15"/>
-      <c r="AI73" s="15"/>
-      <c r="AJ73" s="15"/>
-      <c r="AK73" s="97"/>
-      <c r="AL73" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM73" s="80">
-        <v>0</v>
-      </c>
-      <c r="AN73" s="119">
-        <v>50</v>
-      </c>
-      <c r="AO73" s="16"/>
-      <c r="AP73" s="16"/>
-      <c r="AQ73" s="110"/>
-      <c r="AR73" s="76"/>
-      <c r="AS73" s="19"/>
-      <c r="AT73" s="15"/>
-      <c r="AU73" s="15"/>
-      <c r="AV73" s="15"/>
+      <c r="T73" s="69"/>
+      <c r="U73" s="69"/>
+      <c r="V73" s="69"/>
+      <c r="W73" s="69"/>
+      <c r="X73" s="69"/>
+      <c r="Y73" s="69"/>
+      <c r="Z73" s="69"/>
+      <c r="AA73" s="69"/>
+      <c r="AB73" s="69"/>
+      <c r="AC73" s="104"/>
+      <c r="AD73" s="69"/>
+      <c r="AE73" s="69"/>
+      <c r="AF73" s="69"/>
+      <c r="AG73" s="70"/>
+      <c r="AH73" s="70"/>
+      <c r="AI73" s="70"/>
+      <c r="AJ73" s="70"/>
+      <c r="AK73" s="109"/>
+      <c r="AL73" s="83"/>
+      <c r="AM73" s="68"/>
+      <c r="AN73" s="117"/>
+      <c r="AO73" s="70"/>
+      <c r="AP73" s="70"/>
+      <c r="AQ73" s="109"/>
+      <c r="AR73" s="75"/>
+      <c r="AS73" s="71"/>
+      <c r="AT73" s="69"/>
+      <c r="AU73" s="69"/>
+      <c r="AV73" s="69"/>
     </row>
     <row r="74" spans="1:48">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
-      <c r="T74" s="45"/>
-      <c r="AL74" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM74" s="80">
-        <v>0</v>
-      </c>
-      <c r="AN74" s="119">
-        <v>3</v>
+      <c r="C74" s="15"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="131"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="131"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="97"/>
+      <c r="T74" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="U74" s="15">
+        <v>1</v>
+      </c>
+      <c r="V74" s="15">
+        <v>200</v>
+      </c>
+      <c r="W74" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="X74" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y74" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z74" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA74" s="15"/>
+      <c r="AB74" s="15"/>
+      <c r="AC74" s="97"/>
+      <c r="AD74" s="15"/>
+      <c r="AE74" s="15"/>
+      <c r="AF74" s="15"/>
+      <c r="AG74" s="16"/>
+      <c r="AH74" s="16"/>
+      <c r="AI74" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ74" s="16"/>
+      <c r="AK74" s="110"/>
+      <c r="AL74" s="84"/>
+      <c r="AM74" s="19"/>
+      <c r="AN74" s="120"/>
+      <c r="AO74" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP74" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ74" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR74" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS74" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT74" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU74" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV74" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:48">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="131"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="131"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="97"/>
-      <c r="T75" s="69"/>
-      <c r="U75" s="69"/>
-      <c r="V75" s="69"/>
-      <c r="W75" s="69"/>
-      <c r="X75" s="69"/>
-      <c r="Y75" s="69"/>
-      <c r="Z75" s="69"/>
-      <c r="AA75" s="69"/>
-      <c r="AB75" s="69"/>
-      <c r="AC75" s="104"/>
-      <c r="AD75" s="69"/>
-      <c r="AE75" s="69"/>
-      <c r="AF75" s="69"/>
-      <c r="AG75" s="70"/>
-      <c r="AH75" s="70"/>
-      <c r="AI75" s="70"/>
-      <c r="AJ75" s="70"/>
-      <c r="AK75" s="109"/>
-      <c r="AL75" s="83"/>
-      <c r="AM75" s="68"/>
-      <c r="AN75" s="117"/>
-      <c r="AO75" s="70"/>
-      <c r="AP75" s="70"/>
-      <c r="AQ75" s="109"/>
-      <c r="AR75" s="75"/>
-      <c r="AS75" s="71"/>
-      <c r="AT75" s="69"/>
-      <c r="AU75" s="69"/>
-      <c r="AV75" s="69"/>
+      <c r="A75" s="63"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="100"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="135"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="63"/>
+      <c r="O75" s="135"/>
+      <c r="P75" s="63"/>
+      <c r="Q75" s="63"/>
+      <c r="R75" s="63"/>
+      <c r="S75" s="100"/>
+      <c r="T75" s="63"/>
+      <c r="U75" s="63"/>
+      <c r="V75" s="63"/>
+      <c r="W75" s="63"/>
+      <c r="X75" s="63"/>
+      <c r="Y75" s="63"/>
+      <c r="Z75" s="63"/>
+      <c r="AA75" s="63"/>
+      <c r="AB75" s="63"/>
+      <c r="AC75" s="100"/>
+      <c r="AD75" s="63"/>
+      <c r="AE75" s="63"/>
+      <c r="AF75" s="63"/>
+      <c r="AG75" s="64"/>
+      <c r="AH75" s="64"/>
+      <c r="AI75" s="64"/>
+      <c r="AJ75" s="64"/>
+      <c r="AK75" s="113"/>
+      <c r="AL75" s="87"/>
+      <c r="AM75" s="65"/>
+      <c r="AN75" s="124"/>
+      <c r="AO75" s="64"/>
+      <c r="AP75" s="64"/>
+      <c r="AQ75" s="113"/>
+      <c r="AR75" s="79"/>
+      <c r="AS75" s="65"/>
+      <c r="AT75" s="63"/>
+      <c r="AU75" s="63"/>
+      <c r="AV75" s="63"/>
     </row>
     <row r="76" spans="1:48">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
-      <c r="D76" s="97"/>
-      <c r="E76" s="15"/>
+      <c r="D76" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="131"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="131"/>
-      <c r="P76" s="15"/>
+      <c r="I76" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J76" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K76" s="15">
+        <v>10</v>
+      </c>
+      <c r="L76" s="131">
+        <v>10</v>
+      </c>
+      <c r="M76" s="15">
+        <v>10</v>
+      </c>
+      <c r="N76" s="15">
+        <v>10</v>
+      </c>
+      <c r="O76" s="131">
+        <v>10</v>
+      </c>
+      <c r="P76" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="Q76" s="15"/>
       <c r="R76" s="15"/>
       <c r="S76" s="97"/>
-      <c r="T76" s="45" t="s">
-        <v>116</v>
+      <c r="T76" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="U76" s="15">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="V76" s="15">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="W76" s="15" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="X76" s="15" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="Y76" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="Z76" s="15" t="s">
-        <v>96</v>
-      </c>
+      <c r="Z76" s="15"/>
       <c r="AA76" s="15"/>
       <c r="AB76" s="15"/>
-      <c r="AC76" s="97"/>
-      <c r="AD76" s="15"/>
-      <c r="AE76" s="15"/>
-      <c r="AF76" s="15"/>
-      <c r="AG76" s="16"/>
-      <c r="AH76" s="16"/>
+      <c r="AC76" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD76" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE76" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF76" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG76" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH76" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AI76" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ76" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ76" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AK76" s="110"/>
-      <c r="AL76" s="84"/>
-      <c r="AM76" s="19"/>
-      <c r="AN76" s="120"/>
-      <c r="AO76" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP76" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ76" s="110" t="b">
-        <v>0</v>
-      </c>
+      <c r="AL76" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM76" s="19">
+        <v>50</v>
+      </c>
+      <c r="AN76" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO76" s="16"/>
+      <c r="AP76" s="16"/>
+      <c r="AQ76" s="110"/>
       <c r="AR76" s="76" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="AS76" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT76" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU76" s="15" t="s">
-        <v>2</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AT76" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU76" s="15"/>
       <c r="AV76" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:48">
-      <c r="A77" s="63"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="100"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="63"/>
-      <c r="J77" s="63"/>
-      <c r="K77" s="63"/>
-      <c r="L77" s="135"/>
-      <c r="M77" s="63"/>
-      <c r="N77" s="63"/>
-      <c r="O77" s="135"/>
-      <c r="P77" s="63"/>
-      <c r="Q77" s="63"/>
-      <c r="R77" s="63"/>
-      <c r="S77" s="100"/>
-      <c r="T77" s="63"/>
-      <c r="U77" s="63"/>
-      <c r="V77" s="63"/>
-      <c r="W77" s="63"/>
-      <c r="X77" s="63"/>
-      <c r="Y77" s="63"/>
-      <c r="Z77" s="63"/>
-      <c r="AA77" s="63"/>
-      <c r="AB77" s="63"/>
-      <c r="AC77" s="100"/>
-      <c r="AD77" s="63"/>
-      <c r="AE77" s="63"/>
-      <c r="AF77" s="63"/>
-      <c r="AG77" s="64"/>
-      <c r="AH77" s="64"/>
-      <c r="AI77" s="64"/>
-      <c r="AJ77" s="64"/>
-      <c r="AK77" s="113"/>
-      <c r="AL77" s="87"/>
-      <c r="AM77" s="65"/>
-      <c r="AN77" s="124"/>
-      <c r="AO77" s="64"/>
-      <c r="AP77" s="64"/>
-      <c r="AQ77" s="113"/>
-      <c r="AR77" s="79"/>
-      <c r="AS77" s="65"/>
-      <c r="AT77" s="63"/>
-      <c r="AU77" s="63"/>
-      <c r="AV77" s="63"/>
-    </row>
-    <row r="78" spans="1:48">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="J78" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K78" s="15">
-        <v>10</v>
-      </c>
-      <c r="L78" s="131">
-        <v>10</v>
-      </c>
-      <c r="M78" s="15">
-        <v>10</v>
-      </c>
-      <c r="N78" s="15">
-        <v>10</v>
-      </c>
-      <c r="O78" s="131">
-        <v>10</v>
-      </c>
-      <c r="P78" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="97"/>
-      <c r="T78" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="U78" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="V78" s="15">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="131"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="131"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="97"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
+      <c r="Z77" s="15"/>
+      <c r="AA77" s="15"/>
+      <c r="AB77" s="15"/>
+      <c r="AC77" s="97"/>
+      <c r="AD77" s="15"/>
+      <c r="AE77" s="15"/>
+      <c r="AF77" s="15"/>
+      <c r="AG77" s="16"/>
+      <c r="AH77" s="16"/>
+      <c r="AI77" s="16"/>
+      <c r="AJ77" s="16"/>
+      <c r="AK77" s="110"/>
+      <c r="AL77" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM77" s="19">
+        <v>170</v>
+      </c>
+      <c r="AN77" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO77" s="16"/>
+      <c r="AP77" s="16"/>
+      <c r="AQ77" s="110"/>
+      <c r="AR77" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS77" s="19">
         <v>50</v>
       </c>
-      <c r="W78" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X78" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y78" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z78" s="15"/>
-      <c r="AA78" s="15"/>
-      <c r="AB78" s="15"/>
-      <c r="AC78" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD78" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE78" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF78" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG78" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH78" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI78" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ78" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK78" s="110"/>
-      <c r="AL78" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM78" s="19">
-        <v>50</v>
-      </c>
-      <c r="AN78" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO78" s="16"/>
-      <c r="AP78" s="16"/>
-      <c r="AQ78" s="110"/>
-      <c r="AR78" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS78" s="19">
-        <v>50</v>
-      </c>
-      <c r="AT78" s="16" t="s">
+      <c r="AT77" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="AU78" s="15"/>
-      <c r="AV78" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:48">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="131"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="131"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
-      <c r="S79" s="97"/>
-      <c r="T79" s="15"/>
-      <c r="U79" s="15"/>
-      <c r="V79" s="15"/>
-      <c r="W79" s="15"/>
-      <c r="X79" s="15"/>
-      <c r="Y79" s="15"/>
-      <c r="Z79" s="15"/>
-      <c r="AA79" s="15"/>
-      <c r="AB79" s="15"/>
-      <c r="AC79" s="97"/>
-      <c r="AD79" s="15"/>
-      <c r="AE79" s="15"/>
-      <c r="AF79" s="15"/>
-      <c r="AG79" s="16"/>
-      <c r="AH79" s="16"/>
-      <c r="AI79" s="16"/>
-      <c r="AJ79" s="16"/>
-      <c r="AK79" s="110"/>
-      <c r="AL79" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM79" s="19">
-        <v>170</v>
-      </c>
-      <c r="AN79" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO79" s="16"/>
-      <c r="AP79" s="16"/>
-      <c r="AQ79" s="110"/>
-      <c r="AR79" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS79" s="19">
-        <v>50</v>
-      </c>
-      <c r="AT79" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU79" s="15"/>
-      <c r="AV79" s="15"/>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="95"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="AU77" s="15"/>
+      <c r="AV77" s="15"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AL13 B7:B13 X20:X21 U20:W20 C27:D27 E26:H27 B71:B74 B20:B27 C22:D24 E21:H23 C7:G7 AG21:AN21 AD54:AQ54 AG29:AN29 AL27:AQ27 AL23:AQ24 AL44:AQ44 AL52:AQ52 AL60:AQ60 AN56:AQ57 AL48:AQ48 AL38:AQ38 AL34:AQ35 AO26:AV26 AO43:AQ43 AO21:AV22 AO51:AV51 AO59:AV59 AO55:AV55 AO47:AV47 AO37:AV37 AO29:AV33 AO41:AQ41 AR41:AV43 AO5:AV10 AL11:AV12 AL19:AV19 AO18:AV18 AL72:AV73 AO71:AV71 AL76:AV76 AO75:AV75 AL64:AV65 AO63:AV63 AL68:AV68 AO67:AV67 P50:Y50 P12:S12 I7:O12 P41:S44 P52:S52 P56:S60 P75:S76 P65:S65 P38:S38 P33:S35 P80:U81 P19:V19 P28:W28 P31:Y31 B5:G6 I27:S27 I22:S24 C71:S73 B75:O81 C63:O65 B67:S68 I30:O35 B18:O19 C28:O29 AL42:AQ42 P46:S48 B39:H60 I38:O60 Z21:AC21 T26:AB26 T43:AB43 T22:AB22 T59:AB59 T47:AB47 T37:AB37 T75:AB75 T71:AB71 T41:AK41 T67:AB67 Y20:AU20 W80:AB81 Y28:AU28 AC10:AK11 P32:AB32 AC64:AF64 P18:AB18 P30:AK30 P63:AB64 AC63:AK63 AV63:AV64 AC8:AN9 P77:AB79 AC77:AU81 P39:AU39 P49:AU49 AC53:AU53 P45:AU45 P51:AB51 P7:AB11 AC7:AK7 I5:AN6 AV5:AV11 X19:AB19 AC18:AK19 AA40:AQ40 X23:AB23 AC22:AK23 AV18:AV23 U27:AB27 AC26:AK27 U44:AB44 AC43:AK44 U52:AB52 AC51:AK52 T56:AB56 AC55:AK56 U60:AB60 AC59:AK60 AV59:AV60 U48:AB48 AC47:AK48 AA29:AC29 AA31:AB31 AC31:AN32 T33:AK34 AV26:AV34 U38:AB38 AC37:AK38 U72:AB72 AC71:AK72 AV70:AV72 U76:AB76 AC75:AK76 AV75:AV81 Z42:AC42 AV37:AV56 U68:AB68 AC67:AK68 AV67:AV68 C9:G12 C8:F8 C20:T21 P29:T29 P40:Y40 T46:Y46 P53:AB55 B62:AV62 B70:AU70 AA46:AQ46 AA50:AQ50">
-    <cfRule type="cellIs" dxfId="79" priority="186" operator="equal">
+  <conditionalFormatting sqref="B7:B11 X18:X19 U18:W18 C25:D25 E24:H25 B69:B72 B18:B25 C20:D22 E19:H21 C7:G7 AG19:AN19 AD52:AQ52 AG27:AN27 AL25:AQ25 AL21:AQ22 AL42:AQ42 AL50:AQ50 AL58:AQ58 AN54:AQ55 AL46:AQ46 AL36:AQ36 AL32:AQ33 AO24:AV24 AO41:AQ41 AO19:AV20 AO49:AV49 AO57:AV57 AO53:AV53 AO45:AV45 AO35:AV35 AO27:AV31 AO39:AQ39 AR39:AV41 AL17:AV17 AO16:AV16 AL70:AV71 AO69:AV69 AL74:AV74 AO73:AV73 AL62:AV63 AO61:AV61 AL66:AV66 AO65:AV65 P48:Y48 P39:S42 P50:S50 P54:S58 P73:S74 P63:S63 P36:S36 P31:S33 P78:U79 P17:V17 P26:W26 P29:Y29 B5:G6 I25:S25 I20:S22 C69:S71 B73:O79 C61:O63 B65:S66 I28:O33 B16:O17 C26:O27 AL40:AQ40 P44:S46 B37:H58 I36:O58 Z19:AC19 T24:AB24 T41:AB41 T20:AB20 T57:AB57 T45:AB45 T35:AB35 T73:AB73 T69:AB69 T39:AK39 T65:AB65 Y18:AU18 W78:AB79 Y26:AU26 AC10:AK11 P30:AB30 AC62:AF62 P16:AB16 P28:AK28 P61:AB62 AC61:AK61 AV61:AV62 AC8:AN9 P75:AB77 AC75:AU79 P37:AU37 P47:AU47 AC51:AU51 P43:AU43 P49:AB49 I7:AB11 AC7:AK7 I5:AN6 X17:AB17 AC16:AK17 AA38:AQ38 X21:AB21 AC20:AK21 AV16:AV21 U25:AB25 AC24:AK25 U42:AB42 AC41:AK42 U50:AB50 AC49:AK50 T54:AB54 AC53:AK54 U58:AB58 AC57:AK58 AV57:AV58 U46:AB46 AC45:AK46 AA27:AC27 AA29:AB29 AC29:AN30 T31:AK32 AV24:AV32 U36:AB36 AC35:AK36 U70:AB70 AC69:AK70 AV68:AV70 U74:AB74 AC73:AK74 AV73:AV79 Z40:AC40 AV35:AV54 U66:AB66 AC65:AK66 AV65:AV66 C9:G11 C8:F8 C18:T19 P27:T27 P38:Y38 T44:Y44 P51:AB53 B60:AV60 B68:AU68 AA44:AQ44 AA48:AQ48 AO5:AV11">
+    <cfRule type="cellIs" dxfId="80" priority="187" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U21:V21">
-    <cfRule type="cellIs" dxfId="78" priority="184" operator="equal">
+  <conditionalFormatting sqref="U19:V19">
+    <cfRule type="cellIs" dxfId="79" priority="185" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC21">
+  <conditionalFormatting sqref="AC19">
+    <cfRule type="cellIs" dxfId="78" priority="183" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD19:AF19">
     <cfRule type="cellIs" dxfId="77" priority="182" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD21:AF21">
+  <conditionalFormatting sqref="W19:Y19">
     <cfRule type="cellIs" dxfId="76" priority="181" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W21:Y21">
-    <cfRule type="cellIs" dxfId="75" priority="180" operator="equal">
+  <conditionalFormatting sqref="U37:W37">
+    <cfRule type="cellIs" dxfId="75" priority="175" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U39:W39">
+  <conditionalFormatting sqref="U38:V38">
     <cfRule type="cellIs" dxfId="74" priority="174" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U40:V40">
-    <cfRule type="cellIs" dxfId="73" priority="173" operator="equal">
+  <conditionalFormatting sqref="AC38">
+    <cfRule type="cellIs" dxfId="73" priority="172" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC40">
+  <conditionalFormatting sqref="AD38:AF38">
     <cfRule type="cellIs" dxfId="72" priority="171" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF40">
+  <conditionalFormatting sqref="W38:Y38">
     <cfRule type="cellIs" dxfId="71" priority="170" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W40:Y40">
-    <cfRule type="cellIs" dxfId="70" priority="169" operator="equal">
+  <conditionalFormatting sqref="AR38:AV38">
+    <cfRule type="cellIs" dxfId="70" priority="165" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR40:AV40">
-    <cfRule type="cellIs" dxfId="69" priority="164" operator="equal">
+  <conditionalFormatting sqref="AR21:AV22 AL23 T21:V21">
+    <cfRule type="cellIs" dxfId="69" priority="155" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR23:AV24 AL25 T23:V23">
-    <cfRule type="cellIs" dxfId="68" priority="154" operator="equal">
+  <conditionalFormatting sqref="AR25:AV25">
+    <cfRule type="cellIs" dxfId="68" priority="152" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR27:AV27">
-    <cfRule type="cellIs" dxfId="67" priority="151" operator="equal">
+  <conditionalFormatting sqref="AR42:AV42">
+    <cfRule type="cellIs" dxfId="67" priority="144" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM54:AM55">
+    <cfRule type="cellIs" dxfId="66" priority="103" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U48:V48">
+    <cfRule type="cellIs" dxfId="65" priority="136" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC48">
+    <cfRule type="cellIs" dxfId="64" priority="135" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD48:AF48">
+    <cfRule type="cellIs" dxfId="63" priority="134" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W48:Y48">
+    <cfRule type="cellIs" dxfId="62" priority="133" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR48:AV48">
+    <cfRule type="cellIs" dxfId="61" priority="130" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR50:AV50">
+    <cfRule type="cellIs" dxfId="60" priority="126" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U52:V52">
+    <cfRule type="cellIs" dxfId="59" priority="118" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD52:AF52">
+    <cfRule type="cellIs" dxfId="58" priority="116" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W52:Y52">
+    <cfRule type="cellIs" dxfId="57" priority="115" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR52:AV52">
+    <cfRule type="cellIs" dxfId="56" priority="112" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR54:AV55 AL56">
+    <cfRule type="cellIs" dxfId="55" priority="111" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL54:AL55">
+    <cfRule type="cellIs" dxfId="54" priority="110" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR58:AV58">
+    <cfRule type="cellIs" dxfId="53" priority="108" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U44:V44">
+    <cfRule type="cellIs" dxfId="52" priority="100" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC44">
+    <cfRule type="cellIs" dxfId="51" priority="99" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD44:AF44">
+    <cfRule type="cellIs" dxfId="50" priority="98" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W44:Y44">
+    <cfRule type="cellIs" dxfId="49" priority="97" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR44:AV44">
-    <cfRule type="cellIs" dxfId="66" priority="143" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM56:AM57">
-    <cfRule type="cellIs" dxfId="65" priority="102" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U50:V50">
-    <cfRule type="cellIs" dxfId="64" priority="135" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC50">
-    <cfRule type="cellIs" dxfId="63" priority="134" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD50:AF50">
-    <cfRule type="cellIs" dxfId="62" priority="133" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W50:Y50">
-    <cfRule type="cellIs" dxfId="61" priority="132" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR50:AV50">
-    <cfRule type="cellIs" dxfId="60" priority="129" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR52:AV52">
-    <cfRule type="cellIs" dxfId="59" priority="125" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U54:V54">
-    <cfRule type="cellIs" dxfId="58" priority="117" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD54:AF54">
-    <cfRule type="cellIs" dxfId="57" priority="115" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W54:Y54">
-    <cfRule type="cellIs" dxfId="56" priority="114" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR54:AV54">
-    <cfRule type="cellIs" dxfId="55" priority="111" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR56:AV57 AL58">
-    <cfRule type="cellIs" dxfId="54" priority="110" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL56:AL57">
-    <cfRule type="cellIs" dxfId="53" priority="109" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR60:AV60">
-    <cfRule type="cellIs" dxfId="52" priority="107" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U46:V46">
-    <cfRule type="cellIs" dxfId="51" priority="99" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC46">
-    <cfRule type="cellIs" dxfId="50" priority="98" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD46:AF46">
-    <cfRule type="cellIs" dxfId="49" priority="97" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W46:Y46">
-    <cfRule type="cellIs" dxfId="48" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="94" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR46:AV46">
-    <cfRule type="cellIs" dxfId="47" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="90" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR48:AV48">
-    <cfRule type="cellIs" dxfId="46" priority="89" operator="equal">
+  <conditionalFormatting sqref="X26:X27 B26:B36 C28:D33 E28:H32 C36:D36 E35:H36">
+    <cfRule type="cellIs" dxfId="46" priority="84" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X28:X29 B28:B38 C30:D35 E30:H34 C38:D38 E37:H38">
+  <conditionalFormatting sqref="U27:V27">
     <cfRule type="cellIs" dxfId="45" priority="83" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U29:V29">
+  <conditionalFormatting sqref="AC27">
     <cfRule type="cellIs" dxfId="44" priority="82" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC29">
+  <conditionalFormatting sqref="AD27:AF27">
     <cfRule type="cellIs" dxfId="43" priority="81" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD29:AF29">
+  <conditionalFormatting sqref="W27:Y27">
     <cfRule type="cellIs" dxfId="42" priority="80" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W29:Y29">
-    <cfRule type="cellIs" dxfId="41" priority="79" operator="equal">
+  <conditionalFormatting sqref="AR32:AV33 AL34">
+    <cfRule type="cellIs" dxfId="41" priority="76" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR34:AV35 AL36">
-    <cfRule type="cellIs" dxfId="40" priority="75" operator="equal">
+  <conditionalFormatting sqref="AR36:AV36">
+    <cfRule type="cellIs" dxfId="40" priority="73" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR38:AV38">
-    <cfRule type="cellIs" dxfId="39" priority="72" operator="equal">
+  <conditionalFormatting sqref="AL72">
+    <cfRule type="cellIs" dxfId="39" priority="60" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL74">
-    <cfRule type="cellIs" dxfId="38" priority="59" operator="equal">
+  <conditionalFormatting sqref="W17">
+    <cfRule type="cellIs" dxfId="38" priority="51" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W19">
+  <conditionalFormatting sqref="W21">
     <cfRule type="cellIs" dxfId="37" priority="50" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
+  <conditionalFormatting sqref="Z48">
     <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z50">
+  <conditionalFormatting sqref="Z44">
     <cfRule type="cellIs" dxfId="35" priority="48" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z46">
+  <conditionalFormatting sqref="Z38">
     <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z40">
+  <conditionalFormatting sqref="Z27">
     <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -8843,122 +8773,122 @@
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z31">
+  <conditionalFormatting sqref="AC52">
     <cfRule type="cellIs" dxfId="31" priority="44" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC54">
+  <conditionalFormatting sqref="AC52">
     <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC54">
+  <conditionalFormatting sqref="T25">
     <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T27">
+  <conditionalFormatting sqref="T36">
     <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T38">
+  <conditionalFormatting sqref="T42">
     <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T44">
+  <conditionalFormatting sqref="T46">
     <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T48">
+  <conditionalFormatting sqref="T50">
     <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T52">
+  <conditionalFormatting sqref="T58">
     <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T60">
+  <conditionalFormatting sqref="T74">
     <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T76">
-    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
+  <conditionalFormatting sqref="X40 T40">
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X42 T42">
+  <conditionalFormatting sqref="U40:V40 AG40:AK40">
     <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U42:V42 AG42:AK42">
+  <conditionalFormatting sqref="AC40">
     <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC42">
+  <conditionalFormatting sqref="AD40:AF40">
     <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD42:AF42">
+  <conditionalFormatting sqref="W40:Y40">
     <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W42:Y42">
-    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
+  <conditionalFormatting sqref="B61:B64">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B66">
+  <conditionalFormatting sqref="AL64 AG62:AK62">
     <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL66 AG64:AK64">
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
+  <conditionalFormatting sqref="T66">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T68">
+  <conditionalFormatting sqref="T70">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T72">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+  <conditionalFormatting sqref="H5:H11 G8">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H12 G8">
+  <conditionalFormatting sqref="AC44">
     <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC46">
+  <conditionalFormatting sqref="AC48">
     <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC50">
+  <conditionalFormatting sqref="AL15 B12:B15 AO12:AV12 AL13:AV14 P14:S14 I12:O14 P12:AK13 C12:G14">
     <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL17 B14:B17 AO14:AV14 AL15:AV16 P16:S16 I14:O16 P14:AK15 C14:G16">
+  <conditionalFormatting sqref="H12:H14">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H16">
+  <conditionalFormatting sqref="AL11">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23607"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2104" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01DF34EC-F363-4D23-A6AA-8654401FA5CF}"/>
+  <xr:revisionPtr revIDLastSave="2126" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B4542127-864F-4278-876B-0405517AC208}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,6 +53,8 @@
     <author>tc={A36EDA56-9BB8-4481-8541-35CA7263BBE2}</author>
     <author>tc={214FAD6C-C7E5-485F-8706-D09B002BBC46}</author>
     <author>tc={C0B5B783-6F49-48BB-AF50-66A6DF6487E7}</author>
+    <author>tc={04881233-BFB1-4819-A878-77B17B27A3E9}</author>
+    <author>tc={563854EF-64EC-4345-AF62-6D1CE52A98F2}</author>
     <author>tc={2C545A15-58BF-4325-853E-F01A6E2CD754}</author>
     <author>tc={B6F30610-5DE2-43DC-8686-4075E019810F}</author>
     <author>tc={F6470554-740D-4816-85E3-E23C5729D666}</author>
@@ -113,7 +115,23 @@
     add safety factor back</t>
       </text>
     </comment>
-    <comment ref="D54" authorId="6" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+    <comment ref="AL19" authorId="6" shapeId="0" xr:uid="{04881233-BFB1-4819-A878-77B17B27A3E9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    20mm of wallthickness loss not detectable</t>
+      </text>
+    </comment>
+    <comment ref="AL22" authorId="7" shapeId="0" xr:uid="{563854EF-64EC-4345-AF62-6D1CE52A98F2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Confirm with Peter Couch / Greg Toms</t>
+      </text>
+    </comment>
+    <comment ref="D64" authorId="8" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -121,7 +139,7 @@
     Change task type to planned / reactive / risk?</t>
       </text>
     </comment>
-    <comment ref="D60" authorId="7" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
+    <comment ref="D70" authorId="9" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -129,7 +147,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="I60" authorId="8" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
+    <comment ref="I70" authorId="10" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -137,7 +155,7 @@
     Break it out later</t>
       </text>
     </comment>
-    <comment ref="Z60" authorId="9" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+    <comment ref="Z70" authorId="11" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -146,7 +164,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="T62" authorId="10" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+    <comment ref="T72" authorId="12" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -154,7 +172,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="D68" authorId="11" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+    <comment ref="D78" authorId="13" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -162,7 +180,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="Z68" authorId="12" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+    <comment ref="Z78" authorId="14" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -171,7 +189,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="T70" authorId="13" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
+    <comment ref="T80" authorId="15" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -179,7 +197,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="E76" authorId="14" shapeId="0" xr:uid="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
+    <comment ref="E86" authorId="16" shapeId="0" xr:uid="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -187,7 +205,7 @@
     fix method to allow multiple indicators for one component</t>
       </text>
     </comment>
-    <comment ref="I76" authorId="15" shapeId="0" xr:uid="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
+    <comment ref="I86" authorId="17" shapeId="0" xr:uid="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -200,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="336">
   <si>
     <t>Cause</t>
   </si>
@@ -497,6 +515,12 @@
   </si>
   <si>
     <t>functional_failure</t>
+  </si>
+  <si>
+    <t>termites-cf</t>
+  </si>
+  <si>
+    <t>conditional_failure</t>
   </si>
   <si>
     <t>fungal decay _ external</t>
@@ -1771,7 +1795,49 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="87">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2639,36 +2705,42 @@
   <threadedComment ref="AL15" dT="2020-09-10T03:27:58.22" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C0B5B783-6F49-48BB-AF50-66A6DF6487E7}">
     <text>add safety factor back</text>
   </threadedComment>
-  <threadedComment ref="D54" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+  <threadedComment ref="AL19" dT="2020-09-09T03:27:17.71" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{04881233-BFB1-4819-A878-77B17B27A3E9}">
+    <text>20mm of wallthickness loss not detectable</text>
+  </threadedComment>
+  <threadedComment ref="AL22" dT="2020-09-09T03:33:43.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{563854EF-64EC-4345-AF62-6D1CE52A98F2}">
+    <text>Confirm with Peter Couch / Greg Toms</text>
+  </threadedComment>
+  <threadedComment ref="D64" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
     <text>Change task type to planned / reactive / risk?</text>
   </threadedComment>
-  <threadedComment ref="D60" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B6F30610-5DE2-43DC-8686-4075E019810F}">
+  <threadedComment ref="D70" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B6F30610-5DE2-43DC-8686-4075E019810F}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="I60" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F6470554-740D-4816-85E3-E23C5729D666}">
+  <threadedComment ref="I70" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F6470554-740D-4816-85E3-E23C5729D666}">
     <text>Break it out later</text>
   </threadedComment>
-  <threadedComment ref="Z60" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+  <threadedComment ref="Z70" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="T62" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+  <threadedComment ref="T72" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
     <text>Make this a repair task</text>
   </threadedComment>
-  <threadedComment ref="D68" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+  <threadedComment ref="D78" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="Z68" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+  <threadedComment ref="Z78" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="T70" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{65DC17AD-63E9-433B-A662-056382EECC79}">
+  <threadedComment ref="T80" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{65DC17AD-63E9-433B-A662-056382EECC79}">
     <text>Make this a repair task</text>
   </threadedComment>
-  <threadedComment ref="E76" dT="2020-09-15T23:18:34.59" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
+  <threadedComment ref="E86" dT="2020-09-15T23:18:34.59" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
     <text>fix method to allow multiple indicators for one component</text>
   </threadedComment>
-  <threadedComment ref="I76" dT="2020-09-15T22:13:46.05" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
+  <threadedComment ref="I86" dT="2020-09-15T22:13:46.05" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
     <text>Create error catch for this method</text>
   </threadedComment>
 </ThreadedComments>
@@ -2721,134 +2793,134 @@
   <sheetData>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="O12" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="F13" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="S13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="F14" s="12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="S14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="F15" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="F16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q16" t="s">
         <v>96</v>
       </c>
       <c r="S16" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="F17" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="O18" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="F20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="D31" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -2860,13 +2932,13 @@
         <v>89</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>95</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>93</v>
@@ -2874,27 +2946,27 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="S32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K33" t="s">
         <v>51</v>
       </c>
       <c r="R33" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2902,13 +2974,13 @@
     </row>
     <row r="34" spans="2:19">
       <c r="C34" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s">
         <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S34">
         <v>0.5</v>
@@ -2916,16 +2988,16 @@
     </row>
     <row r="35" spans="2:19">
       <c r="C35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D35" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="R35" t="s">
         <v>96</v>
@@ -2936,13 +3008,13 @@
     </row>
     <row r="36" spans="2:19">
       <c r="D36" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="R36" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -2958,10 +3030,10 @@
     </row>
     <row r="38" spans="2:19">
       <c r="C38" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
@@ -2969,13 +3041,13 @@
     </row>
     <row r="39" spans="2:19">
       <c r="C39" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E39" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J39" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="2:19">
@@ -2995,29 +3067,29 @@
     </row>
     <row r="52" spans="1:12">
       <c r="H52" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="E54" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -3051,17 +3123,17 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="F59" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="B60" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E60" t="s">
         <v>95</v>
@@ -3069,58 +3141,58 @@
     </row>
     <row r="61" spans="1:12">
       <c r="E61" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="E62" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B70">
         <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B71">
         <v>12.5</v>
       </c>
       <c r="C71" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3152,48 +3224,48 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I4" t="s">
         <v>318</v>
       </c>
-      <c r="I4" t="s">
-        <v>316</v>
-      </c>
       <c r="J4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="R4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="S4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H5" t="s">
         <v>321</v>
-      </c>
-      <c r="H5" t="s">
-        <v>319</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -3203,18 +3275,18 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="R5" s="41" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="H6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I6">
         <f>I5/4</f>
@@ -3226,51 +3298,51 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="R6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="S6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="R7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="S7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="H8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="R8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="S8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
+        <v>331</v>
+      </c>
+      <c r="H9" t="s">
         <v>329</v>
-      </c>
-      <c r="H9" t="s">
-        <v>327</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
@@ -3278,7 +3350,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="H10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
@@ -3286,12 +3358,12 @@
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="B12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I12" s="9">
         <v>3.7</v>
@@ -3303,20 +3375,20 @@
     </row>
     <row r="16" spans="1:19">
       <c r="J16" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M16" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="10:10">
       <c r="J19" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="1048576" spans="15:15">
       <c r="O1048576" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3593,10 +3665,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
-  <dimension ref="A1:AV82"/>
+  <dimension ref="A1:AV92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM20" sqref="AM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4183,7 +4255,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="138">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -4482,7 +4554,7 @@
         <v>37</v>
       </c>
       <c r="AM11" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN11" s="119">
         <v>3</v>
@@ -4922,16 +4994,16 @@
         <v>78</v>
       </c>
       <c r="K19" s="45">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L19" s="130">
         <v>1</v>
       </c>
       <c r="M19" s="45">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="N19" s="45">
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O19" s="130">
         <v>10</v>
@@ -4952,7 +5024,7 @@
       <c r="U19" s="45">
         <v>0.8</v>
       </c>
-      <c r="V19" s="15">
+      <c r="V19" s="45">
         <v>50</v>
       </c>
       <c r="W19" s="15" t="s">
@@ -4964,11 +5036,13 @@
       <c r="Y19" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15">
+      <c r="Z19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA19" s="41">
         <v>20</v>
       </c>
-      <c r="AB19" s="15">
+      <c r="AB19" s="41">
         <v>5</v>
       </c>
       <c r="AC19" s="97" t="s">
@@ -4990,11 +5064,17 @@
       <c r="AI19" s="18"/>
       <c r="AJ19" s="18"/>
       <c r="AK19" s="108"/>
-      <c r="AL19" s="84"/>
-      <c r="AM19" s="18"/>
-      <c r="AN19" s="108"/>
-      <c r="AO19" s="16"/>
-      <c r="AP19" s="18"/>
+      <c r="AL19" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM19" s="90"/>
+      <c r="AN19" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="AQ19" s="108"/>
       <c r="AR19" s="74"/>
       <c r="AS19" s="93"/>
@@ -5008,6 +5088,7 @@
       <c r="C20" s="15"/>
       <c r="D20" s="97"/>
       <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
@@ -5017,39 +5098,49 @@
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
       <c r="O20" s="131"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
+      <c r="P20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="R20" s="15"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="104"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="70"/>
-      <c r="AH20" s="70"/>
-      <c r="AI20" s="70"/>
-      <c r="AJ20" s="70"/>
-      <c r="AK20" s="109"/>
-      <c r="AL20" s="83"/>
-      <c r="AM20" s="68"/>
-      <c r="AN20" s="117"/>
-      <c r="AO20" s="70"/>
-      <c r="AP20" s="70"/>
-      <c r="AQ20" s="109"/>
-      <c r="AR20" s="75"/>
-      <c r="AS20" s="71"/>
-      <c r="AT20" s="69"/>
-      <c r="AU20" s="69"/>
-      <c r="AV20" s="69"/>
+      <c r="S20" s="97">
+        <v>1</v>
+      </c>
+      <c r="T20" s="15"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="97"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="108"/>
+      <c r="AL20" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM20" s="90"/>
+      <c r="AN20" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="108"/>
+      <c r="AR20" s="74"/>
+      <c r="AS20" s="93"/>
+      <c r="AT20" s="18"/>
+      <c r="AU20" s="18"/>
+      <c r="AV20" s="15"/>
     </row>
     <row r="21" spans="1:48">
       <c r="A21" s="15"/>
@@ -5057,6 +5148,7 @@
       <c r="C21" s="15"/>
       <c r="D21" s="97"/>
       <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
@@ -5070,83 +5162,45 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="97"/>
-      <c r="T21" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="U21" s="15">
-        <v>1</v>
-      </c>
-      <c r="V21" s="15">
-        <v>3500</v>
-      </c>
-      <c r="W21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X21" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y21" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z21" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="97"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI21" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="16"/>
-      <c r="AK21" s="110"/>
-      <c r="AL21" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM21" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="120">
-        <v>50</v>
-      </c>
-      <c r="AO21" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS21" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT21" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV21" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="69"/>
+      <c r="AC21" s="104"/>
+      <c r="AD21" s="69"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="69"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="109"/>
+      <c r="AL21" s="83"/>
+      <c r="AM21" s="68"/>
+      <c r="AN21" s="117"/>
+      <c r="AO21" s="70"/>
+      <c r="AP21" s="70"/>
+      <c r="AQ21" s="109"/>
+      <c r="AR21" s="75"/>
+      <c r="AS21" s="71"/>
+      <c r="AT21" s="69"/>
+      <c r="AU21" s="69"/>
+      <c r="AV21" s="69"/>
     </row>
     <row r="22" spans="1:48">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="97"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
@@ -5158,58 +5212,152 @@
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="97"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
+      <c r="T22" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="U22" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="V22" s="15">
+        <v>100</v>
+      </c>
+      <c r="W22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X22" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y22" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z22" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="97"/>
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
       <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="97"/>
-      <c r="AL22" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM22" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="120">
+      <c r="AG22" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="110"/>
+      <c r="AL22" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM22" s="80">
         <v>50</v>
       </c>
-      <c r="AO22" s="16"/>
-      <c r="AP22" s="16"/>
-      <c r="AQ22" s="110"/>
-      <c r="AR22" s="76"/>
-      <c r="AS22" s="19"/>
-      <c r="AT22" s="15"/>
-      <c r="AU22" s="15"/>
+      <c r="AN22" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO22" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS22" s="93">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU22" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="AV22" s="15"/>
     </row>
     <row r="23" spans="1:48">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
-      <c r="AL23" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM23" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="122">
-        <v>3</v>
-      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="97"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="110"/>
+      <c r="AL23" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM23" s="80">
+        <v>50</v>
+      </c>
+      <c r="AN23" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="16"/>
+      <c r="AQ23" s="110"/>
+      <c r="AR23" s="76"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="15"/>
     </row>
     <row r="24" spans="1:48">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="97"/>
       <c r="T24" s="69"/>
       <c r="U24" s="69"/>
       <c r="V24" s="69"/>
@@ -5243,18 +5391,31 @@
     <row r="25" spans="1:48">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="97"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="97"/>
       <c r="T25" s="15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="U25" s="15">
         <v>1</v>
       </c>
-      <c r="V25" s="15">
-        <v>7000</v>
+      <c r="V25" s="45">
+        <v>3500</v>
       </c>
       <c r="W25" s="15" t="s">
         <v>2</v>
@@ -5274,16 +5435,26 @@
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
       <c r="AF25" s="15"/>
-      <c r="AG25" s="16"/>
-      <c r="AH25" s="16"/>
+      <c r="AG25" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AI25" s="16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="16"/>
       <c r="AK25" s="110"/>
-      <c r="AL25" s="84"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="120"/>
+      <c r="AL25" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM25" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="AN25" s="119">
+        <v>3</v>
+      </c>
       <c r="AO25" s="16" t="b">
         <v>0</v>
       </c>
@@ -5318,46 +5489,46 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="133"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="102"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="102"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="56"/>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="112"/>
-      <c r="AL26" s="85"/>
-      <c r="AM26" s="58"/>
-      <c r="AN26" s="121"/>
-      <c r="AO26" s="57"/>
-      <c r="AP26" s="57"/>
-      <c r="AQ26" s="112"/>
-      <c r="AR26" s="78"/>
-      <c r="AS26" s="58"/>
-      <c r="AT26" s="56"/>
-      <c r="AU26" s="56"/>
-      <c r="AV26" s="56"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="69"/>
+      <c r="AA26" s="69"/>
+      <c r="AB26" s="69"/>
+      <c r="AC26" s="104"/>
+      <c r="AD26" s="69"/>
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="69"/>
+      <c r="AG26" s="70"/>
+      <c r="AH26" s="70"/>
+      <c r="AI26" s="70"/>
+      <c r="AJ26" s="70"/>
+      <c r="AK26" s="109"/>
+      <c r="AL26" s="83"/>
+      <c r="AM26" s="68"/>
+      <c r="AN26" s="117"/>
+      <c r="AO26" s="70"/>
+      <c r="AP26" s="70"/>
+      <c r="AQ26" s="109"/>
+      <c r="AR26" s="75"/>
+      <c r="AS26" s="71"/>
+      <c r="AT26" s="69"/>
+      <c r="AU26" s="69"/>
+      <c r="AV26" s="69"/>
     </row>
     <row r="27" spans="1:48">
       <c r="A27" s="15"/>
@@ -5368,94 +5539,86 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="J27" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" s="45">
-        <v>10</v>
-      </c>
-      <c r="L27" s="130">
-        <v>1</v>
-      </c>
-      <c r="M27" s="45">
-        <v>122</v>
-      </c>
-      <c r="N27" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="O27" s="130">
-        <v>10</v>
-      </c>
-      <c r="P27" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" s="15" t="s">
-        <v>78</v>
-      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
-      <c r="S27" s="97">
-        <v>1</v>
-      </c>
+      <c r="S27" s="97"/>
       <c r="T27" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="U27" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="V27" s="15">
-        <v>50</v>
+        <v>98</v>
+      </c>
+      <c r="U27" s="15">
+        <v>1</v>
+      </c>
+      <c r="V27" s="45">
+        <v>7000</v>
       </c>
       <c r="W27" s="15" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="X27" s="15" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Y27" s="15" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="Z27" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA27" s="15">
-        <v>20</v>
-      </c>
-      <c r="AB27" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC27" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD27" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE27" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF27" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG27" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="18"/>
-      <c r="AI27" s="18"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="108"/>
-      <c r="AL27" s="84"/>
-      <c r="AM27" s="18"/>
-      <c r="AN27" s="108"/>
-      <c r="AO27" s="16"/>
-      <c r="AP27" s="18"/>
-      <c r="AQ27" s="108"/>
-      <c r="AR27" s="74"/>
-      <c r="AS27" s="93"/>
-      <c r="AT27" s="18"/>
-      <c r="AU27" s="18"/>
-      <c r="AV27" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="97"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="16"/>
+      <c r="AK27" s="110"/>
+      <c r="AL27" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM27" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="AN27" s="119"/>
+      <c r="AO27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS27" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV27" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:48">
       <c r="A28" s="15"/>
@@ -5463,48 +5626,49 @@
       <c r="C28" s="15"/>
       <c r="D28" s="97"/>
       <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="97"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="69"/>
-      <c r="AC28" s="104"/>
-      <c r="AD28" s="69"/>
-      <c r="AE28" s="69"/>
-      <c r="AF28" s="69"/>
-      <c r="AG28" s="70"/>
-      <c r="AH28" s="70"/>
-      <c r="AI28" s="70"/>
-      <c r="AJ28" s="70"/>
-      <c r="AK28" s="109"/>
-      <c r="AL28" s="83"/>
-      <c r="AM28" s="68"/>
-      <c r="AN28" s="117"/>
-      <c r="AO28" s="70"/>
-      <c r="AP28" s="70"/>
-      <c r="AQ28" s="109"/>
-      <c r="AR28" s="75"/>
-      <c r="AS28" s="71"/>
-      <c r="AT28" s="69"/>
-      <c r="AU28" s="69"/>
-      <c r="AV28" s="69"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="133"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="102"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="112"/>
+      <c r="AL28" s="85"/>
+      <c r="AM28" s="58"/>
+      <c r="AN28" s="121"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="112"/>
+      <c r="AR28" s="78"/>
+      <c r="AS28" s="58"/>
+      <c r="AT28" s="56"/>
+      <c r="AU28" s="56"/>
+      <c r="AV28" s="56"/>
     </row>
     <row r="29" spans="1:48">
       <c r="A29" s="15"/>
@@ -5512,75 +5676,90 @@
       <c r="C29" s="15"/>
       <c r="D29" s="97"/>
       <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="I29" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" s="45">
+        <v>10</v>
+      </c>
+      <c r="L29" s="130">
+        <v>1</v>
+      </c>
+      <c r="M29" s="45">
+        <v>125</v>
+      </c>
+      <c r="N29" s="45">
+        <v>3.3</v>
+      </c>
+      <c r="O29" s="130">
+        <v>10</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="R29" s="15"/>
-      <c r="S29" s="97"/>
+      <c r="S29" s="97">
+        <v>1</v>
+      </c>
       <c r="T29" s="15" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="U29" s="45">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="V29" s="15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="W29" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="X29" s="15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Y29" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z29" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="97"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="16"/>
-      <c r="AK29" s="110"/>
-      <c r="AL29" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM29" s="80">
-        <v>50</v>
-      </c>
-      <c r="AN29" s="123" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO29" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="110" t="b">
-        <v>0</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15">
+        <v>20</v>
+      </c>
+      <c r="AB29" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC29" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD29" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE29" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF29" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG29" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="108"/>
+      <c r="AL29" s="84"/>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="108"/>
+      <c r="AO29" s="16"/>
+      <c r="AP29" s="18"/>
+      <c r="AQ29" s="108"/>
       <c r="AR29" s="74"/>
       <c r="AS29" s="93"/>
       <c r="AT29" s="18"/>
@@ -5606,41 +5785,35 @@
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="97"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="97"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="16"/>
-      <c r="AH30" s="16"/>
-      <c r="AI30" s="16"/>
-      <c r="AJ30" s="16"/>
-      <c r="AK30" s="110"/>
-      <c r="AL30" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM30" s="80">
-        <v>50</v>
-      </c>
-      <c r="AN30" s="123" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO30" s="16"/>
-      <c r="AP30" s="16"/>
-      <c r="AQ30" s="110"/>
-      <c r="AR30" s="76"/>
-      <c r="AS30" s="19"/>
-      <c r="AT30" s="15"/>
-      <c r="AU30" s="15"/>
-      <c r="AV30" s="15"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="69"/>
+      <c r="AB30" s="69"/>
+      <c r="AC30" s="104"/>
+      <c r="AD30" s="69"/>
+      <c r="AE30" s="69"/>
+      <c r="AF30" s="69"/>
+      <c r="AG30" s="70"/>
+      <c r="AH30" s="70"/>
+      <c r="AI30" s="70"/>
+      <c r="AJ30" s="70"/>
+      <c r="AK30" s="109"/>
+      <c r="AL30" s="83"/>
+      <c r="AM30" s="68"/>
+      <c r="AN30" s="117"/>
+      <c r="AO30" s="70"/>
+      <c r="AP30" s="70"/>
+      <c r="AQ30" s="109"/>
+      <c r="AR30" s="75"/>
+      <c r="AS30" s="71"/>
+      <c r="AT30" s="69"/>
+      <c r="AU30" s="69"/>
+      <c r="AV30" s="69"/>
     </row>
     <row r="31" spans="1:48">
       <c r="A31" s="15"/>
@@ -5661,44 +5834,83 @@
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
       <c r="S31" s="97"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="69"/>
-      <c r="AC31" s="104"/>
-      <c r="AD31" s="69"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="69"/>
-      <c r="AG31" s="70"/>
-      <c r="AH31" s="70"/>
-      <c r="AI31" s="70"/>
-      <c r="AJ31" s="70"/>
-      <c r="AK31" s="109"/>
-      <c r="AL31" s="83"/>
-      <c r="AM31" s="68"/>
-      <c r="AN31" s="117"/>
-      <c r="AO31" s="70"/>
-      <c r="AP31" s="70"/>
-      <c r="AQ31" s="109"/>
-      <c r="AR31" s="75"/>
-      <c r="AS31" s="71"/>
-      <c r="AT31" s="69"/>
-      <c r="AU31" s="69"/>
-      <c r="AV31" s="69"/>
+      <c r="T31" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="U31" s="15">
+        <v>1</v>
+      </c>
+      <c r="V31" s="15">
+        <v>3500</v>
+      </c>
+      <c r="W31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X31" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y31" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z31" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="97"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="16"/>
+      <c r="AK31" s="110"/>
+      <c r="AL31" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM31" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="120">
+        <v>50</v>
+      </c>
+      <c r="AO31" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS31" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV31" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" spans="1:48">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="97"/>
-      <c r="E32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
@@ -5710,46 +5922,26 @@
       <c r="Q32" s="15"/>
       <c r="R32" s="15"/>
       <c r="S32" s="97"/>
-      <c r="T32" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="U32" s="15">
-        <v>1</v>
-      </c>
-      <c r="V32" s="15">
-        <v>3500</v>
-      </c>
-      <c r="W32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X32" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y32" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z32" s="15" t="s">
-        <v>96</v>
-      </c>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
       <c r="AA32" s="15"/>
       <c r="AB32" s="15"/>
       <c r="AC32" s="97"/>
       <c r="AD32" s="15"/>
       <c r="AE32" s="15"/>
       <c r="AF32" s="15"/>
-      <c r="AG32" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI32" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="16"/>
-      <c r="AK32" s="110"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="97"/>
       <c r="AL32" s="84" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AM32" s="19">
         <v>0</v>
@@ -5757,197 +5949,179 @@
       <c r="AN32" s="120">
         <v>50</v>
       </c>
-      <c r="AO32" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR32" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS32" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT32" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV32" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="AO32" s="16"/>
+      <c r="AP32" s="16"/>
+      <c r="AQ32" s="110"/>
+      <c r="AR32" s="76"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="97"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="97"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="97"/>
-      <c r="AD33" s="15"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="15"/>
-      <c r="AH33" s="15"/>
-      <c r="AI33" s="15"/>
-      <c r="AJ33" s="15"/>
-      <c r="AK33" s="97"/>
       <c r="AL33" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM33" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN33" s="120">
-        <v>50</v>
-      </c>
-      <c r="AO33" s="16"/>
-      <c r="AP33" s="16"/>
-      <c r="AQ33" s="110"/>
-      <c r="AR33" s="76"/>
-      <c r="AS33" s="19"/>
-      <c r="AT33" s="15"/>
-      <c r="AU33" s="15"/>
-      <c r="AV33" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="AM33" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="122">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:48">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
-      <c r="AL34" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN34" s="122">
-        <v>3</v>
-      </c>
+      <c r="T34" s="69"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="69"/>
+      <c r="W34" s="69"/>
+      <c r="X34" s="69"/>
+      <c r="Y34" s="69"/>
+      <c r="Z34" s="69"/>
+      <c r="AA34" s="69"/>
+      <c r="AB34" s="69"/>
+      <c r="AC34" s="104"/>
+      <c r="AD34" s="69"/>
+      <c r="AE34" s="69"/>
+      <c r="AF34" s="69"/>
+      <c r="AG34" s="70"/>
+      <c r="AH34" s="70"/>
+      <c r="AI34" s="70"/>
+      <c r="AJ34" s="70"/>
+      <c r="AK34" s="109"/>
+      <c r="AL34" s="83"/>
+      <c r="AM34" s="68"/>
+      <c r="AN34" s="117"/>
+      <c r="AO34" s="70"/>
+      <c r="AP34" s="70"/>
+      <c r="AQ34" s="109"/>
+      <c r="AR34" s="75"/>
+      <c r="AS34" s="71"/>
+      <c r="AT34" s="69"/>
+      <c r="AU34" s="69"/>
+      <c r="AV34" s="69"/>
     </row>
     <row r="35" spans="1:48">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
-      <c r="T35" s="69"/>
-      <c r="U35" s="69"/>
-      <c r="V35" s="69"/>
-      <c r="W35" s="69"/>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="69"/>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
-      <c r="AB35" s="69"/>
-      <c r="AC35" s="104"/>
-      <c r="AD35" s="69"/>
-      <c r="AE35" s="69"/>
-      <c r="AF35" s="69"/>
-      <c r="AG35" s="70"/>
-      <c r="AH35" s="70"/>
-      <c r="AI35" s="70"/>
-      <c r="AJ35" s="70"/>
-      <c r="AK35" s="109"/>
-      <c r="AL35" s="83"/>
-      <c r="AM35" s="68"/>
-      <c r="AN35" s="117"/>
-      <c r="AO35" s="70"/>
-      <c r="AP35" s="70"/>
-      <c r="AQ35" s="109"/>
-      <c r="AR35" s="75"/>
-      <c r="AS35" s="71"/>
-      <c r="AT35" s="69"/>
-      <c r="AU35" s="69"/>
-      <c r="AV35" s="69"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="T35" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="U35" s="15">
+        <v>1</v>
+      </c>
+      <c r="V35" s="45">
+        <v>15000</v>
+      </c>
+      <c r="W35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X35" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y35" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z35" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="97"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="110"/>
+      <c r="AL35" s="84"/>
+      <c r="AM35" s="19"/>
+      <c r="AN35" s="120"/>
+      <c r="AO35" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS35" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV35" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="1:48">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="97"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
-      <c r="T36" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="U36" s="15">
-        <v>1</v>
-      </c>
-      <c r="V36" s="15">
-        <v>7000</v>
-      </c>
-      <c r="W36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X36" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y36" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z36" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="97"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="15"/>
-      <c r="AG36" s="16"/>
-      <c r="AH36" s="16"/>
-      <c r="AI36" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ36" s="16"/>
-      <c r="AK36" s="110"/>
-      <c r="AL36" s="84"/>
-      <c r="AM36" s="19"/>
-      <c r="AN36" s="120"/>
-      <c r="AO36" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP36" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR36" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS36" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT36" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV36" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="133"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="133"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="102"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="56"/>
+      <c r="AC36" s="102"/>
+      <c r="AD36" s="56"/>
+      <c r="AE36" s="56"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="57"/>
+      <c r="AH36" s="57"/>
+      <c r="AI36" s="57"/>
+      <c r="AJ36" s="57"/>
+      <c r="AK36" s="112"/>
+      <c r="AL36" s="85"/>
+      <c r="AM36" s="58"/>
+      <c r="AN36" s="121"/>
+      <c r="AO36" s="57"/>
+      <c r="AP36" s="57"/>
+      <c r="AQ36" s="112"/>
+      <c r="AR36" s="78"/>
+      <c r="AS36" s="58"/>
+      <c r="AT36" s="56"/>
+      <c r="AU36" s="56"/>
+      <c r="AV36" s="56"/>
     </row>
     <row r="37" spans="1:48">
       <c r="A37" s="15"/>
@@ -5958,46 +6132,94 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="133"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="133"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="102"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="102"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="56"/>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="57"/>
-      <c r="AH37" s="57"/>
-      <c r="AI37" s="57"/>
-      <c r="AJ37" s="57"/>
-      <c r="AK37" s="112"/>
-      <c r="AL37" s="85"/>
-      <c r="AM37" s="58"/>
-      <c r="AN37" s="121"/>
-      <c r="AO37" s="57"/>
-      <c r="AP37" s="57"/>
-      <c r="AQ37" s="112"/>
-      <c r="AR37" s="78"/>
-      <c r="AS37" s="58"/>
-      <c r="AT37" s="56"/>
-      <c r="AU37" s="56"/>
-      <c r="AV37" s="56"/>
+      <c r="I37" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" s="45">
+        <v>10</v>
+      </c>
+      <c r="L37" s="130">
+        <v>1</v>
+      </c>
+      <c r="M37" s="45">
+        <v>122</v>
+      </c>
+      <c r="N37" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="O37" s="130">
+        <v>10</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R37" s="15"/>
+      <c r="S37" s="97">
+        <v>1</v>
+      </c>
+      <c r="T37" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="U37" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="V37" s="15">
+        <v>50</v>
+      </c>
+      <c r="W37" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X37" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y37" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z37" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA37" s="15">
+        <v>20</v>
+      </c>
+      <c r="AB37" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC37" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD37" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE37" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF37" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG37" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="18"/>
+      <c r="AK37" s="108"/>
+      <c r="AL37" s="84"/>
+      <c r="AM37" s="18"/>
+      <c r="AN37" s="108"/>
+      <c r="AO37" s="16"/>
+      <c r="AP37" s="18"/>
+      <c r="AQ37" s="108"/>
+      <c r="AR37" s="74"/>
+      <c r="AS37" s="93"/>
+      <c r="AT37" s="18"/>
+      <c r="AU37" s="18"/>
+      <c r="AV37" s="15"/>
     </row>
     <row r="38" spans="1:48">
       <c r="A38" s="15"/>
@@ -6005,87 +6227,48 @@
       <c r="C38" s="15"/>
       <c r="D38" s="97"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J38" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="K38" s="41">
-        <v>0</v>
-      </c>
-      <c r="L38" s="134">
-        <v>0</v>
-      </c>
-      <c r="M38" s="41">
-        <v>700</v>
-      </c>
-      <c r="N38" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="O38" s="134">
-        <v>0</v>
-      </c>
-      <c r="P38" s="94"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="99"/>
-      <c r="T38" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="U38" s="15">
-        <v>0.99</v>
-      </c>
-      <c r="V38" s="15">
-        <v>0</v>
-      </c>
-      <c r="W38" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="X38" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y38" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z38" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15"/>
-      <c r="AF38" s="15"/>
-      <c r="AG38" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH38" s="18"/>
-      <c r="AI38" s="18"/>
-      <c r="AJ38" s="18"/>
-      <c r="AK38" s="108"/>
-      <c r="AL38" s="84"/>
-      <c r="AM38" s="19"/>
-      <c r="AN38" s="120"/>
-      <c r="AO38" s="145"/>
-      <c r="AP38" s="145" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ38" s="146"/>
-      <c r="AR38" s="76"/>
-      <c r="AS38" s="19"/>
-      <c r="AT38" s="15"/>
-      <c r="AU38" s="15"/>
-      <c r="AV38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="131"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="131"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="97"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="69"/>
+      <c r="W38" s="69"/>
+      <c r="X38" s="69"/>
+      <c r="Y38" s="69"/>
+      <c r="Z38" s="69"/>
+      <c r="AA38" s="69"/>
+      <c r="AB38" s="69"/>
+      <c r="AC38" s="104"/>
+      <c r="AD38" s="69"/>
+      <c r="AE38" s="69"/>
+      <c r="AF38" s="69"/>
+      <c r="AG38" s="70"/>
+      <c r="AH38" s="70"/>
+      <c r="AI38" s="70"/>
+      <c r="AJ38" s="70"/>
+      <c r="AK38" s="109"/>
+      <c r="AL38" s="83"/>
+      <c r="AM38" s="68"/>
+      <c r="AN38" s="117"/>
+      <c r="AO38" s="70"/>
+      <c r="AP38" s="70"/>
+      <c r="AQ38" s="109"/>
+      <c r="AR38" s="75"/>
+      <c r="AS38" s="71"/>
+      <c r="AT38" s="69"/>
+      <c r="AU38" s="69"/>
+      <c r="AV38" s="69"/>
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="15"/>
@@ -6093,7 +6276,6 @@
       <c r="C39" s="15"/>
       <c r="D39" s="97"/>
       <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
@@ -6107,35 +6289,67 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
       <c r="S39" s="97"/>
-      <c r="T39" s="69"/>
-      <c r="U39" s="69"/>
-      <c r="V39" s="69"/>
-      <c r="W39" s="69"/>
-      <c r="X39" s="69"/>
-      <c r="Y39" s="69"/>
-      <c r="Z39" s="69"/>
-      <c r="AA39" s="69"/>
-      <c r="AB39" s="69"/>
-      <c r="AC39" s="104"/>
-      <c r="AD39" s="69"/>
-      <c r="AE39" s="69"/>
-      <c r="AF39" s="69"/>
-      <c r="AG39" s="70"/>
-      <c r="AH39" s="70"/>
-      <c r="AI39" s="70"/>
-      <c r="AJ39" s="70"/>
-      <c r="AK39" s="109"/>
-      <c r="AL39" s="83"/>
-      <c r="AM39" s="140"/>
-      <c r="AN39" s="141"/>
-      <c r="AO39" s="142"/>
-      <c r="AP39" s="142"/>
-      <c r="AQ39" s="143"/>
-      <c r="AR39" s="144"/>
-      <c r="AS39" s="71"/>
-      <c r="AT39" s="69"/>
-      <c r="AU39" s="69"/>
-      <c r="AV39" s="69"/>
+      <c r="T39" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="U39" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="V39" s="15">
+        <v>100</v>
+      </c>
+      <c r="W39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X39" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y39" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z39" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="97"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="110"/>
+      <c r="AL39" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM39" s="80">
+        <v>50</v>
+      </c>
+      <c r="AN39" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO39" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="74"/>
+      <c r="AS39" s="93"/>
+      <c r="AT39" s="18"/>
+      <c r="AU39" s="18"/>
+      <c r="AV39" s="15"/>
     </row>
     <row r="40" spans="1:48">
       <c r="A40" s="15"/>
@@ -6143,7 +6357,6 @@
       <c r="C40" s="15"/>
       <c r="D40" s="97"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
@@ -6157,62 +6370,40 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="97"/>
-      <c r="T40" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="U40" s="15">
-        <v>1</v>
-      </c>
-      <c r="V40" s="15">
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="97"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="16"/>
+      <c r="AH40" s="16"/>
+      <c r="AI40" s="16"/>
+      <c r="AJ40" s="16"/>
+      <c r="AK40" s="110"/>
+      <c r="AL40" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM40" s="80">
         <v>50</v>
       </c>
-      <c r="W40" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="X40" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y40" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15">
-        <v>20</v>
-      </c>
-      <c r="AB40" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC40" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD40" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE40" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF40" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG40" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH40" s="18"/>
-      <c r="AI40" s="18"/>
-      <c r="AJ40" s="18"/>
-      <c r="AK40" s="108"/>
-      <c r="AL40" s="84"/>
-      <c r="AM40" s="19"/>
-      <c r="AN40" s="120"/>
-      <c r="AO40" s="145"/>
-      <c r="AP40" s="145" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ40" s="146"/>
-      <c r="AR40" s="74"/>
-      <c r="AS40" s="93"/>
-      <c r="AT40" s="18"/>
-      <c r="AU40" s="18"/>
+      <c r="AN40" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO40" s="16"/>
+      <c r="AP40" s="16"/>
+      <c r="AQ40" s="110"/>
+      <c r="AR40" s="76"/>
+      <c r="AS40" s="19"/>
+      <c r="AT40" s="15"/>
+      <c r="AU40" s="15"/>
       <c r="AV40" s="15"/>
     </row>
     <row r="41" spans="1:48">
@@ -6221,7 +6412,6 @@
       <c r="C41" s="15"/>
       <c r="D41" s="97"/>
       <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
@@ -6268,14 +6458,30 @@
     <row r="42" spans="1:48">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="131"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="131"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="97"/>
       <c r="T42" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U42" s="15">
         <v>1</v>
       </c>
       <c r="V42" s="15">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="W42" s="15" t="s">
         <v>2</v>
@@ -6295,16 +6501,26 @@
       <c r="AD42" s="15"/>
       <c r="AE42" s="15"/>
       <c r="AF42" s="15"/>
-      <c r="AG42" s="16"/>
-      <c r="AH42" s="16"/>
+      <c r="AG42" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AI42" s="16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="16"/>
       <c r="AK42" s="110"/>
-      <c r="AL42" s="84"/>
-      <c r="AM42" s="19"/>
-      <c r="AN42" s="120"/>
+      <c r="AL42" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="120">
+        <v>50</v>
+      </c>
       <c r="AO42" s="16" t="b">
         <v>0</v>
       </c>
@@ -6335,142 +6551,65 @@
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="97"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="133"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="133"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="102"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="56"/>
-      <c r="AC43" s="102"/>
-      <c r="AD43" s="56"/>
-      <c r="AE43" s="56"/>
-      <c r="AF43" s="56"/>
-      <c r="AG43" s="57"/>
-      <c r="AH43" s="57"/>
-      <c r="AI43" s="57"/>
-      <c r="AJ43" s="57"/>
-      <c r="AK43" s="112"/>
-      <c r="AL43" s="85"/>
-      <c r="AM43" s="58"/>
-      <c r="AN43" s="121"/>
-      <c r="AO43" s="57"/>
-      <c r="AP43" s="57"/>
-      <c r="AQ43" s="112"/>
-      <c r="AR43" s="78"/>
-      <c r="AS43" s="58"/>
-      <c r="AT43" s="56"/>
-      <c r="AU43" s="56"/>
-      <c r="AV43" s="56"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="131"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="97"/>
+      <c r="AD43" s="15"/>
+      <c r="AE43" s="15"/>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="15"/>
+      <c r="AH43" s="15"/>
+      <c r="AI43" s="15"/>
+      <c r="AJ43" s="15"/>
+      <c r="AK43" s="97"/>
+      <c r="AL43" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="120">
+        <v>50</v>
+      </c>
+      <c r="AO43" s="16"/>
+      <c r="AP43" s="16"/>
+      <c r="AQ43" s="110"/>
+      <c r="AR43" s="76"/>
+      <c r="AS43" s="19"/>
+      <c r="AT43" s="15"/>
+      <c r="AU43" s="15"/>
+      <c r="AV43" s="15"/>
     </row>
     <row r="44" spans="1:48">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J44" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="K44" s="41">
-        <v>0</v>
-      </c>
-      <c r="L44" s="134">
-        <v>0</v>
-      </c>
-      <c r="M44" s="41">
-        <v>515</v>
-      </c>
-      <c r="N44" s="41">
-        <v>1</v>
-      </c>
-      <c r="O44" s="134">
-        <v>0</v>
-      </c>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="97"/>
-      <c r="T44" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="U44" s="15">
-        <v>1</v>
-      </c>
-      <c r="V44" s="15">
-        <v>0</v>
-      </c>
-      <c r="W44" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="X44" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y44" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z44" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC44" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD44" s="15"/>
-      <c r="AE44" s="15"/>
-      <c r="AF44" s="15"/>
-      <c r="AG44" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH44" s="18"/>
-      <c r="AI44" s="18"/>
-      <c r="AJ44" s="18"/>
-      <c r="AK44" s="108"/>
-      <c r="AL44" s="84"/>
-      <c r="AM44" s="19"/>
-      <c r="AN44" s="120"/>
-      <c r="AO44" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP44" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ44" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44" s="76"/>
-      <c r="AS44" s="19"/>
-      <c r="AT44" s="15"/>
-      <c r="AU44" s="15"/>
-      <c r="AV44" s="15"/>
+      <c r="AL44" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM44" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="122">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:48">
       <c r="A45" s="15"/>
@@ -6508,14 +6647,18 @@
     <row r="46" spans="1:48">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
       <c r="T46" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U46" s="15">
         <v>1</v>
       </c>
-      <c r="V46" s="15">
-        <v>7000</v>
+      <c r="V46" s="45">
+        <v>15000</v>
       </c>
       <c r="W46" s="15" t="s">
         <v>2</v>
@@ -6630,10 +6773,10 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J48" s="41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K48" s="41">
         <v>0</v>
@@ -6642,23 +6785,23 @@
         <v>0</v>
       </c>
       <c r="M48" s="41">
-        <v>620</v>
+        <v>700</v>
       </c>
       <c r="N48" s="41">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O48" s="134">
         <v>0</v>
       </c>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="97"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="99"/>
       <c r="T48" s="15" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="U48" s="15">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="V48" s="15">
         <v>0</v>
@@ -6682,7 +6825,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="97" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AD48" s="15"/>
       <c r="AE48" s="15"/>
@@ -6697,15 +6840,11 @@
       <c r="AL48" s="84"/>
       <c r="AM48" s="19"/>
       <c r="AN48" s="120"/>
-      <c r="AO48" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP48" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ48" s="110" t="b">
-        <v>0</v>
-      </c>
+      <c r="AO48" s="145"/>
+      <c r="AP48" s="145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ48" s="146"/>
       <c r="AR48" s="76"/>
       <c r="AS48" s="19"/>
       <c r="AT48" s="15"/>
@@ -6751,12 +6890,12 @@
       <c r="AJ49" s="70"/>
       <c r="AK49" s="109"/>
       <c r="AL49" s="83"/>
-      <c r="AM49" s="68"/>
-      <c r="AN49" s="117"/>
-      <c r="AO49" s="70"/>
-      <c r="AP49" s="70"/>
-      <c r="AQ49" s="109"/>
-      <c r="AR49" s="75"/>
+      <c r="AM49" s="140"/>
+      <c r="AN49" s="141"/>
+      <c r="AO49" s="142"/>
+      <c r="AP49" s="142"/>
+      <c r="AQ49" s="143"/>
+      <c r="AR49" s="144"/>
       <c r="AS49" s="71"/>
       <c r="AT49" s="69"/>
       <c r="AU49" s="69"/>
@@ -6765,67 +6904,80 @@
     <row r="50" spans="1:48">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="131"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="131"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="97"/>
       <c r="T50" s="15" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="U50" s="15">
         <v>1</v>
       </c>
       <c r="V50" s="15">
-        <v>7000</v>
+        <v>50</v>
       </c>
       <c r="W50" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="X50" s="15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="Y50" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z50" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA50" s="15"/>
-      <c r="AB50" s="15"/>
-      <c r="AC50" s="97"/>
-      <c r="AD50" s="15"/>
-      <c r="AE50" s="15"/>
-      <c r="AF50" s="15"/>
-      <c r="AG50" s="16"/>
-      <c r="AH50" s="16"/>
-      <c r="AI50" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ50" s="16"/>
-      <c r="AK50" s="110"/>
+        <v>81</v>
+      </c>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15">
+        <v>20</v>
+      </c>
+      <c r="AB50" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC50" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD50" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE50" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF50" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG50" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="18"/>
+      <c r="AI50" s="18"/>
+      <c r="AJ50" s="18"/>
+      <c r="AK50" s="108"/>
       <c r="AL50" s="84"/>
       <c r="AM50" s="19"/>
       <c r="AN50" s="120"/>
-      <c r="AO50" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP50" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ50" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR50" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS50" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT50" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU50" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV50" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="AO50" s="145"/>
+      <c r="AP50" s="145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ50" s="146"/>
+      <c r="AR50" s="74"/>
+      <c r="AS50" s="93"/>
+      <c r="AT50" s="18"/>
+      <c r="AU50" s="18"/>
+      <c r="AV50" s="15"/>
     </row>
     <row r="51" spans="1:48">
       <c r="A51" s="15"/>
@@ -6836,132 +6988,87 @@
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="133"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="133"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="102"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="56"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="56"/>
-      <c r="X51" s="56"/>
-      <c r="Y51" s="56"/>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="56"/>
-      <c r="AB51" s="56"/>
-      <c r="AC51" s="102"/>
-      <c r="AD51" s="56"/>
-      <c r="AE51" s="56"/>
-      <c r="AF51" s="56"/>
-      <c r="AG51" s="57"/>
-      <c r="AH51" s="57"/>
-      <c r="AI51" s="57"/>
-      <c r="AJ51" s="57"/>
-      <c r="AK51" s="112"/>
-      <c r="AL51" s="85"/>
-      <c r="AM51" s="58"/>
-      <c r="AN51" s="121"/>
-      <c r="AO51" s="57"/>
-      <c r="AP51" s="57"/>
-      <c r="AQ51" s="112"/>
-      <c r="AR51" s="78"/>
-      <c r="AS51" s="58"/>
-      <c r="AT51" s="56"/>
-      <c r="AU51" s="56"/>
-      <c r="AV51" s="56"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="131"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="131"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="97"/>
+      <c r="T51" s="69"/>
+      <c r="U51" s="69"/>
+      <c r="V51" s="69"/>
+      <c r="W51" s="69"/>
+      <c r="X51" s="69"/>
+      <c r="Y51" s="69"/>
+      <c r="Z51" s="69"/>
+      <c r="AA51" s="69"/>
+      <c r="AB51" s="69"/>
+      <c r="AC51" s="104"/>
+      <c r="AD51" s="69"/>
+      <c r="AE51" s="69"/>
+      <c r="AF51" s="69"/>
+      <c r="AG51" s="70"/>
+      <c r="AH51" s="70"/>
+      <c r="AI51" s="70"/>
+      <c r="AJ51" s="70"/>
+      <c r="AK51" s="109"/>
+      <c r="AL51" s="83"/>
+      <c r="AM51" s="68"/>
+      <c r="AN51" s="117"/>
+      <c r="AO51" s="70"/>
+      <c r="AP51" s="70"/>
+      <c r="AQ51" s="109"/>
+      <c r="AR51" s="75"/>
+      <c r="AS51" s="71"/>
+      <c r="AT51" s="69"/>
+      <c r="AU51" s="69"/>
+      <c r="AV51" s="69"/>
     </row>
     <row r="52" spans="1:48">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="J52" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="K52" s="41">
-        <v>20</v>
-      </c>
-      <c r="L52" s="134">
-        <v>1</v>
-      </c>
-      <c r="M52" s="41">
-        <v>161</v>
-      </c>
-      <c r="N52" s="41">
-        <v>3.5</v>
-      </c>
-      <c r="O52" s="134">
-        <v>30</v>
-      </c>
-      <c r="P52" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q52" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R52" s="15">
-        <v>25</v>
-      </c>
-      <c r="S52" s="97">
+      <c r="T52" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="U52" s="15">
+        <v>1</v>
+      </c>
+      <c r="V52" s="45">
+        <v>15000</v>
+      </c>
+      <c r="W52" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T52" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="U52" s="15">
-        <v>1</v>
-      </c>
-      <c r="V52" s="15">
-        <v>0</v>
-      </c>
-      <c r="W52" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="X52" s="15" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Y52" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z52" s="15"/>
+        <v>90</v>
+      </c>
+      <c r="Z52" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
-      <c r="AC52" s="97" t="s">
-        <v>83</v>
-      </c>
+      <c r="AC52" s="97"/>
       <c r="AD52" s="15"/>
       <c r="AE52" s="15"/>
       <c r="AF52" s="15"/>
-      <c r="AG52" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH52" s="18"/>
-      <c r="AI52" s="18"/>
-      <c r="AJ52" s="18"/>
-      <c r="AK52" s="108"/>
-      <c r="AL52" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM52" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN52" s="120">
-        <v>50</v>
-      </c>
+      <c r="AG52" s="16"/>
+      <c r="AH52" s="16"/>
+      <c r="AI52" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ52" s="16"/>
+      <c r="AK52" s="110"/>
+      <c r="AL52" s="84"/>
+      <c r="AM52" s="19"/>
+      <c r="AN52" s="120"/>
       <c r="AO52" s="16" t="b">
         <v>0</v>
       </c>
@@ -6971,11 +7078,21 @@
       <c r="AQ52" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="AR52" s="76"/>
-      <c r="AS52" s="19"/>
-      <c r="AT52" s="15"/>
-      <c r="AU52" s="15"/>
-      <c r="AV52" s="15"/>
+      <c r="AR52" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS52" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT52" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU52" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV52" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="53" spans="1:48">
       <c r="A53" s="15"/>
@@ -6986,122 +7103,124 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="131"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="131"/>
-      <c r="P53" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q53" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R53" s="15">
-        <v>50</v>
-      </c>
-      <c r="S53" s="97">
-        <v>2</v>
-      </c>
-      <c r="T53" s="69"/>
-      <c r="U53" s="69"/>
-      <c r="V53" s="69"/>
-      <c r="W53" s="69"/>
-      <c r="X53" s="69"/>
-      <c r="Y53" s="69"/>
-      <c r="Z53" s="69"/>
-      <c r="AA53" s="69"/>
-      <c r="AB53" s="69"/>
-      <c r="AC53" s="104"/>
-      <c r="AD53" s="69"/>
-      <c r="AE53" s="69"/>
-      <c r="AF53" s="69"/>
-      <c r="AG53" s="70"/>
-      <c r="AH53" s="70"/>
-      <c r="AI53" s="70"/>
-      <c r="AJ53" s="70"/>
-      <c r="AK53" s="109"/>
-      <c r="AL53" s="83"/>
-      <c r="AM53" s="68"/>
-      <c r="AN53" s="117"/>
-      <c r="AO53" s="70"/>
-      <c r="AP53" s="70"/>
-      <c r="AQ53" s="109"/>
-      <c r="AR53" s="75"/>
-      <c r="AS53" s="71"/>
-      <c r="AT53" s="69"/>
-      <c r="AU53" s="69"/>
-      <c r="AV53" s="69"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="133"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="133"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="102"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="56"/>
+      <c r="Z53" s="56"/>
+      <c r="AA53" s="56"/>
+      <c r="AB53" s="56"/>
+      <c r="AC53" s="102"/>
+      <c r="AD53" s="56"/>
+      <c r="AE53" s="56"/>
+      <c r="AF53" s="56"/>
+      <c r="AG53" s="57"/>
+      <c r="AH53" s="57"/>
+      <c r="AI53" s="57"/>
+      <c r="AJ53" s="57"/>
+      <c r="AK53" s="112"/>
+      <c r="AL53" s="85"/>
+      <c r="AM53" s="58"/>
+      <c r="AN53" s="121"/>
+      <c r="AO53" s="57"/>
+      <c r="AP53" s="57"/>
+      <c r="AQ53" s="112"/>
+      <c r="AR53" s="78"/>
+      <c r="AS53" s="58"/>
+      <c r="AT53" s="56"/>
+      <c r="AU53" s="56"/>
+      <c r="AV53" s="56"/>
     </row>
     <row r="54" spans="1:48">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
-      <c r="D54" s="99"/>
+      <c r="D54" s="97"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="131"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="131"/>
+      <c r="I54" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J54" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="K54" s="41">
+        <v>0</v>
+      </c>
+      <c r="L54" s="134">
+        <v>0</v>
+      </c>
+      <c r="M54" s="41">
+        <v>515</v>
+      </c>
+      <c r="N54" s="41">
+        <v>1</v>
+      </c>
+      <c r="O54" s="134">
+        <v>0</v>
+      </c>
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
       <c r="R54" s="15"/>
       <c r="S54" s="97"/>
       <c r="T54" s="15" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="U54" s="15">
         <v>1</v>
       </c>
       <c r="V54" s="15">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="W54" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="X54" s="15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="Y54" s="15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Z54" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA54" s="15"/>
-      <c r="AB54" s="15"/>
-      <c r="AC54" s="97"/>
+        <v>82</v>
+      </c>
+      <c r="AA54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="97" t="s">
+        <v>107</v>
+      </c>
       <c r="AD54" s="15"/>
       <c r="AE54" s="15"/>
       <c r="AF54" s="15"/>
-      <c r="AG54" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH54" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI54" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="16"/>
-      <c r="AK54" s="110"/>
-      <c r="AL54" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM54" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN54" s="120">
-        <v>50</v>
-      </c>
+      <c r="AG54" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH54" s="18"/>
+      <c r="AI54" s="18"/>
+      <c r="AJ54" s="18"/>
+      <c r="AK54" s="108"/>
+      <c r="AL54" s="84"/>
+      <c r="AM54" s="19"/>
+      <c r="AN54" s="120"/>
       <c r="AO54" s="16" t="b">
         <v>0</v>
       </c>
@@ -7111,161 +7230,234 @@
       <c r="AQ54" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="AR54" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS54" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT54" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU54" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV54" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="AR54" s="76"/>
+      <c r="AS54" s="19"/>
+      <c r="AT54" s="15"/>
+      <c r="AU54" s="15"/>
+      <c r="AV54" s="15"/>
     </row>
     <row r="55" spans="1:48">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="131"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="131"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="97"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="15"/>
-      <c r="AA55" s="15"/>
-      <c r="AB55" s="15"/>
-      <c r="AC55" s="97"/>
-      <c r="AD55" s="15"/>
-      <c r="AE55" s="15"/>
-      <c r="AF55" s="15"/>
-      <c r="AG55" s="15"/>
-      <c r="AH55" s="15"/>
-      <c r="AI55" s="15"/>
-      <c r="AJ55" s="15"/>
-      <c r="AK55" s="97"/>
-      <c r="AL55" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM55" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN55" s="120">
-        <v>50</v>
-      </c>
-      <c r="AO55" s="16"/>
-      <c r="AP55" s="16"/>
-      <c r="AQ55" s="110"/>
-      <c r="AR55" s="76"/>
-      <c r="AS55" s="19"/>
-      <c r="AT55" s="15"/>
-      <c r="AU55" s="15"/>
-      <c r="AV55" s="15"/>
+      <c r="T55" s="69"/>
+      <c r="U55" s="69"/>
+      <c r="V55" s="69"/>
+      <c r="W55" s="69"/>
+      <c r="X55" s="69"/>
+      <c r="Y55" s="69"/>
+      <c r="Z55" s="69"/>
+      <c r="AA55" s="69"/>
+      <c r="AB55" s="69"/>
+      <c r="AC55" s="104"/>
+      <c r="AD55" s="69"/>
+      <c r="AE55" s="69"/>
+      <c r="AF55" s="69"/>
+      <c r="AG55" s="70"/>
+      <c r="AH55" s="70"/>
+      <c r="AI55" s="70"/>
+      <c r="AJ55" s="70"/>
+      <c r="AK55" s="109"/>
+      <c r="AL55" s="83"/>
+      <c r="AM55" s="68"/>
+      <c r="AN55" s="117"/>
+      <c r="AO55" s="70"/>
+      <c r="AP55" s="70"/>
+      <c r="AQ55" s="109"/>
+      <c r="AR55" s="75"/>
+      <c r="AS55" s="71"/>
+      <c r="AT55" s="69"/>
+      <c r="AU55" s="69"/>
+      <c r="AV55" s="69"/>
     </row>
     <row r="56" spans="1:48">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
-      <c r="AL56" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM56" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN56" s="122">
-        <v>3</v>
+      <c r="T56" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="U56" s="15">
+        <v>1</v>
+      </c>
+      <c r="V56" s="45">
+        <v>15000</v>
+      </c>
+      <c r="W56" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X56" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y56" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z56" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="97"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="15"/>
+      <c r="AF56" s="15"/>
+      <c r="AG56" s="16"/>
+      <c r="AH56" s="16"/>
+      <c r="AI56" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ56" s="16"/>
+      <c r="AK56" s="110"/>
+      <c r="AL56" s="84"/>
+      <c r="AM56" s="19"/>
+      <c r="AN56" s="120"/>
+      <c r="AO56" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP56" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR56" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS56" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT56" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU56" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV56" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:48">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
-      <c r="T57" s="69"/>
-      <c r="U57" s="69"/>
-      <c r="V57" s="69"/>
-      <c r="W57" s="69"/>
-      <c r="X57" s="69"/>
-      <c r="Y57" s="69"/>
-      <c r="Z57" s="69"/>
-      <c r="AA57" s="69"/>
-      <c r="AB57" s="69"/>
-      <c r="AC57" s="104"/>
-      <c r="AD57" s="69"/>
-      <c r="AE57" s="69"/>
-      <c r="AF57" s="69"/>
-      <c r="AG57" s="70"/>
-      <c r="AH57" s="70"/>
-      <c r="AI57" s="70"/>
-      <c r="AJ57" s="70"/>
-      <c r="AK57" s="109"/>
-      <c r="AL57" s="83"/>
-      <c r="AM57" s="68"/>
-      <c r="AN57" s="117"/>
-      <c r="AO57" s="70"/>
-      <c r="AP57" s="70"/>
-      <c r="AQ57" s="109"/>
-      <c r="AR57" s="75"/>
-      <c r="AS57" s="71"/>
-      <c r="AT57" s="69"/>
-      <c r="AU57" s="69"/>
-      <c r="AV57" s="69"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="133"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="133"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="102"/>
+      <c r="T57" s="56"/>
+      <c r="U57" s="56"/>
+      <c r="V57" s="56"/>
+      <c r="W57" s="56"/>
+      <c r="X57" s="56"/>
+      <c r="Y57" s="56"/>
+      <c r="Z57" s="56"/>
+      <c r="AA57" s="56"/>
+      <c r="AB57" s="56"/>
+      <c r="AC57" s="102"/>
+      <c r="AD57" s="56"/>
+      <c r="AE57" s="56"/>
+      <c r="AF57" s="56"/>
+      <c r="AG57" s="57"/>
+      <c r="AH57" s="57"/>
+      <c r="AI57" s="57"/>
+      <c r="AJ57" s="57"/>
+      <c r="AK57" s="112"/>
+      <c r="AL57" s="85"/>
+      <c r="AM57" s="58"/>
+      <c r="AN57" s="121"/>
+      <c r="AO57" s="57"/>
+      <c r="AP57" s="57"/>
+      <c r="AQ57" s="112"/>
+      <c r="AR57" s="78"/>
+      <c r="AS57" s="58"/>
+      <c r="AT57" s="56"/>
+      <c r="AU57" s="56"/>
+      <c r="AV57" s="56"/>
     </row>
     <row r="58" spans="1:48">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J58" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="K58" s="41">
+        <v>0</v>
+      </c>
+      <c r="L58" s="134">
+        <v>0</v>
+      </c>
+      <c r="M58" s="41">
+        <v>620</v>
+      </c>
+      <c r="N58" s="41">
+        <v>2.1</v>
+      </c>
+      <c r="O58" s="134">
+        <v>0</v>
+      </c>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="97"/>
       <c r="T58" s="15" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="U58" s="15">
         <v>1</v>
       </c>
       <c r="V58" s="15">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="W58" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="X58" s="15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="Y58" s="15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Z58" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA58" s="15"/>
-      <c r="AB58" s="15"/>
-      <c r="AC58" s="97"/>
+        <v>82</v>
+      </c>
+      <c r="AA58" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="97" t="s">
+        <v>107</v>
+      </c>
       <c r="AD58" s="15"/>
       <c r="AE58" s="15"/>
       <c r="AF58" s="15"/>
-      <c r="AG58" s="16"/>
-      <c r="AH58" s="16"/>
-      <c r="AI58" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ58" s="16"/>
-      <c r="AK58" s="110"/>
+      <c r="AG58" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="18"/>
+      <c r="AI58" s="18"/>
+      <c r="AJ58" s="18"/>
+      <c r="AK58" s="108"/>
       <c r="AL58" s="84"/>
       <c r="AM58" s="19"/>
       <c r="AN58" s="120"/>
@@ -7278,225 +7470,176 @@
       <c r="AQ58" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="AR58" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS58" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT58" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU58" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV58" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:48" ht="12" customHeight="1">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="129"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="129"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="59"/>
-      <c r="S59" s="96"/>
-      <c r="T59" s="59"/>
-      <c r="U59" s="59"/>
-      <c r="V59" s="59"/>
-      <c r="W59" s="59"/>
-      <c r="X59" s="59"/>
-      <c r="Y59" s="59"/>
-      <c r="Z59" s="59"/>
-      <c r="AA59" s="59"/>
-      <c r="AB59" s="59"/>
-      <c r="AC59" s="96"/>
-      <c r="AD59" s="59"/>
-      <c r="AE59" s="59"/>
-      <c r="AF59" s="59"/>
-      <c r="AG59" s="61"/>
-      <c r="AH59" s="61"/>
-      <c r="AI59" s="61"/>
-      <c r="AJ59" s="60"/>
-      <c r="AK59" s="107"/>
-      <c r="AL59" s="81"/>
-      <c r="AM59" s="62"/>
-      <c r="AN59" s="115"/>
-      <c r="AO59" s="61"/>
-      <c r="AP59" s="61"/>
-      <c r="AQ59" s="126"/>
-      <c r="AR59" s="73"/>
-      <c r="AS59" s="62"/>
-      <c r="AT59" s="59"/>
-      <c r="AU59" s="59"/>
-      <c r="AV59" s="59"/>
+      <c r="AR58" s="76"/>
+      <c r="AS58" s="19"/>
+      <c r="AT58" s="15"/>
+      <c r="AU58" s="15"/>
+      <c r="AV58" s="15"/>
+    </row>
+    <row r="59" spans="1:48">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="131"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="131"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="97"/>
+      <c r="T59" s="69"/>
+      <c r="U59" s="69"/>
+      <c r="V59" s="69"/>
+      <c r="W59" s="69"/>
+      <c r="X59" s="69"/>
+      <c r="Y59" s="69"/>
+      <c r="Z59" s="69"/>
+      <c r="AA59" s="69"/>
+      <c r="AB59" s="69"/>
+      <c r="AC59" s="104"/>
+      <c r="AD59" s="69"/>
+      <c r="AE59" s="69"/>
+      <c r="AF59" s="69"/>
+      <c r="AG59" s="70"/>
+      <c r="AH59" s="70"/>
+      <c r="AI59" s="70"/>
+      <c r="AJ59" s="70"/>
+      <c r="AK59" s="109"/>
+      <c r="AL59" s="83"/>
+      <c r="AM59" s="68"/>
+      <c r="AN59" s="117"/>
+      <c r="AO59" s="70"/>
+      <c r="AP59" s="70"/>
+      <c r="AQ59" s="109"/>
+      <c r="AR59" s="75"/>
+      <c r="AS59" s="71"/>
+      <c r="AT59" s="69"/>
+      <c r="AU59" s="69"/>
+      <c r="AV59" s="69"/>
     </row>
     <row r="60" spans="1:48">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="99" t="s">
-        <v>109</v>
-      </c>
-      <c r="E60" t="s">
-        <v>110</v>
-      </c>
-      <c r="F60" t="s">
-        <v>103</v>
-      </c>
-      <c r="G60" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="J60" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="K60" s="41">
-        <v>20</v>
-      </c>
-      <c r="L60" s="134">
-        <v>1</v>
-      </c>
-      <c r="M60" s="41">
-        <v>50</v>
-      </c>
-      <c r="N60" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="O60" s="134">
-        <v>10</v>
-      </c>
-      <c r="P60" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="97"/>
       <c r="T60" s="15" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="U60" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="V60" s="15">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="V60" s="45">
+        <v>15000</v>
       </c>
       <c r="W60" s="15" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="X60" s="15" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Y60" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z60" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA60" s="15">
-        <v>20</v>
-      </c>
-      <c r="AB60" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC60" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD60" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE60" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF60" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG60" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH60" s="18"/>
-      <c r="AI60" s="18"/>
-      <c r="AJ60" s="18"/>
-      <c r="AK60" s="108"/>
-      <c r="AL60" s="86"/>
-      <c r="AM60" s="18"/>
-      <c r="AN60" s="108"/>
-      <c r="AO60" s="18"/>
-      <c r="AP60" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ60" s="108"/>
-      <c r="AR60" s="74"/>
-      <c r="AS60" s="93"/>
-      <c r="AT60" s="18"/>
-      <c r="AU60" s="18"/>
-      <c r="AV60" s="15"/>
+        <v>90</v>
+      </c>
+      <c r="Z60" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA60" s="15"/>
+      <c r="AB60" s="15"/>
+      <c r="AC60" s="97"/>
+      <c r="AD60" s="15"/>
+      <c r="AE60" s="15"/>
+      <c r="AF60" s="15"/>
+      <c r="AG60" s="16"/>
+      <c r="AH60" s="16"/>
+      <c r="AI60" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ60" s="16"/>
+      <c r="AK60" s="110"/>
+      <c r="AL60" s="84"/>
+      <c r="AM60" s="19"/>
+      <c r="AN60" s="120"/>
+      <c r="AO60" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP60" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ60" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR60" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS60" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT60" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU60" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV60" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="61" spans="1:48">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="99"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="97"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="131"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="131"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="97"/>
-      <c r="T61" s="69"/>
-      <c r="U61" s="69"/>
-      <c r="V61" s="69"/>
-      <c r="W61" s="69"/>
-      <c r="X61" s="69"/>
-      <c r="Y61" s="69"/>
-      <c r="Z61" s="69"/>
-      <c r="AA61" s="69"/>
-      <c r="AB61" s="69"/>
-      <c r="AC61" s="104"/>
-      <c r="AD61" s="69"/>
-      <c r="AE61" s="69"/>
-      <c r="AF61" s="69"/>
-      <c r="AG61" s="70"/>
-      <c r="AH61" s="70"/>
-      <c r="AI61" s="70"/>
-      <c r="AJ61" s="70"/>
-      <c r="AK61" s="109"/>
-      <c r="AL61" s="83"/>
-      <c r="AM61" s="68"/>
-      <c r="AN61" s="117"/>
-      <c r="AO61" s="70"/>
-      <c r="AP61" s="70"/>
-      <c r="AQ61" s="109"/>
-      <c r="AR61" s="75"/>
-      <c r="AS61" s="71"/>
-      <c r="AT61" s="69"/>
-      <c r="AU61" s="69"/>
-      <c r="AV61" s="69"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="133"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="133"/>
+      <c r="P61" s="56"/>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="102"/>
+      <c r="T61" s="56"/>
+      <c r="U61" s="56"/>
+      <c r="V61" s="56"/>
+      <c r="W61" s="56"/>
+      <c r="X61" s="56"/>
+      <c r="Y61" s="56"/>
+      <c r="Z61" s="56"/>
+      <c r="AA61" s="56"/>
+      <c r="AB61" s="56"/>
+      <c r="AC61" s="102"/>
+      <c r="AD61" s="56"/>
+      <c r="AE61" s="56"/>
+      <c r="AF61" s="56"/>
+      <c r="AG61" s="57"/>
+      <c r="AH61" s="57"/>
+      <c r="AI61" s="57"/>
+      <c r="AJ61" s="57"/>
+      <c r="AK61" s="112"/>
+      <c r="AL61" s="85"/>
+      <c r="AM61" s="58"/>
+      <c r="AN61" s="121"/>
+      <c r="AO61" s="57"/>
+      <c r="AP61" s="57"/>
+      <c r="AQ61" s="112"/>
+      <c r="AR61" s="78"/>
+      <c r="AS61" s="58"/>
+      <c r="AT61" s="56"/>
+      <c r="AU61" s="56"/>
+      <c r="AV61" s="56"/>
     </row>
     <row r="62" spans="1:48">
       <c r="A62" s="15"/>
@@ -7507,55 +7650,73 @@
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="131"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="131"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="97"/>
-      <c r="T62" s="45" t="s">
-        <v>94</v>
+      <c r="I62" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J62" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K62" s="41">
+        <v>20</v>
+      </c>
+      <c r="L62" s="134">
+        <v>1</v>
+      </c>
+      <c r="M62" s="41">
+        <v>161</v>
+      </c>
+      <c r="N62" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="O62" s="134">
+        <v>30</v>
+      </c>
+      <c r="P62" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q62" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R62" s="15">
+        <v>25</v>
+      </c>
+      <c r="S62" s="97">
+        <v>2</v>
+      </c>
+      <c r="T62" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="U62" s="15">
         <v>1</v>
       </c>
       <c r="V62" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W62" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="X62" s="15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="Y62" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z62" s="15" t="s">
-        <v>96</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="Z62" s="15"/>
       <c r="AA62" s="15"/>
       <c r="AB62" s="15"/>
-      <c r="AC62" s="97"/>
+      <c r="AC62" s="97" t="s">
+        <v>83</v>
+      </c>
       <c r="AD62" s="15"/>
       <c r="AE62" s="15"/>
       <c r="AF62" s="15"/>
-      <c r="AG62" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH62" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI62" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ62" s="16"/>
-      <c r="AK62" s="110"/>
+      <c r="AG62" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH62" s="18"/>
+      <c r="AI62" s="18"/>
+      <c r="AJ62" s="18"/>
+      <c r="AK62" s="108"/>
       <c r="AL62" s="84" t="s">
         <v>32</v>
       </c>
@@ -7574,21 +7735,11 @@
       <c r="AQ62" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="AR62" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS62" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT62" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU62" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV62" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="AR62" s="76"/>
+      <c r="AS62" s="19"/>
+      <c r="AT62" s="15"/>
+      <c r="AU62" s="15"/>
+      <c r="AV62" s="15"/>
     </row>
     <row r="63" spans="1:48">
       <c r="A63" s="15"/>
@@ -7606,58 +7757,138 @@
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
       <c r="O63" s="131"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="97"/>
-      <c r="T63" s="45"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="15"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="15"/>
-      <c r="AA63" s="15"/>
-      <c r="AB63" s="15"/>
-      <c r="AC63" s="97"/>
-      <c r="AD63" s="15"/>
-      <c r="AE63" s="15"/>
-      <c r="AF63" s="15"/>
-      <c r="AG63" s="15"/>
-      <c r="AH63" s="15"/>
-      <c r="AI63" s="15"/>
-      <c r="AJ63" s="15"/>
-      <c r="AK63" s="97"/>
-      <c r="AL63" s="84" t="s">
+      <c r="P63" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AM63" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN63" s="120">
+      <c r="Q63" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R63" s="15">
         <v>50</v>
       </c>
-      <c r="AO63" s="16"/>
-      <c r="AP63" s="16"/>
-      <c r="AQ63" s="110"/>
-      <c r="AR63" s="76"/>
-      <c r="AS63" s="19"/>
-      <c r="AT63" s="15"/>
-      <c r="AU63" s="15"/>
-      <c r="AV63" s="15"/>
+      <c r="S63" s="97">
+        <v>2</v>
+      </c>
+      <c r="T63" s="69"/>
+      <c r="U63" s="69"/>
+      <c r="V63" s="69"/>
+      <c r="W63" s="69"/>
+      <c r="X63" s="69"/>
+      <c r="Y63" s="69"/>
+      <c r="Z63" s="69"/>
+      <c r="AA63" s="69"/>
+      <c r="AB63" s="69"/>
+      <c r="AC63" s="104"/>
+      <c r="AD63" s="69"/>
+      <c r="AE63" s="69"/>
+      <c r="AF63" s="69"/>
+      <c r="AG63" s="70"/>
+      <c r="AH63" s="70"/>
+      <c r="AI63" s="70"/>
+      <c r="AJ63" s="70"/>
+      <c r="AK63" s="109"/>
+      <c r="AL63" s="83"/>
+      <c r="AM63" s="68"/>
+      <c r="AN63" s="117"/>
+      <c r="AO63" s="70"/>
+      <c r="AP63" s="70"/>
+      <c r="AQ63" s="109"/>
+      <c r="AR63" s="75"/>
+      <c r="AS63" s="71"/>
+      <c r="AT63" s="69"/>
+      <c r="AU63" s="69"/>
+      <c r="AV63" s="69"/>
     </row>
     <row r="64" spans="1:48">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
-      <c r="T64" s="45"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="131"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="131"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="97"/>
+      <c r="T64" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="U64" s="15">
+        <v>1</v>
+      </c>
+      <c r="V64" s="15">
+        <v>3500</v>
+      </c>
+      <c r="W64" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X64" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y64" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z64" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="15"/>
+      <c r="AC64" s="97"/>
+      <c r="AD64" s="15"/>
+      <c r="AE64" s="15"/>
+      <c r="AF64" s="15"/>
+      <c r="AG64" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH64" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="16"/>
+      <c r="AK64" s="110"/>
       <c r="AL64" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM64" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN64" s="122">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="AM64" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="120">
+        <v>50</v>
+      </c>
+      <c r="AO64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP64" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR64" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS64" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT64" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU64" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV64" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:48">
@@ -7680,421 +7911,312 @@
       <c r="Q65" s="15"/>
       <c r="R65" s="15"/>
       <c r="S65" s="97"/>
-      <c r="T65" s="69"/>
-      <c r="U65" s="69"/>
-      <c r="V65" s="69"/>
-      <c r="W65" s="69"/>
-      <c r="X65" s="69"/>
-      <c r="Y65" s="69"/>
-      <c r="Z65" s="69"/>
-      <c r="AA65" s="69"/>
-      <c r="AB65" s="69"/>
-      <c r="AC65" s="104"/>
-      <c r="AD65" s="69"/>
-      <c r="AE65" s="69"/>
-      <c r="AF65" s="69"/>
-      <c r="AG65" s="70"/>
-      <c r="AH65" s="70"/>
-      <c r="AI65" s="70"/>
-      <c r="AJ65" s="70"/>
-      <c r="AK65" s="109"/>
-      <c r="AL65" s="83"/>
-      <c r="AM65" s="68"/>
-      <c r="AN65" s="117"/>
-      <c r="AO65" s="70"/>
-      <c r="AP65" s="70"/>
-      <c r="AQ65" s="109"/>
-      <c r="AR65" s="75"/>
-      <c r="AS65" s="71"/>
-      <c r="AT65" s="69"/>
-      <c r="AU65" s="69"/>
-      <c r="AV65" s="69"/>
+      <c r="T65" s="15"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="15"/>
+      <c r="AA65" s="15"/>
+      <c r="AB65" s="15"/>
+      <c r="AC65" s="97"/>
+      <c r="AD65" s="15"/>
+      <c r="AE65" s="15"/>
+      <c r="AF65" s="15"/>
+      <c r="AG65" s="15"/>
+      <c r="AH65" s="15"/>
+      <c r="AI65" s="15"/>
+      <c r="AJ65" s="15"/>
+      <c r="AK65" s="97"/>
+      <c r="AL65" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM65" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN65" s="120">
+        <v>50</v>
+      </c>
+      <c r="AO65" s="16"/>
+      <c r="AP65" s="16"/>
+      <c r="AQ65" s="110"/>
+      <c r="AR65" s="76"/>
+      <c r="AS65" s="19"/>
+      <c r="AT65" s="15"/>
+      <c r="AU65" s="15"/>
+      <c r="AV65" s="15"/>
     </row>
     <row r="66" spans="1:48">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="131"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="131"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="97"/>
-      <c r="T66" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="U66" s="15">
-        <v>1</v>
-      </c>
-      <c r="V66" s="15">
-        <v>200</v>
-      </c>
-      <c r="W66" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="X66" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y66" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z66" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA66" s="15"/>
-      <c r="AB66" s="15"/>
-      <c r="AC66" s="97"/>
-      <c r="AD66" s="15"/>
-      <c r="AE66" s="15"/>
-      <c r="AF66" s="15"/>
-      <c r="AG66" s="16"/>
-      <c r="AH66" s="16"/>
-      <c r="AI66" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ66" s="16"/>
-      <c r="AK66" s="110"/>
-      <c r="AL66" s="84"/>
-      <c r="AM66" s="19"/>
-      <c r="AN66" s="120"/>
-      <c r="AO66" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP66" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ66" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR66" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS66" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT66" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU66" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV66" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:48" ht="12" customHeight="1">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="96"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="129"/>
-      <c r="M67" s="59"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="129"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="59"/>
-      <c r="S67" s="96"/>
-      <c r="T67" s="59"/>
-      <c r="U67" s="59"/>
-      <c r="V67" s="59"/>
-      <c r="W67" s="59"/>
-      <c r="X67" s="59"/>
-      <c r="Y67" s="59"/>
-      <c r="Z67" s="59"/>
-      <c r="AA67" s="59"/>
-      <c r="AB67" s="59"/>
-      <c r="AC67" s="96"/>
-      <c r="AD67" s="59"/>
-      <c r="AE67" s="59"/>
-      <c r="AF67" s="59"/>
-      <c r="AG67" s="61"/>
-      <c r="AH67" s="61"/>
-      <c r="AI67" s="61"/>
-      <c r="AJ67" s="60"/>
-      <c r="AK67" s="107"/>
-      <c r="AL67" s="81"/>
-      <c r="AM67" s="62"/>
-      <c r="AN67" s="115"/>
-      <c r="AO67" s="61"/>
-      <c r="AP67" s="61"/>
-      <c r="AQ67" s="126"/>
-      <c r="AR67" s="73"/>
-      <c r="AS67" s="62"/>
-      <c r="AT67" s="59"/>
-      <c r="AU67" s="59"/>
-      <c r="AV67" s="59"/>
+      <c r="AL66" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:48">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="T67" s="69"/>
+      <c r="U67" s="69"/>
+      <c r="V67" s="69"/>
+      <c r="W67" s="69"/>
+      <c r="X67" s="69"/>
+      <c r="Y67" s="69"/>
+      <c r="Z67" s="69"/>
+      <c r="AA67" s="69"/>
+      <c r="AB67" s="69"/>
+      <c r="AC67" s="104"/>
+      <c r="AD67" s="69"/>
+      <c r="AE67" s="69"/>
+      <c r="AF67" s="69"/>
+      <c r="AG67" s="70"/>
+      <c r="AH67" s="70"/>
+      <c r="AI67" s="70"/>
+      <c r="AJ67" s="70"/>
+      <c r="AK67" s="109"/>
+      <c r="AL67" s="83"/>
+      <c r="AM67" s="68"/>
+      <c r="AN67" s="117"/>
+      <c r="AO67" s="70"/>
+      <c r="AP67" s="70"/>
+      <c r="AQ67" s="109"/>
+      <c r="AR67" s="75"/>
+      <c r="AS67" s="71"/>
+      <c r="AT67" s="69"/>
+      <c r="AU67" s="69"/>
+      <c r="AV67" s="69"/>
     </row>
     <row r="68" spans="1:48">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="E68" t="s">
-        <v>114</v>
-      </c>
-      <c r="F68" t="s">
-        <v>103</v>
-      </c>
-      <c r="G68" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J68" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="K68" s="41">
-        <v>20</v>
-      </c>
-      <c r="L68" s="134">
-        <v>1</v>
-      </c>
-      <c r="M68" s="41">
-        <v>50</v>
-      </c>
-      <c r="N68" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="O68" s="134">
-        <v>10</v>
-      </c>
-      <c r="P68" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="97"/>
       <c r="T68" s="15" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="U68" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="V68" s="15">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="V68" s="45">
+        <v>15000</v>
       </c>
       <c r="W68" s="15" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="X68" s="15" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Y68" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z68" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA68" s="15">
-        <v>20</v>
-      </c>
-      <c r="AB68" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC68" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD68" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE68" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF68" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG68" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH68" s="18"/>
-      <c r="AI68" s="18"/>
-      <c r="AJ68" s="18"/>
-      <c r="AK68" s="108"/>
-      <c r="AL68" s="86"/>
-      <c r="AM68" s="18"/>
-      <c r="AN68" s="108"/>
-      <c r="AO68" s="18"/>
-      <c r="AP68" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ68" s="108"/>
-      <c r="AR68" s="74"/>
-      <c r="AS68" s="93"/>
-      <c r="AT68" s="18"/>
-      <c r="AU68" s="18"/>
-      <c r="AV68" s="15"/>
-    </row>
-    <row r="69" spans="1:48">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="131"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="131"/>
-      <c r="P69" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="97"/>
-      <c r="T69" s="69"/>
-      <c r="U69" s="69"/>
-      <c r="V69" s="69"/>
-      <c r="W69" s="69"/>
-      <c r="X69" s="69"/>
-      <c r="Y69" s="69"/>
-      <c r="Z69" s="69"/>
-      <c r="AA69" s="69"/>
-      <c r="AB69" s="69"/>
-      <c r="AC69" s="104"/>
-      <c r="AD69" s="69"/>
-      <c r="AE69" s="69"/>
-      <c r="AF69" s="69"/>
-      <c r="AG69" s="70"/>
-      <c r="AH69" s="70"/>
-      <c r="AI69" s="70"/>
-      <c r="AJ69" s="70"/>
-      <c r="AK69" s="109"/>
-      <c r="AL69" s="83"/>
-      <c r="AM69" s="68"/>
-      <c r="AN69" s="117"/>
-      <c r="AO69" s="70"/>
-      <c r="AP69" s="70"/>
-      <c r="AQ69" s="109"/>
-      <c r="AR69" s="75"/>
-      <c r="AS69" s="71"/>
-      <c r="AT69" s="69"/>
-      <c r="AU69" s="69"/>
-      <c r="AV69" s="69"/>
+        <v>90</v>
+      </c>
+      <c r="Z68" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA68" s="15"/>
+      <c r="AB68" s="15"/>
+      <c r="AC68" s="97"/>
+      <c r="AD68" s="15"/>
+      <c r="AE68" s="15"/>
+      <c r="AF68" s="15"/>
+      <c r="AG68" s="16"/>
+      <c r="AH68" s="16"/>
+      <c r="AI68" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ68" s="16"/>
+      <c r="AK68" s="110"/>
+      <c r="AL68" s="84"/>
+      <c r="AM68" s="19"/>
+      <c r="AN68" s="120"/>
+      <c r="AO68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ68" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR68" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS68" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT68" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU68" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV68" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:48" ht="12" customHeight="1">
+      <c r="A69" s="59"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="129"/>
+      <c r="M69" s="59"/>
+      <c r="N69" s="59"/>
+      <c r="O69" s="129"/>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="59"/>
+      <c r="S69" s="96"/>
+      <c r="T69" s="59"/>
+      <c r="U69" s="59"/>
+      <c r="V69" s="59"/>
+      <c r="W69" s="59"/>
+      <c r="X69" s="59"/>
+      <c r="Y69" s="59"/>
+      <c r="Z69" s="59"/>
+      <c r="AA69" s="59"/>
+      <c r="AB69" s="59"/>
+      <c r="AC69" s="96"/>
+      <c r="AD69" s="59"/>
+      <c r="AE69" s="59"/>
+      <c r="AF69" s="59"/>
+      <c r="AG69" s="61"/>
+      <c r="AH69" s="61"/>
+      <c r="AI69" s="61"/>
+      <c r="AJ69" s="60"/>
+      <c r="AK69" s="107"/>
+      <c r="AL69" s="81"/>
+      <c r="AM69" s="62"/>
+      <c r="AN69" s="115"/>
+      <c r="AO69" s="61"/>
+      <c r="AP69" s="61"/>
+      <c r="AQ69" s="126"/>
+      <c r="AR69" s="73"/>
+      <c r="AS69" s="62"/>
+      <c r="AT69" s="59"/>
+      <c r="AU69" s="59"/>
+      <c r="AV69" s="59"/>
     </row>
     <row r="70" spans="1:48">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="97"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" s="15" t="b">
+        <v>0</v>
+      </c>
       <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="131"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="131"/>
-      <c r="P70" s="15"/>
+      <c r="I70" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="J70" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K70" s="41">
+        <v>20</v>
+      </c>
+      <c r="L70" s="134">
+        <v>1</v>
+      </c>
+      <c r="M70" s="41">
+        <v>50</v>
+      </c>
+      <c r="N70" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="O70" s="134">
+        <v>10</v>
+      </c>
+      <c r="P70" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="Q70" s="15"/>
       <c r="R70" s="15"/>
       <c r="S70" s="97"/>
-      <c r="T70" s="45" t="s">
-        <v>115</v>
+      <c r="T70" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="U70" s="15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V70" s="15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="W70" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="X70" s="15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="Y70" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z70" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA70" s="15"/>
-      <c r="AB70" s="15"/>
-      <c r="AC70" s="97"/>
-      <c r="AD70" s="15"/>
-      <c r="AE70" s="15"/>
-      <c r="AF70" s="15"/>
-      <c r="AG70" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH70" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ70" s="16"/>
-      <c r="AK70" s="110"/>
-      <c r="AL70" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM70" s="80">
-        <v>0</v>
-      </c>
-      <c r="AN70" s="119">
-        <v>50</v>
-      </c>
-      <c r="AO70" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP70" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ70" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR70" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS70" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT70" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU70" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV70" s="15" t="s">
-        <v>6</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="Z70" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA70" s="15">
+        <v>20</v>
+      </c>
+      <c r="AB70" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC70" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD70" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE70" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF70" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG70" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="18"/>
+      <c r="AI70" s="18"/>
+      <c r="AJ70" s="18"/>
+      <c r="AK70" s="108"/>
+      <c r="AL70" s="86"/>
+      <c r="AM70" s="18"/>
+      <c r="AN70" s="108"/>
+      <c r="AO70" s="18"/>
+      <c r="AP70" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ70" s="108"/>
+      <c r="AR70" s="74"/>
+      <c r="AS70" s="93"/>
+      <c r="AT70" s="18"/>
+      <c r="AU70" s="18"/>
+      <c r="AV70" s="15"/>
     </row>
     <row r="71" spans="1:48">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="97"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="99"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -8110,54 +8232,126 @@
       <c r="Q71" s="15"/>
       <c r="R71" s="15"/>
       <c r="S71" s="97"/>
-      <c r="T71" s="45"/>
-      <c r="U71" s="15"/>
-      <c r="V71" s="15"/>
-      <c r="W71" s="15"/>
-      <c r="X71" s="15"/>
-      <c r="Y71" s="15"/>
-      <c r="Z71" s="15"/>
-      <c r="AA71" s="15"/>
-      <c r="AB71" s="15"/>
-      <c r="AC71" s="97"/>
-      <c r="AD71" s="15"/>
-      <c r="AE71" s="15"/>
-      <c r="AF71" s="15"/>
-      <c r="AG71" s="15"/>
-      <c r="AH71" s="15"/>
-      <c r="AI71" s="15"/>
-      <c r="AJ71" s="15"/>
-      <c r="AK71" s="97"/>
-      <c r="AL71" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM71" s="80">
-        <v>0</v>
-      </c>
-      <c r="AN71" s="119">
-        <v>50</v>
-      </c>
-      <c r="AO71" s="16"/>
-      <c r="AP71" s="16"/>
-      <c r="AQ71" s="110"/>
-      <c r="AR71" s="76"/>
-      <c r="AS71" s="19"/>
-      <c r="AT71" s="15"/>
-      <c r="AU71" s="15"/>
-      <c r="AV71" s="15"/>
+      <c r="T71" s="69"/>
+      <c r="U71" s="69"/>
+      <c r="V71" s="69"/>
+      <c r="W71" s="69"/>
+      <c r="X71" s="69"/>
+      <c r="Y71" s="69"/>
+      <c r="Z71" s="69"/>
+      <c r="AA71" s="69"/>
+      <c r="AB71" s="69"/>
+      <c r="AC71" s="104"/>
+      <c r="AD71" s="69"/>
+      <c r="AE71" s="69"/>
+      <c r="AF71" s="69"/>
+      <c r="AG71" s="70"/>
+      <c r="AH71" s="70"/>
+      <c r="AI71" s="70"/>
+      <c r="AJ71" s="70"/>
+      <c r="AK71" s="109"/>
+      <c r="AL71" s="83"/>
+      <c r="AM71" s="68"/>
+      <c r="AN71" s="117"/>
+      <c r="AO71" s="70"/>
+      <c r="AP71" s="70"/>
+      <c r="AQ71" s="109"/>
+      <c r="AR71" s="75"/>
+      <c r="AS71" s="71"/>
+      <c r="AT71" s="69"/>
+      <c r="AU71" s="69"/>
+      <c r="AV71" s="69"/>
     </row>
     <row r="72" spans="1:48">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
-      <c r="T72" s="45"/>
-      <c r="AL72" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM72" s="80">
-        <v>0</v>
-      </c>
-      <c r="AN72" s="119">
-        <v>3</v>
+      <c r="C72" s="15"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="131"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="131"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="97"/>
+      <c r="T72" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="U72" s="15">
+        <v>1</v>
+      </c>
+      <c r="V72" s="15">
+        <v>100</v>
+      </c>
+      <c r="W72" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X72" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y72" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z72" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA72" s="15"/>
+      <c r="AB72" s="15"/>
+      <c r="AC72" s="97"/>
+      <c r="AD72" s="15"/>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
+      <c r="AG72" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH72" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI72" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="16"/>
+      <c r="AK72" s="110"/>
+      <c r="AL72" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM72" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN72" s="120">
+        <v>50</v>
+      </c>
+      <c r="AO72" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP72" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ72" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR72" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS72" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT72" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU72" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV72" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:48">
@@ -8180,716 +8374,1316 @@
       <c r="Q73" s="15"/>
       <c r="R73" s="15"/>
       <c r="S73" s="97"/>
-      <c r="T73" s="69"/>
-      <c r="U73" s="69"/>
-      <c r="V73" s="69"/>
-      <c r="W73" s="69"/>
-      <c r="X73" s="69"/>
-      <c r="Y73" s="69"/>
-      <c r="Z73" s="69"/>
-      <c r="AA73" s="69"/>
-      <c r="AB73" s="69"/>
-      <c r="AC73" s="104"/>
-      <c r="AD73" s="69"/>
-      <c r="AE73" s="69"/>
-      <c r="AF73" s="69"/>
-      <c r="AG73" s="70"/>
-      <c r="AH73" s="70"/>
-      <c r="AI73" s="70"/>
-      <c r="AJ73" s="70"/>
-      <c r="AK73" s="109"/>
-      <c r="AL73" s="83"/>
-      <c r="AM73" s="68"/>
-      <c r="AN73" s="117"/>
-      <c r="AO73" s="70"/>
-      <c r="AP73" s="70"/>
-      <c r="AQ73" s="109"/>
-      <c r="AR73" s="75"/>
-      <c r="AS73" s="71"/>
-      <c r="AT73" s="69"/>
-      <c r="AU73" s="69"/>
-      <c r="AV73" s="69"/>
+      <c r="T73" s="45"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15"/>
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="97"/>
+      <c r="AD73" s="15"/>
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="15"/>
+      <c r="AH73" s="15"/>
+      <c r="AI73" s="15"/>
+      <c r="AJ73" s="15"/>
+      <c r="AK73" s="97"/>
+      <c r="AL73" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM73" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN73" s="120">
+        <v>50</v>
+      </c>
+      <c r="AO73" s="16"/>
+      <c r="AP73" s="16"/>
+      <c r="AQ73" s="110"/>
+      <c r="AR73" s="76"/>
+      <c r="AS73" s="19"/>
+      <c r="AT73" s="15"/>
+      <c r="AU73" s="15"/>
+      <c r="AV73" s="15"/>
     </row>
     <row r="74" spans="1:48">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="97"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="131"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="131"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="97"/>
-      <c r="T74" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="U74" s="15">
-        <v>1</v>
-      </c>
-      <c r="V74" s="15">
-        <v>200</v>
-      </c>
-      <c r="W74" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="X74" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y74" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z74" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA74" s="15"/>
-      <c r="AB74" s="15"/>
-      <c r="AC74" s="97"/>
-      <c r="AD74" s="15"/>
-      <c r="AE74" s="15"/>
-      <c r="AF74" s="15"/>
-      <c r="AG74" s="16"/>
-      <c r="AH74" s="16"/>
-      <c r="AI74" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ74" s="16"/>
-      <c r="AK74" s="110"/>
-      <c r="AL74" s="84"/>
-      <c r="AM74" s="19"/>
-      <c r="AN74" s="120"/>
-      <c r="AO74" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP74" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ74" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR74" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS74" s="19">
-        <v>1</v>
-      </c>
-      <c r="AT74" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU74" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV74" s="15" t="s">
-        <v>6</v>
+      <c r="T74" s="45"/>
+      <c r="AL74" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM74" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN74" s="122">
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:48">
-      <c r="A75" s="63"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="63"/>
-      <c r="D75" s="100"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="135"/>
-      <c r="M75" s="63"/>
-      <c r="N75" s="63"/>
-      <c r="O75" s="135"/>
-      <c r="P75" s="63"/>
-      <c r="Q75" s="63"/>
-      <c r="R75" s="63"/>
-      <c r="S75" s="100"/>
-      <c r="T75" s="63"/>
-      <c r="U75" s="63"/>
-      <c r="V75" s="63"/>
-      <c r="W75" s="63"/>
-      <c r="X75" s="63"/>
-      <c r="Y75" s="63"/>
-      <c r="Z75" s="63"/>
-      <c r="AA75" s="63"/>
-      <c r="AB75" s="63"/>
-      <c r="AC75" s="100"/>
-      <c r="AD75" s="63"/>
-      <c r="AE75" s="63"/>
-      <c r="AF75" s="63"/>
-      <c r="AG75" s="64"/>
-      <c r="AH75" s="64"/>
-      <c r="AI75" s="64"/>
-      <c r="AJ75" s="64"/>
-      <c r="AK75" s="113"/>
-      <c r="AL75" s="87"/>
-      <c r="AM75" s="65"/>
-      <c r="AN75" s="124"/>
-      <c r="AO75" s="64"/>
-      <c r="AP75" s="64"/>
-      <c r="AQ75" s="113"/>
-      <c r="AR75" s="79"/>
-      <c r="AS75" s="65"/>
-      <c r="AT75" s="63"/>
-      <c r="AU75" s="63"/>
-      <c r="AV75" s="63"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="131"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="131"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="97"/>
+      <c r="T75" s="69"/>
+      <c r="U75" s="69"/>
+      <c r="V75" s="69"/>
+      <c r="W75" s="69"/>
+      <c r="X75" s="69"/>
+      <c r="Y75" s="69"/>
+      <c r="Z75" s="69"/>
+      <c r="AA75" s="69"/>
+      <c r="AB75" s="69"/>
+      <c r="AC75" s="104"/>
+      <c r="AD75" s="69"/>
+      <c r="AE75" s="69"/>
+      <c r="AF75" s="69"/>
+      <c r="AG75" s="70"/>
+      <c r="AH75" s="70"/>
+      <c r="AI75" s="70"/>
+      <c r="AJ75" s="70"/>
+      <c r="AK75" s="109"/>
+      <c r="AL75" s="83"/>
+      <c r="AM75" s="68"/>
+      <c r="AN75" s="117"/>
+      <c r="AO75" s="70"/>
+      <c r="AP75" s="70"/>
+      <c r="AQ75" s="109"/>
+      <c r="AR75" s="75"/>
+      <c r="AS75" s="71"/>
+      <c r="AT75" s="69"/>
+      <c r="AU75" s="69"/>
+      <c r="AV75" s="69"/>
     </row>
     <row r="76" spans="1:48">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
-      <c r="D76" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>118</v>
-      </c>
+      <c r="D76" s="97"/>
+      <c r="E76" s="15"/>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
-      <c r="I76" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="J76" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K76" s="15">
-        <v>10</v>
-      </c>
-      <c r="L76" s="131">
-        <v>10</v>
-      </c>
-      <c r="M76" s="15">
-        <v>10</v>
-      </c>
-      <c r="N76" s="15">
-        <v>10</v>
-      </c>
-      <c r="O76" s="131">
-        <v>10</v>
-      </c>
-      <c r="P76" s="15" t="s">
-        <v>120</v>
-      </c>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="131"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="131"/>
+      <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
       <c r="R76" s="15"/>
       <c r="S76" s="97"/>
       <c r="T76" s="15" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="U76" s="15">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="V76" s="15">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="W76" s="15" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="X76" s="15" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="Y76" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="Z76" s="15"/>
+      <c r="Z76" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="AA76" s="15"/>
       <c r="AB76" s="15"/>
-      <c r="AC76" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD76" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE76" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF76" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG76" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH76" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="AC76" s="97"/>
+      <c r="AD76" s="15"/>
+      <c r="AE76" s="15"/>
+      <c r="AF76" s="15"/>
+      <c r="AG76" s="16"/>
+      <c r="AH76" s="16"/>
       <c r="AI76" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ76" s="16" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AJ76" s="16"/>
       <c r="AK76" s="110"/>
-      <c r="AL76" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM76" s="19">
-        <v>50</v>
-      </c>
-      <c r="AN76" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO76" s="16"/>
-      <c r="AP76" s="16"/>
-      <c r="AQ76" s="110"/>
+      <c r="AL76" s="84"/>
+      <c r="AM76" s="19"/>
+      <c r="AN76" s="120"/>
+      <c r="AO76" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP76" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ76" s="110" t="b">
+        <v>0</v>
+      </c>
       <c r="AR76" s="76" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="AS76" s="19">
-        <v>50</v>
-      </c>
-      <c r="AT76" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU76" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="AT76" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU76" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="AV76" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:48">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="97"/>
-      <c r="E77" s="15" t="s">
+    <row r="77" spans="1:48" ht="12" customHeight="1">
+      <c r="A77" s="59"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="96"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="59"/>
+      <c r="L77" s="129"/>
+      <c r="M77" s="59"/>
+      <c r="N77" s="59"/>
+      <c r="O77" s="129"/>
+      <c r="P77" s="59"/>
+      <c r="Q77" s="59"/>
+      <c r="R77" s="59"/>
+      <c r="S77" s="96"/>
+      <c r="T77" s="59"/>
+      <c r="U77" s="59"/>
+      <c r="V77" s="59"/>
+      <c r="W77" s="59"/>
+      <c r="X77" s="59"/>
+      <c r="Y77" s="59"/>
+      <c r="Z77" s="59"/>
+      <c r="AA77" s="59"/>
+      <c r="AB77" s="59"/>
+      <c r="AC77" s="96"/>
+      <c r="AD77" s="59"/>
+      <c r="AE77" s="59"/>
+      <c r="AF77" s="59"/>
+      <c r="AG77" s="61"/>
+      <c r="AH77" s="61"/>
+      <c r="AI77" s="61"/>
+      <c r="AJ77" s="60"/>
+      <c r="AK77" s="107"/>
+      <c r="AL77" s="81"/>
+      <c r="AM77" s="62"/>
+      <c r="AN77" s="115"/>
+      <c r="AO77" s="61"/>
+      <c r="AP77" s="61"/>
+      <c r="AQ77" s="126"/>
+      <c r="AR77" s="73"/>
+      <c r="AS77" s="62"/>
+      <c r="AT77" s="59"/>
+      <c r="AU77" s="59"/>
+      <c r="AV77" s="59"/>
+    </row>
+    <row r="78" spans="1:48">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="E78" t="s">
+        <v>116</v>
+      </c>
+      <c r="F78" t="s">
+        <v>105</v>
+      </c>
+      <c r="G78" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J78" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K78" s="41">
+        <v>20</v>
+      </c>
+      <c r="L78" s="134">
+        <v>1</v>
+      </c>
+      <c r="M78" s="41">
+        <v>50</v>
+      </c>
+      <c r="N78" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="O78" s="134">
+        <v>10</v>
+      </c>
+      <c r="P78" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="97"/>
+      <c r="T78" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="U78" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="V78" s="15">
+        <v>50</v>
+      </c>
+      <c r="W78" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X78" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y78" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z78" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA78" s="15">
+        <v>20</v>
+      </c>
+      <c r="AB78" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC78" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD78" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE78" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF78" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG78" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH78" s="18"/>
+      <c r="AI78" s="18"/>
+      <c r="AJ78" s="18"/>
+      <c r="AK78" s="108"/>
+      <c r="AL78" s="86"/>
+      <c r="AM78" s="18"/>
+      <c r="AN78" s="108"/>
+      <c r="AO78" s="18"/>
+      <c r="AP78" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ78" s="108"/>
+      <c r="AR78" s="74"/>
+      <c r="AS78" s="93"/>
+      <c r="AT78" s="18"/>
+      <c r="AU78" s="18"/>
+      <c r="AV78" s="15"/>
+    </row>
+    <row r="79" spans="1:48">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="131"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="131"/>
+      <c r="P79" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="97"/>
+      <c r="T79" s="69"/>
+      <c r="U79" s="69"/>
+      <c r="V79" s="69"/>
+      <c r="W79" s="69"/>
+      <c r="X79" s="69"/>
+      <c r="Y79" s="69"/>
+      <c r="Z79" s="69"/>
+      <c r="AA79" s="69"/>
+      <c r="AB79" s="69"/>
+      <c r="AC79" s="104"/>
+      <c r="AD79" s="69"/>
+      <c r="AE79" s="69"/>
+      <c r="AF79" s="69"/>
+      <c r="AG79" s="70"/>
+      <c r="AH79" s="70"/>
+      <c r="AI79" s="70"/>
+      <c r="AJ79" s="70"/>
+      <c r="AK79" s="109"/>
+      <c r="AL79" s="83"/>
+      <c r="AM79" s="68"/>
+      <c r="AN79" s="117"/>
+      <c r="AO79" s="70"/>
+      <c r="AP79" s="70"/>
+      <c r="AQ79" s="109"/>
+      <c r="AR79" s="75"/>
+      <c r="AS79" s="71"/>
+      <c r="AT79" s="69"/>
+      <c r="AU79" s="69"/>
+      <c r="AV79" s="69"/>
+    </row>
+    <row r="80" spans="1:48">
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="131"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="131"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="97"/>
+      <c r="T80" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="U80" s="15">
+        <v>1</v>
+      </c>
+      <c r="V80" s="15">
+        <v>100</v>
+      </c>
+      <c r="W80" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X80" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y80" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z80" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA80" s="15"/>
+      <c r="AB80" s="15"/>
+      <c r="AC80" s="97"/>
+      <c r="AD80" s="15"/>
+      <c r="AE80" s="15"/>
+      <c r="AF80" s="15"/>
+      <c r="AG80" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH80" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI80" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="16"/>
+      <c r="AK80" s="110"/>
+      <c r="AL80" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM80" s="80">
+        <v>0</v>
+      </c>
+      <c r="AN80" s="119">
+        <v>50</v>
+      </c>
+      <c r="AO80" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP80" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ80" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR80" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS80" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT80" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU80" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV80" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:48">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="97"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="131"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="131"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="97"/>
+      <c r="T81" s="45"/>
+      <c r="U81" s="15"/>
+      <c r="V81" s="15"/>
+      <c r="W81" s="15"/>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="15"/>
+      <c r="AA81" s="15"/>
+      <c r="AB81" s="15"/>
+      <c r="AC81" s="97"/>
+      <c r="AD81" s="15"/>
+      <c r="AE81" s="15"/>
+      <c r="AF81" s="15"/>
+      <c r="AG81" s="15"/>
+      <c r="AH81" s="15"/>
+      <c r="AI81" s="15"/>
+      <c r="AJ81" s="15"/>
+      <c r="AK81" s="97"/>
+      <c r="AL81" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM81" s="80">
+        <v>0</v>
+      </c>
+      <c r="AN81" s="119">
+        <v>50</v>
+      </c>
+      <c r="AO81" s="16"/>
+      <c r="AP81" s="16"/>
+      <c r="AQ81" s="110"/>
+      <c r="AR81" s="76"/>
+      <c r="AS81" s="19"/>
+      <c r="AT81" s="15"/>
+      <c r="AU81" s="15"/>
+      <c r="AV81" s="15"/>
+    </row>
+    <row r="82" spans="1:48">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="T82" s="45"/>
+      <c r="AL82" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM82" s="80">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:48">
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="97"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="131"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="131"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
+      <c r="S83" s="97"/>
+      <c r="T83" s="69"/>
+      <c r="U83" s="69"/>
+      <c r="V83" s="69"/>
+      <c r="W83" s="69"/>
+      <c r="X83" s="69"/>
+      <c r="Y83" s="69"/>
+      <c r="Z83" s="69"/>
+      <c r="AA83" s="69"/>
+      <c r="AB83" s="69"/>
+      <c r="AC83" s="104"/>
+      <c r="AD83" s="69"/>
+      <c r="AE83" s="69"/>
+      <c r="AF83" s="69"/>
+      <c r="AG83" s="70"/>
+      <c r="AH83" s="70"/>
+      <c r="AI83" s="70"/>
+      <c r="AJ83" s="70"/>
+      <c r="AK83" s="109"/>
+      <c r="AL83" s="83"/>
+      <c r="AM83" s="68"/>
+      <c r="AN83" s="117"/>
+      <c r="AO83" s="70"/>
+      <c r="AP83" s="70"/>
+      <c r="AQ83" s="109"/>
+      <c r="AR83" s="75"/>
+      <c r="AS83" s="71"/>
+      <c r="AT83" s="69"/>
+      <c r="AU83" s="69"/>
+      <c r="AV83" s="69"/>
+    </row>
+    <row r="84" spans="1:48">
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="97"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="131"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="131"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="97"/>
+      <c r="T84" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="U84" s="15">
+        <v>1</v>
+      </c>
+      <c r="V84" s="15">
+        <v>200</v>
+      </c>
+      <c r="W84" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="X84" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y84" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z84" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA84" s="15"/>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="97"/>
+      <c r="AD84" s="15"/>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="16"/>
+      <c r="AH84" s="16"/>
+      <c r="AI84" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ84" s="16"/>
+      <c r="AK84" s="110"/>
+      <c r="AL84" s="84"/>
+      <c r="AM84" s="19"/>
+      <c r="AN84" s="120"/>
+      <c r="AO84" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP84" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ84" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR84" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS84" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT84" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU84" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV84" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:48">
+      <c r="A85" s="63"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="100"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="63"/>
+      <c r="I85" s="63"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="63"/>
+      <c r="L85" s="135"/>
+      <c r="M85" s="63"/>
+      <c r="N85" s="63"/>
+      <c r="O85" s="135"/>
+      <c r="P85" s="63"/>
+      <c r="Q85" s="63"/>
+      <c r="R85" s="63"/>
+      <c r="S85" s="100"/>
+      <c r="T85" s="63"/>
+      <c r="U85" s="63"/>
+      <c r="V85" s="63"/>
+      <c r="W85" s="63"/>
+      <c r="X85" s="63"/>
+      <c r="Y85" s="63"/>
+      <c r="Z85" s="63"/>
+      <c r="AA85" s="63"/>
+      <c r="AB85" s="63"/>
+      <c r="AC85" s="100"/>
+      <c r="AD85" s="63"/>
+      <c r="AE85" s="63"/>
+      <c r="AF85" s="63"/>
+      <c r="AG85" s="64"/>
+      <c r="AH85" s="64"/>
+      <c r="AI85" s="64"/>
+      <c r="AJ85" s="64"/>
+      <c r="AK85" s="113"/>
+      <c r="AL85" s="87"/>
+      <c r="AM85" s="65"/>
+      <c r="AN85" s="124"/>
+      <c r="AO85" s="64"/>
+      <c r="AP85" s="64"/>
+      <c r="AQ85" s="113"/>
+      <c r="AR85" s="79"/>
+      <c r="AS85" s="65"/>
+      <c r="AT85" s="63"/>
+      <c r="AU85" s="63"/>
+      <c r="AV85" s="63"/>
+    </row>
+    <row r="86" spans="1:48">
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J86" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K86" s="15">
+        <v>10</v>
+      </c>
+      <c r="L86" s="131">
+        <v>10</v>
+      </c>
+      <c r="M86" s="15">
+        <v>10</v>
+      </c>
+      <c r="N86" s="15">
+        <v>10</v>
+      </c>
+      <c r="O86" s="131">
+        <v>10</v>
+      </c>
+      <c r="P86" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="97"/>
+      <c r="T86" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="U86" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="V86" s="15">
+        <v>50</v>
+      </c>
+      <c r="W86" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X86" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="131"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="131"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
-      <c r="S77" s="97"/>
-      <c r="T77" s="15"/>
-      <c r="U77" s="15"/>
-      <c r="V77" s="15"/>
-      <c r="W77" s="15"/>
-      <c r="X77" s="15"/>
-      <c r="Y77" s="15"/>
-      <c r="Z77" s="15"/>
-      <c r="AA77" s="15"/>
-      <c r="AB77" s="15"/>
-      <c r="AC77" s="97"/>
-      <c r="AD77" s="15"/>
-      <c r="AE77" s="15"/>
-      <c r="AF77" s="15"/>
-      <c r="AG77" s="16"/>
-      <c r="AH77" s="16"/>
-      <c r="AI77" s="16"/>
-      <c r="AJ77" s="16"/>
-      <c r="AK77" s="110"/>
-      <c r="AL77" s="84" t="s">
+      <c r="Y86" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z86" s="15"/>
+      <c r="AA86" s="15"/>
+      <c r="AB86" s="15"/>
+      <c r="AC86" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD86" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE86" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF86" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG86" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH86" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI86" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK86" s="110"/>
+      <c r="AL86" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM86" s="19">
+        <v>50</v>
+      </c>
+      <c r="AN86" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO86" s="16"/>
+      <c r="AP86" s="16"/>
+      <c r="AQ86" s="110"/>
+      <c r="AR86" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS86" s="19">
+        <v>50</v>
+      </c>
+      <c r="AT86" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU86" s="15"/>
+      <c r="AV86" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:48">
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="131"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="131"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="97"/>
+      <c r="T87" s="15"/>
+      <c r="U87" s="15"/>
+      <c r="V87" s="15"/>
+      <c r="W87" s="15"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="15"/>
+      <c r="AA87" s="15"/>
+      <c r="AB87" s="15"/>
+      <c r="AC87" s="97"/>
+      <c r="AD87" s="15"/>
+      <c r="AE87" s="15"/>
+      <c r="AF87" s="15"/>
+      <c r="AG87" s="16"/>
+      <c r="AH87" s="16"/>
+      <c r="AI87" s="16"/>
+      <c r="AJ87" s="16"/>
+      <c r="AK87" s="110"/>
+      <c r="AL87" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AM77" s="19">
+      <c r="AM87" s="19">
         <v>170</v>
       </c>
-      <c r="AN77" s="120" t="s">
+      <c r="AN87" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="AO77" s="16"/>
-      <c r="AP77" s="16"/>
-      <c r="AQ77" s="110"/>
-      <c r="AR77" s="76" t="s">
+      <c r="AO87" s="16"/>
+      <c r="AP87" s="16"/>
+      <c r="AQ87" s="110"/>
+      <c r="AR87" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="AS77" s="19">
+      <c r="AS87" s="19">
         <v>50</v>
       </c>
-      <c r="AT77" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU77" s="15"/>
-      <c r="AV77" s="15"/>
-    </row>
-    <row r="82" spans="2:8">
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="95"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="AT87" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU87" s="15"/>
+      <c r="AV87" s="15"/>
+    </row>
+    <row r="92" spans="1:48">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="95"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B7:B11 X18:X19 U18:W18 C25:D25 E24:H25 B69:B72 B18:B25 C20:D22 E19:H21 C7:G7 AG19:AN19 AD52:AQ52 AG27:AN27 AL25:AQ25 AL21:AQ22 AL42:AQ42 AL50:AQ50 AL58:AQ58 AN54:AQ55 AL46:AQ46 AL36:AQ36 AL32:AQ33 AO24:AV24 AO41:AQ41 AO19:AV20 AO49:AV49 AO57:AV57 AO53:AV53 AO45:AV45 AO35:AV35 AO27:AV31 AO39:AQ39 AR39:AV41 AL17:AV17 AO16:AV16 AL70:AV71 AO69:AV69 AL74:AV74 AO73:AV73 AL62:AV63 AO61:AV61 AL66:AV66 AO65:AV65 P48:Y48 P39:S42 P50:S50 P54:S58 P73:S74 P63:S63 P36:S36 P31:S33 P78:U79 P17:V17 P26:W26 P29:Y29 B5:G6 I25:S25 I20:S22 C69:S71 B73:O79 C61:O63 B65:S66 I28:O33 B16:O17 C26:O27 AL40:AQ40 P44:S46 B37:H58 I36:O58 Z19:AC19 T24:AB24 T41:AB41 T20:AB20 T57:AB57 T45:AB45 T35:AB35 T73:AB73 T69:AB69 T39:AK39 T65:AB65 Y18:AU18 W78:AB79 Y26:AU26 AC10:AK11 P30:AB30 AC62:AF62 P16:AB16 P28:AK28 P61:AB62 AC61:AK61 AV61:AV62 AC8:AN9 P75:AB77 AC75:AU79 P37:AU37 P47:AU47 AC51:AU51 P43:AU43 P49:AB49 I7:AB11 AC7:AK7 I5:AN6 X17:AB17 AC16:AK17 AA38:AQ38 X21:AB21 AC20:AK21 AV16:AV21 U25:AB25 AC24:AK25 U42:AB42 AC41:AK42 U50:AB50 AC49:AK50 T54:AB54 AC53:AK54 U58:AB58 AC57:AK58 AV57:AV58 U46:AB46 AC45:AK46 AA27:AC27 AA29:AB29 AC29:AN30 T31:AK32 AV24:AV32 U36:AB36 AC35:AK36 U70:AB70 AC69:AK70 AV68:AV70 U74:AB74 AC73:AK74 AV73:AV79 Z40:AC40 AV35:AV54 U66:AB66 AC65:AK66 AV65:AV66 C9:G11 C8:F8 C18:T19 P27:T27 P38:Y38 T44:Y44 P51:AB53 B60:AV60 B68:AU68 AA44:AQ44 AA48:AQ48 AO5:AV11">
-    <cfRule type="cellIs" dxfId="80" priority="187" operator="equal">
+  <conditionalFormatting sqref="B7:B11 X29 C35:D35 E34:H35 B79:B82 B28:B35 C30:D32 E29:H31 C7:G7 AG29:AN29 AD62:AQ62 AG37:AN37 AL31:AQ32 AN64:AQ65 AL42:AQ43 AO51:AQ51 AO29:AV30 AO59:AV59 AO63:AV63 AO55:AV55 AO37:AV41 AO49:AQ49 AR49:AV51 AL17:AV17 AO16:AV16 AL80:AV81 AO79:AV79 AL84:AV84 AO83:AV83 AL72:AV73 AO71:AV71 AL76:AV76 AO75:AV75 P58:Y58 P49:S52 P60:S60 P64:S68 P83:S84 P73:S73 P46:S46 P41:S43 P88:U89 P17:V17 P36:W36 P39:Y39 B5:G6 I35:S35 I30:S32 C79:S81 B83:O89 C71:O73 B75:S76 I38:O43 B16:O17 C36:O37 AL50:AQ50 P54:S56 B47:H68 I46:O68 Z29:AC29 T30:AB30 T83:AB83 T79:AB79 T49:AK49 T75:AB75 W88:AB89 Y36:AU36 AC10:AK11 P40:AB40 AC72:AF72 P16:AB16 P38:AK38 P71:AB72 AC71:AK71 AV71:AV72 AC8:AN9 P85:AB87 AC85:AU89 P47:AU47 P57:AU57 AC61:AU61 P53:AU53 I7:AB11 AC7:AK7 I5:AN6 X17:AB17 AC16:AK17 AA48:AQ48 X31:AB31 AC30:AK31 AV16:AV17 T34:AK34 T51:AK51 P59:AK59 T64:AB64 AC63:AK64 T67:AK67 AO67:AV67 T55:AK55 AA37:AC37 AA39:AB39 AC39:AN40 T41:AK42 AO34:AV34 T45:AK45 U80:AB80 AC79:AK80 AV78:AV80 U84:AB84 AC83:AK84 AV83:AV89 Z50:AC50 AO45:AV45 U76:AB76 AC75:AK76 AV75:AV76 C9:G11 C8:F8 C29:T29 P37:T37 P48:Y48 T54:Y54 P61:AB63 B70:AV70 B78:AU78 AA54:AQ54 AA58:AQ58 AO5:AV11 AV36:AV42 AV47:AV51 AV53:AV55 AV57:AV59 AV61:AV64 AV29:AV31 B18:H19 B20:I27 C28:H28">
+    <cfRule type="cellIs" dxfId="86" priority="209" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U19:V19">
-    <cfRule type="cellIs" dxfId="79" priority="185" operator="equal">
+  <conditionalFormatting sqref="U29:V29">
+    <cfRule type="cellIs" dxfId="85" priority="207" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC19">
-    <cfRule type="cellIs" dxfId="78" priority="183" operator="equal">
+  <conditionalFormatting sqref="AC29">
+    <cfRule type="cellIs" dxfId="84" priority="205" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD19:AF19">
-    <cfRule type="cellIs" dxfId="77" priority="182" operator="equal">
+  <conditionalFormatting sqref="AD29:AF29">
+    <cfRule type="cellIs" dxfId="83" priority="204" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W19:Y19">
-    <cfRule type="cellIs" dxfId="76" priority="181" operator="equal">
+  <conditionalFormatting sqref="W29:Y29">
+    <cfRule type="cellIs" dxfId="82" priority="203" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U37:W37">
-    <cfRule type="cellIs" dxfId="75" priority="175" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U38:V38">
-    <cfRule type="cellIs" dxfId="74" priority="174" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC38">
-    <cfRule type="cellIs" dxfId="73" priority="172" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD38:AF38">
-    <cfRule type="cellIs" dxfId="72" priority="171" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W38:Y38">
-    <cfRule type="cellIs" dxfId="71" priority="170" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR38:AV38">
-    <cfRule type="cellIs" dxfId="70" priority="165" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR21:AV22 AL23 T21:V21">
-    <cfRule type="cellIs" dxfId="69" priority="155" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR25:AV25">
-    <cfRule type="cellIs" dxfId="68" priority="152" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR42:AV42">
-    <cfRule type="cellIs" dxfId="67" priority="144" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM54:AM55">
-    <cfRule type="cellIs" dxfId="66" priority="103" operator="equal">
+  <conditionalFormatting sqref="U47:W47">
+    <cfRule type="cellIs" dxfId="81" priority="197" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U48:V48">
-    <cfRule type="cellIs" dxfId="65" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="196" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC48">
-    <cfRule type="cellIs" dxfId="64" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="194" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD48:AF48">
-    <cfRule type="cellIs" dxfId="63" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="193" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W48:Y48">
-    <cfRule type="cellIs" dxfId="62" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="192" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR48:AV48">
-    <cfRule type="cellIs" dxfId="61" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="187" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR50:AV50">
-    <cfRule type="cellIs" dxfId="60" priority="126" operator="equal">
+  <conditionalFormatting sqref="AR31:AV32 AL33 T31:V31">
+    <cfRule type="cellIs" dxfId="75" priority="177" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U52:V52">
-    <cfRule type="cellIs" dxfId="59" priority="118" operator="equal">
+  <conditionalFormatting sqref="AM64:AM65">
+    <cfRule type="cellIs" dxfId="74" priority="125" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD52:AF52">
+  <conditionalFormatting sqref="U58:V58">
+    <cfRule type="cellIs" dxfId="73" priority="158" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC58">
+    <cfRule type="cellIs" dxfId="72" priority="157" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD58:AF58">
+    <cfRule type="cellIs" dxfId="71" priority="156" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W58:Y58">
+    <cfRule type="cellIs" dxfId="70" priority="155" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR58:AV58">
+    <cfRule type="cellIs" dxfId="69" priority="152" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U62:V62">
+    <cfRule type="cellIs" dxfId="68" priority="140" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD62:AF62">
+    <cfRule type="cellIs" dxfId="67" priority="138" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W62:Y62">
+    <cfRule type="cellIs" dxfId="66" priority="137" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR62:AV62">
+    <cfRule type="cellIs" dxfId="65" priority="134" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR64:AV65 AL66">
+    <cfRule type="cellIs" dxfId="64" priority="133" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL64:AL65">
+    <cfRule type="cellIs" dxfId="63" priority="132" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U54:V54">
+    <cfRule type="cellIs" dxfId="62" priority="122" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC54">
+    <cfRule type="cellIs" dxfId="61" priority="121" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD54:AF54">
+    <cfRule type="cellIs" dxfId="60" priority="120" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W54:Y54">
+    <cfRule type="cellIs" dxfId="59" priority="119" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR54:AV54">
     <cfRule type="cellIs" dxfId="58" priority="116" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W52:Y52">
-    <cfRule type="cellIs" dxfId="57" priority="115" operator="equal">
+  <conditionalFormatting sqref="X36:X37 B36:B46 C38:D43 E38:H42 C46:D46 E45:H46">
+    <cfRule type="cellIs" dxfId="57" priority="106" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR52:AV52">
-    <cfRule type="cellIs" dxfId="56" priority="112" operator="equal">
+  <conditionalFormatting sqref="U37:V37">
+    <cfRule type="cellIs" dxfId="56" priority="105" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR54:AV55 AL56">
-    <cfRule type="cellIs" dxfId="55" priority="111" operator="equal">
+  <conditionalFormatting sqref="AC37">
+    <cfRule type="cellIs" dxfId="55" priority="104" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL54:AL55">
-    <cfRule type="cellIs" dxfId="54" priority="110" operator="equal">
+  <conditionalFormatting sqref="AD37:AF37">
+    <cfRule type="cellIs" dxfId="54" priority="103" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR58:AV58">
-    <cfRule type="cellIs" dxfId="53" priority="108" operator="equal">
+  <conditionalFormatting sqref="W37:Y37">
+    <cfRule type="cellIs" dxfId="53" priority="102" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U44:V44">
-    <cfRule type="cellIs" dxfId="52" priority="100" operator="equal">
+  <conditionalFormatting sqref="AR42:AV43 AL44">
+    <cfRule type="cellIs" dxfId="52" priority="98" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC44">
-    <cfRule type="cellIs" dxfId="51" priority="99" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD44:AF44">
-    <cfRule type="cellIs" dxfId="50" priority="98" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W44:Y44">
-    <cfRule type="cellIs" dxfId="49" priority="97" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR44:AV44">
-    <cfRule type="cellIs" dxfId="48" priority="94" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR46:AV46">
-    <cfRule type="cellIs" dxfId="47" priority="90" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X26:X27 B26:B36 C28:D33 E28:H32 C36:D36 E35:H36">
-    <cfRule type="cellIs" dxfId="46" priority="84" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U27:V27">
-    <cfRule type="cellIs" dxfId="45" priority="83" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC27">
-    <cfRule type="cellIs" dxfId="44" priority="82" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD27:AF27">
-    <cfRule type="cellIs" dxfId="43" priority="81" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W27:Y27">
-    <cfRule type="cellIs" dxfId="42" priority="80" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR32:AV33 AL34">
-    <cfRule type="cellIs" dxfId="41" priority="76" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR36:AV36">
-    <cfRule type="cellIs" dxfId="40" priority="73" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL72">
-    <cfRule type="cellIs" dxfId="39" priority="60" operator="equal">
+  <conditionalFormatting sqref="AL82">
+    <cfRule type="cellIs" dxfId="51" priority="82" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17">
-    <cfRule type="cellIs" dxfId="38" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="73" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W21">
-    <cfRule type="cellIs" dxfId="37" priority="50" operator="equal">
+  <conditionalFormatting sqref="W31">
+    <cfRule type="cellIs" dxfId="49" priority="72" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z58">
+    <cfRule type="cellIs" dxfId="48" priority="71" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z54">
+    <cfRule type="cellIs" dxfId="47" priority="70" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z48">
-    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="69" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z44">
-    <cfRule type="cellIs" dxfId="35" priority="48" operator="equal">
+  <conditionalFormatting sqref="Z37">
+    <cfRule type="cellIs" dxfId="45" priority="68" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z38">
-    <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
+  <conditionalFormatting sqref="Z39">
+    <cfRule type="cellIs" dxfId="44" priority="67" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z27">
-    <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
+  <conditionalFormatting sqref="AC62">
+    <cfRule type="cellIs" dxfId="43" priority="66" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z29">
-    <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
+  <conditionalFormatting sqref="AC62">
+    <cfRule type="cellIs" dxfId="42" priority="65" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC52">
-    <cfRule type="cellIs" dxfId="31" priority="44" operator="equal">
+  <conditionalFormatting sqref="T84">
+    <cfRule type="cellIs" dxfId="41" priority="58" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC52">
-    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
+  <conditionalFormatting sqref="X50 T50">
+    <cfRule type="cellIs" dxfId="40" priority="55" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25">
-    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
+  <conditionalFormatting sqref="U50:V50 AG50:AK50">
+    <cfRule type="cellIs" dxfId="39" priority="54" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T36">
-    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
+  <conditionalFormatting sqref="AC50">
+    <cfRule type="cellIs" dxfId="38" priority="53" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T42">
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
+  <conditionalFormatting sqref="AD50:AF50">
+    <cfRule type="cellIs" dxfId="37" priority="52" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T46">
-    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+  <conditionalFormatting sqref="W50:Y50">
+    <cfRule type="cellIs" dxfId="36" priority="51" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T50">
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+  <conditionalFormatting sqref="B71:B74">
+    <cfRule type="cellIs" dxfId="35" priority="46" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T58">
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+  <conditionalFormatting sqref="AL74 AG72:AK72">
+    <cfRule type="cellIs" dxfId="34" priority="45" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T74">
-    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
+  <conditionalFormatting sqref="T76">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X40 T40">
-    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U40:V40 AG40:AK40">
-    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC40">
-    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF40">
-    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W40:Y40">
-    <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:B64">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL64 AG62:AK62">
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T66">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T70">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+  <conditionalFormatting sqref="T80">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H11 G8">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC44">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+  <conditionalFormatting sqref="AC54">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC48">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+  <conditionalFormatting sqref="AC58">
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL15 B12:B15 AO12:AV12 AL13:AV14 P14:S14 I12:O14 P12:AK13 C12:G14">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL11">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T35:V35 X35:AV35">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W35">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T46:V46 X46:AV46">
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W46">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T52:V52 X52:AV52">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W52">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T56:V56 X56:AV56">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W56">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T60:V60 X60:AV60">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W60">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T68:V68 X68:AV68">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W68">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:AV18 I19">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO26:AV26 AL27:AV27 J26:AK27">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL25">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:W28 Y28:AV28">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X28">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC24:AK25 AC22:AN23 J21:AB25 AC21:AK21 J19:AN20 AO19:AV25">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8917,39 +9711,39 @@
     <row r="2" spans="1:20">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:20">
       <c r="B4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -8957,7 +9751,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="B5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="30" t="s">
@@ -8968,7 +9762,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="B6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
@@ -8979,72 +9773,72 @@
     </row>
     <row r="7" spans="1:20">
       <c r="B7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="T7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="T8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="T9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="T10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="T11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20">
       <c r="T13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20">
       <c r="T15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="T16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="17:20">
       <c r="T17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="17:20">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -9053,85 +9847,85 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="T19" s="31"/>
     </row>
     <row r="20" spans="17:20">
       <c r="T20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="17:20">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="17:20">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="17:20">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="17:20">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="17:20">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="17:20">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="17:20">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="17:20">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="17:20">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="17:20">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="17:20">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="17:20">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -9140,34 +9934,34 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="T33" s="31"/>
     </row>
     <row r="34" spans="17:20">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="17:20">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="T35" s="31"/>
     </row>
     <row r="36" spans="17:20">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="17:20">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -9176,28 +9970,28 @@
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="T38" s="31"/>
     </row>
     <row r="39" spans="17:20">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="17:20">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="T40" s="31"/>
     </row>
     <row r="41" spans="17:20">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -9238,7 +10032,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -9264,12 +10058,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -9309,10 +10103,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -9321,12 +10115,12 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -9338,18 +10132,18 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -9357,7 +10151,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -9383,7 +10177,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
         <v>78</v>
@@ -9394,7 +10188,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
         <v>78</v>
@@ -9405,7 +10199,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -9413,7 +10207,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -9434,13 +10228,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -9448,22 +10242,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="42" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -9475,15 +10269,15 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -9495,10 +10289,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -9524,10 +10318,10 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -9541,7 +10335,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -9566,10 +10360,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9578,53 +10372,53 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -9687,7 +10481,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
@@ -9699,7 +10493,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="52"/>
       <c r="AA1" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
@@ -9712,7 +10506,7 @@
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1">
       <c r="C2" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -9753,7 +10547,7 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="49"/>
       <c r="AE2" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
@@ -9768,7 +10562,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>57</v>
@@ -9792,7 +10586,7 @@
         <v>62</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>63</v>
@@ -9823,7 +10617,7 @@
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="23" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>26</v>
@@ -9843,7 +10637,7 @@
       </c>
       <c r="AD3" s="49"/>
       <c r="AE3" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>74</v>
@@ -9861,7 +10655,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>80</v>
@@ -9888,10 +10682,10 @@
         <v>5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>84</v>
@@ -9906,10 +10700,10 @@
         <v>1</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
@@ -9969,7 +10763,7 @@
         <v>91</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q6" s="16" t="b">
         <v>1</v>
@@ -10057,7 +10851,7 @@
     </row>
     <row r="9" spans="1:35" s="15" customFormat="1">
       <c r="C9" s="15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E9" s="15">
         <v>1</v>
@@ -10204,7 +10998,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>80</v>
@@ -10216,7 +11010,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>80</v>
@@ -10228,7 +11022,7 @@
         <v>5</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N15" s="15" t="s">
         <v>84</v>
@@ -10243,51 +11037,51 @@
         <v>1</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="50"/>
       <c r="W15" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Z15" s="50"/>
       <c r="AA15" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AD15" s="50"/>
       <c r="AE15" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AI15" s="47"/>
     </row>
     <row r="16" spans="1:35" s="15" customFormat="1">
       <c r="C16" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E16" s="15">
         <v>0.9</v>
@@ -10334,16 +11128,16 @@
       </c>
       <c r="AD16" s="50"/>
       <c r="AE16" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AI16" s="47"/>
     </row>
@@ -10378,7 +11172,7 @@
     </row>
     <row r="18" spans="1:35" s="15" customFormat="1">
       <c r="C18" s="15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -10490,7 +11284,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -10505,33 +11299,33 @@
         <v>95</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="S21" s="15" t="b">
         <v>1</v>
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Z21" s="47"/>
       <c r="AA21" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AB21" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AD21" s="47"/>
       <c r="AE21"/>
@@ -10558,7 +11352,7 @@
     </row>
     <row r="23" spans="1:35" s="15" customFormat="1">
       <c r="C23" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E23" s="15">
         <v>0.9</v>
@@ -10570,13 +11364,13 @@
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>85</v>
@@ -10612,13 +11406,13 @@
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AD23" s="50"/>
       <c r="AE23" s="16" t="s">
@@ -10628,7 +11422,7 @@
         <v>50</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AI23" s="47"/>
     </row>
@@ -10650,13 +11444,13 @@
       </c>
       <c r="Z24" s="53"/>
       <c r="AA24" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AD24" s="50"/>
       <c r="AE24" s="16" t="s">
@@ -10666,7 +11460,7 @@
         <v>50</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AI24" s="47"/>
     </row>
@@ -10811,19 +11605,19 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>58</v>
@@ -10837,16 +11631,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
         <v>86</v>
@@ -10860,7 +11654,7 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
         <v>86</v>
@@ -10868,7 +11662,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="C5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -10880,7 +11674,7 @@
         <v>100000</v>
       </c>
       <c r="G5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -10930,19 +11724,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>58</v>
@@ -10950,16 +11744,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
         <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E13" t="s">
         <v>86</v>
@@ -10968,7 +11762,7 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -10976,7 +11770,7 @@
         <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E14" t="s">
         <v>86</v>
@@ -11055,226 +11849,226 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C4" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C5" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C6" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C7" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C8" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C9" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C10" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C11" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C12" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C13" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C14" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C15" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C16" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="33" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C17" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="33" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C18" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C19" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -11295,72 +12089,72 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="32" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C22" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="33" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C23" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="32" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C24" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="33" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C25" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="32" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C26" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -11373,86 +12167,86 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="32" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C28" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="33" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C29" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="32" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C30" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C31" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="32" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C32" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="33" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C33" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -11465,72 +12259,72 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="33" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C35" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="32" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C36" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="33" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C37" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="32" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C38" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="33" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C39" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -11551,16 +12345,16 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="32" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C42" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -11573,226 +12367,226 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="32" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C44" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="33" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C45" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="32" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C46" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="33" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C47" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="32" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C48" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="33" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C49" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="32" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C50" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="33" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C51" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="32" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C52" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="33" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C53" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="32" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C54" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="33" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C55" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="32" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C56" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="33" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C57" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="32" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C58" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="33" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C59" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -11805,86 +12599,86 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="33" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C61" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="32" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C62" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="33" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C63" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="32" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C64" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="33" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C65" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="32" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C66" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -11905,44 +12699,44 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="33" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C69" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="32" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C70" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="33" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C71" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2126" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B4542127-864F-4278-876B-0405517AC208}"/>
+  <xr:revisionPtr revIDLastSave="2143" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D04FE9A-11F1-4675-9A89-92153B46D92A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1333,7 +1333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1463,6 +1463,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1509,7 +1515,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1787,6 +1793,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -3668,7 +3675,7 @@
   <dimension ref="A1:AV92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM20" sqref="AM20"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4070,8 +4077,9 @@
       <c r="G5" s="42">
         <v>125</v>
       </c>
-      <c r="H5" s="138">
-        <v>0</v>
+      <c r="H5" s="147">
+        <f>((H7 * G6^3)/(G7*8))^(1/3)</f>
+        <v>62.499999999999964</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>30</v>
@@ -4184,8 +4192,9 @@
       <c r="G6" s="42">
         <v>250</v>
       </c>
-      <c r="H6" s="138">
-        <v>0</v>
+      <c r="H6" s="147">
+        <f>(H7/G7 * G6^3)^(1/3)</f>
+        <v>124.99999999999994</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2182" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{95B83711-3E4E-4030-ACE0-E36570BFAF2E}"/>
+  <xr:revisionPtr revIDLastSave="2223" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{77DD6A1E-6213-462F-9F55-43C0B099A200}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <author>tc={3FC98A93-1BD2-46CA-8439-5A569DD9E38A}</author>
     <author>tc={A36EDA56-9BB8-4481-8541-35CA7263BBE2}</author>
     <author>tc={DBEF9E9E-4230-44E7-ABF6-F54B4228B979}</author>
-    <author>tc={C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}</author>
-    <author>tc={214FAD6C-C7E5-485F-8706-D09B002BBC46}</author>
-    <author>tc={C0B5B783-6F49-48BB-AF50-66A6DF6487E7}</author>
     <author>tc={2C545A15-58BF-4325-853E-F01A6E2CD754}</author>
     <author>tc={B6F30610-5DE2-43DC-8686-4075E019810F}</author>
     <author>tc={F6470554-740D-4816-85E3-E23C5729D666}</author>
@@ -107,31 +104,7 @@
     Confirm with Peter Couch / Greg Toms</t>
       </text>
     </comment>
-    <comment ref="AM15" authorId="5" shapeId="0" xr:uid="{C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    20mm of wallthickness loss not detectable</t>
-      </text>
-    </comment>
-    <comment ref="AM18" authorId="6" shapeId="0" xr:uid="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Confirm with Peter Couch / Greg Toms</t>
-      </text>
-    </comment>
-    <comment ref="AM25" authorId="7" shapeId="0" xr:uid="{C0B5B783-6F49-48BB-AF50-66A6DF6487E7}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    add safety factor back</t>
-      </text>
-    </comment>
-    <comment ref="D64" authorId="8" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+    <comment ref="D50" authorId="5" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -139,7 +112,7 @@
     Change task type to planned / reactive / risk?</t>
       </text>
     </comment>
-    <comment ref="D70" authorId="9" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
+    <comment ref="D56" authorId="6" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -147,7 +120,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="I70" authorId="10" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
+    <comment ref="I56" authorId="7" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -155,7 +128,7 @@
     Break it out later</t>
       </text>
     </comment>
-    <comment ref="AA70" authorId="11" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+    <comment ref="AA56" authorId="8" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -164,7 +137,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="U72" authorId="12" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+    <comment ref="U58" authorId="9" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -172,7 +145,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="D78" authorId="13" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+    <comment ref="D64" authorId="10" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -180,7 +153,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="AA78" authorId="14" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+    <comment ref="AA64" authorId="11" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -189,7 +162,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="U80" authorId="15" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
+    <comment ref="U66" authorId="12" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -197,7 +170,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="E86" authorId="16" shapeId="0" xr:uid="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
+    <comment ref="E72" authorId="13" shapeId="0" xr:uid="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -205,7 +178,7 @@
     fix method to allow multiple indicators for one component</t>
       </text>
     </comment>
-    <comment ref="I86" authorId="17" shapeId="0" xr:uid="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
+    <comment ref="I72" authorId="14" shapeId="0" xr:uid="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -218,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="338">
   <si>
     <t>Cause</t>
   </si>
@@ -520,319 +493,319 @@
     <t>functional_failure</t>
   </si>
   <si>
+    <t>fungal decay _ external</t>
+  </si>
+  <si>
+    <t>fungal decay _ internal</t>
+  </si>
+  <si>
+    <t>pole_saver_rod</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>inspection_protection</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>fire_damage</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>weathering</t>
+  </si>
+  <si>
+    <t>pole footing</t>
+  </si>
+  <si>
+    <t>leaning</t>
+  </si>
+  <si>
+    <t>any reason</t>
+  </si>
+  <si>
+    <t>lean_angle</t>
+  </si>
+  <si>
+    <t>CAT3/4 replacement</t>
+  </si>
+  <si>
+    <t>CAT1/2 replacement</t>
+  </si>
+  <si>
+    <t>pole_cap</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>Pole cap replacement</t>
+  </si>
+  <si>
+    <t>Pole replacement</t>
+  </si>
+  <si>
+    <t>crossarm</t>
+  </si>
+  <si>
+    <t>cross_sectional_area</t>
+  </si>
+  <si>
+    <t>Fix_this_error</t>
+  </si>
+  <si>
+    <t>add_no_condition_method</t>
+  </si>
+  <si>
+    <t>strut</t>
+  </si>
+  <si>
+    <t>modify</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>crack_length</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sub System</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Maintainable Item</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Pole</t>
+  </si>
+  <si>
+    <t>Pole Stay</t>
+  </si>
+  <si>
+    <t>Pole Cap</t>
+  </si>
+  <si>
+    <t>Pole Footing</t>
+  </si>
+  <si>
+    <t>pole (common)</t>
+  </si>
+  <si>
+    <t>pole (timber)</t>
+  </si>
+  <si>
+    <t>pole (concrete)</t>
+  </si>
+  <si>
+    <t>pole (steel)</t>
+  </si>
+  <si>
+    <t>pole (composite)</t>
+  </si>
+  <si>
+    <t>pole fixtures</t>
+  </si>
+  <si>
+    <t>attachments</t>
+  </si>
+  <si>
+    <t>pole cap</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>pole stay</t>
+  </si>
+  <si>
+    <t>pole attachment</t>
+  </si>
+  <si>
+    <t>top attachment point</t>
+  </si>
+  <si>
+    <t>thimble</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>dead end</t>
+  </si>
+  <si>
+    <t>insulator</t>
+  </si>
+  <si>
+    <t>batten</t>
+  </si>
+  <si>
+    <t>sight guard</t>
+  </si>
+  <si>
+    <t>anchor rod</t>
+  </si>
+  <si>
+    <t>footing</t>
+  </si>
+  <si>
+    <t>pole modification</t>
+  </si>
+  <si>
+    <t>reinforcement</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>acroprop</t>
+  </si>
+  <si>
+    <t>pole accessories</t>
+  </si>
+  <si>
+    <t>fauna protection</t>
+  </si>
+  <si>
+    <t>stay protection</t>
+  </si>
+  <si>
+    <t>cattle guard post</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (termites)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (lightning)</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (impact)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fire damage)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fungal decay - internal)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fungal decay - external)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (weathering)</t>
+  </si>
+  <si>
+    <t>[pole foundation] due to (unknown)</t>
+  </si>
+  <si>
+    <t>[pole cap] due to (unknown)</t>
+  </si>
+  <si>
+    <t>pole_cap_present</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (unknown)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (impact)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (corrosion)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (bed log)</t>
+  </si>
+  <si>
+    <t>[pole top equipment] due to {cracking}</t>
+  </si>
+  <si>
+    <t>cracking_present</t>
+  </si>
+  <si>
+    <t>simple_safety_factor</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>ssf</t>
+  </si>
+  <si>
+    <t>actual_safety_factor</t>
+  </si>
+  <si>
+    <t>dsf_calc</t>
+  </si>
+  <si>
+    <t>asf</t>
+  </si>
+  <si>
+    <t>Footing</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Pole cap</t>
+  </si>
+  <si>
+    <t>top_of_pole_stregnth</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>task_name</t>
+  </si>
+  <si>
+    <t>Level of Failure</t>
+  </si>
+  <si>
+    <t>condition_name</t>
+  </si>
+  <si>
+    <t>termite</t>
+  </si>
+  <si>
+    <t>level_3_inspection</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
     <t>termite_powder</t>
-  </si>
-  <si>
-    <t>CAT3/4 replacement</t>
-  </si>
-  <si>
-    <t>CAT1/2 replacement</t>
-  </si>
-  <si>
-    <t>fungal decay _ external</t>
-  </si>
-  <si>
-    <t>fungal decay _ internal</t>
-  </si>
-  <si>
-    <t>pole_saver_rod</t>
-  </si>
-  <si>
-    <t>lightning</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>inspection_protection</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>fire_damage</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>weathering</t>
-  </si>
-  <si>
-    <t>pole footing</t>
-  </si>
-  <si>
-    <t>leaning</t>
-  </si>
-  <si>
-    <t>any reason</t>
-  </si>
-  <si>
-    <t>lean_angle</t>
-  </si>
-  <si>
-    <t>pole_cap</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>Pole cap replacement</t>
-  </si>
-  <si>
-    <t>Pole replacement</t>
-  </si>
-  <si>
-    <t>crossarm</t>
-  </si>
-  <si>
-    <t>cross_sectional_area</t>
-  </si>
-  <si>
-    <t>Fix_this_error</t>
-  </si>
-  <si>
-    <t>add_no_condition_method</t>
-  </si>
-  <si>
-    <t>strut</t>
-  </si>
-  <si>
-    <t>modify</t>
-  </si>
-  <si>
-    <t>addition</t>
-  </si>
-  <si>
-    <t>crack_length</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Sub System</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Maintainable Item</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Pole</t>
-  </si>
-  <si>
-    <t>Pole Stay</t>
-  </si>
-  <si>
-    <t>Pole Cap</t>
-  </si>
-  <si>
-    <t>Pole Footing</t>
-  </si>
-  <si>
-    <t>pole (common)</t>
-  </si>
-  <si>
-    <t>pole (timber)</t>
-  </si>
-  <si>
-    <t>pole (concrete)</t>
-  </si>
-  <si>
-    <t>pole (steel)</t>
-  </si>
-  <si>
-    <t>pole (composite)</t>
-  </si>
-  <si>
-    <t>pole fixtures</t>
-  </si>
-  <si>
-    <t>attachments</t>
-  </si>
-  <si>
-    <t>pole cap</t>
-  </si>
-  <si>
-    <t>steps</t>
-  </si>
-  <si>
-    <t>pole stay</t>
-  </si>
-  <si>
-    <t>pole attachment</t>
-  </si>
-  <si>
-    <t>top attachment point</t>
-  </si>
-  <si>
-    <t>thimble</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>dead end</t>
-  </si>
-  <si>
-    <t>insulator</t>
-  </si>
-  <si>
-    <t>batten</t>
-  </si>
-  <si>
-    <t>sight guard</t>
-  </si>
-  <si>
-    <t>anchor rod</t>
-  </si>
-  <si>
-    <t>footing</t>
-  </si>
-  <si>
-    <t>pole modification</t>
-  </si>
-  <si>
-    <t>reinforcement</t>
-  </si>
-  <si>
-    <t>nail</t>
-  </si>
-  <si>
-    <t>acroprop</t>
-  </si>
-  <si>
-    <t>pole accessories</t>
-  </si>
-  <si>
-    <t>fauna protection</t>
-  </si>
-  <si>
-    <t>stay protection</t>
-  </si>
-  <si>
-    <t>cattle guard post</t>
-  </si>
-  <si>
-    <t>Indicators</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (termites)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (lightning)</t>
-  </si>
-  <si>
-    <t>nil</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (impact)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fire damage)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fungal decay - internal)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fungal decay - external)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (weathering)</t>
-  </si>
-  <si>
-    <t>[pole foundation] due to (unknown)</t>
-  </si>
-  <si>
-    <t>[pole cap] due to (unknown)</t>
-  </si>
-  <si>
-    <t>pole_cap_present</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (unknown)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (impact)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (corrosion)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (bed log)</t>
-  </si>
-  <si>
-    <t>[pole top equipment] due to {cracking}</t>
-  </si>
-  <si>
-    <t>cracking_present</t>
-  </si>
-  <si>
-    <t>simple_safety_factor</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>ssf</t>
-  </si>
-  <si>
-    <t>actual_safety_factor</t>
-  </si>
-  <si>
-    <t>dsf_calc</t>
-  </si>
-  <si>
-    <t>asf</t>
-  </si>
-  <si>
-    <t>Footing</t>
-  </si>
-  <si>
-    <t>Stay</t>
-  </si>
-  <si>
-    <t>Pole cap</t>
-  </si>
-  <si>
-    <t>top_of_pole_stregnth</t>
-  </si>
-  <si>
-    <t>Trigger</t>
-  </si>
-  <si>
-    <t>tasks</t>
-  </si>
-  <si>
-    <t>task_name</t>
-  </si>
-  <si>
-    <t>Level of Failure</t>
-  </si>
-  <si>
-    <t>condition_name</t>
-  </si>
-  <si>
-    <t>termite</t>
-  </si>
-  <si>
-    <t>level_3_inspection</t>
-  </si>
-  <si>
-    <t>any</t>
   </si>
   <si>
     <t>fm</t>
@@ -1808,7 +1781,35 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="93">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2729,45 +2730,36 @@
   <threadedComment ref="AM8" dT="2020-09-09T03:33:43.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{DBEF9E9E-4230-44E7-ABF6-F54B4228B979}">
     <text>Confirm with Peter Couch / Greg Toms</text>
   </threadedComment>
-  <threadedComment ref="AM15" dT="2020-09-09T03:27:17.71" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C397EB22-6AC0-4AF2-9D5D-CDA1CF4C3832}">
-    <text>20mm of wallthickness loss not detectable</text>
-  </threadedComment>
-  <threadedComment ref="AM18" dT="2020-09-09T03:33:43.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{214FAD6C-C7E5-485F-8706-D09B002BBC46}">
-    <text>Confirm with Peter Couch / Greg Toms</text>
-  </threadedComment>
-  <threadedComment ref="AM25" dT="2020-09-10T03:27:58.22" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C0B5B783-6F49-48BB-AF50-66A6DF6487E7}">
-    <text>add safety factor back</text>
-  </threadedComment>
-  <threadedComment ref="D64" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+  <threadedComment ref="D50" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
     <text>Change task type to planned / reactive / risk?</text>
   </threadedComment>
-  <threadedComment ref="D70" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B6F30610-5DE2-43DC-8686-4075E019810F}">
+  <threadedComment ref="D56" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{B6F30610-5DE2-43DC-8686-4075E019810F}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="I70" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F6470554-740D-4816-85E3-E23C5729D666}">
+  <threadedComment ref="I56" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F6470554-740D-4816-85E3-E23C5729D666}">
     <text>Break it out later</text>
   </threadedComment>
-  <threadedComment ref="AA70" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+  <threadedComment ref="AA56" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="U72" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+  <threadedComment ref="U58" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
     <text>Make this a repair task</text>
   </threadedComment>
-  <threadedComment ref="D78" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+  <threadedComment ref="D64" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="AA78" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+  <threadedComment ref="AA64" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
-  <threadedComment ref="U80" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{65DC17AD-63E9-433B-A662-056382EECC79}">
+  <threadedComment ref="U66" dT="2020-09-09T04:05:19.09" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{65DC17AD-63E9-433B-A662-056382EECC79}">
     <text>Make this a repair task</text>
   </threadedComment>
-  <threadedComment ref="E86" dT="2020-09-15T23:18:34.59" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
+  <threadedComment ref="E72" dT="2020-09-15T23:18:34.59" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
     <text>fix method to allow multiple indicators for one component</text>
   </threadedComment>
-  <threadedComment ref="I86" dT="2020-09-15T22:13:46.05" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
+  <threadedComment ref="I72" dT="2020-09-15T22:13:46.05" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
     <text>Create error catch for this method</text>
   </threadedComment>
 </ThreadedComments>
@@ -2854,7 +2846,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="O12" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>277</v>
@@ -2871,7 +2863,7 @@
         <v>280</v>
       </c>
       <c r="Q13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S13" t="s">
         <v>281</v>
@@ -2882,7 +2874,7 @@
         <v>282</v>
       </c>
       <c r="O14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q14" t="s">
         <v>283</v>
@@ -2905,7 +2897,7 @@
         <v>288</v>
       </c>
       <c r="S15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2965,7 +2957,7 @@
         <v>97</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>95</v>
@@ -2979,15 +2971,15 @@
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K33" t="s">
         <v>51</v>
@@ -3060,7 +3052,7 @@
         <v>294</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
@@ -3074,7 +3066,7 @@
         <v>301</v>
       </c>
       <c r="J39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="2:19">
@@ -3102,13 +3094,13 @@
         <v>303</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="H53" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>304</v>
@@ -3178,7 +3170,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>311</v>
@@ -3692,10 +3684,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
-  <dimension ref="A1:AW92"/>
+  <dimension ref="A1:AW78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ18" sqref="AJ18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD37" sqref="AD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4771,7 +4763,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="139"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="56"/>
       <c r="J14" s="56"/>
       <c r="K14" s="56"/>
@@ -4817,9 +4809,14 @@
     <row r="15" spans="1:49">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="H15" s="138"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J15" s="15">
         <v>0</v>
@@ -4828,16 +4825,16 @@
         <v>79</v>
       </c>
       <c r="L15" s="45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M15" s="130">
         <v>1</v>
       </c>
       <c r="N15" s="45">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="O15" s="45">
-        <v>2.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="P15" s="130">
         <v>10</v>
@@ -4858,7 +4855,7 @@
       <c r="V15" s="45">
         <v>0.8</v>
       </c>
-      <c r="W15" s="45">
+      <c r="W15" s="15">
         <v>50</v>
       </c>
       <c r="X15" s="15" t="s">
@@ -4870,13 +4867,11 @@
       <c r="Z15" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AA15" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB15" s="41">
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15">
         <v>20</v>
       </c>
-      <c r="AC15" s="41">
+      <c r="AC15" s="15">
         <v>5</v>
       </c>
       <c r="AD15" s="97" t="s">
@@ -4898,16 +4893,10 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="18"/>
       <c r="AL15" s="108"/>
-      <c r="AM15" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN15" s="90">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="116" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP15" s="18"/>
+      <c r="AM15" s="84"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="108"/>
+      <c r="AP15" s="16"/>
       <c r="AQ15" s="18" t="b">
         <v>1</v>
       </c>
@@ -4924,9 +4913,8 @@
       <c r="C16" s="15"/>
       <c r="D16" s="97"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="139"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
@@ -4935,51 +4923,39 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="131"/>
-      <c r="Q16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
       <c r="S16" s="15"/>
-      <c r="T16" s="97">
-        <v>1</v>
-      </c>
-      <c r="U16" s="15"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="108"/>
-      <c r="AM16" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN16" s="90">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="116" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP16" s="18"/>
-      <c r="AQ16" s="18"/>
-      <c r="AR16" s="108"/>
-      <c r="AS16" s="74"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="18"/>
-      <c r="AV16" s="18"/>
-      <c r="AW16" s="15"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="109"/>
+      <c r="AM16" s="83"/>
+      <c r="AN16" s="68"/>
+      <c r="AO16" s="117"/>
+      <c r="AP16" s="70"/>
+      <c r="AQ16" s="70"/>
+      <c r="AR16" s="109"/>
+      <c r="AS16" s="75"/>
+      <c r="AT16" s="71"/>
+      <c r="AU16" s="69"/>
+      <c r="AV16" s="69"/>
+      <c r="AW16" s="69"/>
     </row>
     <row r="17" spans="1:49">
       <c r="A17" s="15"/>
@@ -4987,7 +4963,6 @@
       <c r="C17" s="15"/>
       <c r="D17" s="97"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
@@ -5002,45 +4977,83 @@
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
       <c r="T17" s="97"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="70"/>
-      <c r="AJ17" s="70"/>
-      <c r="AK17" s="70"/>
-      <c r="AL17" s="109"/>
-      <c r="AM17" s="83"/>
-      <c r="AN17" s="68"/>
-      <c r="AO17" s="117"/>
-      <c r="AP17" s="70"/>
-      <c r="AQ17" s="70"/>
-      <c r="AR17" s="109"/>
-      <c r="AS17" s="75"/>
-      <c r="AT17" s="71"/>
-      <c r="AU17" s="69"/>
-      <c r="AV17" s="69"/>
-      <c r="AW17" s="69"/>
+      <c r="U17" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="V17" s="15">
+        <v>1</v>
+      </c>
+      <c r="W17" s="15">
+        <v>3500</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z17" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA17" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="97"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="110"/>
+      <c r="AM17" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN17" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="120">
+        <v>50</v>
+      </c>
+      <c r="AP17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT17" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW17" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:49">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="97"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -5053,154 +5066,58 @@
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
       <c r="T18" s="97"/>
-      <c r="U18" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="V18" s="42">
-        <v>0.9</v>
-      </c>
-      <c r="W18" s="15">
-        <v>100</v>
-      </c>
-      <c r="X18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z18" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA18" s="15" t="s">
-        <v>93</v>
-      </c>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
       <c r="AB18" s="15"/>
       <c r="AC18" s="15"/>
       <c r="AD18" s="97"/>
       <c r="AE18" s="15"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
-      <c r="AH18" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="110"/>
-      <c r="AM18" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN18" s="80">
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="97"/>
+      <c r="AM18" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN18" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="120">
         <v>50</v>
       </c>
-      <c r="AO18" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP18" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT18" s="93">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV18" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="110"/>
+      <c r="AS18" s="76"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="15"/>
       <c r="AW18" s="15"/>
     </row>
     <row r="19" spans="1:49">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="97"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="16"/>
-      <c r="AL19" s="110"/>
-      <c r="AM19" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN19" s="80">
-        <v>50</v>
-      </c>
-      <c r="AO19" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP19" s="16"/>
-      <c r="AQ19" s="16"/>
-      <c r="AR19" s="110"/>
-      <c r="AS19" s="76"/>
-      <c r="AT19" s="19"/>
-      <c r="AU19" s="15"/>
-      <c r="AV19" s="15"/>
-      <c r="AW19" s="15"/>
+      <c r="AM19" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN19" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="AO19" s="122">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:49">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="97"/>
       <c r="U20" s="69"/>
       <c r="V20" s="69"/>
       <c r="W20" s="69"/>
@@ -5234,32 +5151,18 @@
     <row r="21" spans="1:49">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="97"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="97"/>
       <c r="U21" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V21" s="15">
         <v>1</v>
       </c>
       <c r="W21" s="45">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="X21" s="15" t="s">
         <v>2</v>
@@ -5279,26 +5182,16 @@
       <c r="AE21" s="15"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
-      <c r="AH21" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI21" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
       <c r="AJ21" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21" s="16"/>
       <c r="AL21" s="110"/>
-      <c r="AM21" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN21" s="80">
-        <v>1</v>
-      </c>
-      <c r="AO21" s="119">
-        <v>3</v>
-      </c>
+      <c r="AM21" s="84"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="120"/>
       <c r="AP21" s="16" t="b">
         <v>0</v>
       </c>
@@ -5333,47 +5226,47 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="69"/>
-      <c r="AD22" s="104"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="70"/>
-      <c r="AI22" s="70"/>
-      <c r="AJ22" s="70"/>
-      <c r="AK22" s="70"/>
-      <c r="AL22" s="109"/>
-      <c r="AM22" s="83"/>
-      <c r="AN22" s="68"/>
-      <c r="AO22" s="117"/>
-      <c r="AP22" s="70"/>
-      <c r="AQ22" s="70"/>
-      <c r="AR22" s="109"/>
-      <c r="AS22" s="75"/>
-      <c r="AT22" s="71"/>
-      <c r="AU22" s="69"/>
-      <c r="AV22" s="69"/>
-      <c r="AW22" s="69"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="102"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="57"/>
+      <c r="AJ22" s="57"/>
+      <c r="AK22" s="57"/>
+      <c r="AL22" s="112"/>
+      <c r="AM22" s="85"/>
+      <c r="AN22" s="58"/>
+      <c r="AO22" s="121"/>
+      <c r="AP22" s="57"/>
+      <c r="AQ22" s="57"/>
+      <c r="AR22" s="112"/>
+      <c r="AS22" s="78"/>
+      <c r="AT22" s="58"/>
+      <c r="AU22" s="56"/>
+      <c r="AV22" s="56"/>
+      <c r="AW22" s="56"/>
     </row>
     <row r="23" spans="1:49">
       <c r="A23" s="15"/>
@@ -5384,89 +5277,99 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
+      <c r="I23" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" s="45">
+        <v>10</v>
+      </c>
+      <c r="M23" s="130">
+        <v>1</v>
+      </c>
+      <c r="N23" s="45">
+        <v>122</v>
+      </c>
+      <c r="O23" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="P23" s="130">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="S23" s="15"/>
-      <c r="T23" s="97"/>
+      <c r="T23" s="97">
+        <v>1</v>
+      </c>
       <c r="U23" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="V23" s="15">
-        <v>1</v>
-      </c>
-      <c r="W23" s="45">
-        <v>7000</v>
+        <v>81</v>
+      </c>
+      <c r="V23" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="W23" s="15">
+        <v>50</v>
       </c>
       <c r="X23" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="Y23" s="15" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="Z23" s="15" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AA23" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="97"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="110"/>
-      <c r="AM23" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN23" s="80">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="119">
-        <v>50</v>
-      </c>
-      <c r="AP23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT23" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU23" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW23" s="15" t="s">
-        <v>6</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AB23" s="15">
+        <v>20</v>
+      </c>
+      <c r="AC23" s="15">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE23" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF23" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG23" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH23" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="108"/>
+      <c r="AM23" s="84"/>
+      <c r="AN23" s="18"/>
+      <c r="AO23" s="108"/>
+      <c r="AP23" s="16"/>
+      <c r="AQ23" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="108"/>
+      <c r="AS23" s="74"/>
+      <c r="AT23" s="93"/>
+      <c r="AU23" s="18"/>
+      <c r="AV23" s="18"/>
+      <c r="AW23" s="15"/>
     </row>
     <row r="24" spans="1:49">
       <c r="A24" s="15"/>
@@ -5474,7 +5377,6 @@
       <c r="C24" s="15"/>
       <c r="D24" s="97"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -5489,41 +5391,35 @@
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="97"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="97"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="15"/>
-      <c r="AL24" s="97"/>
-      <c r="AM24" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN24" s="80">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="119">
-        <v>50</v>
-      </c>
-      <c r="AP24" s="16"/>
-      <c r="AQ24" s="16"/>
-      <c r="AR24" s="110"/>
-      <c r="AS24" s="76"/>
-      <c r="AT24" s="19"/>
-      <c r="AU24" s="15"/>
-      <c r="AV24" s="15"/>
-      <c r="AW24" s="15"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="69"/>
+      <c r="AB24" s="69"/>
+      <c r="AC24" s="69"/>
+      <c r="AD24" s="104"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="69"/>
+      <c r="AG24" s="69"/>
+      <c r="AH24" s="70"/>
+      <c r="AI24" s="70"/>
+      <c r="AJ24" s="70"/>
+      <c r="AK24" s="70"/>
+      <c r="AL24" s="109"/>
+      <c r="AM24" s="83"/>
+      <c r="AN24" s="68"/>
+      <c r="AO24" s="117"/>
+      <c r="AP24" s="70"/>
+      <c r="AQ24" s="70"/>
+      <c r="AR24" s="109"/>
+      <c r="AS24" s="75"/>
+      <c r="AT24" s="71"/>
+      <c r="AU24" s="69"/>
+      <c r="AV24" s="69"/>
+      <c r="AW24" s="69"/>
     </row>
     <row r="25" spans="1:49">
       <c r="A25" s="15"/>
@@ -5531,18 +5427,81 @@
       <c r="C25" s="15"/>
       <c r="D25" s="97"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="97"/>
+      <c r="U25" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="V25" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="W25" s="15">
+        <v>100</v>
+      </c>
+      <c r="X25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z25" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA25" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="97"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="110"/>
       <c r="AM25" s="82" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AN25" s="80">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="119">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AO25" s="123" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="74"/>
+      <c r="AT25" s="93"/>
+      <c r="AU25" s="18"/>
+      <c r="AV25" s="18"/>
+      <c r="AW25" s="15"/>
     </row>
     <row r="26" spans="1:49">
       <c r="A26" s="15"/>
@@ -5550,7 +5509,6 @@
       <c r="C26" s="15"/>
       <c r="D26" s="97"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
@@ -5565,35 +5523,41 @@
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
       <c r="T26" s="97"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="69"/>
-      <c r="AB26" s="69"/>
-      <c r="AC26" s="69"/>
-      <c r="AD26" s="104"/>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="69"/>
-      <c r="AG26" s="69"/>
-      <c r="AH26" s="70"/>
-      <c r="AI26" s="70"/>
-      <c r="AJ26" s="70"/>
-      <c r="AK26" s="70"/>
-      <c r="AL26" s="109"/>
-      <c r="AM26" s="83"/>
-      <c r="AN26" s="68"/>
-      <c r="AO26" s="117"/>
-      <c r="AP26" s="70"/>
-      <c r="AQ26" s="70"/>
-      <c r="AR26" s="109"/>
-      <c r="AS26" s="75"/>
-      <c r="AT26" s="71"/>
-      <c r="AU26" s="69"/>
-      <c r="AV26" s="69"/>
-      <c r="AW26" s="69"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="97"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="110"/>
+      <c r="AM26" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN26" s="80">
+        <v>50</v>
+      </c>
+      <c r="AO26" s="123" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP26" s="16"/>
+      <c r="AQ26" s="16"/>
+      <c r="AR26" s="110"/>
+      <c r="AS26" s="76"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="15"/>
+      <c r="AV26" s="15"/>
+      <c r="AW26" s="15"/>
     </row>
     <row r="27" spans="1:49">
       <c r="A27" s="15"/>
@@ -5601,7 +5565,6 @@
       <c r="C27" s="15"/>
       <c r="D27" s="97"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
@@ -5616,67 +5579,35 @@
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
       <c r="T27" s="97"/>
-      <c r="U27" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="V27" s="15">
-        <v>1</v>
-      </c>
-      <c r="W27" s="45">
-        <v>15000</v>
-      </c>
-      <c r="X27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y27" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z27" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA27" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="97"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="110"/>
-      <c r="AM27" s="84"/>
-      <c r="AN27" s="19"/>
-      <c r="AO27" s="120"/>
-      <c r="AP27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT27" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU27" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW27" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="69"/>
+      <c r="AC27" s="69"/>
+      <c r="AD27" s="104"/>
+      <c r="AE27" s="69"/>
+      <c r="AF27" s="69"/>
+      <c r="AG27" s="69"/>
+      <c r="AH27" s="70"/>
+      <c r="AI27" s="70"/>
+      <c r="AJ27" s="70"/>
+      <c r="AK27" s="70"/>
+      <c r="AL27" s="109"/>
+      <c r="AM27" s="83"/>
+      <c r="AN27" s="68"/>
+      <c r="AO27" s="117"/>
+      <c r="AP27" s="70"/>
+      <c r="AQ27" s="70"/>
+      <c r="AR27" s="109"/>
+      <c r="AS27" s="75"/>
+      <c r="AT27" s="71"/>
+      <c r="AU27" s="69"/>
+      <c r="AV27" s="69"/>
+      <c r="AW27" s="69"/>
     </row>
     <row r="28" spans="1:49">
       <c r="A28" s="15"/>
@@ -5684,459 +5615,452 @@
       <c r="C28" s="15"/>
       <c r="D28" s="97"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="102"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="112"/>
-      <c r="AM28" s="85"/>
-      <c r="AN28" s="58"/>
-      <c r="AO28" s="121"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="112"/>
-      <c r="AS28" s="78"/>
-      <c r="AT28" s="58"/>
-      <c r="AU28" s="56"/>
-      <c r="AV28" s="56"/>
-      <c r="AW28" s="56"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="131"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="97"/>
+      <c r="U28" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="V28" s="15">
+        <v>1</v>
+      </c>
+      <c r="W28" s="15">
+        <v>3500</v>
+      </c>
+      <c r="X28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z28" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA28" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="97"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="16"/>
+      <c r="AL28" s="110"/>
+      <c r="AM28" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN28" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="120">
+        <v>50</v>
+      </c>
+      <c r="AP28" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT28" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW28" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:49">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="97"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J29" s="15">
-        <v>0</v>
-      </c>
-      <c r="K29" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="L29" s="45">
-        <v>10</v>
-      </c>
-      <c r="M29" s="130">
-        <v>1</v>
-      </c>
-      <c r="N29" s="45">
-        <v>125</v>
-      </c>
-      <c r="O29" s="45">
-        <v>3.3</v>
-      </c>
-      <c r="P29" s="130">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="15" t="s">
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="97"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="97"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="97"/>
+      <c r="AM29" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="R29" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="S29" s="15"/>
-      <c r="T29" s="97">
-        <v>1</v>
-      </c>
-      <c r="U29" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="V29" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="W29" s="15">
+      <c r="AN29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="120">
         <v>50</v>
       </c>
-      <c r="X29" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y29" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z29" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15">
-        <v>20</v>
-      </c>
-      <c r="AC29" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD29" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE29" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF29" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG29" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH29" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="18"/>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="18"/>
-      <c r="AL29" s="108"/>
-      <c r="AM29" s="84"/>
-      <c r="AN29" s="18"/>
-      <c r="AO29" s="108"/>
       <c r="AP29" s="16"/>
-      <c r="AQ29" s="18"/>
-      <c r="AR29" s="108"/>
-      <c r="AS29" s="74"/>
-      <c r="AT29" s="93"/>
-      <c r="AU29" s="18"/>
-      <c r="AV29" s="18"/>
+      <c r="AQ29" s="16"/>
+      <c r="AR29" s="110"/>
+      <c r="AS29" s="76"/>
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="15"/>
       <c r="AW29" s="15"/>
     </row>
     <row r="30" spans="1:49">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="97"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="104"/>
-      <c r="AE30" s="69"/>
-      <c r="AF30" s="69"/>
-      <c r="AG30" s="69"/>
-      <c r="AH30" s="70"/>
-      <c r="AI30" s="70"/>
-      <c r="AJ30" s="70"/>
-      <c r="AK30" s="70"/>
-      <c r="AL30" s="109"/>
-      <c r="AM30" s="83"/>
-      <c r="AN30" s="68"/>
-      <c r="AO30" s="117"/>
-      <c r="AP30" s="70"/>
-      <c r="AQ30" s="70"/>
-      <c r="AR30" s="109"/>
-      <c r="AS30" s="75"/>
-      <c r="AT30" s="71"/>
-      <c r="AU30" s="69"/>
-      <c r="AV30" s="69"/>
-      <c r="AW30" s="69"/>
+      <c r="AM30" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN30" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="AO30" s="122">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:49">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="97"/>
-      <c r="U31" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="V31" s="15">
-        <v>1</v>
-      </c>
-      <c r="W31" s="15">
-        <v>3500</v>
-      </c>
-      <c r="X31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y31" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z31" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA31" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="97"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ31" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="16"/>
-      <c r="AL31" s="110"/>
-      <c r="AM31" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="120">
-        <v>50</v>
-      </c>
-      <c r="AP31" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR31" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS31" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT31" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU31" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW31" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="69"/>
+      <c r="AA31" s="69"/>
+      <c r="AB31" s="69"/>
+      <c r="AC31" s="69"/>
+      <c r="AD31" s="104"/>
+      <c r="AE31" s="69"/>
+      <c r="AF31" s="69"/>
+      <c r="AG31" s="69"/>
+      <c r="AH31" s="70"/>
+      <c r="AI31" s="70"/>
+      <c r="AJ31" s="70"/>
+      <c r="AK31" s="70"/>
+      <c r="AL31" s="109"/>
+      <c r="AM31" s="83"/>
+      <c r="AN31" s="68"/>
+      <c r="AO31" s="117"/>
+      <c r="AP31" s="70"/>
+      <c r="AQ31" s="70"/>
+      <c r="AR31" s="109"/>
+      <c r="AS31" s="75"/>
+      <c r="AT31" s="71"/>
+      <c r="AU31" s="69"/>
+      <c r="AV31" s="69"/>
+      <c r="AW31" s="69"/>
     </row>
     <row r="32" spans="1:49">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="97"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="131"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="97"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="U32" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="V32" s="15">
+        <v>1</v>
+      </c>
+      <c r="W32" s="45">
+        <v>7000</v>
+      </c>
+      <c r="X32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z32" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA32" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="AB32" s="15"/>
       <c r="AC32" s="15"/>
       <c r="AD32" s="97"/>
       <c r="AE32" s="15"/>
       <c r="AF32" s="15"/>
       <c r="AG32" s="15"/>
-      <c r="AH32" s="15"/>
-      <c r="AI32" s="15"/>
-      <c r="AJ32" s="15"/>
-      <c r="AK32" s="15"/>
-      <c r="AL32" s="97"/>
-      <c r="AM32" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="120">
-        <v>50</v>
-      </c>
-      <c r="AP32" s="16"/>
-      <c r="AQ32" s="16"/>
-      <c r="AR32" s="110"/>
-      <c r="AS32" s="76"/>
-      <c r="AT32" s="19"/>
-      <c r="AU32" s="15"/>
-      <c r="AV32" s="15"/>
-      <c r="AW32" s="15"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="110"/>
+      <c r="AM32" s="84"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="120"/>
+      <c r="AP32" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT32" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW32" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="1:49">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
-      <c r="AM33" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN33" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO33" s="122">
-        <v>3</v>
-      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="133"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="102"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="57"/>
+      <c r="AJ33" s="57"/>
+      <c r="AK33" s="57"/>
+      <c r="AL33" s="112"/>
+      <c r="AM33" s="85"/>
+      <c r="AN33" s="58"/>
+      <c r="AO33" s="121"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="57"/>
+      <c r="AR33" s="112"/>
+      <c r="AS33" s="78"/>
+      <c r="AT33" s="58"/>
+      <c r="AU33" s="56"/>
+      <c r="AV33" s="56"/>
+      <c r="AW33" s="56"/>
     </row>
     <row r="34" spans="1:49">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="69"/>
-      <c r="W34" s="69"/>
-      <c r="X34" s="69"/>
-      <c r="Y34" s="69"/>
-      <c r="Z34" s="69"/>
-      <c r="AA34" s="69"/>
-      <c r="AB34" s="69"/>
-      <c r="AC34" s="69"/>
-      <c r="AD34" s="104"/>
-      <c r="AE34" s="69"/>
-      <c r="AF34" s="69"/>
-      <c r="AG34" s="69"/>
-      <c r="AH34" s="70"/>
-      <c r="AI34" s="70"/>
-      <c r="AJ34" s="70"/>
-      <c r="AK34" s="70"/>
-      <c r="AL34" s="109"/>
-      <c r="AM34" s="83"/>
-      <c r="AN34" s="68"/>
-      <c r="AO34" s="117"/>
-      <c r="AP34" s="70"/>
-      <c r="AQ34" s="70"/>
-      <c r="AR34" s="109"/>
-      <c r="AS34" s="75"/>
-      <c r="AT34" s="71"/>
-      <c r="AU34" s="69"/>
-      <c r="AV34" s="69"/>
-      <c r="AW34" s="69"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0</v>
+      </c>
+      <c r="K34" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="L34" s="41">
+        <v>0</v>
+      </c>
+      <c r="M34" s="134">
+        <v>0</v>
+      </c>
+      <c r="N34" s="41">
+        <v>700</v>
+      </c>
+      <c r="O34" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="P34" s="134">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="V34" s="15">
+        <v>1</v>
+      </c>
+      <c r="W34" s="15">
+        <v>50</v>
+      </c>
+      <c r="X34" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y34" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z34" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA34" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB34" s="15">
+        <v>20</v>
+      </c>
+      <c r="AC34" s="15">
+        <v>5</v>
+      </c>
+      <c r="AD34" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="18"/>
+      <c r="AJ34" s="18"/>
+      <c r="AK34" s="18"/>
+      <c r="AL34" s="108"/>
+      <c r="AM34" s="84"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="120"/>
+      <c r="AP34" s="145"/>
+      <c r="AQ34" s="145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="146"/>
+      <c r="AS34" s="76"/>
+      <c r="AT34" s="19"/>
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="15"/>
     </row>
     <row r="35" spans="1:49">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="97"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
-      <c r="U35" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="V35" s="15">
-        <v>1</v>
-      </c>
-      <c r="W35" s="45">
-        <v>15000</v>
-      </c>
-      <c r="X35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y35" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z35" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA35" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="97"/>
-      <c r="AE35" s="15"/>
-      <c r="AF35" s="15"/>
-      <c r="AG35" s="15"/>
-      <c r="AH35" s="16"/>
-      <c r="AI35" s="16"/>
-      <c r="AJ35" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK35" s="16"/>
-      <c r="AL35" s="110"/>
-      <c r="AM35" s="84"/>
-      <c r="AN35" s="19"/>
-      <c r="AO35" s="120"/>
-      <c r="AP35" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR35" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS35" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT35" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU35" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW35" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="131"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="97"/>
+      <c r="U35" s="69"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="69"/>
+      <c r="X35" s="69"/>
+      <c r="Y35" s="69"/>
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="69"/>
+      <c r="AB35" s="69"/>
+      <c r="AC35" s="69"/>
+      <c r="AD35" s="104"/>
+      <c r="AE35" s="69"/>
+      <c r="AF35" s="69"/>
+      <c r="AG35" s="69"/>
+      <c r="AH35" s="70"/>
+      <c r="AI35" s="70"/>
+      <c r="AJ35" s="70"/>
+      <c r="AK35" s="70"/>
+      <c r="AL35" s="109"/>
+      <c r="AM35" s="83"/>
+      <c r="AN35" s="140"/>
+      <c r="AO35" s="141"/>
+      <c r="AP35" s="142"/>
+      <c r="AQ35" s="142"/>
+      <c r="AR35" s="143"/>
+      <c r="AS35" s="144"/>
+      <c r="AT35" s="71"/>
+      <c r="AU35" s="69"/>
+      <c r="AV35" s="69"/>
+      <c r="AW35" s="69"/>
     </row>
     <row r="36" spans="1:49">
       <c r="A36" s="15"/>
@@ -6147,47 +6071,75 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="133"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="133"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="102"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="56"/>
-      <c r="AC36" s="56"/>
-      <c r="AD36" s="102"/>
-      <c r="AE36" s="56"/>
-      <c r="AF36" s="56"/>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="57"/>
-      <c r="AI36" s="57"/>
-      <c r="AJ36" s="57"/>
-      <c r="AK36" s="57"/>
-      <c r="AL36" s="112"/>
-      <c r="AM36" s="85"/>
-      <c r="AN36" s="58"/>
-      <c r="AO36" s="121"/>
-      <c r="AP36" s="57"/>
-      <c r="AQ36" s="57"/>
-      <c r="AR36" s="112"/>
-      <c r="AS36" s="78"/>
-      <c r="AT36" s="58"/>
-      <c r="AU36" s="56"/>
-      <c r="AV36" s="56"/>
-      <c r="AW36" s="56"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="131"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="97"/>
+      <c r="U36" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="V36" s="15">
+        <v>0.99</v>
+      </c>
+      <c r="W36" s="15">
+        <v>0</v>
+      </c>
+      <c r="X36" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y36" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z36" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE36" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF36" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG36" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH36" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="18"/>
+      <c r="AL36" s="108"/>
+      <c r="AM36" s="84"/>
+      <c r="AN36" s="19"/>
+      <c r="AO36" s="120"/>
+      <c r="AP36" s="145"/>
+      <c r="AQ36" s="145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="146"/>
+      <c r="AS36" s="74"/>
+      <c r="AT36" s="93"/>
+      <c r="AU36" s="18"/>
+      <c r="AV36" s="18"/>
+      <c r="AW36" s="15"/>
     </row>
     <row r="37" spans="1:49">
       <c r="A37" s="15"/>
@@ -6198,147 +6150,112 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J37" s="15">
-        <v>0</v>
-      </c>
-      <c r="K37" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="L37" s="45">
-        <v>10</v>
-      </c>
-      <c r="M37" s="130">
-        <v>1</v>
-      </c>
-      <c r="N37" s="45">
-        <v>122</v>
-      </c>
-      <c r="O37" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="P37" s="130">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="R37" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="131"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
       <c r="S37" s="15"/>
-      <c r="T37" s="97">
-        <v>1</v>
-      </c>
-      <c r="U37" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="V37" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="W37" s="15">
-        <v>50</v>
-      </c>
-      <c r="X37" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y37" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z37" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA37" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB37" s="15">
-        <v>20</v>
-      </c>
-      <c r="AC37" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD37" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE37" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF37" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG37" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH37" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI37" s="18"/>
-      <c r="AJ37" s="18"/>
-      <c r="AK37" s="18"/>
-      <c r="AL37" s="108"/>
-      <c r="AM37" s="84"/>
-      <c r="AN37" s="18"/>
-      <c r="AO37" s="108"/>
-      <c r="AP37" s="16"/>
-      <c r="AQ37" s="18"/>
-      <c r="AR37" s="108"/>
-      <c r="AS37" s="74"/>
-      <c r="AT37" s="93"/>
-      <c r="AU37" s="18"/>
-      <c r="AV37" s="18"/>
-      <c r="AW37" s="15"/>
+      <c r="T37" s="97"/>
+      <c r="U37" s="69"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="69"/>
+      <c r="X37" s="69"/>
+      <c r="Y37" s="69"/>
+      <c r="Z37" s="69"/>
+      <c r="AA37" s="69"/>
+      <c r="AB37" s="69"/>
+      <c r="AC37" s="69"/>
+      <c r="AD37" s="104"/>
+      <c r="AE37" s="69"/>
+      <c r="AF37" s="69"/>
+      <c r="AG37" s="69"/>
+      <c r="AH37" s="70"/>
+      <c r="AI37" s="70"/>
+      <c r="AJ37" s="70"/>
+      <c r="AK37" s="70"/>
+      <c r="AL37" s="109"/>
+      <c r="AM37" s="83"/>
+      <c r="AN37" s="68"/>
+      <c r="AO37" s="117"/>
+      <c r="AP37" s="70"/>
+      <c r="AQ37" s="70"/>
+      <c r="AR37" s="109"/>
+      <c r="AS37" s="75"/>
+      <c r="AT37" s="71"/>
+      <c r="AU37" s="69"/>
+      <c r="AV37" s="69"/>
+      <c r="AW37" s="69"/>
     </row>
     <row r="38" spans="1:49">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="131"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="97"/>
-      <c r="U38" s="69"/>
-      <c r="V38" s="69"/>
-      <c r="W38" s="69"/>
-      <c r="X38" s="69"/>
-      <c r="Y38" s="69"/>
-      <c r="Z38" s="69"/>
-      <c r="AA38" s="69"/>
-      <c r="AB38" s="69"/>
-      <c r="AC38" s="69"/>
-      <c r="AD38" s="104"/>
-      <c r="AE38" s="69"/>
-      <c r="AF38" s="69"/>
-      <c r="AG38" s="69"/>
-      <c r="AH38" s="70"/>
-      <c r="AI38" s="70"/>
-      <c r="AJ38" s="70"/>
-      <c r="AK38" s="70"/>
-      <c r="AL38" s="109"/>
-      <c r="AM38" s="83"/>
-      <c r="AN38" s="68"/>
-      <c r="AO38" s="117"/>
-      <c r="AP38" s="70"/>
-      <c r="AQ38" s="70"/>
-      <c r="AR38" s="109"/>
-      <c r="AS38" s="75"/>
-      <c r="AT38" s="71"/>
-      <c r="AU38" s="69"/>
-      <c r="AV38" s="69"/>
-      <c r="AW38" s="69"/>
+      <c r="U38" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="V38" s="15">
+        <v>1</v>
+      </c>
+      <c r="W38" s="45">
+        <v>15000</v>
+      </c>
+      <c r="X38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z38" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA38" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="97"/>
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="16"/>
+      <c r="AJ38" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="16"/>
+      <c r="AL38" s="110"/>
+      <c r="AM38" s="84"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="120"/>
+      <c r="AP38" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT38" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU38" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW38" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="1:49">
       <c r="A39" s="15"/>
@@ -6346,81 +6263,50 @@
       <c r="C39" s="15"/>
       <c r="D39" s="97"/>
       <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="131"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="97"/>
-      <c r="U39" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="V39" s="45">
-        <v>0.9</v>
-      </c>
-      <c r="W39" s="15">
-        <v>100</v>
-      </c>
-      <c r="X39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y39" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z39" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA39" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="97"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ39" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="16"/>
-      <c r="AL39" s="110"/>
-      <c r="AM39" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN39" s="80">
-        <v>50</v>
-      </c>
-      <c r="AO39" s="123" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP39" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS39" s="74"/>
-      <c r="AT39" s="93"/>
-      <c r="AU39" s="18"/>
-      <c r="AV39" s="18"/>
-      <c r="AW39" s="15"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="133"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="133"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="102"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="102"/>
+      <c r="AE39" s="56"/>
+      <c r="AF39" s="56"/>
+      <c r="AG39" s="56"/>
+      <c r="AH39" s="57"/>
+      <c r="AI39" s="57"/>
+      <c r="AJ39" s="57"/>
+      <c r="AK39" s="57"/>
+      <c r="AL39" s="112"/>
+      <c r="AM39" s="85"/>
+      <c r="AN39" s="58"/>
+      <c r="AO39" s="121"/>
+      <c r="AP39" s="57"/>
+      <c r="AQ39" s="57"/>
+      <c r="AR39" s="112"/>
+      <c r="AS39" s="78"/>
+      <c r="AT39" s="58"/>
+      <c r="AU39" s="56"/>
+      <c r="AV39" s="56"/>
+      <c r="AW39" s="56"/>
     </row>
     <row r="40" spans="1:49">
       <c r="A40" s="15"/>
@@ -6428,49 +6314,84 @@
       <c r="C40" s="15"/>
       <c r="D40" s="97"/>
       <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="131"/>
+      <c r="I40" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J40" s="15">
+        <v>0</v>
+      </c>
+      <c r="K40" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="L40" s="41">
+        <v>0</v>
+      </c>
+      <c r="M40" s="134">
+        <v>0</v>
+      </c>
+      <c r="N40" s="41">
+        <v>515</v>
+      </c>
+      <c r="O40" s="41">
+        <v>1</v>
+      </c>
+      <c r="P40" s="134">
+        <v>0</v>
+      </c>
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
       <c r="T40" s="97"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="97"/>
+      <c r="U40" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="V40" s="15">
+        <v>1</v>
+      </c>
+      <c r="W40" s="15">
+        <v>0</v>
+      </c>
+      <c r="X40" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y40" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z40" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA40" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="97" t="s">
+        <v>106</v>
+      </c>
       <c r="AE40" s="15"/>
       <c r="AF40" s="15"/>
       <c r="AG40" s="15"/>
-      <c r="AH40" s="16"/>
-      <c r="AI40" s="16"/>
-      <c r="AJ40" s="16"/>
-      <c r="AK40" s="16"/>
-      <c r="AL40" s="110"/>
-      <c r="AM40" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN40" s="80">
-        <v>50</v>
-      </c>
-      <c r="AO40" s="123" t="s">
-        <v>88</v>
-      </c>
+      <c r="AH40" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="18"/>
+      <c r="AJ40" s="18"/>
+      <c r="AK40" s="18"/>
+      <c r="AL40" s="108"/>
+      <c r="AM40" s="84"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="120"/>
       <c r="AP40" s="16"/>
-      <c r="AQ40" s="16"/>
+      <c r="AQ40" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="AR40" s="110"/>
       <c r="AS40" s="76"/>
       <c r="AT40" s="19"/>
@@ -6481,23 +6402,6 @@
     <row r="41" spans="1:49">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="131"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="131"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="97"/>
       <c r="U41" s="69"/>
       <c r="V41" s="69"/>
       <c r="W41" s="69"/>
@@ -6531,31 +6435,14 @@
     <row r="42" spans="1:49">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="131"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="131"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="97"/>
       <c r="U42" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V42" s="15">
         <v>1</v>
       </c>
-      <c r="W42" s="15">
-        <v>3500</v>
+      <c r="W42" s="45">
+        <v>15000</v>
       </c>
       <c r="X42" s="15" t="s">
         <v>2</v>
@@ -6575,26 +6462,16 @@
       <c r="AE42" s="15"/>
       <c r="AF42" s="15"/>
       <c r="AG42" s="15"/>
-      <c r="AH42" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI42" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="AH42" s="16"/>
+      <c r="AI42" s="16"/>
       <c r="AJ42" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="16"/>
       <c r="AL42" s="110"/>
-      <c r="AM42" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN42" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO42" s="120">
-        <v>50</v>
-      </c>
+      <c r="AM42" s="84"/>
+      <c r="AN42" s="19"/>
+      <c r="AO42" s="120"/>
       <c r="AP42" s="16" t="b">
         <v>0</v>
       </c>
@@ -6625,70 +6502,164 @@
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="97"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="131"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="131"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="97"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="15"/>
-      <c r="AD43" s="97"/>
-      <c r="AE43" s="15"/>
-      <c r="AF43" s="15"/>
-      <c r="AG43" s="15"/>
-      <c r="AH43" s="15"/>
-      <c r="AI43" s="15"/>
-      <c r="AJ43" s="15"/>
-      <c r="AK43" s="15"/>
-      <c r="AL43" s="97"/>
-      <c r="AM43" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN43" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO43" s="120">
-        <v>50</v>
-      </c>
-      <c r="AP43" s="16"/>
-      <c r="AQ43" s="16"/>
-      <c r="AR43" s="110"/>
-      <c r="AS43" s="76"/>
-      <c r="AT43" s="19"/>
-      <c r="AU43" s="15"/>
-      <c r="AV43" s="15"/>
-      <c r="AW43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="133"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="133"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="102"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56"/>
+      <c r="Y43" s="56"/>
+      <c r="Z43" s="56"/>
+      <c r="AA43" s="56"/>
+      <c r="AB43" s="56"/>
+      <c r="AC43" s="56"/>
+      <c r="AD43" s="102"/>
+      <c r="AE43" s="56"/>
+      <c r="AF43" s="56"/>
+      <c r="AG43" s="56"/>
+      <c r="AH43" s="57"/>
+      <c r="AI43" s="57"/>
+      <c r="AJ43" s="57"/>
+      <c r="AK43" s="57"/>
+      <c r="AL43" s="112"/>
+      <c r="AM43" s="85"/>
+      <c r="AN43" s="58"/>
+      <c r="AO43" s="121"/>
+      <c r="AP43" s="57"/>
+      <c r="AQ43" s="57"/>
+      <c r="AR43" s="112"/>
+      <c r="AS43" s="78"/>
+      <c r="AT43" s="58"/>
+      <c r="AU43" s="56"/>
+      <c r="AV43" s="56"/>
+      <c r="AW43" s="56"/>
     </row>
     <row r="44" spans="1:49">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
-      <c r="AM44" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN44" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO44" s="122">
-        <v>3</v>
-      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J44" s="15">
+        <v>0</v>
+      </c>
+      <c r="K44" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="L44" s="41">
+        <v>0</v>
+      </c>
+      <c r="M44" s="134">
+        <v>0</v>
+      </c>
+      <c r="N44" s="41">
+        <v>620</v>
+      </c>
+      <c r="O44" s="41">
+        <v>2.1</v>
+      </c>
+      <c r="P44" s="134">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="97"/>
+      <c r="U44" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="V44" s="15">
+        <v>1</v>
+      </c>
+      <c r="W44" s="15">
+        <v>0</v>
+      </c>
+      <c r="X44" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y44" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z44" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA44" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="18"/>
+      <c r="AJ44" s="18"/>
+      <c r="AK44" s="18"/>
+      <c r="AL44" s="108"/>
+      <c r="AM44" s="84"/>
+      <c r="AN44" s="19"/>
+      <c r="AO44" s="120"/>
+      <c r="AP44" s="16"/>
+      <c r="AQ44" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="110"/>
+      <c r="AS44" s="76"/>
+      <c r="AT44" s="19"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="15"/>
+      <c r="AW44" s="15"/>
     </row>
     <row r="45" spans="1:49">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="131"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="131"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="97"/>
       <c r="U45" s="69"/>
       <c r="V45" s="69"/>
       <c r="W45" s="69"/>
@@ -6722,10 +6693,6 @@
     <row r="46" spans="1:49">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
       <c r="U46" s="15" t="s">
         <v>99</v>
       </c>
@@ -6849,41 +6816,49 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J48" s="15">
         <v>0</v>
       </c>
       <c r="K48" s="41" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="L48" s="41">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M48" s="134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="41">
-        <v>700</v>
+        <v>161</v>
       </c>
       <c r="O48" s="41">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="P48" s="134">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="94"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="99"/>
+        <v>30</v>
+      </c>
+      <c r="Q48" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R48" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="S48" s="15">
+        <v>25</v>
+      </c>
+      <c r="T48" s="97">
+        <v>2</v>
+      </c>
       <c r="U48" s="15" t="s">
         <v>81</v>
       </c>
       <c r="V48" s="15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="W48" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X48" s="15" t="s">
         <v>51</v>
@@ -6894,15 +6869,9 @@
       <c r="Z48" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AA48" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB48" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="15">
-        <v>1</v>
-      </c>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
       <c r="AD48" s="97" t="s">
         <v>85</v>
       </c>
@@ -6916,14 +6885,20 @@
       <c r="AJ48" s="18"/>
       <c r="AK48" s="18"/>
       <c r="AL48" s="108"/>
-      <c r="AM48" s="84"/>
-      <c r="AN48" s="19"/>
-      <c r="AO48" s="120"/>
-      <c r="AP48" s="145"/>
-      <c r="AQ48" s="145" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR48" s="146"/>
+      <c r="AM48" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="120">
+        <v>50</v>
+      </c>
+      <c r="AP48" s="16"/>
+      <c r="AQ48" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR48" s="110"/>
       <c r="AS48" s="76"/>
       <c r="AT48" s="19"/>
       <c r="AU48" s="15"/>
@@ -6947,10 +6922,18 @@
       <c r="N49" s="15"/>
       <c r="O49" s="15"/>
       <c r="P49" s="131"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="97"/>
+      <c r="Q49" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="R49" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="S49" s="15">
+        <v>50</v>
+      </c>
+      <c r="T49" s="97">
+        <v>2</v>
+      </c>
       <c r="U49" s="69"/>
       <c r="V49" s="69"/>
       <c r="W49" s="69"/>
@@ -6970,12 +6953,12 @@
       <c r="AK49" s="70"/>
       <c r="AL49" s="109"/>
       <c r="AM49" s="83"/>
-      <c r="AN49" s="140"/>
-      <c r="AO49" s="141"/>
-      <c r="AP49" s="142"/>
-      <c r="AQ49" s="142"/>
-      <c r="AR49" s="143"/>
-      <c r="AS49" s="144"/>
+      <c r="AN49" s="68"/>
+      <c r="AO49" s="117"/>
+      <c r="AP49" s="70"/>
+      <c r="AQ49" s="70"/>
+      <c r="AR49" s="109"/>
+      <c r="AS49" s="75"/>
       <c r="AT49" s="71"/>
       <c r="AU49" s="69"/>
       <c r="AV49" s="69"/>
@@ -6985,7 +6968,7 @@
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
-      <c r="D50" s="97"/>
+      <c r="D50" s="99"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
@@ -7003,62 +6986,76 @@
       <c r="S50" s="15"/>
       <c r="T50" s="97"/>
       <c r="U50" s="15" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="V50" s="15">
         <v>1</v>
       </c>
       <c r="W50" s="15">
+        <v>3500</v>
+      </c>
+      <c r="X50" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z50" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA50" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="97"/>
+      <c r="AE50" s="15"/>
+      <c r="AF50" s="15"/>
+      <c r="AG50" s="15"/>
+      <c r="AH50" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI50" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ50" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="16"/>
+      <c r="AL50" s="110"/>
+      <c r="AM50" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN50" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO50" s="120">
         <v>50</v>
       </c>
-      <c r="X50" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y50" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z50" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA50" s="15"/>
-      <c r="AB50" s="15">
-        <v>20</v>
-      </c>
-      <c r="AC50" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD50" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE50" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF50" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG50" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH50" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI50" s="18"/>
-      <c r="AJ50" s="18"/>
-      <c r="AK50" s="18"/>
-      <c r="AL50" s="108"/>
-      <c r="AM50" s="84"/>
-      <c r="AN50" s="19"/>
-      <c r="AO50" s="120"/>
-      <c r="AP50" s="145"/>
-      <c r="AQ50" s="145" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR50" s="146"/>
-      <c r="AS50" s="74"/>
-      <c r="AT50" s="93"/>
-      <c r="AU50" s="18"/>
-      <c r="AV50" s="18"/>
-      <c r="AW50" s="15"/>
+      <c r="AP50" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT50" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU50" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV50" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW50" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" spans="1:49">
       <c r="A51" s="15"/>
@@ -7081,229 +7078,125 @@
       <c r="R51" s="15"/>
       <c r="S51" s="15"/>
       <c r="T51" s="97"/>
-      <c r="U51" s="69"/>
-      <c r="V51" s="69"/>
-      <c r="W51" s="69"/>
-      <c r="X51" s="69"/>
-      <c r="Y51" s="69"/>
-      <c r="Z51" s="69"/>
-      <c r="AA51" s="69"/>
-      <c r="AB51" s="69"/>
-      <c r="AC51" s="69"/>
-      <c r="AD51" s="104"/>
-      <c r="AE51" s="69"/>
-      <c r="AF51" s="69"/>
-      <c r="AG51" s="69"/>
-      <c r="AH51" s="70"/>
-      <c r="AI51" s="70"/>
-      <c r="AJ51" s="70"/>
-      <c r="AK51" s="70"/>
-      <c r="AL51" s="109"/>
-      <c r="AM51" s="83"/>
-      <c r="AN51" s="68"/>
-      <c r="AO51" s="117"/>
-      <c r="AP51" s="70"/>
-      <c r="AQ51" s="70"/>
-      <c r="AR51" s="109"/>
-      <c r="AS51" s="75"/>
-      <c r="AT51" s="71"/>
-      <c r="AU51" s="69"/>
-      <c r="AV51" s="69"/>
-      <c r="AW51" s="69"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="15"/>
+      <c r="AD51" s="97"/>
+      <c r="AE51" s="15"/>
+      <c r="AF51" s="15"/>
+      <c r="AG51" s="15"/>
+      <c r="AH51" s="15"/>
+      <c r="AI51" s="15"/>
+      <c r="AJ51" s="15"/>
+      <c r="AK51" s="15"/>
+      <c r="AL51" s="97"/>
+      <c r="AM51" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN51" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO51" s="120">
+        <v>50</v>
+      </c>
+      <c r="AP51" s="16"/>
+      <c r="AQ51" s="16"/>
+      <c r="AR51" s="110"/>
+      <c r="AS51" s="76"/>
+      <c r="AT51" s="19"/>
+      <c r="AU51" s="15"/>
+      <c r="AV51" s="15"/>
+      <c r="AW51" s="15"/>
     </row>
     <row r="52" spans="1:49">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
-      <c r="U52" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="V52" s="15">
-        <v>1</v>
-      </c>
-      <c r="W52" s="45">
-        <v>15000</v>
-      </c>
-      <c r="X52" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y52" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z52" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA52" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB52" s="15"/>
-      <c r="AC52" s="15"/>
-      <c r="AD52" s="97"/>
-      <c r="AE52" s="15"/>
-      <c r="AF52" s="15"/>
-      <c r="AG52" s="15"/>
-      <c r="AH52" s="16"/>
-      <c r="AI52" s="16"/>
-      <c r="AJ52" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK52" s="16"/>
-      <c r="AL52" s="110"/>
-      <c r="AM52" s="84"/>
-      <c r="AN52" s="19"/>
-      <c r="AO52" s="120"/>
-      <c r="AP52" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ52" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR52" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS52" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT52" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU52" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV52" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW52" s="15" t="s">
-        <v>6</v>
+      <c r="AM52" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN52" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="AO52" s="122">
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:49">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="133"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="133"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="102"/>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="56"/>
-      <c r="Z53" s="56"/>
-      <c r="AA53" s="56"/>
-      <c r="AB53" s="56"/>
-      <c r="AC53" s="56"/>
-      <c r="AD53" s="102"/>
-      <c r="AE53" s="56"/>
-      <c r="AF53" s="56"/>
-      <c r="AG53" s="56"/>
-      <c r="AH53" s="57"/>
-      <c r="AI53" s="57"/>
-      <c r="AJ53" s="57"/>
-      <c r="AK53" s="57"/>
-      <c r="AL53" s="112"/>
-      <c r="AM53" s="85"/>
-      <c r="AN53" s="58"/>
-      <c r="AO53" s="121"/>
-      <c r="AP53" s="57"/>
-      <c r="AQ53" s="57"/>
-      <c r="AR53" s="112"/>
-      <c r="AS53" s="78"/>
-      <c r="AT53" s="58"/>
-      <c r="AU53" s="56"/>
-      <c r="AV53" s="56"/>
-      <c r="AW53" s="56"/>
+      <c r="U53" s="69"/>
+      <c r="V53" s="69"/>
+      <c r="W53" s="69"/>
+      <c r="X53" s="69"/>
+      <c r="Y53" s="69"/>
+      <c r="Z53" s="69"/>
+      <c r="AA53" s="69"/>
+      <c r="AB53" s="69"/>
+      <c r="AC53" s="69"/>
+      <c r="AD53" s="104"/>
+      <c r="AE53" s="69"/>
+      <c r="AF53" s="69"/>
+      <c r="AG53" s="69"/>
+      <c r="AH53" s="70"/>
+      <c r="AI53" s="70"/>
+      <c r="AJ53" s="70"/>
+      <c r="AK53" s="70"/>
+      <c r="AL53" s="109"/>
+      <c r="AM53" s="83"/>
+      <c r="AN53" s="68"/>
+      <c r="AO53" s="117"/>
+      <c r="AP53" s="70"/>
+      <c r="AQ53" s="70"/>
+      <c r="AR53" s="109"/>
+      <c r="AS53" s="75"/>
+      <c r="AT53" s="71"/>
+      <c r="AU53" s="69"/>
+      <c r="AV53" s="69"/>
+      <c r="AW53" s="69"/>
     </row>
     <row r="54" spans="1:49">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="J54" s="15">
-        <v>0</v>
-      </c>
-      <c r="K54" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="L54" s="41">
-        <v>0</v>
-      </c>
-      <c r="M54" s="134">
-        <v>0</v>
-      </c>
-      <c r="N54" s="41">
-        <v>515</v>
-      </c>
-      <c r="O54" s="41">
-        <v>1</v>
-      </c>
-      <c r="P54" s="134">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="97"/>
       <c r="U54" s="15" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="V54" s="15">
         <v>1</v>
       </c>
-      <c r="W54" s="15">
-        <v>0</v>
+      <c r="W54" s="45">
+        <v>7000</v>
       </c>
       <c r="X54" s="15" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="Y54" s="15" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="Z54" s="15" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AA54" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD54" s="97" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="97"/>
       <c r="AE54" s="15"/>
       <c r="AF54" s="15"/>
       <c r="AG54" s="15"/>
-      <c r="AH54" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI54" s="18"/>
-      <c r="AJ54" s="18"/>
-      <c r="AK54" s="18"/>
-      <c r="AL54" s="108"/>
+      <c r="AH54" s="16"/>
+      <c r="AI54" s="16"/>
+      <c r="AJ54" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK54" s="16"/>
+      <c r="AL54" s="110"/>
       <c r="AM54" s="84"/>
       <c r="AN54" s="19"/>
       <c r="AO54" s="120"/>
@@ -7316,160 +7209,230 @@
       <c r="AR54" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="AS54" s="76"/>
-      <c r="AT54" s="19"/>
-      <c r="AU54" s="15"/>
-      <c r="AV54" s="15"/>
-      <c r="AW54" s="15"/>
-    </row>
-    <row r="55" spans="1:49">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="U55" s="69"/>
-      <c r="V55" s="69"/>
-      <c r="W55" s="69"/>
-      <c r="X55" s="69"/>
-      <c r="Y55" s="69"/>
-      <c r="Z55" s="69"/>
-      <c r="AA55" s="69"/>
-      <c r="AB55" s="69"/>
-      <c r="AC55" s="69"/>
-      <c r="AD55" s="104"/>
-      <c r="AE55" s="69"/>
-      <c r="AF55" s="69"/>
-      <c r="AG55" s="69"/>
-      <c r="AH55" s="70"/>
-      <c r="AI55" s="70"/>
-      <c r="AJ55" s="70"/>
-      <c r="AK55" s="70"/>
-      <c r="AL55" s="109"/>
-      <c r="AM55" s="83"/>
-      <c r="AN55" s="68"/>
-      <c r="AO55" s="117"/>
-      <c r="AP55" s="70"/>
-      <c r="AQ55" s="70"/>
-      <c r="AR55" s="109"/>
-      <c r="AS55" s="75"/>
-      <c r="AT55" s="71"/>
-      <c r="AU55" s="69"/>
-      <c r="AV55" s="69"/>
-      <c r="AW55" s="69"/>
+      <c r="AS54" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT54" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU54" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV54" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW54" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:49" ht="12" customHeight="1">
+      <c r="A55" s="59"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="129"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="129"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="59"/>
+      <c r="S55" s="59"/>
+      <c r="T55" s="96"/>
+      <c r="U55" s="59"/>
+      <c r="V55" s="59"/>
+      <c r="W55" s="59"/>
+      <c r="X55" s="59"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="59"/>
+      <c r="AA55" s="59"/>
+      <c r="AB55" s="59"/>
+      <c r="AC55" s="59"/>
+      <c r="AD55" s="96"/>
+      <c r="AE55" s="59"/>
+      <c r="AF55" s="59"/>
+      <c r="AG55" s="59"/>
+      <c r="AH55" s="61"/>
+      <c r="AI55" s="61"/>
+      <c r="AJ55" s="61"/>
+      <c r="AK55" s="60"/>
+      <c r="AL55" s="107"/>
+      <c r="AM55" s="81"/>
+      <c r="AN55" s="62"/>
+      <c r="AO55" s="115"/>
+      <c r="AP55" s="61"/>
+      <c r="AQ55" s="61"/>
+      <c r="AR55" s="126"/>
+      <c r="AS55" s="73"/>
+      <c r="AT55" s="62"/>
+      <c r="AU55" s="59"/>
+      <c r="AV55" s="59"/>
+      <c r="AW55" s="59"/>
     </row>
     <row r="56" spans="1:49">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G56" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="J56" s="42">
+        <v>0</v>
+      </c>
+      <c r="K56" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="L56" s="41">
+        <v>20</v>
+      </c>
+      <c r="M56" s="134">
+        <v>1</v>
+      </c>
+      <c r="N56" s="41">
+        <v>50</v>
+      </c>
+      <c r="O56" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="P56" s="134">
+        <v>10</v>
+      </c>
+      <c r="Q56" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="97"/>
       <c r="U56" s="15" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="V56" s="15">
-        <v>1</v>
-      </c>
-      <c r="W56" s="45">
-        <v>15000</v>
+        <v>0.8</v>
+      </c>
+      <c r="W56" s="15">
+        <v>50</v>
       </c>
       <c r="X56" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="Y56" s="15" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="Z56" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA56" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB56" s="15"/>
-      <c r="AC56" s="15"/>
-      <c r="AD56" s="97"/>
-      <c r="AE56" s="15"/>
-      <c r="AF56" s="15"/>
-      <c r="AG56" s="15"/>
-      <c r="AH56" s="16"/>
-      <c r="AI56" s="16"/>
-      <c r="AJ56" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK56" s="16"/>
-      <c r="AL56" s="110"/>
-      <c r="AM56" s="84"/>
-      <c r="AN56" s="19"/>
-      <c r="AO56" s="120"/>
-      <c r="AP56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR56" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS56" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT56" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU56" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV56" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW56" s="15" t="s">
-        <v>6</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AA56" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB56" s="15">
+        <v>20</v>
+      </c>
+      <c r="AC56" s="15">
+        <v>5</v>
+      </c>
+      <c r="AD56" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE56" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF56" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG56" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH56" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="18"/>
+      <c r="AJ56" s="18"/>
+      <c r="AK56" s="18"/>
+      <c r="AL56" s="108"/>
+      <c r="AM56" s="86"/>
+      <c r="AN56" s="18"/>
+      <c r="AO56" s="108"/>
+      <c r="AP56" s="18"/>
+      <c r="AQ56" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR56" s="108"/>
+      <c r="AS56" s="74"/>
+      <c r="AT56" s="93"/>
+      <c r="AU56" s="18"/>
+      <c r="AV56" s="18"/>
+      <c r="AW56" s="15"/>
     </row>
     <row r="57" spans="1:49">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="97"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="99"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="133"/>
-      <c r="N57" s="56"/>
-      <c r="O57" s="56"/>
-      <c r="P57" s="133"/>
-      <c r="Q57" s="56"/>
-      <c r="R57" s="56"/>
-      <c r="S57" s="56"/>
-      <c r="T57" s="102"/>
-      <c r="U57" s="56"/>
-      <c r="V57" s="56"/>
-      <c r="W57" s="56"/>
-      <c r="X57" s="56"/>
-      <c r="Y57" s="56"/>
-      <c r="Z57" s="56"/>
-      <c r="AA57" s="56"/>
-      <c r="AB57" s="56"/>
-      <c r="AC57" s="56"/>
-      <c r="AD57" s="102"/>
-      <c r="AE57" s="56"/>
-      <c r="AF57" s="56"/>
-      <c r="AG57" s="56"/>
-      <c r="AH57" s="57"/>
-      <c r="AI57" s="57"/>
-      <c r="AJ57" s="57"/>
-      <c r="AK57" s="57"/>
-      <c r="AL57" s="112"/>
-      <c r="AM57" s="85"/>
-      <c r="AN57" s="58"/>
-      <c r="AO57" s="121"/>
-      <c r="AP57" s="57"/>
-      <c r="AQ57" s="57"/>
-      <c r="AR57" s="112"/>
-      <c r="AS57" s="78"/>
-      <c r="AT57" s="58"/>
-      <c r="AU57" s="56"/>
-      <c r="AV57" s="56"/>
-      <c r="AW57" s="56"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="131"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="131"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="97"/>
+      <c r="U57" s="69"/>
+      <c r="V57" s="69"/>
+      <c r="W57" s="69"/>
+      <c r="X57" s="69"/>
+      <c r="Y57" s="69"/>
+      <c r="Z57" s="69"/>
+      <c r="AA57" s="69"/>
+      <c r="AB57" s="69"/>
+      <c r="AC57" s="69"/>
+      <c r="AD57" s="104"/>
+      <c r="AE57" s="69"/>
+      <c r="AF57" s="69"/>
+      <c r="AG57" s="69"/>
+      <c r="AH57" s="70"/>
+      <c r="AI57" s="70"/>
+      <c r="AJ57" s="70"/>
+      <c r="AK57" s="70"/>
+      <c r="AL57" s="109"/>
+      <c r="AM57" s="83"/>
+      <c r="AN57" s="68"/>
+      <c r="AO57" s="117"/>
+      <c r="AP57" s="70"/>
+      <c r="AQ57" s="70"/>
+      <c r="AR57" s="109"/>
+      <c r="AS57" s="75"/>
+      <c r="AT57" s="71"/>
+      <c r="AU57" s="69"/>
+      <c r="AV57" s="69"/>
+      <c r="AW57" s="69"/>
     </row>
     <row r="58" spans="1:49">
       <c r="A58" s="15"/>
@@ -7480,77 +7443,65 @@
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
-      <c r="I58" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J58" s="15">
-        <v>0</v>
-      </c>
-      <c r="K58" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="L58" s="41">
-        <v>0</v>
-      </c>
-      <c r="M58" s="134">
-        <v>0</v>
-      </c>
-      <c r="N58" s="41">
-        <v>620</v>
-      </c>
-      <c r="O58" s="41">
-        <v>2.1</v>
-      </c>
-      <c r="P58" s="134">
-        <v>0</v>
-      </c>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="131"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="131"/>
       <c r="Q58" s="15"/>
       <c r="R58" s="15"/>
       <c r="S58" s="15"/>
       <c r="T58" s="97"/>
-      <c r="U58" s="15" t="s">
-        <v>108</v>
+      <c r="U58" s="45" t="s">
+        <v>114</v>
       </c>
       <c r="V58" s="15">
         <v>1</v>
       </c>
       <c r="W58" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X58" s="15" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="Y58" s="15" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="Z58" s="15" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AA58" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB58" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD58" s="97" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AB58" s="15"/>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="97"/>
       <c r="AE58" s="15"/>
       <c r="AF58" s="15"/>
       <c r="AG58" s="15"/>
-      <c r="AH58" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI58" s="18"/>
-      <c r="AJ58" s="18"/>
-      <c r="AK58" s="18"/>
-      <c r="AL58" s="108"/>
-      <c r="AM58" s="84"/>
-      <c r="AN58" s="19"/>
-      <c r="AO58" s="120"/>
+      <c r="AH58" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ58" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="16"/>
+      <c r="AL58" s="110"/>
+      <c r="AM58" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN58" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO58" s="120">
+        <v>50</v>
+      </c>
       <c r="AP58" s="16" t="b">
         <v>0</v>
       </c>
@@ -7560,11 +7511,21 @@
       <c r="AR58" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="AS58" s="76"/>
-      <c r="AT58" s="19"/>
-      <c r="AU58" s="15"/>
-      <c r="AV58" s="15"/>
-      <c r="AW58" s="15"/>
+      <c r="AS58" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT58" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU58" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV58" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW58" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="59" spans="1:49">
       <c r="A59" s="15"/>
@@ -7587,99 +7548,54 @@
       <c r="R59" s="15"/>
       <c r="S59" s="15"/>
       <c r="T59" s="97"/>
-      <c r="U59" s="69"/>
-      <c r="V59" s="69"/>
-      <c r="W59" s="69"/>
-      <c r="X59" s="69"/>
-      <c r="Y59" s="69"/>
-      <c r="Z59" s="69"/>
-      <c r="AA59" s="69"/>
-      <c r="AB59" s="69"/>
-      <c r="AC59" s="69"/>
-      <c r="AD59" s="104"/>
-      <c r="AE59" s="69"/>
-      <c r="AF59" s="69"/>
-      <c r="AG59" s="69"/>
-      <c r="AH59" s="70"/>
-      <c r="AI59" s="70"/>
-      <c r="AJ59" s="70"/>
-      <c r="AK59" s="70"/>
-      <c r="AL59" s="109"/>
-      <c r="AM59" s="83"/>
-      <c r="AN59" s="68"/>
-      <c r="AO59" s="117"/>
-      <c r="AP59" s="70"/>
-      <c r="AQ59" s="70"/>
-      <c r="AR59" s="109"/>
-      <c r="AS59" s="75"/>
-      <c r="AT59" s="71"/>
-      <c r="AU59" s="69"/>
-      <c r="AV59" s="69"/>
-      <c r="AW59" s="69"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="15"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="15"/>
+      <c r="AC59" s="15"/>
+      <c r="AD59" s="97"/>
+      <c r="AE59" s="15"/>
+      <c r="AF59" s="15"/>
+      <c r="AG59" s="15"/>
+      <c r="AH59" s="15"/>
+      <c r="AI59" s="15"/>
+      <c r="AJ59" s="15"/>
+      <c r="AK59" s="15"/>
+      <c r="AL59" s="97"/>
+      <c r="AM59" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN59" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO59" s="120">
+        <v>50</v>
+      </c>
+      <c r="AP59" s="16"/>
+      <c r="AQ59" s="16"/>
+      <c r="AR59" s="110"/>
+      <c r="AS59" s="76"/>
+      <c r="AT59" s="19"/>
+      <c r="AU59" s="15"/>
+      <c r="AV59" s="15"/>
+      <c r="AW59" s="15"/>
     </row>
     <row r="60" spans="1:49">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
-      <c r="U60" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="V60" s="15">
-        <v>1</v>
-      </c>
-      <c r="W60" s="45">
-        <v>15000</v>
-      </c>
-      <c r="X60" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y60" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z60" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA60" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB60" s="15"/>
-      <c r="AC60" s="15"/>
-      <c r="AD60" s="97"/>
-      <c r="AE60" s="15"/>
-      <c r="AF60" s="15"/>
-      <c r="AG60" s="15"/>
-      <c r="AH60" s="16"/>
-      <c r="AI60" s="16"/>
-      <c r="AJ60" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK60" s="16"/>
-      <c r="AL60" s="110"/>
-      <c r="AM60" s="84"/>
-      <c r="AN60" s="19"/>
-      <c r="AO60" s="120"/>
-      <c r="AP60" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ60" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR60" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS60" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT60" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU60" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV60" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW60" s="15" t="s">
-        <v>6</v>
+      <c r="U60" s="45"/>
+      <c r="AM60" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN60" s="20">
+        <v>0</v>
+      </c>
+      <c r="AO60" s="122">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:49">
@@ -7691,47 +7607,47 @@
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="56"/>
-      <c r="K61" s="56"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="133"/>
-      <c r="N61" s="56"/>
-      <c r="O61" s="56"/>
-      <c r="P61" s="133"/>
-      <c r="Q61" s="56"/>
-      <c r="R61" s="56"/>
-      <c r="S61" s="56"/>
-      <c r="T61" s="102"/>
-      <c r="U61" s="56"/>
-      <c r="V61" s="56"/>
-      <c r="W61" s="56"/>
-      <c r="X61" s="56"/>
-      <c r="Y61" s="56"/>
-      <c r="Z61" s="56"/>
-      <c r="AA61" s="56"/>
-      <c r="AB61" s="56"/>
-      <c r="AC61" s="56"/>
-      <c r="AD61" s="102"/>
-      <c r="AE61" s="56"/>
-      <c r="AF61" s="56"/>
-      <c r="AG61" s="56"/>
-      <c r="AH61" s="57"/>
-      <c r="AI61" s="57"/>
-      <c r="AJ61" s="57"/>
-      <c r="AK61" s="57"/>
-      <c r="AL61" s="112"/>
-      <c r="AM61" s="85"/>
-      <c r="AN61" s="58"/>
-      <c r="AO61" s="121"/>
-      <c r="AP61" s="57"/>
-      <c r="AQ61" s="57"/>
-      <c r="AR61" s="112"/>
-      <c r="AS61" s="78"/>
-      <c r="AT61" s="58"/>
-      <c r="AU61" s="56"/>
-      <c r="AV61" s="56"/>
-      <c r="AW61" s="56"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="131"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="131"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="97"/>
+      <c r="U61" s="69"/>
+      <c r="V61" s="69"/>
+      <c r="W61" s="69"/>
+      <c r="X61" s="69"/>
+      <c r="Y61" s="69"/>
+      <c r="Z61" s="69"/>
+      <c r="AA61" s="69"/>
+      <c r="AB61" s="69"/>
+      <c r="AC61" s="69"/>
+      <c r="AD61" s="104"/>
+      <c r="AE61" s="69"/>
+      <c r="AF61" s="69"/>
+      <c r="AG61" s="69"/>
+      <c r="AH61" s="70"/>
+      <c r="AI61" s="70"/>
+      <c r="AJ61" s="70"/>
+      <c r="AK61" s="70"/>
+      <c r="AL61" s="109"/>
+      <c r="AM61" s="83"/>
+      <c r="AN61" s="68"/>
+      <c r="AO61" s="117"/>
+      <c r="AP61" s="70"/>
+      <c r="AQ61" s="70"/>
+      <c r="AR61" s="109"/>
+      <c r="AS61" s="75"/>
+      <c r="AT61" s="71"/>
+      <c r="AU61" s="69"/>
+      <c r="AV61" s="69"/>
+      <c r="AW61" s="69"/>
     </row>
     <row r="62" spans="1:49">
       <c r="A62" s="15"/>
@@ -7742,85 +7658,55 @@
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
-      <c r="I62" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="J62" s="15">
-        <v>0</v>
-      </c>
-      <c r="K62" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="L62" s="41">
-        <v>20</v>
-      </c>
-      <c r="M62" s="134">
-        <v>1</v>
-      </c>
-      <c r="N62" s="41">
-        <v>161</v>
-      </c>
-      <c r="O62" s="41">
-        <v>3.5</v>
-      </c>
-      <c r="P62" s="134">
-        <v>30</v>
-      </c>
-      <c r="Q62" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="R62" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="S62" s="15">
-        <v>25</v>
-      </c>
-      <c r="T62" s="97">
-        <v>2</v>
-      </c>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="131"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="131"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="97"/>
       <c r="U62" s="15" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="V62" s="15">
         <v>1</v>
       </c>
       <c r="W62" s="15">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X62" s="15" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="Y62" s="15" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="Z62" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA62" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="AA62" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="AB62" s="15"/>
       <c r="AC62" s="15"/>
-      <c r="AD62" s="97" t="s">
-        <v>85</v>
-      </c>
+      <c r="AD62" s="97"/>
       <c r="AE62" s="15"/>
       <c r="AF62" s="15"/>
       <c r="AG62" s="15"/>
-      <c r="AH62" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI62" s="18"/>
-      <c r="AJ62" s="18"/>
-      <c r="AK62" s="18"/>
-      <c r="AL62" s="108"/>
-      <c r="AM62" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN62" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO62" s="120">
-        <v>50</v>
-      </c>
+      <c r="AH62" s="16"/>
+      <c r="AI62" s="16"/>
+      <c r="AJ62" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK62" s="16"/>
+      <c r="AL62" s="110"/>
+      <c r="AM62" s="84"/>
+      <c r="AN62" s="19"/>
+      <c r="AO62" s="120"/>
       <c r="AP62" s="16" t="b">
         <v>0</v>
       </c>
@@ -7830,169 +7716,185 @@
       <c r="AR62" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="AS62" s="76"/>
-      <c r="AT62" s="19"/>
-      <c r="AU62" s="15"/>
-      <c r="AV62" s="15"/>
-      <c r="AW62" s="15"/>
-    </row>
-    <row r="63" spans="1:49">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="131"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="131"/>
-      <c r="Q63" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="R63" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="S63" s="15">
-        <v>50</v>
-      </c>
-      <c r="T63" s="97">
+      <c r="AS62" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT62" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU62" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV62" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="U63" s="69"/>
-      <c r="V63" s="69"/>
-      <c r="W63" s="69"/>
-      <c r="X63" s="69"/>
-      <c r="Y63" s="69"/>
-      <c r="Z63" s="69"/>
-      <c r="AA63" s="69"/>
-      <c r="AB63" s="69"/>
-      <c r="AC63" s="69"/>
-      <c r="AD63" s="104"/>
-      <c r="AE63" s="69"/>
-      <c r="AF63" s="69"/>
-      <c r="AG63" s="69"/>
-      <c r="AH63" s="70"/>
-      <c r="AI63" s="70"/>
-      <c r="AJ63" s="70"/>
-      <c r="AK63" s="70"/>
-      <c r="AL63" s="109"/>
-      <c r="AM63" s="83"/>
-      <c r="AN63" s="68"/>
-      <c r="AO63" s="117"/>
-      <c r="AP63" s="70"/>
-      <c r="AQ63" s="70"/>
-      <c r="AR63" s="109"/>
-      <c r="AS63" s="75"/>
-      <c r="AT63" s="71"/>
-      <c r="AU63" s="69"/>
-      <c r="AV63" s="69"/>
-      <c r="AW63" s="69"/>
+      <c r="AW62" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:49" ht="12" customHeight="1">
+      <c r="A63" s="59"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="129"/>
+      <c r="N63" s="59"/>
+      <c r="O63" s="59"/>
+      <c r="P63" s="129"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="59"/>
+      <c r="S63" s="59"/>
+      <c r="T63" s="96"/>
+      <c r="U63" s="59"/>
+      <c r="V63" s="59"/>
+      <c r="W63" s="59"/>
+      <c r="X63" s="59"/>
+      <c r="Y63" s="59"/>
+      <c r="Z63" s="59"/>
+      <c r="AA63" s="59"/>
+      <c r="AB63" s="59"/>
+      <c r="AC63" s="59"/>
+      <c r="AD63" s="96"/>
+      <c r="AE63" s="59"/>
+      <c r="AF63" s="59"/>
+      <c r="AG63" s="59"/>
+      <c r="AH63" s="61"/>
+      <c r="AI63" s="61"/>
+      <c r="AJ63" s="61"/>
+      <c r="AK63" s="60"/>
+      <c r="AL63" s="107"/>
+      <c r="AM63" s="81"/>
+      <c r="AN63" s="62"/>
+      <c r="AO63" s="115"/>
+      <c r="AP63" s="61"/>
+      <c r="AQ63" s="61"/>
+      <c r="AR63" s="126"/>
+      <c r="AS63" s="73"/>
+      <c r="AT63" s="62"/>
+      <c r="AU63" s="59"/>
+      <c r="AV63" s="59"/>
+      <c r="AW63" s="59"/>
     </row>
     <row r="64" spans="1:49">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="99"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" t="s">
+        <v>104</v>
+      </c>
+      <c r="G64" s="15" t="b">
+        <v>0</v>
+      </c>
       <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="131"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="131"/>
-      <c r="Q64" s="15"/>
+      <c r="I64" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J64" s="15">
+        <v>0</v>
+      </c>
+      <c r="K64" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="L64" s="41">
+        <v>20</v>
+      </c>
+      <c r="M64" s="134">
+        <v>1</v>
+      </c>
+      <c r="N64" s="41">
+        <v>50</v>
+      </c>
+      <c r="O64" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="P64" s="134">
+        <v>10</v>
+      </c>
+      <c r="Q64" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="R64" s="15"/>
       <c r="S64" s="15"/>
       <c r="T64" s="97"/>
       <c r="U64" s="15" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="V64" s="15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="W64" s="15">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="X64" s="15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="Y64" s="15" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="Z64" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA64" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB64" s="15"/>
-      <c r="AC64" s="15"/>
-      <c r="AD64" s="97"/>
-      <c r="AE64" s="15"/>
-      <c r="AF64" s="15"/>
-      <c r="AG64" s="15"/>
-      <c r="AH64" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI64" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK64" s="16"/>
-      <c r="AL64" s="110"/>
-      <c r="AM64" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN64" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO64" s="120">
-        <v>50</v>
-      </c>
-      <c r="AP64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ64" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR64" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS64" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT64" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU64" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV64" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW64" s="15" t="s">
-        <v>6</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AA64" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB64" s="15">
+        <v>20</v>
+      </c>
+      <c r="AC64" s="15">
+        <v>5</v>
+      </c>
+      <c r="AD64" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE64" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF64" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG64" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH64" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI64" s="18"/>
+      <c r="AJ64" s="18"/>
+      <c r="AK64" s="18"/>
+      <c r="AL64" s="108"/>
+      <c r="AM64" s="86"/>
+      <c r="AN64" s="18"/>
+      <c r="AO64" s="108"/>
+      <c r="AP64" s="18"/>
+      <c r="AQ64" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR64" s="108"/>
+      <c r="AS64" s="74"/>
+      <c r="AT64" s="93"/>
+      <c r="AU64" s="18"/>
+      <c r="AV64" s="18"/>
+      <c r="AW64" s="15"/>
     </row>
     <row r="65" spans="1:49">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="97"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="99"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -8005,414 +7907,467 @@
       <c r="N65" s="15"/>
       <c r="O65" s="15"/>
       <c r="P65" s="131"/>
-      <c r="Q65" s="15"/>
+      <c r="Q65" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="R65" s="15"/>
       <c r="S65" s="15"/>
       <c r="T65" s="97"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="15"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="15"/>
-      <c r="Z65" s="15"/>
-      <c r="AA65" s="15"/>
-      <c r="AB65" s="15"/>
-      <c r="AC65" s="15"/>
-      <c r="AD65" s="97"/>
-      <c r="AE65" s="15"/>
-      <c r="AF65" s="15"/>
-      <c r="AG65" s="15"/>
-      <c r="AH65" s="15"/>
-      <c r="AI65" s="15"/>
-      <c r="AJ65" s="15"/>
-      <c r="AK65" s="15"/>
-      <c r="AL65" s="97"/>
-      <c r="AM65" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN65" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO65" s="120">
-        <v>50</v>
-      </c>
-      <c r="AP65" s="16"/>
-      <c r="AQ65" s="16"/>
-      <c r="AR65" s="110"/>
-      <c r="AS65" s="76"/>
-      <c r="AT65" s="19"/>
-      <c r="AU65" s="15"/>
-      <c r="AV65" s="15"/>
-      <c r="AW65" s="15"/>
+      <c r="U65" s="69"/>
+      <c r="V65" s="69"/>
+      <c r="W65" s="69"/>
+      <c r="X65" s="69"/>
+      <c r="Y65" s="69"/>
+      <c r="Z65" s="69"/>
+      <c r="AA65" s="69"/>
+      <c r="AB65" s="69"/>
+      <c r="AC65" s="69"/>
+      <c r="AD65" s="104"/>
+      <c r="AE65" s="69"/>
+      <c r="AF65" s="69"/>
+      <c r="AG65" s="69"/>
+      <c r="AH65" s="70"/>
+      <c r="AI65" s="70"/>
+      <c r="AJ65" s="70"/>
+      <c r="AK65" s="70"/>
+      <c r="AL65" s="109"/>
+      <c r="AM65" s="83"/>
+      <c r="AN65" s="68"/>
+      <c r="AO65" s="117"/>
+      <c r="AP65" s="70"/>
+      <c r="AQ65" s="70"/>
+      <c r="AR65" s="109"/>
+      <c r="AS65" s="75"/>
+      <c r="AT65" s="71"/>
+      <c r="AU65" s="69"/>
+      <c r="AV65" s="69"/>
+      <c r="AW65" s="69"/>
     </row>
     <row r="66" spans="1:49">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
-      <c r="AM66" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN66" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO66" s="122">
-        <v>3</v>
+      <c r="C66" s="15"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="131"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="131"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="97"/>
+      <c r="U66" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="V66" s="15">
+        <v>1</v>
+      </c>
+      <c r="W66" s="15">
+        <v>100</v>
+      </c>
+      <c r="X66" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y66" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z66" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA66" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB66" s="15"/>
+      <c r="AC66" s="15"/>
+      <c r="AD66" s="97"/>
+      <c r="AE66" s="15"/>
+      <c r="AF66" s="15"/>
+      <c r="AG66" s="15"/>
+      <c r="AH66" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI66" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ66" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="16"/>
+      <c r="AL66" s="110"/>
+      <c r="AM66" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN66" s="80">
+        <v>0</v>
+      </c>
+      <c r="AO66" s="119">
+        <v>50</v>
+      </c>
+      <c r="AP66" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS66" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT66" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU66" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV66" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW66" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:49">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
-      <c r="U67" s="69"/>
-      <c r="V67" s="69"/>
-      <c r="W67" s="69"/>
-      <c r="X67" s="69"/>
-      <c r="Y67" s="69"/>
-      <c r="Z67" s="69"/>
-      <c r="AA67" s="69"/>
-      <c r="AB67" s="69"/>
-      <c r="AC67" s="69"/>
-      <c r="AD67" s="104"/>
-      <c r="AE67" s="69"/>
-      <c r="AF67" s="69"/>
-      <c r="AG67" s="69"/>
-      <c r="AH67" s="70"/>
-      <c r="AI67" s="70"/>
-      <c r="AJ67" s="70"/>
-      <c r="AK67" s="70"/>
-      <c r="AL67" s="109"/>
-      <c r="AM67" s="83"/>
-      <c r="AN67" s="68"/>
-      <c r="AO67" s="117"/>
-      <c r="AP67" s="70"/>
-      <c r="AQ67" s="70"/>
-      <c r="AR67" s="109"/>
-      <c r="AS67" s="75"/>
-      <c r="AT67" s="71"/>
-      <c r="AU67" s="69"/>
-      <c r="AV67" s="69"/>
-      <c r="AW67" s="69"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="131"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="131"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="97"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="15"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="15"/>
+      <c r="AB67" s="15"/>
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="97"/>
+      <c r="AE67" s="15"/>
+      <c r="AF67" s="15"/>
+      <c r="AG67" s="15"/>
+      <c r="AH67" s="15"/>
+      <c r="AI67" s="15"/>
+      <c r="AJ67" s="15"/>
+      <c r="AK67" s="15"/>
+      <c r="AL67" s="97"/>
+      <c r="AM67" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN67" s="80">
+        <v>0</v>
+      </c>
+      <c r="AO67" s="119">
+        <v>50</v>
+      </c>
+      <c r="AP67" s="16"/>
+      <c r="AQ67" s="16"/>
+      <c r="AR67" s="110"/>
+      <c r="AS67" s="76"/>
+      <c r="AT67" s="19"/>
+      <c r="AU67" s="15"/>
+      <c r="AV67" s="15"/>
+      <c r="AW67" s="15"/>
     </row>
     <row r="68" spans="1:49">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
-      <c r="U68" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="V68" s="15">
-        <v>1</v>
-      </c>
-      <c r="W68" s="45">
-        <v>15000</v>
-      </c>
-      <c r="X68" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y68" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z68" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA68" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB68" s="15"/>
-      <c r="AC68" s="15"/>
-      <c r="AD68" s="97"/>
-      <c r="AE68" s="15"/>
-      <c r="AF68" s="15"/>
-      <c r="AG68" s="15"/>
-      <c r="AH68" s="16"/>
-      <c r="AI68" s="16"/>
-      <c r="AJ68" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK68" s="16"/>
-      <c r="AL68" s="110"/>
-      <c r="AM68" s="84"/>
-      <c r="AN68" s="19"/>
-      <c r="AO68" s="120"/>
-      <c r="AP68" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ68" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR68" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS68" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT68" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU68" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV68" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW68" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:49" ht="12" customHeight="1">
-      <c r="A69" s="59"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="96"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="129"/>
-      <c r="N69" s="59"/>
-      <c r="O69" s="59"/>
-      <c r="P69" s="129"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="59"/>
-      <c r="S69" s="59"/>
-      <c r="T69" s="96"/>
-      <c r="U69" s="59"/>
-      <c r="V69" s="59"/>
-      <c r="W69" s="59"/>
-      <c r="X69" s="59"/>
-      <c r="Y69" s="59"/>
-      <c r="Z69" s="59"/>
-      <c r="AA69" s="59"/>
-      <c r="AB69" s="59"/>
-      <c r="AC69" s="59"/>
-      <c r="AD69" s="96"/>
-      <c r="AE69" s="59"/>
-      <c r="AF69" s="59"/>
-      <c r="AG69" s="59"/>
-      <c r="AH69" s="61"/>
-      <c r="AI69" s="61"/>
-      <c r="AJ69" s="61"/>
-      <c r="AK69" s="60"/>
-      <c r="AL69" s="107"/>
-      <c r="AM69" s="81"/>
-      <c r="AN69" s="62"/>
-      <c r="AO69" s="115"/>
-      <c r="AP69" s="61"/>
-      <c r="AQ69" s="61"/>
-      <c r="AR69" s="126"/>
-      <c r="AS69" s="73"/>
-      <c r="AT69" s="62"/>
-      <c r="AU69" s="59"/>
-      <c r="AV69" s="59"/>
-      <c r="AW69" s="59"/>
+      <c r="U68" s="45"/>
+      <c r="AM68" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN68" s="80">
+        <v>0</v>
+      </c>
+      <c r="AO68" s="119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="131"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="131"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="97"/>
+      <c r="U69" s="69"/>
+      <c r="V69" s="69"/>
+      <c r="W69" s="69"/>
+      <c r="X69" s="69"/>
+      <c r="Y69" s="69"/>
+      <c r="Z69" s="69"/>
+      <c r="AA69" s="69"/>
+      <c r="AB69" s="69"/>
+      <c r="AC69" s="69"/>
+      <c r="AD69" s="104"/>
+      <c r="AE69" s="69"/>
+      <c r="AF69" s="69"/>
+      <c r="AG69" s="69"/>
+      <c r="AH69" s="70"/>
+      <c r="AI69" s="70"/>
+      <c r="AJ69" s="70"/>
+      <c r="AK69" s="70"/>
+      <c r="AL69" s="109"/>
+      <c r="AM69" s="83"/>
+      <c r="AN69" s="68"/>
+      <c r="AO69" s="117"/>
+      <c r="AP69" s="70"/>
+      <c r="AQ69" s="70"/>
+      <c r="AR69" s="109"/>
+      <c r="AS69" s="75"/>
+      <c r="AT69" s="71"/>
+      <c r="AU69" s="69"/>
+      <c r="AV69" s="69"/>
+      <c r="AW69" s="69"/>
     </row>
     <row r="70" spans="1:49">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="E70" t="s">
-        <v>114</v>
-      </c>
-      <c r="F70" t="s">
-        <v>107</v>
-      </c>
-      <c r="G70" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
       <c r="H70" s="15"/>
-      <c r="I70" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="J70" s="42">
-        <v>0</v>
-      </c>
-      <c r="K70" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="L70" s="41">
-        <v>20</v>
-      </c>
-      <c r="M70" s="134">
-        <v>1</v>
-      </c>
-      <c r="N70" s="41">
-        <v>50</v>
-      </c>
-      <c r="O70" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="P70" s="134">
-        <v>10</v>
-      </c>
-      <c r="Q70" s="15" t="s">
-        <v>116</v>
-      </c>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="131"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="131"/>
+      <c r="Q70" s="15"/>
       <c r="R70" s="15"/>
       <c r="S70" s="15"/>
       <c r="T70" s="97"/>
-      <c r="U70" s="15" t="s">
-        <v>81</v>
+      <c r="U70" s="45" t="s">
+        <v>119</v>
       </c>
       <c r="V70" s="15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W70" s="15">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="X70" s="15" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="Y70" s="15" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="Z70" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA70" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB70" s="15">
-        <v>20</v>
-      </c>
-      <c r="AC70" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD70" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE70" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF70" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG70" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH70" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="18"/>
-      <c r="AJ70" s="18"/>
-      <c r="AK70" s="18"/>
-      <c r="AL70" s="108"/>
-      <c r="AM70" s="86"/>
-      <c r="AN70" s="18"/>
-      <c r="AO70" s="108"/>
-      <c r="AP70" s="18"/>
-      <c r="AQ70" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR70" s="108"/>
-      <c r="AS70" s="74"/>
-      <c r="AT70" s="93"/>
-      <c r="AU70" s="18"/>
-      <c r="AV70" s="18"/>
-      <c r="AW70" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="AA70" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB70" s="15"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="97"/>
+      <c r="AE70" s="15"/>
+      <c r="AF70" s="15"/>
+      <c r="AG70" s="15"/>
+      <c r="AH70" s="16"/>
+      <c r="AI70" s="16"/>
+      <c r="AJ70" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK70" s="16"/>
+      <c r="AL70" s="110"/>
+      <c r="AM70" s="84"/>
+      <c r="AN70" s="19"/>
+      <c r="AO70" s="120"/>
+      <c r="AP70" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR70" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS70" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT70" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU70" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV70" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW70" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="71" spans="1:49">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="131"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="131"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="97"/>
-      <c r="U71" s="69"/>
-      <c r="V71" s="69"/>
-      <c r="W71" s="69"/>
-      <c r="X71" s="69"/>
-      <c r="Y71" s="69"/>
-      <c r="Z71" s="69"/>
-      <c r="AA71" s="69"/>
-      <c r="AB71" s="69"/>
-      <c r="AC71" s="69"/>
-      <c r="AD71" s="104"/>
-      <c r="AE71" s="69"/>
-      <c r="AF71" s="69"/>
-      <c r="AG71" s="69"/>
-      <c r="AH71" s="70"/>
-      <c r="AI71" s="70"/>
-      <c r="AJ71" s="70"/>
-      <c r="AK71" s="70"/>
-      <c r="AL71" s="109"/>
-      <c r="AM71" s="83"/>
-      <c r="AN71" s="68"/>
-      <c r="AO71" s="117"/>
-      <c r="AP71" s="70"/>
-      <c r="AQ71" s="70"/>
-      <c r="AR71" s="109"/>
-      <c r="AS71" s="75"/>
-      <c r="AT71" s="71"/>
-      <c r="AU71" s="69"/>
-      <c r="AV71" s="69"/>
-      <c r="AW71" s="69"/>
+      <c r="A71" s="63"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="100"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="63"/>
+      <c r="L71" s="63"/>
+      <c r="M71" s="135"/>
+      <c r="N71" s="63"/>
+      <c r="O71" s="63"/>
+      <c r="P71" s="135"/>
+      <c r="Q71" s="63"/>
+      <c r="R71" s="63"/>
+      <c r="S71" s="63"/>
+      <c r="T71" s="100"/>
+      <c r="U71" s="63"/>
+      <c r="V71" s="63"/>
+      <c r="W71" s="63"/>
+      <c r="X71" s="63"/>
+      <c r="Y71" s="63"/>
+      <c r="Z71" s="63"/>
+      <c r="AA71" s="63"/>
+      <c r="AB71" s="63"/>
+      <c r="AC71" s="63"/>
+      <c r="AD71" s="100"/>
+      <c r="AE71" s="63"/>
+      <c r="AF71" s="63"/>
+      <c r="AG71" s="63"/>
+      <c r="AH71" s="64"/>
+      <c r="AI71" s="64"/>
+      <c r="AJ71" s="64"/>
+      <c r="AK71" s="64"/>
+      <c r="AL71" s="113"/>
+      <c r="AM71" s="87"/>
+      <c r="AN71" s="65"/>
+      <c r="AO71" s="124"/>
+      <c r="AP71" s="64"/>
+      <c r="AQ71" s="64"/>
+      <c r="AR71" s="113"/>
+      <c r="AS71" s="79"/>
+      <c r="AT71" s="65"/>
+      <c r="AU71" s="63"/>
+      <c r="AV71" s="63"/>
+      <c r="AW71" s="63"/>
     </row>
     <row r="72" spans="1:49">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="15"/>
+      <c r="D72" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="131"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="131"/>
-      <c r="Q72" s="15"/>
+      <c r="I72" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J72" s="15">
+        <v>0</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L72" s="15">
+        <v>10</v>
+      </c>
+      <c r="M72" s="131">
+        <v>10</v>
+      </c>
+      <c r="N72" s="15">
+        <v>10</v>
+      </c>
+      <c r="O72" s="15">
+        <v>10</v>
+      </c>
+      <c r="P72" s="131">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="R72" s="15"/>
       <c r="S72" s="15"/>
       <c r="T72" s="97"/>
-      <c r="U72" s="45" t="s">
-        <v>101</v>
+      <c r="U72" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="V72" s="15">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="W72" s="15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X72" s="15" t="s">
         <v>2</v>
       </c>
       <c r="Y72" s="15" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="Z72" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AA72" s="15" t="s">
-        <v>98</v>
-      </c>
+      <c r="AA72" s="15"/>
       <c r="AB72" s="15"/>
       <c r="AC72" s="15"/>
-      <c r="AD72" s="97"/>
-      <c r="AE72" s="15"/>
-      <c r="AF72" s="15"/>
-      <c r="AG72" s="15"/>
+      <c r="AD72" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE72" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF72" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG72" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="AH72" s="16" t="b">
         <v>1</v>
       </c>
@@ -8422,38 +8377,32 @@
       <c r="AJ72" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK72" s="16"/>
+      <c r="AK72" s="16" t="b">
+        <v>0</v>
+      </c>
       <c r="AL72" s="110"/>
       <c r="AM72" s="84" t="s">
         <v>32</v>
       </c>
       <c r="AN72" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO72" s="120">
         <v>50</v>
       </c>
-      <c r="AP72" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ72" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR72" s="110" t="b">
-        <v>0</v>
-      </c>
+      <c r="AO72" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP72" s="16"/>
+      <c r="AQ72" s="16"/>
+      <c r="AR72" s="110"/>
       <c r="AS72" s="76" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="AT72" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU72" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV72" s="15" t="s">
-        <v>2</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AU72" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV72" s="15"/>
       <c r="AW72" s="15" t="s">
         <v>6</v>
       </c>
@@ -8463,7 +8412,9 @@
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
       <c r="D73" s="97"/>
-      <c r="E73" s="15"/>
+      <c r="E73" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
@@ -8479,7 +8430,7 @@
       <c r="R73" s="15"/>
       <c r="S73" s="15"/>
       <c r="T73" s="97"/>
-      <c r="U73" s="45"/>
+      <c r="U73" s="15"/>
       <c r="V73" s="15"/>
       <c r="W73" s="15"/>
       <c r="X73" s="15"/>
@@ -8492,1328 +8443,466 @@
       <c r="AE73" s="15"/>
       <c r="AF73" s="15"/>
       <c r="AG73" s="15"/>
-      <c r="AH73" s="15"/>
-      <c r="AI73" s="15"/>
-      <c r="AJ73" s="15"/>
-      <c r="AK73" s="15"/>
-      <c r="AL73" s="97"/>
+      <c r="AH73" s="16"/>
+      <c r="AI73" s="16"/>
+      <c r="AJ73" s="16"/>
+      <c r="AK73" s="16"/>
+      <c r="AL73" s="110"/>
       <c r="AM73" s="84" t="s">
         <v>38</v>
       </c>
       <c r="AN73" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO73" s="120">
-        <v>50</v>
+        <v>170</v>
+      </c>
+      <c r="AO73" s="120" t="s">
+        <v>88</v>
       </c>
       <c r="AP73" s="16"/>
       <c r="AQ73" s="16"/>
       <c r="AR73" s="110"/>
-      <c r="AS73" s="76"/>
-      <c r="AT73" s="19"/>
-      <c r="AU73" s="15"/>
+      <c r="AS73" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT73" s="19">
+        <v>50</v>
+      </c>
+      <c r="AU73" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="AV73" s="15"/>
       <c r="AW73" s="15"/>
     </row>
-    <row r="74" spans="1:49">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="U74" s="45"/>
-      <c r="AM74" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN74" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO74" s="122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:49">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="131"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="131"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="97"/>
-      <c r="U75" s="69"/>
-      <c r="V75" s="69"/>
-      <c r="W75" s="69"/>
-      <c r="X75" s="69"/>
-      <c r="Y75" s="69"/>
-      <c r="Z75" s="69"/>
-      <c r="AA75" s="69"/>
-      <c r="AB75" s="69"/>
-      <c r="AC75" s="69"/>
-      <c r="AD75" s="104"/>
-      <c r="AE75" s="69"/>
-      <c r="AF75" s="69"/>
-      <c r="AG75" s="69"/>
-      <c r="AH75" s="70"/>
-      <c r="AI75" s="70"/>
-      <c r="AJ75" s="70"/>
-      <c r="AK75" s="70"/>
-      <c r="AL75" s="109"/>
-      <c r="AM75" s="83"/>
-      <c r="AN75" s="68"/>
-      <c r="AO75" s="117"/>
-      <c r="AP75" s="70"/>
-      <c r="AQ75" s="70"/>
-      <c r="AR75" s="109"/>
-      <c r="AS75" s="75"/>
-      <c r="AT75" s="71"/>
-      <c r="AU75" s="69"/>
-      <c r="AV75" s="69"/>
-      <c r="AW75" s="69"/>
-    </row>
-    <row r="76" spans="1:49">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="97"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="131"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="131"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="15"/>
-      <c r="T76" s="97"/>
-      <c r="U76" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="V76" s="15">
-        <v>1</v>
-      </c>
-      <c r="W76" s="15">
-        <v>200</v>
-      </c>
-      <c r="X76" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y76" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z76" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA76" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB76" s="15"/>
-      <c r="AC76" s="15"/>
-      <c r="AD76" s="97"/>
-      <c r="AE76" s="15"/>
-      <c r="AF76" s="15"/>
-      <c r="AG76" s="15"/>
-      <c r="AH76" s="16"/>
-      <c r="AI76" s="16"/>
-      <c r="AJ76" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK76" s="16"/>
-      <c r="AL76" s="110"/>
-      <c r="AM76" s="84"/>
-      <c r="AN76" s="19"/>
-      <c r="AO76" s="120"/>
-      <c r="AP76" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ76" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR76" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS76" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT76" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU76" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV76" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW76" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:49" ht="12" customHeight="1">
-      <c r="A77" s="59"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="96"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="59"/>
-      <c r="K77" s="59"/>
-      <c r="L77" s="59"/>
-      <c r="M77" s="129"/>
-      <c r="N77" s="59"/>
-      <c r="O77" s="59"/>
-      <c r="P77" s="129"/>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="59"/>
-      <c r="S77" s="59"/>
-      <c r="T77" s="96"/>
-      <c r="U77" s="59"/>
-      <c r="V77" s="59"/>
-      <c r="W77" s="59"/>
-      <c r="X77" s="59"/>
-      <c r="Y77" s="59"/>
-      <c r="Z77" s="59"/>
-      <c r="AA77" s="59"/>
-      <c r="AB77" s="59"/>
-      <c r="AC77" s="59"/>
-      <c r="AD77" s="96"/>
-      <c r="AE77" s="59"/>
-      <c r="AF77" s="59"/>
-      <c r="AG77" s="59"/>
-      <c r="AH77" s="61"/>
-      <c r="AI77" s="61"/>
-      <c r="AJ77" s="61"/>
-      <c r="AK77" s="60"/>
-      <c r="AL77" s="107"/>
-      <c r="AM77" s="81"/>
-      <c r="AN77" s="62"/>
-      <c r="AO77" s="115"/>
-      <c r="AP77" s="61"/>
-      <c r="AQ77" s="61"/>
-      <c r="AR77" s="126"/>
-      <c r="AS77" s="73"/>
-      <c r="AT77" s="62"/>
-      <c r="AU77" s="59"/>
-      <c r="AV77" s="59"/>
-      <c r="AW77" s="59"/>
-    </row>
     <row r="78" spans="1:49">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="E78" t="s">
-        <v>118</v>
-      </c>
-      <c r="F78" t="s">
-        <v>107</v>
-      </c>
-      <c r="G78" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="J78" s="15">
-        <v>0</v>
-      </c>
-      <c r="K78" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="L78" s="41">
-        <v>20</v>
-      </c>
-      <c r="M78" s="134">
-        <v>1</v>
-      </c>
-      <c r="N78" s="41">
-        <v>50</v>
-      </c>
-      <c r="O78" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="P78" s="134">
-        <v>10</v>
-      </c>
-      <c r="Q78" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="97"/>
-      <c r="U78" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="V78" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="W78" s="15">
-        <v>50</v>
-      </c>
-      <c r="X78" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y78" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z78" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA78" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB78" s="15">
-        <v>20</v>
-      </c>
-      <c r="AC78" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD78" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE78" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF78" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG78" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH78" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI78" s="18"/>
-      <c r="AJ78" s="18"/>
-      <c r="AK78" s="18"/>
-      <c r="AL78" s="108"/>
-      <c r="AM78" s="86"/>
-      <c r="AN78" s="18"/>
-      <c r="AO78" s="108"/>
-      <c r="AP78" s="18"/>
-      <c r="AQ78" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR78" s="108"/>
-      <c r="AS78" s="74"/>
-      <c r="AT78" s="93"/>
-      <c r="AU78" s="18"/>
-      <c r="AV78" s="18"/>
-      <c r="AW78" s="15"/>
-    </row>
-    <row r="79" spans="1:49">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="99"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="131"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="131"/>
-      <c r="Q79" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="R79" s="15"/>
-      <c r="S79" s="15"/>
-      <c r="T79" s="97"/>
-      <c r="U79" s="69"/>
-      <c r="V79" s="69"/>
-      <c r="W79" s="69"/>
-      <c r="X79" s="69"/>
-      <c r="Y79" s="69"/>
-      <c r="Z79" s="69"/>
-      <c r="AA79" s="69"/>
-      <c r="AB79" s="69"/>
-      <c r="AC79" s="69"/>
-      <c r="AD79" s="104"/>
-      <c r="AE79" s="69"/>
-      <c r="AF79" s="69"/>
-      <c r="AG79" s="69"/>
-      <c r="AH79" s="70"/>
-      <c r="AI79" s="70"/>
-      <c r="AJ79" s="70"/>
-      <c r="AK79" s="70"/>
-      <c r="AL79" s="109"/>
-      <c r="AM79" s="83"/>
-      <c r="AN79" s="68"/>
-      <c r="AO79" s="117"/>
-      <c r="AP79" s="70"/>
-      <c r="AQ79" s="70"/>
-      <c r="AR79" s="109"/>
-      <c r="AS79" s="75"/>
-      <c r="AT79" s="71"/>
-      <c r="AU79" s="69"/>
-      <c r="AV79" s="69"/>
-      <c r="AW79" s="69"/>
-    </row>
-    <row r="80" spans="1:49">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="131"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="131"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="15"/>
-      <c r="T80" s="97"/>
-      <c r="U80" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="V80" s="15">
-        <v>1</v>
-      </c>
-      <c r="W80" s="15">
-        <v>100</v>
-      </c>
-      <c r="X80" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y80" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z80" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA80" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB80" s="15"/>
-      <c r="AC80" s="15"/>
-      <c r="AD80" s="97"/>
-      <c r="AE80" s="15"/>
-      <c r="AF80" s="15"/>
-      <c r="AG80" s="15"/>
-      <c r="AH80" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI80" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ80" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK80" s="16"/>
-      <c r="AL80" s="110"/>
-      <c r="AM80" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN80" s="80">
-        <v>0</v>
-      </c>
-      <c r="AO80" s="119">
-        <v>50</v>
-      </c>
-      <c r="AP80" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ80" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR80" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS80" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT80" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU80" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV80" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW80" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:49">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="97"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="131"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="131"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="15"/>
-      <c r="T81" s="97"/>
-      <c r="U81" s="45"/>
-      <c r="V81" s="15"/>
-      <c r="W81" s="15"/>
-      <c r="X81" s="15"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="15"/>
-      <c r="AA81" s="15"/>
-      <c r="AB81" s="15"/>
-      <c r="AC81" s="15"/>
-      <c r="AD81" s="97"/>
-      <c r="AE81" s="15"/>
-      <c r="AF81" s="15"/>
-      <c r="AG81" s="15"/>
-      <c r="AH81" s="15"/>
-      <c r="AI81" s="15"/>
-      <c r="AJ81" s="15"/>
-      <c r="AK81" s="15"/>
-      <c r="AL81" s="97"/>
-      <c r="AM81" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN81" s="80">
-        <v>0</v>
-      </c>
-      <c r="AO81" s="119">
-        <v>50</v>
-      </c>
-      <c r="AP81" s="16"/>
-      <c r="AQ81" s="16"/>
-      <c r="AR81" s="110"/>
-      <c r="AS81" s="76"/>
-      <c r="AT81" s="19"/>
-      <c r="AU81" s="15"/>
-      <c r="AV81" s="15"/>
-      <c r="AW81" s="15"/>
-    </row>
-    <row r="82" spans="1:49">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="U82" s="45"/>
-      <c r="AM82" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN82" s="80">
-        <v>0</v>
-      </c>
-      <c r="AO82" s="119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:49">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="97"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="131"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="131"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
-      <c r="S83" s="15"/>
-      <c r="T83" s="97"/>
-      <c r="U83" s="69"/>
-      <c r="V83" s="69"/>
-      <c r="W83" s="69"/>
-      <c r="X83" s="69"/>
-      <c r="Y83" s="69"/>
-      <c r="Z83" s="69"/>
-      <c r="AA83" s="69"/>
-      <c r="AB83" s="69"/>
-      <c r="AC83" s="69"/>
-      <c r="AD83" s="104"/>
-      <c r="AE83" s="69"/>
-      <c r="AF83" s="69"/>
-      <c r="AG83" s="69"/>
-      <c r="AH83" s="70"/>
-      <c r="AI83" s="70"/>
-      <c r="AJ83" s="70"/>
-      <c r="AK83" s="70"/>
-      <c r="AL83" s="109"/>
-      <c r="AM83" s="83"/>
-      <c r="AN83" s="68"/>
-      <c r="AO83" s="117"/>
-      <c r="AP83" s="70"/>
-      <c r="AQ83" s="70"/>
-      <c r="AR83" s="109"/>
-      <c r="AS83" s="75"/>
-      <c r="AT83" s="71"/>
-      <c r="AU83" s="69"/>
-      <c r="AV83" s="69"/>
-      <c r="AW83" s="69"/>
-    </row>
-    <row r="84" spans="1:49">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="97"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="131"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="131"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="15"/>
-      <c r="T84" s="97"/>
-      <c r="U84" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="V84" s="15">
-        <v>1</v>
-      </c>
-      <c r="W84" s="15">
-        <v>200</v>
-      </c>
-      <c r="X84" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y84" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z84" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA84" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB84" s="15"/>
-      <c r="AC84" s="15"/>
-      <c r="AD84" s="97"/>
-      <c r="AE84" s="15"/>
-      <c r="AF84" s="15"/>
-      <c r="AG84" s="15"/>
-      <c r="AH84" s="16"/>
-      <c r="AI84" s="16"/>
-      <c r="AJ84" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK84" s="16"/>
-      <c r="AL84" s="110"/>
-      <c r="AM84" s="84"/>
-      <c r="AN84" s="19"/>
-      <c r="AO84" s="120"/>
-      <c r="AP84" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ84" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR84" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS84" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT84" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU84" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV84" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW84" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:49">
-      <c r="A85" s="63"/>
-      <c r="B85" s="63"/>
-      <c r="C85" s="63"/>
-      <c r="D85" s="100"/>
-      <c r="E85" s="63"/>
-      <c r="F85" s="63"/>
-      <c r="G85" s="63"/>
-      <c r="H85" s="63"/>
-      <c r="I85" s="63"/>
-      <c r="J85" s="63"/>
-      <c r="K85" s="63"/>
-      <c r="L85" s="63"/>
-      <c r="M85" s="135"/>
-      <c r="N85" s="63"/>
-      <c r="O85" s="63"/>
-      <c r="P85" s="135"/>
-      <c r="Q85" s="63"/>
-      <c r="R85" s="63"/>
-      <c r="S85" s="63"/>
-      <c r="T85" s="100"/>
-      <c r="U85" s="63"/>
-      <c r="V85" s="63"/>
-      <c r="W85" s="63"/>
-      <c r="X85" s="63"/>
-      <c r="Y85" s="63"/>
-      <c r="Z85" s="63"/>
-      <c r="AA85" s="63"/>
-      <c r="AB85" s="63"/>
-      <c r="AC85" s="63"/>
-      <c r="AD85" s="100"/>
-      <c r="AE85" s="63"/>
-      <c r="AF85" s="63"/>
-      <c r="AG85" s="63"/>
-      <c r="AH85" s="64"/>
-      <c r="AI85" s="64"/>
-      <c r="AJ85" s="64"/>
-      <c r="AK85" s="64"/>
-      <c r="AL85" s="113"/>
-      <c r="AM85" s="87"/>
-      <c r="AN85" s="65"/>
-      <c r="AO85" s="124"/>
-      <c r="AP85" s="64"/>
-      <c r="AQ85" s="64"/>
-      <c r="AR85" s="113"/>
-      <c r="AS85" s="79"/>
-      <c r="AT85" s="65"/>
-      <c r="AU85" s="63"/>
-      <c r="AV85" s="63"/>
-      <c r="AW85" s="63"/>
-    </row>
-    <row r="86" spans="1:49">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="J86" s="15">
-        <v>0</v>
-      </c>
-      <c r="K86" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="L86" s="15">
-        <v>10</v>
-      </c>
-      <c r="M86" s="131">
-        <v>10</v>
-      </c>
-      <c r="N86" s="15">
-        <v>10</v>
-      </c>
-      <c r="O86" s="15">
-        <v>10</v>
-      </c>
-      <c r="P86" s="131">
-        <v>10</v>
-      </c>
-      <c r="Q86" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="R86" s="15"/>
-      <c r="S86" s="15"/>
-      <c r="T86" s="97"/>
-      <c r="U86" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="V86" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="W86" s="15">
-        <v>50</v>
-      </c>
-      <c r="X86" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y86" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z86" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA86" s="15"/>
-      <c r="AB86" s="15"/>
-      <c r="AC86" s="15"/>
-      <c r="AD86" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE86" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF86" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG86" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH86" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI86" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ86" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK86" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL86" s="110"/>
-      <c r="AM86" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN86" s="19">
-        <v>50</v>
-      </c>
-      <c r="AO86" s="120" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP86" s="16"/>
-      <c r="AQ86" s="16"/>
-      <c r="AR86" s="110"/>
-      <c r="AS86" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT86" s="19">
-        <v>50</v>
-      </c>
-      <c r="AU86" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV86" s="15"/>
-      <c r="AW86" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:49">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="97"/>
-      <c r="E87" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="131"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="131"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
-      <c r="S87" s="15"/>
-      <c r="T87" s="97"/>
-      <c r="U87" s="15"/>
-      <c r="V87" s="15"/>
-      <c r="W87" s="15"/>
-      <c r="X87" s="15"/>
-      <c r="Y87" s="15"/>
-      <c r="Z87" s="15"/>
-      <c r="AA87" s="15"/>
-      <c r="AB87" s="15"/>
-      <c r="AC87" s="15"/>
-      <c r="AD87" s="97"/>
-      <c r="AE87" s="15"/>
-      <c r="AF87" s="15"/>
-      <c r="AG87" s="15"/>
-      <c r="AH87" s="16"/>
-      <c r="AI87" s="16"/>
-      <c r="AJ87" s="16"/>
-      <c r="AK87" s="16"/>
-      <c r="AL87" s="110"/>
-      <c r="AM87" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN87" s="19">
-        <v>170</v>
-      </c>
-      <c r="AO87" s="120" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP87" s="16"/>
-      <c r="AQ87" s="16"/>
-      <c r="AR87" s="110"/>
-      <c r="AS87" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT87" s="19">
-        <v>50</v>
-      </c>
-      <c r="AU87" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV87" s="15"/>
-      <c r="AW87" s="15"/>
-    </row>
-    <row r="92" spans="1:49">
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="95"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B7:B11 Y29 C35:D35 E34:H35 B79:B82 B28:B35 C30:D32 E29:H31 C7:G7 AH29:AO29 AE62:AR62 AH37:AO37 AM31:AR32 AO64:AR65 AM42:AR43 AP51:AR51 AP29:AW30 AP59:AW59 AP63:AW63 AP55:AW55 AP37:AW41 AP49:AR49 AS49:AW51 AM27:AW27 AP26:AW26 AM80:AW81 AP79:AW79 AM84:AW84 AP83:AW83 AM72:AW73 AP71:AW71 AM76:AW76 AP75:AW75 Q58:Z58 Q49:T52 Q60:T60 Q64:T68 Q83:T84 Q73:T73 Q46:T46 Q41:T43 Q88:V89 Q27:W27 Q36:X36 Q39:Z39 B5:G6 I35:T35 I30:T32 AM50:AR50 Q54:T56 B47:H68 I46:P68 AA29:AD29 U30:AC30 U83:AC83 U79:AC79 U49:AL49 U75:AC75 X88:AC89 Z36:AV36 AD20:AL21 Q40:AC40 AD72:AG72 Q26:AC26 Q38:AL38 Q71:AC72 AD71:AL71 AW71:AW72 AD18:AO19 Q85:AC87 AD85:AV89 Q47:AV47 Q57:AV57 AD61:AV61 Q53:AV53 I17:AC21 AD17:AL17 I15:AO16 Y27:AC27 AD26:AL27 AB48:AR48 Y31:AC31 AD30:AL31 AW26:AW27 U34:AL34 U51:AL51 Q59:AL59 U64:AC64 AD63:AL64 U67:AL67 AP67:AW67 U55:AL55 AB37:AD37 AB39:AC39 AD39:AO40 U41:AL42 AP34:AW34 U45:AL45 V80:AC80 AD79:AL80 AW78:AW80 V84:AC84 AD83:AL84 AW83:AW89 AA50:AD50 AP45:AW45 V76:AC76 AD75:AL76 AW75:AW76 C9:G11 C8:F8 Q37:U37 Q48:Z48 U54:Z54 Q61:AC63 AB54:AR54 AB58:AR58 AP15:AW21 AW36:AW42 AW47:AW51 AW53:AW55 AW57:AW59 AW61:AW64 AW29:AW31 I26:P27 C36:H37 I36:P43 C28:H29 I29:U29 B16:H27 C79:T81 B83:P89 C71:P73 B75:T76 B70:AW70 B78:AV78">
-    <cfRule type="cellIs" dxfId="88" priority="215" operator="equal">
+  <conditionalFormatting sqref="B7:B11 Y15 C21:D21 E20:H21 B65:B68 B14:B21 C16:D18 E15:H17 C7:G7 AE48:AP48 AM17:AR18 AP37:AR37 AP16:AW16 AP45:AW45 AP41:AW41 AP24:AW26 AP35:AR35 AS35:AW37 AM66:AW67 AP65:AW65 AM70:AW70 AP69:AW69 AM58:AW59 AP57:AW57 AM62:AW62 AP61:AW61 Q44:Z44 Q35:T38 Q46:T46 Q69:T70 Q59:T59 Q32:T32 Q27:T29 Q74:V75 Q22:X22 Q25:Z25 B5:G6 I21:T21 I16:T18 AM36:AR36 Q40:T42 B33:H54 I32:P54 AA15:AD15 U16:AC16 U69:AC69 U65:AC65 U35:AL35 U61:AC61 X74:AC75 Z22:AV22 Q26:AC26 AD58:AG58 Q24:AL24 Q57:AC58 AD57:AL57 AW57:AW58 Q71:AC73 AD71:AV75 Q33:AV33 Q43:AV43 AD47:AV47 Q39:AV39 AB34:AR34 Y17:AC17 AD16:AL17 U20:AL20 U37:AL37 Q45:AL45 U41:AL41 AB23:AD23 AB25:AC25 AD25:AO26 AP20:AW20 V66:AC66 AD65:AL66 AW64:AW66 V70:AC70 AD69:AL70 AW69:AW75 AA36:AD36 V62:AC62 AD61:AL62 AW61:AW62 C9:G11 C8:F8 Q23:U23 Q34:Z34 U40:Z40 Q47:AC48 AB40:AP40 AB44:AP44 AW22:AW26 AW33:AW37 AW39:AW41 AW43:AW45 AW47:AW48 AW15:AW17 C22:H23 I22:P29 C14:H15 I15:U15 C65:T67 B69:P75 C57:P59 B61:T62 B56:AW56 B64:AV64 Q49:T54 AH15:AP15 AR15:AW15 AH23:AP23 AR23:AW23 AR40 AR44 AR48">
+    <cfRule type="cellIs" dxfId="92" priority="231" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V29:W29">
-    <cfRule type="cellIs" dxfId="87" priority="213" operator="equal">
+  <conditionalFormatting sqref="V15:W15">
+    <cfRule type="cellIs" dxfId="91" priority="229" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD29">
-    <cfRule type="cellIs" dxfId="86" priority="211" operator="equal">
+  <conditionalFormatting sqref="AD15">
+    <cfRule type="cellIs" dxfId="90" priority="227" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE29:AG29">
-    <cfRule type="cellIs" dxfId="85" priority="210" operator="equal">
+  <conditionalFormatting sqref="AE15:AG15">
+    <cfRule type="cellIs" dxfId="89" priority="226" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X29:Z29">
-    <cfRule type="cellIs" dxfId="84" priority="209" operator="equal">
+  <conditionalFormatting sqref="X15:Z15">
+    <cfRule type="cellIs" dxfId="88" priority="225" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V47:X47">
-    <cfRule type="cellIs" dxfId="83" priority="203" operator="equal">
+  <conditionalFormatting sqref="V33:X33">
+    <cfRule type="cellIs" dxfId="87" priority="219" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V34:W34">
+    <cfRule type="cellIs" dxfId="86" priority="218" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD34">
+    <cfRule type="cellIs" dxfId="85" priority="216" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE34:AG34">
+    <cfRule type="cellIs" dxfId="84" priority="215" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X34:Z34">
+    <cfRule type="cellIs" dxfId="83" priority="214" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS34:AW34">
+    <cfRule type="cellIs" dxfId="82" priority="209" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS17:AW18 AM19 U17:W17">
+    <cfRule type="cellIs" dxfId="81" priority="199" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V44:W44">
+    <cfRule type="cellIs" dxfId="80" priority="180" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD44">
+    <cfRule type="cellIs" dxfId="79" priority="179" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE44:AG44">
+    <cfRule type="cellIs" dxfId="78" priority="178" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X44:Z44">
+    <cfRule type="cellIs" dxfId="77" priority="177" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS44:AW44">
+    <cfRule type="cellIs" dxfId="76" priority="174" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V48:W48">
-    <cfRule type="cellIs" dxfId="82" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="162" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE48:AG48">
+    <cfRule type="cellIs" dxfId="74" priority="160" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X48:Z48">
+    <cfRule type="cellIs" dxfId="73" priority="159" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS48:AW48">
+    <cfRule type="cellIs" dxfId="72" priority="156" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V40:W40">
+    <cfRule type="cellIs" dxfId="71" priority="144" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD40">
+    <cfRule type="cellIs" dxfId="70" priority="143" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE40:AG40">
+    <cfRule type="cellIs" dxfId="69" priority="142" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X40:Z40">
+    <cfRule type="cellIs" dxfId="68" priority="141" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS40:AW40">
+    <cfRule type="cellIs" dxfId="67" priority="138" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y22:Y23 B22:B32 C24:D29 E24:H28 C32:D32 E31:H32">
+    <cfRule type="cellIs" dxfId="66" priority="128" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V23:W23">
+    <cfRule type="cellIs" dxfId="65" priority="127" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD23">
+    <cfRule type="cellIs" dxfId="64" priority="126" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23:AG23">
+    <cfRule type="cellIs" dxfId="63" priority="125" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X23:Z23">
+    <cfRule type="cellIs" dxfId="62" priority="124" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM68">
+    <cfRule type="cellIs" dxfId="61" priority="104" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17">
+    <cfRule type="cellIs" dxfId="60" priority="94" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA44">
+    <cfRule type="cellIs" dxfId="59" priority="93" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA40">
+    <cfRule type="cellIs" dxfId="58" priority="92" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA34">
+    <cfRule type="cellIs" dxfId="57" priority="91" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA23">
+    <cfRule type="cellIs" dxfId="56" priority="90" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA25">
+    <cfRule type="cellIs" dxfId="55" priority="89" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD48">
-    <cfRule type="cellIs" dxfId="81" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="88" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE48:AG48">
-    <cfRule type="cellIs" dxfId="80" priority="199" operator="equal">
+  <conditionalFormatting sqref="AD48">
+    <cfRule type="cellIs" dxfId="53" priority="87" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X48:Z48">
-    <cfRule type="cellIs" dxfId="79" priority="198" operator="equal">
+  <conditionalFormatting sqref="U70">
+    <cfRule type="cellIs" dxfId="52" priority="80" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS48:AW48">
-    <cfRule type="cellIs" dxfId="78" priority="193" operator="equal">
+  <conditionalFormatting sqref="Y36 U36">
+    <cfRule type="cellIs" dxfId="51" priority="77" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS31:AW32 AM33 U31:W31">
-    <cfRule type="cellIs" dxfId="77" priority="183" operator="equal">
+  <conditionalFormatting sqref="V36:W36 AH36:AL36">
+    <cfRule type="cellIs" dxfId="50" priority="76" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN64:AN65">
-    <cfRule type="cellIs" dxfId="76" priority="131" operator="equal">
+  <conditionalFormatting sqref="AD36">
+    <cfRule type="cellIs" dxfId="49" priority="75" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V58:W58">
-    <cfRule type="cellIs" dxfId="75" priority="164" operator="equal">
+  <conditionalFormatting sqref="AE36:AG36">
+    <cfRule type="cellIs" dxfId="48" priority="74" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD58">
-    <cfRule type="cellIs" dxfId="74" priority="163" operator="equal">
+  <conditionalFormatting sqref="X36:Z36">
+    <cfRule type="cellIs" dxfId="47" priority="73" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE58:AG58">
-    <cfRule type="cellIs" dxfId="73" priority="162" operator="equal">
+  <conditionalFormatting sqref="B57:B60">
+    <cfRule type="cellIs" dxfId="46" priority="68" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X58:Z58">
-    <cfRule type="cellIs" dxfId="72" priority="161" operator="equal">
+  <conditionalFormatting sqref="AM60 AH58:AL58">
+    <cfRule type="cellIs" dxfId="45" priority="67" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS58:AW58">
-    <cfRule type="cellIs" dxfId="71" priority="158" operator="equal">
+  <conditionalFormatting sqref="U62">
+    <cfRule type="cellIs" dxfId="44" priority="59" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V62:W62">
-    <cfRule type="cellIs" dxfId="70" priority="146" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE62:AG62">
-    <cfRule type="cellIs" dxfId="69" priority="144" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X62:Z62">
-    <cfRule type="cellIs" dxfId="68" priority="143" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS62:AW62">
-    <cfRule type="cellIs" dxfId="67" priority="140" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS64:AW65 AM66">
-    <cfRule type="cellIs" dxfId="66" priority="139" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM64:AM65">
-    <cfRule type="cellIs" dxfId="65" priority="138" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V54:W54">
-    <cfRule type="cellIs" dxfId="64" priority="128" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD54">
-    <cfRule type="cellIs" dxfId="63" priority="127" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE54:AG54">
-    <cfRule type="cellIs" dxfId="62" priority="126" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X54:Z54">
-    <cfRule type="cellIs" dxfId="61" priority="125" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS54:AW54">
-    <cfRule type="cellIs" dxfId="60" priority="122" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y36:Y37 B36:B46 C38:D43 E38:H42 C46:D46 E45:H46">
-    <cfRule type="cellIs" dxfId="59" priority="112" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V37:W37">
-    <cfRule type="cellIs" dxfId="58" priority="111" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD37">
-    <cfRule type="cellIs" dxfId="57" priority="110" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE37:AG37">
-    <cfRule type="cellIs" dxfId="56" priority="109" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X37:Z37">
-    <cfRule type="cellIs" dxfId="55" priority="108" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS42:AW43 AM44">
-    <cfRule type="cellIs" dxfId="54" priority="104" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM82">
-    <cfRule type="cellIs" dxfId="53" priority="88" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X27">
-    <cfRule type="cellIs" dxfId="52" priority="79" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X31">
-    <cfRule type="cellIs" dxfId="51" priority="78" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA58">
-    <cfRule type="cellIs" dxfId="50" priority="77" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA54">
-    <cfRule type="cellIs" dxfId="49" priority="76" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA48">
-    <cfRule type="cellIs" dxfId="48" priority="75" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA37">
-    <cfRule type="cellIs" dxfId="47" priority="74" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA39">
-    <cfRule type="cellIs" dxfId="46" priority="73" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD62">
-    <cfRule type="cellIs" dxfId="45" priority="72" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD62">
-    <cfRule type="cellIs" dxfId="44" priority="71" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U84">
-    <cfRule type="cellIs" dxfId="43" priority="64" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y50 U50">
-    <cfRule type="cellIs" dxfId="42" priority="61" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V50:W50 AH50:AL50">
-    <cfRule type="cellIs" dxfId="41" priority="60" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD50">
-    <cfRule type="cellIs" dxfId="40" priority="59" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE50:AG50">
-    <cfRule type="cellIs" dxfId="39" priority="58" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X50:Z50">
-    <cfRule type="cellIs" dxfId="38" priority="57" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B74">
-    <cfRule type="cellIs" dxfId="37" priority="52" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM74 AH72:AL72">
-    <cfRule type="cellIs" dxfId="36" priority="51" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U76">
-    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U80">
-    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
+  <conditionalFormatting sqref="U66">
+    <cfRule type="cellIs" dxfId="43" priority="58" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H11 G8">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD54">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+  <conditionalFormatting sqref="AD40">
+    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD58">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+  <conditionalFormatting sqref="AD44">
+    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM25 B12:B15 AP22:AW22 AM23:AW24 Q24:T24 I22:P24 Q22:AL23 C12:G14">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+  <conditionalFormatting sqref="B12:G13">
+    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+  <conditionalFormatting sqref="H12:H13">
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM21">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+  <conditionalFormatting sqref="U21:W21 Y21:AW21">
+    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U35:W35 Y35:AW35">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+  <conditionalFormatting sqref="X21">
+    <cfRule type="cellIs" dxfId="36" priority="43" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X35">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+  <conditionalFormatting sqref="U38:W38 Y38:AW38">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X38">
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U42:W42 Y42:AW42">
+    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X42">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U46:W46 Y46:AW46">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X46">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U52:W52 Y52:AW52">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+  <conditionalFormatting sqref="I14:X14 Z14:AW14">
+    <cfRule type="cellIs" dxfId="29" priority="24" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X52">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+  <conditionalFormatting sqref="Y14">
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U56:W56 Y56:AW56">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+  <conditionalFormatting sqref="I6:J13">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X56">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+  <conditionalFormatting sqref="I5:J5">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U60:W60 Y60:AW60">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+  <conditionalFormatting sqref="AP12:AW12 AM13:AW13 K12:AL13">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X60">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+  <conditionalFormatting sqref="AM11">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U68:W68 Y68:AW68">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+  <conditionalFormatting sqref="AD10:AL11 AD8:AO9 K7:AC11 AD7:AL7 K5:AO6 AP5:AW11">
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X68">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+  <conditionalFormatting sqref="AM28:AR29 AP27:AW27 U27:AC27 Y28:AC28 AD27:AL28 U31:AL31 AP31:AW31 AW28">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:X28 Z28:AW28">
+  <conditionalFormatting sqref="AS28:AW29 AM30 U28:W28">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X28">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U32:W32 Y32:AW32">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X32">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM50:AR51 AP49:AW49 U49:AC49 Y50:AC50 AD49:AL50 U53:AL53 AP53:AW53 AW50">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS50:AW51 AM52 U50:W50">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X50">
     <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y28">
+  <conditionalFormatting sqref="U54:W54 Y54:AW54">
     <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:J13">
+  <conditionalFormatting sqref="X54">
     <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J5">
+  <conditionalFormatting sqref="AQ15">
     <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP12:AW12 AM13:AW13 K12:AL13">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+  <conditionalFormatting sqref="AQ23">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM11">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+  <conditionalFormatting sqref="AQ40">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD10:AL11 AD8:AO9 K7:AC11 AD7:AL7 K5:AO6 AP5:AW11">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+  <conditionalFormatting sqref="AQ44">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:AW14">
+  <conditionalFormatting sqref="AQ48">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -9842,39 +8931,39 @@
     <row r="2" spans="1:20">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="T2" s="27" t="s">
         <v>131</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
         <v>133</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>134</v>
-      </c>
-      <c r="D3" t="s">
-        <v>135</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:20">
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -9882,7 +8971,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="B5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="30" t="s">
@@ -9893,7 +8982,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="B6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
@@ -9904,72 +8993,72 @@
     </row>
     <row r="7" spans="1:20">
       <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="T7" t="s">
         <v>139</v>
-      </c>
-      <c r="T7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="T8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="T9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="T10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="T11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20">
       <c r="T13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20">
       <c r="T15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="T16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="17:20">
       <c r="T17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="17:20">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -9978,85 +9067,85 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T19" s="31"/>
     </row>
     <row r="20" spans="17:20">
       <c r="T20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="17:20">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="17:20">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="17:20">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="17:20">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="17:20">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="17:20">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="17:20">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="17:20">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="17:20">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="17:20">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="17:20">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="17:20">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -10065,34 +9154,34 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T33" s="31"/>
     </row>
     <row r="34" spans="17:20">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="17:20">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T35" s="31"/>
     </row>
     <row r="36" spans="17:20">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="17:20">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -10101,28 +9190,28 @@
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T38" s="31"/>
     </row>
     <row r="39" spans="17:20">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="17:20">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T40" s="31"/>
     </row>
     <row r="41" spans="17:20">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -10163,7 +9252,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -10189,12 +9278,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -10234,24 +9323,24 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>171</v>
-      </c>
-      <c r="E5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -10263,18 +9352,18 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -10282,7 +9371,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -10308,7 +9397,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
         <v>79</v>
@@ -10319,7 +9408,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
         <v>79</v>
@@ -10330,7 +9419,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -10338,7 +9427,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -10359,13 +9448,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -10373,22 +9462,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -10400,15 +9489,15 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -10420,10 +9509,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -10449,10 +9538,10 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -10466,7 +9555,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -10491,10 +9580,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" t="s">
         <v>187</v>
-      </c>
-      <c r="C5" t="s">
-        <v>188</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -10503,53 +9592,53 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" t="s">
         <v>190</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>191</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -10612,7 +9701,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
@@ -10624,7 +9713,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="52"/>
       <c r="AA1" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
@@ -10637,7 +9726,7 @@
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1">
       <c r="C2" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -10678,7 +9767,7 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="49"/>
       <c r="AE2" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
@@ -10693,7 +9782,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>58</v>
@@ -10717,7 +9806,7 @@
         <v>63</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>64</v>
@@ -10748,7 +9837,7 @@
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>26</v>
@@ -10768,7 +9857,7 @@
       </c>
       <c r="AD3" s="49"/>
       <c r="AE3" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>75</v>
@@ -10786,7 +9875,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>82</v>
@@ -10813,10 +9902,10 @@
         <v>5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>86</v>
@@ -10831,10 +9920,10 @@
         <v>1</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
@@ -10876,7 +9965,7 @@
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1">
       <c r="C6" s="15" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="E6" s="15">
         <v>0.9</v>
@@ -11153,7 +10242,7 @@
         <v>5</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N15" s="15" t="s">
         <v>86</v>
@@ -11168,51 +10257,51 @@
         <v>1</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="50"/>
       <c r="W15" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z15" s="50"/>
       <c r="AA15" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD15" s="50"/>
       <c r="AE15" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI15" s="47"/>
     </row>
     <row r="16" spans="1:35" s="15" customFormat="1">
       <c r="C16" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E16" s="15">
         <v>0.9</v>
@@ -11259,16 +10348,16 @@
       </c>
       <c r="AD16" s="50"/>
       <c r="AE16" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI16" s="47"/>
     </row>
@@ -11430,33 +10519,33 @@
         <v>97</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S21" s="15" t="b">
         <v>1</v>
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z21" s="47"/>
       <c r="AA21" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB21" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD21" s="47"/>
       <c r="AE21"/>
@@ -11483,7 +10572,7 @@
     </row>
     <row r="23" spans="1:35" s="15" customFormat="1">
       <c r="C23" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" s="15">
         <v>0.9</v>
@@ -11495,13 +10584,13 @@
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>87</v>
@@ -11537,13 +10626,13 @@
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD23" s="50"/>
       <c r="AE23" s="16" t="s">
@@ -11553,7 +10642,7 @@
         <v>50</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI23" s="47"/>
     </row>
@@ -11575,13 +10664,13 @@
       </c>
       <c r="Z24" s="53"/>
       <c r="AA24" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD24" s="50"/>
       <c r="AE24" s="16" t="s">
@@ -11591,7 +10680,7 @@
         <v>50</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI24" s="47"/>
     </row>
@@ -11736,7 +10825,7 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>211</v>
@@ -11762,10 +10851,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
         <v>82</v>
@@ -11782,7 +10871,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="C4" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
         <v>215</v>
@@ -11855,7 +10944,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>211</v>
@@ -11875,10 +10964,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s">
         <v>82</v>
@@ -11898,7 +10987,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="C14" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="D14" t="s">
         <v>215</v>
@@ -11912,7 +11001,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="C15" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -11926,7 +11015,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="C16" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D16">
         <v>26</v>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2223" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{77DD6A1E-6213-462F-9F55-43C0B099A200}"/>
+  <xr:revisionPtr revIDLastSave="2234" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E6D1C31-637B-46AF-AB7E-E1D30A9F6E13}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="337">
   <si>
     <t>Cause</t>
   </si>
@@ -433,9 +433,6 @@
     <t>linear</t>
   </si>
   <si>
-    <t>termites _ cf</t>
-  </si>
-  <si>
     <t>inspection_groundline</t>
   </si>
   <si>
@@ -493,10 +490,10 @@
     <t>functional_failure</t>
   </si>
   <si>
-    <t>fungal decay _ external</t>
-  </si>
-  <si>
-    <t>fungal decay _ internal</t>
+    <t>fungal decay | external</t>
+  </si>
+  <si>
+    <t>fungal decay | internal</t>
   </si>
   <si>
     <t>pole_saver_rod</t>
@@ -2812,180 +2809,180 @@
   <sheetData>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" t="s">
         <v>269</v>
-      </c>
-      <c r="F3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" t="s">
         <v>271</v>
-      </c>
-      <c r="F5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
+        <v>272</v>
+      </c>
+      <c r="N6" t="s">
         <v>273</v>
-      </c>
-      <c r="N6" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="O12" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="F13" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="O13" t="s">
         <v>279</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
+        <v>170</v>
+      </c>
+      <c r="S13" t="s">
         <v>280</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>171</v>
-      </c>
-      <c r="S13" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="F14" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="O14" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q14" t="s">
         <v>282</v>
       </c>
-      <c r="O14" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>283</v>
-      </c>
-      <c r="S14" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="F15" t="s">
+        <v>284</v>
+      </c>
+      <c r="J15" t="s">
         <v>285</v>
       </c>
-      <c r="J15" t="s">
+      <c r="O15" t="s">
         <v>286</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>287</v>
       </c>
-      <c r="Q15" t="s">
-        <v>288</v>
-      </c>
       <c r="S15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="F16" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>97</v>
+      </c>
+      <c r="S16" t="s">
         <v>289</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>98</v>
-      </c>
-      <c r="S16" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="F17" t="s">
+        <v>290</v>
+      </c>
+      <c r="O17" t="s">
         <v>291</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>292</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="O18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="F20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="D31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K33" t="s">
         <v>51</v>
       </c>
       <c r="R33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2993,13 +2990,13 @@
     </row>
     <row r="34" spans="2:19">
       <c r="C34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K34" t="s">
         <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S34">
         <v>0.5</v>
@@ -3007,19 +3004,19 @@
     </row>
     <row r="35" spans="2:19">
       <c r="C35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -3027,13 +3024,13 @@
     </row>
     <row r="36" spans="2:19">
       <c r="D36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -3049,10 +3046,10 @@
     </row>
     <row r="38" spans="2:19">
       <c r="C38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
@@ -3060,13 +3057,13 @@
     </row>
     <row r="39" spans="2:19">
       <c r="C39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="2:19">
@@ -3086,29 +3083,29 @@
     </row>
     <row r="52" spans="1:12">
       <c r="H52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="E54" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -3142,76 +3139,76 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="F59" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="B60" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="E61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="E62" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B70">
         <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B71">
         <v>12.5</v>
       </c>
       <c r="C71" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3243,48 +3240,48 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J4" t="s">
+        <v>320</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I4" t="s">
-        <v>320</v>
-      </c>
-      <c r="J4" t="s">
-        <v>321</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" t="s">
         <v>323</v>
       </c>
-      <c r="R4" t="s">
-        <v>324</v>
-      </c>
       <c r="S4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -3294,18 +3291,18 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="R5" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="R5" s="41" t="s">
+      <c r="S5" t="s">
         <v>327</v>
-      </c>
-      <c r="S5" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="H6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I6">
         <f>I5/4</f>
@@ -3317,51 +3314,51 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="H8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
@@ -3369,7 +3366,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="H10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
@@ -3377,12 +3374,12 @@
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="B12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I12" s="9">
         <v>3.7</v>
@@ -3394,20 +3391,20 @@
     </row>
     <row r="16" spans="1:19">
       <c r="J16" t="s">
+        <v>334</v>
+      </c>
+      <c r="M16" t="s">
         <v>335</v>
-      </c>
-      <c r="M16" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="19" spans="10:10">
       <c r="J19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="1048576" spans="15:15">
       <c r="O1048576" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3686,8 +3683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AW78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD37" sqref="AD37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4101,7 +4098,7 @@
         <v>62.499999999999964</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J5" s="15">
         <v>1</v>
@@ -4135,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V5" s="45">
         <v>0.8</v>
@@ -4147,13 +4144,13 @@
         <v>51</v>
       </c>
       <c r="Y5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="AA5" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="AA5" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="AB5" s="41">
         <v>20</v>
@@ -4162,16 +4159,16 @@
         <v>5</v>
       </c>
       <c r="AD5" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AE5" s="15" t="s">
+      <c r="AF5" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="AF5" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="AG5" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH5" s="18" t="b">
         <v>1</v>
@@ -4185,7 +4182,7 @@
       </c>
       <c r="AN5" s="90"/>
       <c r="AO5" s="116" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP5" s="18"/>
       <c r="AQ5" s="18" t="b">
@@ -4257,7 +4254,7 @@
       </c>
       <c r="AN6" s="90"/>
       <c r="AO6" s="116" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP6" s="18"/>
       <c r="AQ6" s="18"/>
@@ -4277,7 +4274,7 @@
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -4347,7 +4344,7 @@
       <c r="S8" s="15"/>
       <c r="T8" s="97"/>
       <c r="U8" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V8" s="42">
         <v>0.9</v>
@@ -4359,13 +4356,13 @@
         <v>2</v>
       </c>
       <c r="Y8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z8" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="Z8" s="15" t="s">
+      <c r="AA8" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="AA8" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="15"/>
@@ -4391,7 +4388,7 @@
         <v>50</v>
       </c>
       <c r="AO8" s="118" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP8" s="16" t="b">
         <v>0</v>
@@ -4403,13 +4400,13 @@
         <v>0</v>
       </c>
       <c r="AS8" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="AT8" s="93">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="AV8" s="18" t="s">
         <v>2</v>
@@ -4462,7 +4459,7 @@
         <v>50</v>
       </c>
       <c r="AO9" s="118" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP9" s="16"/>
       <c r="AQ9" s="16"/>
@@ -4546,7 +4543,7 @@
       <c r="S11" s="15"/>
       <c r="T11" s="97"/>
       <c r="U11" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V11" s="15">
         <v>1</v>
@@ -4558,13 +4555,13 @@
         <v>2</v>
       </c>
       <c r="Y11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA11" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="Z11" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA11" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="AB11" s="15"/>
       <c r="AC11" s="15"/>
@@ -4602,13 +4599,13 @@
         <v>0</v>
       </c>
       <c r="AS11" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="AT11" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="AV11" s="15" t="s">
         <v>2</v>
@@ -4690,7 +4687,7 @@
       <c r="S13" s="15"/>
       <c r="T13" s="97"/>
       <c r="U13" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V13" s="15">
         <v>1</v>
@@ -4702,13 +4699,13 @@
         <v>2</v>
       </c>
       <c r="Y13" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA13" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="Z13" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA13" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="AB13" s="15"/>
       <c r="AC13" s="15"/>
@@ -4723,12 +4720,8 @@
       </c>
       <c r="AK13" s="16"/>
       <c r="AL13" s="110"/>
-      <c r="AM13" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN13" s="80">
-        <v>0.5</v>
-      </c>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="80"/>
       <c r="AO13" s="119"/>
       <c r="AP13" s="16" t="b">
         <v>0</v>
@@ -4740,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="AS13" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT13" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="AT13" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="AV13" s="15" t="s">
         <v>2</v>
@@ -4816,7 +4809,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J15" s="15">
         <v>0</v>
@@ -4850,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V15" s="45">
         <v>0.8</v>
@@ -4862,10 +4855,10 @@
         <v>51</v>
       </c>
       <c r="Y15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z15" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="Z15" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="AA15" s="15"/>
       <c r="AB15" s="15">
@@ -4875,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="AD15" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE15" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AE15" s="15" t="s">
+      <c r="AF15" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="AF15" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="AG15" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH15" s="18" t="b">
         <v>1</v>
@@ -4978,7 +4971,7 @@
       <c r="S17" s="15"/>
       <c r="T17" s="97"/>
       <c r="U17" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V17" s="15">
         <v>1</v>
@@ -4990,13 +4983,13 @@
         <v>2</v>
       </c>
       <c r="Y17" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z17" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA17" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="Z17" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA17" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="AB17" s="15"/>
       <c r="AC17" s="15"/>
@@ -5034,13 +5027,13 @@
         <v>0</v>
       </c>
       <c r="AS17" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT17" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="AT17" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="AV17" s="15" t="s">
         <v>2</v>
@@ -5156,7 +5149,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="U21" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V21" s="15">
         <v>1</v>
@@ -5168,13 +5161,13 @@
         <v>2</v>
       </c>
       <c r="Y21" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z21" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA21" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="Z21" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA21" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="AB21" s="15"/>
       <c r="AC21" s="15"/>
@@ -5202,13 +5195,13 @@
         <v>0</v>
       </c>
       <c r="AS21" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT21" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="AT21" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="AV21" s="15" t="s">
         <v>2</v>
@@ -5278,7 +5271,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J23" s="15">
         <v>0</v>
@@ -5312,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="U23" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V23" s="45">
         <v>0.8</v>
@@ -5324,13 +5317,13 @@
         <v>51</v>
       </c>
       <c r="Y23" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z23" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="Z23" s="15" t="s">
+      <c r="AA23" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="AA23" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="AB23" s="15">
         <v>20</v>
@@ -5339,16 +5332,16 @@
         <v>5</v>
       </c>
       <c r="AD23" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE23" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AE23" s="15" t="s">
+      <c r="AF23" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="AF23" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="AG23" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH23" s="18" t="b">
         <v>1</v>
@@ -5442,7 +5435,7 @@
       <c r="S25" s="15"/>
       <c r="T25" s="97"/>
       <c r="U25" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V25" s="45">
         <v>0.9</v>
@@ -5454,13 +5447,13 @@
         <v>2</v>
       </c>
       <c r="Y25" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z25" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="Z25" s="15" t="s">
-        <v>92</v>
-      </c>
       <c r="AA25" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB25" s="15"/>
       <c r="AC25" s="15"/>
@@ -5486,7 +5479,7 @@
         <v>50</v>
       </c>
       <c r="AO25" s="123" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP25" s="16" t="b">
         <v>0</v>
@@ -5548,7 +5541,7 @@
         <v>50</v>
       </c>
       <c r="AO26" s="123" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP26" s="16"/>
       <c r="AQ26" s="16"/>
@@ -5630,7 +5623,7 @@
       <c r="S28" s="15"/>
       <c r="T28" s="97"/>
       <c r="U28" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V28" s="15">
         <v>1</v>
@@ -5642,13 +5635,13 @@
         <v>2</v>
       </c>
       <c r="Y28" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA28" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="Z28" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA28" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="AB28" s="15"/>
       <c r="AC28" s="15"/>
@@ -5686,13 +5679,13 @@
         <v>0</v>
       </c>
       <c r="AS28" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT28" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="AT28" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU28" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="AV28" s="15" t="s">
         <v>2</v>
@@ -5808,7 +5801,7 @@
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="U32" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V32" s="15">
         <v>1</v>
@@ -5820,13 +5813,13 @@
         <v>2</v>
       </c>
       <c r="Y32" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z32" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA32" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="Z32" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA32" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="AB32" s="15"/>
       <c r="AC32" s="15"/>
@@ -5854,13 +5847,13 @@
         <v>0</v>
       </c>
       <c r="AS32" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT32" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="AT32" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU32" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="AV32" s="15" t="s">
         <v>2</v>
@@ -5930,13 +5923,13 @@
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0</v>
+      </c>
+      <c r="K34" s="41" t="s">
         <v>103</v>
-      </c>
-      <c r="J34" s="15">
-        <v>0</v>
-      </c>
-      <c r="K34" s="41" t="s">
-        <v>104</v>
       </c>
       <c r="L34" s="41">
         <v>0</v>
@@ -5958,7 +5951,7 @@
       <c r="S34" s="41"/>
       <c r="T34" s="99"/>
       <c r="U34" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V34" s="15">
         <v>1</v>
@@ -5970,13 +5963,13 @@
         <v>51</v>
       </c>
       <c r="Y34" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z34" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="Z34" s="15" t="s">
+      <c r="AA34" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="AA34" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="AB34" s="15">
         <v>20</v>
@@ -5985,7 +5978,7 @@
         <v>5</v>
       </c>
       <c r="AD34" s="97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE34" s="15"/>
       <c r="AF34" s="15"/>
@@ -6084,7 +6077,7 @@
       <c r="S36" s="15"/>
       <c r="T36" s="97"/>
       <c r="U36" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V36" s="15">
         <v>0.99</v>
@@ -6096,10 +6089,10 @@
         <v>51</v>
       </c>
       <c r="Y36" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z36" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="Z36" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="AA36" s="15"/>
       <c r="AB36" s="15">
@@ -6109,16 +6102,16 @@
         <v>1</v>
       </c>
       <c r="AD36" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE36" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF36" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="AF36" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="AG36" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH36" s="18" t="b">
         <v>1</v>
@@ -6196,7 +6189,7 @@
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="U38" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V38" s="15">
         <v>1</v>
@@ -6208,13 +6201,13 @@
         <v>2</v>
       </c>
       <c r="Y38" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z38" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA38" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="Z38" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA38" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="AB38" s="15"/>
       <c r="AC38" s="15"/>
@@ -6242,13 +6235,13 @@
         <v>0</v>
       </c>
       <c r="AS38" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT38" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU38" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="AT38" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU38" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="AV38" s="15" t="s">
         <v>2</v>
@@ -6318,13 +6311,13 @@
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
       <c r="I40" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J40" s="15">
         <v>0</v>
       </c>
       <c r="K40" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L40" s="41">
         <v>0</v>
@@ -6346,7 +6339,7 @@
       <c r="S40" s="15"/>
       <c r="T40" s="97"/>
       <c r="U40" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V40" s="15">
         <v>1</v>
@@ -6358,14 +6351,14 @@
         <v>51</v>
       </c>
       <c r="Y40" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z40" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="Z40" s="15" t="s">
+      <c r="AA40" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AA40" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="AB40" s="15">
         <v>0</v>
       </c>
@@ -6373,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AD40" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE40" s="15"/>
       <c r="AF40" s="15"/>
@@ -6436,7 +6429,7 @@
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="U42" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V42" s="15">
         <v>1</v>
@@ -6448,13 +6441,13 @@
         <v>2</v>
       </c>
       <c r="Y42" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z42" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA42" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="Z42" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA42" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="AB42" s="15"/>
       <c r="AC42" s="15"/>
@@ -6482,13 +6475,13 @@
         <v>0</v>
       </c>
       <c r="AS42" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT42" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU42" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="AT42" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU42" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="AV42" s="15" t="s">
         <v>2</v>
@@ -6558,13 +6551,13 @@
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J44" s="15">
         <v>0</v>
       </c>
       <c r="K44" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L44" s="41">
         <v>0</v>
@@ -6586,7 +6579,7 @@
       <c r="S44" s="15"/>
       <c r="T44" s="97"/>
       <c r="U44" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V44" s="15">
         <v>1</v>
@@ -6598,14 +6591,14 @@
         <v>51</v>
       </c>
       <c r="Y44" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z44" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="Z44" s="15" t="s">
+      <c r="AA44" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AA44" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="AB44" s="15">
         <v>0</v>
       </c>
@@ -6613,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="AD44" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE44" s="15"/>
       <c r="AF44" s="15"/>
@@ -6694,7 +6687,7 @@
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="U46" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V46" s="15">
         <v>1</v>
@@ -6706,13 +6699,13 @@
         <v>2</v>
       </c>
       <c r="Y46" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z46" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA46" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="Z46" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA46" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="AB46" s="15"/>
       <c r="AC46" s="15"/>
@@ -6740,13 +6733,13 @@
         <v>0</v>
       </c>
       <c r="AS46" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT46" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU46" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="AT46" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU46" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="AV46" s="15" t="s">
         <v>2</v>
@@ -6816,7 +6809,7 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J48" s="15">
         <v>0</v>
@@ -6852,7 +6845,7 @@
         <v>2</v>
       </c>
       <c r="U48" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V48" s="15">
         <v>1</v>
@@ -6864,16 +6857,16 @@
         <v>51</v>
       </c>
       <c r="Y48" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z48" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="Z48" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="AA48" s="15"/>
       <c r="AB48" s="15"/>
       <c r="AC48" s="15"/>
       <c r="AD48" s="97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE48" s="15"/>
       <c r="AF48" s="15"/>
@@ -6986,7 +6979,7 @@
       <c r="S50" s="15"/>
       <c r="T50" s="97"/>
       <c r="U50" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V50" s="15">
         <v>1</v>
@@ -6998,13 +6991,13 @@
         <v>2</v>
       </c>
       <c r="Y50" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z50" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA50" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="Z50" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA50" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="AB50" s="15"/>
       <c r="AC50" s="15"/>
@@ -7042,13 +7035,13 @@
         <v>0</v>
       </c>
       <c r="AS50" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT50" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU50" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="AT50" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU50" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="AV50" s="15" t="s">
         <v>2</v>
@@ -7164,7 +7157,7 @@
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="U54" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V54" s="15">
         <v>1</v>
@@ -7176,13 +7169,13 @@
         <v>2</v>
       </c>
       <c r="Y54" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z54" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA54" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="Z54" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA54" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="AB54" s="15"/>
       <c r="AC54" s="15"/>
@@ -7210,13 +7203,13 @@
         <v>0</v>
       </c>
       <c r="AS54" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT54" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU54" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="AT54" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU54" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="AV54" s="15" t="s">
         <v>2</v>
@@ -7281,20 +7274,20 @@
       <c r="B56" s="15"/>
       <c r="C56" s="41"/>
       <c r="D56" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" t="s">
         <v>110</v>
       </c>
-      <c r="E56" t="s">
-        <v>111</v>
-      </c>
       <c r="F56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G56" s="15" t="b">
         <v>0</v>
       </c>
       <c r="H56" s="15"/>
       <c r="I56" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J56" s="42">
         <v>0</v>
@@ -7318,13 +7311,13 @@
         <v>10</v>
       </c>
       <c r="Q56" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R56" s="15"/>
       <c r="S56" s="15"/>
       <c r="T56" s="97"/>
       <c r="U56" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V56" s="15">
         <v>0.8</v>
@@ -7336,13 +7329,13 @@
         <v>51</v>
       </c>
       <c r="Y56" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z56" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="Z56" s="15" t="s">
+      <c r="AA56" s="41" t="s">
         <v>83</v>
-      </c>
-      <c r="AA56" s="41" t="s">
-        <v>84</v>
       </c>
       <c r="AB56" s="15">
         <v>20</v>
@@ -7351,16 +7344,16 @@
         <v>5</v>
       </c>
       <c r="AD56" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE56" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AE56" s="15" t="s">
+      <c r="AF56" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="AF56" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="AG56" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH56" s="18" t="b">
         <v>1</v>
@@ -7456,7 +7449,7 @@
       <c r="S58" s="15"/>
       <c r="T58" s="97"/>
       <c r="U58" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V58" s="15">
         <v>1</v>
@@ -7468,13 +7461,13 @@
         <v>2</v>
       </c>
       <c r="Y58" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z58" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA58" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="Z58" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA58" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="AB58" s="15"/>
       <c r="AC58" s="15"/>
@@ -7512,13 +7505,13 @@
         <v>0</v>
       </c>
       <c r="AS58" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT58" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU58" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="AT58" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU58" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="AV58" s="15" t="s">
         <v>2</v>
@@ -7671,7 +7664,7 @@
       <c r="S62" s="15"/>
       <c r="T62" s="97"/>
       <c r="U62" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V62" s="15">
         <v>1</v>
@@ -7683,13 +7676,13 @@
         <v>69</v>
       </c>
       <c r="Y62" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z62" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA62" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="Z62" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA62" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="AB62" s="15"/>
       <c r="AC62" s="15"/>
@@ -7717,13 +7710,13 @@
         <v>0</v>
       </c>
       <c r="AS62" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT62" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU62" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="AT62" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU62" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="AV62" s="15" t="s">
         <v>2</v>
@@ -7788,20 +7781,20 @@
       <c r="B64" s="15"/>
       <c r="C64" s="41"/>
       <c r="D64" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" t="s">
         <v>116</v>
       </c>
-      <c r="E64" t="s">
-        <v>117</v>
-      </c>
       <c r="F64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G64" s="15" t="b">
         <v>0</v>
       </c>
       <c r="H64" s="15"/>
       <c r="I64" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J64" s="15">
         <v>0</v>
@@ -7831,7 +7824,7 @@
       <c r="S64" s="15"/>
       <c r="T64" s="97"/>
       <c r="U64" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V64" s="15">
         <v>0.8</v>
@@ -7843,13 +7836,13 @@
         <v>51</v>
       </c>
       <c r="Y64" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z64" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="Z64" s="15" t="s">
+      <c r="AA64" s="41" t="s">
         <v>83</v>
-      </c>
-      <c r="AA64" s="41" t="s">
-        <v>84</v>
       </c>
       <c r="AB64" s="15">
         <v>20</v>
@@ -7858,16 +7851,16 @@
         <v>5</v>
       </c>
       <c r="AD64" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE64" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AE64" s="15" t="s">
+      <c r="AF64" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="AF64" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="AG64" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH64" s="18" t="b">
         <v>1</v>
@@ -7965,7 +7958,7 @@
       <c r="S66" s="15"/>
       <c r="T66" s="97"/>
       <c r="U66" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V66" s="15">
         <v>1</v>
@@ -7977,13 +7970,13 @@
         <v>2</v>
       </c>
       <c r="Y66" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z66" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA66" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="Z66" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA66" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="AB66" s="15"/>
       <c r="AC66" s="15"/>
@@ -8021,13 +8014,13 @@
         <v>0</v>
       </c>
       <c r="AS66" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT66" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU66" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="AT66" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU66" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="AV66" s="15" t="s">
         <v>2</v>
@@ -8180,7 +8173,7 @@
       <c r="S70" s="15"/>
       <c r="T70" s="97"/>
       <c r="U70" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V70" s="15">
         <v>1</v>
@@ -8192,13 +8185,13 @@
         <v>69</v>
       </c>
       <c r="Y70" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z70" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA70" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="Z70" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA70" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="AB70" s="15"/>
       <c r="AC70" s="15"/>
@@ -8226,13 +8219,13 @@
         <v>0</v>
       </c>
       <c r="AS70" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT70" s="19">
+        <v>1</v>
+      </c>
+      <c r="AU70" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="AT70" s="19">
-        <v>1</v>
-      </c>
-      <c r="AU70" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="AV70" s="15" t="s">
         <v>2</v>
@@ -8297,16 +8290,16 @@
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
       <c r="D72" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
       <c r="I72" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J72" s="15">
         <v>0</v>
@@ -8330,13 +8323,13 @@
         <v>10</v>
       </c>
       <c r="Q72" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R72" s="15"/>
       <c r="S72" s="15"/>
       <c r="T72" s="97"/>
       <c r="U72" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V72" s="15">
         <v>0.9</v>
@@ -8348,25 +8341,25 @@
         <v>2</v>
       </c>
       <c r="Y72" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Z72" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA72" s="15"/>
       <c r="AB72" s="15"/>
       <c r="AC72" s="15"/>
       <c r="AD72" s="97" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE72" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF72" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG72" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH72" s="16" t="b">
         <v>1</v>
@@ -8388,7 +8381,7 @@
         <v>50</v>
       </c>
       <c r="AO72" s="120" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP72" s="16"/>
       <c r="AQ72" s="16"/>
@@ -8400,7 +8393,7 @@
         <v>50</v>
       </c>
       <c r="AU72" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AV72" s="15"/>
       <c r="AW72" s="15" t="s">
@@ -8413,7 +8406,7 @@
       <c r="C73" s="15"/>
       <c r="D73" s="97"/>
       <c r="E73" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
@@ -8455,7 +8448,7 @@
         <v>170</v>
       </c>
       <c r="AO73" s="120" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP73" s="16"/>
       <c r="AQ73" s="16"/>
@@ -8467,7 +8460,7 @@
         <v>50</v>
       </c>
       <c r="AU73" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AV73" s="15"/>
       <c r="AW73" s="15"/>
@@ -8931,39 +8924,39 @@
     <row r="2" spans="1:20">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="R2" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="T2" s="27" t="s">
         <v>130</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
         <v>132</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:20">
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -8971,7 +8964,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="B5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="30" t="s">
@@ -8982,7 +8975,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
@@ -8993,72 +8986,72 @@
     </row>
     <row r="7" spans="1:20">
       <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="T7" t="s">
         <v>138</v>
-      </c>
-      <c r="T7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="T8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="T9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="T10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="T11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20">
       <c r="T13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20">
       <c r="T15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="T16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="17:20">
       <c r="T17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="17:20">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -9067,85 +9060,85 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T19" s="31"/>
     </row>
     <row r="20" spans="17:20">
       <c r="T20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="17:20">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="17:20">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="17:20">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="17:20">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="17:20">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="17:20">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="17:20">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="17:20">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="17:20">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="17:20">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="17:20">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="17:20">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -9154,34 +9147,34 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T33" s="31"/>
     </row>
     <row r="34" spans="17:20">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="17:20">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T35" s="31"/>
     </row>
     <row r="36" spans="17:20">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="17:20">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -9190,28 +9183,28 @@
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T38" s="31"/>
     </row>
     <row r="39" spans="17:20">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="17:20">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T40" s="31"/>
     </row>
     <row r="41" spans="17:20">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -9252,7 +9245,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -9278,12 +9271,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -9323,24 +9316,24 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>170</v>
-      </c>
-      <c r="E5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -9352,18 +9345,18 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -9371,7 +9364,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -9397,7 +9390,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
         <v>79</v>
@@ -9408,7 +9401,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
         <v>79</v>
@@ -9419,7 +9412,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -9427,7 +9420,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -9448,13 +9441,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -9462,22 +9455,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -9489,15 +9482,15 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -9509,10 +9502,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -9538,10 +9531,10 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -9555,7 +9548,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -9580,10 +9573,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
         <v>186</v>
-      </c>
-      <c r="C5" t="s">
-        <v>187</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9592,53 +9585,53 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
         <v>189</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>190</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -9701,7 +9694,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
@@ -9713,7 +9706,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="52"/>
       <c r="AA1" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
@@ -9726,7 +9719,7 @@
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1">
       <c r="C2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -9767,7 +9760,7 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="49"/>
       <c r="AE2" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
@@ -9782,7 +9775,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>58</v>
@@ -9806,7 +9799,7 @@
         <v>63</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>64</v>
@@ -9837,7 +9830,7 @@
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>26</v>
@@ -9857,7 +9850,7 @@
       </c>
       <c r="AD3" s="49"/>
       <c r="AE3" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>75</v>
@@ -9875,10 +9868,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="15">
         <v>0.8</v>
@@ -9890,10 +9883,10 @@
         <v>51</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4" s="15">
         <v>20</v>
@@ -9902,28 +9895,28 @@
         <v>5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M4" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q4" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>203</v>
-      </c>
       <c r="S4" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
@@ -9965,7 +9958,7 @@
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1">
       <c r="C6" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E6" s="15">
         <v>0.9</v>
@@ -9977,13 +9970,13 @@
         <v>69</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="16" t="b">
         <v>1</v>
@@ -10004,7 +9997,7 @@
         <v>50</v>
       </c>
       <c r="Y6" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z6" s="53"/>
       <c r="AA6" s="16" t="b">
@@ -10037,7 +10030,7 @@
         <v>50</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z7" s="53"/>
       <c r="AA7" s="16" t="b">
@@ -10071,7 +10064,7 @@
     </row>
     <row r="9" spans="1:35" s="15" customFormat="1">
       <c r="C9" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" s="15">
         <v>1</v>
@@ -10083,10 +10076,10 @@
         <v>69</v>
       </c>
       <c r="H9" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>6</v>
@@ -10124,13 +10117,13 @@
       </c>
       <c r="AD9" s="50"/>
       <c r="AE9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="AF9" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="AH9" s="15" t="s">
         <v>2</v>
@@ -10218,10 +10211,10 @@
         <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="15">
         <v>0.8</v>
@@ -10230,10 +10223,10 @@
         <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="15">
         <v>20</v>
@@ -10242,66 +10235,66 @@
         <v>5</v>
       </c>
       <c r="M15" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="N15" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q15" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15" s="18" t="s">
-        <v>203</v>
-      </c>
       <c r="S15" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="50"/>
       <c r="W15" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z15" s="50"/>
       <c r="AA15" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD15" s="50"/>
       <c r="AE15" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AI15" s="47"/>
     </row>
     <row r="16" spans="1:35" s="15" customFormat="1">
       <c r="C16" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="15">
         <v>0.9</v>
@@ -10313,7 +10306,7 @@
         <v>54</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="16" t="b">
         <v>1</v>
@@ -10334,7 +10327,7 @@
         <v>50</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z16" s="53"/>
       <c r="AA16" s="16" t="b">
@@ -10348,16 +10341,16 @@
       </c>
       <c r="AD16" s="50"/>
       <c r="AE16" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AI16" s="47"/>
     </row>
@@ -10375,7 +10368,7 @@
         <v>50</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z17" s="53"/>
       <c r="AA17" s="16" t="b">
@@ -10392,7 +10385,7 @@
     </row>
     <row r="18" spans="1:35" s="15" customFormat="1">
       <c r="C18" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -10404,7 +10397,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="16" t="b">
         <v>1</v>
@@ -10504,7 +10497,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -10516,36 +10509,36 @@
         <v>2</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S21" s="15" t="b">
         <v>1</v>
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z21" s="47"/>
       <c r="AA21" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB21" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD21" s="47"/>
       <c r="AE21"/>
@@ -10572,7 +10565,7 @@
     </row>
     <row r="23" spans="1:35" s="15" customFormat="1">
       <c r="C23" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" s="15">
         <v>0.9</v>
@@ -10584,22 +10577,22 @@
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q23" s="16" t="b">
         <v>1</v>
@@ -10622,17 +10615,17 @@
         <v>50</v>
       </c>
       <c r="Y23" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD23" s="50"/>
       <c r="AE23" s="16" t="s">
@@ -10642,7 +10635,7 @@
         <v>50</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AI23" s="47"/>
     </row>
@@ -10660,17 +10653,17 @@
         <v>170</v>
       </c>
       <c r="Y24" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z24" s="53"/>
       <c r="AA24" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD24" s="50"/>
       <c r="AE24" s="16" t="s">
@@ -10680,7 +10673,7 @@
         <v>50</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AI24" s="47"/>
     </row>
@@ -10825,19 +10818,19 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>59</v>
@@ -10851,19 +10844,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -10871,18 +10864,18 @@
     </row>
     <row r="4" spans="1:8">
       <c r="C4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="C5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -10894,7 +10887,7 @@
         <v>100000</v>
       </c>
       <c r="G5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -10936,7 +10929,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9">
         <v>3500</v>
@@ -10944,19 +10937,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>59</v>
@@ -10964,36 +10957,36 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14">
         <v>36</v>
@@ -11001,7 +10994,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="C15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -11015,13 +11008,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="C16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16">
         <v>7000</v>
@@ -11069,226 +11062,226 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>218</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>219</v>
       </c>
       <c r="C4" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>218</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>219</v>
       </c>
       <c r="C5" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>218</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>219</v>
       </c>
       <c r="C6" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>218</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>219</v>
       </c>
       <c r="C7" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>218</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>219</v>
       </c>
       <c r="C8" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>218</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>219</v>
       </c>
       <c r="C9" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>218</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>219</v>
       </c>
       <c r="C10" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>218</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>219</v>
       </c>
       <c r="C11" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>218</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>219</v>
       </c>
       <c r="C12" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>218</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>219</v>
       </c>
       <c r="C13" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>218</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>219</v>
       </c>
       <c r="C14" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>218</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>219</v>
       </c>
       <c r="C15" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C16" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>233</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>234</v>
       </c>
       <c r="C17" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>233</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>234</v>
       </c>
       <c r="C18" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -11309,72 +11302,72 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>236</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>237</v>
       </c>
       <c r="C22" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>236</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>237</v>
       </c>
       <c r="C23" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>236</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>237</v>
       </c>
       <c r="C24" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C25" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C26" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -11387,86 +11380,86 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>243</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>244</v>
       </c>
       <c r="C28" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C30" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C31" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C32" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>248</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>249</v>
       </c>
       <c r="C33" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -11479,72 +11472,72 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C35" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="32" t="s">
         <v>250</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>251</v>
       </c>
       <c r="C36" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>250</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>251</v>
       </c>
       <c r="C37" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C38" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C39" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -11565,16 +11558,16 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C42" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -11587,226 +11580,226 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C44" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C45" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C46" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C47" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C48" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C49" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C50" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C51" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C52" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C53" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C54" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C55" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C56" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C57" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C58" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C59" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -11819,86 +11812,86 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C61" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C62" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C63" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C64" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C65" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C66" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -11919,44 +11912,44 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C69" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C70" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C71" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2234" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E6D1C31-637B-46AF-AB7E-E1D30A9F6E13}"/>
+  <xr:revisionPtr revIDLastSave="2240" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E4C9BDB1-D4A9-400D-88A6-AD9176B88779}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="337">
   <si>
     <t>Cause</t>
   </si>
@@ -3683,8 +3683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AW78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="Q20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD48" sqref="AD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -5490,10 +5490,18 @@
       <c r="AR25" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="AS25" s="74"/>
-      <c r="AT25" s="93"/>
-      <c r="AU25" s="18"/>
-      <c r="AV25" s="18"/>
+      <c r="AS25" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT25" s="93">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV25" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="AW25" s="15"/>
     </row>
     <row r="26" spans="1:49">
@@ -6863,8 +6871,12 @@
         <v>82</v>
       </c>
       <c r="AA48" s="15"/>
-      <c r="AB48" s="15"/>
-      <c r="AC48" s="15"/>
+      <c r="AB48" s="15">
+        <v>20</v>
+      </c>
+      <c r="AC48" s="15">
+        <v>5</v>
+      </c>
       <c r="AD48" s="97" t="s">
         <v>84</v>
       </c>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2240" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E4C9BDB1-D4A9-400D-88A6-AD9176B88779}"/>
+  <xr:revisionPtr revIDLastSave="2254" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E5E12D9-FCC4-447B-AC51-55751FB7D5E7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="brainstorming" sheetId="4" r:id="rId11"/>
     <sheet name="Sheet3" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="337">
   <si>
     <t>Cause</t>
   </si>
@@ -1209,9 +1209,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1506,7 +1506,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2770,7 +2770,7 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2784,7 +2784,7 @@
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2798,7 +2798,7 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
@@ -2807,7 +2807,7 @@
     <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>268</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>270</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>272</v>
       </c>
@@ -2831,17 +2831,17 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O12" s="1" t="s">
         <v>195</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
         <v>278</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F14" s="12" t="s">
         <v>281</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>284</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>288</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>290</v>
       </c>
@@ -2919,22 +2919,22 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O18" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>296</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>211</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>195</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>279</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="2:19">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>286</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:19">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>299</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:19">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D37" s="43" t="s">
         <v>18</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:19">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>293</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:19">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>279</v>
       </c>
@@ -3066,27 +3066,27 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="2:19">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>302</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E54" s="1" t="s">
         <v>304</v>
       </c>
@@ -3131,23 +3131,23 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L55">
         <f>L54/60/60</f>
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>307</v>
       </c>
@@ -3155,17 +3155,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>107</v>
       </c>
@@ -3173,12 +3173,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>312</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>314</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>316</v>
       </c>
@@ -3230,7 +3230,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
@@ -3238,12 +3238,12 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
@@ -3253,7 +3253,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>321</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>324</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>328</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
         <v>330</v>
@@ -3335,7 +3335,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>329</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>332</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>331</v>
       </c>
@@ -3372,12 +3372,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>303</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>334</v>
       </c>
@@ -3397,12 +3397,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="10:10">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="1048576" spans="15:15">
+    <row r="1048576" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O1048576" t="s">
         <v>323</v>
       </c>
@@ -3421,7 +3421,7 @@
       <selection activeCell="D4" sqref="D4:AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
@@ -3448,7 +3448,7 @@
     <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1">
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L4" s="3" t="s">
         <v>38</v>
       </c>
@@ -3683,11 +3683,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AW78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD48" sqref="AD48"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1" outlineLevel="1"/>
     <col min="2" max="3" width="13.140625" customWidth="1" outlineLevel="1"/>
@@ -3729,7 +3729,7 @@
     <col min="49" max="49" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>39</v>
@@ -3794,7 +3794,7 @@
       <c r="AV1" s="67"/>
       <c r="AW1" s="67"/>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>45</v>
@@ -3877,7 +3877,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="12" customHeight="1">
+    <row r="4" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -4077,7 +4077,7 @@
       <c r="AV4" s="59"/>
       <c r="AW4" s="59"/>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -4124,13 +4124,9 @@
       <c r="Q5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="R5" s="15"/>
       <c r="S5" s="15"/>
-      <c r="T5" s="97">
-        <v>1</v>
-      </c>
+      <c r="T5" s="97"/>
       <c r="U5" s="15" t="s">
         <v>80</v>
       </c>
@@ -4195,7 +4191,7 @@
       <c r="AV5" s="18"/>
       <c r="AW5" s="15"/>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -4224,13 +4220,9 @@
       <c r="Q6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="R6" s="15"/>
       <c r="S6" s="15"/>
-      <c r="T6" s="97">
-        <v>1</v>
-      </c>
+      <c r="T6" s="97"/>
       <c r="U6" s="15"/>
       <c r="V6" s="45"/>
       <c r="W6" s="45"/>
@@ -4265,7 +4257,7 @@
       <c r="AV6" s="18"/>
       <c r="AW6" s="15"/>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4324,7 +4316,7 @@
       <c r="AV7" s="69"/>
       <c r="AW7" s="69"/>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -4413,7 +4405,7 @@
       </c>
       <c r="AW8" s="15"/>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -4470,7 +4462,7 @@
       <c r="AV9" s="15"/>
       <c r="AW9" s="15"/>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -4521,7 +4513,7 @@
       <c r="AV10" s="69"/>
       <c r="AW10" s="69"/>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -4614,7 +4606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -4665,7 +4657,7 @@
       <c r="AV12" s="69"/>
       <c r="AW12" s="69"/>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -4748,7 +4740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -4799,7 +4791,7 @@
       <c r="AV14" s="56"/>
       <c r="AW14" s="56"/>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -4835,13 +4827,9 @@
       <c r="Q15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="R15" s="15"/>
       <c r="S15" s="15"/>
-      <c r="T15" s="97">
-        <v>1</v>
-      </c>
+      <c r="T15" s="97"/>
       <c r="U15" s="15" t="s">
         <v>80</v>
       </c>
@@ -4900,7 +4888,7 @@
       <c r="AV15" s="18"/>
       <c r="AW15" s="15"/>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -4950,7 +4938,7 @@
       <c r="AV16" s="69"/>
       <c r="AW16" s="69"/>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -5042,7 +5030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -5095,7 +5083,7 @@
       <c r="AV18" s="15"/>
       <c r="AW18" s="15"/>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="AM19" s="84" t="s">
@@ -5108,7 +5096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="U20" s="69"/>
@@ -5141,7 +5129,7 @@
       <c r="AV20" s="69"/>
       <c r="AW20" s="69"/>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="E21" s="15"/>
@@ -5210,7 +5198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -5261,7 +5249,7 @@
       <c r="AV22" s="56"/>
       <c r="AW22" s="56"/>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -5297,13 +5285,9 @@
       <c r="Q23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="R23" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="R23" s="15"/>
       <c r="S23" s="15"/>
-      <c r="T23" s="97">
-        <v>1</v>
-      </c>
+      <c r="T23" s="97"/>
       <c r="U23" s="15" t="s">
         <v>80</v>
       </c>
@@ -5364,7 +5348,7 @@
       <c r="AV23" s="18"/>
       <c r="AW23" s="15"/>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -5414,7 +5398,7 @@
       <c r="AV24" s="69"/>
       <c r="AW24" s="69"/>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -5504,7 +5488,7 @@
       </c>
       <c r="AW25" s="15"/>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -5560,7 +5544,7 @@
       <c r="AV26" s="15"/>
       <c r="AW26" s="15"/>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -5610,7 +5594,7 @@
       <c r="AV27" s="69"/>
       <c r="AW27" s="69"/>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -5702,7 +5686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -5755,7 +5739,7 @@
       <c r="AV29" s="15"/>
       <c r="AW29" s="15"/>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="AM30" s="84" t="s">
@@ -5768,7 +5752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="U31" s="69"/>
@@ -5801,7 +5785,7 @@
       <c r="AV31" s="69"/>
       <c r="AW31" s="69"/>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="E32" s="15"/>
@@ -5870,7 +5854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:49">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -5921,7 +5905,7 @@
       <c r="AV33" s="56"/>
       <c r="AW33" s="56"/>
     </row>
-    <row r="34" spans="1:49">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -6012,7 +5996,7 @@
       <c r="AV34" s="15"/>
       <c r="AW34" s="15"/>
     </row>
-    <row r="35" spans="1:49">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -6063,7 +6047,7 @@
       <c r="AV35" s="69"/>
       <c r="AW35" s="69"/>
     </row>
-    <row r="36" spans="1:49">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -6142,7 +6126,7 @@
       <c r="AV36" s="18"/>
       <c r="AW36" s="15"/>
     </row>
-    <row r="37" spans="1:49">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -6193,7 +6177,7 @@
       <c r="AV37" s="69"/>
       <c r="AW37" s="69"/>
     </row>
-    <row r="38" spans="1:49">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="U38" s="15" t="s">
@@ -6258,7 +6242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:49">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -6309,7 +6293,7 @@
       <c r="AV39" s="56"/>
       <c r="AW39" s="56"/>
     </row>
-    <row r="40" spans="1:49">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -6400,7 +6384,7 @@
       <c r="AV40" s="15"/>
       <c r="AW40" s="15"/>
     </row>
-    <row r="41" spans="1:49">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="U41" s="69"/>
@@ -6433,7 +6417,7 @@
       <c r="AV41" s="69"/>
       <c r="AW41" s="69"/>
     </row>
-    <row r="42" spans="1:49">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="U42" s="15" t="s">
@@ -6498,7 +6482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:49">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -6549,7 +6533,7 @@
       <c r="AV43" s="56"/>
       <c r="AW43" s="56"/>
     </row>
-    <row r="44" spans="1:49">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -6640,7 +6624,7 @@
       <c r="AV44" s="15"/>
       <c r="AW44" s="15"/>
     </row>
-    <row r="45" spans="1:49">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -6691,7 +6675,7 @@
       <c r="AV45" s="69"/>
       <c r="AW45" s="69"/>
     </row>
-    <row r="46" spans="1:49">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="U46" s="15" t="s">
@@ -6756,7 +6740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:49">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -6807,7 +6791,7 @@
       <c r="AV47" s="56"/>
       <c r="AW47" s="56"/>
     </row>
-    <row r="48" spans="1:49">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -6843,15 +6827,9 @@
       <c r="Q48" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="R48" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="S48" s="15">
-        <v>25</v>
-      </c>
-      <c r="T48" s="97">
-        <v>2</v>
-      </c>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="97"/>
       <c r="U48" s="15" t="s">
         <v>80</v>
       </c>
@@ -6910,7 +6888,7 @@
       <c r="AV48" s="15"/>
       <c r="AW48" s="15"/>
     </row>
-    <row r="49" spans="1:49">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -6930,15 +6908,9 @@
       <c r="Q49" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="R49" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="S49" s="15">
-        <v>50</v>
-      </c>
-      <c r="T49" s="97">
-        <v>2</v>
-      </c>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="97"/>
       <c r="U49" s="69"/>
       <c r="V49" s="69"/>
       <c r="W49" s="69"/>
@@ -6969,7 +6941,7 @@
       <c r="AV49" s="69"/>
       <c r="AW49" s="69"/>
     </row>
-    <row r="50" spans="1:49">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -7062,7 +7034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:49">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -7119,7 +7091,7 @@
       <c r="AV51" s="15"/>
       <c r="AW51" s="15"/>
     </row>
-    <row r="52" spans="1:49">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="AM52" s="84" t="s">
@@ -7132,7 +7104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:49">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="U53" s="69"/>
@@ -7165,7 +7137,7 @@
       <c r="AV53" s="69"/>
       <c r="AW53" s="69"/>
     </row>
-    <row r="54" spans="1:49">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="U54" s="15" t="s">
@@ -7230,7 +7202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:49" ht="12" customHeight="1">
+    <row r="55" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
@@ -7281,7 +7253,7 @@
       <c r="AV55" s="59"/>
       <c r="AW55" s="59"/>
     </row>
-    <row r="56" spans="1:49">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="41"/>
@@ -7388,7 +7360,7 @@
       <c r="AV56" s="18"/>
       <c r="AW56" s="15"/>
     </row>
-    <row r="57" spans="1:49">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="41"/>
@@ -7439,7 +7411,7 @@
       <c r="AV57" s="69"/>
       <c r="AW57" s="69"/>
     </row>
-    <row r="58" spans="1:49">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -7532,7 +7504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:49">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -7589,7 +7561,7 @@
       <c r="AV59" s="15"/>
       <c r="AW59" s="15"/>
     </row>
-    <row r="60" spans="1:49">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="U60" s="45"/>
@@ -7603,7 +7575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:49">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -7654,7 +7626,7 @@
       <c r="AV61" s="69"/>
       <c r="AW61" s="69"/>
     </row>
-    <row r="62" spans="1:49">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -7737,7 +7709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:49" ht="12" customHeight="1">
+    <row r="63" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
@@ -7788,7 +7760,7 @@
       <c r="AV63" s="59"/>
       <c r="AW63" s="59"/>
     </row>
-    <row r="64" spans="1:49">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="41"/>
@@ -7895,7 +7867,7 @@
       <c r="AV64" s="18"/>
       <c r="AW64" s="15"/>
     </row>
-    <row r="65" spans="1:49">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="41"/>
@@ -7948,7 +7920,7 @@
       <c r="AV65" s="69"/>
       <c r="AW65" s="69"/>
     </row>
-    <row r="66" spans="1:49">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -8041,7 +8013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:49">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -8098,7 +8070,7 @@
       <c r="AV67" s="15"/>
       <c r="AW67" s="15"/>
     </row>
-    <row r="68" spans="1:49">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="U68" s="45"/>
@@ -8112,7 +8084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:49">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -8163,7 +8135,7 @@
       <c r="AV69" s="69"/>
       <c r="AW69" s="69"/>
     </row>
-    <row r="70" spans="1:49">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -8246,7 +8218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:49">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A71" s="63"/>
       <c r="B71" s="63"/>
       <c r="C71" s="63"/>
@@ -8297,7 +8269,7 @@
       <c r="AV71" s="63"/>
       <c r="AW71" s="63"/>
     </row>
-    <row r="72" spans="1:49">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -8412,7 +8384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:49">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -8477,7 +8449,7 @@
       <c r="AV73" s="15"/>
       <c r="AW73" s="15"/>
     </row>
-    <row r="78" spans="1:49">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="95"/>
@@ -8926,14 +8898,14 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
         <v>127</v>
@@ -8948,7 +8920,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
@@ -8963,7 +8935,7 @@
       </c>
       <c r="Q3" s="28"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>134</v>
       </c>
@@ -8974,7 +8946,7 @@
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>135</v>
       </c>
@@ -8985,7 +8957,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>136</v>
       </c>
@@ -8996,7 +8968,7 @@
       </c>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>137</v>
       </c>
@@ -9004,27 +8976,27 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
@@ -9032,12 +9004,12 @@
       </c>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
@@ -9045,22 +9017,22 @@
       </c>
       <c r="T14" s="31"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="17:20">
+    <row r="17" spans="17:20" x14ac:dyDescent="0.25">
       <c r="T17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="17:20">
+    <row r="18" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
         <v>147</v>
@@ -9068,7 +9040,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
     </row>
-    <row r="19" spans="17:20">
+    <row r="19" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
@@ -9076,78 +9048,78 @@
       </c>
       <c r="T19" s="31"/>
     </row>
-    <row r="20" spans="17:20">
+    <row r="20" spans="17:20" x14ac:dyDescent="0.25">
       <c r="T20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="17:20">
+    <row r="21" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="17:20">
+    <row r="22" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="17:20">
+    <row r="23" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="17:20">
+    <row r="24" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="17:20">
+    <row r="25" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="17:20">
+    <row r="26" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="17:20">
+    <row r="27" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="17:20">
+    <row r="28" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="17:20">
+    <row r="29" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="17:20">
+    <row r="30" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="17:20">
+    <row r="31" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="17:20">
+    <row r="32" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
         <v>158</v>
@@ -9155,7 +9127,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
     </row>
-    <row r="33" spans="17:20">
+    <row r="33" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
@@ -9163,13 +9135,13 @@
       </c>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="17:20">
+    <row r="34" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="17:20">
+    <row r="35" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
@@ -9177,13 +9149,13 @@
       </c>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="17:20">
+    <row r="36" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="17:20">
+    <row r="37" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
         <v>162</v>
@@ -9191,7 +9163,7 @@
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
     </row>
-    <row r="38" spans="17:20">
+    <row r="38" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
@@ -9199,13 +9171,13 @@
       </c>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" spans="17:20">
+    <row r="39" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="17:20">
+    <row r="40" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
@@ -9213,7 +9185,7 @@
       </c>
       <c r="T40" s="31"/>
     </row>
-    <row r="41" spans="17:20">
+    <row r="41" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
         <v>165</v>
@@ -9233,7 +9205,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.7109375" customWidth="1"/>
@@ -9246,7 +9218,7 @@
     <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -9260,7 +9232,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -9286,7 +9258,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -9312,7 +9284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>79</v>
       </c>
@@ -9326,7 +9298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>169</v>
       </c>
@@ -9343,7 +9315,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -9363,7 +9335,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -9374,7 +9346,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -9400,7 +9372,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -9411,7 +9383,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>175</v>
       </c>
@@ -9422,7 +9394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -9430,7 +9402,7 @@
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -9457,7 +9429,7 @@
       </c>
       <c r="J12" s="45"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>179</v>
       </c>
@@ -9465,22 +9437,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>183</v>
       </c>
@@ -9500,7 +9472,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>183</v>
       </c>
@@ -9534,14 +9506,14 @@
       <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>131</v>
       </c>
@@ -9558,7 +9530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>134</v>
       </c>
@@ -9572,7 +9544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -9583,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>185</v>
       </c>
@@ -9600,7 +9572,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>188</v>
       </c>
@@ -9614,7 +9586,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -9622,7 +9594,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -9630,7 +9602,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>193</v>
       </c>
@@ -9641,7 +9613,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>194</v>
       </c>
@@ -9666,7 +9638,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -9692,7 +9664,7 @@
     <col min="35" max="35" width="2.42578125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -9729,7 +9701,7 @@
       <c r="AH1" s="4"/>
       <c r="AI1" s="46"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1">
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>196</v>
       </c>
@@ -9779,7 +9751,7 @@
       <c r="AH2" s="4"/>
       <c r="AI2" s="46"/>
     </row>
-    <row r="3" spans="1:35" s="1" customFormat="1">
+    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -9875,7 +9847,7 @@
       </c>
       <c r="AI3" s="46"/>
     </row>
-    <row r="4" spans="1:35" s="15" customFormat="1">
+    <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>28</v>
       </c>
@@ -9947,7 +9919,7 @@
       <c r="AH4" s="18"/>
       <c r="AI4" s="47"/>
     </row>
-    <row r="5" spans="1:35" s="47" customFormat="1">
+    <row r="5" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="Q5" s="50"/>
@@ -9968,7 +9940,7 @@
       <c r="AG5" s="50"/>
       <c r="AH5" s="50"/>
     </row>
-    <row r="6" spans="1:35" s="15" customFormat="1">
+    <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
         <v>203</v>
       </c>
@@ -10028,7 +10000,7 @@
       <c r="AH6" s="18"/>
       <c r="AI6" s="47"/>
     </row>
-    <row r="7" spans="1:35" s="15" customFormat="1">
+    <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
@@ -10057,7 +10029,7 @@
       <c r="AD7" s="50"/>
       <c r="AI7" s="47"/>
     </row>
-    <row r="8" spans="1:35" s="47" customFormat="1">
+    <row r="8" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="Q8" s="50"/>
@@ -10074,7 +10046,7 @@
       <c r="AC8" s="50"/>
       <c r="AD8" s="50"/>
     </row>
-    <row r="9" spans="1:35" s="15" customFormat="1">
+    <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
         <v>205</v>
       </c>
@@ -10142,7 +10114,7 @@
       </c>
       <c r="AI9" s="47"/>
     </row>
-    <row r="10" spans="1:35" s="15" customFormat="1">
+    <row r="10" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V10" s="47"/>
       <c r="W10" s="15" t="s">
         <v>38</v>
@@ -10160,7 +10132,7 @@
       <c r="AD10" s="50"/>
       <c r="AI10" s="47"/>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="W11" s="15" t="s">
         <v>37</v>
       </c>
@@ -10171,7 +10143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="15" customFormat="1">
+    <row r="12" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
@@ -10187,7 +10159,7 @@
       <c r="AD12" s="50"/>
       <c r="AI12" s="47"/>
     </row>
-    <row r="13" spans="1:35" s="15" customFormat="1">
+    <row r="13" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
@@ -10203,7 +10175,7 @@
       <c r="AD13" s="50"/>
       <c r="AI13" s="47"/>
     </row>
-    <row r="14" spans="1:35" s="56" customFormat="1">
+    <row r="14" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q14" s="57"/>
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
@@ -10218,7 +10190,7 @@
       <c r="AC14" s="57"/>
       <c r="AD14" s="57"/>
     </row>
-    <row r="15" spans="1:35" s="15" customFormat="1">
+    <row r="15" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>28</v>
       </c>
@@ -10304,7 +10276,7 @@
       </c>
       <c r="AI15" s="47"/>
     </row>
-    <row r="16" spans="1:35" s="15" customFormat="1">
+    <row r="16" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="15" t="s">
         <v>101</v>
       </c>
@@ -10366,7 +10338,7 @@
       </c>
       <c r="AI16" s="47"/>
     </row>
-    <row r="17" spans="1:35" s="15" customFormat="1">
+    <row r="17" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
@@ -10395,7 +10367,7 @@
       <c r="AD17" s="50"/>
       <c r="AI17" s="47"/>
     </row>
-    <row r="18" spans="1:35" s="15" customFormat="1">
+    <row r="18" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
         <v>208</v>
       </c>
@@ -10445,7 +10417,7 @@
       <c r="AD18" s="50"/>
       <c r="AI18" s="47"/>
     </row>
-    <row r="19" spans="1:35" s="15" customFormat="1">
+    <row r="19" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V19" s="47"/>
       <c r="W19" s="15" t="s">
         <v>38</v>
@@ -10463,7 +10435,7 @@
       <c r="AD19" s="50"/>
       <c r="AI19" s="47"/>
     </row>
-    <row r="20" spans="1:35" s="15" customFormat="1">
+    <row r="20" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -10505,7 +10477,7 @@
       <c r="AH20"/>
       <c r="AI20" s="47"/>
     </row>
-    <row r="21" spans="1:35" s="15" customFormat="1">
+    <row r="21" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
@@ -10559,7 +10531,7 @@
       <c r="AH21"/>
       <c r="AI21" s="47"/>
     </row>
-    <row r="22" spans="1:35" s="15" customFormat="1">
+    <row r="22" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
@@ -10575,7 +10547,7 @@
       <c r="AD22" s="50"/>
       <c r="AI22" s="47"/>
     </row>
-    <row r="23" spans="1:35" s="15" customFormat="1">
+    <row r="23" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="15" t="s">
         <v>123</v>
       </c>
@@ -10651,7 +10623,7 @@
       </c>
       <c r="AI23" s="47"/>
     </row>
-    <row r="24" spans="1:35" s="15" customFormat="1">
+    <row r="24" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
@@ -10689,7 +10661,7 @@
       </c>
       <c r="AI24" s="47"/>
     </row>
-    <row r="25" spans="1:35" s="15" customFormat="1">
+    <row r="25" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
@@ -10705,7 +10677,7 @@
       <c r="AD25" s="50"/>
       <c r="AI25" s="47"/>
     </row>
-    <row r="26" spans="1:35" s="15" customFormat="1">
+    <row r="26" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
@@ -10721,7 +10693,7 @@
       <c r="AD26" s="50"/>
       <c r="AI26" s="47"/>
     </row>
-    <row r="27" spans="1:35" s="15" customFormat="1">
+    <row r="27" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
@@ -10737,7 +10709,7 @@
       <c r="AD27" s="50"/>
       <c r="AI27" s="47"/>
     </row>
-    <row r="28" spans="1:35" s="15" customFormat="1">
+    <row r="28" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
@@ -10753,7 +10725,7 @@
       <c r="AD28" s="50"/>
       <c r="AI28" s="47"/>
     </row>
-    <row r="29" spans="1:35" s="15" customFormat="1">
+    <row r="29" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
@@ -10769,7 +10741,7 @@
       <c r="AD29" s="50"/>
       <c r="AI29" s="47"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
   </sheetData>
@@ -10821,14 +10793,14 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>131</v>
       </c>
@@ -10854,7 +10826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>134</v>
       </c>
@@ -10874,7 +10846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>203</v>
       </c>
@@ -10885,7 +10857,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>205</v>
       </c>
@@ -10902,7 +10874,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1</v>
       </c>
@@ -10913,7 +10885,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>4</v>
       </c>
@@ -10924,7 +10896,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>52</v>
       </c>
@@ -10936,7 +10908,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>208</v>
       </c>
@@ -10947,7 +10919,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>131</v>
       </c>
@@ -10967,7 +10939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -10990,7 +10962,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>203</v>
       </c>
@@ -11004,7 +10976,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>114</v>
       </c>
@@ -11018,7 +10990,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>113</v>
       </c>
@@ -11045,14 +11017,14 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -11060,7 +11032,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
@@ -11072,7 +11044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>217</v>
       </c>
@@ -11086,7 +11058,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>217</v>
       </c>
@@ -11100,7 +11072,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>217</v>
       </c>
@@ -11114,7 +11086,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>217</v>
       </c>
@@ -11128,7 +11100,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>217</v>
       </c>
@@ -11142,7 +11114,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>217</v>
       </c>
@@ -11156,7 +11128,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>217</v>
       </c>
@@ -11170,7 +11142,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>217</v>
       </c>
@@ -11184,7 +11156,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>217</v>
       </c>
@@ -11198,7 +11170,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>217</v>
       </c>
@@ -11212,7 +11184,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>217</v>
       </c>
@@ -11226,7 +11198,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>217</v>
       </c>
@@ -11240,7 +11212,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>217</v>
       </c>
@@ -11254,7 +11226,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>232</v>
       </c>
@@ -11268,7 +11240,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>232</v>
       </c>
@@ -11282,7 +11254,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>217</v>
       </c>
@@ -11296,7 +11268,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32" t="e">
@@ -11304,7 +11276,7 @@
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35" t="e">
@@ -11312,7 +11284,7 @@
       </c>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>235</v>
       </c>
@@ -11326,7 +11298,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>235</v>
       </c>
@@ -11340,7 +11312,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>235</v>
       </c>
@@ -11354,7 +11326,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>235</v>
       </c>
@@ -11368,7 +11340,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>235</v>
       </c>
@@ -11382,7 +11354,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35" t="e">
@@ -11390,7 +11362,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>242</v>
       </c>
@@ -11404,7 +11376,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>242</v>
       </c>
@@ -11418,7 +11390,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>242</v>
       </c>
@@ -11432,7 +11404,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>246</v>
       </c>
@@ -11446,7 +11418,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>246</v>
       </c>
@@ -11460,7 +11432,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>247</v>
       </c>
@@ -11474,7 +11446,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35" t="e">
@@ -11482,7 +11454,7 @@
       </c>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>249</v>
       </c>
@@ -11496,7 +11468,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>249</v>
       </c>
@@ -11510,7 +11482,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>249</v>
       </c>
@@ -11524,7 +11496,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>253</v>
       </c>
@@ -11538,7 +11510,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>253</v>
       </c>
@@ -11552,7 +11524,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37" t="e">
@@ -11560,7 +11532,7 @@
       </c>
       <c r="D40" s="38"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35" t="e">
@@ -11568,7 +11540,7 @@
       </c>
       <c r="D41" s="35"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>254</v>
       </c>
@@ -11582,7 +11554,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35" t="e">
@@ -11590,7 +11562,7 @@
       </c>
       <c r="D43" s="35"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>255</v>
       </c>
@@ -11604,7 +11576,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>255</v>
       </c>
@@ -11618,7 +11590,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>257</v>
       </c>
@@ -11632,7 +11604,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
         <v>257</v>
       </c>
@@ -11646,7 +11618,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>257</v>
       </c>
@@ -11660,7 +11632,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>260</v>
       </c>
@@ -11674,7 +11646,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>260</v>
       </c>
@@ -11688,7 +11660,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>260</v>
       </c>
@@ -11702,7 +11674,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>260</v>
       </c>
@@ -11716,7 +11688,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>260</v>
       </c>
@@ -11730,7 +11702,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>262</v>
       </c>
@@ -11744,7 +11716,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
         <v>262</v>
       </c>
@@ -11758,7 +11730,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>262</v>
       </c>
@@ -11772,7 +11744,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>262</v>
       </c>
@@ -11786,7 +11758,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>263</v>
       </c>
@@ -11800,7 +11772,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>263</v>
       </c>
@@ -11814,7 +11786,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="35" t="e">
@@ -11822,7 +11794,7 @@
       </c>
       <c r="D60" s="35"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>264</v>
       </c>
@@ -11836,7 +11808,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>264</v>
       </c>
@@ -11850,7 +11822,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>265</v>
       </c>
@@ -11864,7 +11836,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>265</v>
       </c>
@@ -11878,7 +11850,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
         <v>265</v>
       </c>
@@ -11892,7 +11864,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>265</v>
       </c>
@@ -11906,7 +11878,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="37"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37" t="e">
@@ -11914,7 +11886,7 @@
       </c>
       <c r="D67" s="38"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
       <c r="B68" s="35"/>
       <c r="C68" s="35" t="e">
@@ -11922,7 +11894,7 @@
       </c>
       <c r="D68" s="35"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
         <v>266</v>
       </c>
@@ -11936,7 +11908,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>267</v>
       </c>
@@ -11950,7 +11922,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
         <v>267</v>
       </c>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2254" documentId="11_4669E9524D91413C1C566AE84EAFB5F40377797C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E5E12D9-FCC4-447B-AC51-55751FB7D5E7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -34,10 +34,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -191,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="337">
   <si>
     <t>Cause</t>
   </si>
@@ -3683,8 +3680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AW78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4124,7 +4121,9 @@
       <c r="Q5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="15"/>
+      <c r="R5" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="S5" s="15"/>
       <c r="T5" s="97"/>
       <c r="U5" s="15" t="s">
@@ -4220,7 +4219,9 @@
       <c r="Q6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="15"/>
+      <c r="R6" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="S6" s="15"/>
       <c r="T6" s="97"/>
       <c r="U6" s="15"/>
@@ -4827,7 +4828,9 @@
       <c r="Q15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="15"/>
+      <c r="R15" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="S15" s="15"/>
       <c r="T15" s="97"/>
       <c r="U15" s="15" t="s">
@@ -5285,7 +5288,9 @@
       <c r="Q23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="R23" s="15"/>
+      <c r="R23" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="S23" s="15"/>
       <c r="T23" s="97"/>
       <c r="U23" s="15" t="s">
@@ -6827,7 +6832,9 @@
       <c r="Q48" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="R48" s="15"/>
+      <c r="R48" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="S48" s="15"/>
       <c r="T48" s="97"/>
       <c r="U48" s="15" t="s">
@@ -6908,7 +6915,9 @@
       <c r="Q49" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="R49" s="15"/>
+      <c r="R49" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="S49" s="15"/>
       <c r="T49" s="97"/>
       <c r="U49" s="69"/>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkirton1\OneDrive - KPMG\Documents\Essential Energy\Probability of Failure Model\inputs\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkirton1\OneDrive - KPMG\Documents\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{EFC3C0A9-9142-4AE4-A768-CD34824587E3}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{9D28E63D-327A-402D-98CF-50A2E87A6ACD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="339">
   <si>
     <t>Cause</t>
   </si>
@@ -1822,7 +1822,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="103">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3320,7 +3327,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O13:O15 O17:O18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3790,8 +3797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AY78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N73" sqref="N73"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3802,15 +3809,15 @@
     <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="13.109375" customWidth="1"/>
     <col min="9" max="9" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="138" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="159" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="162" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" style="132" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="138" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="159" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="162" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="6.88671875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="132" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.88671875" bestFit="1" customWidth="1"/>
@@ -5832,13 +5839,13 @@
       <c r="AM28" s="16"/>
       <c r="AN28" s="110"/>
       <c r="AO28" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP28" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="120">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="AP28" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="AQ28" s="122">
+        <v>3</v>
       </c>
       <c r="AR28" s="16" t="b">
         <v>0</v>
@@ -5902,15 +5909,9 @@
       <c r="AL29" s="15"/>
       <c r="AM29" s="15"/>
       <c r="AN29" s="97"/>
-      <c r="AO29" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP29" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="120">
-        <v>50</v>
-      </c>
+      <c r="AO29" s="84"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="120"/>
       <c r="AR29" s="16"/>
       <c r="AS29" s="16"/>
       <c r="AT29" s="110"/>
@@ -5923,15 +5924,7 @@
     <row r="30" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
-      <c r="AO30" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP30" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="AQ30" s="122">
-        <v>3</v>
-      </c>
+      <c r="AO30" s="84"/>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
@@ -8723,191 +8716,196 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B7:B11 AA15 C21:D21 E20:H21 B65:B68 B14:B21 C16:D18 E15:H17 C7:G7 AG48:AR48 AO17:AT18 AR37:AT37 AR16:AY16 AR45:AY45 AR41:AY41 AR24:AY26 AR35:AT35 AU35:AY37 AO66:AY67 AR65:AY65 AO70:AY70 AR69:AY69 AO58:AY59 AR57:AY57 AO62:AY62 AR61:AY61 S35:V38 S46:V46 S69:V70 S59:V59 S32:V32 S27:V29 S74:X75 S25:AB25 B5:G6 AO36:AT36 S40:V42 B33:H54 AC15:AF15 W16:AE16 W69:AE69 W65:AE65 W35:AN35 W61:AE61 Z74:AE75 AB22:AX22 S26:AE26 AF58:AI58 S24:AN24 S57:AE58 AF57:AN57 AY57:AY58 S71:AE73 AF71:AX75 S33:AX33 S43:AX43 AF47:AX47 S39:AX39 AD34:AT34 AA17:AE17 AF16:AN17 W20:AN20 W37:AN37 S45:AN45 W41:AN41 AD23:AF23 AD25:AE25 AF25:AQ26 AR20:AY20 X66:AE66 AF65:AN66 AY64:AY66 X70:AE70 AF69:AN70 AY69:AY75 AC36:AF36 X62:AE62 AF61:AN62 AY61:AY62 C9:G11 C8:F8 W40:AB40 S47:AE48 AD40:AR40 AD44:AR44 AY22:AY26 AY33:AY37 AY39:AY41 AY43:AY45 AY47:AY48 AY15:AY17 C22:H23 B56:N56 B64:N64 AJ15:AR15 AT15:AY15 AJ23:AR23 AT23:AY23 AT40 AT44 AT48 P15:W15 P23:W23 P34:AB34 P44:AB44 P56:AY56 P64:AX64 P21:V21 I21:N29 P16:V18 I16:N18 P32:R33 I32:N54 P22:Z22 P65:V67 C65:N67 P69:R75 B69:N75 P57:R59 C57:N59 P61:V62 B61:N62 P24:R29 P35:R43 P45:R48 P49:V54 P14:Z14 C14:N15 P12:AN13 K5:N13 P7:AE11 P5:AQ6">
-    <cfRule type="cellIs" dxfId="101" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="247" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15:Y15">
-    <cfRule type="cellIs" dxfId="100" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="245" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF15">
+    <cfRule type="cellIs" dxfId="100" priority="243" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG15:AI15">
     <cfRule type="cellIs" dxfId="99" priority="242" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG15:AI15">
+  <conditionalFormatting sqref="Z15:AB15">
     <cfRule type="cellIs" dxfId="98" priority="241" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z15:AB15">
-    <cfRule type="cellIs" dxfId="97" priority="240" operator="equal">
+  <conditionalFormatting sqref="X33:Z33">
+    <cfRule type="cellIs" dxfId="97" priority="235" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X33:Z33">
+  <conditionalFormatting sqref="X34:Y34">
     <cfRule type="cellIs" dxfId="96" priority="234" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X34:Y34">
-    <cfRule type="cellIs" dxfId="95" priority="233" operator="equal">
+  <conditionalFormatting sqref="AF34">
+    <cfRule type="cellIs" dxfId="95" priority="232" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF34">
+  <conditionalFormatting sqref="AG34:AI34">
     <cfRule type="cellIs" dxfId="94" priority="231" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG34:AI34">
+  <conditionalFormatting sqref="Z34:AB34">
     <cfRule type="cellIs" dxfId="93" priority="230" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z34:AB34">
-    <cfRule type="cellIs" dxfId="92" priority="229" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AU34:AY34">
-    <cfRule type="cellIs" dxfId="91" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="225" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU17:AY18 AO19 W17:Y17">
-    <cfRule type="cellIs" dxfId="90" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="215" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X44:Y44">
+    <cfRule type="cellIs" dxfId="90" priority="196" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF44">
     <cfRule type="cellIs" dxfId="89" priority="195" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF44">
+  <conditionalFormatting sqref="AG44:AI44">
     <cfRule type="cellIs" dxfId="88" priority="194" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG44:AI44">
+  <conditionalFormatting sqref="Z44:AB44">
     <cfRule type="cellIs" dxfId="87" priority="193" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z44:AB44">
-    <cfRule type="cellIs" dxfId="86" priority="192" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AU44:AY44">
-    <cfRule type="cellIs" dxfId="85" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="190" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X48:Y48">
-    <cfRule type="cellIs" dxfId="84" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="178" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
+    <cfRule type="cellIs" dxfId="84" priority="176" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z48:AB48">
     <cfRule type="cellIs" dxfId="83" priority="175" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z48:AB48">
-    <cfRule type="cellIs" dxfId="82" priority="174" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AU48:AY48">
-    <cfRule type="cellIs" dxfId="81" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="172" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X40:Y40">
+    <cfRule type="cellIs" dxfId="81" priority="160" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF40">
     <cfRule type="cellIs" dxfId="80" priority="159" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF40">
+  <conditionalFormatting sqref="AG40:AI40">
     <cfRule type="cellIs" dxfId="79" priority="158" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG40:AI40">
+  <conditionalFormatting sqref="Z40:AB40">
     <cfRule type="cellIs" dxfId="78" priority="157" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z40:AB40">
-    <cfRule type="cellIs" dxfId="77" priority="156" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AU40:AY40">
-    <cfRule type="cellIs" dxfId="76" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="154" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22:AA23 B22:B32 C24:D29 E24:H28 C32:D32 E31:H32">
+    <cfRule type="cellIs" dxfId="76" priority="144" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X23:Y23">
     <cfRule type="cellIs" dxfId="75" priority="143" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X23:Y23">
+  <conditionalFormatting sqref="AF23">
     <cfRule type="cellIs" dxfId="74" priority="142" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF23">
+  <conditionalFormatting sqref="AG23:AI23">
     <cfRule type="cellIs" dxfId="73" priority="141" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG23:AI23">
+  <conditionalFormatting sqref="Z23:AB23">
     <cfRule type="cellIs" dxfId="72" priority="140" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z23:AB23">
-    <cfRule type="cellIs" dxfId="71" priority="139" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AO68">
-    <cfRule type="cellIs" dxfId="70" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="120" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z17">
+    <cfRule type="cellIs" dxfId="70" priority="110" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC44">
     <cfRule type="cellIs" dxfId="69" priority="109" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC44">
+  <conditionalFormatting sqref="AC40">
     <cfRule type="cellIs" dxfId="68" priority="108" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC40">
+  <conditionalFormatting sqref="AC34">
     <cfRule type="cellIs" dxfId="67" priority="107" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC34">
+  <conditionalFormatting sqref="AC23">
     <cfRule type="cellIs" dxfId="66" priority="106" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC23">
+  <conditionalFormatting sqref="AC25">
     <cfRule type="cellIs" dxfId="65" priority="105" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC25">
+  <conditionalFormatting sqref="AF48">
     <cfRule type="cellIs" dxfId="64" priority="104" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -8917,278 +8915,278 @@
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF48">
-    <cfRule type="cellIs" dxfId="62" priority="102" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="W70">
-    <cfRule type="cellIs" dxfId="61" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="96" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA36 W36">
+    <cfRule type="cellIs" dxfId="61" priority="93" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X36:Y36 AJ36:AN36">
     <cfRule type="cellIs" dxfId="60" priority="92" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X36:Y36 AJ36:AN36">
+  <conditionalFormatting sqref="AF36">
     <cfRule type="cellIs" dxfId="59" priority="91" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF36">
+  <conditionalFormatting sqref="AG36:AI36">
     <cfRule type="cellIs" dxfId="58" priority="90" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG36:AI36">
+  <conditionalFormatting sqref="Z36:AB36">
     <cfRule type="cellIs" dxfId="57" priority="89" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z36:AB36">
-    <cfRule type="cellIs" dxfId="56" priority="88" operator="equal">
+  <conditionalFormatting sqref="B57:B60">
+    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B60">
+  <conditionalFormatting sqref="AO60 AJ58:AN58">
     <cfRule type="cellIs" dxfId="55" priority="83" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO60 AJ58:AN58">
-    <cfRule type="cellIs" dxfId="54" priority="82" operator="equal">
+  <conditionalFormatting sqref="W62">
+    <cfRule type="cellIs" dxfId="54" priority="75" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W62">
+  <conditionalFormatting sqref="W66">
     <cfRule type="cellIs" dxfId="53" priority="74" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W66">
-    <cfRule type="cellIs" dxfId="52" priority="73" operator="equal">
+  <conditionalFormatting sqref="H5:H11 G8">
+    <cfRule type="cellIs" dxfId="52" priority="66" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H11 G8">
+  <conditionalFormatting sqref="AF40">
     <cfRule type="cellIs" dxfId="51" priority="65" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF40">
+  <conditionalFormatting sqref="AF44">
     <cfRule type="cellIs" dxfId="50" priority="64" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF44">
+  <conditionalFormatting sqref="B12:G13">
     <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:G13">
+  <conditionalFormatting sqref="H12:H13">
     <cfRule type="cellIs" dxfId="48" priority="62" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13">
-    <cfRule type="cellIs" dxfId="47" priority="61" operator="equal">
+  <conditionalFormatting sqref="W21:Y21 AA21:AY21">
+    <cfRule type="cellIs" dxfId="47" priority="60" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W21:Y21 AA21:AY21">
+  <conditionalFormatting sqref="Z21">
     <cfRule type="cellIs" dxfId="46" priority="59" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z21">
-    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
+  <conditionalFormatting sqref="W38:Y38 AA38:AY38">
+    <cfRule type="cellIs" dxfId="45" priority="56" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W38:Y38 AA38:AY38">
+  <conditionalFormatting sqref="Z38">
     <cfRule type="cellIs" dxfId="44" priority="55" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z38">
+  <conditionalFormatting sqref="W42:Y42 AA42:AY42">
     <cfRule type="cellIs" dxfId="43" priority="54" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W42:Y42 AA42:AY42">
+  <conditionalFormatting sqref="Z42">
     <cfRule type="cellIs" dxfId="42" priority="53" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z42">
+  <conditionalFormatting sqref="W46:Y46 AA46:AY46">
     <cfRule type="cellIs" dxfId="41" priority="52" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W46:Y46 AA46:AY46">
+  <conditionalFormatting sqref="Z46">
     <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z46">
-    <cfRule type="cellIs" dxfId="39" priority="50" operator="equal">
+  <conditionalFormatting sqref="AB14:AY14">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB14:AY14">
+  <conditionalFormatting sqref="AA14">
     <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA14">
+  <conditionalFormatting sqref="I6:J13">
     <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:J13">
+  <conditionalFormatting sqref="I5:J5">
     <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J5">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+  <conditionalFormatting sqref="AR12:AY12 AO13:AY13">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR12:AY12 AO13:AY13">
+  <conditionalFormatting sqref="AO11">
     <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO11">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+  <conditionalFormatting sqref="AF10:AN11 AF8:AQ9 AF7:AN7 AR5:AY11">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF10:AN11 AF8:AQ9 AF7:AN7 AR5:AY11">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+  <conditionalFormatting sqref="AO29:AT29 AR27:AY27 W27:AE27 AA28:AE28 AF27:AN28 W31:AN31 AR31:AY31 AY28 AR28:AT28">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO28:AT29 AR27:AY27 W27:AE27 AA28:AE28 AF27:AN28 W31:AN31 AR31:AY31 AY28">
+  <conditionalFormatting sqref="AU28:AY29 AO30 W28:Y28">
     <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU28:AY29 AO30 W28:Y28">
+  <conditionalFormatting sqref="Z28">
     <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z28">
+  <conditionalFormatting sqref="W32:Y32 AA32:AY32">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W32:Y32 AA32:AY32">
+  <conditionalFormatting sqref="Z32">
     <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z32">
+  <conditionalFormatting sqref="AO50:AT51 AR49:AY49 W49:AE49 AA50:AE50 AF49:AN50 W53:AN53 AR53:AY53 AY50">
     <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO50:AT51 AR49:AY49 W49:AE49 AA50:AE50 AF49:AN50 W53:AN53 AR53:AY53 AY50">
+  <conditionalFormatting sqref="AU50:AY51 AO52 W50:Y50">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU50:AY51 AO52 W50:Y50">
+  <conditionalFormatting sqref="Z50">
     <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z50">
+  <conditionalFormatting sqref="W54:Y54 AA54:AY54">
     <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W54:Y54 AA54:AY54">
+  <conditionalFormatting sqref="Z54">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z54">
+  <conditionalFormatting sqref="AS15">
     <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS15">
+  <conditionalFormatting sqref="AS23">
     <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS23">
+  <conditionalFormatting sqref="AS40">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS40">
+  <conditionalFormatting sqref="AS44">
     <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS44">
+  <conditionalFormatting sqref="AS48">
     <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS48">
+  <conditionalFormatting sqref="N15">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
+  <conditionalFormatting sqref="N23">
     <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N56">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N64">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O64:O67 O69:O75 O56:O59 O61:O62 O21:O29 O32:O54 O5:O18">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO28">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11054,37 +11052,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AE9:XFD10 W11 AI15:XFD21 F29:XFD29 E9:V9 N30:XFD31 M29:M31 E22:XFD28 E18:V18 E21:AH21 E16:AH17 E30:E31 G30:L31 E12:XFD14 E4:XFD8 A10:B10 A21:C31 A12:C18 A4:C9 A19:B19">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:AD10">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18:AH19 W20 E15:F15 Q15:AH15 H15:M15">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:AD19">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:P15">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkirton1\OneDrive - KPMG\Documents\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{9D28E63D-327A-402D-98CF-50A2E87A6ACD}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{EF83B072-C8C0-4A7E-9BC1-52378010A04C}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1822,7 +1822,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="105">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3327,7 +3341,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O13:O15 O17:O18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3797,8 +3811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AY78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3809,39 +3823,42 @@
     <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="13.109375" customWidth="1"/>
     <col min="9" max="9" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="138" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="159" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="162" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="6.88671875" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" style="132" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="138" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="159" customWidth="1"/>
+    <col min="15" max="15" width="6" style="162" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" customWidth="1"/>
+    <col min="17" max="17" width="6.88671875" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="132" customWidth="1"/>
     <col min="19" max="19" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.6640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5546875" customWidth="1"/>
+    <col min="24" max="24" width="11.109375" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" customWidth="1"/>
+    <col min="26" max="26" width="14.88671875" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" customWidth="1"/>
     <col min="28" max="28" width="14.88671875" customWidth="1"/>
-    <col min="29" max="29" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.6640625" customWidth="1"/>
+    <col min="30" max="30" width="8.88671875" customWidth="1"/>
+    <col min="31" max="31" width="9.5546875" customWidth="1"/>
     <col min="32" max="32" width="23.5546875" style="98" customWidth="1"/>
-    <col min="33" max="33" width="12" hidden="1" customWidth="1"/>
-    <col min="34" max="35" width="11.5546875" hidden="1" customWidth="1"/>
-    <col min="36" max="39" width="9.109375" style="17"/>
-    <col min="40" max="40" width="9.109375" style="111"/>
-    <col min="41" max="41" width="17.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.44140625" style="122" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="9.109375" style="17"/>
-    <col min="46" max="46" width="9.109375" style="111"/>
-    <col min="47" max="47" width="17.88671875" style="77" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.109375" style="20"/>
-    <col min="49" max="49" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12" customWidth="1"/>
+    <col min="34" max="35" width="11.5546875" customWidth="1"/>
+    <col min="36" max="39" width="8.88671875" style="17" customWidth="1"/>
+    <col min="40" max="40" width="8.88671875" style="111" customWidth="1"/>
+    <col min="41" max="41" width="17.88671875" style="88" customWidth="1"/>
+    <col min="42" max="42" width="14.109375" style="20" customWidth="1"/>
+    <col min="43" max="43" width="14.44140625" style="122" customWidth="1"/>
+    <col min="44" max="45" width="8.88671875" style="17" customWidth="1"/>
+    <col min="46" max="46" width="8.88671875" style="111" customWidth="1"/>
+    <col min="47" max="47" width="17.88671875" style="77" customWidth="1"/>
+    <col min="48" max="48" width="8.88671875" style="20" customWidth="1"/>
+    <col min="49" max="49" width="16.33203125" customWidth="1"/>
+    <col min="50" max="50" width="8.88671875" customWidth="1"/>
     <col min="51" max="51" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4859,7 +4876,9 @@
       <c r="AG13" s="15"/>
       <c r="AH13" s="15"/>
       <c r="AI13" s="15"/>
-      <c r="AJ13" s="16"/>
+      <c r="AJ13" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AK13" s="16"/>
       <c r="AL13" s="16" t="b">
         <v>1</v>
@@ -5331,7 +5350,9 @@
       <c r="AG21" s="15"/>
       <c r="AH21" s="15"/>
       <c r="AI21" s="15"/>
-      <c r="AJ21" s="16"/>
+      <c r="AJ21" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AK21" s="16"/>
       <c r="AL21" s="16" t="b">
         <v>1</v>
@@ -5993,7 +6014,9 @@
       <c r="AG32" s="15"/>
       <c r="AH32" s="15"/>
       <c r="AI32" s="15"/>
-      <c r="AJ32" s="16"/>
+      <c r="AJ32" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AK32" s="16"/>
       <c r="AL32" s="16" t="b">
         <v>1</v>
@@ -6393,7 +6416,9 @@
       <c r="AG38" s="15"/>
       <c r="AH38" s="15"/>
       <c r="AI38" s="15"/>
-      <c r="AJ38" s="16"/>
+      <c r="AJ38" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AK38" s="16"/>
       <c r="AL38" s="16" t="b">
         <v>1</v>
@@ -6639,7 +6664,9 @@
       <c r="AG42" s="15"/>
       <c r="AH42" s="15"/>
       <c r="AI42" s="15"/>
-      <c r="AJ42" s="16"/>
+      <c r="AJ42" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AK42" s="16"/>
       <c r="AL42" s="16" t="b">
         <v>1</v>
@@ -6905,7 +6932,9 @@
       <c r="AG46" s="15"/>
       <c r="AH46" s="15"/>
       <c r="AI46" s="15"/>
-      <c r="AJ46" s="16"/>
+      <c r="AJ46" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AK46" s="16"/>
       <c r="AL46" s="16" t="b">
         <v>1</v>
@@ -7383,7 +7412,9 @@
       <c r="AG54" s="15"/>
       <c r="AH54" s="15"/>
       <c r="AI54" s="15"/>
-      <c r="AJ54" s="16"/>
+      <c r="AJ54" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="AK54" s="16"/>
       <c r="AL54" s="16" t="b">
         <v>1</v>
@@ -8716,477 +8747,487 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B7:B11 AA15 C21:D21 E20:H21 B65:B68 B14:B21 C16:D18 E15:H17 C7:G7 AG48:AR48 AO17:AT18 AR37:AT37 AR16:AY16 AR45:AY45 AR41:AY41 AR24:AY26 AR35:AT35 AU35:AY37 AO66:AY67 AR65:AY65 AO70:AY70 AR69:AY69 AO58:AY59 AR57:AY57 AO62:AY62 AR61:AY61 S35:V38 S46:V46 S69:V70 S59:V59 S32:V32 S27:V29 S74:X75 S25:AB25 B5:G6 AO36:AT36 S40:V42 B33:H54 AC15:AF15 W16:AE16 W69:AE69 W65:AE65 W35:AN35 W61:AE61 Z74:AE75 AB22:AX22 S26:AE26 AF58:AI58 S24:AN24 S57:AE58 AF57:AN57 AY57:AY58 S71:AE73 AF71:AX75 S33:AX33 S43:AX43 AF47:AX47 S39:AX39 AD34:AT34 AA17:AE17 AF16:AN17 W20:AN20 W37:AN37 S45:AN45 W41:AN41 AD23:AF23 AD25:AE25 AF25:AQ26 AR20:AY20 X66:AE66 AF65:AN66 AY64:AY66 X70:AE70 AF69:AN70 AY69:AY75 AC36:AF36 X62:AE62 AF61:AN62 AY61:AY62 C9:G11 C8:F8 W40:AB40 S47:AE48 AD40:AR40 AD44:AR44 AY22:AY26 AY33:AY37 AY39:AY41 AY43:AY45 AY47:AY48 AY15:AY17 C22:H23 B56:N56 B64:N64 AJ15:AR15 AT15:AY15 AJ23:AR23 AT23:AY23 AT40 AT44 AT48 P15:W15 P23:W23 P34:AB34 P44:AB44 P56:AY56 P64:AX64 P21:V21 I21:N29 P16:V18 I16:N18 P32:R33 I32:N54 P22:Z22 P65:V67 C65:N67 P69:R75 B69:N75 P57:R59 C57:N59 P61:V62 B61:N62 P24:R29 P35:R43 P45:R48 P49:V54 P14:Z14 C14:N15 P12:AN13 K5:N13 P7:AE11 P5:AQ6">
-    <cfRule type="cellIs" dxfId="102" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="250" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15:Y15">
+    <cfRule type="cellIs" dxfId="103" priority="248" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF15">
+    <cfRule type="cellIs" dxfId="102" priority="246" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG15:AI15">
     <cfRule type="cellIs" dxfId="101" priority="245" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF15">
-    <cfRule type="cellIs" dxfId="100" priority="243" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG15:AI15">
-    <cfRule type="cellIs" dxfId="99" priority="242" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Z15:AB15">
-    <cfRule type="cellIs" dxfId="98" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="244" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X33:Z33">
+    <cfRule type="cellIs" dxfId="99" priority="238" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X34:Y34">
+    <cfRule type="cellIs" dxfId="98" priority="237" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF34">
     <cfRule type="cellIs" dxfId="97" priority="235" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X34:Y34">
+  <conditionalFormatting sqref="AG34:AI34">
     <cfRule type="cellIs" dxfId="96" priority="234" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF34">
-    <cfRule type="cellIs" dxfId="95" priority="232" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG34:AI34">
-    <cfRule type="cellIs" dxfId="94" priority="231" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Z34:AB34">
-    <cfRule type="cellIs" dxfId="93" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="233" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU34:AY34">
-    <cfRule type="cellIs" dxfId="92" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="228" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU17:AY18 AO19 W17:Y17">
-    <cfRule type="cellIs" dxfId="91" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="218" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X44:Y44">
-    <cfRule type="cellIs" dxfId="90" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="199" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF44">
-    <cfRule type="cellIs" dxfId="89" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="198" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG44:AI44">
-    <cfRule type="cellIs" dxfId="88" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="197" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z44:AB44">
-    <cfRule type="cellIs" dxfId="87" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="196" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU44:AY44">
-    <cfRule type="cellIs" dxfId="86" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="193" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X48:Y48">
+    <cfRule type="cellIs" dxfId="87" priority="181" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG48:AI48">
+    <cfRule type="cellIs" dxfId="86" priority="179" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z48:AB48">
     <cfRule type="cellIs" dxfId="85" priority="178" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="84" priority="176" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z48:AB48">
-    <cfRule type="cellIs" dxfId="83" priority="175" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AU48:AY48">
-    <cfRule type="cellIs" dxfId="82" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="175" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X40:Y40">
-    <cfRule type="cellIs" dxfId="81" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="163" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF40">
-    <cfRule type="cellIs" dxfId="80" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="162" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG40:AI40">
-    <cfRule type="cellIs" dxfId="79" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="161" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z40:AB40">
-    <cfRule type="cellIs" dxfId="78" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="160" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU40:AY40">
-    <cfRule type="cellIs" dxfId="77" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="157" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22:AA23 B22:B32 C24:D29 E24:H28 C32:D32 E31:H32">
-    <cfRule type="cellIs" dxfId="76" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="147" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23:Y23">
-    <cfRule type="cellIs" dxfId="75" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="146" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF23">
-    <cfRule type="cellIs" dxfId="74" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="145" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG23:AI23">
-    <cfRule type="cellIs" dxfId="73" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="144" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23:AB23">
-    <cfRule type="cellIs" dxfId="72" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="143" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO68">
-    <cfRule type="cellIs" dxfId="71" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="123" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z17">
-    <cfRule type="cellIs" dxfId="70" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="113" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC44">
-    <cfRule type="cellIs" dxfId="69" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="112" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC40">
-    <cfRule type="cellIs" dxfId="68" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="111" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC34">
-    <cfRule type="cellIs" dxfId="67" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="110" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC23">
-    <cfRule type="cellIs" dxfId="66" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="109" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC25">
-    <cfRule type="cellIs" dxfId="65" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="108" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF48">
-    <cfRule type="cellIs" dxfId="64" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="107" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF48">
-    <cfRule type="cellIs" dxfId="63" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="106" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W70">
-    <cfRule type="cellIs" dxfId="62" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="99" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA36 W36">
-    <cfRule type="cellIs" dxfId="61" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="96" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36:Y36 AJ36:AN36">
-    <cfRule type="cellIs" dxfId="60" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="95" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF36">
-    <cfRule type="cellIs" dxfId="59" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="94" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG36:AI36">
-    <cfRule type="cellIs" dxfId="58" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="93" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z36:AB36">
-    <cfRule type="cellIs" dxfId="57" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="92" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B60">
-    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="87" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO60 AJ58:AN58">
-    <cfRule type="cellIs" dxfId="55" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="86" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W62">
-    <cfRule type="cellIs" dxfId="54" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="78" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W66">
-    <cfRule type="cellIs" dxfId="53" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="77" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H11 G8">
-    <cfRule type="cellIs" dxfId="52" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="69" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF40">
-    <cfRule type="cellIs" dxfId="51" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="68" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF44">
-    <cfRule type="cellIs" dxfId="50" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:G13">
+    <cfRule type="cellIs" dxfId="51" priority="66" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H13">
+    <cfRule type="cellIs" dxfId="50" priority="65" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W21:Y21 AA21:AY21">
     <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13">
+  <conditionalFormatting sqref="Z21">
     <cfRule type="cellIs" dxfId="48" priority="62" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W21:Y21 AA21:AY21">
-    <cfRule type="cellIs" dxfId="47" priority="60" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z21">
-    <cfRule type="cellIs" dxfId="46" priority="59" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="W38:Y38 AA38:AY38">
-    <cfRule type="cellIs" dxfId="45" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="59" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z38">
-    <cfRule type="cellIs" dxfId="44" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42:Y42 AA42:AY42">
-    <cfRule type="cellIs" dxfId="43" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z42">
-    <cfRule type="cellIs" dxfId="42" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="56" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W46:Y46 AA46:AY46">
-    <cfRule type="cellIs" dxfId="41" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z46">
-    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB14:AY14">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA14">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:J13">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:J5">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR12:AY12 AO13:AY13">
     <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J5">
+  <conditionalFormatting sqref="AO11">
     <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR12:AY12 AO13:AY13">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+  <conditionalFormatting sqref="AF10:AN11 AF8:AQ9 AF7:AN7 AR5:AY11">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO11">
+  <conditionalFormatting sqref="AR27:AY27 W27:AE27 AA28:AE28 AF27:AN28 W31:AN31 AR31:AY31 AY28 AR28:AT29">
     <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF10:AN11 AF8:AQ9 AF7:AN7 AR5:AY11">
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO29:AT29 AR27:AY27 W27:AE27 AA28:AE28 AF27:AN28 W31:AN31 AR31:AY31 AY28 AR28:AT28">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU28:AY29 AO30 W28:Y28">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+  <conditionalFormatting sqref="AU28:AY29 W28:Y28">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z28">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32:Y32 AA32:AY32">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z32">
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO50:AT51 AR49:AY49 W49:AE49 AA50:AE50 AF49:AN50 W53:AN53 AR53:AY53 AY50">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU50:AY51 AO52 W50:Y50">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z50">
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W54:Y54 AA54:AY54">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z54">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS15">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS23">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS40">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS44">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS48">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N56">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N64">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O64:O67 O69:O75 O56:O59 O61:O62 O21:O29 O32:O54 O5:O18">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO30">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO29:AQ29">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11052,37 +11093,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AE9:XFD10 W11 AI15:XFD21 F29:XFD29 E9:V9 N30:XFD31 M29:M31 E22:XFD28 E18:V18 E21:AH21 E16:AH17 E30:E31 G30:L31 E12:XFD14 E4:XFD8 A10:B10 A21:C31 A12:C18 A4:C9 A19:B19">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:AD10">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18:AH19 W20 E15:F15 Q15:AH15 H15:M15">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:AD19">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:P15">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkirton1\OneDrive - KPMG\Documents\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{EF83B072-C8C0-4A7E-9BC1-52378010A04C}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{533EE0E8-FD49-4519-8A8A-4EBCFCD86A9E}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,6 @@
     <author>tc={AAC0151B-041E-4F98-A281-736171BA5E27}</author>
     <author>tc={3FC98A93-1BD2-46CA-8439-5A569DD9E38A}</author>
     <author>tc={A36EDA56-9BB8-4481-8541-35CA7263BBE2}</author>
-    <author>tc={DBEF9E9E-4230-44E7-ABF6-F54B4228B979}</author>
     <author>tc={2C545A15-58BF-4325-853E-F01A6E2CD754}</author>
     <author>tc={B6F30610-5DE2-43DC-8686-4075E019810F}</author>
     <author>tc={F6470554-740D-4816-85E3-E23C5729D666}</author>
@@ -93,15 +92,7 @@
     Removed to solve timeline error when method wasn't actuall called anywhere</t>
       </text>
     </comment>
-    <comment ref="AO8" authorId="4" shapeId="0" xr:uid="{DBEF9E9E-4230-44E7-ABF6-F54B4228B979}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Confirm with Peter Couch / Greg Toms</t>
-      </text>
-    </comment>
-    <comment ref="D50" authorId="5" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+    <comment ref="D50" authorId="4" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -109,7 +100,7 @@
     Change task type to planned / reactive / risk?</t>
       </text>
     </comment>
-    <comment ref="D56" authorId="6" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
+    <comment ref="D56" authorId="5" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -117,7 +108,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="I56" authorId="7" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
+    <comment ref="I56" authorId="6" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -125,7 +116,7 @@
     Break it out later</t>
       </text>
     </comment>
-    <comment ref="AC56" authorId="8" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+    <comment ref="AC56" authorId="7" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -134,7 +125,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="W58" authorId="9" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+    <comment ref="W58" authorId="8" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -142,7 +133,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="D64" authorId="10" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+    <comment ref="D64" authorId="9" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -150,7 +141,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="AC64" authorId="11" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+    <comment ref="AC64" authorId="10" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -159,7 +150,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="W66" authorId="12" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
+    <comment ref="W66" authorId="11" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +158,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="E72" authorId="13" shapeId="0" xr:uid="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
+    <comment ref="E72" authorId="12" shapeId="0" xr:uid="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +166,7 @@
     fix method to allow multiple indicators for one component</t>
       </text>
     </comment>
-    <comment ref="I72" authorId="14" shapeId="0" xr:uid="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
+    <comment ref="I72" authorId="13" shapeId="0" xr:uid="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -188,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="339">
   <si>
     <t>Cause</t>
   </si>
@@ -1680,7 +1671,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1814,6 +1804,9 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -2852,9 +2845,6 @@
   <threadedComment ref="E8" dT="2020-10-11T23:14:06.89" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{A36EDA56-9BB8-4481-8541-35CA7263BBE2}">
     <text>Removed to solve timeline error when method wasn't actuall called anywhere</text>
   </threadedComment>
-  <threadedComment ref="AO8" dT="2020-09-09T03:33:43.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{DBEF9E9E-4230-44E7-ABF6-F54B4228B979}">
-    <text>Confirm with Peter Couch / Greg Toms</text>
-  </threadedComment>
   <threadedComment ref="D50" dT="2020-09-08T22:42:08.98" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
     <text>Change task type to planned / reactive / risk?</text>
   </threadedComment>
@@ -2898,7 +2888,7 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2912,7 +2902,7 @@
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2926,16 +2916,16 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="7" max="8" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>268</v>
       </c>
@@ -2943,7 +2933,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>270</v>
       </c>
@@ -2951,7 +2941,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>272</v>
       </c>
@@ -2959,17 +2949,17 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O12" s="1" t="s">
         <v>195</v>
       </c>
@@ -2980,7 +2970,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
         <v>278</v>
       </c>
@@ -2994,7 +2984,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F14" s="12" t="s">
         <v>281</v>
       </c>
@@ -3008,7 +2998,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>284</v>
       </c>
@@ -3025,7 +3015,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>288</v>
       </c>
@@ -3036,7 +3026,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>290</v>
       </c>
@@ -3047,22 +3037,22 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O18" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>296</v>
       </c>
@@ -3088,7 +3078,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>211</v>
       </c>
@@ -3102,7 +3092,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>195</v>
       </c>
@@ -3116,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>279</v>
       </c>
@@ -3130,7 +3120,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>286</v>
       </c>
@@ -3150,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>299</v>
       </c>
@@ -3164,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D37" s="43" t="s">
         <v>18</v>
       </c>
@@ -3172,7 +3162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>293</v>
       </c>
@@ -3183,7 +3173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>279</v>
       </c>
@@ -3194,27 +3184,27 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>302</v>
       </c>
@@ -3231,7 +3221,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E54" s="1" t="s">
         <v>304</v>
       </c>
@@ -3259,23 +3249,23 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L55">
         <f>L54/60/60</f>
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>307</v>
       </c>
@@ -3283,17 +3273,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>107</v>
       </c>
@@ -3301,12 +3291,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>312</v>
       </c>
@@ -3317,7 +3307,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>314</v>
       </c>
@@ -3328,7 +3318,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>316</v>
       </c>
@@ -3358,20 +3348,20 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
@@ -3381,7 +3371,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>321</v>
       </c>
@@ -3404,7 +3394,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>324</v>
       </c>
@@ -3428,7 +3418,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>328</v>
       </c>
@@ -3451,7 +3441,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
         <v>330</v>
@@ -3463,7 +3453,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>329</v>
       </c>
@@ -3481,7 +3471,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>332</v>
       </c>
@@ -3492,7 +3482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>331</v>
       </c>
@@ -3500,12 +3490,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>303</v>
       </c>
@@ -3517,7 +3507,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>334</v>
       </c>
@@ -3525,12 +3515,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="1048576" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O1048576" t="s">
         <v>323</v>
       </c>
@@ -3549,34 +3539,34 @@
       <selection activeCell="D4" sqref="D4:AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.33203125" customWidth="1"/>
-    <col min="31" max="31" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" customWidth="1"/>
+    <col min="31" max="31" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3617,7 +3607,7 @@
       </c>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -3704,7 +3694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -3785,7 +3775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L4" s="3" t="s">
         <v>38</v>
       </c>
@@ -3811,64 +3801,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AY78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AY13" sqref="AY13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="3" width="13.109375" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="13.109375" style="98" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="138" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="159" customWidth="1"/>
-    <col min="15" max="15" width="6" style="162" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" customWidth="1"/>
-    <col min="17" max="17" width="6.88671875" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" style="132" customWidth="1"/>
-    <col min="19" max="19" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5546875" customWidth="1"/>
-    <col min="24" max="24" width="11.109375" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" customWidth="1"/>
-    <col min="26" max="26" width="14.88671875" customWidth="1"/>
-    <col min="27" max="27" width="10.33203125" customWidth="1"/>
-    <col min="28" max="28" width="14.88671875" customWidth="1"/>
-    <col min="29" max="29" width="14.6640625" customWidth="1"/>
-    <col min="30" max="30" width="8.88671875" customWidth="1"/>
-    <col min="31" max="31" width="9.5546875" customWidth="1"/>
-    <col min="32" max="32" width="23.5546875" style="98" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="3" width="13.140625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="13.140625" style="97" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="137" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="158" customWidth="1"/>
+    <col min="15" max="15" width="6" style="161" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="131" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="97" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" customWidth="1"/>
+    <col min="30" max="30" width="8.85546875" customWidth="1"/>
+    <col min="31" max="31" width="9.5703125" customWidth="1"/>
+    <col min="32" max="32" width="23.5703125" style="97" customWidth="1"/>
     <col min="33" max="33" width="12" customWidth="1"/>
-    <col min="34" max="35" width="11.5546875" customWidth="1"/>
-    <col min="36" max="39" width="8.88671875" style="17" customWidth="1"/>
-    <col min="40" max="40" width="8.88671875" style="111" customWidth="1"/>
-    <col min="41" max="41" width="17.88671875" style="88" customWidth="1"/>
-    <col min="42" max="42" width="14.109375" style="20" customWidth="1"/>
-    <col min="43" max="43" width="14.44140625" style="122" customWidth="1"/>
-    <col min="44" max="45" width="8.88671875" style="17" customWidth="1"/>
-    <col min="46" max="46" width="8.88671875" style="111" customWidth="1"/>
-    <col min="47" max="47" width="17.88671875" style="77" customWidth="1"/>
-    <col min="48" max="48" width="8.88671875" style="20" customWidth="1"/>
-    <col min="49" max="49" width="16.33203125" customWidth="1"/>
-    <col min="50" max="50" width="8.88671875" customWidth="1"/>
-    <col min="51" max="51" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="11.5703125" customWidth="1"/>
+    <col min="36" max="39" width="8.85546875" style="17" customWidth="1"/>
+    <col min="40" max="40" width="8.85546875" style="110" customWidth="1"/>
+    <col min="41" max="41" width="17.85546875" style="88" customWidth="1"/>
+    <col min="42" max="42" width="14.140625" style="20" customWidth="1"/>
+    <col min="43" max="43" width="14.42578125" style="121" customWidth="1"/>
+    <col min="44" max="45" width="8.85546875" style="17" customWidth="1"/>
+    <col min="46" max="46" width="8.85546875" style="110" customWidth="1"/>
+    <col min="47" max="47" width="17.85546875" style="77" customWidth="1"/>
+    <col min="48" max="48" width="8.85546875" style="20" customWidth="1"/>
+    <col min="49" max="49" width="16.28515625" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" customWidth="1"/>
+    <col min="51" max="51" width="16.140625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="95"/>
+      <c r="D1" s="94"/>
       <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
@@ -3881,18 +3871,18 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="164"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="163"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="127"/>
+      <c r="R1" s="126"/>
       <c r="S1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="95"/>
+      <c r="V1" s="94"/>
       <c r="W1" s="25" t="s">
         <v>42</v>
       </c>
@@ -3904,7 +3894,7 @@
       <c r="AC1" s="25"/>
       <c r="AD1" s="25"/>
       <c r="AE1" s="25"/>
-      <c r="AF1" s="103"/>
+      <c r="AF1" s="102"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
@@ -3914,22 +3904,22 @@
       <c r="AK1" s="22"/>
       <c r="AL1" s="22"/>
       <c r="AM1" s="22"/>
-      <c r="AN1" s="105"/>
+      <c r="AN1" s="104"/>
       <c r="AO1" s="66"/>
       <c r="AP1" s="24"/>
-      <c r="AQ1" s="114"/>
+      <c r="AQ1" s="113"/>
       <c r="AR1" s="67" t="s">
         <v>44</v>
       </c>
       <c r="AS1" s="67"/>
-      <c r="AT1" s="92"/>
-      <c r="AU1" s="92"/>
-      <c r="AV1" s="92"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
       <c r="AW1" s="67"/>
       <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY1" s="21"/>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>45</v>
@@ -3937,7 +3927,7 @@
       <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="94" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3945,29 +3935,29 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="136"/>
+      <c r="H2" s="135"/>
       <c r="I2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="153" t="s">
+      <c r="M2" s="135"/>
+      <c r="N2" s="152" t="s">
         <v>337</v>
       </c>
-      <c r="O2" s="164"/>
+      <c r="O2" s="163"/>
       <c r="P2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q2" s="1"/>
-      <c r="R2" s="127"/>
+      <c r="R2" s="126"/>
       <c r="S2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="95"/>
+      <c r="V2" s="94"/>
       <c r="W2" s="25" t="s">
         <v>50</v>
       </c>
@@ -3981,7 +3971,7 @@
         <v>51</v>
       </c>
       <c r="AE2" s="25"/>
-      <c r="AF2" s="103" t="s">
+      <c r="AF2" s="102" t="s">
         <v>52</v>
       </c>
       <c r="AG2" s="2" t="s">
@@ -3995,28 +3985,28 @@
       <c r="AK2" s="22"/>
       <c r="AL2" s="22"/>
       <c r="AM2" s="22"/>
-      <c r="AN2" s="105"/>
+      <c r="AN2" s="104"/>
       <c r="AO2" s="66" t="s">
         <v>2</v>
       </c>
       <c r="AP2" s="24"/>
-      <c r="AQ2" s="114"/>
+      <c r="AQ2" s="113"/>
       <c r="AR2" s="67" t="s">
         <v>54</v>
       </c>
       <c r="AS2" s="67"/>
-      <c r="AT2" s="125"/>
+      <c r="AT2" s="124"/>
       <c r="AU2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="92"/>
+      <c r="AV2" s="91"/>
       <c r="AW2" s="67"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="72" t="s">
+      <c r="AX2" s="124"/>
+      <c r="AY2" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -4026,7 +4016,7 @@
       <c r="C3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="94" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4038,7 +4028,7 @@
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="136" t="s">
+      <c r="H3" s="135" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -4053,13 +4043,13 @@
       <c r="L3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="148" t="s">
+      <c r="M3" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="154" t="s">
+      <c r="N3" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="163" t="s">
+      <c r="O3" s="162" t="s">
         <v>338</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -4068,7 +4058,7 @@
       <c r="Q3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="128" t="s">
+      <c r="R3" s="127" t="s">
         <v>12</v>
       </c>
       <c r="S3" s="6" t="s">
@@ -4080,7 +4070,7 @@
       <c r="U3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="101" t="s">
+      <c r="V3" s="100" t="s">
         <v>15</v>
       </c>
       <c r="W3" s="25" t="s">
@@ -4110,7 +4100,7 @@
       <c r="AE3" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AF3" s="103" t="s">
+      <c r="AF3" s="102" t="s">
         <v>64</v>
       </c>
       <c r="AG3" s="45" t="s">
@@ -4134,7 +4124,7 @@
       <c r="AM3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AN3" s="106" t="s">
+      <c r="AN3" s="105" t="s">
         <v>72</v>
       </c>
       <c r="AO3" s="66" t="s">
@@ -4143,7 +4133,7 @@
       <c r="AP3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="AQ3" s="114" t="s">
+      <c r="AQ3" s="113" t="s">
         <v>74</v>
       </c>
       <c r="AR3" s="67" t="s">
@@ -4152,48 +4142,48 @@
       <c r="AS3" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="AT3" s="125" t="s">
+      <c r="AT3" s="124" t="s">
         <v>70</v>
       </c>
       <c r="AU3" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="AV3" s="92" t="s">
+      <c r="AV3" s="91" t="s">
         <v>75</v>
       </c>
       <c r="AW3" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="AX3" s="125" t="s">
+      <c r="AX3" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="AY3" s="72" t="s">
+      <c r="AY3" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
-      <c r="D4" s="96"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="59"/>
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
-      <c r="H4" s="137"/>
+      <c r="H4" s="136"/>
       <c r="I4" s="59"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
       <c r="L4" s="59"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="165"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="164"/>
       <c r="P4" s="59"/>
       <c r="Q4" s="59"/>
-      <c r="R4" s="129"/>
+      <c r="R4" s="128"/>
       <c r="S4" s="59"/>
       <c r="T4" s="59"/>
       <c r="U4" s="59"/>
-      <c r="V4" s="96"/>
+      <c r="V4" s="95"/>
       <c r="W4" s="59"/>
       <c r="X4" s="59"/>
       <c r="Y4" s="59"/>
@@ -4203,7 +4193,7 @@
       <c r="AC4" s="59"/>
       <c r="AD4" s="59"/>
       <c r="AE4" s="59"/>
-      <c r="AF4" s="96"/>
+      <c r="AF4" s="95"/>
       <c r="AG4" s="59"/>
       <c r="AH4" s="59"/>
       <c r="AI4" s="59"/>
@@ -4211,24 +4201,24 @@
       <c r="AK4" s="61"/>
       <c r="AL4" s="61"/>
       <c r="AM4" s="60"/>
-      <c r="AN4" s="107"/>
+      <c r="AN4" s="106"/>
       <c r="AO4" s="81"/>
       <c r="AP4" s="62"/>
-      <c r="AQ4" s="115"/>
+      <c r="AQ4" s="114"/>
       <c r="AR4" s="61"/>
       <c r="AS4" s="61"/>
-      <c r="AT4" s="126"/>
+      <c r="AT4" s="125"/>
       <c r="AU4" s="73"/>
       <c r="AV4" s="62"/>
       <c r="AW4" s="59"/>
       <c r="AX4" s="59"/>
-      <c r="AY4" s="59"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY4" s="61"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="96" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="s">
@@ -4240,9 +4230,9 @@
       <c r="G5" s="42">
         <v>125</v>
       </c>
-      <c r="H5" s="147">
-        <f>((H7 * G6^3)/(G7*8))^(1/3)</f>
-        <v>62.499999999999964</v>
+      <c r="H5" s="146">
+        <f>(G6-G6*(1-H7)^(1/4))/2</f>
+        <v>19.887948093285686</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>30</v>
@@ -4256,20 +4246,20 @@
       <c r="L5" s="45">
         <v>8</v>
       </c>
-      <c r="M5" s="149">
-        <v>1</v>
-      </c>
-      <c r="N5" s="156">
+      <c r="M5" s="148">
+        <v>1</v>
+      </c>
+      <c r="N5" s="155">
         <v>50000</v>
       </c>
-      <c r="O5" s="166"/>
+      <c r="O5" s="165"/>
       <c r="P5" s="45">
         <v>108</v>
       </c>
       <c r="Q5" s="45">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R5" s="130">
+      <c r="R5" s="129">
         <v>10</v>
       </c>
       <c r="S5" s="15" t="s">
@@ -4279,7 +4269,7 @@
         <v>79</v>
       </c>
       <c r="U5" s="15"/>
-      <c r="V5" s="97"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="15" t="s">
         <v>80</v>
       </c>
@@ -4307,7 +4297,7 @@
       <c r="AE5" s="41">
         <v>5</v>
       </c>
-      <c r="AF5" s="97" t="s">
+      <c r="AF5" s="96" t="s">
         <v>84</v>
       </c>
       <c r="AG5" s="15" t="s">
@@ -4325,30 +4315,30 @@
       <c r="AK5" s="18"/>
       <c r="AL5" s="18"/>
       <c r="AM5" s="18"/>
-      <c r="AN5" s="108"/>
+      <c r="AN5" s="107"/>
       <c r="AO5" s="89" t="s">
         <v>32</v>
       </c>
       <c r="AP5" s="90"/>
-      <c r="AQ5" s="116" t="s">
+      <c r="AQ5" s="115" t="s">
         <v>87</v>
       </c>
       <c r="AR5" s="18"/>
       <c r="AS5" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AT5" s="108"/>
+      <c r="AT5" s="107"/>
       <c r="AU5" s="74"/>
-      <c r="AV5" s="93"/>
+      <c r="AV5" s="92"/>
       <c r="AW5" s="18"/>
       <c r="AX5" s="18"/>
-      <c r="AY5" s="15"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY5" s="16"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="97"/>
+      <c r="D6" s="96"/>
       <c r="E6" t="s">
         <v>38</v>
       </c>
@@ -4358,7 +4348,7 @@
       <c r="G6" s="42">
         <v>250</v>
       </c>
-      <c r="H6" s="147">
+      <c r="H6" s="146">
         <f>(H7/G7 * G6^3)^(1/3)</f>
         <v>124.99999999999994</v>
       </c>
@@ -4366,12 +4356,12 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="167"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="166"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
-      <c r="R6" s="131"/>
+      <c r="R6" s="130"/>
       <c r="S6" s="15" t="s">
         <v>32</v>
       </c>
@@ -4379,7 +4369,7 @@
         <v>79</v>
       </c>
       <c r="U6" s="15"/>
-      <c r="V6" s="97"/>
+      <c r="V6" s="96"/>
       <c r="W6" s="15"/>
       <c r="X6" s="45"/>
       <c r="Y6" s="45"/>
@@ -4389,7 +4379,7 @@
       <c r="AC6" s="15"/>
       <c r="AD6" s="41"/>
       <c r="AE6" s="41"/>
-      <c r="AF6" s="97"/>
+      <c r="AF6" s="96"/>
       <c r="AG6" s="15"/>
       <c r="AH6" s="15"/>
       <c r="AI6" s="15"/>
@@ -4397,28 +4387,28 @@
       <c r="AK6" s="18"/>
       <c r="AL6" s="18"/>
       <c r="AM6" s="18"/>
-      <c r="AN6" s="108"/>
+      <c r="AN6" s="107"/>
       <c r="AO6" s="89" t="s">
         <v>38</v>
       </c>
       <c r="AP6" s="90"/>
-      <c r="AQ6" s="116" t="s">
+      <c r="AQ6" s="115" t="s">
         <v>87</v>
       </c>
       <c r="AR6" s="18"/>
       <c r="AS6" s="18"/>
-      <c r="AT6" s="108"/>
+      <c r="AT6" s="107"/>
       <c r="AU6" s="74"/>
-      <c r="AV6" s="93"/>
+      <c r="AV6" s="92"/>
       <c r="AW6" s="18"/>
       <c r="AX6" s="18"/>
-      <c r="AY6" s="15"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY6" s="16"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="97"/>
+      <c r="D7" s="96"/>
       <c r="E7" t="s">
         <v>37</v>
       </c>
@@ -4428,23 +4418,23 @@
       <c r="G7">
         <v>4</v>
       </c>
-      <c r="H7" s="138">
+      <c r="H7" s="137">
         <v>0.5</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="167"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="166"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="131"/>
+      <c r="R7" s="130"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="96"/>
       <c r="W7" s="69"/>
       <c r="X7" s="69"/>
       <c r="Y7" s="69"/>
@@ -4454,7 +4444,7 @@
       <c r="AC7" s="69"/>
       <c r="AD7" s="69"/>
       <c r="AE7" s="69"/>
-      <c r="AF7" s="104"/>
+      <c r="AF7" s="103"/>
       <c r="AG7" s="69"/>
       <c r="AH7" s="69"/>
       <c r="AI7" s="69"/>
@@ -4462,40 +4452,40 @@
       <c r="AK7" s="70"/>
       <c r="AL7" s="70"/>
       <c r="AM7" s="70"/>
-      <c r="AN7" s="109"/>
+      <c r="AN7" s="108"/>
       <c r="AO7" s="83"/>
       <c r="AP7" s="68"/>
-      <c r="AQ7" s="117"/>
+      <c r="AQ7" s="116"/>
       <c r="AR7" s="70"/>
       <c r="AS7" s="70"/>
-      <c r="AT7" s="109"/>
+      <c r="AT7" s="108"/>
       <c r="AU7" s="75"/>
       <c r="AV7" s="71"/>
       <c r="AW7" s="69"/>
       <c r="AX7" s="69"/>
-      <c r="AY7" s="69"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY7" s="70"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="97"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
+      <c r="D8" s="96"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="157"/>
-      <c r="O8" s="167"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="166"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="131"/>
+      <c r="R8" s="130"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="96"/>
       <c r="W8" s="15" t="s">
         <v>89</v>
       </c>
@@ -4519,7 +4509,7 @@
       </c>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="97"/>
+      <c r="AF8" s="96"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
@@ -4533,14 +4523,14 @@
         <v>0</v>
       </c>
       <c r="AM8" s="16"/>
-      <c r="AN8" s="110"/>
+      <c r="AN8" s="109"/>
       <c r="AO8" s="82" t="s">
         <v>32</v>
       </c>
       <c r="AP8" s="80">
         <v>50</v>
       </c>
-      <c r="AQ8" s="118" t="s">
+      <c r="AQ8" s="117" t="s">
         <v>87</v>
       </c>
       <c r="AR8" s="16" t="b">
@@ -4549,13 +4539,13 @@
       <c r="AS8" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT8" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV8" s="93">
+      <c r="AT8" s="109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV8" s="92">
         <v>0</v>
       </c>
       <c r="AW8" s="18" t="s">
@@ -4564,31 +4554,33 @@
       <c r="AX8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AY8" s="15"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY8" s="170" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="97"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="139"/>
+      <c r="H9" s="138"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="167"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="166"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="131"/>
+      <c r="R9" s="130"/>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="96"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
@@ -4598,7 +4590,7 @@
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
       <c r="AE9" s="15"/>
-      <c r="AF9" s="97"/>
+      <c r="AF9" s="96"/>
       <c r="AG9" s="15"/>
       <c r="AH9" s="15"/>
       <c r="AI9" s="15"/>
@@ -4606,48 +4598,56 @@
       <c r="AK9" s="16"/>
       <c r="AL9" s="16"/>
       <c r="AM9" s="16"/>
-      <c r="AN9" s="110"/>
+      <c r="AN9" s="109"/>
       <c r="AO9" s="82" t="s">
         <v>38</v>
       </c>
       <c r="AP9" s="80">
         <v>50</v>
       </c>
-      <c r="AQ9" s="118" t="s">
+      <c r="AQ9" s="117" t="s">
         <v>87</v>
       </c>
       <c r="AR9" s="16"/>
       <c r="AS9" s="16"/>
-      <c r="AT9" s="110"/>
-      <c r="AU9" s="76"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="15"/>
-      <c r="AX9" s="15"/>
-      <c r="AY9" s="15"/>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AT9" s="109"/>
+      <c r="AU9" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY9" s="170"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="97"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="139"/>
+      <c r="H10" s="138"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="139"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="167"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="156"/>
+      <c r="O10" s="166"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="131"/>
+      <c r="R10" s="130"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="96"/>
       <c r="W10" s="69"/>
       <c r="X10" s="69"/>
       <c r="Y10" s="69"/>
@@ -4657,7 +4657,7 @@
       <c r="AC10" s="69"/>
       <c r="AD10" s="69"/>
       <c r="AE10" s="69"/>
-      <c r="AF10" s="104"/>
+      <c r="AF10" s="103"/>
       <c r="AG10" s="69"/>
       <c r="AH10" s="69"/>
       <c r="AI10" s="69"/>
@@ -4665,42 +4665,42 @@
       <c r="AK10" s="70"/>
       <c r="AL10" s="70"/>
       <c r="AM10" s="70"/>
-      <c r="AN10" s="109"/>
+      <c r="AN10" s="108"/>
       <c r="AO10" s="83"/>
       <c r="AP10" s="68"/>
-      <c r="AQ10" s="117"/>
+      <c r="AQ10" s="116"/>
       <c r="AR10" s="70"/>
       <c r="AS10" s="70"/>
-      <c r="AT10" s="109"/>
+      <c r="AT10" s="108"/>
       <c r="AU10" s="75"/>
       <c r="AV10" s="71"/>
       <c r="AW10" s="69"/>
       <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY10" s="70"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="97"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="139"/>
+      <c r="H11" s="138"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="167"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="166"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="131"/>
+      <c r="R11" s="130"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="96"/>
       <c r="W11" s="15" t="s">
         <v>95</v>
       </c>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="97"/>
+      <c r="AF11" s="96"/>
       <c r="AG11" s="15"/>
       <c r="AH11" s="15"/>
       <c r="AI11" s="15"/>
@@ -4738,14 +4738,14 @@
         <v>0</v>
       </c>
       <c r="AM11" s="16"/>
-      <c r="AN11" s="110"/>
+      <c r="AN11" s="109"/>
       <c r="AO11" s="82" t="s">
         <v>37</v>
       </c>
       <c r="AP11" s="80">
         <v>0.5</v>
       </c>
-      <c r="AQ11" s="119">
+      <c r="AQ11" s="118">
         <v>3</v>
       </c>
       <c r="AR11" s="16" t="b">
@@ -4754,7 +4754,7 @@
       <c r="AS11" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT11" s="110" t="b">
+      <c r="AT11" s="109" t="b">
         <v>0</v>
       </c>
       <c r="AU11" s="76" t="s">
@@ -4769,33 +4769,33 @@
       <c r="AX11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY11" s="15" t="s">
+      <c r="AY11" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="97"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="139"/>
+      <c r="H12" s="138"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="167"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="166"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
-      <c r="R12" s="131"/>
+      <c r="R12" s="130"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="97"/>
+      <c r="V12" s="96"/>
       <c r="W12" s="69"/>
       <c r="X12" s="69"/>
       <c r="Y12" s="69"/>
@@ -4805,7 +4805,7 @@
       <c r="AC12" s="69"/>
       <c r="AD12" s="69"/>
       <c r="AE12" s="69"/>
-      <c r="AF12" s="104"/>
+      <c r="AF12" s="103"/>
       <c r="AG12" s="69"/>
       <c r="AH12" s="69"/>
       <c r="AI12" s="69"/>
@@ -4813,42 +4813,42 @@
       <c r="AK12" s="70"/>
       <c r="AL12" s="70"/>
       <c r="AM12" s="70"/>
-      <c r="AN12" s="109"/>
+      <c r="AN12" s="108"/>
       <c r="AO12" s="83"/>
       <c r="AP12" s="68"/>
-      <c r="AQ12" s="117"/>
+      <c r="AQ12" s="116"/>
       <c r="AR12" s="70"/>
       <c r="AS12" s="70"/>
-      <c r="AT12" s="109"/>
+      <c r="AT12" s="108"/>
       <c r="AU12" s="75"/>
       <c r="AV12" s="71"/>
       <c r="AW12" s="69"/>
       <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY12" s="70"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="97"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="139"/>
+      <c r="H13" s="138"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="167"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="166"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="131"/>
+      <c r="R13" s="130"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="96"/>
       <c r="W13" s="15" t="s">
         <v>98</v>
       </c>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="97"/>
+      <c r="AF13" s="96"/>
       <c r="AG13" s="15"/>
       <c r="AH13" s="15"/>
       <c r="AI13" s="15"/>
@@ -4884,17 +4884,17 @@
         <v>1</v>
       </c>
       <c r="AM13" s="16"/>
-      <c r="AN13" s="110"/>
+      <c r="AN13" s="109"/>
       <c r="AO13" s="82"/>
       <c r="AP13" s="80"/>
-      <c r="AQ13" s="119"/>
+      <c r="AQ13" s="118"/>
       <c r="AR13" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AS13" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT13" s="110" t="b">
+      <c r="AT13" s="109" t="b">
         <v>0</v>
       </c>
       <c r="AU13" s="76" t="s">
@@ -4909,15 +4909,15 @@
       <c r="AX13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY13" s="15" t="s">
+      <c r="AY13" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="97"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -4926,16 +4926,16 @@
       <c r="J14" s="56"/>
       <c r="K14" s="56"/>
       <c r="L14" s="56"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="168"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="157"/>
+      <c r="O14" s="167"/>
       <c r="P14" s="56"/>
       <c r="Q14" s="56"/>
-      <c r="R14" s="133"/>
+      <c r="R14" s="132"/>
       <c r="S14" s="56"/>
       <c r="T14" s="56"/>
       <c r="U14" s="56"/>
-      <c r="V14" s="102"/>
+      <c r="V14" s="101"/>
       <c r="W14" s="56"/>
       <c r="X14" s="56"/>
       <c r="Y14" s="56"/>
@@ -4945,7 +4945,7 @@
       <c r="AC14" s="56"/>
       <c r="AD14" s="56"/>
       <c r="AE14" s="56"/>
-      <c r="AF14" s="102"/>
+      <c r="AF14" s="101"/>
       <c r="AG14" s="56"/>
       <c r="AH14" s="56"/>
       <c r="AI14" s="56"/>
@@ -4953,24 +4953,24 @@
       <c r="AK14" s="57"/>
       <c r="AL14" s="57"/>
       <c r="AM14" s="57"/>
-      <c r="AN14" s="112"/>
+      <c r="AN14" s="111"/>
       <c r="AO14" s="85"/>
       <c r="AP14" s="58"/>
-      <c r="AQ14" s="121"/>
+      <c r="AQ14" s="120"/>
       <c r="AR14" s="57"/>
       <c r="AS14" s="57"/>
-      <c r="AT14" s="112"/>
+      <c r="AT14" s="111"/>
       <c r="AU14" s="78"/>
       <c r="AV14" s="58"/>
       <c r="AW14" s="56"/>
       <c r="AX14" s="56"/>
-      <c r="AY14" s="56"/>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY14" s="57"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="97"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -4987,20 +4987,20 @@
       <c r="L15" s="45">
         <v>10</v>
       </c>
-      <c r="M15" s="149">
-        <v>1</v>
-      </c>
-      <c r="N15" s="156">
+      <c r="M15" s="148">
+        <v>1</v>
+      </c>
+      <c r="N15" s="155">
         <v>50000</v>
       </c>
-      <c r="O15" s="166"/>
+      <c r="O15" s="165"/>
       <c r="P15" s="45">
         <v>125</v>
       </c>
       <c r="Q15" s="45">
         <v>3.3</v>
       </c>
-      <c r="R15" s="130">
+      <c r="R15" s="129">
         <v>10</v>
       </c>
       <c r="S15" s="15" t="s">
@@ -5010,7 +5010,7 @@
         <v>79</v>
       </c>
       <c r="U15" s="15"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="96"/>
       <c r="W15" s="15" t="s">
         <v>80</v>
       </c>
@@ -5036,7 +5036,7 @@
       <c r="AE15" s="15">
         <v>5</v>
       </c>
-      <c r="AF15" s="97" t="s">
+      <c r="AF15" s="96" t="s">
         <v>84</v>
       </c>
       <c r="AG15" s="15" t="s">
@@ -5054,26 +5054,26 @@
       <c r="AK15" s="18"/>
       <c r="AL15" s="18"/>
       <c r="AM15" s="18"/>
-      <c r="AN15" s="108"/>
+      <c r="AN15" s="107"/>
       <c r="AO15" s="84"/>
       <c r="AP15" s="18"/>
-      <c r="AQ15" s="108"/>
+      <c r="AQ15" s="107"/>
       <c r="AR15" s="16"/>
       <c r="AS15" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AT15" s="108"/>
+      <c r="AT15" s="107"/>
       <c r="AU15" s="74"/>
-      <c r="AV15" s="93"/>
+      <c r="AV15" s="92"/>
       <c r="AW15" s="18"/>
       <c r="AX15" s="18"/>
-      <c r="AY15" s="15"/>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY15" s="16"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="97"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -5081,16 +5081,16 @@
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="167"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="156"/>
+      <c r="O16" s="166"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="131"/>
+      <c r="R16" s="130"/>
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="97"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="69"/>
       <c r="X16" s="69"/>
       <c r="Y16" s="69"/>
@@ -5100,7 +5100,7 @@
       <c r="AC16" s="69"/>
       <c r="AD16" s="69"/>
       <c r="AE16" s="69"/>
-      <c r="AF16" s="104"/>
+      <c r="AF16" s="103"/>
       <c r="AG16" s="69"/>
       <c r="AH16" s="69"/>
       <c r="AI16" s="69"/>
@@ -5108,24 +5108,24 @@
       <c r="AK16" s="70"/>
       <c r="AL16" s="70"/>
       <c r="AM16" s="70"/>
-      <c r="AN16" s="109"/>
+      <c r="AN16" s="108"/>
       <c r="AO16" s="83"/>
       <c r="AP16" s="68"/>
-      <c r="AQ16" s="117"/>
+      <c r="AQ16" s="116"/>
       <c r="AR16" s="70"/>
       <c r="AS16" s="70"/>
-      <c r="AT16" s="109"/>
+      <c r="AT16" s="108"/>
       <c r="AU16" s="75"/>
       <c r="AV16" s="71"/>
       <c r="AW16" s="69"/>
       <c r="AX16" s="69"/>
-      <c r="AY16" s="69"/>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY16" s="70"/>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="97"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -5133,16 +5133,16 @@
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="167"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="156"/>
+      <c r="O17" s="166"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
-      <c r="R17" s="131"/>
+      <c r="R17" s="130"/>
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="97"/>
+      <c r="V17" s="96"/>
       <c r="W17" s="15" t="s">
         <v>95</v>
       </c>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="AD17" s="15"/>
       <c r="AE17" s="15"/>
-      <c r="AF17" s="97"/>
+      <c r="AF17" s="96"/>
       <c r="AG17" s="15"/>
       <c r="AH17" s="15"/>
       <c r="AI17" s="15"/>
@@ -5180,14 +5180,14 @@
         <v>0</v>
       </c>
       <c r="AM17" s="16"/>
-      <c r="AN17" s="110"/>
+      <c r="AN17" s="109"/>
       <c r="AO17" s="84" t="s">
         <v>32</v>
       </c>
       <c r="AP17" s="19">
         <v>0</v>
       </c>
-      <c r="AQ17" s="120">
+      <c r="AQ17" s="119">
         <v>50</v>
       </c>
       <c r="AR17" s="16" t="b">
@@ -5196,7 +5196,7 @@
       <c r="AS17" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT17" s="110" t="b">
+      <c r="AT17" s="109" t="b">
         <v>0</v>
       </c>
       <c r="AU17" s="76" t="s">
@@ -5211,29 +5211,29 @@
       <c r="AX17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY17" s="15" t="s">
+      <c r="AY17" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="97"/>
+      <c r="D18" s="96"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="167"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="166"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
-      <c r="R18" s="131"/>
+      <c r="R18" s="130"/>
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
-      <c r="V18" s="97"/>
+      <c r="V18" s="96"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
@@ -5243,7 +5243,7 @@
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
       <c r="AE18" s="15"/>
-      <c r="AF18" s="97"/>
+      <c r="AF18" s="96"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="15"/>
       <c r="AI18" s="15"/>
@@ -5251,39 +5251,40 @@
       <c r="AK18" s="15"/>
       <c r="AL18" s="15"/>
       <c r="AM18" s="15"/>
-      <c r="AN18" s="97"/>
+      <c r="AN18" s="96"/>
       <c r="AO18" s="84" t="s">
         <v>38</v>
       </c>
       <c r="AP18" s="19">
         <v>0</v>
       </c>
-      <c r="AQ18" s="120">
+      <c r="AQ18" s="119">
         <v>50</v>
       </c>
       <c r="AR18" s="16"/>
       <c r="AS18" s="16"/>
-      <c r="AT18" s="110"/>
+      <c r="AT18" s="109"/>
       <c r="AU18" s="76"/>
       <c r="AV18" s="19"/>
       <c r="AW18" s="15"/>
       <c r="AX18" s="15"/>
-      <c r="AY18" s="15"/>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY18" s="16"/>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
+      <c r="E19" s="15"/>
       <c r="AO19" s="84" t="s">
         <v>37</v>
       </c>
       <c r="AP19" s="20">
         <v>0.5</v>
       </c>
-      <c r="AQ19" s="122">
+      <c r="AQ19" s="121">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="W20" s="69"/>
@@ -5295,7 +5296,7 @@
       <c r="AC20" s="69"/>
       <c r="AD20" s="69"/>
       <c r="AE20" s="69"/>
-      <c r="AF20" s="104"/>
+      <c r="AF20" s="103"/>
       <c r="AG20" s="69"/>
       <c r="AH20" s="69"/>
       <c r="AI20" s="69"/>
@@ -5303,20 +5304,20 @@
       <c r="AK20" s="70"/>
       <c r="AL20" s="70"/>
       <c r="AM20" s="70"/>
-      <c r="AN20" s="109"/>
+      <c r="AN20" s="108"/>
       <c r="AO20" s="83"/>
       <c r="AP20" s="68"/>
-      <c r="AQ20" s="117"/>
+      <c r="AQ20" s="116"/>
       <c r="AR20" s="70"/>
       <c r="AS20" s="70"/>
-      <c r="AT20" s="109"/>
+      <c r="AT20" s="108"/>
       <c r="AU20" s="75"/>
       <c r="AV20" s="71"/>
       <c r="AW20" s="69"/>
       <c r="AX20" s="69"/>
-      <c r="AY20" s="69"/>
-    </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY20" s="70"/>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="E21" s="15"/>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
-      <c r="AF21" s="97"/>
+      <c r="AF21" s="96"/>
       <c r="AG21" s="15"/>
       <c r="AH21" s="15"/>
       <c r="AI21" s="15"/>
@@ -5358,17 +5359,17 @@
         <v>1</v>
       </c>
       <c r="AM21" s="16"/>
-      <c r="AN21" s="110"/>
+      <c r="AN21" s="109"/>
       <c r="AO21" s="84"/>
       <c r="AP21" s="19"/>
-      <c r="AQ21" s="120"/>
+      <c r="AQ21" s="119"/>
       <c r="AR21" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AS21" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT21" s="110" t="b">
+      <c r="AT21" s="109" t="b">
         <v>0</v>
       </c>
       <c r="AU21" s="76" t="s">
@@ -5383,15 +5384,15 @@
       <c r="AX21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY21" s="15" t="s">
+      <c r="AY21" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="97"/>
+      <c r="D22" s="96"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -5400,16 +5401,16 @@
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
       <c r="L22" s="56"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="168"/>
+      <c r="M22" s="149"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="167"/>
       <c r="P22" s="56"/>
       <c r="Q22" s="56"/>
-      <c r="R22" s="133"/>
+      <c r="R22" s="132"/>
       <c r="S22" s="56"/>
       <c r="T22" s="56"/>
       <c r="U22" s="56"/>
-      <c r="V22" s="102"/>
+      <c r="V22" s="101"/>
       <c r="W22" s="56"/>
       <c r="X22" s="56"/>
       <c r="Y22" s="56"/>
@@ -5419,7 +5420,7 @@
       <c r="AC22" s="56"/>
       <c r="AD22" s="56"/>
       <c r="AE22" s="56"/>
-      <c r="AF22" s="102"/>
+      <c r="AF22" s="101"/>
       <c r="AG22" s="56"/>
       <c r="AH22" s="56"/>
       <c r="AI22" s="56"/>
@@ -5427,24 +5428,24 @@
       <c r="AK22" s="57"/>
       <c r="AL22" s="57"/>
       <c r="AM22" s="57"/>
-      <c r="AN22" s="112"/>
+      <c r="AN22" s="111"/>
       <c r="AO22" s="85"/>
       <c r="AP22" s="58"/>
-      <c r="AQ22" s="121"/>
+      <c r="AQ22" s="120"/>
       <c r="AR22" s="57"/>
       <c r="AS22" s="57"/>
-      <c r="AT22" s="112"/>
+      <c r="AT22" s="111"/>
       <c r="AU22" s="78"/>
       <c r="AV22" s="58"/>
       <c r="AW22" s="56"/>
       <c r="AX22" s="56"/>
-      <c r="AY22" s="56"/>
-    </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY22" s="57"/>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="97"/>
+      <c r="D23" s="96"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -5461,20 +5462,20 @@
       <c r="L23" s="45">
         <v>10</v>
       </c>
-      <c r="M23" s="149">
-        <v>1</v>
-      </c>
-      <c r="N23" s="156">
+      <c r="M23" s="148">
+        <v>1</v>
+      </c>
+      <c r="N23" s="155">
         <v>50000</v>
       </c>
-      <c r="O23" s="166"/>
+      <c r="O23" s="165"/>
       <c r="P23" s="45">
         <v>122</v>
       </c>
       <c r="Q23" s="45">
         <v>2.5</v>
       </c>
-      <c r="R23" s="130">
+      <c r="R23" s="129">
         <v>10</v>
       </c>
       <c r="S23" s="15" t="s">
@@ -5484,7 +5485,7 @@
         <v>79</v>
       </c>
       <c r="U23" s="15"/>
-      <c r="V23" s="97"/>
+      <c r="V23" s="96"/>
       <c r="W23" s="15" t="s">
         <v>80</v>
       </c>
@@ -5512,7 +5513,7 @@
       <c r="AE23" s="15">
         <v>5</v>
       </c>
-      <c r="AF23" s="97" t="s">
+      <c r="AF23" s="96" t="s">
         <v>84</v>
       </c>
       <c r="AG23" s="15" t="s">
@@ -5530,26 +5531,26 @@
       <c r="AK23" s="18"/>
       <c r="AL23" s="18"/>
       <c r="AM23" s="18"/>
-      <c r="AN23" s="108"/>
+      <c r="AN23" s="107"/>
       <c r="AO23" s="84"/>
       <c r="AP23" s="18"/>
-      <c r="AQ23" s="108"/>
+      <c r="AQ23" s="107"/>
       <c r="AR23" s="16"/>
       <c r="AS23" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AT23" s="108"/>
+      <c r="AT23" s="107"/>
       <c r="AU23" s="74"/>
-      <c r="AV23" s="93"/>
+      <c r="AV23" s="92"/>
       <c r="AW23" s="18"/>
       <c r="AX23" s="18"/>
-      <c r="AY23" s="15"/>
-    </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY23" s="16"/>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="97"/>
+      <c r="D24" s="96"/>
       <c r="E24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -5557,16 +5558,16 @@
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="139"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="167"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="166"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
-      <c r="R24" s="131"/>
+      <c r="R24" s="130"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="97"/>
+      <c r="V24" s="96"/>
       <c r="W24" s="69"/>
       <c r="X24" s="69"/>
       <c r="Y24" s="69"/>
@@ -5576,7 +5577,7 @@
       <c r="AC24" s="69"/>
       <c r="AD24" s="69"/>
       <c r="AE24" s="69"/>
-      <c r="AF24" s="104"/>
+      <c r="AF24" s="103"/>
       <c r="AG24" s="69"/>
       <c r="AH24" s="69"/>
       <c r="AI24" s="69"/>
@@ -5584,24 +5585,24 @@
       <c r="AK24" s="70"/>
       <c r="AL24" s="70"/>
       <c r="AM24" s="70"/>
-      <c r="AN24" s="109"/>
+      <c r="AN24" s="108"/>
       <c r="AO24" s="83"/>
       <c r="AP24" s="68"/>
-      <c r="AQ24" s="117"/>
+      <c r="AQ24" s="116"/>
       <c r="AR24" s="70"/>
       <c r="AS24" s="70"/>
-      <c r="AT24" s="109"/>
+      <c r="AT24" s="108"/>
       <c r="AU24" s="75"/>
       <c r="AV24" s="71"/>
       <c r="AW24" s="69"/>
       <c r="AX24" s="69"/>
-      <c r="AY24" s="69"/>
-    </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY24" s="70"/>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="97"/>
+      <c r="D25" s="96"/>
       <c r="E25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -5609,21 +5610,21 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="157"/>
-      <c r="O25" s="167"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="166"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
-      <c r="R25" s="131"/>
+      <c r="R25" s="130"/>
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="97"/>
+      <c r="V25" s="96"/>
       <c r="W25" s="15" t="s">
         <v>101</v>
       </c>
       <c r="X25" s="45">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="Y25" s="15">
         <v>100</v>
@@ -5642,7 +5643,7 @@
       </c>
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="97"/>
+      <c r="AF25" s="96"/>
       <c r="AG25" s="15"/>
       <c r="AH25" s="15"/>
       <c r="AI25" s="15"/>
@@ -5656,14 +5657,14 @@
         <v>0</v>
       </c>
       <c r="AM25" s="16"/>
-      <c r="AN25" s="110"/>
+      <c r="AN25" s="109"/>
       <c r="AO25" s="82" t="s">
         <v>32</v>
       </c>
       <c r="AP25" s="80">
         <v>50</v>
       </c>
-      <c r="AQ25" s="123" t="s">
+      <c r="AQ25" s="122" t="s">
         <v>87</v>
       </c>
       <c r="AR25" s="16" t="b">
@@ -5672,13 +5673,13 @@
       <c r="AS25" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT25" s="110" t="b">
+      <c r="AT25" s="109" t="b">
         <v>0</v>
       </c>
       <c r="AU25" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="AV25" s="93">
+      <c r="AV25" s="92">
         <v>0</v>
       </c>
       <c r="AW25" s="18" t="s">
@@ -5687,13 +5688,15 @@
       <c r="AX25" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AY25" s="15"/>
-    </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY25" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="97"/>
+      <c r="D26" s="96"/>
       <c r="E26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -5701,16 +5704,16 @@
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="167"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="166"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
-      <c r="R26" s="131"/>
+      <c r="R26" s="130"/>
       <c r="S26" s="15"/>
       <c r="T26" s="15"/>
       <c r="U26" s="15"/>
-      <c r="V26" s="97"/>
+      <c r="V26" s="96"/>
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
@@ -5720,7 +5723,7 @@
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
       <c r="AE26" s="15"/>
-      <c r="AF26" s="97"/>
+      <c r="AF26" s="96"/>
       <c r="AG26" s="15"/>
       <c r="AH26" s="15"/>
       <c r="AI26" s="15"/>
@@ -5728,30 +5731,30 @@
       <c r="AK26" s="16"/>
       <c r="AL26" s="16"/>
       <c r="AM26" s="16"/>
-      <c r="AN26" s="110"/>
+      <c r="AN26" s="109"/>
       <c r="AO26" s="82" t="s">
         <v>38</v>
       </c>
       <c r="AP26" s="80">
         <v>50</v>
       </c>
-      <c r="AQ26" s="123" t="s">
+      <c r="AQ26" s="122" t="s">
         <v>87</v>
       </c>
       <c r="AR26" s="16"/>
       <c r="AS26" s="16"/>
-      <c r="AT26" s="110"/>
+      <c r="AT26" s="109"/>
       <c r="AU26" s="76"/>
       <c r="AV26" s="19"/>
       <c r="AW26" s="15"/>
       <c r="AX26" s="15"/>
-      <c r="AY26" s="15"/>
-    </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY26" s="16"/>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="97"/>
+      <c r="D27" s="96"/>
       <c r="E27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -5759,16 +5762,16 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="157"/>
-      <c r="O27" s="167"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="156"/>
+      <c r="O27" s="166"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
-      <c r="R27" s="131"/>
+      <c r="R27" s="130"/>
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
-      <c r="V27" s="97"/>
+      <c r="V27" s="96"/>
       <c r="W27" s="69"/>
       <c r="X27" s="69"/>
       <c r="Y27" s="69"/>
@@ -5778,7 +5781,7 @@
       <c r="AC27" s="69"/>
       <c r="AD27" s="69"/>
       <c r="AE27" s="69"/>
-      <c r="AF27" s="104"/>
+      <c r="AF27" s="103"/>
       <c r="AG27" s="69"/>
       <c r="AH27" s="69"/>
       <c r="AI27" s="69"/>
@@ -5786,24 +5789,24 @@
       <c r="AK27" s="70"/>
       <c r="AL27" s="70"/>
       <c r="AM27" s="70"/>
-      <c r="AN27" s="109"/>
+      <c r="AN27" s="108"/>
       <c r="AO27" s="83"/>
       <c r="AP27" s="68"/>
-      <c r="AQ27" s="117"/>
+      <c r="AQ27" s="116"/>
       <c r="AR27" s="70"/>
       <c r="AS27" s="70"/>
-      <c r="AT27" s="109"/>
+      <c r="AT27" s="108"/>
       <c r="AU27" s="75"/>
       <c r="AV27" s="71"/>
       <c r="AW27" s="69"/>
       <c r="AX27" s="69"/>
-      <c r="AY27" s="69"/>
-    </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY27" s="70"/>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="97"/>
+      <c r="D28" s="96"/>
       <c r="E28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -5811,16 +5814,16 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="157"/>
-      <c r="O28" s="167"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="166"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
-      <c r="R28" s="131"/>
+      <c r="R28" s="130"/>
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
-      <c r="V28" s="97"/>
+      <c r="V28" s="96"/>
       <c r="W28" s="15" t="s">
         <v>95</v>
       </c>
@@ -5844,7 +5847,7 @@
       </c>
       <c r="AD28" s="15"/>
       <c r="AE28" s="15"/>
-      <c r="AF28" s="97"/>
+      <c r="AF28" s="96"/>
       <c r="AG28" s="15"/>
       <c r="AH28" s="15"/>
       <c r="AI28" s="15"/>
@@ -5858,14 +5861,14 @@
         <v>0</v>
       </c>
       <c r="AM28" s="16"/>
-      <c r="AN28" s="110"/>
+      <c r="AN28" s="109"/>
       <c r="AO28" s="84" t="s">
         <v>37</v>
       </c>
       <c r="AP28" s="20">
         <v>0.5</v>
       </c>
-      <c r="AQ28" s="122">
+      <c r="AQ28" s="121">
         <v>3</v>
       </c>
       <c r="AR28" s="16" t="b">
@@ -5874,7 +5877,7 @@
       <c r="AS28" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT28" s="110" t="b">
+      <c r="AT28" s="109" t="b">
         <v>0</v>
       </c>
       <c r="AU28" s="76" t="s">
@@ -5889,29 +5892,29 @@
       <c r="AX28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY28" s="15" t="s">
+      <c r="AY28" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="97"/>
+      <c r="D29" s="96"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
-      <c r="M29" s="139"/>
-      <c r="N29" s="157"/>
-      <c r="O29" s="167"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="166"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
-      <c r="R29" s="131"/>
+      <c r="R29" s="130"/>
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
-      <c r="V29" s="97"/>
+      <c r="V29" s="96"/>
       <c r="W29" s="15"/>
       <c r="X29" s="15"/>
       <c r="Y29" s="15"/>
@@ -5921,7 +5924,7 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="15"/>
-      <c r="AF29" s="97"/>
+      <c r="AF29" s="96"/>
       <c r="AG29" s="15"/>
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
@@ -5929,25 +5932,25 @@
       <c r="AK29" s="15"/>
       <c r="AL29" s="15"/>
       <c r="AM29" s="15"/>
-      <c r="AN29" s="97"/>
+      <c r="AN29" s="96"/>
       <c r="AO29" s="84"/>
       <c r="AP29" s="19"/>
-      <c r="AQ29" s="120"/>
+      <c r="AQ29" s="119"/>
       <c r="AR29" s="16"/>
       <c r="AS29" s="16"/>
-      <c r="AT29" s="110"/>
+      <c r="AT29" s="109"/>
       <c r="AU29" s="76"/>
       <c r="AV29" s="19"/>
       <c r="AW29" s="15"/>
       <c r="AX29" s="15"/>
-      <c r="AY29" s="15"/>
-    </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY29" s="16"/>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="AO30" s="84"/>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="W31" s="69"/>
@@ -5959,7 +5962,7 @@
       <c r="AC31" s="69"/>
       <c r="AD31" s="69"/>
       <c r="AE31" s="69"/>
-      <c r="AF31" s="104"/>
+      <c r="AF31" s="103"/>
       <c r="AG31" s="69"/>
       <c r="AH31" s="69"/>
       <c r="AI31" s="69"/>
@@ -5967,20 +5970,20 @@
       <c r="AK31" s="70"/>
       <c r="AL31" s="70"/>
       <c r="AM31" s="70"/>
-      <c r="AN31" s="109"/>
+      <c r="AN31" s="108"/>
       <c r="AO31" s="83"/>
       <c r="AP31" s="68"/>
-      <c r="AQ31" s="117"/>
+      <c r="AQ31" s="116"/>
       <c r="AR31" s="70"/>
       <c r="AS31" s="70"/>
-      <c r="AT31" s="109"/>
+      <c r="AT31" s="108"/>
       <c r="AU31" s="75"/>
       <c r="AV31" s="71"/>
       <c r="AW31" s="69"/>
       <c r="AX31" s="69"/>
-      <c r="AY31" s="69"/>
-    </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY31" s="70"/>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="E32" s="15"/>
@@ -6010,7 +6013,7 @@
       </c>
       <c r="AD32" s="15"/>
       <c r="AE32" s="15"/>
-      <c r="AF32" s="97"/>
+      <c r="AF32" s="96"/>
       <c r="AG32" s="15"/>
       <c r="AH32" s="15"/>
       <c r="AI32" s="15"/>
@@ -6022,17 +6025,17 @@
         <v>1</v>
       </c>
       <c r="AM32" s="16"/>
-      <c r="AN32" s="110"/>
+      <c r="AN32" s="109"/>
       <c r="AO32" s="84"/>
       <c r="AP32" s="19"/>
-      <c r="AQ32" s="120"/>
+      <c r="AQ32" s="119"/>
       <c r="AR32" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AS32" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT32" s="110" t="b">
+      <c r="AT32" s="109" t="b">
         <v>0</v>
       </c>
       <c r="AU32" s="76" t="s">
@@ -6047,15 +6050,15 @@
       <c r="AX32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY32" s="15" t="s">
+      <c r="AY32" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="97"/>
+      <c r="D33" s="96"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -6064,16 +6067,16 @@
       <c r="J33" s="56"/>
       <c r="K33" s="56"/>
       <c r="L33" s="56"/>
-      <c r="M33" s="150"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="168"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="167"/>
       <c r="P33" s="56"/>
       <c r="Q33" s="56"/>
-      <c r="R33" s="133"/>
+      <c r="R33" s="132"/>
       <c r="S33" s="56"/>
       <c r="T33" s="56"/>
       <c r="U33" s="56"/>
-      <c r="V33" s="102"/>
+      <c r="V33" s="101"/>
       <c r="W33" s="56"/>
       <c r="X33" s="56"/>
       <c r="Y33" s="56"/>
@@ -6083,7 +6086,7 @@
       <c r="AC33" s="56"/>
       <c r="AD33" s="56"/>
       <c r="AE33" s="56"/>
-      <c r="AF33" s="102"/>
+      <c r="AF33" s="101"/>
       <c r="AG33" s="56"/>
       <c r="AH33" s="56"/>
       <c r="AI33" s="56"/>
@@ -6091,24 +6094,24 @@
       <c r="AK33" s="57"/>
       <c r="AL33" s="57"/>
       <c r="AM33" s="57"/>
-      <c r="AN33" s="112"/>
+      <c r="AN33" s="111"/>
       <c r="AO33" s="85"/>
       <c r="AP33" s="58"/>
-      <c r="AQ33" s="121"/>
+      <c r="AQ33" s="120"/>
       <c r="AR33" s="57"/>
       <c r="AS33" s="57"/>
-      <c r="AT33" s="112"/>
+      <c r="AT33" s="111"/>
       <c r="AU33" s="78"/>
       <c r="AV33" s="58"/>
       <c r="AW33" s="56"/>
       <c r="AX33" s="56"/>
-      <c r="AY33" s="56"/>
-    </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY33" s="57"/>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="97"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -6125,26 +6128,26 @@
       <c r="L34" s="41">
         <v>0</v>
       </c>
-      <c r="M34" s="151">
-        <v>0</v>
-      </c>
-      <c r="N34" s="160">
+      <c r="M34" s="150">
+        <v>0</v>
+      </c>
+      <c r="N34" s="159">
         <v>50000</v>
       </c>
-      <c r="O34" s="169"/>
+      <c r="O34" s="168"/>
       <c r="P34" s="41">
         <v>700</v>
       </c>
       <c r="Q34" s="41">
         <v>1.5</v>
       </c>
-      <c r="R34" s="134">
-        <v>0</v>
-      </c>
-      <c r="S34" s="94"/>
+      <c r="R34" s="133">
+        <v>0</v>
+      </c>
+      <c r="S34" s="93"/>
       <c r="T34" s="41"/>
       <c r="U34" s="41"/>
-      <c r="V34" s="99"/>
+      <c r="V34" s="98"/>
       <c r="W34" s="15" t="s">
         <v>80</v>
       </c>
@@ -6172,7 +6175,7 @@
       <c r="AE34" s="15">
         <v>5</v>
       </c>
-      <c r="AF34" s="97" t="s">
+      <c r="AF34" s="96" t="s">
         <v>84</v>
       </c>
       <c r="AG34" s="15"/>
@@ -6184,26 +6187,26 @@
       <c r="AK34" s="18"/>
       <c r="AL34" s="18"/>
       <c r="AM34" s="18"/>
-      <c r="AN34" s="108"/>
+      <c r="AN34" s="107"/>
       <c r="AO34" s="84"/>
       <c r="AP34" s="19"/>
-      <c r="AQ34" s="120"/>
-      <c r="AR34" s="145"/>
-      <c r="AS34" s="145" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT34" s="146"/>
+      <c r="AQ34" s="119"/>
+      <c r="AR34" s="144"/>
+      <c r="AS34" s="144" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="145"/>
       <c r="AU34" s="76"/>
       <c r="AV34" s="19"/>
       <c r="AW34" s="15"/>
       <c r="AX34" s="15"/>
-      <c r="AY34" s="15"/>
-    </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY34" s="16"/>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="97"/>
+      <c r="D35" s="96"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -6212,16 +6215,16 @@
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="139"/>
-      <c r="N35" s="157"/>
-      <c r="O35" s="167"/>
+      <c r="M35" s="138"/>
+      <c r="N35" s="156"/>
+      <c r="O35" s="166"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
-      <c r="R35" s="131"/>
+      <c r="R35" s="130"/>
       <c r="S35" s="15"/>
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
-      <c r="V35" s="97"/>
+      <c r="V35" s="96"/>
       <c r="W35" s="69"/>
       <c r="X35" s="69"/>
       <c r="Y35" s="69"/>
@@ -6231,7 +6234,7 @@
       <c r="AC35" s="69"/>
       <c r="AD35" s="69"/>
       <c r="AE35" s="69"/>
-      <c r="AF35" s="104"/>
+      <c r="AF35" s="103"/>
       <c r="AG35" s="69"/>
       <c r="AH35" s="69"/>
       <c r="AI35" s="69"/>
@@ -6239,24 +6242,24 @@
       <c r="AK35" s="70"/>
       <c r="AL35" s="70"/>
       <c r="AM35" s="70"/>
-      <c r="AN35" s="109"/>
+      <c r="AN35" s="108"/>
       <c r="AO35" s="83"/>
-      <c r="AP35" s="140"/>
-      <c r="AQ35" s="141"/>
-      <c r="AR35" s="142"/>
-      <c r="AS35" s="142"/>
-      <c r="AT35" s="143"/>
-      <c r="AU35" s="144"/>
+      <c r="AP35" s="139"/>
+      <c r="AQ35" s="140"/>
+      <c r="AR35" s="141"/>
+      <c r="AS35" s="141"/>
+      <c r="AT35" s="142"/>
+      <c r="AU35" s="143"/>
       <c r="AV35" s="71"/>
       <c r="AW35" s="69"/>
       <c r="AX35" s="69"/>
-      <c r="AY35" s="69"/>
-    </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY35" s="70"/>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="97"/>
+      <c r="D36" s="96"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -6265,16 +6268,16 @@
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-      <c r="M36" s="139"/>
-      <c r="N36" s="157"/>
-      <c r="O36" s="167"/>
+      <c r="M36" s="138"/>
+      <c r="N36" s="156"/>
+      <c r="O36" s="166"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
-      <c r="R36" s="131"/>
+      <c r="R36" s="130"/>
       <c r="S36" s="15"/>
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
-      <c r="V36" s="97"/>
+      <c r="V36" s="96"/>
       <c r="W36" s="15" t="s">
         <v>104</v>
       </c>
@@ -6300,7 +6303,7 @@
       <c r="AE36" s="15">
         <v>1</v>
       </c>
-      <c r="AF36" s="97" t="s">
+      <c r="AF36" s="96" t="s">
         <v>105</v>
       </c>
       <c r="AG36" s="15" t="s">
@@ -6318,26 +6321,26 @@
       <c r="AK36" s="18"/>
       <c r="AL36" s="18"/>
       <c r="AM36" s="18"/>
-      <c r="AN36" s="108"/>
+      <c r="AN36" s="107"/>
       <c r="AO36" s="84"/>
       <c r="AP36" s="19"/>
-      <c r="AQ36" s="120"/>
-      <c r="AR36" s="145"/>
-      <c r="AS36" s="145" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT36" s="146"/>
+      <c r="AQ36" s="119"/>
+      <c r="AR36" s="144"/>
+      <c r="AS36" s="144" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="145"/>
       <c r="AU36" s="74"/>
-      <c r="AV36" s="93"/>
+      <c r="AV36" s="92"/>
       <c r="AW36" s="18"/>
       <c r="AX36" s="18"/>
-      <c r="AY36" s="15"/>
-    </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY36" s="16"/>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="97"/>
+      <c r="D37" s="96"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -6346,16 +6349,16 @@
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
-      <c r="M37" s="139"/>
-      <c r="N37" s="157"/>
-      <c r="O37" s="167"/>
+      <c r="M37" s="138"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="166"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
-      <c r="R37" s="131"/>
+      <c r="R37" s="130"/>
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
-      <c r="V37" s="97"/>
+      <c r="V37" s="96"/>
       <c r="W37" s="69"/>
       <c r="X37" s="69"/>
       <c r="Y37" s="69"/>
@@ -6365,7 +6368,7 @@
       <c r="AC37" s="69"/>
       <c r="AD37" s="69"/>
       <c r="AE37" s="69"/>
-      <c r="AF37" s="104"/>
+      <c r="AF37" s="103"/>
       <c r="AG37" s="69"/>
       <c r="AH37" s="69"/>
       <c r="AI37" s="69"/>
@@ -6373,20 +6376,20 @@
       <c r="AK37" s="70"/>
       <c r="AL37" s="70"/>
       <c r="AM37" s="70"/>
-      <c r="AN37" s="109"/>
+      <c r="AN37" s="108"/>
       <c r="AO37" s="83"/>
       <c r="AP37" s="68"/>
-      <c r="AQ37" s="117"/>
+      <c r="AQ37" s="116"/>
       <c r="AR37" s="70"/>
       <c r="AS37" s="70"/>
-      <c r="AT37" s="109"/>
+      <c r="AT37" s="108"/>
       <c r="AU37" s="75"/>
       <c r="AV37" s="71"/>
       <c r="AW37" s="69"/>
       <c r="AX37" s="69"/>
-      <c r="AY37" s="69"/>
-    </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY37" s="70"/>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="W38" s="15" t="s">
@@ -6412,7 +6415,7 @@
       </c>
       <c r="AD38" s="15"/>
       <c r="AE38" s="15"/>
-      <c r="AF38" s="97"/>
+      <c r="AF38" s="96"/>
       <c r="AG38" s="15"/>
       <c r="AH38" s="15"/>
       <c r="AI38" s="15"/>
@@ -6424,17 +6427,17 @@
         <v>1</v>
       </c>
       <c r="AM38" s="16"/>
-      <c r="AN38" s="110"/>
+      <c r="AN38" s="109"/>
       <c r="AO38" s="84"/>
       <c r="AP38" s="19"/>
-      <c r="AQ38" s="120"/>
+      <c r="AQ38" s="119"/>
       <c r="AR38" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AS38" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT38" s="110" t="b">
+      <c r="AT38" s="109" t="b">
         <v>0</v>
       </c>
       <c r="AU38" s="76" t="s">
@@ -6449,15 +6452,15 @@
       <c r="AX38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY38" s="15" t="s">
+      <c r="AY38" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="97"/>
+      <c r="D39" s="96"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -6466,16 +6469,16 @@
       <c r="J39" s="56"/>
       <c r="K39" s="56"/>
       <c r="L39" s="56"/>
-      <c r="M39" s="150"/>
-      <c r="N39" s="158"/>
-      <c r="O39" s="168"/>
+      <c r="M39" s="149"/>
+      <c r="N39" s="157"/>
+      <c r="O39" s="167"/>
       <c r="P39" s="56"/>
       <c r="Q39" s="56"/>
-      <c r="R39" s="133"/>
+      <c r="R39" s="132"/>
       <c r="S39" s="56"/>
       <c r="T39" s="56"/>
       <c r="U39" s="56"/>
-      <c r="V39" s="102"/>
+      <c r="V39" s="101"/>
       <c r="W39" s="56"/>
       <c r="X39" s="56"/>
       <c r="Y39" s="56"/>
@@ -6485,7 +6488,7 @@
       <c r="AC39" s="56"/>
       <c r="AD39" s="56"/>
       <c r="AE39" s="56"/>
-      <c r="AF39" s="102"/>
+      <c r="AF39" s="101"/>
       <c r="AG39" s="56"/>
       <c r="AH39" s="56"/>
       <c r="AI39" s="56"/>
@@ -6493,24 +6496,24 @@
       <c r="AK39" s="57"/>
       <c r="AL39" s="57"/>
       <c r="AM39" s="57"/>
-      <c r="AN39" s="112"/>
+      <c r="AN39" s="111"/>
       <c r="AO39" s="85"/>
       <c r="AP39" s="58"/>
-      <c r="AQ39" s="121"/>
+      <c r="AQ39" s="120"/>
       <c r="AR39" s="57"/>
       <c r="AS39" s="57"/>
-      <c r="AT39" s="112"/>
+      <c r="AT39" s="111"/>
       <c r="AU39" s="78"/>
       <c r="AV39" s="58"/>
       <c r="AW39" s="56"/>
       <c r="AX39" s="56"/>
-      <c r="AY39" s="56"/>
-    </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY39" s="57"/>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="97"/>
+      <c r="D40" s="96"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -6527,26 +6530,26 @@
       <c r="L40" s="41">
         <v>0</v>
       </c>
-      <c r="M40" s="151">
-        <v>0</v>
-      </c>
-      <c r="N40" s="160">
+      <c r="M40" s="150">
+        <v>0</v>
+      </c>
+      <c r="N40" s="159">
         <v>50000</v>
       </c>
-      <c r="O40" s="169"/>
+      <c r="O40" s="168"/>
       <c r="P40" s="41">
         <v>515</v>
       </c>
       <c r="Q40" s="41">
         <v>1</v>
       </c>
-      <c r="R40" s="134">
+      <c r="R40" s="133">
         <v>0</v>
       </c>
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
-      <c r="V40" s="97"/>
+      <c r="V40" s="96"/>
       <c r="W40" s="15" t="s">
         <v>104</v>
       </c>
@@ -6574,7 +6577,7 @@
       <c r="AE40" s="15">
         <v>1</v>
       </c>
-      <c r="AF40" s="97" t="s">
+      <c r="AF40" s="96" t="s">
         <v>105</v>
       </c>
       <c r="AG40" s="15"/>
@@ -6586,22 +6589,22 @@
       <c r="AK40" s="18"/>
       <c r="AL40" s="18"/>
       <c r="AM40" s="18"/>
-      <c r="AN40" s="108"/>
+      <c r="AN40" s="107"/>
       <c r="AO40" s="84"/>
       <c r="AP40" s="19"/>
-      <c r="AQ40" s="120"/>
+      <c r="AQ40" s="119"/>
       <c r="AR40" s="16"/>
       <c r="AS40" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AT40" s="110"/>
+      <c r="AT40" s="109"/>
       <c r="AU40" s="76"/>
       <c r="AV40" s="19"/>
       <c r="AW40" s="15"/>
       <c r="AX40" s="15"/>
-      <c r="AY40" s="15"/>
-    </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY40" s="16"/>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="W41" s="69"/>
@@ -6613,7 +6616,7 @@
       <c r="AC41" s="69"/>
       <c r="AD41" s="69"/>
       <c r="AE41" s="69"/>
-      <c r="AF41" s="104"/>
+      <c r="AF41" s="103"/>
       <c r="AG41" s="69"/>
       <c r="AH41" s="69"/>
       <c r="AI41" s="69"/>
@@ -6621,20 +6624,20 @@
       <c r="AK41" s="70"/>
       <c r="AL41" s="70"/>
       <c r="AM41" s="70"/>
-      <c r="AN41" s="109"/>
+      <c r="AN41" s="108"/>
       <c r="AO41" s="83"/>
       <c r="AP41" s="68"/>
-      <c r="AQ41" s="117"/>
+      <c r="AQ41" s="116"/>
       <c r="AR41" s="70"/>
       <c r="AS41" s="70"/>
-      <c r="AT41" s="109"/>
+      <c r="AT41" s="108"/>
       <c r="AU41" s="75"/>
       <c r="AV41" s="71"/>
       <c r="AW41" s="69"/>
       <c r="AX41" s="69"/>
-      <c r="AY41" s="69"/>
-    </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY41" s="70"/>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="W42" s="15" t="s">
@@ -6660,7 +6663,7 @@
       </c>
       <c r="AD42" s="15"/>
       <c r="AE42" s="15"/>
-      <c r="AF42" s="97"/>
+      <c r="AF42" s="96"/>
       <c r="AG42" s="15"/>
       <c r="AH42" s="15"/>
       <c r="AI42" s="15"/>
@@ -6672,17 +6675,17 @@
         <v>1</v>
       </c>
       <c r="AM42" s="16"/>
-      <c r="AN42" s="110"/>
+      <c r="AN42" s="109"/>
       <c r="AO42" s="84"/>
       <c r="AP42" s="19"/>
-      <c r="AQ42" s="120"/>
+      <c r="AQ42" s="119"/>
       <c r="AR42" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AS42" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT42" s="110" t="b">
+      <c r="AT42" s="109" t="b">
         <v>0</v>
       </c>
       <c r="AU42" s="76" t="s">
@@ -6697,15 +6700,15 @@
       <c r="AX42" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY42" s="15" t="s">
+      <c r="AY42" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="97"/>
+      <c r="D43" s="96"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -6714,16 +6717,16 @@
       <c r="J43" s="56"/>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
-      <c r="M43" s="150"/>
-      <c r="N43" s="158"/>
-      <c r="O43" s="168"/>
+      <c r="M43" s="149"/>
+      <c r="N43" s="157"/>
+      <c r="O43" s="167"/>
       <c r="P43" s="56"/>
       <c r="Q43" s="56"/>
-      <c r="R43" s="133"/>
+      <c r="R43" s="132"/>
       <c r="S43" s="56"/>
       <c r="T43" s="56"/>
       <c r="U43" s="56"/>
-      <c r="V43" s="102"/>
+      <c r="V43" s="101"/>
       <c r="W43" s="56"/>
       <c r="X43" s="56"/>
       <c r="Y43" s="56"/>
@@ -6733,7 +6736,7 @@
       <c r="AC43" s="56"/>
       <c r="AD43" s="56"/>
       <c r="AE43" s="56"/>
-      <c r="AF43" s="102"/>
+      <c r="AF43" s="101"/>
       <c r="AG43" s="56"/>
       <c r="AH43" s="56"/>
       <c r="AI43" s="56"/>
@@ -6741,24 +6744,24 @@
       <c r="AK43" s="57"/>
       <c r="AL43" s="57"/>
       <c r="AM43" s="57"/>
-      <c r="AN43" s="112"/>
+      <c r="AN43" s="111"/>
       <c r="AO43" s="85"/>
       <c r="AP43" s="58"/>
-      <c r="AQ43" s="121"/>
+      <c r="AQ43" s="120"/>
       <c r="AR43" s="57"/>
       <c r="AS43" s="57"/>
-      <c r="AT43" s="112"/>
+      <c r="AT43" s="111"/>
       <c r="AU43" s="78"/>
       <c r="AV43" s="58"/>
       <c r="AW43" s="56"/>
       <c r="AX43" s="56"/>
-      <c r="AY43" s="56"/>
-    </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY43" s="57"/>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="97"/>
+      <c r="D44" s="96"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -6775,26 +6778,26 @@
       <c r="L44" s="41">
         <v>0</v>
       </c>
-      <c r="M44" s="151">
-        <v>0</v>
-      </c>
-      <c r="N44" s="160">
+      <c r="M44" s="150">
+        <v>0</v>
+      </c>
+      <c r="N44" s="159">
         <v>50000</v>
       </c>
-      <c r="O44" s="169"/>
+      <c r="O44" s="168"/>
       <c r="P44" s="41">
         <v>620</v>
       </c>
       <c r="Q44" s="41">
         <v>2.1</v>
       </c>
-      <c r="R44" s="134">
+      <c r="R44" s="133">
         <v>0</v>
       </c>
       <c r="S44" s="15"/>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="97"/>
+      <c r="V44" s="96"/>
       <c r="W44" s="15" t="s">
         <v>104</v>
       </c>
@@ -6822,7 +6825,7 @@
       <c r="AE44" s="15">
         <v>1</v>
       </c>
-      <c r="AF44" s="97" t="s">
+      <c r="AF44" s="96" t="s">
         <v>105</v>
       </c>
       <c r="AG44" s="15"/>
@@ -6834,26 +6837,26 @@
       <c r="AK44" s="18"/>
       <c r="AL44" s="18"/>
       <c r="AM44" s="18"/>
-      <c r="AN44" s="108"/>
+      <c r="AN44" s="107"/>
       <c r="AO44" s="84"/>
       <c r="AP44" s="19"/>
-      <c r="AQ44" s="120"/>
+      <c r="AQ44" s="119"/>
       <c r="AR44" s="16"/>
       <c r="AS44" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AT44" s="110"/>
+      <c r="AT44" s="109"/>
       <c r="AU44" s="76"/>
       <c r="AV44" s="19"/>
       <c r="AW44" s="15"/>
       <c r="AX44" s="15"/>
-      <c r="AY44" s="15"/>
-    </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY44" s="16"/>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
-      <c r="D45" s="97"/>
+      <c r="D45" s="96"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -6862,16 +6865,16 @@
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
-      <c r="M45" s="139"/>
-      <c r="N45" s="157"/>
-      <c r="O45" s="167"/>
+      <c r="M45" s="138"/>
+      <c r="N45" s="156"/>
+      <c r="O45" s="166"/>
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
-      <c r="R45" s="131"/>
+      <c r="R45" s="130"/>
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
-      <c r="V45" s="97"/>
+      <c r="V45" s="96"/>
       <c r="W45" s="69"/>
       <c r="X45" s="69"/>
       <c r="Y45" s="69"/>
@@ -6881,7 +6884,7 @@
       <c r="AC45" s="69"/>
       <c r="AD45" s="69"/>
       <c r="AE45" s="69"/>
-      <c r="AF45" s="104"/>
+      <c r="AF45" s="103"/>
       <c r="AG45" s="69"/>
       <c r="AH45" s="69"/>
       <c r="AI45" s="69"/>
@@ -6889,20 +6892,20 @@
       <c r="AK45" s="70"/>
       <c r="AL45" s="70"/>
       <c r="AM45" s="70"/>
-      <c r="AN45" s="109"/>
+      <c r="AN45" s="108"/>
       <c r="AO45" s="83"/>
       <c r="AP45" s="68"/>
-      <c r="AQ45" s="117"/>
+      <c r="AQ45" s="116"/>
       <c r="AR45" s="70"/>
       <c r="AS45" s="70"/>
-      <c r="AT45" s="109"/>
+      <c r="AT45" s="108"/>
       <c r="AU45" s="75"/>
       <c r="AV45" s="71"/>
       <c r="AW45" s="69"/>
       <c r="AX45" s="69"/>
-      <c r="AY45" s="69"/>
-    </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY45" s="70"/>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="W46" s="15" t="s">
@@ -6928,7 +6931,7 @@
       </c>
       <c r="AD46" s="15"/>
       <c r="AE46" s="15"/>
-      <c r="AF46" s="97"/>
+      <c r="AF46" s="96"/>
       <c r="AG46" s="15"/>
       <c r="AH46" s="15"/>
       <c r="AI46" s="15"/>
@@ -6940,17 +6943,17 @@
         <v>1</v>
       </c>
       <c r="AM46" s="16"/>
-      <c r="AN46" s="110"/>
+      <c r="AN46" s="109"/>
       <c r="AO46" s="84"/>
       <c r="AP46" s="19"/>
-      <c r="AQ46" s="120"/>
+      <c r="AQ46" s="119"/>
       <c r="AR46" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AS46" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT46" s="110" t="b">
+      <c r="AT46" s="109" t="b">
         <v>0</v>
       </c>
       <c r="AU46" s="76" t="s">
@@ -6965,15 +6968,15 @@
       <c r="AX46" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY46" s="15" t="s">
+      <c r="AY46" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
-      <c r="D47" s="97"/>
+      <c r="D47" s="96"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
@@ -6982,16 +6985,16 @@
       <c r="J47" s="56"/>
       <c r="K47" s="56"/>
       <c r="L47" s="56"/>
-      <c r="M47" s="150"/>
-      <c r="N47" s="158"/>
-      <c r="O47" s="168"/>
+      <c r="M47" s="149"/>
+      <c r="N47" s="157"/>
+      <c r="O47" s="167"/>
       <c r="P47" s="56"/>
       <c r="Q47" s="56"/>
-      <c r="R47" s="133"/>
+      <c r="R47" s="132"/>
       <c r="S47" s="56"/>
       <c r="T47" s="56"/>
       <c r="U47" s="56"/>
-      <c r="V47" s="102"/>
+      <c r="V47" s="101"/>
       <c r="W47" s="56"/>
       <c r="X47" s="56"/>
       <c r="Y47" s="56"/>
@@ -7001,7 +7004,7 @@
       <c r="AC47" s="56"/>
       <c r="AD47" s="56"/>
       <c r="AE47" s="56"/>
-      <c r="AF47" s="102"/>
+      <c r="AF47" s="101"/>
       <c r="AG47" s="56"/>
       <c r="AH47" s="56"/>
       <c r="AI47" s="56"/>
@@ -7009,24 +7012,24 @@
       <c r="AK47" s="57"/>
       <c r="AL47" s="57"/>
       <c r="AM47" s="57"/>
-      <c r="AN47" s="112"/>
+      <c r="AN47" s="111"/>
       <c r="AO47" s="85"/>
       <c r="AP47" s="58"/>
-      <c r="AQ47" s="121"/>
+      <c r="AQ47" s="120"/>
       <c r="AR47" s="57"/>
       <c r="AS47" s="57"/>
-      <c r="AT47" s="112"/>
+      <c r="AT47" s="111"/>
       <c r="AU47" s="78"/>
       <c r="AV47" s="58"/>
       <c r="AW47" s="56"/>
       <c r="AX47" s="56"/>
-      <c r="AY47" s="56"/>
-    </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY47" s="57"/>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
-      <c r="D48" s="97"/>
+      <c r="D48" s="96"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
@@ -7043,20 +7046,20 @@
       <c r="L48" s="41">
         <v>20</v>
       </c>
-      <c r="M48" s="151">
-        <v>1</v>
-      </c>
-      <c r="N48" s="160">
+      <c r="M48" s="150">
+        <v>1</v>
+      </c>
+      <c r="N48" s="159">
         <v>50000</v>
       </c>
-      <c r="O48" s="169"/>
+      <c r="O48" s="168"/>
       <c r="P48" s="41">
         <v>161</v>
       </c>
       <c r="Q48" s="41">
         <v>3.5</v>
       </c>
-      <c r="R48" s="134">
+      <c r="R48" s="133">
         <v>30</v>
       </c>
       <c r="S48" s="15" t="s">
@@ -7066,7 +7069,7 @@
         <v>79</v>
       </c>
       <c r="U48" s="15"/>
-      <c r="V48" s="97"/>
+      <c r="V48" s="96"/>
       <c r="W48" s="15" t="s">
         <v>80</v>
       </c>
@@ -7092,7 +7095,7 @@
       <c r="AE48" s="15">
         <v>5</v>
       </c>
-      <c r="AF48" s="97" t="s">
+      <c r="AF48" s="96" t="s">
         <v>84</v>
       </c>
       <c r="AG48" s="15"/>
@@ -7104,32 +7107,32 @@
       <c r="AK48" s="18"/>
       <c r="AL48" s="18"/>
       <c r="AM48" s="18"/>
-      <c r="AN48" s="108"/>
+      <c r="AN48" s="107"/>
       <c r="AO48" s="84" t="s">
         <v>38</v>
       </c>
       <c r="AP48" s="19">
         <v>0</v>
       </c>
-      <c r="AQ48" s="120">
+      <c r="AQ48" s="119">
         <v>50</v>
       </c>
       <c r="AR48" s="16"/>
       <c r="AS48" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AT48" s="110"/>
+      <c r="AT48" s="109"/>
       <c r="AU48" s="76"/>
       <c r="AV48" s="19"/>
       <c r="AW48" s="15"/>
       <c r="AX48" s="15"/>
-      <c r="AY48" s="15"/>
-    </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY48" s="16"/>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
-      <c r="D49" s="97"/>
+      <c r="D49" s="96"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
@@ -7138,12 +7141,12 @@
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
-      <c r="M49" s="139"/>
-      <c r="N49" s="157"/>
-      <c r="O49" s="167"/>
+      <c r="M49" s="138"/>
+      <c r="N49" s="156"/>
+      <c r="O49" s="166"/>
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
-      <c r="R49" s="131"/>
+      <c r="R49" s="130"/>
       <c r="S49" s="15" t="s">
         <v>38</v>
       </c>
@@ -7151,7 +7154,7 @@
         <v>79</v>
       </c>
       <c r="U49" s="15"/>
-      <c r="V49" s="97"/>
+      <c r="V49" s="96"/>
       <c r="W49" s="69"/>
       <c r="X49" s="69"/>
       <c r="Y49" s="69"/>
@@ -7161,7 +7164,7 @@
       <c r="AC49" s="69"/>
       <c r="AD49" s="69"/>
       <c r="AE49" s="69"/>
-      <c r="AF49" s="104"/>
+      <c r="AF49" s="103"/>
       <c r="AG49" s="69"/>
       <c r="AH49" s="69"/>
       <c r="AI49" s="69"/>
@@ -7169,24 +7172,24 @@
       <c r="AK49" s="70"/>
       <c r="AL49" s="70"/>
       <c r="AM49" s="70"/>
-      <c r="AN49" s="109"/>
+      <c r="AN49" s="108"/>
       <c r="AO49" s="83"/>
       <c r="AP49" s="68"/>
-      <c r="AQ49" s="117"/>
+      <c r="AQ49" s="116"/>
       <c r="AR49" s="70"/>
       <c r="AS49" s="70"/>
-      <c r="AT49" s="109"/>
+      <c r="AT49" s="108"/>
       <c r="AU49" s="75"/>
       <c r="AV49" s="71"/>
       <c r="AW49" s="69"/>
       <c r="AX49" s="69"/>
-      <c r="AY49" s="69"/>
-    </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY49" s="70"/>
+    </row>
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
-      <c r="D50" s="99"/>
+      <c r="D50" s="98"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
@@ -7195,16 +7198,16 @@
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
-      <c r="M50" s="139"/>
-      <c r="N50" s="157"/>
-      <c r="O50" s="167"/>
+      <c r="M50" s="138"/>
+      <c r="N50" s="156"/>
+      <c r="O50" s="166"/>
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
-      <c r="R50" s="131"/>
+      <c r="R50" s="130"/>
       <c r="S50" s="15"/>
       <c r="T50" s="15"/>
       <c r="U50" s="15"/>
-      <c r="V50" s="97"/>
+      <c r="V50" s="96"/>
       <c r="W50" s="15" t="s">
         <v>95</v>
       </c>
@@ -7228,7 +7231,7 @@
       </c>
       <c r="AD50" s="15"/>
       <c r="AE50" s="15"/>
-      <c r="AF50" s="97"/>
+      <c r="AF50" s="96"/>
       <c r="AG50" s="15"/>
       <c r="AH50" s="15"/>
       <c r="AI50" s="15"/>
@@ -7242,14 +7245,14 @@
         <v>0</v>
       </c>
       <c r="AM50" s="16"/>
-      <c r="AN50" s="110"/>
+      <c r="AN50" s="109"/>
       <c r="AO50" s="84" t="s">
         <v>32</v>
       </c>
       <c r="AP50" s="19">
         <v>0</v>
       </c>
-      <c r="AQ50" s="120">
+      <c r="AQ50" s="119">
         <v>50</v>
       </c>
       <c r="AR50" s="16" t="b">
@@ -7258,7 +7261,7 @@
       <c r="AS50" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT50" s="110" t="b">
+      <c r="AT50" s="109" t="b">
         <v>0</v>
       </c>
       <c r="AU50" s="76" t="s">
@@ -7273,15 +7276,15 @@
       <c r="AX50" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY50" s="15" t="s">
+      <c r="AY50" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
-      <c r="D51" s="97"/>
+      <c r="D51" s="96"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
@@ -7290,16 +7293,16 @@
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
-      <c r="M51" s="139"/>
-      <c r="N51" s="157"/>
-      <c r="O51" s="167"/>
+      <c r="M51" s="138"/>
+      <c r="N51" s="156"/>
+      <c r="O51" s="166"/>
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
-      <c r="R51" s="131"/>
+      <c r="R51" s="130"/>
       <c r="S51" s="15"/>
       <c r="T51" s="15"/>
       <c r="U51" s="15"/>
-      <c r="V51" s="97"/>
+      <c r="V51" s="96"/>
       <c r="W51" s="15"/>
       <c r="X51" s="15"/>
       <c r="Y51" s="15"/>
@@ -7309,7 +7312,7 @@
       <c r="AC51" s="15"/>
       <c r="AD51" s="15"/>
       <c r="AE51" s="15"/>
-      <c r="AF51" s="97"/>
+      <c r="AF51" s="96"/>
       <c r="AG51" s="15"/>
       <c r="AH51" s="15"/>
       <c r="AI51" s="15"/>
@@ -7317,26 +7320,26 @@
       <c r="AK51" s="15"/>
       <c r="AL51" s="15"/>
       <c r="AM51" s="15"/>
-      <c r="AN51" s="97"/>
+      <c r="AN51" s="96"/>
       <c r="AO51" s="84" t="s">
         <v>38</v>
       </c>
       <c r="AP51" s="19">
         <v>0</v>
       </c>
-      <c r="AQ51" s="120">
+      <c r="AQ51" s="119">
         <v>50</v>
       </c>
       <c r="AR51" s="16"/>
       <c r="AS51" s="16"/>
-      <c r="AT51" s="110"/>
+      <c r="AT51" s="109"/>
       <c r="AU51" s="76"/>
       <c r="AV51" s="19"/>
       <c r="AW51" s="15"/>
       <c r="AX51" s="15"/>
-      <c r="AY51" s="15"/>
-    </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY51" s="16"/>
+    </row>
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="AO52" s="84" t="s">
@@ -7345,11 +7348,11 @@
       <c r="AP52" s="20">
         <v>0.5</v>
       </c>
-      <c r="AQ52" s="122">
+      <c r="AQ52" s="121">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="W53" s="69"/>
@@ -7361,7 +7364,7 @@
       <c r="AC53" s="69"/>
       <c r="AD53" s="69"/>
       <c r="AE53" s="69"/>
-      <c r="AF53" s="104"/>
+      <c r="AF53" s="103"/>
       <c r="AG53" s="69"/>
       <c r="AH53" s="69"/>
       <c r="AI53" s="69"/>
@@ -7369,20 +7372,20 @@
       <c r="AK53" s="70"/>
       <c r="AL53" s="70"/>
       <c r="AM53" s="70"/>
-      <c r="AN53" s="109"/>
+      <c r="AN53" s="108"/>
       <c r="AO53" s="83"/>
       <c r="AP53" s="68"/>
-      <c r="AQ53" s="117"/>
+      <c r="AQ53" s="116"/>
       <c r="AR53" s="70"/>
       <c r="AS53" s="70"/>
-      <c r="AT53" s="109"/>
+      <c r="AT53" s="108"/>
       <c r="AU53" s="75"/>
       <c r="AV53" s="71"/>
       <c r="AW53" s="69"/>
       <c r="AX53" s="69"/>
-      <c r="AY53" s="69"/>
-    </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY53" s="70"/>
+    </row>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="W54" s="15" t="s">
@@ -7408,7 +7411,7 @@
       </c>
       <c r="AD54" s="15"/>
       <c r="AE54" s="15"/>
-      <c r="AF54" s="97"/>
+      <c r="AF54" s="96"/>
       <c r="AG54" s="15"/>
       <c r="AH54" s="15"/>
       <c r="AI54" s="15"/>
@@ -7420,17 +7423,17 @@
         <v>1</v>
       </c>
       <c r="AM54" s="16"/>
-      <c r="AN54" s="110"/>
+      <c r="AN54" s="109"/>
       <c r="AO54" s="84"/>
       <c r="AP54" s="19"/>
-      <c r="AQ54" s="120"/>
+      <c r="AQ54" s="119"/>
       <c r="AR54" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AS54" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT54" s="110" t="b">
+      <c r="AT54" s="109" t="b">
         <v>0</v>
       </c>
       <c r="AU54" s="76" t="s">
@@ -7445,15 +7448,15 @@
       <c r="AX54" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY54" s="15" t="s">
+      <c r="AY54" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
-      <c r="D55" s="96"/>
+      <c r="D55" s="95"/>
       <c r="E55" s="59"/>
       <c r="F55" s="59"/>
       <c r="G55" s="59"/>
@@ -7462,16 +7465,16 @@
       <c r="J55" s="59"/>
       <c r="K55" s="59"/>
       <c r="L55" s="59"/>
-      <c r="M55" s="137"/>
-      <c r="N55" s="155"/>
-      <c r="O55" s="165"/>
+      <c r="M55" s="136"/>
+      <c r="N55" s="154"/>
+      <c r="O55" s="164"/>
       <c r="P55" s="59"/>
       <c r="Q55" s="59"/>
-      <c r="R55" s="129"/>
+      <c r="R55" s="128"/>
       <c r="S55" s="59"/>
       <c r="T55" s="59"/>
       <c r="U55" s="59"/>
-      <c r="V55" s="96"/>
+      <c r="V55" s="95"/>
       <c r="W55" s="59"/>
       <c r="X55" s="59"/>
       <c r="Y55" s="59"/>
@@ -7481,7 +7484,7 @@
       <c r="AC55" s="59"/>
       <c r="AD55" s="59"/>
       <c r="AE55" s="59"/>
-      <c r="AF55" s="96"/>
+      <c r="AF55" s="95"/>
       <c r="AG55" s="59"/>
       <c r="AH55" s="59"/>
       <c r="AI55" s="59"/>
@@ -7489,24 +7492,24 @@
       <c r="AK55" s="61"/>
       <c r="AL55" s="61"/>
       <c r="AM55" s="60"/>
-      <c r="AN55" s="107"/>
+      <c r="AN55" s="106"/>
       <c r="AO55" s="81"/>
       <c r="AP55" s="62"/>
-      <c r="AQ55" s="115"/>
+      <c r="AQ55" s="114"/>
       <c r="AR55" s="61"/>
       <c r="AS55" s="61"/>
-      <c r="AT55" s="126"/>
+      <c r="AT55" s="125"/>
       <c r="AU55" s="73"/>
       <c r="AV55" s="62"/>
       <c r="AW55" s="59"/>
       <c r="AX55" s="59"/>
-      <c r="AY55" s="59"/>
-    </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY55" s="61"/>
+    </row>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="41"/>
-      <c r="D56" s="99" t="s">
+      <c r="D56" s="98" t="s">
         <v>109</v>
       </c>
       <c r="E56" t="s">
@@ -7531,20 +7534,20 @@
       <c r="L56" s="41">
         <v>20</v>
       </c>
-      <c r="M56" s="151">
-        <v>1</v>
-      </c>
-      <c r="N56" s="160">
+      <c r="M56" s="150">
+        <v>1</v>
+      </c>
+      <c r="N56" s="159">
         <v>50000</v>
       </c>
-      <c r="O56" s="169"/>
+      <c r="O56" s="168"/>
       <c r="P56" s="41">
         <v>50</v>
       </c>
       <c r="Q56" s="41">
         <v>1.5</v>
       </c>
-      <c r="R56" s="134">
+      <c r="R56" s="133">
         <v>10</v>
       </c>
       <c r="S56" s="15" t="s">
@@ -7552,7 +7555,7 @@
       </c>
       <c r="T56" s="15"/>
       <c r="U56" s="15"/>
-      <c r="V56" s="97"/>
+      <c r="V56" s="96"/>
       <c r="W56" s="15" t="s">
         <v>80</v>
       </c>
@@ -7580,7 +7583,7 @@
       <c r="AE56" s="15">
         <v>5</v>
       </c>
-      <c r="AF56" s="97" t="s">
+      <c r="AF56" s="96" t="s">
         <v>84</v>
       </c>
       <c r="AG56" s="15" t="s">
@@ -7598,26 +7601,26 @@
       <c r="AK56" s="18"/>
       <c r="AL56" s="18"/>
       <c r="AM56" s="18"/>
-      <c r="AN56" s="108"/>
+      <c r="AN56" s="107"/>
       <c r="AO56" s="86"/>
       <c r="AP56" s="18"/>
-      <c r="AQ56" s="108"/>
+      <c r="AQ56" s="107"/>
       <c r="AR56" s="18"/>
       <c r="AS56" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AT56" s="108"/>
+      <c r="AT56" s="107"/>
       <c r="AU56" s="74"/>
-      <c r="AV56" s="93"/>
+      <c r="AV56" s="92"/>
       <c r="AW56" s="18"/>
       <c r="AX56" s="18"/>
-      <c r="AY56" s="15"/>
-    </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY56" s="16"/>
+    </row>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="41"/>
-      <c r="D57" s="99"/>
+      <c r="D57" s="98"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -7626,16 +7629,16 @@
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
       <c r="L57" s="15"/>
-      <c r="M57" s="139"/>
-      <c r="N57" s="157"/>
-      <c r="O57" s="167"/>
+      <c r="M57" s="138"/>
+      <c r="N57" s="156"/>
+      <c r="O57" s="166"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
-      <c r="R57" s="131"/>
+      <c r="R57" s="130"/>
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
       <c r="U57" s="15"/>
-      <c r="V57" s="97"/>
+      <c r="V57" s="96"/>
       <c r="W57" s="69"/>
       <c r="X57" s="69"/>
       <c r="Y57" s="69"/>
@@ -7645,7 +7648,7 @@
       <c r="AC57" s="69"/>
       <c r="AD57" s="69"/>
       <c r="AE57" s="69"/>
-      <c r="AF57" s="104"/>
+      <c r="AF57" s="103"/>
       <c r="AG57" s="69"/>
       <c r="AH57" s="69"/>
       <c r="AI57" s="69"/>
@@ -7653,24 +7656,24 @@
       <c r="AK57" s="70"/>
       <c r="AL57" s="70"/>
       <c r="AM57" s="70"/>
-      <c r="AN57" s="109"/>
+      <c r="AN57" s="108"/>
       <c r="AO57" s="83"/>
       <c r="AP57" s="68"/>
-      <c r="AQ57" s="117"/>
+      <c r="AQ57" s="116"/>
       <c r="AR57" s="70"/>
       <c r="AS57" s="70"/>
-      <c r="AT57" s="109"/>
+      <c r="AT57" s="108"/>
       <c r="AU57" s="75"/>
       <c r="AV57" s="71"/>
       <c r="AW57" s="69"/>
       <c r="AX57" s="69"/>
-      <c r="AY57" s="69"/>
-    </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY57" s="70"/>
+    </row>
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
-      <c r="D58" s="97"/>
+      <c r="D58" s="96"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -7679,16 +7682,16 @@
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
-      <c r="M58" s="139"/>
-      <c r="N58" s="157"/>
-      <c r="O58" s="167"/>
+      <c r="M58" s="138"/>
+      <c r="N58" s="156"/>
+      <c r="O58" s="166"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
-      <c r="R58" s="131"/>
+      <c r="R58" s="130"/>
       <c r="S58" s="15"/>
       <c r="T58" s="15"/>
       <c r="U58" s="15"/>
-      <c r="V58" s="97"/>
+      <c r="V58" s="96"/>
       <c r="W58" s="45" t="s">
         <v>113</v>
       </c>
@@ -7712,7 +7715,7 @@
       </c>
       <c r="AD58" s="15"/>
       <c r="AE58" s="15"/>
-      <c r="AF58" s="97"/>
+      <c r="AF58" s="96"/>
       <c r="AG58" s="15"/>
       <c r="AH58" s="15"/>
       <c r="AI58" s="15"/>
@@ -7726,14 +7729,14 @@
         <v>0</v>
       </c>
       <c r="AM58" s="16"/>
-      <c r="AN58" s="110"/>
+      <c r="AN58" s="109"/>
       <c r="AO58" s="84" t="s">
         <v>32</v>
       </c>
       <c r="AP58" s="19">
         <v>0</v>
       </c>
-      <c r="AQ58" s="120">
+      <c r="AQ58" s="119">
         <v>50</v>
       </c>
       <c r="AR58" s="16" t="b">
@@ -7742,7 +7745,7 @@
       <c r="AS58" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT58" s="110" t="b">
+      <c r="AT58" s="109" t="b">
         <v>0</v>
       </c>
       <c r="AU58" s="76" t="s">
@@ -7757,15 +7760,15 @@
       <c r="AX58" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY58" s="15" t="s">
+      <c r="AY58" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
-      <c r="D59" s="97"/>
+      <c r="D59" s="96"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -7774,16 +7777,16 @@
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
-      <c r="M59" s="139"/>
-      <c r="N59" s="157"/>
-      <c r="O59" s="167"/>
+      <c r="M59" s="138"/>
+      <c r="N59" s="156"/>
+      <c r="O59" s="166"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
-      <c r="R59" s="131"/>
+      <c r="R59" s="130"/>
       <c r="S59" s="15"/>
       <c r="T59" s="15"/>
       <c r="U59" s="15"/>
-      <c r="V59" s="97"/>
+      <c r="V59" s="96"/>
       <c r="W59" s="45"/>
       <c r="X59" s="15"/>
       <c r="Y59" s="15"/>
@@ -7793,7 +7796,7 @@
       <c r="AC59" s="15"/>
       <c r="AD59" s="15"/>
       <c r="AE59" s="15"/>
-      <c r="AF59" s="97"/>
+      <c r="AF59" s="96"/>
       <c r="AG59" s="15"/>
       <c r="AH59" s="15"/>
       <c r="AI59" s="15"/>
@@ -7801,26 +7804,26 @@
       <c r="AK59" s="15"/>
       <c r="AL59" s="15"/>
       <c r="AM59" s="15"/>
-      <c r="AN59" s="97"/>
+      <c r="AN59" s="96"/>
       <c r="AO59" s="84" t="s">
         <v>38</v>
       </c>
       <c r="AP59" s="19">
         <v>0</v>
       </c>
-      <c r="AQ59" s="120">
+      <c r="AQ59" s="119">
         <v>50</v>
       </c>
       <c r="AR59" s="16"/>
       <c r="AS59" s="16"/>
-      <c r="AT59" s="110"/>
+      <c r="AT59" s="109"/>
       <c r="AU59" s="76"/>
       <c r="AV59" s="19"/>
       <c r="AW59" s="15"/>
       <c r="AX59" s="15"/>
-      <c r="AY59" s="15"/>
-    </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY59" s="16"/>
+    </row>
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="W60" s="45"/>
@@ -7830,15 +7833,15 @@
       <c r="AP60" s="20">
         <v>0</v>
       </c>
-      <c r="AQ60" s="122">
+      <c r="AQ60" s="121">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
-      <c r="D61" s="97"/>
+      <c r="D61" s="96"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -7847,16 +7850,16 @@
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
-      <c r="M61" s="139"/>
-      <c r="N61" s="157"/>
-      <c r="O61" s="167"/>
+      <c r="M61" s="138"/>
+      <c r="N61" s="156"/>
+      <c r="O61" s="166"/>
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
-      <c r="R61" s="131"/>
+      <c r="R61" s="130"/>
       <c r="S61" s="15"/>
       <c r="T61" s="15"/>
       <c r="U61" s="15"/>
-      <c r="V61" s="97"/>
+      <c r="V61" s="96"/>
       <c r="W61" s="69"/>
       <c r="X61" s="69"/>
       <c r="Y61" s="69"/>
@@ -7866,7 +7869,7 @@
       <c r="AC61" s="69"/>
       <c r="AD61" s="69"/>
       <c r="AE61" s="69"/>
-      <c r="AF61" s="104"/>
+      <c r="AF61" s="103"/>
       <c r="AG61" s="69"/>
       <c r="AH61" s="69"/>
       <c r="AI61" s="69"/>
@@ -7874,24 +7877,24 @@
       <c r="AK61" s="70"/>
       <c r="AL61" s="70"/>
       <c r="AM61" s="70"/>
-      <c r="AN61" s="109"/>
+      <c r="AN61" s="108"/>
       <c r="AO61" s="83"/>
       <c r="AP61" s="68"/>
-      <c r="AQ61" s="117"/>
+      <c r="AQ61" s="116"/>
       <c r="AR61" s="70"/>
       <c r="AS61" s="70"/>
-      <c r="AT61" s="109"/>
+      <c r="AT61" s="108"/>
       <c r="AU61" s="75"/>
       <c r="AV61" s="71"/>
       <c r="AW61" s="69"/>
       <c r="AX61" s="69"/>
-      <c r="AY61" s="69"/>
-    </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY61" s="70"/>
+    </row>
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
-      <c r="D62" s="97"/>
+      <c r="D62" s="96"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -7900,16 +7903,16 @@
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
-      <c r="M62" s="139"/>
-      <c r="N62" s="157"/>
-      <c r="O62" s="167"/>
+      <c r="M62" s="138"/>
+      <c r="N62" s="156"/>
+      <c r="O62" s="166"/>
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
-      <c r="R62" s="131"/>
+      <c r="R62" s="130"/>
       <c r="S62" s="15"/>
       <c r="T62" s="15"/>
       <c r="U62" s="15"/>
-      <c r="V62" s="97"/>
+      <c r="V62" s="96"/>
       <c r="W62" s="15" t="s">
         <v>114</v>
       </c>
@@ -7933,7 +7936,7 @@
       </c>
       <c r="AD62" s="15"/>
       <c r="AE62" s="15"/>
-      <c r="AF62" s="97"/>
+      <c r="AF62" s="96"/>
       <c r="AG62" s="15"/>
       <c r="AH62" s="15"/>
       <c r="AI62" s="15"/>
@@ -7943,17 +7946,17 @@
         <v>1</v>
       </c>
       <c r="AM62" s="16"/>
-      <c r="AN62" s="110"/>
+      <c r="AN62" s="109"/>
       <c r="AO62" s="84"/>
       <c r="AP62" s="19"/>
-      <c r="AQ62" s="120"/>
+      <c r="AQ62" s="119"/>
       <c r="AR62" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AS62" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT62" s="110" t="b">
+      <c r="AT62" s="109" t="b">
         <v>0</v>
       </c>
       <c r="AU62" s="76" t="s">
@@ -7968,15 +7971,15 @@
       <c r="AX62" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY62" s="15" t="s">
+      <c r="AY62" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
-      <c r="D63" s="96"/>
+      <c r="D63" s="95"/>
       <c r="E63" s="59"/>
       <c r="F63" s="59"/>
       <c r="G63" s="59"/>
@@ -7985,16 +7988,16 @@
       <c r="J63" s="59"/>
       <c r="K63" s="59"/>
       <c r="L63" s="59"/>
-      <c r="M63" s="137"/>
-      <c r="N63" s="155"/>
-      <c r="O63" s="165"/>
+      <c r="M63" s="136"/>
+      <c r="N63" s="154"/>
+      <c r="O63" s="164"/>
       <c r="P63" s="59"/>
       <c r="Q63" s="59"/>
-      <c r="R63" s="129"/>
+      <c r="R63" s="128"/>
       <c r="S63" s="59"/>
       <c r="T63" s="59"/>
       <c r="U63" s="59"/>
-      <c r="V63" s="96"/>
+      <c r="V63" s="95"/>
       <c r="W63" s="59"/>
       <c r="X63" s="59"/>
       <c r="Y63" s="59"/>
@@ -8004,7 +8007,7 @@
       <c r="AC63" s="59"/>
       <c r="AD63" s="59"/>
       <c r="AE63" s="59"/>
-      <c r="AF63" s="96"/>
+      <c r="AF63" s="95"/>
       <c r="AG63" s="59"/>
       <c r="AH63" s="59"/>
       <c r="AI63" s="59"/>
@@ -8012,24 +8015,24 @@
       <c r="AK63" s="61"/>
       <c r="AL63" s="61"/>
       <c r="AM63" s="60"/>
-      <c r="AN63" s="107"/>
+      <c r="AN63" s="106"/>
       <c r="AO63" s="81"/>
       <c r="AP63" s="62"/>
-      <c r="AQ63" s="115"/>
+      <c r="AQ63" s="114"/>
       <c r="AR63" s="61"/>
       <c r="AS63" s="61"/>
-      <c r="AT63" s="126"/>
+      <c r="AT63" s="125"/>
       <c r="AU63" s="73"/>
       <c r="AV63" s="62"/>
       <c r="AW63" s="59"/>
       <c r="AX63" s="59"/>
-      <c r="AY63" s="59"/>
-    </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY63" s="61"/>
+    </row>
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="41"/>
-      <c r="D64" s="99" t="s">
+      <c r="D64" s="98" t="s">
         <v>115</v>
       </c>
       <c r="E64" t="s">
@@ -8054,20 +8057,20 @@
       <c r="L64" s="41">
         <v>20</v>
       </c>
-      <c r="M64" s="151">
-        <v>1</v>
-      </c>
-      <c r="N64" s="160">
+      <c r="M64" s="150">
+        <v>1</v>
+      </c>
+      <c r="N64" s="159">
         <v>50000</v>
       </c>
-      <c r="O64" s="169"/>
+      <c r="O64" s="168"/>
       <c r="P64" s="41">
         <v>50</v>
       </c>
       <c r="Q64" s="41">
         <v>1.5</v>
       </c>
-      <c r="R64" s="134">
+      <c r="R64" s="133">
         <v>10</v>
       </c>
       <c r="S64" s="15" t="s">
@@ -8075,7 +8078,7 @@
       </c>
       <c r="T64" s="15"/>
       <c r="U64" s="15"/>
-      <c r="V64" s="97"/>
+      <c r="V64" s="96"/>
       <c r="W64" s="15" t="s">
         <v>80</v>
       </c>
@@ -8103,7 +8106,7 @@
       <c r="AE64" s="15">
         <v>5</v>
       </c>
-      <c r="AF64" s="97" t="s">
+      <c r="AF64" s="96" t="s">
         <v>84</v>
       </c>
       <c r="AG64" s="15" t="s">
@@ -8121,26 +8124,26 @@
       <c r="AK64" s="18"/>
       <c r="AL64" s="18"/>
       <c r="AM64" s="18"/>
-      <c r="AN64" s="108"/>
+      <c r="AN64" s="107"/>
       <c r="AO64" s="86"/>
       <c r="AP64" s="18"/>
-      <c r="AQ64" s="108"/>
+      <c r="AQ64" s="107"/>
       <c r="AR64" s="18"/>
       <c r="AS64" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AT64" s="108"/>
+      <c r="AT64" s="107"/>
       <c r="AU64" s="74"/>
-      <c r="AV64" s="93"/>
+      <c r="AV64" s="92"/>
       <c r="AW64" s="18"/>
       <c r="AX64" s="18"/>
-      <c r="AY64" s="15"/>
-    </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY64" s="16"/>
+    </row>
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="41"/>
-      <c r="D65" s="99"/>
+      <c r="D65" s="98"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -8149,18 +8152,18 @@
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
       <c r="L65" s="15"/>
-      <c r="M65" s="139"/>
-      <c r="N65" s="157"/>
-      <c r="O65" s="167"/>
+      <c r="M65" s="138"/>
+      <c r="N65" s="156"/>
+      <c r="O65" s="166"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
-      <c r="R65" s="131"/>
+      <c r="R65" s="130"/>
       <c r="S65" s="15" t="s">
         <v>32</v>
       </c>
       <c r="T65" s="15"/>
       <c r="U65" s="15"/>
-      <c r="V65" s="97"/>
+      <c r="V65" s="96"/>
       <c r="W65" s="69"/>
       <c r="X65" s="69"/>
       <c r="Y65" s="69"/>
@@ -8170,7 +8173,7 @@
       <c r="AC65" s="69"/>
       <c r="AD65" s="69"/>
       <c r="AE65" s="69"/>
-      <c r="AF65" s="104"/>
+      <c r="AF65" s="103"/>
       <c r="AG65" s="69"/>
       <c r="AH65" s="69"/>
       <c r="AI65" s="69"/>
@@ -8178,24 +8181,24 @@
       <c r="AK65" s="70"/>
       <c r="AL65" s="70"/>
       <c r="AM65" s="70"/>
-      <c r="AN65" s="109"/>
+      <c r="AN65" s="108"/>
       <c r="AO65" s="83"/>
       <c r="AP65" s="68"/>
-      <c r="AQ65" s="117"/>
+      <c r="AQ65" s="116"/>
       <c r="AR65" s="70"/>
       <c r="AS65" s="70"/>
-      <c r="AT65" s="109"/>
+      <c r="AT65" s="108"/>
       <c r="AU65" s="75"/>
       <c r="AV65" s="71"/>
       <c r="AW65" s="69"/>
       <c r="AX65" s="69"/>
-      <c r="AY65" s="69"/>
-    </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY65" s="70"/>
+    </row>
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
-      <c r="D66" s="97"/>
+      <c r="D66" s="96"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
@@ -8204,16 +8207,16 @@
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
-      <c r="M66" s="139"/>
-      <c r="N66" s="157"/>
-      <c r="O66" s="167"/>
+      <c r="M66" s="138"/>
+      <c r="N66" s="156"/>
+      <c r="O66" s="166"/>
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
-      <c r="R66" s="131"/>
+      <c r="R66" s="130"/>
       <c r="S66" s="15"/>
       <c r="T66" s="15"/>
       <c r="U66" s="15"/>
-      <c r="V66" s="97"/>
+      <c r="V66" s="96"/>
       <c r="W66" s="45" t="s">
         <v>117</v>
       </c>
@@ -8237,7 +8240,7 @@
       </c>
       <c r="AD66" s="15"/>
       <c r="AE66" s="15"/>
-      <c r="AF66" s="97"/>
+      <c r="AF66" s="96"/>
       <c r="AG66" s="15"/>
       <c r="AH66" s="15"/>
       <c r="AI66" s="15"/>
@@ -8251,14 +8254,14 @@
         <v>0</v>
       </c>
       <c r="AM66" s="16"/>
-      <c r="AN66" s="110"/>
+      <c r="AN66" s="109"/>
       <c r="AO66" s="82" t="s">
         <v>32</v>
       </c>
       <c r="AP66" s="80">
         <v>0</v>
       </c>
-      <c r="AQ66" s="119">
+      <c r="AQ66" s="118">
         <v>50</v>
       </c>
       <c r="AR66" s="16" t="b">
@@ -8267,7 +8270,7 @@
       <c r="AS66" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT66" s="110" t="b">
+      <c r="AT66" s="109" t="b">
         <v>0</v>
       </c>
       <c r="AU66" s="76" t="s">
@@ -8282,15 +8285,15 @@
       <c r="AX66" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY66" s="15" t="s">
+      <c r="AY66" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
-      <c r="D67" s="97"/>
+      <c r="D67" s="96"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -8299,16 +8302,16 @@
       <c r="J67" s="15"/>
       <c r="K67" s="15"/>
       <c r="L67" s="15"/>
-      <c r="M67" s="139"/>
-      <c r="N67" s="157"/>
-      <c r="O67" s="167"/>
+      <c r="M67" s="138"/>
+      <c r="N67" s="156"/>
+      <c r="O67" s="166"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
-      <c r="R67" s="131"/>
+      <c r="R67" s="130"/>
       <c r="S67" s="15"/>
       <c r="T67" s="15"/>
       <c r="U67" s="15"/>
-      <c r="V67" s="97"/>
+      <c r="V67" s="96"/>
       <c r="W67" s="45"/>
       <c r="X67" s="15"/>
       <c r="Y67" s="15"/>
@@ -8318,7 +8321,7 @@
       <c r="AC67" s="15"/>
       <c r="AD67" s="15"/>
       <c r="AE67" s="15"/>
-      <c r="AF67" s="97"/>
+      <c r="AF67" s="96"/>
       <c r="AG67" s="15"/>
       <c r="AH67" s="15"/>
       <c r="AI67" s="15"/>
@@ -8326,26 +8329,26 @@
       <c r="AK67" s="15"/>
       <c r="AL67" s="15"/>
       <c r="AM67" s="15"/>
-      <c r="AN67" s="97"/>
+      <c r="AN67" s="96"/>
       <c r="AO67" s="82" t="s">
         <v>38</v>
       </c>
       <c r="AP67" s="80">
         <v>0</v>
       </c>
-      <c r="AQ67" s="119">
+      <c r="AQ67" s="118">
         <v>50</v>
       </c>
       <c r="AR67" s="16"/>
       <c r="AS67" s="16"/>
-      <c r="AT67" s="110"/>
+      <c r="AT67" s="109"/>
       <c r="AU67" s="76"/>
       <c r="AV67" s="19"/>
       <c r="AW67" s="15"/>
       <c r="AX67" s="15"/>
-      <c r="AY67" s="15"/>
-    </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY67" s="16"/>
+    </row>
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="W68" s="45"/>
@@ -8355,15 +8358,15 @@
       <c r="AP68" s="80">
         <v>0</v>
       </c>
-      <c r="AQ68" s="119">
+      <c r="AQ68" s="118">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
-      <c r="D69" s="97"/>
+      <c r="D69" s="96"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
@@ -8372,16 +8375,16 @@
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
       <c r="L69" s="15"/>
-      <c r="M69" s="139"/>
-      <c r="N69" s="157"/>
-      <c r="O69" s="167"/>
+      <c r="M69" s="138"/>
+      <c r="N69" s="156"/>
+      <c r="O69" s="166"/>
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
-      <c r="R69" s="131"/>
+      <c r="R69" s="130"/>
       <c r="S69" s="15"/>
       <c r="T69" s="15"/>
       <c r="U69" s="15"/>
-      <c r="V69" s="97"/>
+      <c r="V69" s="96"/>
       <c r="W69" s="69"/>
       <c r="X69" s="69"/>
       <c r="Y69" s="69"/>
@@ -8391,7 +8394,7 @@
       <c r="AC69" s="69"/>
       <c r="AD69" s="69"/>
       <c r="AE69" s="69"/>
-      <c r="AF69" s="104"/>
+      <c r="AF69" s="103"/>
       <c r="AG69" s="69"/>
       <c r="AH69" s="69"/>
       <c r="AI69" s="69"/>
@@ -8399,24 +8402,24 @@
       <c r="AK69" s="70"/>
       <c r="AL69" s="70"/>
       <c r="AM69" s="70"/>
-      <c r="AN69" s="109"/>
+      <c r="AN69" s="108"/>
       <c r="AO69" s="83"/>
       <c r="AP69" s="68"/>
-      <c r="AQ69" s="117"/>
+      <c r="AQ69" s="116"/>
       <c r="AR69" s="70"/>
       <c r="AS69" s="70"/>
-      <c r="AT69" s="109"/>
+      <c r="AT69" s="108"/>
       <c r="AU69" s="75"/>
       <c r="AV69" s="71"/>
       <c r="AW69" s="69"/>
       <c r="AX69" s="69"/>
-      <c r="AY69" s="69"/>
-    </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY69" s="70"/>
+    </row>
+    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
-      <c r="D70" s="97"/>
+      <c r="D70" s="96"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -8425,16 +8428,16 @@
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
-      <c r="M70" s="139"/>
-      <c r="N70" s="157"/>
-      <c r="O70" s="167"/>
+      <c r="M70" s="138"/>
+      <c r="N70" s="156"/>
+      <c r="O70" s="166"/>
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
-      <c r="R70" s="131"/>
+      <c r="R70" s="130"/>
       <c r="S70" s="15"/>
       <c r="T70" s="15"/>
       <c r="U70" s="15"/>
-      <c r="V70" s="97"/>
+      <c r="V70" s="96"/>
       <c r="W70" s="45" t="s">
         <v>118</v>
       </c>
@@ -8458,7 +8461,7 @@
       </c>
       <c r="AD70" s="15"/>
       <c r="AE70" s="15"/>
-      <c r="AF70" s="97"/>
+      <c r="AF70" s="96"/>
       <c r="AG70" s="15"/>
       <c r="AH70" s="15"/>
       <c r="AI70" s="15"/>
@@ -8468,17 +8471,17 @@
         <v>1</v>
       </c>
       <c r="AM70" s="16"/>
-      <c r="AN70" s="110"/>
+      <c r="AN70" s="109"/>
       <c r="AO70" s="84"/>
       <c r="AP70" s="19"/>
-      <c r="AQ70" s="120"/>
+      <c r="AQ70" s="119"/>
       <c r="AR70" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AS70" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT70" s="110" t="b">
+      <c r="AT70" s="109" t="b">
         <v>0</v>
       </c>
       <c r="AU70" s="76" t="s">
@@ -8493,15 +8496,15 @@
       <c r="AX70" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY70" s="15" t="s">
+      <c r="AY70" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A71" s="63"/>
       <c r="B71" s="63"/>
       <c r="C71" s="63"/>
-      <c r="D71" s="100"/>
+      <c r="D71" s="99"/>
       <c r="E71" s="63"/>
       <c r="F71" s="63"/>
       <c r="G71" s="63"/>
@@ -8510,16 +8513,16 @@
       <c r="J71" s="63"/>
       <c r="K71" s="63"/>
       <c r="L71" s="63"/>
-      <c r="M71" s="152"/>
-      <c r="N71" s="161"/>
-      <c r="O71" s="170"/>
+      <c r="M71" s="151"/>
+      <c r="N71" s="160"/>
+      <c r="O71" s="169"/>
       <c r="P71" s="63"/>
       <c r="Q71" s="63"/>
-      <c r="R71" s="135"/>
+      <c r="R71" s="134"/>
       <c r="S71" s="63"/>
       <c r="T71" s="63"/>
       <c r="U71" s="63"/>
-      <c r="V71" s="100"/>
+      <c r="V71" s="99"/>
       <c r="W71" s="63"/>
       <c r="X71" s="63"/>
       <c r="Y71" s="63"/>
@@ -8529,7 +8532,7 @@
       <c r="AC71" s="63"/>
       <c r="AD71" s="63"/>
       <c r="AE71" s="63"/>
-      <c r="AF71" s="100"/>
+      <c r="AF71" s="99"/>
       <c r="AG71" s="63"/>
       <c r="AH71" s="63"/>
       <c r="AI71" s="63"/>
@@ -8537,24 +8540,24 @@
       <c r="AK71" s="64"/>
       <c r="AL71" s="64"/>
       <c r="AM71" s="64"/>
-      <c r="AN71" s="113"/>
+      <c r="AN71" s="112"/>
       <c r="AO71" s="87"/>
       <c r="AP71" s="65"/>
-      <c r="AQ71" s="124"/>
+      <c r="AQ71" s="123"/>
       <c r="AR71" s="64"/>
       <c r="AS71" s="64"/>
-      <c r="AT71" s="113"/>
+      <c r="AT71" s="112"/>
       <c r="AU71" s="79"/>
       <c r="AV71" s="65"/>
       <c r="AW71" s="63"/>
       <c r="AX71" s="63"/>
-      <c r="AY71" s="63"/>
-    </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY71" s="64"/>
+    </row>
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
-      <c r="D72" s="97" t="s">
+      <c r="D72" s="96" t="s">
         <v>119</v>
       </c>
       <c r="E72" s="15" t="s">
@@ -8575,20 +8578,20 @@
       <c r="L72" s="15">
         <v>10</v>
       </c>
-      <c r="M72" s="139">
+      <c r="M72" s="138">
         <v>10</v>
       </c>
-      <c r="N72" s="157">
+      <c r="N72" s="156">
         <v>50000</v>
       </c>
-      <c r="O72" s="167"/>
+      <c r="O72" s="166"/>
       <c r="P72" s="15">
         <v>10</v>
       </c>
       <c r="Q72" s="15">
         <v>10</v>
       </c>
-      <c r="R72" s="131">
+      <c r="R72" s="130">
         <v>10</v>
       </c>
       <c r="S72" s="15" t="s">
@@ -8596,7 +8599,7 @@
       </c>
       <c r="T72" s="15"/>
       <c r="U72" s="15"/>
-      <c r="V72" s="97"/>
+      <c r="V72" s="96"/>
       <c r="W72" s="15" t="s">
         <v>123</v>
       </c>
@@ -8618,7 +8621,7 @@
       <c r="AC72" s="15"/>
       <c r="AD72" s="15"/>
       <c r="AE72" s="15"/>
-      <c r="AF72" s="97" t="s">
+      <c r="AF72" s="96" t="s">
         <v>123</v>
       </c>
       <c r="AG72" s="15" t="s">
@@ -8642,19 +8645,19 @@
       <c r="AM72" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AN72" s="110"/>
+      <c r="AN72" s="109"/>
       <c r="AO72" s="84" t="s">
         <v>32</v>
       </c>
       <c r="AP72" s="19">
         <v>50</v>
       </c>
-      <c r="AQ72" s="120" t="s">
+      <c r="AQ72" s="119" t="s">
         <v>87</v>
       </c>
       <c r="AR72" s="16"/>
       <c r="AS72" s="16"/>
-      <c r="AT72" s="110"/>
+      <c r="AT72" s="109"/>
       <c r="AU72" s="76" t="s">
         <v>32</v>
       </c>
@@ -8665,15 +8668,15 @@
         <v>125</v>
       </c>
       <c r="AX72" s="15"/>
-      <c r="AY72" s="15" t="s">
+      <c r="AY72" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
-      <c r="D73" s="97"/>
+      <c r="D73" s="96"/>
       <c r="E73" s="15" t="s">
         <v>126</v>
       </c>
@@ -8684,16 +8687,16 @@
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
       <c r="L73" s="15"/>
-      <c r="M73" s="139"/>
-      <c r="N73" s="157"/>
-      <c r="O73" s="167"/>
+      <c r="M73" s="138"/>
+      <c r="N73" s="156"/>
+      <c r="O73" s="166"/>
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
-      <c r="R73" s="131"/>
+      <c r="R73" s="130"/>
       <c r="S73" s="15"/>
       <c r="T73" s="15"/>
       <c r="U73" s="15"/>
-      <c r="V73" s="97"/>
+      <c r="V73" s="96"/>
       <c r="W73" s="15"/>
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
@@ -8703,7 +8706,7 @@
       <c r="AC73" s="15"/>
       <c r="AD73" s="15"/>
       <c r="AE73" s="15"/>
-      <c r="AF73" s="97"/>
+      <c r="AF73" s="96"/>
       <c r="AG73" s="15"/>
       <c r="AH73" s="15"/>
       <c r="AI73" s="15"/>
@@ -8711,19 +8714,19 @@
       <c r="AK73" s="16"/>
       <c r="AL73" s="16"/>
       <c r="AM73" s="16"/>
-      <c r="AN73" s="110"/>
+      <c r="AN73" s="109"/>
       <c r="AO73" s="84" t="s">
         <v>38</v>
       </c>
       <c r="AP73" s="19">
         <v>170</v>
       </c>
-      <c r="AQ73" s="120" t="s">
+      <c r="AQ73" s="119" t="s">
         <v>87</v>
       </c>
       <c r="AR73" s="16"/>
       <c r="AS73" s="16"/>
-      <c r="AT73" s="110"/>
+      <c r="AT73" s="109"/>
       <c r="AU73" s="76" t="s">
         <v>38</v>
       </c>
@@ -8734,19 +8737,19 @@
         <v>125</v>
       </c>
       <c r="AX73" s="15"/>
-      <c r="AY73" s="15"/>
-    </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AY73" s="16"/>
+    </row>
+    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="95"/>
+      <c r="D78" s="94"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B7:B11 AA15 C21:D21 E20:H21 B65:B68 B14:B21 C16:D18 E15:H17 C7:G7 AG48:AR48 AO17:AT18 AR37:AT37 AR16:AY16 AR45:AY45 AR41:AY41 AR24:AY26 AR35:AT35 AU35:AY37 AO66:AY67 AR65:AY65 AO70:AY70 AR69:AY69 AO58:AY59 AR57:AY57 AO62:AY62 AR61:AY61 S35:V38 S46:V46 S69:V70 S59:V59 S32:V32 S27:V29 S74:X75 S25:AB25 B5:G6 AO36:AT36 S40:V42 B33:H54 AC15:AF15 W16:AE16 W69:AE69 W65:AE65 W35:AN35 W61:AE61 Z74:AE75 AB22:AX22 S26:AE26 AF58:AI58 S24:AN24 S57:AE58 AF57:AN57 AY57:AY58 S71:AE73 AF71:AX75 S33:AX33 S43:AX43 AF47:AX47 S39:AX39 AD34:AT34 AA17:AE17 AF16:AN17 W20:AN20 W37:AN37 S45:AN45 W41:AN41 AD23:AF23 AD25:AE25 AF25:AQ26 AR20:AY20 X66:AE66 AF65:AN66 AY64:AY66 X70:AE70 AF69:AN70 AY69:AY75 AC36:AF36 X62:AE62 AF61:AN62 AY61:AY62 C9:G11 C8:F8 W40:AB40 S47:AE48 AD40:AR40 AD44:AR44 AY22:AY26 AY33:AY37 AY39:AY41 AY43:AY45 AY47:AY48 AY15:AY17 C22:H23 B56:N56 B64:N64 AJ15:AR15 AT15:AY15 AJ23:AR23 AT23:AY23 AT40 AT44 AT48 P15:W15 P23:W23 P34:AB34 P44:AB44 P56:AY56 P64:AX64 P21:V21 I21:N29 P16:V18 I16:N18 P32:R33 I32:N54 P22:Z22 P65:V67 C65:N67 P69:R75 B69:N75 P57:R59 C57:N59 P61:V62 B61:N62 P24:R29 P35:R43 P45:R48 P49:V54 P14:Z14 C14:N15 P12:AN13 K5:N13 P7:AE11 P5:AQ6">
+  <conditionalFormatting sqref="B7:B11 AA15 C21:D21 E20:H21 B65:B68 B14:B21 C16:D18 E15:H17 C7:G7 AG48:AR48 AO17:AT18 AR37:AT37 AR16:AY16 AR45:AY45 AR41:AY41 AR24:AY26 AR35:AT35 AU35:AY37 AO66:AY67 AR65:AY65 AO70:AY70 AR69:AY69 AO58:AY59 AR57:AY57 AO62:AY62 AR61:AY61 S35:V38 S46:V46 S69:V70 S59:V59 S32:V32 S27:V29 S74:X75 S25:AB25 B5:G6 AO36:AT36 S40:V42 B33:H54 AC15:AF15 W16:AE16 W69:AE69 W65:AE65 W35:AN35 W61:AE61 Z74:AE75 AB22:AX22 S26:AE26 AF58:AI58 S24:AN24 S57:AE58 AF57:AN57 AY57:AY58 S71:AE73 AF71:AX75 S33:AX33 S43:AX43 AF47:AX47 S39:AX39 AD34:AT34 AA17:AE17 AF16:AN17 W20:AN20 W37:AN37 S45:AN45 W41:AN41 AD23:AF23 AD25:AE25 AF25:AQ26 AR20:AY20 X66:AE66 AF65:AN66 AY64:AY66 X70:AE70 AF69:AN70 AY69:AY75 AC36:AF36 X62:AE62 AF61:AN62 AY61:AY62 C9:G11 C8:F8 W40:AB40 S47:AE48 AD40:AR40 AD44:AR44 AY22:AY26 AY33:AY37 AY39:AY41 AY43:AY45 AY47:AY48 AY15:AY17 C22:H23 B56:N56 B64:N64 AJ15:AR15 AT15:AY15 AJ23:AR23 AT23:AY23 AT40 AT44 AT48 P15:W15 P23:W23 P34:AB34 P44:AB44 P56:AY56 P64:AX64 P21:V21 I21:N29 P16:V18 I16:N18 P32:R33 I32:N54 P22:Z22 P65:V67 C65:N67 P69:R75 B69:N75 P57:R59 C57:N59 P61:V62 B61:N62 P24:R29 P35:R43 P45:R48 P49:V54 P14:Z14 C14:N15 P12:AN13 K5:N13 P7:AE11 P5:AQ6 E19">
     <cfRule type="cellIs" dxfId="104" priority="250" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -9245,14 +9248,14 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
         <v>127</v>
@@ -9267,7 +9270,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
@@ -9282,7 +9285,7 @@
       </c>
       <c r="Q3" s="28"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>134</v>
       </c>
@@ -9293,7 +9296,7 @@
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>135</v>
       </c>
@@ -9304,7 +9307,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>136</v>
       </c>
@@ -9315,7 +9318,7 @@
       </c>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>137</v>
       </c>
@@ -9323,27 +9326,27 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
@@ -9351,12 +9354,12 @@
       </c>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
@@ -9364,22 +9367,22 @@
       </c>
       <c r="T14" s="31"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:20" x14ac:dyDescent="0.25">
       <c r="T17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
         <v>147</v>
@@ -9387,7 +9390,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
     </row>
-    <row r="19" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
@@ -9395,78 +9398,78 @@
       </c>
       <c r="T19" s="31"/>
     </row>
-    <row r="20" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:20" x14ac:dyDescent="0.25">
       <c r="T20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
         <v>158</v>
@@ -9474,7 +9477,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
     </row>
-    <row r="33" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
@@ -9482,13 +9485,13 @@
       </c>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
@@ -9496,13 +9499,13 @@
       </c>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
         <v>162</v>
@@ -9510,7 +9513,7 @@
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
     </row>
-    <row r="38" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
@@ -9518,13 +9521,13 @@
       </c>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
@@ -9532,7 +9535,7 @@
       </c>
       <c r="T40" s="31"/>
     </row>
-    <row r="41" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
         <v>165</v>
@@ -9552,20 +9555,20 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -9579,7 +9582,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -9605,7 +9608,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -9631,7 +9634,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>79</v>
       </c>
@@ -9645,7 +9648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>169</v>
       </c>
@@ -9662,7 +9665,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -9682,7 +9685,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -9693,7 +9696,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -9719,7 +9722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -9730,7 +9733,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>175</v>
       </c>
@@ -9741,7 +9744,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -9749,7 +9752,7 @@
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -9776,7 +9779,7 @@
       </c>
       <c r="J12" s="45"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>179</v>
       </c>
@@ -9784,22 +9787,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>183</v>
       </c>
@@ -9819,7 +9822,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>183</v>
       </c>
@@ -9853,14 +9856,14 @@
       <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>131</v>
       </c>
@@ -9877,7 +9880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>134</v>
       </c>
@@ -9891,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -9902,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>185</v>
       </c>
@@ -9919,7 +9922,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>188</v>
       </c>
@@ -9933,7 +9936,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -9941,7 +9944,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -9949,7 +9952,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>193</v>
       </c>
@@ -9960,7 +9963,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>194</v>
       </c>
@@ -9985,33 +9988,33 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5546875" customWidth="1"/>
+    <col min="1" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="9.109375" style="17"/>
-    <col min="22" max="22" width="2.88671875" style="51" customWidth="1"/>
-    <col min="23" max="23" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.44140625" style="54" customWidth="1"/>
-    <col min="27" max="29" width="9.109375" style="17"/>
-    <col min="30" max="30" width="2.44140625" style="51" customWidth="1"/>
-    <col min="31" max="31" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.44140625" style="48" customWidth="1"/>
+    <col min="15" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="9.140625" style="17"/>
+    <col min="22" max="22" width="2.85546875" style="51" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.42578125" style="54" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" style="17"/>
+    <col min="30" max="30" width="2.42578125" style="51" customWidth="1"/>
+    <col min="31" max="31" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.42578125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -10048,7 +10051,7 @@
       <c r="AH1" s="4"/>
       <c r="AI1" s="46"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>196</v>
       </c>
@@ -10098,7 +10101,7 @@
       <c r="AH2" s="4"/>
       <c r="AI2" s="46"/>
     </row>
-    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -10194,7 +10197,7 @@
       </c>
       <c r="AI3" s="46"/>
     </row>
-    <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>28</v>
       </c>
@@ -10266,7 +10269,7 @@
       <c r="AH4" s="18"/>
       <c r="AI4" s="47"/>
     </row>
-    <row r="5" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="Q5" s="50"/>
@@ -10287,7 +10290,7 @@
       <c r="AG5" s="50"/>
       <c r="AH5" s="50"/>
     </row>
-    <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
         <v>203</v>
       </c>
@@ -10347,7 +10350,7 @@
       <c r="AH6" s="18"/>
       <c r="AI6" s="47"/>
     </row>
-    <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
@@ -10376,7 +10379,7 @@
       <c r="AD7" s="50"/>
       <c r="AI7" s="47"/>
     </row>
-    <row r="8" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="Q8" s="50"/>
@@ -10393,7 +10396,7 @@
       <c r="AC8" s="50"/>
       <c r="AD8" s="50"/>
     </row>
-    <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
         <v>205</v>
       </c>
@@ -10461,7 +10464,7 @@
       </c>
       <c r="AI9" s="47"/>
     </row>
-    <row r="10" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V10" s="47"/>
       <c r="W10" s="15" t="s">
         <v>38</v>
@@ -10479,7 +10482,7 @@
       <c r="AD10" s="50"/>
       <c r="AI10" s="47"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="W11" s="15" t="s">
         <v>37</v>
       </c>
@@ -10490,7 +10493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
@@ -10506,7 +10509,7 @@
       <c r="AD12" s="50"/>
       <c r="AI12" s="47"/>
     </row>
-    <row r="13" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
@@ -10522,7 +10525,7 @@
       <c r="AD13" s="50"/>
       <c r="AI13" s="47"/>
     </row>
-    <row r="14" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q14" s="57"/>
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
@@ -10537,7 +10540,7 @@
       <c r="AC14" s="57"/>
       <c r="AD14" s="57"/>
     </row>
-    <row r="15" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>28</v>
       </c>
@@ -10623,7 +10626,7 @@
       </c>
       <c r="AI15" s="47"/>
     </row>
-    <row r="16" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="15" t="s">
         <v>101</v>
       </c>
@@ -10685,7 +10688,7 @@
       </c>
       <c r="AI16" s="47"/>
     </row>
-    <row r="17" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
@@ -10714,7 +10717,7 @@
       <c r="AD17" s="50"/>
       <c r="AI17" s="47"/>
     </row>
-    <row r="18" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
         <v>208</v>
       </c>
@@ -10764,7 +10767,7 @@
       <c r="AD18" s="50"/>
       <c r="AI18" s="47"/>
     </row>
-    <row r="19" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V19" s="47"/>
       <c r="W19" s="15" t="s">
         <v>38</v>
@@ -10782,7 +10785,7 @@
       <c r="AD19" s="50"/>
       <c r="AI19" s="47"/>
     </row>
-    <row r="20" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -10824,7 +10827,7 @@
       <c r="AH20"/>
       <c r="AI20" s="47"/>
     </row>
-    <row r="21" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
@@ -10878,7 +10881,7 @@
       <c r="AH21"/>
       <c r="AI21" s="47"/>
     </row>
-    <row r="22" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
@@ -10894,7 +10897,7 @@
       <c r="AD22" s="50"/>
       <c r="AI22" s="47"/>
     </row>
-    <row r="23" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="15" t="s">
         <v>123</v>
       </c>
@@ -10970,7 +10973,7 @@
       </c>
       <c r="AI23" s="47"/>
     </row>
-    <row r="24" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
@@ -11008,7 +11011,7 @@
       </c>
       <c r="AI24" s="47"/>
     </row>
-    <row r="25" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
@@ -11024,7 +11027,7 @@
       <c r="AD25" s="50"/>
       <c r="AI25" s="47"/>
     </row>
-    <row r="26" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
@@ -11040,7 +11043,7 @@
       <c r="AD26" s="50"/>
       <c r="AI26" s="47"/>
     </row>
-    <row r="27" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
@@ -11056,7 +11059,7 @@
       <c r="AD27" s="50"/>
       <c r="AI27" s="47"/>
     </row>
-    <row r="28" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
@@ -11072,7 +11075,7 @@
       <c r="AD28" s="50"/>
       <c r="AI28" s="47"/>
     </row>
-    <row r="29" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
@@ -11088,7 +11091,7 @@
       <c r="AD29" s="50"/>
       <c r="AI29" s="47"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
   </sheetData>
@@ -11140,14 +11143,14 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>131</v>
       </c>
@@ -11173,7 +11176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>134</v>
       </c>
@@ -11193,7 +11196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>203</v>
       </c>
@@ -11204,7 +11207,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>205</v>
       </c>
@@ -11221,7 +11224,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1</v>
       </c>
@@ -11232,7 +11235,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>4</v>
       </c>
@@ -11243,7 +11246,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>52</v>
       </c>
@@ -11255,7 +11258,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>208</v>
       </c>
@@ -11266,7 +11269,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>131</v>
       </c>
@@ -11286,7 +11289,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -11309,7 +11312,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>203</v>
       </c>
@@ -11323,7 +11326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>114</v>
       </c>
@@ -11337,7 +11340,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>113</v>
       </c>
@@ -11364,14 +11367,14 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -11379,7 +11382,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
@@ -11391,7 +11394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>217</v>
       </c>
@@ -11405,7 +11408,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>217</v>
       </c>
@@ -11419,7 +11422,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>217</v>
       </c>
@@ -11433,7 +11436,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>217</v>
       </c>
@@ -11447,7 +11450,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>217</v>
       </c>
@@ -11461,7 +11464,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>217</v>
       </c>
@@ -11475,7 +11478,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>217</v>
       </c>
@@ -11489,7 +11492,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>217</v>
       </c>
@@ -11503,7 +11506,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>217</v>
       </c>
@@ -11517,7 +11520,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>217</v>
       </c>
@@ -11531,7 +11534,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>217</v>
       </c>
@@ -11545,7 +11548,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>217</v>
       </c>
@@ -11559,7 +11562,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>217</v>
       </c>
@@ -11573,7 +11576,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>232</v>
       </c>
@@ -11587,7 +11590,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>232</v>
       </c>
@@ -11601,7 +11604,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>217</v>
       </c>
@@ -11615,7 +11618,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32" t="e">
@@ -11623,7 +11626,7 @@
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35" t="e">
@@ -11631,7 +11634,7 @@
       </c>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>235</v>
       </c>
@@ -11645,7 +11648,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>235</v>
       </c>
@@ -11659,7 +11662,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>235</v>
       </c>
@@ -11673,7 +11676,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>235</v>
       </c>
@@ -11687,7 +11690,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>235</v>
       </c>
@@ -11701,7 +11704,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35" t="e">
@@ -11709,7 +11712,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>242</v>
       </c>
@@ -11723,7 +11726,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>242</v>
       </c>
@@ -11737,7 +11740,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>242</v>
       </c>
@@ -11751,7 +11754,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>246</v>
       </c>
@@ -11765,7 +11768,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>246</v>
       </c>
@@ -11779,7 +11782,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>247</v>
       </c>
@@ -11793,7 +11796,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35" t="e">
@@ -11801,7 +11804,7 @@
       </c>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>249</v>
       </c>
@@ -11815,7 +11818,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>249</v>
       </c>
@@ -11829,7 +11832,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>249</v>
       </c>
@@ -11843,7 +11846,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>253</v>
       </c>
@@ -11857,7 +11860,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>253</v>
       </c>
@@ -11871,7 +11874,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37" t="e">
@@ -11879,7 +11882,7 @@
       </c>
       <c r="D40" s="38"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35" t="e">
@@ -11887,7 +11890,7 @@
       </c>
       <c r="D41" s="35"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>254</v>
       </c>
@@ -11901,7 +11904,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35" t="e">
@@ -11909,7 +11912,7 @@
       </c>
       <c r="D43" s="35"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>255</v>
       </c>
@@ -11923,7 +11926,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>255</v>
       </c>
@@ -11937,7 +11940,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>257</v>
       </c>
@@ -11951,7 +11954,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
         <v>257</v>
       </c>
@@ -11965,7 +11968,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>257</v>
       </c>
@@ -11979,7 +11982,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>260</v>
       </c>
@@ -11993,7 +11996,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>260</v>
       </c>
@@ -12007,7 +12010,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>260</v>
       </c>
@@ -12021,7 +12024,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>260</v>
       </c>
@@ -12035,7 +12038,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>260</v>
       </c>
@@ -12049,7 +12052,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>262</v>
       </c>
@@ -12063,7 +12066,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
         <v>262</v>
       </c>
@@ -12077,7 +12080,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>262</v>
       </c>
@@ -12091,7 +12094,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>262</v>
       </c>
@@ -12105,7 +12108,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>263</v>
       </c>
@@ -12119,7 +12122,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>263</v>
       </c>
@@ -12133,7 +12136,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="35" t="e">
@@ -12141,7 +12144,7 @@
       </c>
       <c r="D60" s="35"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>264</v>
       </c>
@@ -12155,7 +12158,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>264</v>
       </c>
@@ -12169,7 +12172,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>265</v>
       </c>
@@ -12183,7 +12186,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>265</v>
       </c>
@@ -12197,7 +12200,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
         <v>265</v>
       </c>
@@ -12211,7 +12214,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>265</v>
       </c>
@@ -12225,7 +12228,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="37"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37" t="e">
@@ -12233,7 +12236,7 @@
       </c>
       <c r="D67" s="38"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
       <c r="B68" s="35"/>
       <c r="C68" s="35" t="e">
@@ -12241,7 +12244,7 @@
       </c>
       <c r="D68" s="35"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
         <v>266</v>
       </c>
@@ -12255,7 +12258,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>267</v>
       </c>
@@ -12269,7 +12272,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
         <v>267</v>
       </c>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{533EE0E8-FD49-4519-8A8A-4EBCFCD86A9E}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{90C24C03-6390-4782-99C1-9C065578294B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -45,6 +45,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={EDC7C1E7-87D8-4DCB-A596-9C8067A50A9A}</author>
+    <author>Treseder, Gavin</author>
     <author>tc={AAC0151B-041E-4F98-A281-736171BA5E27}</author>
     <author>tc={3FC98A93-1BD2-46CA-8439-5A569DD9E38A}</author>
     <author>tc={A36EDA56-9BB8-4481-8541-35CA7263BBE2}</author>
@@ -68,7 +69,33 @@
     125</t>
       </text>
     </comment>
-    <comment ref="AO5" authorId="1" shapeId="0" xr:uid="{AAC0151B-041E-4F98-A281-736171BA5E27}">
+    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{C7A81D15-FCF3-415F-A40D-839B349A9F70}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Treseder, Gavin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Safety Factor of 2 = 20
+Safety Factor of 1 = 8
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO5" authorId="2" shapeId="0" xr:uid="{AAC0151B-041E-4F98-A281-736171BA5E27}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -76,7 +103,7 @@
     20mm of wallthickness loss not detectable</t>
       </text>
     </comment>
-    <comment ref="G6" authorId="2" shapeId="0" xr:uid="{3FC98A93-1BD2-46CA-8439-5A569DD9E38A}">
+    <comment ref="G6" authorId="3" shapeId="0" xr:uid="{3FC98A93-1BD2-46CA-8439-5A569DD9E38A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -84,7 +111,32 @@
     250 mm</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="3" shapeId="0" xr:uid="{A36EDA56-9BB8-4481-8541-35CA7263BBE2}">
+    <comment ref="H6" authorId="1" shapeId="0" xr:uid="{35FB3C9B-831F-4AA2-84D9-035DA7204648}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Treseder, Gavin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+157
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="4" shapeId="0" xr:uid="{A36EDA56-9BB8-4481-8541-35CA7263BBE2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -92,7 +144,7 @@
     Removed to solve timeline error when method wasn't actuall called anywhere</t>
       </text>
     </comment>
-    <comment ref="D50" authorId="4" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
+    <comment ref="D50" authorId="5" shapeId="0" xr:uid="{2C545A15-58BF-4325-853E-F01A6E2CD754}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -100,7 +152,7 @@
     Change task type to planned / reactive / risk?</t>
       </text>
     </comment>
-    <comment ref="D56" authorId="5" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
+    <comment ref="D56" authorId="6" shapeId="0" xr:uid="{B6F30610-5DE2-43DC-8686-4075E019810F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -108,7 +160,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="I56" authorId="6" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
+    <comment ref="I56" authorId="7" shapeId="0" xr:uid="{F6470554-740D-4816-85E3-E23C5729D666}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -116,7 +168,7 @@
     Break it out later</t>
       </text>
     </comment>
-    <comment ref="AC56" authorId="7" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+    <comment ref="AC56" authorId="8" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -125,7 +177,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="W58" authorId="8" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
+    <comment ref="W58" authorId="9" shapeId="0" xr:uid="{BE62B33B-1180-42C8-AE27-EADC70606D7B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -133,7 +185,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="D64" authorId="9" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
+    <comment ref="D64" authorId="10" shapeId="0" xr:uid="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -141,7 +193,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="AC64" authorId="10" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+    <comment ref="AC64" authorId="11" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -150,7 +202,7 @@
 Add an additional task?</t>
       </text>
     </comment>
-    <comment ref="W66" authorId="11" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
+    <comment ref="W66" authorId="12" shapeId="0" xr:uid="{65DC17AD-63E9-433B-A662-056382EECC79}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -158,7 +210,7 @@
     Make this a repair task</t>
       </text>
     </comment>
-    <comment ref="E72" authorId="12" shapeId="0" xr:uid="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
+    <comment ref="E72" authorId="13" shapeId="0" xr:uid="{2A9F7F02-73AD-487F-89D9-8F1E4E03126C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -166,7 +218,7 @@
     fix method to allow multiple indicators for one component</t>
       </text>
     </comment>
-    <comment ref="I72" authorId="13" shapeId="0" xr:uid="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
+    <comment ref="I72" authorId="14" shapeId="0" xr:uid="{D0C67513-5DB5-4D3F-8187-F19DE320258E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1205,7 +1257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1301,6 +1353,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="24">
@@ -3801,8 +3866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AY78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AY13" sqref="AY13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4231,8 +4296,7 @@
         <v>125</v>
       </c>
       <c r="H5" s="146">
-        <f>(G6-G6*(1-H7)^(1/4))/2</f>
-        <v>19.887948093285686</v>
+        <v>20</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>30</v>
@@ -4349,8 +4413,8 @@
         <v>250</v>
       </c>
       <c r="H6" s="146">
-        <f>(H7/G7 * G6^3)^(1/3)</f>
-        <v>124.99999999999994</v>
+        <f>ROUND((H7/G7 * G6^3)^(1/3),0)</f>
+        <v>157</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -4419,7 +4483,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="137">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{90C24C03-6390-4782-99C1-9C065578294B}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{36C35826-3048-40A5-B87C-96F364739B63}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -3866,8 +3866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
   <dimension ref="A1:AY78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="L13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD51" sqref="AD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4318,10 +4318,10 @@
       </c>
       <c r="O5" s="165"/>
       <c r="P5" s="45">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="45">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="R5" s="129">
         <v>10</v>
@@ -4338,7 +4338,7 @@
         <v>80</v>
       </c>
       <c r="X5" s="45">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="Y5" s="45">
         <v>50</v>
@@ -4359,7 +4359,7 @@
         <v>20</v>
       </c>
       <c r="AE5" s="41">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AF5" s="96" t="s">
         <v>84</v>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="H6" s="146">
         <f>ROUND((H7/G7 * G6^3)^(1/3),0)</f>
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -4483,7 +4483,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="137">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -4554,7 +4554,7 @@
         <v>89</v>
       </c>
       <c r="X8" s="42">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="Y8" s="15">
         <v>100</v>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="O15" s="165"/>
       <c r="P15" s="45">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Q15" s="45">
         <v>3.3</v>
@@ -5079,7 +5079,7 @@
         <v>80</v>
       </c>
       <c r="X15" s="45">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="Y15" s="15">
         <v>50</v>
@@ -5098,7 +5098,7 @@
         <v>20</v>
       </c>
       <c r="AE15" s="15">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AF15" s="96" t="s">
         <v>84</v>
@@ -5524,7 +5524,7 @@
         <v>79</v>
       </c>
       <c r="L23" s="45">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M23" s="148">
         <v>1</v>
@@ -5554,7 +5554,7 @@
         <v>80</v>
       </c>
       <c r="X23" s="45">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Y23" s="15">
         <v>50</v>
@@ -5574,8 +5574,8 @@
       <c r="AD23" s="15">
         <v>20</v>
       </c>
-      <c r="AE23" s="15">
-        <v>5</v>
+      <c r="AE23" s="41">
+        <v>4.5</v>
       </c>
       <c r="AF23" s="96" t="s">
         <v>84</v>
@@ -6236,8 +6236,8 @@
       <c r="AD34" s="15">
         <v>20</v>
       </c>
-      <c r="AE34" s="15">
-        <v>5</v>
+      <c r="AE34" s="41">
+        <v>4.5</v>
       </c>
       <c r="AF34" s="96" t="s">
         <v>84</v>
@@ -7156,8 +7156,8 @@
       <c r="AD48" s="15">
         <v>20</v>
       </c>
-      <c r="AE48" s="15">
-        <v>5</v>
+      <c r="AE48" s="41">
+        <v>4.5</v>
       </c>
       <c r="AF48" s="96" t="s">
         <v>84</v>
@@ -8813,7 +8813,7 @@
       <c r="H78" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B7:B11 AA15 C21:D21 E20:H21 B65:B68 B14:B21 C16:D18 E15:H17 C7:G7 AG48:AR48 AO17:AT18 AR37:AT37 AR16:AY16 AR45:AY45 AR41:AY41 AR24:AY26 AR35:AT35 AU35:AY37 AO66:AY67 AR65:AY65 AO70:AY70 AR69:AY69 AO58:AY59 AR57:AY57 AO62:AY62 AR61:AY61 S35:V38 S46:V46 S69:V70 S59:V59 S32:V32 S27:V29 S74:X75 S25:AB25 B5:G6 AO36:AT36 S40:V42 B33:H54 AC15:AF15 W16:AE16 W69:AE69 W65:AE65 W35:AN35 W61:AE61 Z74:AE75 AB22:AX22 S26:AE26 AF58:AI58 S24:AN24 S57:AE58 AF57:AN57 AY57:AY58 S71:AE73 AF71:AX75 S33:AX33 S43:AX43 AF47:AX47 S39:AX39 AD34:AT34 AA17:AE17 AF16:AN17 W20:AN20 W37:AN37 S45:AN45 W41:AN41 AD23:AF23 AD25:AE25 AF25:AQ26 AR20:AY20 X66:AE66 AF65:AN66 AY64:AY66 X70:AE70 AF69:AN70 AY69:AY75 AC36:AF36 X62:AE62 AF61:AN62 AY61:AY62 C9:G11 C8:F8 W40:AB40 S47:AE48 AD40:AR40 AD44:AR44 AY22:AY26 AY33:AY37 AY39:AY41 AY43:AY45 AY47:AY48 AY15:AY17 C22:H23 B56:N56 B64:N64 AJ15:AR15 AT15:AY15 AJ23:AR23 AT23:AY23 AT40 AT44 AT48 P15:W15 P23:W23 P34:AB34 P44:AB44 P56:AY56 P64:AX64 P21:V21 I21:N29 P16:V18 I16:N18 P32:R33 I32:N54 P22:Z22 P65:V67 C65:N67 P69:R75 B69:N75 P57:R59 C57:N59 P61:V62 B61:N62 P24:R29 P35:R43 P45:R48 P49:V54 P14:Z14 C14:N15 P12:AN13 K5:N13 P7:AE11 P5:AQ6 E19">
+  <conditionalFormatting sqref="B7:B11 AA15 C21:D21 E20:H21 B65:B68 B14:B21 C16:D18 E15:H17 C7:G7 AG48:AR48 AO17:AT18 AR37:AT37 AR16:AY16 AR45:AY45 AR41:AY41 AR24:AY26 AR35:AT35 AU35:AY37 AO66:AY67 AR65:AY65 AO70:AY70 AR69:AY69 AO58:AY59 AR57:AY57 AO62:AY62 AR61:AY61 S35:V38 S46:V46 S69:V70 S59:V59 S32:V32 S27:V29 S74:X75 S25:AB25 B5:G6 AO36:AT36 S40:V42 B33:H54 AC15:AF15 W16:AE16 W69:AE69 W65:AE65 W35:AN35 W61:AE61 Z74:AE75 AB22:AX22 S26:AE26 AF58:AI58 S24:AN24 S57:AE58 AF57:AN57 AY57:AY58 S71:AE73 AF71:AX75 S33:AX33 S43:AX43 AF47:AX47 S39:AX39 AA17:AE17 AF16:AN17 W20:AN20 W37:AN37 S45:AN45 W41:AN41 AD25:AE25 AF25:AQ26 AR20:AY20 X66:AE66 AF65:AN66 AY64:AY66 X70:AE70 AF69:AN70 AY69:AY75 AC36:AF36 X62:AE62 AF61:AN62 AY61:AY62 C9:G11 C8:F8 W40:AB40 AD40:AR40 AD44:AR44 AY22:AY26 AY33:AY37 AY39:AY41 AY43:AY45 AY47:AY48 AY15:AY17 C22:H23 B56:N56 B64:N64 AJ15:AR15 AT15:AY15 AJ23:AR23 AT23:AY23 AT40 AT44 AT48 P15:W15 P23:W23 P34:AB34 P44:AB44 P56:AY56 P64:AX64 P21:V21 I21:N29 P16:V18 I16:N18 P32:R33 I32:N54 P22:Z22 P65:V67 C65:N67 P69:R75 B69:N75 P57:R59 C57:N59 P61:V62 B61:N62 P24:R29 P35:R43 P45:R48 P49:V54 P14:Z14 C14:N15 P12:AN13 K5:N13 P7:AE11 P5:AQ6 E19 AD23:AF23 AD34:AT34 S47:AE48">
     <cfRule type="cellIs" dxfId="104" priority="250" operator="equal">
       <formula>"nil"</formula>
     </cfRule>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utilnsw-my.sharepoint.com/personal/greg_bell_essentialenergy_com_au/Documents/Documents/pof/data/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{90C24C03-6390-4782-99C1-9C065578294B}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7781D9CD-C91C-4C31-A59B-C32A97BBAFAB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="600" windowWidth="19200" windowHeight="23400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="brainstorming" sheetId="4" r:id="rId11"/>
     <sheet name="Sheet3" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -77,7 +80,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Treseder, Gavin:</t>
         </r>
@@ -86,7 +89,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Safety Factor of 2 = 20
@@ -119,7 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Treseder, Gavin:</t>
         </r>
@@ -128,7 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 157
@@ -530,730 +533,730 @@
     <t>functional_failure</t>
   </si>
   <si>
+    <t>pole_saver_rod</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>inspection_protection</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>fire_damage</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>weathering</t>
+  </si>
+  <si>
+    <t>pole footing</t>
+  </si>
+  <si>
+    <t>leaning</t>
+  </si>
+  <si>
+    <t>any reason</t>
+  </si>
+  <si>
+    <t>lean_angle</t>
+  </si>
+  <si>
+    <t>CAT3/4 replacement</t>
+  </si>
+  <si>
+    <t>CAT1/2 replacement</t>
+  </si>
+  <si>
+    <t>pole_cap</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>Pole cap replacement</t>
+  </si>
+  <si>
+    <t>Pole replacement</t>
+  </si>
+  <si>
+    <t>crossarm</t>
+  </si>
+  <si>
+    <t>cross_sectional_area</t>
+  </si>
+  <si>
+    <t>Fix_this_error</t>
+  </si>
+  <si>
+    <t>add_no_condition_method</t>
+  </si>
+  <si>
+    <t>strut</t>
+  </si>
+  <si>
+    <t>modify</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>crack_length</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sub System</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Maintainable Item</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Pole</t>
+  </si>
+  <si>
+    <t>Pole Stay</t>
+  </si>
+  <si>
+    <t>Pole Cap</t>
+  </si>
+  <si>
+    <t>Pole Footing</t>
+  </si>
+  <si>
+    <t>pole (common)</t>
+  </si>
+  <si>
+    <t>pole (timber)</t>
+  </si>
+  <si>
+    <t>pole (concrete)</t>
+  </si>
+  <si>
+    <t>pole (steel)</t>
+  </si>
+  <si>
+    <t>pole (composite)</t>
+  </si>
+  <si>
+    <t>pole fixtures</t>
+  </si>
+  <si>
+    <t>attachments</t>
+  </si>
+  <si>
+    <t>pole cap</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>pole stay</t>
+  </si>
+  <si>
+    <t>pole attachment</t>
+  </si>
+  <si>
+    <t>top attachment point</t>
+  </si>
+  <si>
+    <t>thimble</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>dead end</t>
+  </si>
+  <si>
+    <t>insulator</t>
+  </si>
+  <si>
+    <t>batten</t>
+  </si>
+  <si>
+    <t>sight guard</t>
+  </si>
+  <si>
+    <t>anchor rod</t>
+  </si>
+  <si>
+    <t>footing</t>
+  </si>
+  <si>
+    <t>pole modification</t>
+  </si>
+  <si>
+    <t>reinforcement</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>acroprop</t>
+  </si>
+  <si>
+    <t>pole accessories</t>
+  </si>
+  <si>
+    <t>fauna protection</t>
+  </si>
+  <si>
+    <t>stay protection</t>
+  </si>
+  <si>
+    <t>cattle guard post</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (termites)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (lightning)</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (impact)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fire damage)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fungal decay - internal)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (fungal decay - external)</t>
+  </si>
+  <si>
+    <t>[pole] {broken} due to (weathering)</t>
+  </si>
+  <si>
+    <t>[pole foundation] due to (unknown)</t>
+  </si>
+  <si>
+    <t>[pole cap] due to (unknown)</t>
+  </si>
+  <si>
+    <t>pole_cap_present</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (unknown)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (impact)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (corrosion)</t>
+  </si>
+  <si>
+    <t>[pole stay] due to (bed log)</t>
+  </si>
+  <si>
+    <t>[pole top equipment] due to {cracking}</t>
+  </si>
+  <si>
+    <t>cracking_present</t>
+  </si>
+  <si>
+    <t>simple_safety_factor</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>ssf</t>
+  </si>
+  <si>
+    <t>actual_safety_factor</t>
+  </si>
+  <si>
+    <t>dsf_calc</t>
+  </si>
+  <si>
+    <t>asf</t>
+  </si>
+  <si>
+    <t>Footing</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Pole cap</t>
+  </si>
+  <si>
+    <t>top_of_pole_stregnth</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>task_name</t>
+  </si>
+  <si>
+    <t>Level of Failure</t>
+  </si>
+  <si>
+    <t>condition_name</t>
+  </si>
+  <si>
+    <t>termite</t>
+  </si>
+  <si>
+    <t>level_3_inspection</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>termite_powder</t>
+  </si>
+  <si>
+    <t>fm</t>
+  </si>
+  <si>
+    <t>replacement</t>
+  </si>
+  <si>
+    <t>fungal decay</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>early_replacement</t>
+  </si>
+  <si>
+    <t>emergency_replacement</t>
+  </si>
+  <si>
+    <t>Failure Mode</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>rul_min</t>
+  </si>
+  <si>
+    <t>rul_max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>[pole]</t>
+  </si>
+  <si>
+    <t>{broken}</t>
+  </si>
+  <si>
+    <t>(vandalism)</t>
+  </si>
+  <si>
+    <t>(lightning)</t>
+  </si>
+  <si>
+    <t>(impact)</t>
+  </si>
+  <si>
+    <t>(fire damage - bushfire)</t>
+  </si>
+  <si>
+    <t>(fire damage - asset related)</t>
+  </si>
+  <si>
+    <t>(extreme environment)</t>
+  </si>
+  <si>
+    <t>(fungal decay - brown rot)</t>
+  </si>
+  <si>
+    <t>(fungal decay - carroty rot)</t>
+  </si>
+  <si>
+    <t>(fungal decay - white rot)</t>
+  </si>
+  <si>
+    <t>(termites)</t>
+  </si>
+  <si>
+    <t>(fungal decay - external soft rot)</t>
+  </si>
+  <si>
+    <t>(weathering)</t>
+  </si>
+  <si>
+    <t>{cracked}</t>
+  </si>
+  <si>
+    <t>[pole sapwood]</t>
+  </si>
+  <si>
+    <t>{insecure}</t>
+  </si>
+  <si>
+    <t>{degraded appearance}</t>
+  </si>
+  <si>
+    <t>[pole foundation]</t>
+  </si>
+  <si>
+    <t>{eroded}</t>
+  </si>
+  <si>
+    <t>(wear)</t>
+  </si>
+  <si>
+    <t>(environment)</t>
+  </si>
+  <si>
+    <t>{loose}</t>
+  </si>
+  <si>
+    <t>(any reason)</t>
+  </si>
+  <si>
+    <t>{ruptured}</t>
+  </si>
+  <si>
+    <t>[pole cap]</t>
+  </si>
+  <si>
+    <t>{missing}</t>
+  </si>
+  <si>
+    <t>(installation error)</t>
+  </si>
+  <si>
+    <t>{falls out}</t>
+  </si>
+  <si>
+    <t>[step]</t>
+  </si>
+  <si>
+    <t>[attachments]</t>
+  </si>
+  <si>
+    <t>{too low}</t>
+  </si>
+  <si>
+    <t>[label]</t>
+  </si>
+  <si>
+    <t>{not observable}</t>
+  </si>
+  <si>
+    <t>(age)</t>
+  </si>
+  <si>
+    <t>(out of specification)</t>
+  </si>
+  <si>
+    <t>[tag]</t>
+  </si>
+  <si>
+    <t>[top attachment point]</t>
+  </si>
+  <si>
+    <t>[thimble]</t>
+  </si>
+  <si>
+    <t>(misalignment)</t>
+  </si>
+  <si>
+    <t>[dead end]</t>
+  </si>
+  <si>
+    <t>(corrosion)</t>
+  </si>
+  <si>
+    <t>(fatigue)</t>
+  </si>
+  <si>
+    <t>[wire]</t>
+  </si>
+  <si>
+    <t>(overloaded)</t>
+  </si>
+  <si>
+    <t>[insulator]</t>
+  </si>
+  <si>
+    <t>[sight guard]</t>
+  </si>
+  <si>
+    <t>[anchor rod]</t>
+  </si>
+  <si>
+    <t>[footing]</t>
+  </si>
+  <si>
+    <t>[nail]</t>
+  </si>
+  <si>
+    <t>[bands]</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Probability of Failure</t>
+  </si>
+  <si>
+    <t>Operational</t>
+  </si>
+  <si>
+    <t>Pole Sre</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Level of Impact</t>
+  </si>
+  <si>
+    <t>Questions for Occa</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>Condition v Symptom</t>
+  </si>
+  <si>
+    <t>as-bad-as-old</t>
+  </si>
+  <si>
+    <t>FailureMode</t>
+  </si>
+  <si>
+    <t>Modifier v Acceleration Factor</t>
+  </si>
+  <si>
+    <t>Fungal Decay species</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>better_than_old_worse_than_new</t>
+  </si>
+  <si>
+    <t>Simple -&gt; Modifier -&gt; Af -&gt; Physics of Failure</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>How to include failure mode initiation?</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>An asset that has made it 100 years?</t>
+  </si>
+  <si>
+    <t>Degrade condition</t>
+  </si>
+  <si>
+    <t>failure mode</t>
+  </si>
+  <si>
+    <t>restore</t>
+  </si>
+  <si>
+    <t>initiated</t>
+  </si>
+  <si>
+    <t>detected</t>
+  </si>
+  <si>
+    <t>Safety Factor</t>
+  </si>
+  <si>
+    <t>indicators</t>
+  </si>
+  <si>
+    <t>Asset Data</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Asset Model</t>
+  </si>
+  <si>
+    <t>Greg -&gt; Life extension</t>
+  </si>
+  <si>
+    <t>life extension</t>
+  </si>
+  <si>
+    <t>Multiple tasks are triggered</t>
+  </si>
+  <si>
+    <t>reinforce</t>
+  </si>
+  <si>
+    <t>termite powder</t>
+  </si>
+  <si>
+    <t>change an indicator</t>
+  </si>
+  <si>
+    <t>Calibration scenario</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>kN</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Story to explain</t>
+  </si>
+  <si>
+    <t>SSF</t>
+  </si>
+  <si>
+    <t>PLP SF</t>
+  </si>
+  <si>
+    <t>inspection interval for new poles</t>
+  </si>
+  <si>
+    <t>Pole Strength</t>
+  </si>
+  <si>
+    <t>WASP</t>
+  </si>
+  <si>
+    <t>inspection interval for each poles</t>
+  </si>
+  <si>
+    <t>Pole Load</t>
+  </si>
+  <si>
+    <t>pole_strength/4</t>
+  </si>
+  <si>
+    <t>PLP</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>AGD</t>
+  </si>
+  <si>
+    <t>CZD</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>For each type</t>
+  </si>
+  <si>
+    <t>Starting Condition</t>
+  </si>
+  <si>
+    <t>pole_strength / pole load</t>
+  </si>
+  <si>
+    <t>pole_load = pole_ strength / 4</t>
+  </si>
+  <si>
+    <t>pole_strength / actual load</t>
+  </si>
+  <si>
+    <t>consequence</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
     <t>fungal decay | external</t>
   </si>
   <si>
     <t>fungal decay | internal</t>
-  </si>
-  <si>
-    <t>pole_saver_rod</t>
-  </si>
-  <si>
-    <t>lightning</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>inspection_protection</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>fire_damage</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>weathering</t>
-  </si>
-  <si>
-    <t>pole footing</t>
-  </si>
-  <si>
-    <t>leaning</t>
-  </si>
-  <si>
-    <t>any reason</t>
-  </si>
-  <si>
-    <t>lean_angle</t>
-  </si>
-  <si>
-    <t>CAT3/4 replacement</t>
-  </si>
-  <si>
-    <t>CAT1/2 replacement</t>
-  </si>
-  <si>
-    <t>pole_cap</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>Pole cap replacement</t>
-  </si>
-  <si>
-    <t>Pole replacement</t>
-  </si>
-  <si>
-    <t>crossarm</t>
-  </si>
-  <si>
-    <t>cross_sectional_area</t>
-  </si>
-  <si>
-    <t>Fix_this_error</t>
-  </si>
-  <si>
-    <t>add_no_condition_method</t>
-  </si>
-  <si>
-    <t>strut</t>
-  </si>
-  <si>
-    <t>modify</t>
-  </si>
-  <si>
-    <t>addition</t>
-  </si>
-  <si>
-    <t>crack_length</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Sub System</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Maintainable Item</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Pole</t>
-  </si>
-  <si>
-    <t>Pole Stay</t>
-  </si>
-  <si>
-    <t>Pole Cap</t>
-  </si>
-  <si>
-    <t>Pole Footing</t>
-  </si>
-  <si>
-    <t>pole (common)</t>
-  </si>
-  <si>
-    <t>pole (timber)</t>
-  </si>
-  <si>
-    <t>pole (concrete)</t>
-  </si>
-  <si>
-    <t>pole (steel)</t>
-  </si>
-  <si>
-    <t>pole (composite)</t>
-  </si>
-  <si>
-    <t>pole fixtures</t>
-  </si>
-  <si>
-    <t>attachments</t>
-  </si>
-  <si>
-    <t>pole cap</t>
-  </si>
-  <si>
-    <t>steps</t>
-  </si>
-  <si>
-    <t>pole stay</t>
-  </si>
-  <si>
-    <t>pole attachment</t>
-  </si>
-  <si>
-    <t>top attachment point</t>
-  </si>
-  <si>
-    <t>thimble</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>dead end</t>
-  </si>
-  <si>
-    <t>insulator</t>
-  </si>
-  <si>
-    <t>batten</t>
-  </si>
-  <si>
-    <t>sight guard</t>
-  </si>
-  <si>
-    <t>anchor rod</t>
-  </si>
-  <si>
-    <t>footing</t>
-  </si>
-  <si>
-    <t>pole modification</t>
-  </si>
-  <si>
-    <t>reinforcement</t>
-  </si>
-  <si>
-    <t>nail</t>
-  </si>
-  <si>
-    <t>acroprop</t>
-  </si>
-  <si>
-    <t>pole accessories</t>
-  </si>
-  <si>
-    <t>fauna protection</t>
-  </si>
-  <si>
-    <t>stay protection</t>
-  </si>
-  <si>
-    <t>cattle guard post</t>
-  </si>
-  <si>
-    <t>Indicators</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (termites)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (lightning)</t>
-  </si>
-  <si>
-    <t>nil</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (impact)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fire damage)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fungal decay - internal)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (fungal decay - external)</t>
-  </si>
-  <si>
-    <t>[pole] {broken} due to (weathering)</t>
-  </si>
-  <si>
-    <t>[pole foundation] due to (unknown)</t>
-  </si>
-  <si>
-    <t>[pole cap] due to (unknown)</t>
-  </si>
-  <si>
-    <t>pole_cap_present</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (unknown)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (impact)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (corrosion)</t>
-  </si>
-  <si>
-    <t>[pole stay] due to (bed log)</t>
-  </si>
-  <si>
-    <t>[pole top equipment] due to {cracking}</t>
-  </si>
-  <si>
-    <t>cracking_present</t>
-  </si>
-  <si>
-    <t>simple_safety_factor</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>ssf</t>
-  </si>
-  <si>
-    <t>actual_safety_factor</t>
-  </si>
-  <si>
-    <t>dsf_calc</t>
-  </si>
-  <si>
-    <t>asf</t>
-  </si>
-  <si>
-    <t>Footing</t>
-  </si>
-  <si>
-    <t>Stay</t>
-  </si>
-  <si>
-    <t>Pole cap</t>
-  </si>
-  <si>
-    <t>top_of_pole_stregnth</t>
-  </si>
-  <si>
-    <t>Trigger</t>
-  </si>
-  <si>
-    <t>tasks</t>
-  </si>
-  <si>
-    <t>task_name</t>
-  </si>
-  <si>
-    <t>Level of Failure</t>
-  </si>
-  <si>
-    <t>condition_name</t>
-  </si>
-  <si>
-    <t>termite</t>
-  </si>
-  <si>
-    <t>level_3_inspection</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>termite_powder</t>
-  </si>
-  <si>
-    <t>fm</t>
-  </si>
-  <si>
-    <t>replacement</t>
-  </si>
-  <si>
-    <t>fungal decay</t>
-  </si>
-  <si>
-    <t>schedule</t>
-  </si>
-  <si>
-    <t>early_replacement</t>
-  </si>
-  <si>
-    <t>emergency_replacement</t>
-  </si>
-  <si>
-    <t>Failure Mode</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>rul_min</t>
-  </si>
-  <si>
-    <t>rul_max</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>fixed</t>
-  </si>
-  <si>
-    <t>weeks</t>
-  </si>
-  <si>
-    <t>[pole]</t>
-  </si>
-  <si>
-    <t>{broken}</t>
-  </si>
-  <si>
-    <t>(vandalism)</t>
-  </si>
-  <si>
-    <t>(lightning)</t>
-  </si>
-  <si>
-    <t>(impact)</t>
-  </si>
-  <si>
-    <t>(fire damage - bushfire)</t>
-  </si>
-  <si>
-    <t>(fire damage - asset related)</t>
-  </si>
-  <si>
-    <t>(extreme environment)</t>
-  </si>
-  <si>
-    <t>(fungal decay - brown rot)</t>
-  </si>
-  <si>
-    <t>(fungal decay - carroty rot)</t>
-  </si>
-  <si>
-    <t>(fungal decay - white rot)</t>
-  </si>
-  <si>
-    <t>(termites)</t>
-  </si>
-  <si>
-    <t>(fungal decay - external soft rot)</t>
-  </si>
-  <si>
-    <t>(weathering)</t>
-  </si>
-  <si>
-    <t>{cracked}</t>
-  </si>
-  <si>
-    <t>[pole sapwood]</t>
-  </si>
-  <si>
-    <t>{insecure}</t>
-  </si>
-  <si>
-    <t>{degraded appearance}</t>
-  </si>
-  <si>
-    <t>[pole foundation]</t>
-  </si>
-  <si>
-    <t>{eroded}</t>
-  </si>
-  <si>
-    <t>(wear)</t>
-  </si>
-  <si>
-    <t>(environment)</t>
-  </si>
-  <si>
-    <t>{loose}</t>
-  </si>
-  <si>
-    <t>(any reason)</t>
-  </si>
-  <si>
-    <t>{ruptured}</t>
-  </si>
-  <si>
-    <t>[pole cap]</t>
-  </si>
-  <si>
-    <t>{missing}</t>
-  </si>
-  <si>
-    <t>(installation error)</t>
-  </si>
-  <si>
-    <t>{falls out}</t>
-  </si>
-  <si>
-    <t>[step]</t>
-  </si>
-  <si>
-    <t>[attachments]</t>
-  </si>
-  <si>
-    <t>{too low}</t>
-  </si>
-  <si>
-    <t>[label]</t>
-  </si>
-  <si>
-    <t>{not observable}</t>
-  </si>
-  <si>
-    <t>(age)</t>
-  </si>
-  <si>
-    <t>(out of specification)</t>
-  </si>
-  <si>
-    <t>[tag]</t>
-  </si>
-  <si>
-    <t>[top attachment point]</t>
-  </si>
-  <si>
-    <t>[thimble]</t>
-  </si>
-  <si>
-    <t>(misalignment)</t>
-  </si>
-  <si>
-    <t>[dead end]</t>
-  </si>
-  <si>
-    <t>(corrosion)</t>
-  </si>
-  <si>
-    <t>(fatigue)</t>
-  </si>
-  <si>
-    <t>[wire]</t>
-  </si>
-  <si>
-    <t>(overloaded)</t>
-  </si>
-  <si>
-    <t>[insulator]</t>
-  </si>
-  <si>
-    <t>[sight guard]</t>
-  </si>
-  <si>
-    <t>[anchor rod]</t>
-  </si>
-  <si>
-    <t>[footing]</t>
-  </si>
-  <si>
-    <t>[nail]</t>
-  </si>
-  <si>
-    <t>[bands]</t>
-  </si>
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
-    <t>Outputs</t>
-  </si>
-  <si>
-    <t>Asset</t>
-  </si>
-  <si>
-    <t>Probability of Failure</t>
-  </si>
-  <si>
-    <t>Operational</t>
-  </si>
-  <si>
-    <t>Pole Sre</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Impact</t>
-  </si>
-  <si>
-    <t>Level of Impact</t>
-  </si>
-  <si>
-    <t>Questions for Occa</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Nil</t>
-  </si>
-  <si>
-    <t>Condition v Symptom</t>
-  </si>
-  <si>
-    <t>as-bad-as-old</t>
-  </si>
-  <si>
-    <t>FailureMode</t>
-  </si>
-  <si>
-    <t>Modifier v Acceleration Factor</t>
-  </si>
-  <si>
-    <t>Fungal Decay species</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>better_than_old_worse_than_new</t>
-  </si>
-  <si>
-    <t>Simple -&gt; Modifier -&gt; Af -&gt; Physics of Failure</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>How to include failure mode initiation?</t>
-  </si>
-  <si>
-    <t>Schedule</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Indicator</t>
-  </si>
-  <si>
-    <t>An asset that has made it 100 years?</t>
-  </si>
-  <si>
-    <t>Degrade condition</t>
-  </si>
-  <si>
-    <t>failure mode</t>
-  </si>
-  <si>
-    <t>restore</t>
-  </si>
-  <si>
-    <t>initiated</t>
-  </si>
-  <si>
-    <t>detected</t>
-  </si>
-  <si>
-    <t>Safety Factor</t>
-  </si>
-  <si>
-    <t>indicators</t>
-  </si>
-  <si>
-    <t>Asset Data</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Asset Model</t>
-  </si>
-  <si>
-    <t>Greg -&gt; Life extension</t>
-  </si>
-  <si>
-    <t>life extension</t>
-  </si>
-  <si>
-    <t>Multiple tasks are triggered</t>
-  </si>
-  <si>
-    <t>reinforce</t>
-  </si>
-  <si>
-    <t>termite powder</t>
-  </si>
-  <si>
-    <t>change an indicator</t>
-  </si>
-  <si>
-    <t>Calibration scenario</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>kN</t>
-  </si>
-  <si>
-    <t>ED</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Story to explain</t>
-  </si>
-  <si>
-    <t>SSF</t>
-  </si>
-  <si>
-    <t>PLP SF</t>
-  </si>
-  <si>
-    <t>inspection interval for new poles</t>
-  </si>
-  <si>
-    <t>Pole Strength</t>
-  </si>
-  <si>
-    <t>WASP</t>
-  </si>
-  <si>
-    <t>inspection interval for each poles</t>
-  </si>
-  <si>
-    <t>Pole Load</t>
-  </si>
-  <si>
-    <t>pole_strength/4</t>
-  </si>
-  <si>
-    <t>PLP</t>
-  </si>
-  <si>
-    <t>Load</t>
-  </si>
-  <si>
-    <t>AGD</t>
-  </si>
-  <si>
-    <t>CZD</t>
-  </si>
-  <si>
-    <t>WT</t>
-  </si>
-  <si>
-    <t>For each type</t>
-  </si>
-  <si>
-    <t>Starting Condition</t>
-  </si>
-  <si>
-    <t>pole_strength / pole load</t>
-  </si>
-  <si>
-    <t>pole_load = pole_ strength / 4</t>
-  </si>
-  <si>
-    <t>pole_strength / actual load</t>
-  </si>
-  <si>
-    <t>consequence</t>
-  </si>
-  <si>
-    <t>group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -1358,14 +1361,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="24">
@@ -1880,7 +1883,28 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FE42BDC6-EBD5-43A7-A342-17D1DCC45724}"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="108">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2617,7 +2641,9 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{4A6B13D6-14BD-41F9-899D-68371EA470BF}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2992,134 +3018,134 @@
   <sheetData>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O12" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O13" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>168</v>
+      </c>
+      <c r="S13" t="s">
         <v>278</v>
-      </c>
-      <c r="O13" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>170</v>
-      </c>
-      <c r="S13" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F14" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="O14" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>280</v>
+      </c>
+      <c r="S14" t="s">
         <v>281</v>
-      </c>
-      <c r="O14" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>282</v>
-      </c>
-      <c r="S14" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
+        <v>282</v>
+      </c>
+      <c r="J15" t="s">
+        <v>283</v>
+      </c>
+      <c r="O15" t="s">
         <v>284</v>
       </c>
-      <c r="J15" t="s">
+      <c r="Q15" t="s">
         <v>285</v>
       </c>
-      <c r="O15" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>287</v>
-      </c>
       <c r="S15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q16" t="s">
         <v>97</v>
       </c>
       <c r="S16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
+        <v>288</v>
+      </c>
+      <c r="O17" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q17" t="s">
         <v>290</v>
-      </c>
-      <c r="O17" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -3131,13 +3157,13 @@
         <v>90</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>96</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>94</v>
@@ -3145,27 +3171,27 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
       <c r="R32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K33" t="s">
         <v>51</v>
       </c>
       <c r="R33" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -3173,13 +3199,13 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s">
         <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S34">
         <v>0.5</v>
@@ -3187,16 +3213,16 @@
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G35" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="R35" t="s">
         <v>97</v>
@@ -3207,13 +3233,13 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L36" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="R36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -3229,10 +3255,10 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
@@ -3240,13 +3266,13 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E39" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
@@ -3266,29 +3292,29 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E54" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -3322,17 +3348,17 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E60" t="s">
         <v>96</v>
@@ -3340,58 +3366,58 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B70">
         <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B71">
         <v>12.5</v>
       </c>
       <c r="C71" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3423,48 +3449,48 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J4" t="s">
+        <v>318</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="R4" t="s">
         <v>321</v>
       </c>
-      <c r="I4" t="s">
-        <v>319</v>
-      </c>
-      <c r="J4" t="s">
-        <v>320</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="R4" t="s">
-        <v>323</v>
-      </c>
       <c r="S4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -3474,18 +3500,18 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="R5" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="S5" t="s">
         <v>325</v>
-      </c>
-      <c r="R5" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="S5" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I6">
         <f>I5/4</f>
@@ -3497,51 +3523,51 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="R6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="S6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="S7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I8" s="5">
         <v>320</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="S8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I9" s="5">
         <v>100</v>
@@ -3549,7 +3575,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
@@ -3557,12 +3583,12 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I12" s="9">
         <v>3.7</v>
@@ -3574,20 +3600,20 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="1048576" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O1048576" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3867,7 +3893,7 @@
   <dimension ref="A1:AY78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4009,7 +4035,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="135"/>
       <c r="N2" s="152" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O2" s="163"/>
       <c r="P2" s="1" t="s">
@@ -4115,7 +4141,7 @@
         <v>59</v>
       </c>
       <c r="O3" s="162" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>10</v>
@@ -4318,10 +4344,10 @@
       </c>
       <c r="O5" s="165"/>
       <c r="P5" s="45">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="45">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="R5" s="129">
         <v>10</v>
@@ -4338,7 +4364,7 @@
         <v>80</v>
       </c>
       <c r="X5" s="45">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="Y5" s="45">
         <v>50</v>
@@ -4359,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="AE5" s="41">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AF5" s="96" t="s">
         <v>84</v>
@@ -4554,7 +4580,7 @@
         <v>89</v>
       </c>
       <c r="X8" s="42">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="Y8" s="15">
         <v>100</v>
@@ -5040,10 +5066,10 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>99</v>
+        <v>337</v>
       </c>
       <c r="J15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="45" t="s">
         <v>79</v>
@@ -5079,7 +5105,7 @@
         <v>80</v>
       </c>
       <c r="X15" s="45">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="Y15" s="15">
         <v>50</v>
@@ -5098,7 +5124,7 @@
         <v>20</v>
       </c>
       <c r="AE15" s="15">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AF15" s="96" t="s">
         <v>84</v>
@@ -5515,16 +5541,16 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15" t="s">
-        <v>100</v>
+        <v>338</v>
       </c>
       <c r="J23" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="45" t="s">
         <v>79</v>
       </c>
       <c r="L23" s="45">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M23" s="148">
         <v>1</v>
@@ -5554,10 +5580,10 @@
         <v>80</v>
       </c>
       <c r="X23" s="45">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Y23" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="15" t="s">
         <v>51</v>
@@ -5575,7 +5601,7 @@
         <v>20</v>
       </c>
       <c r="AE23" s="15">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AF23" s="96" t="s">
         <v>84</v>
@@ -5685,7 +5711,7 @@
       <c r="U25" s="15"/>
       <c r="V25" s="96"/>
       <c r="W25" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="X25" s="45">
         <v>0.3</v>
@@ -6181,13 +6207,13 @@
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J34" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L34" s="41">
         <v>0</v>
@@ -6200,10 +6226,10 @@
       </c>
       <c r="O34" s="168"/>
       <c r="P34" s="41">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="Q34" s="41">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R34" s="133">
         <v>0</v>
@@ -6219,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="Y34" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="15" t="s">
         <v>51</v>
@@ -6237,7 +6263,7 @@
         <v>20</v>
       </c>
       <c r="AE34" s="15">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AF34" s="96" t="s">
         <v>84</v>
@@ -6343,7 +6369,7 @@
       <c r="U36" s="15"/>
       <c r="V36" s="96"/>
       <c r="W36" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="X36" s="15">
         <v>0.99</v>
@@ -6368,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="AF36" s="96" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AG36" s="15" t="s">
         <v>85</v>
@@ -6463,7 +6489,7 @@
         <v>1</v>
       </c>
       <c r="Y38" s="45">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Z38" s="15" t="s">
         <v>2</v>
@@ -6583,13 +6609,13 @@
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
       <c r="I40" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J40" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L40" s="41">
         <v>0</v>
@@ -6602,7 +6628,7 @@
       </c>
       <c r="O40" s="168"/>
       <c r="P40" s="41">
-        <v>515</v>
+        <v>2400</v>
       </c>
       <c r="Q40" s="41">
         <v>1</v>
@@ -6615,7 +6641,7 @@
       <c r="U40" s="15"/>
       <c r="V40" s="96"/>
       <c r="W40" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="X40" s="15">
         <v>1</v>
@@ -6642,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="AF40" s="96" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AG40" s="15"/>
       <c r="AH40" s="15"/>
@@ -6711,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="Y42" s="45">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Z42" s="15" t="s">
         <v>2</v>
@@ -6831,13 +6857,13 @@
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J44" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L44" s="41">
         <v>0</v>
@@ -6850,10 +6876,10 @@
       </c>
       <c r="O44" s="168"/>
       <c r="P44" s="41">
-        <v>620</v>
+        <v>4400</v>
       </c>
       <c r="Q44" s="41">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="R44" s="133">
         <v>0</v>
@@ -6863,7 +6889,7 @@
       <c r="U44" s="15"/>
       <c r="V44" s="96"/>
       <c r="W44" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="X44" s="15">
         <v>1</v>
@@ -6890,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="AF44" s="96" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AG44" s="15"/>
       <c r="AH44" s="15"/>
@@ -6979,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="Y46" s="45">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Z46" s="15" t="s">
         <v>2</v>
@@ -7099,10 +7125,10 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J48" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="41" t="s">
         <v>79</v>
@@ -7157,7 +7183,7 @@
         <v>20</v>
       </c>
       <c r="AE48" s="15">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AF48" s="96" t="s">
         <v>84</v>
@@ -7574,20 +7600,20 @@
       <c r="B56" s="15"/>
       <c r="C56" s="41"/>
       <c r="D56" s="98" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G56" s="15" t="b">
         <v>0</v>
       </c>
       <c r="H56" s="15"/>
       <c r="I56" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J56" s="42">
         <v>0</v>
@@ -7615,7 +7641,7 @@
         <v>10</v>
       </c>
       <c r="S56" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T56" s="15"/>
       <c r="U56" s="15"/>
@@ -7627,7 +7653,7 @@
         <v>0.8</v>
       </c>
       <c r="Y56" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="15" t="s">
         <v>51</v>
@@ -7645,7 +7671,7 @@
         <v>20</v>
       </c>
       <c r="AE56" s="15">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AF56" s="96" t="s">
         <v>84</v>
@@ -7757,7 +7783,7 @@
       <c r="U58" s="15"/>
       <c r="V58" s="96"/>
       <c r="W58" s="45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="X58" s="15">
         <v>1</v>
@@ -7978,7 +8004,7 @@
       <c r="U62" s="15"/>
       <c r="V62" s="96"/>
       <c r="W62" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="X62" s="15">
         <v>1</v>
@@ -8097,20 +8123,20 @@
       <c r="B64" s="15"/>
       <c r="C64" s="41"/>
       <c r="D64" s="98" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G64" s="15" t="b">
         <v>0</v>
       </c>
       <c r="H64" s="15"/>
       <c r="I64" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J64" s="15">
         <v>0</v>
@@ -8150,7 +8176,7 @@
         <v>0.8</v>
       </c>
       <c r="Y64" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="15" t="s">
         <v>51</v>
@@ -8168,7 +8194,7 @@
         <v>20</v>
       </c>
       <c r="AE64" s="15">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AF64" s="96" t="s">
         <v>84</v>
@@ -8282,7 +8308,7 @@
       <c r="U66" s="15"/>
       <c r="V66" s="96"/>
       <c r="W66" s="45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="X66" s="15">
         <v>1</v>
@@ -8503,7 +8529,7 @@
       <c r="U70" s="15"/>
       <c r="V70" s="96"/>
       <c r="W70" s="45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X70" s="15">
         <v>1</v>
@@ -8622,16 +8648,16 @@
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
       <c r="D72" s="96" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
       <c r="I72" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J72" s="15">
         <v>0</v>
@@ -8659,25 +8685,25 @@
         <v>10</v>
       </c>
       <c r="S72" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T72" s="15"/>
       <c r="U72" s="15"/>
       <c r="V72" s="96"/>
       <c r="W72" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="X72" s="15">
         <v>0.9</v>
       </c>
       <c r="Y72" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z72" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AA72" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AB72" s="15" t="s">
         <v>91</v>
@@ -8686,7 +8712,7 @@
       <c r="AD72" s="15"/>
       <c r="AE72" s="15"/>
       <c r="AF72" s="96" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AG72" s="15" t="s">
         <v>86</v>
@@ -8729,7 +8755,7 @@
         <v>50</v>
       </c>
       <c r="AW72" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AX72" s="15"/>
       <c r="AY72" s="16" t="s">
@@ -8742,7 +8768,7 @@
       <c r="C73" s="15"/>
       <c r="D73" s="96"/>
       <c r="E73" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
@@ -8798,7 +8824,7 @@
         <v>50</v>
       </c>
       <c r="AW73" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AX73" s="15"/>
       <c r="AY73" s="16"/>
@@ -8814,486 +8840,501 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B7:B11 AA15 C21:D21 E20:H21 B65:B68 B14:B21 C16:D18 E15:H17 C7:G7 AG48:AR48 AO17:AT18 AR37:AT37 AR16:AY16 AR45:AY45 AR41:AY41 AR24:AY26 AR35:AT35 AU35:AY37 AO66:AY67 AR65:AY65 AO70:AY70 AR69:AY69 AO58:AY59 AR57:AY57 AO62:AY62 AR61:AY61 S35:V38 S46:V46 S69:V70 S59:V59 S32:V32 S27:V29 S74:X75 S25:AB25 B5:G6 AO36:AT36 S40:V42 B33:H54 AC15:AF15 W16:AE16 W69:AE69 W65:AE65 W35:AN35 W61:AE61 Z74:AE75 AB22:AX22 S26:AE26 AF58:AI58 S24:AN24 S57:AE58 AF57:AN57 AY57:AY58 S71:AE73 AF71:AX75 S33:AX33 S43:AX43 AF47:AX47 S39:AX39 AD34:AT34 AA17:AE17 AF16:AN17 W20:AN20 W37:AN37 S45:AN45 W41:AN41 AD23:AF23 AD25:AE25 AF25:AQ26 AR20:AY20 X66:AE66 AF65:AN66 AY64:AY66 X70:AE70 AF69:AN70 AY69:AY75 AC36:AF36 X62:AE62 AF61:AN62 AY61:AY62 C9:G11 C8:F8 W40:AB40 S47:AE48 AD40:AR40 AD44:AR44 AY22:AY26 AY33:AY37 AY39:AY41 AY43:AY45 AY47:AY48 AY15:AY17 C22:H23 B56:N56 B64:N64 AJ15:AR15 AT15:AY15 AJ23:AR23 AT23:AY23 AT40 AT44 AT48 P15:W15 P23:W23 P34:AB34 P44:AB44 P56:AY56 P64:AX64 P21:V21 I21:N29 P16:V18 I16:N18 P32:R33 I32:N54 P22:Z22 P65:V67 C65:N67 P69:R75 B69:N75 P57:R59 C57:N59 P61:V62 B61:N62 P24:R29 P35:R43 P45:R48 P49:V54 P14:Z14 C14:N15 P12:AN13 K5:N13 P7:AE11 P5:AQ6 E19">
-    <cfRule type="cellIs" dxfId="104" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="253" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15:Y15">
-    <cfRule type="cellIs" dxfId="103" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="251" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF15">
-    <cfRule type="cellIs" dxfId="102" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="249" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG15:AI15">
-    <cfRule type="cellIs" dxfId="101" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="248" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15:AB15">
-    <cfRule type="cellIs" dxfId="100" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="247" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X33:Z33">
-    <cfRule type="cellIs" dxfId="99" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="241" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X34:Y34">
-    <cfRule type="cellIs" dxfId="98" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="240" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF34">
-    <cfRule type="cellIs" dxfId="97" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="238" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG34:AI34">
-    <cfRule type="cellIs" dxfId="96" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="237" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z34:AB34">
-    <cfRule type="cellIs" dxfId="95" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="236" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU34:AY34">
-    <cfRule type="cellIs" dxfId="94" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="231" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU17:AY18 AO19 W17:Y17">
-    <cfRule type="cellIs" dxfId="93" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="221" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X44:Y44">
+    <cfRule type="cellIs" dxfId="95" priority="202" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF44">
+    <cfRule type="cellIs" dxfId="94" priority="201" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG44:AI44">
+    <cfRule type="cellIs" dxfId="93" priority="200" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z44:AB44">
     <cfRule type="cellIs" dxfId="92" priority="199" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF44">
-    <cfRule type="cellIs" dxfId="91" priority="198" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG44:AI44">
-    <cfRule type="cellIs" dxfId="90" priority="197" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z44:AB44">
-    <cfRule type="cellIs" dxfId="89" priority="196" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AU44:AY44">
-    <cfRule type="cellIs" dxfId="88" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="196" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X48:Y48">
-    <cfRule type="cellIs" dxfId="87" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="184" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="86" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="182" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z48:AB48">
-    <cfRule type="cellIs" dxfId="85" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="181" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU48:AY48">
-    <cfRule type="cellIs" dxfId="84" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="178" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X40:Y40">
+    <cfRule type="cellIs" dxfId="86" priority="166" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF40">
+    <cfRule type="cellIs" dxfId="85" priority="165" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG40:AI40">
+    <cfRule type="cellIs" dxfId="84" priority="164" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z40:AB40">
     <cfRule type="cellIs" dxfId="83" priority="163" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF40">
-    <cfRule type="cellIs" dxfId="82" priority="162" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG40:AI40">
-    <cfRule type="cellIs" dxfId="81" priority="161" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z40:AB40">
-    <cfRule type="cellIs" dxfId="80" priority="160" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AU40:AY40">
-    <cfRule type="cellIs" dxfId="79" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="160" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22:AA23 B22:B32 C24:D29 E24:H28 C32:D32 E31:H32">
+    <cfRule type="cellIs" dxfId="81" priority="150" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X23:Y23">
+    <cfRule type="cellIs" dxfId="80" priority="149" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF23">
+    <cfRule type="cellIs" dxfId="79" priority="148" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG23:AI23">
     <cfRule type="cellIs" dxfId="78" priority="147" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X23:Y23">
+  <conditionalFormatting sqref="Z23:AB23">
     <cfRule type="cellIs" dxfId="77" priority="146" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF23">
-    <cfRule type="cellIs" dxfId="76" priority="145" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG23:AI23">
-    <cfRule type="cellIs" dxfId="75" priority="144" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z23:AB23">
-    <cfRule type="cellIs" dxfId="74" priority="143" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AO68">
-    <cfRule type="cellIs" dxfId="73" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="126" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z17">
+    <cfRule type="cellIs" dxfId="75" priority="116" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC44">
+    <cfRule type="cellIs" dxfId="74" priority="115" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC40">
+    <cfRule type="cellIs" dxfId="73" priority="114" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC34">
     <cfRule type="cellIs" dxfId="72" priority="113" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC44">
+  <conditionalFormatting sqref="AC23">
     <cfRule type="cellIs" dxfId="71" priority="112" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC40">
+  <conditionalFormatting sqref="AC25">
     <cfRule type="cellIs" dxfId="70" priority="111" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC34">
+  <conditionalFormatting sqref="AF48">
     <cfRule type="cellIs" dxfId="69" priority="110" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC23">
+  <conditionalFormatting sqref="AF48">
     <cfRule type="cellIs" dxfId="68" priority="109" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC25">
-    <cfRule type="cellIs" dxfId="67" priority="108" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF48">
-    <cfRule type="cellIs" dxfId="66" priority="107" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF48">
-    <cfRule type="cellIs" dxfId="65" priority="106" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="W70">
-    <cfRule type="cellIs" dxfId="64" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="102" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA36 W36">
+    <cfRule type="cellIs" dxfId="66" priority="99" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X36:Y36 AJ36:AN36">
+    <cfRule type="cellIs" dxfId="65" priority="98" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF36">
+    <cfRule type="cellIs" dxfId="64" priority="97" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG36:AI36">
     <cfRule type="cellIs" dxfId="63" priority="96" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X36:Y36 AJ36:AN36">
+  <conditionalFormatting sqref="Z36:AB36">
     <cfRule type="cellIs" dxfId="62" priority="95" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF36">
-    <cfRule type="cellIs" dxfId="61" priority="94" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG36:AI36">
-    <cfRule type="cellIs" dxfId="60" priority="93" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z36:AB36">
-    <cfRule type="cellIs" dxfId="59" priority="92" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B57:B60">
-    <cfRule type="cellIs" dxfId="58" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="90" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO60 AJ58:AN58">
-    <cfRule type="cellIs" dxfId="57" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="89" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W62">
-    <cfRule type="cellIs" dxfId="56" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="81" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W66">
-    <cfRule type="cellIs" dxfId="55" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="80" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H11 G8">
+    <cfRule type="cellIs" dxfId="57" priority="72" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF40">
+    <cfRule type="cellIs" dxfId="56" priority="71" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF44">
+    <cfRule type="cellIs" dxfId="55" priority="70" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:G13">
     <cfRule type="cellIs" dxfId="54" priority="69" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF40">
+  <conditionalFormatting sqref="H12:H13">
     <cfRule type="cellIs" dxfId="53" priority="68" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF44">
-    <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:G13">
-    <cfRule type="cellIs" dxfId="51" priority="66" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13">
-    <cfRule type="cellIs" dxfId="50" priority="65" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="W21:Y21 AA21:AY21">
-    <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="66" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z21">
-    <cfRule type="cellIs" dxfId="48" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="65" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W38:Y38 AA38:AY38">
+  <conditionalFormatting sqref="W38:X38 AA38:AY38">
+    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z38">
+    <cfRule type="cellIs" dxfId="49" priority="61" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W42:X42 AA42:AY42">
+    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z42">
     <cfRule type="cellIs" dxfId="47" priority="59" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z38">
+  <conditionalFormatting sqref="W46:X46 AA46:AY46">
     <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W42:Y42 AA42:AY42">
+  <conditionalFormatting sqref="Z46">
     <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z42">
-    <cfRule type="cellIs" dxfId="44" priority="56" operator="equal">
+  <conditionalFormatting sqref="AB14:AY14">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W46:Y46 AA46:AY46">
-    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
+  <conditionalFormatting sqref="AA14">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z46">
-    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
+  <conditionalFormatting sqref="I6:J13">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB14:AY14">
+  <conditionalFormatting sqref="I5:J5">
     <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA14">
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:J13">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J5">
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AR12:AY12 AO13:AY13">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO11">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10:AN11 AF8:AQ9 AF7:AN7 AR5:AY11">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR27:AY27 W27:AE27 AA28:AE28 AF27:AN28 W31:AN31 AR31:AY31 AY28 AR28:AT29">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU28:AY29 W28:Y28">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z28">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W32:Y32 AA32:AY32">
     <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU28:AY29 W28:Y28">
+  <conditionalFormatting sqref="Z32">
     <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z28">
+  <conditionalFormatting sqref="AO50:AT51 AR49:AY49 W49:AE49 AA50:AE50 AF49:AN50 W53:AN53 AR53:AY53 AY50">
     <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W32:Y32 AA32:AY32">
+  <conditionalFormatting sqref="AU50:AY51 AO52 W50:Y50">
     <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z32">
+  <conditionalFormatting sqref="Z50">
     <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO50:AT51 AR49:AY49 W49:AE49 AA50:AE50 AF49:AN50 W53:AN53 AR53:AY53 AY50">
+  <conditionalFormatting sqref="W54:Y54 AA54:AY54">
     <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU50:AY51 AO52 W50:Y50">
+  <conditionalFormatting sqref="Z54">
     <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z50">
+  <conditionalFormatting sqref="AS15">
     <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W54:Y54 AA54:AY54">
+  <conditionalFormatting sqref="AS23">
     <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z54">
+  <conditionalFormatting sqref="AS40">
     <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS15">
+  <conditionalFormatting sqref="AS44">
     <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS23">
+  <conditionalFormatting sqref="AS48">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS40">
+  <conditionalFormatting sqref="N15">
     <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS44">
+  <conditionalFormatting sqref="N23">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS48">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
-      <formula>"nil"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N56">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N64">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O64:O67 O69:O75 O56:O59 O61:O62 O21:O29 O32:O54 O5:O18">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO30">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO29:AQ29">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO28">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"nil"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y38">
     <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO29:AQ29">
+  <conditionalFormatting sqref="Y42">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO28">
+  <conditionalFormatting sqref="Y46">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"nil"</formula>
     </cfRule>
@@ -9322,39 +9363,39 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J2" s="1"/>
       <c r="Q2" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="T2" s="27" t="s">
         <v>128</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
         <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>133</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -9362,7 +9403,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="30" t="s">
@@ -9373,7 +9414,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
@@ -9384,72 +9425,72 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T12" s="31"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="17:20" x14ac:dyDescent="0.25">
       <c r="T17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q18" s="29"/>
       <c r="R18" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -9458,85 +9499,85 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="T19" s="31"/>
     </row>
     <row r="20" spans="17:20" x14ac:dyDescent="0.25">
       <c r="T20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q21" s="28"/>
       <c r="S21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q22" s="28"/>
       <c r="T22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q23" s="28"/>
       <c r="S23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q24" s="28"/>
       <c r="T24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q25" s="28"/>
       <c r="T25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q26" s="28"/>
       <c r="S26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q27" s="28"/>
       <c r="S27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q28" s="28"/>
       <c r="T28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q29" s="28"/>
       <c r="S29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q30" s="28"/>
       <c r="T30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q31" s="28"/>
       <c r="T31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q32" s="29"/>
       <c r="R32" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -9545,34 +9586,34 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T33" s="31"/>
     </row>
     <row r="34" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q34" s="28"/>
       <c r="T34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T35" s="31"/>
     </row>
     <row r="36" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q36" s="28"/>
       <c r="T36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q37" s="29"/>
       <c r="R37" s="30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -9581,28 +9622,28 @@
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T38" s="31"/>
     </row>
     <row r="39" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q39" s="28"/>
       <c r="T39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T40" s="31"/>
     </row>
     <row r="41" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q41" s="28"/>
       <c r="T41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -9643,7 +9684,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -9669,12 +9710,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -9714,10 +9755,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -9726,12 +9767,12 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -9743,18 +9784,18 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -9762,7 +9803,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -9788,7 +9829,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
         <v>79</v>
@@ -9799,7 +9840,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
         <v>79</v>
@@ -9810,7 +9851,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -9818,7 +9859,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -9839,13 +9880,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -9853,22 +9894,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -9880,15 +9921,15 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -9900,10 +9941,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -9929,10 +9970,10 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -9946,7 +9987,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -9971,10 +10012,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9983,53 +10024,53 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>188</v>
-      </c>
-      <c r="C6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -10092,7 +10133,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
@@ -10104,7 +10145,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="52"/>
       <c r="AA1" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
@@ -10117,7 +10158,7 @@
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -10158,7 +10199,7 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="49"/>
       <c r="AE2" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
@@ -10173,7 +10214,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>58</v>
@@ -10197,7 +10238,7 @@
         <v>63</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>64</v>
@@ -10228,7 +10269,7 @@
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X3" s="24" t="s">
         <v>26</v>
@@ -10248,7 +10289,7 @@
       </c>
       <c r="AD3" s="49"/>
       <c r="AE3" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>75</v>
@@ -10266,7 +10307,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>81</v>
@@ -10293,10 +10334,10 @@
         <v>5</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>85</v>
@@ -10311,10 +10352,10 @@
         <v>1</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
@@ -10356,7 +10397,7 @@
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E6" s="15">
         <v>0.9</v>
@@ -10374,7 +10415,7 @@
         <v>92</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="16" t="b">
         <v>1</v>
@@ -10462,7 +10503,7 @@
     </row>
     <row r="9" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E9" s="15">
         <v>1</v>
@@ -10609,7 +10650,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>81</v>
@@ -10621,7 +10662,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>81</v>
@@ -10633,7 +10674,7 @@
         <v>5</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N15" s="15" t="s">
         <v>85</v>
@@ -10648,51 +10689,51 @@
         <v>1</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="50"/>
       <c r="W15" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Z15" s="50"/>
       <c r="AA15" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD15" s="50"/>
       <c r="AE15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AF15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AI15" s="47"/>
     </row>
     <row r="16" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="15">
         <v>0.9</v>
@@ -10739,16 +10780,16 @@
       </c>
       <c r="AD16" s="50"/>
       <c r="AE16" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AF16" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AG16" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AI16" s="47"/>
     </row>
@@ -10783,7 +10824,7 @@
     </row>
     <row r="18" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -10895,7 +10936,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -10910,33 +10951,33 @@
         <v>96</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S21" s="15" t="b">
         <v>1</v>
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Z21" s="47"/>
       <c r="AA21" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB21" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD21" s="47"/>
       <c r="AE21"/>
@@ -10963,7 +11004,7 @@
     </row>
     <row r="23" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E23" s="15">
         <v>0.9</v>
@@ -10975,13 +11016,13 @@
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N23" s="15" t="s">
         <v>86</v>
@@ -11017,13 +11058,13 @@
       </c>
       <c r="Z23" s="53"/>
       <c r="AA23" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD23" s="50"/>
       <c r="AE23" s="16" t="s">
@@ -11033,7 +11074,7 @@
         <v>50</v>
       </c>
       <c r="AG23" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AI23" s="47"/>
     </row>
@@ -11055,13 +11096,13 @@
       </c>
       <c r="Z24" s="53"/>
       <c r="AA24" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD24" s="50"/>
       <c r="AE24" s="16" t="s">
@@ -11071,7 +11112,7 @@
         <v>50</v>
       </c>
       <c r="AG24" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AI24" s="47"/>
     </row>
@@ -11216,19 +11257,19 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>59</v>
@@ -11242,16 +11283,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
         <v>87</v>
@@ -11262,10 +11303,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
         <v>87</v>
@@ -11273,7 +11314,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -11285,7 +11326,7 @@
         <v>100000</v>
       </c>
       <c r="G5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11335,19 +11376,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>59</v>
@@ -11355,16 +11396,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
         <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
         <v>87</v>
@@ -11373,15 +11414,15 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -11392,7 +11433,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -11406,7 +11447,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D16">
         <v>26</v>
@@ -11460,226 +11501,226 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C4" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C5" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C7" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C8" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C9" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C10" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C11" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C12" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C13" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C14" s="34" t="e">
         <v>#REF!</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C15" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C16" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C17" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C18" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C19" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -11700,72 +11741,72 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C22" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C23" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C24" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C25" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C26" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -11778,86 +11819,86 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C28" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C29" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C30" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C31" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C32" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C33" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -11870,72 +11911,72 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C35" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C36" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C37" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C38" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C39" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -11956,16 +11997,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C42" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -11978,226 +12019,226 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C44" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C45" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C46" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C47" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C48" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C49" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C50" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C51" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C52" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C53" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C54" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C55" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C56" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C57" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C58" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C59" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -12210,86 +12251,86 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C61" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C62" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C63" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C64" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C65" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C66" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -12310,44 +12351,44 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C69" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C70" s="32" t="e">
         <v>#REF!</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C71" s="33" t="e">
         <v>#REF!</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs/Asset Model - Pole - Timber.xlsx
+++ b/data/inputs/Asset Model - Pole - Timber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utilnsw-my.sharepoint.com/personal/greg_bell_essentialenergy_com_au/Documents/Documents/pof/data/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreseder\OneDrive - KPMG\Documents\3. Client\Essential Energy\Probability of Failure Model\pof\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7781D9CD-C91C-4C31-A59B-C32A97BBAFAB}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{9B2AD8C4-B064-4080-85F1-E579881B33AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{4B131F90-33A1-4D06-86F5-495B784EB217}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="600" windowWidth="19200" windowHeight="23400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -98,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO5" authorId="2" shapeId="0" xr:uid="{AAC0151B-041E-4F98-A281-736171BA5E27}">
+    <comment ref="AP5" authorId="2" shapeId="0" xr:uid="{AAC0151B-041E-4F98-A281-736171BA5E27}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -171,7 +170,7 @@
     Break it out later</t>
       </text>
     </comment>
-    <comment ref="AC56" authorId="8" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+    <comment ref="AD56" authorId="8" shapeId="0" xr:uid="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -196,7 +195,7 @@
     How do we deal with failures that accelerate other failure modes?</t>
       </text>
     </comment>
-    <comment ref="AC64" authorId="11" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+    <comment ref="AD64" authorId="11" shapeId="0" xr:uid="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -234,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="339">
   <si>
     <t>Cause</t>
   </si>
@@ -2927,7 +2926,7 @@
   <threadedComment ref="G5" dT="2020-09-09T03:31:05.38" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{EDC7C1E7-87D8-4DCB-A596-9C8067A50A9A}">
     <text>125</text>
   </threadedComment>
-  <threadedComment ref="AO5" dT="2020-09-09T03:27:17.71" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{AAC0151B-041E-4F98-A281-736171BA5E27}">
+  <threadedComment ref="AP5" dT="2020-09-09T03:27:17.71" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{AAC0151B-041E-4F98-A281-736171BA5E27}">
     <text>20mm of wallthickness loss not detectable</text>
   </threadedComment>
   <threadedComment ref="G6" dT="2020-09-09T03:31:13.87" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{3FC98A93-1BD2-46CA-8439-5A569DD9E38A}">
@@ -2945,7 +2944,7 @@
   <threadedComment ref="I56" dT="2020-09-09T04:27:22.95" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{F6470554-740D-4816-85E3-E23C5729D666}">
     <text>Break it out later</text>
   </threadedComment>
-  <threadedComment ref="AC56" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
+  <threadedComment ref="AD56" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{9FFAA4E9-09CD-479C-BFE9-ED94809A5C81}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
@@ -2955,7 +2954,7 @@
   <threadedComment ref="D64" dT="2020-09-08T22:23:06.80" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{C4841757-EFF4-403A-A229-DD7AF8BE79E4}">
     <text>How do we deal with failures that accelerate other failure modes?</text>
   </threadedComment>
-  <threadedComment ref="AC64" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
+  <threadedComment ref="AD64" dT="2020-09-08T22:26:58.92" personId="{382B0E3D-8CF3-4AD9-8A08-175DF2A62319}" id="{1E2E6910-FDBF-4DAD-9ACF-D9553B573D8C}">
     <text>How do you want to deal with inspections that also include some of repair, ie. lubrication? 
 Add an additional task?</text>
   </threadedComment>
@@ -3890,10 +3889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0734F-FFBE-4DAF-BDE5-A12359370A0D}">
-  <dimension ref="A1:AY78"/>
+  <dimension ref="A1:AZ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3904,7 +3903,7 @@
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" style="137" customWidth="1"/>
@@ -3918,32 +3917,33 @@
     <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.7109375" style="97" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="23.5703125" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" customWidth="1"/>
-    <col min="30" max="30" width="8.85546875" customWidth="1"/>
-    <col min="31" max="31" width="9.5703125" customWidth="1"/>
-    <col min="32" max="32" width="23.5703125" style="97" customWidth="1"/>
-    <col min="33" max="33" width="12" customWidth="1"/>
-    <col min="34" max="35" width="11.5703125" customWidth="1"/>
-    <col min="36" max="39" width="8.85546875" style="17" customWidth="1"/>
-    <col min="40" max="40" width="8.85546875" style="110" customWidth="1"/>
-    <col min="41" max="41" width="17.85546875" style="88" customWidth="1"/>
-    <col min="42" max="42" width="14.140625" style="20" customWidth="1"/>
-    <col min="43" max="43" width="14.42578125" style="121" customWidth="1"/>
-    <col min="44" max="45" width="8.85546875" style="17" customWidth="1"/>
-    <col min="46" max="46" width="8.85546875" style="110" customWidth="1"/>
-    <col min="47" max="47" width="17.85546875" style="77" customWidth="1"/>
-    <col min="48" max="48" width="8.85546875" style="20" customWidth="1"/>
-    <col min="49" max="49" width="16.28515625" customWidth="1"/>
-    <col min="50" max="50" width="8.85546875" customWidth="1"/>
-    <col min="51" max="51" width="16.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" customWidth="1"/>
+    <col min="31" max="31" width="8.85546875" customWidth="1"/>
+    <col min="32" max="32" width="9.5703125" customWidth="1"/>
+    <col min="33" max="33" width="23.5703125" style="97" customWidth="1"/>
+    <col min="34" max="34" width="12" customWidth="1"/>
+    <col min="35" max="36" width="11.5703125" customWidth="1"/>
+    <col min="37" max="40" width="8.85546875" style="17" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" style="110" customWidth="1"/>
+    <col min="42" max="42" width="17.85546875" style="88" customWidth="1"/>
+    <col min="43" max="43" width="14.140625" style="20" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" style="121" customWidth="1"/>
+    <col min="45" max="46" width="8.85546875" style="17" customWidth="1"/>
+    <col min="47" max="47" width="8.85546875" style="110" customWidth="1"/>
+    <col min="48" max="48" width="17.85546875" style="77" customWidth="1"/>
+    <col min="49" max="49" width="8.85546875" style="20" customWidth="1"/>
+    <col min="50" max="50" width="16.28515625" customWidth="1"/>
+    <col min="51" max="51" width="8.85546875" customWidth="1"/>
+    <col min="52" max="52" width="16.140625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>39</v>
@@ -3985,32 +3985,33 @@
       <c r="AC1" s="25"/>
       <c r="AD1" s="25"/>
       <c r="AE1" s="25"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="2"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="102"/>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
-      <c r="AJ1" s="66" t="s">
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="22"/>
       <c r="AL1" s="22"/>
       <c r="AM1" s="22"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="113"/>
-      <c r="AR1" s="67" t="s">
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="104"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="113"/>
+      <c r="AS1" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="91"/>
+      <c r="AT1" s="67"/>
       <c r="AU1" s="91"/>
       <c r="AV1" s="91"/>
-      <c r="AW1" s="67"/>
+      <c r="AW1" s="91"/>
       <c r="AX1" s="67"/>
-      <c r="AY1" s="21"/>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="21"/>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>45</v>
@@ -4058,46 +4059,47 @@
       <c r="AA2" s="25"/>
       <c r="AB2" s="25"/>
       <c r="AC2" s="25"/>
-      <c r="AD2" s="25" t="s">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="102" t="s">
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
-      <c r="AJ2" s="66" t="s">
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="AK2" s="22"/>
       <c r="AL2" s="22"/>
       <c r="AM2" s="22"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="66" t="s">
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="113"/>
-      <c r="AR2" s="67" t="s">
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="113"/>
+      <c r="AS2" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="124"/>
-      <c r="AU2" s="72" t="s">
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="124"/>
+      <c r="AV2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="91"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="124"/>
-      <c r="AY2" s="21" t="s">
+      <c r="AW2" s="91"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="124"/>
+      <c r="AZ2" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -4168,91 +4170,94 @@
         <v>56</v>
       </c>
       <c r="X3" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Z3" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="AA3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="45" t="s">
+      <c r="AB3" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AC3" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AC3" s="45" t="s">
+      <c r="AD3" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="AD3" s="25" t="s">
+      <c r="AE3" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AE3" s="25" t="s">
+      <c r="AF3" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AF3" s="102" t="s">
+      <c r="AG3" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="45" t="s">
+      <c r="AH3" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="AH3" s="45" t="s">
+      <c r="AI3" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="AI3" s="45" t="s">
+      <c r="AJ3" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="AJ3" s="66" t="s">
+      <c r="AK3" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="AK3" s="22" t="s">
+      <c r="AL3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AL3" s="22" t="s">
+      <c r="AM3" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AM3" s="44" t="s">
+      <c r="AN3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AN3" s="105" t="s">
+      <c r="AO3" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="AO3" s="66" t="s">
+      <c r="AP3" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="AP3" s="24" t="s">
+      <c r="AQ3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="AQ3" s="113" t="s">
+      <c r="AR3" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="AR3" s="67" t="s">
+      <c r="AS3" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="AS3" s="67" t="s">
+      <c r="AT3" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="AT3" s="124" t="s">
+      <c r="AU3" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="AU3" s="72" t="s">
+      <c r="AV3" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="AV3" s="91" t="s">
+      <c r="AW3" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="AW3" s="67" t="s">
+      <c r="AX3" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="AX3" s="124" t="s">
+      <c r="AY3" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="AY3" s="21" t="s">
+      <c r="AZ3" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -4284,28 +4289,29 @@
       <c r="AC4" s="59"/>
       <c r="AD4" s="59"/>
       <c r="AE4" s="59"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="95"/>
       <c r="AH4" s="59"/>
       <c r="AI4" s="59"/>
-      <c r="AJ4" s="61"/>
+      <c r="AJ4" s="59"/>
       <c r="AK4" s="61"/>
       <c r="AL4" s="61"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="62"/>
-      <c r="AQ4" s="114"/>
-      <c r="AR4" s="61"/>
+      <c r="AM4" s="61"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="81"/>
+      <c r="AQ4" s="62"/>
+      <c r="AR4" s="114"/>
       <c r="AS4" s="61"/>
-      <c r="AT4" s="125"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="62"/>
-      <c r="AW4" s="59"/>
+      <c r="AT4" s="61"/>
+      <c r="AU4" s="125"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="62"/>
       <c r="AX4" s="59"/>
-      <c r="AY4" s="61"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="61"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -4363,68 +4369,71 @@
       <c r="W5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="X5" s="45">
+      <c r="X5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="45">
         <v>0.96</v>
       </c>
-      <c r="Y5" s="45">
+      <c r="Z5" s="45">
         <v>50</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="AA5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AB5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" s="15" t="s">
+      <c r="AC5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AC5" s="15" t="s">
+      <c r="AD5" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AD5" s="41">
+      <c r="AE5" s="41">
         <v>20</v>
       </c>
-      <c r="AE5" s="41">
+      <c r="AF5" s="41">
         <v>4.5</v>
       </c>
-      <c r="AF5" s="96" t="s">
+      <c r="AG5" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="AG5" s="15" t="s">
+      <c r="AH5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AH5" s="15" t="s">
+      <c r="AI5" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="AI5" s="15" t="s">
+      <c r="AJ5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AJ5" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="18"/>
+      <c r="AK5" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="AL5" s="18"/>
       <c r="AM5" s="18"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="89" t="s">
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AP5" s="90"/>
-      <c r="AQ5" s="115" t="s">
+      <c r="AQ5" s="90"/>
+      <c r="AR5" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="AR5" s="18"/>
-      <c r="AS5" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="74"/>
-      <c r="AV5" s="92"/>
-      <c r="AW5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="92"/>
       <c r="AX5" s="18"/>
-      <c r="AY5" s="16"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="16"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -4461,40 +4470,41 @@
       <c r="U6" s="15"/>
       <c r="V6" s="96"/>
       <c r="W6" s="15"/>
-      <c r="X6" s="45"/>
+      <c r="X6" s="15"/>
       <c r="Y6" s="45"/>
-      <c r="Z6" s="15"/>
+      <c r="Z6" s="45"/>
       <c r="AA6" s="15"/>
       <c r="AB6" s="15"/>
       <c r="AC6" s="15"/>
-      <c r="AD6" s="41"/>
+      <c r="AD6" s="15"/>
       <c r="AE6" s="41"/>
-      <c r="AF6" s="96"/>
-      <c r="AG6" s="15"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="96"/>
       <c r="AH6" s="15"/>
       <c r="AI6" s="15"/>
-      <c r="AJ6" s="18"/>
+      <c r="AJ6" s="15"/>
       <c r="AK6" s="18"/>
       <c r="AL6" s="18"/>
       <c r="AM6" s="18"/>
-      <c r="AN6" s="107"/>
-      <c r="AO6" s="89" t="s">
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="115" t="s">
+      <c r="AQ6" s="90"/>
+      <c r="AR6" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="AR6" s="18"/>
       <c r="AS6" s="18"/>
-      <c r="AT6" s="107"/>
-      <c r="AU6" s="74"/>
-      <c r="AV6" s="92"/>
-      <c r="AW6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="107"/>
+      <c r="AV6" s="74"/>
+      <c r="AW6" s="92"/>
       <c r="AX6" s="18"/>
-      <c r="AY6" s="16"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="16"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -4534,28 +4544,29 @@
       <c r="AC7" s="69"/>
       <c r="AD7" s="69"/>
       <c r="AE7" s="69"/>
-      <c r="AF7" s="103"/>
-      <c r="AG7" s="69"/>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="103"/>
       <c r="AH7" s="69"/>
       <c r="AI7" s="69"/>
-      <c r="AJ7" s="70"/>
+      <c r="AJ7" s="69"/>
       <c r="AK7" s="70"/>
       <c r="AL7" s="70"/>
       <c r="AM7" s="70"/>
-      <c r="AN7" s="108"/>
-      <c r="AO7" s="83"/>
-      <c r="AP7" s="68"/>
-      <c r="AQ7" s="116"/>
-      <c r="AR7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="108"/>
+      <c r="AP7" s="83"/>
+      <c r="AQ7" s="68"/>
+      <c r="AR7" s="116"/>
       <c r="AS7" s="70"/>
-      <c r="AT7" s="108"/>
-      <c r="AU7" s="75"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="69"/>
+      <c r="AT7" s="70"/>
+      <c r="AU7" s="108"/>
+      <c r="AV7" s="75"/>
+      <c r="AW7" s="71"/>
       <c r="AX7" s="69"/>
-      <c r="AY7" s="70"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="70"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -4579,76 +4590,79 @@
       <c r="W8" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="X8" s="42">
+      <c r="X8" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="42">
         <v>0.96</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="Z8" s="15">
         <v>100</v>
       </c>
-      <c r="Z8" s="15" t="s">
+      <c r="AA8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AA8" s="15" t="s">
+      <c r="AB8" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AB8" s="15" t="s">
+      <c r="AC8" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AC8" s="15" t="s">
+      <c r="AD8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="96"/>
-      <c r="AG8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="96"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
-      <c r="AJ8" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="AJ8" s="15"/>
       <c r="AK8" s="16" t="b">
         <v>1</v>
       </c>
       <c r="AL8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="109"/>
-      <c r="AO8" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="109"/>
+      <c r="AP8" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AP8" s="80">
+      <c r="AQ8" s="80">
         <v>50</v>
       </c>
-      <c r="AQ8" s="117" t="s">
+      <c r="AR8" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="AR8" s="16" t="b">
-        <v>0</v>
-      </c>
       <c r="AS8" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT8" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="82" t="s">
+      <c r="AT8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AV8" s="92">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="18" t="s">
+      <c r="AW8" s="92">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AX8" s="18" t="s">
+      <c r="AY8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AY8" s="170" t="s">
+      <c r="AZ8" s="170" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -4680,42 +4694,43 @@
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
       <c r="AE9" s="15"/>
-      <c r="AF9" s="96"/>
-      <c r="AG9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="96"/>
       <c r="AH9" s="15"/>
       <c r="AI9" s="15"/>
-      <c r="AJ9" s="16"/>
+      <c r="AJ9" s="15"/>
       <c r="AK9" s="16"/>
       <c r="AL9" s="16"/>
       <c r="AM9" s="16"/>
-      <c r="AN9" s="109"/>
-      <c r="AO9" s="82" t="s">
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="109"/>
+      <c r="AP9" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AP9" s="80">
+      <c r="AQ9" s="80">
         <v>50</v>
       </c>
-      <c r="AQ9" s="117" t="s">
+      <c r="AR9" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="AR9" s="16"/>
       <c r="AS9" s="16"/>
-      <c r="AT9" s="109"/>
-      <c r="AU9" s="82" t="s">
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="109"/>
+      <c r="AV9" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AV9" s="92">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="18" t="s">
+      <c r="AW9" s="92">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AX9" s="18" t="s">
+      <c r="AY9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AY9" s="170"/>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ9" s="170"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -4747,28 +4762,29 @@
       <c r="AC10" s="69"/>
       <c r="AD10" s="69"/>
       <c r="AE10" s="69"/>
-      <c r="AF10" s="103"/>
-      <c r="AG10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="103"/>
       <c r="AH10" s="69"/>
       <c r="AI10" s="69"/>
-      <c r="AJ10" s="70"/>
+      <c r="AJ10" s="69"/>
       <c r="AK10" s="70"/>
       <c r="AL10" s="70"/>
       <c r="AM10" s="70"/>
-      <c r="AN10" s="108"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="68"/>
-      <c r="AQ10" s="116"/>
-      <c r="AR10" s="70"/>
+      <c r="AN10" s="70"/>
+      <c r="AO10" s="108"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="68"/>
+      <c r="AR10" s="116"/>
       <c r="AS10" s="70"/>
-      <c r="AT10" s="108"/>
-      <c r="AU10" s="75"/>
-      <c r="AV10" s="71"/>
-      <c r="AW10" s="69"/>
+      <c r="AT10" s="70"/>
+      <c r="AU10" s="108"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="71"/>
       <c r="AX10" s="69"/>
-      <c r="AY10" s="70"/>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="70"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -4797,73 +4813,76 @@
       <c r="X11" s="15">
         <v>1</v>
       </c>
-      <c r="Y11" s="45">
+      <c r="Y11" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="45">
         <v>3500</v>
       </c>
-      <c r="Z11" s="15" t="s">
+      <c r="AA11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AA11" s="15" t="s">
+      <c r="AB11" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AB11" s="15" t="s">
+      <c r="AC11" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AC11" s="15" t="s">
+      <c r="AD11" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="96"/>
-      <c r="AG11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="96"/>
       <c r="AH11" s="15"/>
       <c r="AI11" s="15"/>
-      <c r="AJ11" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="AJ11" s="15"/>
       <c r="AK11" s="16" t="b">
         <v>1</v>
       </c>
       <c r="AL11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="16"/>
-      <c r="AN11" s="109"/>
-      <c r="AO11" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="109"/>
+      <c r="AP11" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="AP11" s="80">
+      <c r="AQ11" s="80">
         <v>0.5</v>
       </c>
-      <c r="AQ11" s="118">
+      <c r="AR11" s="118">
         <v>3</v>
       </c>
-      <c r="AR11" s="16" t="b">
-        <v>0</v>
-      </c>
       <c r="AS11" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT11" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="76" t="s">
+      <c r="AT11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="AV11" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="15" t="s">
+      <c r="AW11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AX11" s="15" t="s">
+      <c r="AY11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY11" s="16" t="s">
+      <c r="AZ11" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -4895,28 +4914,29 @@
       <c r="AC12" s="69"/>
       <c r="AD12" s="69"/>
       <c r="AE12" s="69"/>
-      <c r="AF12" s="103"/>
-      <c r="AG12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="103"/>
       <c r="AH12" s="69"/>
       <c r="AI12" s="69"/>
-      <c r="AJ12" s="70"/>
+      <c r="AJ12" s="69"/>
       <c r="AK12" s="70"/>
       <c r="AL12" s="70"/>
       <c r="AM12" s="70"/>
-      <c r="AN12" s="108"/>
-      <c r="AO12" s="83"/>
-      <c r="AP12" s="68"/>
-      <c r="AQ12" s="116"/>
-      <c r="AR12" s="70"/>
+      <c r="AN12" s="70"/>
+      <c r="AO12" s="108"/>
+      <c r="AP12" s="83"/>
+      <c r="AQ12" s="68"/>
+      <c r="AR12" s="116"/>
       <c r="AS12" s="70"/>
-      <c r="AT12" s="108"/>
-      <c r="AU12" s="75"/>
-      <c r="AV12" s="71"/>
-      <c r="AW12" s="69"/>
+      <c r="AT12" s="70"/>
+      <c r="AU12" s="108"/>
+      <c r="AV12" s="75"/>
+      <c r="AW12" s="71"/>
       <c r="AX12" s="69"/>
-      <c r="AY12" s="70"/>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="70"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -4945,65 +4965,68 @@
       <c r="X13" s="15">
         <v>1</v>
       </c>
-      <c r="Y13" s="45">
+      <c r="Y13" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="45">
         <v>7000</v>
       </c>
-      <c r="Z13" s="15" t="s">
+      <c r="AA13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AA13" s="15" t="s">
+      <c r="AB13" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AB13" s="15" t="s">
+      <c r="AC13" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AC13" s="15" t="s">
+      <c r="AD13" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="96"/>
       <c r="AH13" s="15"/>
       <c r="AI13" s="15"/>
-      <c r="AJ13" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="109"/>
-      <c r="AO13" s="82"/>
-      <c r="AP13" s="80"/>
-      <c r="AQ13" s="118"/>
-      <c r="AR13" s="16" t="b">
-        <v>0</v>
-      </c>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="109"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="80"/>
+      <c r="AR13" s="118"/>
       <c r="AS13" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT13" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="76" t="s">
+      <c r="AT13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="AV13" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="15" t="s">
+      <c r="AW13" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AX13" s="15" t="s">
+      <c r="AY13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY13" s="16" t="s">
+      <c r="AZ13" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -5035,28 +5058,29 @@
       <c r="AC14" s="56"/>
       <c r="AD14" s="56"/>
       <c r="AE14" s="56"/>
-      <c r="AF14" s="101"/>
-      <c r="AG14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="101"/>
       <c r="AH14" s="56"/>
       <c r="AI14" s="56"/>
-      <c r="AJ14" s="57"/>
+      <c r="AJ14" s="56"/>
       <c r="AK14" s="57"/>
       <c r="AL14" s="57"/>
       <c r="AM14" s="57"/>
-      <c r="AN14" s="111"/>
-      <c r="AO14" s="85"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="120"/>
-      <c r="AR14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="111"/>
+      <c r="AP14" s="85"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="120"/>
       <c r="AS14" s="57"/>
-      <c r="AT14" s="111"/>
-      <c r="AU14" s="78"/>
-      <c r="AV14" s="58"/>
-      <c r="AW14" s="56"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="111"/>
+      <c r="AV14" s="78"/>
+      <c r="AW14" s="58"/>
       <c r="AX14" s="56"/>
-      <c r="AY14" s="57"/>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY14" s="56"/>
+      <c r="AZ14" s="57"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -5104,62 +5128,65 @@
       <c r="W15" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="X15" s="45">
+      <c r="X15" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="45">
         <v>0.96</v>
       </c>
-      <c r="Y15" s="15">
+      <c r="Z15" s="15">
         <v>50</v>
       </c>
-      <c r="Z15" s="15" t="s">
+      <c r="AA15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AA15" s="15" t="s">
+      <c r="AB15" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AB15" s="15" t="s">
+      <c r="AC15" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15">
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15">
         <v>20</v>
       </c>
-      <c r="AE15" s="15">
+      <c r="AF15" s="15">
         <v>4.5</v>
       </c>
-      <c r="AF15" s="96" t="s">
+      <c r="AG15" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="AG15" s="15" t="s">
+      <c r="AH15" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AH15" s="15" t="s">
+      <c r="AI15" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="AI15" s="15" t="s">
+      <c r="AJ15" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AJ15" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK15" s="18"/>
+      <c r="AK15" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="AL15" s="18"/>
       <c r="AM15" s="18"/>
-      <c r="AN15" s="107"/>
-      <c r="AO15" s="84"/>
-      <c r="AP15" s="18"/>
-      <c r="AQ15" s="107"/>
-      <c r="AR15" s="16"/>
-      <c r="AS15" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="107"/>
-      <c r="AU15" s="74"/>
-      <c r="AV15" s="92"/>
-      <c r="AW15" s="18"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="107"/>
+      <c r="AP15" s="84"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="107"/>
+      <c r="AS15" s="16"/>
+      <c r="AT15" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="107"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="92"/>
       <c r="AX15" s="18"/>
-      <c r="AY15" s="16"/>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="16"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -5190,28 +5217,29 @@
       <c r="AC16" s="69"/>
       <c r="AD16" s="69"/>
       <c r="AE16" s="69"/>
-      <c r="AF16" s="103"/>
-      <c r="AG16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="103"/>
       <c r="AH16" s="69"/>
       <c r="AI16" s="69"/>
-      <c r="AJ16" s="70"/>
+      <c r="AJ16" s="69"/>
       <c r="AK16" s="70"/>
       <c r="AL16" s="70"/>
       <c r="AM16" s="70"/>
-      <c r="AN16" s="108"/>
-      <c r="AO16" s="83"/>
-      <c r="AP16" s="68"/>
-      <c r="AQ16" s="116"/>
-      <c r="AR16" s="70"/>
+      <c r="AN16" s="70"/>
+      <c r="AO16" s="108"/>
+      <c r="AP16" s="83"/>
+      <c r="AQ16" s="68"/>
+      <c r="AR16" s="116"/>
       <c r="AS16" s="70"/>
-      <c r="AT16" s="108"/>
-      <c r="AU16" s="75"/>
-      <c r="AV16" s="71"/>
-      <c r="AW16" s="69"/>
+      <c r="AT16" s="70"/>
+      <c r="AU16" s="108"/>
+      <c r="AV16" s="75"/>
+      <c r="AW16" s="71"/>
       <c r="AX16" s="69"/>
-      <c r="AY16" s="70"/>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY16" s="69"/>
+      <c r="AZ16" s="70"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -5240,72 +5268,75 @@
         <v>1</v>
       </c>
       <c r="Y17" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="15">
         <v>3500</v>
       </c>
-      <c r="Z17" s="15" t="s">
+      <c r="AA17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AA17" s="15" t="s">
+      <c r="AB17" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AB17" s="15" t="s">
+      <c r="AC17" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AC17" s="15" t="s">
+      <c r="AD17" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="AD17" s="15"/>
       <c r="AE17" s="15"/>
-      <c r="AF17" s="96"/>
-      <c r="AG17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="96"/>
       <c r="AH17" s="15"/>
       <c r="AI17" s="15"/>
-      <c r="AJ17" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="AJ17" s="15"/>
       <c r="AK17" s="16" t="b">
         <v>1</v>
       </c>
       <c r="AL17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="109"/>
-      <c r="AO17" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="109"/>
+      <c r="AP17" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="AP17" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="119">
+      <c r="AQ17" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="119">
         <v>50</v>
       </c>
-      <c r="AR17" s="16" t="b">
-        <v>0</v>
-      </c>
       <c r="AS17" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT17" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="76" t="s">
+      <c r="AT17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="AV17" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW17" s="15" t="s">
+      <c r="AW17" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AX17" s="15" t="s">
+      <c r="AY17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY17" s="16" t="s">
+      <c r="AZ17" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -5333,48 +5364,49 @@
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
       <c r="AE18" s="15"/>
-      <c r="AF18" s="96"/>
-      <c r="AG18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="96"/>
       <c r="AH18" s="15"/>
       <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
       <c r="AK18" s="15"/>
       <c r="AL18" s="15"/>
       <c r="AM18" s="15"/>
-      <c r="AN18" s="96"/>
-      <c r="AO18" s="84" t="s">
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="96"/>
+      <c r="AP18" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AP18" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="119">
+      <c r="AQ18" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="119">
         <v>50</v>
       </c>
-      <c r="AR18" s="16"/>
       <c r="AS18" s="16"/>
-      <c r="AT18" s="109"/>
-      <c r="AU18" s="76"/>
-      <c r="AV18" s="19"/>
-      <c r="AW18" s="15"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="109"/>
+      <c r="AV18" s="76"/>
+      <c r="AW18" s="19"/>
       <c r="AX18" s="15"/>
-      <c r="AY18" s="16"/>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY18" s="15"/>
+      <c r="AZ18" s="16"/>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="E19" s="15"/>
-      <c r="AO19" s="84" t="s">
+      <c r="AP19" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AP19" s="20">
+      <c r="AQ19" s="20">
         <v>0.5</v>
       </c>
-      <c r="AQ19" s="121">
+      <c r="AR19" s="121">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="W20" s="69"/>
@@ -5386,28 +5418,29 @@
       <c r="AC20" s="69"/>
       <c r="AD20" s="69"/>
       <c r="AE20" s="69"/>
-      <c r="AF20" s="103"/>
-      <c r="AG20" s="69"/>
+      <c r="AF20" s="69"/>
+      <c r="AG20" s="103"/>
       <c r="AH20" s="69"/>
       <c r="AI20" s="69"/>
-      <c r="AJ20" s="70"/>
+      <c r="AJ20" s="69"/>
       <c r="AK20" s="70"/>
       <c r="AL20" s="70"/>
       <c r="AM20" s="70"/>
-      <c r="AN20" s="108"/>
-      <c r="AO20" s="83"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="116"/>
-      <c r="AR20" s="70"/>
+      <c r="AN20" s="70"/>
+      <c r="AO20" s="108"/>
+      <c r="AP20" s="83"/>
+      <c r="AQ20" s="68"/>
+      <c r="AR20" s="116"/>
       <c r="AS20" s="70"/>
-      <c r="AT20" s="108"/>
-      <c r="AU20" s="75"/>
-      <c r="AV20" s="71"/>
-      <c r="AW20" s="69"/>
+      <c r="AT20" s="70"/>
+      <c r="AU20" s="108"/>
+      <c r="AV20" s="75"/>
+      <c r="AW20" s="71"/>
       <c r="AX20" s="69"/>
-      <c r="AY20" s="70"/>
-    </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY20" s="69"/>
+      <c r="AZ20" s="70"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="E21" s="15"/>
@@ -5420,65 +5453,68 @@
       <c r="X21" s="15">
         <v>1</v>
       </c>
-      <c r="Y21" s="45">
+      <c r="Y21" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="45">
         <v>7000</v>
       </c>
-      <c r="Z21" s="15" t="s">
+      <c r="AA21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AA21" s="15" t="s">
+      <c r="AB21" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AB21" s="15" t="s">
+      <c r="AC21" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AC21" s="15" t="s">
+      <c r="AD21" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
-      <c r="AF21" s="96"/>
-      <c r="AG21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="96"/>
       <c r="AH21" s="15"/>
       <c r="AI21" s="15"/>
-      <c r="AJ21" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK21" s="16"/>
-      <c r="AL21" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="16"/>
-      <c r="AN21" s="109"/>
-      <c r="AO21" s="84"/>
-      <c r="AP21" s="19"/>
-      <c r="AQ21" s="119"/>
-      <c r="AR21" s="16" t="b">
-        <v>0</v>
-      </c>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="16"/>
+      <c r="AO21" s="109"/>
+      <c r="AP21" s="84"/>
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="119"/>
       <c r="AS21" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT21" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="76" t="s">
+      <c r="AT21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="AV21" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW21" s="15" t="s">
+      <c r="AW21" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX21" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AX21" s="15" t="s">
+      <c r="AY21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY21" s="16" t="s">
+      <c r="AZ21" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -5510,28 +5546,29 @@
       <c r="AC22" s="56"/>
       <c r="AD22" s="56"/>
       <c r="AE22" s="56"/>
-      <c r="AF22" s="101"/>
-      <c r="AG22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="101"/>
       <c r="AH22" s="56"/>
       <c r="AI22" s="56"/>
-      <c r="AJ22" s="57"/>
+      <c r="AJ22" s="56"/>
       <c r="AK22" s="57"/>
       <c r="AL22" s="57"/>
       <c r="AM22" s="57"/>
-      <c r="AN22" s="111"/>
-      <c r="AO22" s="85"/>
-      <c r="AP22" s="58"/>
-      <c r="AQ22" s="120"/>
-      <c r="AR22" s="57"/>
+      <c r="AN22" s="57"/>
+      <c r="AO22" s="111"/>
+      <c r="AP22" s="85"/>
+      <c r="AQ22" s="58"/>
+      <c r="AR22" s="120"/>
       <c r="AS22" s="57"/>
-      <c r="AT22" s="111"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="58"/>
-      <c r="AW22" s="56"/>
+      <c r="AT22" s="57"/>
+      <c r="AU22" s="111"/>
+      <c r="AV22" s="78"/>
+      <c r="AW22" s="58"/>
       <c r="AX22" s="56"/>
-      <c r="AY22" s="57"/>
-    </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY22" s="56"/>
+      <c r="AZ22" s="57"/>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -5579,64 +5616,67 @@
       <c r="W23" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="X23" s="45">
+      <c r="X23" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="45">
         <v>0.95</v>
       </c>
-      <c r="Y23" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="15" t="s">
+      <c r="Z23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AA23" s="15" t="s">
+      <c r="AB23" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AB23" s="15" t="s">
+      <c r="AC23" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AC23" s="15" t="s">
+      <c r="AD23" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AD23" s="15">
+      <c r="AE23" s="15">
         <v>20</v>
       </c>
-      <c r="AE23" s="15">
+      <c r="AF23" s="15">
         <v>4.5</v>
       </c>
-      <c r="AF23" s="96" t="s">
+      <c r="AG23" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="AG23" s="15" t="s">
+      <c r="AH23" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AH23" s="15" t="s">
+      <c r="AI23" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="AI23" s="15" t="s">
+      <c r="AJ23" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AJ23" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK23" s="18"/>
+      <c r="AK23" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="AL23" s="18"/>
       <c r="AM23" s="18"/>
-      <c r="AN23" s="107"/>
-      <c r="AO23" s="84"/>
-      <c r="AP23" s="18"/>
-      <c r="AQ23" s="107"/>
-      <c r="AR23" s="16"/>
-      <c r="AS23" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT23" s="107"/>
-      <c r="AU23" s="74"/>
-      <c r="AV23" s="92"/>
-      <c r="AW23" s="18"/>
+      <c r="AN23" s="18"/>
+      <c r="AO23" s="107"/>
+      <c r="AP23" s="84"/>
+      <c r="AQ23" s="18"/>
+      <c r="AR23" s="107"/>
+      <c r="AS23" s="16"/>
+      <c r="AT23" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="107"/>
+      <c r="AV23" s="74"/>
+      <c r="AW23" s="92"/>
       <c r="AX23" s="18"/>
-      <c r="AY23" s="16"/>
-    </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY23" s="18"/>
+      <c r="AZ23" s="16"/>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -5667,28 +5707,29 @@
       <c r="AC24" s="69"/>
       <c r="AD24" s="69"/>
       <c r="AE24" s="69"/>
-      <c r="AF24" s="103"/>
-      <c r="AG24" s="69"/>
+      <c r="AF24" s="69"/>
+      <c r="AG24" s="103"/>
       <c r="AH24" s="69"/>
       <c r="AI24" s="69"/>
-      <c r="AJ24" s="70"/>
+      <c r="AJ24" s="69"/>
       <c r="AK24" s="70"/>
       <c r="AL24" s="70"/>
       <c r="AM24" s="70"/>
-      <c r="AN24" s="108"/>
-      <c r="AO24" s="83"/>
-      <c r="AP24" s="68"/>
-      <c r="AQ24" s="116"/>
-      <c r="AR24" s="70"/>
+      <c r="AN24" s="70"/>
+      <c r="AO24" s="108"/>
+      <c r="AP24" s="83"/>
+      <c r="AQ24" s="68"/>
+      <c r="AR24" s="116"/>
       <c r="AS24" s="70"/>
-      <c r="AT24" s="108"/>
-      <c r="AU24" s="75"/>
-      <c r="AV24" s="71"/>
-      <c r="AW24" s="69"/>
+      <c r="AT24" s="70"/>
+      <c r="AU24" s="108"/>
+      <c r="AV24" s="75"/>
+      <c r="AW24" s="71"/>
       <c r="AX24" s="69"/>
-      <c r="AY24" s="70"/>
-    </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AY24" s="69"/>
+      <c r="AZ24" s="70"/>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -5713,76 +5754,79 @@
       <c r="W25" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="X25" s="45">
+      <c r="X25" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="45">
         <v>0.3</v>
       </c>
-      <c r="Y25" s="15">
+      <c r="Z25" s="15">
         <v>100</v>
       </c>
-      <c r="Z25" s="15" t="s">
+      <c r="AA25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AA25" s="15" t="s">
+      <c r="AB25" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AB25" s="15" t="s">
+      <c r="AC25" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AC25" s="15" t="s">
+      <c r="AD25" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="96"/>
-      <c r="AG25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="96"/>
       <c r="AH25" s="15"/>
       <c r="AI25" s="15"/>
-      <c r="AJ25" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="AJ25" s="15"/>
       <c r="AK25" s="16" t="b">
         <v>1</v>
       </c>
       <c r="AL25" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="16"/>
-      <c r="AN25" s="109"/>
-      <c r="AO25" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="16"/>
+      <c r="AO25" s="109"/>
+      <c r="AP25" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AP25" s="80">
+      <c r="AQ25" s="80">
         <v>50</v>
       </c>
-      <c r="AQ25" s="122" t="s">
+      <c r="AR25" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="AR25" s="16" t="b">
-        <v>0</v>
-      </c>
       <c r="AS25" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AT25" s="109" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="74" t="s">
+      <c r="AT25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="AV25" s="92">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="18" t="s">
+      <c r="AW25" s="92">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AX25" s="18" t="s">
+      <c r="AY25" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AY25" s="16" t="s">
+      <c r="AZ25" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -5813,34 +5857,35 @@
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
       <c r="AE26" s="15"/>
-      <c r="AF26" s="96"/>
-      <c r="AG26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="96"/>
       <c r="AH26" s="15"/>
       <c r="AI26" s="15"/>
-      <c r="AJ26" s="16"/>
+      <c r="AJ26" s="15"/>
       <c r="AK26" s="16"/>
       <c r="AL26" s="16"/>
       <c r="AM26" s="16"/>
-      <c r="AN26" s="109"/>
-      <c r="AO26" s="82" t="s">
+      <c r="AN26" s="16"/>
+      <c r="AO26" s="109"/>
+      <c r="AP26" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AP26" s="80">
+      <c r="AQ26" s="80">
         <v>50</v>
       </c>
-      <c r="AQ26" s="122" t="s">
+      <c r="AR26" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="AR26" s="16"/>
       <c r="AS26" s="16"/>
-      <c r="AT26" s="109"/>
-      <c r="AU26" s="76"/>
-      <c r="AV26" s="19"/>
-      <c r="AW26" s="15"/>
+      <c r="AT26" s="16"/>
+      <c r="AU26" s="109"/>
+      <c